--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B696B0-E27C-4149-ACC6-ECC61287E8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE8A012-25E7-BE47-B904-93771C3E16C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8400" yWindow="1980" windowWidth="24620" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="25">
   <si>
     <t>m</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Mathematik_und_Statistik</t>
+  </si>
+  <si>
+    <t>Statistik</t>
   </si>
 </sst>
 </file>
@@ -619,11 +622,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q388"/>
+  <dimension ref="A1:Q441"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P347" sqref="P347"/>
+      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I431" sqref="I431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -18156,22 +18159,2080 @@
       <c r="Q387" s="6"/>
     </row>
     <row r="388" spans="1:17" ht="15.75" customHeight="1">
-      <c r="B388" s="6"/>
-      <c r="C388" s="6"/>
-      <c r="D388" s="6"/>
-      <c r="E388" s="6"/>
-      <c r="F388" s="6"/>
-      <c r="G388" s="6"/>
-      <c r="H388" s="6"/>
-      <c r="I388" s="6"/>
-      <c r="J388" s="6"/>
-      <c r="K388" s="6"/>
-      <c r="L388" s="6"/>
-      <c r="M388" s="6"/>
-      <c r="N388" s="6"/>
-      <c r="O388" s="6"/>
+      <c r="A388" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B388" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C388" s="11">
+        <v>1</v>
+      </c>
+      <c r="D388" s="6">
+        <v>4</v>
+      </c>
+      <c r="E388" s="6">
+        <v>1</v>
+      </c>
+      <c r="F388" s="6">
+        <v>1</v>
+      </c>
+      <c r="G388" s="6">
+        <v>3</v>
+      </c>
+      <c r="H388" s="6">
+        <v>2</v>
+      </c>
+      <c r="I388" s="6">
+        <v>12</v>
+      </c>
+      <c r="J388" s="6">
+        <v>6</v>
+      </c>
+      <c r="K388" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L388" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M388" s="6">
+        <v>22</v>
+      </c>
+      <c r="N388" s="6">
+        <v>182</v>
+      </c>
+      <c r="O388" s="6">
+        <v>1</v>
+      </c>
       <c r="P388" s="6"/>
       <c r="Q388" s="6"/>
+    </row>
+    <row r="389" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A389" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B389" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C389" s="6">
+        <v>1</v>
+      </c>
+      <c r="D389" s="6">
+        <v>0</v>
+      </c>
+      <c r="E389" s="6">
+        <v>1</v>
+      </c>
+      <c r="F389" s="6">
+        <v>2</v>
+      </c>
+      <c r="G389" s="6">
+        <v>1</v>
+      </c>
+      <c r="H389" s="6">
+        <v>3</v>
+      </c>
+      <c r="I389" s="6">
+        <v>8</v>
+      </c>
+      <c r="J389" s="6">
+        <v>5</v>
+      </c>
+      <c r="K389" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L389" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M389" s="6">
+        <v>22</v>
+      </c>
+      <c r="N389" s="6">
+        <v>178</v>
+      </c>
+      <c r="O389" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A390" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B390" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C390" s="6">
+        <v>2</v>
+      </c>
+      <c r="D390" s="6">
+        <v>1</v>
+      </c>
+      <c r="E390" s="6">
+        <v>1</v>
+      </c>
+      <c r="F390" s="6">
+        <v>0</v>
+      </c>
+      <c r="G390" s="6">
+        <v>2</v>
+      </c>
+      <c r="H390" s="6">
+        <v>3</v>
+      </c>
+      <c r="I390" s="6">
+        <v>9</v>
+      </c>
+      <c r="J390" s="6">
+        <v>4</v>
+      </c>
+      <c r="K390" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L390" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M390" s="6">
+        <v>28</v>
+      </c>
+      <c r="N390" s="6">
+        <v>192</v>
+      </c>
+      <c r="O390" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A391" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B391" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C391" s="6">
+        <v>1</v>
+      </c>
+      <c r="D391" s="6">
+        <v>3</v>
+      </c>
+      <c r="E391" s="6">
+        <v>1</v>
+      </c>
+      <c r="F391" s="6">
+        <v>2</v>
+      </c>
+      <c r="G391" s="6">
+        <v>1</v>
+      </c>
+      <c r="H391" s="6">
+        <v>2</v>
+      </c>
+      <c r="I391" s="6">
+        <v>8</v>
+      </c>
+      <c r="J391" s="6">
+        <v>4</v>
+      </c>
+      <c r="K391" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L391" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M391" s="6">
+        <v>26</v>
+      </c>
+      <c r="N391" s="6"/>
+      <c r="O391" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A392" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B392" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C392" s="6">
+        <v>0</v>
+      </c>
+      <c r="D392" s="6">
+        <v>2</v>
+      </c>
+      <c r="E392" s="6">
+        <v>0</v>
+      </c>
+      <c r="F392" s="6">
+        <v>3</v>
+      </c>
+      <c r="G392" s="6">
+        <v>0</v>
+      </c>
+      <c r="H392" s="6">
+        <v>4</v>
+      </c>
+      <c r="I392" s="6">
+        <v>11</v>
+      </c>
+      <c r="J392" s="6">
+        <v>5</v>
+      </c>
+      <c r="K392" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L392" s="6"/>
+      <c r="M392" s="6"/>
+      <c r="N392" s="6"/>
+      <c r="O392" s="6"/>
+    </row>
+    <row r="393" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A393" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B393" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C393" s="6">
+        <v>0</v>
+      </c>
+      <c r="D393" s="6">
+        <v>2</v>
+      </c>
+      <c r="E393" s="6">
+        <v>1</v>
+      </c>
+      <c r="F393" s="6">
+        <v>4</v>
+      </c>
+      <c r="G393" s="6">
+        <v>1</v>
+      </c>
+      <c r="H393" s="6">
+        <v>2</v>
+      </c>
+      <c r="I393" s="6">
+        <v>10</v>
+      </c>
+      <c r="J393" s="6">
+        <v>5</v>
+      </c>
+      <c r="K393" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L393" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M393" s="6">
+        <v>21</v>
+      </c>
+      <c r="N393" s="6">
+        <v>185</v>
+      </c>
+      <c r="O393" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A394" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B394" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C394" s="6">
+        <v>2</v>
+      </c>
+      <c r="D394" s="6">
+        <v>1</v>
+      </c>
+      <c r="E394" s="6">
+        <v>3</v>
+      </c>
+      <c r="F394" s="6">
+        <v>2</v>
+      </c>
+      <c r="G394" s="6">
+        <v>1</v>
+      </c>
+      <c r="H394" s="6">
+        <v>1</v>
+      </c>
+      <c r="I394" s="6">
+        <v>10</v>
+      </c>
+      <c r="J394" s="6">
+        <v>6</v>
+      </c>
+      <c r="K394" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L394" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M394" s="6">
+        <v>19</v>
+      </c>
+      <c r="N394" s="6">
+        <v>190</v>
+      </c>
+      <c r="O394" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A395" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B395" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C395" s="6">
+        <v>3</v>
+      </c>
+      <c r="D395" s="6">
+        <v>0</v>
+      </c>
+      <c r="E395" s="6">
+        <v>2</v>
+      </c>
+      <c r="F395" s="6">
+        <v>1</v>
+      </c>
+      <c r="G395" s="6">
+        <v>3</v>
+      </c>
+      <c r="H395" s="6">
+        <v>0</v>
+      </c>
+      <c r="I395" s="6">
+        <v>9</v>
+      </c>
+      <c r="J395" s="6">
+        <v>4</v>
+      </c>
+      <c r="K395" s="6"/>
+      <c r="L395" s="6"/>
+      <c r="M395" s="6"/>
+      <c r="N395" s="6"/>
+      <c r="O395" s="6"/>
+    </row>
+    <row r="396" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A396" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B396" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C396" s="6">
+        <v>1</v>
+      </c>
+      <c r="D396" s="6">
+        <v>2</v>
+      </c>
+      <c r="E396" s="6">
+        <v>1</v>
+      </c>
+      <c r="F396" s="6">
+        <v>2</v>
+      </c>
+      <c r="G396" s="6">
+        <v>2</v>
+      </c>
+      <c r="H396" s="6">
+        <v>0</v>
+      </c>
+      <c r="I396" s="6">
+        <v>8</v>
+      </c>
+      <c r="J396" s="6">
+        <v>5</v>
+      </c>
+      <c r="K396" s="6"/>
+      <c r="L396" s="6"/>
+      <c r="M396" s="6"/>
+      <c r="N396" s="6"/>
+      <c r="O396" s="6"/>
+    </row>
+    <row r="397" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A397" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B397" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C397" s="6">
+        <v>2</v>
+      </c>
+      <c r="D397" s="6">
+        <v>1</v>
+      </c>
+      <c r="E397" s="6">
+        <v>1</v>
+      </c>
+      <c r="F397" s="6">
+        <v>2</v>
+      </c>
+      <c r="G397" s="6">
+        <v>0</v>
+      </c>
+      <c r="H397" s="6">
+        <v>2</v>
+      </c>
+      <c r="I397" s="6">
+        <v>8</v>
+      </c>
+      <c r="J397" s="6">
+        <v>5</v>
+      </c>
+      <c r="K397" s="6"/>
+      <c r="L397" s="6"/>
+      <c r="M397" s="6"/>
+      <c r="N397" s="6"/>
+      <c r="O397" s="6"/>
+    </row>
+    <row r="398" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A398" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B398" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C398" s="6">
+        <v>0</v>
+      </c>
+      <c r="D398" s="6">
+        <v>1</v>
+      </c>
+      <c r="E398" s="6">
+        <v>0</v>
+      </c>
+      <c r="F398" s="6">
+        <v>3</v>
+      </c>
+      <c r="G398" s="6">
+        <v>4</v>
+      </c>
+      <c r="H398" s="6">
+        <v>2</v>
+      </c>
+      <c r="I398" s="6">
+        <v>10</v>
+      </c>
+      <c r="J398" s="6">
+        <v>4</v>
+      </c>
+      <c r="K398" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L398" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M398" s="6">
+        <v>20</v>
+      </c>
+      <c r="N398" s="6">
+        <v>183</v>
+      </c>
+      <c r="O398" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A399" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B399" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C399" s="6">
+        <v>3</v>
+      </c>
+      <c r="D399" s="6">
+        <v>0</v>
+      </c>
+      <c r="E399" s="6">
+        <v>1</v>
+      </c>
+      <c r="F399" s="6">
+        <v>2</v>
+      </c>
+      <c r="G399" s="6">
+        <v>1</v>
+      </c>
+      <c r="H399" s="6">
+        <v>3</v>
+      </c>
+      <c r="I399" s="6">
+        <v>10</v>
+      </c>
+      <c r="J399" s="6">
+        <v>5</v>
+      </c>
+      <c r="K399" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L399" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M399" s="6">
+        <v>25</v>
+      </c>
+      <c r="N399" s="6">
+        <v>180</v>
+      </c>
+      <c r="O399" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A400" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B400" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C400" s="6">
+        <v>0</v>
+      </c>
+      <c r="D400" s="6">
+        <v>3</v>
+      </c>
+      <c r="E400" s="6">
+        <v>2</v>
+      </c>
+      <c r="F400" s="6">
+        <v>1</v>
+      </c>
+      <c r="G400" s="6">
+        <v>2</v>
+      </c>
+      <c r="H400" s="6">
+        <v>1</v>
+      </c>
+      <c r="I400" s="6">
+        <v>9</v>
+      </c>
+      <c r="J400" s="6">
+        <v>5</v>
+      </c>
+      <c r="K400" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L400" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M400" s="6">
+        <v>19</v>
+      </c>
+      <c r="N400" s="6">
+        <v>188</v>
+      </c>
+      <c r="O400" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A401" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B401" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C401" s="6">
+        <v>1</v>
+      </c>
+      <c r="D401" s="6">
+        <v>2</v>
+      </c>
+      <c r="E401" s="6">
+        <v>2</v>
+      </c>
+      <c r="F401" s="6">
+        <v>3</v>
+      </c>
+      <c r="G401" s="6">
+        <v>1</v>
+      </c>
+      <c r="H401" s="6">
+        <v>1</v>
+      </c>
+      <c r="I401" s="6">
+        <v>10</v>
+      </c>
+      <c r="J401" s="6">
+        <v>6</v>
+      </c>
+      <c r="K401" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L401" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M401" s="6">
+        <v>21</v>
+      </c>
+      <c r="N401" s="6">
+        <v>202</v>
+      </c>
+      <c r="O401" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A402" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B402" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C402" s="6">
+        <v>2</v>
+      </c>
+      <c r="D402" s="6">
+        <v>1</v>
+      </c>
+      <c r="E402" s="6">
+        <v>2</v>
+      </c>
+      <c r="F402" s="6">
+        <v>0</v>
+      </c>
+      <c r="G402" s="6">
+        <v>2</v>
+      </c>
+      <c r="H402" s="6">
+        <v>3</v>
+      </c>
+      <c r="I402" s="6">
+        <v>10</v>
+      </c>
+      <c r="J402" s="6">
+        <v>5</v>
+      </c>
+      <c r="K402" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L402" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M402" s="6">
+        <v>21</v>
+      </c>
+      <c r="N402" s="6">
+        <v>175</v>
+      </c>
+      <c r="O402" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A403" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B403" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C403" s="6">
+        <v>0</v>
+      </c>
+      <c r="D403" s="6">
+        <v>4</v>
+      </c>
+      <c r="E403" s="6">
+        <v>1</v>
+      </c>
+      <c r="F403" s="6">
+        <v>3</v>
+      </c>
+      <c r="G403" s="6">
+        <v>0</v>
+      </c>
+      <c r="H403" s="6">
+        <v>2</v>
+      </c>
+      <c r="I403" s="6">
+        <v>10</v>
+      </c>
+      <c r="J403" s="6">
+        <v>4</v>
+      </c>
+      <c r="K403" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L403" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M403" s="6">
+        <v>24</v>
+      </c>
+      <c r="N403" s="6">
+        <v>191</v>
+      </c>
+      <c r="O403" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A404" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B404" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C404" s="6">
+        <v>4</v>
+      </c>
+      <c r="D404" s="6">
+        <v>1</v>
+      </c>
+      <c r="E404" s="6">
+        <v>2</v>
+      </c>
+      <c r="F404" s="6">
+        <v>1</v>
+      </c>
+      <c r="G404" s="6">
+        <v>1</v>
+      </c>
+      <c r="H404" s="6">
+        <v>4</v>
+      </c>
+      <c r="I404" s="6">
+        <v>13</v>
+      </c>
+      <c r="J404" s="6">
+        <v>6</v>
+      </c>
+      <c r="K404" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L404" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M404" s="6">
+        <v>22</v>
+      </c>
+      <c r="N404" s="6">
+        <v>188</v>
+      </c>
+      <c r="O404" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A405" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B405" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C405" s="6">
+        <v>2</v>
+      </c>
+      <c r="D405" s="6">
+        <v>1</v>
+      </c>
+      <c r="E405" s="6">
+        <v>1</v>
+      </c>
+      <c r="F405" s="6">
+        <v>3</v>
+      </c>
+      <c r="G405" s="6">
+        <v>0</v>
+      </c>
+      <c r="H405" s="6">
+        <v>1</v>
+      </c>
+      <c r="I405" s="6">
+        <v>8</v>
+      </c>
+      <c r="J405" s="6">
+        <v>5</v>
+      </c>
+      <c r="K405" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L405" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M405" s="6">
+        <v>27</v>
+      </c>
+      <c r="N405" s="6">
+        <v>172</v>
+      </c>
+      <c r="O405" s="6"/>
+    </row>
+    <row r="406" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A406" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B406" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C406" s="6">
+        <v>2</v>
+      </c>
+      <c r="D406" s="6">
+        <v>2</v>
+      </c>
+      <c r="E406" s="6">
+        <v>2</v>
+      </c>
+      <c r="F406" s="6">
+        <v>3</v>
+      </c>
+      <c r="G406" s="6">
+        <v>0</v>
+      </c>
+      <c r="H406" s="6">
+        <v>0</v>
+      </c>
+      <c r="I406" s="6">
+        <v>9</v>
+      </c>
+      <c r="J406" s="6">
+        <v>4</v>
+      </c>
+      <c r="K406" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L406" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M406" s="6">
+        <v>22</v>
+      </c>
+      <c r="N406" s="6">
+        <v>192</v>
+      </c>
+      <c r="O406" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A407" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B407" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C407" s="6">
+        <v>5</v>
+      </c>
+      <c r="D407" s="6">
+        <v>0</v>
+      </c>
+      <c r="E407" s="6">
+        <v>1</v>
+      </c>
+      <c r="F407" s="6">
+        <v>0</v>
+      </c>
+      <c r="G407" s="6">
+        <v>0</v>
+      </c>
+      <c r="H407" s="6">
+        <v>6</v>
+      </c>
+      <c r="I407" s="6">
+        <v>12</v>
+      </c>
+      <c r="J407" s="6">
+        <v>3</v>
+      </c>
+      <c r="K407" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L407" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M407" s="6">
+        <v>22</v>
+      </c>
+      <c r="N407" s="6">
+        <v>173</v>
+      </c>
+      <c r="O407" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A408" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B408" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C408" s="11">
+        <v>2</v>
+      </c>
+      <c r="D408" s="6">
+        <v>1</v>
+      </c>
+      <c r="E408" s="6">
+        <v>3</v>
+      </c>
+      <c r="F408" s="6">
+        <v>3</v>
+      </c>
+      <c r="G408" s="6">
+        <v>0</v>
+      </c>
+      <c r="H408" s="6">
+        <v>1</v>
+      </c>
+      <c r="I408" s="6">
+        <v>10</v>
+      </c>
+      <c r="J408" s="6">
+        <v>5</v>
+      </c>
+      <c r="K408" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L408" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M408" s="6">
+        <v>21</v>
+      </c>
+      <c r="N408" s="6">
+        <v>192</v>
+      </c>
+      <c r="O408" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A409" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C409" s="6">
+        <v>2</v>
+      </c>
+      <c r="D409" s="6">
+        <v>2</v>
+      </c>
+      <c r="E409" s="6">
+        <v>1</v>
+      </c>
+      <c r="F409" s="6">
+        <v>1</v>
+      </c>
+      <c r="G409" s="6">
+        <v>0</v>
+      </c>
+      <c r="H409" s="6">
+        <v>2</v>
+      </c>
+      <c r="I409" s="6">
+        <v>8</v>
+      </c>
+      <c r="J409" s="6">
+        <v>5</v>
+      </c>
+      <c r="K409" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L409" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M409" s="6">
+        <v>20</v>
+      </c>
+      <c r="N409" s="6">
+        <v>169</v>
+      </c>
+      <c r="O409" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A410" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B410" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C410" s="6">
+        <v>1</v>
+      </c>
+      <c r="D410" s="6">
+        <v>3</v>
+      </c>
+      <c r="E410" s="6">
+        <v>1</v>
+      </c>
+      <c r="F410" s="6">
+        <v>2</v>
+      </c>
+      <c r="G410" s="6">
+        <v>0</v>
+      </c>
+      <c r="H410" s="6">
+        <v>3</v>
+      </c>
+      <c r="I410" s="6">
+        <v>10</v>
+      </c>
+      <c r="J410" s="6">
+        <v>5</v>
+      </c>
+      <c r="K410" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L410" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M410" s="6">
+        <v>19</v>
+      </c>
+      <c r="N410" s="6">
+        <v>185</v>
+      </c>
+      <c r="O410" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A411" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B411" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C411" s="6">
+        <v>1</v>
+      </c>
+      <c r="D411" s="6">
+        <v>2</v>
+      </c>
+      <c r="E411" s="6">
+        <v>2</v>
+      </c>
+      <c r="F411" s="6">
+        <v>2</v>
+      </c>
+      <c r="G411" s="6">
+        <v>3</v>
+      </c>
+      <c r="H411" s="6">
+        <v>0</v>
+      </c>
+      <c r="I411" s="6">
+        <v>10</v>
+      </c>
+      <c r="J411" s="6">
+        <v>5</v>
+      </c>
+      <c r="K411" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L411" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M411" s="6">
+        <v>20</v>
+      </c>
+      <c r="N411" s="6">
+        <v>171</v>
+      </c>
+      <c r="O411" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A412" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B412" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C412" s="6">
+        <v>2</v>
+      </c>
+      <c r="D412" s="6">
+        <v>2</v>
+      </c>
+      <c r="E412" s="6">
+        <v>4</v>
+      </c>
+      <c r="F412" s="6">
+        <v>0</v>
+      </c>
+      <c r="G412" s="6">
+        <v>0</v>
+      </c>
+      <c r="H412" s="6">
+        <v>3</v>
+      </c>
+      <c r="I412" s="6">
+        <v>11</v>
+      </c>
+      <c r="J412" s="6">
+        <v>4</v>
+      </c>
+      <c r="K412" s="6"/>
+      <c r="L412" s="6"/>
+      <c r="M412" s="6"/>
+      <c r="N412" s="6"/>
+      <c r="O412" s="6"/>
+    </row>
+    <row r="413" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A413" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B413" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C413" s="6">
+        <v>2</v>
+      </c>
+      <c r="D413" s="6">
+        <v>0</v>
+      </c>
+      <c r="E413" s="6">
+        <v>2</v>
+      </c>
+      <c r="F413" s="6">
+        <v>3</v>
+      </c>
+      <c r="G413" s="6">
+        <v>0</v>
+      </c>
+      <c r="H413" s="6">
+        <v>1</v>
+      </c>
+      <c r="I413" s="6">
+        <v>8</v>
+      </c>
+      <c r="J413" s="6">
+        <v>4</v>
+      </c>
+      <c r="K413" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L413" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M413" s="6">
+        <v>21</v>
+      </c>
+      <c r="N413" s="6">
+        <v>180</v>
+      </c>
+      <c r="O413" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A414" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B414" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C414" s="6">
+        <v>0</v>
+      </c>
+      <c r="D414" s="6">
+        <v>4</v>
+      </c>
+      <c r="E414" s="6">
+        <v>0</v>
+      </c>
+      <c r="F414" s="6">
+        <v>3</v>
+      </c>
+      <c r="G414" s="6">
+        <v>2</v>
+      </c>
+      <c r="H414" s="6">
+        <v>1</v>
+      </c>
+      <c r="I414" s="6">
+        <v>10</v>
+      </c>
+      <c r="J414" s="6">
+        <v>4</v>
+      </c>
+      <c r="K414" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L414" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M414" s="6">
+        <v>19</v>
+      </c>
+      <c r="N414" s="6">
+        <v>191</v>
+      </c>
+      <c r="O414" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A415" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B415" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C415" s="6">
+        <v>0</v>
+      </c>
+      <c r="D415" s="6">
+        <v>4</v>
+      </c>
+      <c r="E415" s="6">
+        <v>1</v>
+      </c>
+      <c r="F415" s="6">
+        <v>1</v>
+      </c>
+      <c r="G415" s="6">
+        <v>2</v>
+      </c>
+      <c r="H415" s="6">
+        <v>0</v>
+      </c>
+      <c r="I415" s="6">
+        <v>8</v>
+      </c>
+      <c r="J415" s="6">
+        <v>4</v>
+      </c>
+      <c r="K415" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L415" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M415" s="6">
+        <v>19</v>
+      </c>
+      <c r="N415" s="6">
+        <v>186</v>
+      </c>
+      <c r="O415" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A416" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B416" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C416" s="6">
+        <v>1</v>
+      </c>
+      <c r="D416" s="6">
+        <v>1</v>
+      </c>
+      <c r="E416" s="6">
+        <v>1</v>
+      </c>
+      <c r="F416" s="6">
+        <v>3</v>
+      </c>
+      <c r="G416" s="6">
+        <v>3</v>
+      </c>
+      <c r="H416" s="6">
+        <v>0</v>
+      </c>
+      <c r="I416" s="6">
+        <v>9</v>
+      </c>
+      <c r="J416" s="6">
+        <v>5</v>
+      </c>
+      <c r="K416" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L416" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M416" s="6">
+        <v>23</v>
+      </c>
+      <c r="N416" s="6">
+        <v>178</v>
+      </c>
+      <c r="O416" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A417" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B417" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C417" s="6">
+        <v>0</v>
+      </c>
+      <c r="D417" s="6">
+        <v>3</v>
+      </c>
+      <c r="E417" s="6">
+        <v>1</v>
+      </c>
+      <c r="F417" s="6">
+        <v>3</v>
+      </c>
+      <c r="G417" s="6">
+        <v>3</v>
+      </c>
+      <c r="H417" s="6">
+        <v>0</v>
+      </c>
+      <c r="I417" s="6">
+        <v>10</v>
+      </c>
+      <c r="J417" s="6">
+        <v>4</v>
+      </c>
+      <c r="K417" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L417" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M417" s="6">
+        <v>21</v>
+      </c>
+      <c r="N417" s="6">
+        <v>164</v>
+      </c>
+      <c r="O417" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A418" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B418" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C418" s="6">
+        <v>2</v>
+      </c>
+      <c r="D418" s="6">
+        <v>1</v>
+      </c>
+      <c r="E418" s="6">
+        <v>2</v>
+      </c>
+      <c r="F418" s="6">
+        <v>1</v>
+      </c>
+      <c r="G418" s="6">
+        <v>1</v>
+      </c>
+      <c r="H418" s="6">
+        <v>2</v>
+      </c>
+      <c r="I418" s="6">
+        <v>9</v>
+      </c>
+      <c r="J418" s="6">
+        <v>6</v>
+      </c>
+      <c r="K418" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L418" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M418" s="6">
+        <v>22</v>
+      </c>
+      <c r="N418" s="6">
+        <v>182</v>
+      </c>
+      <c r="O418" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A419" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B419" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C419" s="6">
+        <v>3</v>
+      </c>
+      <c r="D419" s="6">
+        <v>2</v>
+      </c>
+      <c r="E419" s="6">
+        <v>0</v>
+      </c>
+      <c r="F419" s="6">
+        <v>3</v>
+      </c>
+      <c r="G419" s="6">
+        <v>1</v>
+      </c>
+      <c r="H419" s="6">
+        <v>1</v>
+      </c>
+      <c r="I419" s="6">
+        <v>10</v>
+      </c>
+      <c r="J419" s="6">
+        <v>5</v>
+      </c>
+      <c r="K419" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L419" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M419" s="6">
+        <v>19</v>
+      </c>
+      <c r="N419" s="6">
+        <v>175</v>
+      </c>
+      <c r="O419" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A420" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B420" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C420" s="6">
+        <v>1</v>
+      </c>
+      <c r="D420" s="6">
+        <v>0</v>
+      </c>
+      <c r="E420" s="6">
+        <v>1</v>
+      </c>
+      <c r="F420" s="6">
+        <v>3</v>
+      </c>
+      <c r="G420" s="6">
+        <v>1</v>
+      </c>
+      <c r="H420" s="6">
+        <v>2</v>
+      </c>
+      <c r="I420" s="6">
+        <v>8</v>
+      </c>
+      <c r="J420" s="6">
+        <v>5</v>
+      </c>
+      <c r="K420" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L420" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M420" s="6">
+        <v>22</v>
+      </c>
+      <c r="N420" s="6">
+        <v>187</v>
+      </c>
+      <c r="O420" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A421" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B421" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C421" s="6">
+        <v>4</v>
+      </c>
+      <c r="D421" s="6">
+        <v>3</v>
+      </c>
+      <c r="E421" s="6">
+        <v>1</v>
+      </c>
+      <c r="F421" s="6">
+        <v>0</v>
+      </c>
+      <c r="G421" s="6">
+        <v>1</v>
+      </c>
+      <c r="H421" s="6">
+        <v>1</v>
+      </c>
+      <c r="I421" s="6">
+        <v>10</v>
+      </c>
+      <c r="J421" s="6">
+        <v>5</v>
+      </c>
+      <c r="K421" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L421" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M421" s="6">
+        <v>20</v>
+      </c>
+      <c r="N421" s="6">
+        <v>189</v>
+      </c>
+      <c r="O421" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A422" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B422" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C422" s="6">
+        <v>1</v>
+      </c>
+      <c r="D422" s="6">
+        <v>1</v>
+      </c>
+      <c r="E422" s="6">
+        <v>1</v>
+      </c>
+      <c r="F422" s="6">
+        <v>0</v>
+      </c>
+      <c r="G422" s="6">
+        <v>3</v>
+      </c>
+      <c r="H422" s="6">
+        <v>2</v>
+      </c>
+      <c r="I422" s="6">
+        <v>8</v>
+      </c>
+      <c r="J422" s="6">
+        <v>5</v>
+      </c>
+      <c r="K422" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L422" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M422" s="6">
+        <v>23</v>
+      </c>
+      <c r="N422" s="6">
+        <v>193</v>
+      </c>
+      <c r="O422" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A423" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B423" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C423" s="6">
+        <v>1</v>
+      </c>
+      <c r="D423" s="6">
+        <v>3</v>
+      </c>
+      <c r="E423" s="6">
+        <v>0</v>
+      </c>
+      <c r="F423" s="6">
+        <v>2</v>
+      </c>
+      <c r="G423" s="6">
+        <v>3</v>
+      </c>
+      <c r="H423" s="6">
+        <v>1</v>
+      </c>
+      <c r="I423" s="6">
+        <v>10</v>
+      </c>
+      <c r="J423" s="6">
+        <v>5</v>
+      </c>
+      <c r="K423" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L423" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M423" s="6">
+        <v>20</v>
+      </c>
+      <c r="N423" s="6">
+        <v>186</v>
+      </c>
+      <c r="O423" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A424" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B424" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C424" s="6">
+        <v>3</v>
+      </c>
+      <c r="D424" s="6">
+        <v>0</v>
+      </c>
+      <c r="E424" s="6">
+        <v>2</v>
+      </c>
+      <c r="F424" s="6">
+        <v>2</v>
+      </c>
+      <c r="G424" s="6">
+        <v>0</v>
+      </c>
+      <c r="H424" s="6">
+        <v>2</v>
+      </c>
+      <c r="I424" s="6">
+        <v>9</v>
+      </c>
+      <c r="J424" s="6">
+        <v>4</v>
+      </c>
+      <c r="K424" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L424" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M424" s="6">
+        <v>20</v>
+      </c>
+      <c r="N424" s="6">
+        <v>197</v>
+      </c>
+      <c r="O424" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A425" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B425" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C425" s="6">
+        <v>0</v>
+      </c>
+      <c r="D425" s="6">
+        <v>0</v>
+      </c>
+      <c r="E425" s="6">
+        <v>4</v>
+      </c>
+      <c r="F425" s="6">
+        <v>5</v>
+      </c>
+      <c r="G425" s="6">
+        <v>1</v>
+      </c>
+      <c r="H425" s="6">
+        <v>0</v>
+      </c>
+      <c r="I425" s="6">
+        <v>10</v>
+      </c>
+      <c r="J425" s="6">
+        <v>3</v>
+      </c>
+      <c r="K425" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L425" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M425" s="6">
+        <v>21</v>
+      </c>
+      <c r="N425" s="6">
+        <v>180</v>
+      </c>
+      <c r="O425" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A426" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B426" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C426" s="6">
+        <v>4</v>
+      </c>
+      <c r="D426" s="6">
+        <v>0</v>
+      </c>
+      <c r="E426" s="6">
+        <v>2</v>
+      </c>
+      <c r="F426" s="6">
+        <v>2</v>
+      </c>
+      <c r="G426" s="6">
+        <v>1</v>
+      </c>
+      <c r="H426" s="6">
+        <v>2</v>
+      </c>
+      <c r="I426" s="6">
+        <v>11</v>
+      </c>
+      <c r="J426" s="6">
+        <v>5</v>
+      </c>
+      <c r="K426" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L426" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M426" s="6">
+        <v>22</v>
+      </c>
+      <c r="N426" s="6">
+        <v>187</v>
+      </c>
+      <c r="O426" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A427" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B427" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C427" s="6">
+        <v>1</v>
+      </c>
+      <c r="D427" s="6">
+        <v>4</v>
+      </c>
+      <c r="E427" s="6">
+        <v>0</v>
+      </c>
+      <c r="F427" s="6">
+        <v>2</v>
+      </c>
+      <c r="G427" s="6">
+        <v>2</v>
+      </c>
+      <c r="H427" s="6">
+        <v>1</v>
+      </c>
+      <c r="I427" s="6">
+        <v>10</v>
+      </c>
+      <c r="J427" s="6">
+        <v>5</v>
+      </c>
+      <c r="K427" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L427" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M427" s="6">
+        <v>19</v>
+      </c>
+      <c r="N427" s="6">
+        <v>186</v>
+      </c>
+      <c r="O427" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A428" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B428" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C428" s="6">
+        <v>0</v>
+      </c>
+      <c r="D428" s="6">
+        <v>1</v>
+      </c>
+      <c r="E428" s="6">
+        <v>2</v>
+      </c>
+      <c r="F428" s="6">
+        <v>3</v>
+      </c>
+      <c r="G428" s="6">
+        <v>0</v>
+      </c>
+      <c r="H428" s="6">
+        <v>3</v>
+      </c>
+      <c r="I428" s="6">
+        <v>9</v>
+      </c>
+      <c r="J428" s="6">
+        <v>4</v>
+      </c>
+      <c r="K428" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L428" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M428" s="6"/>
+      <c r="N428" s="6"/>
+      <c r="O428" s="6"/>
+    </row>
+    <row r="429" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A429" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B429" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C429" s="6">
+        <v>2</v>
+      </c>
+      <c r="D429" s="6">
+        <v>1</v>
+      </c>
+      <c r="E429" s="6">
+        <v>2</v>
+      </c>
+      <c r="F429" s="6">
+        <v>2</v>
+      </c>
+      <c r="G429" s="6">
+        <v>1</v>
+      </c>
+      <c r="H429" s="6">
+        <v>2</v>
+      </c>
+      <c r="I429" s="6">
+        <v>10</v>
+      </c>
+      <c r="J429" s="6">
+        <v>6</v>
+      </c>
+      <c r="K429" s="6"/>
+      <c r="L429" s="6"/>
+      <c r="M429" s="6"/>
+      <c r="N429" s="6"/>
+      <c r="O429" s="6"/>
+    </row>
+    <row r="430" spans="1:15" ht="15.75" customHeight="1">
+      <c r="D430" s="6"/>
+      <c r="E430" s="6"/>
+      <c r="F430" s="6"/>
+      <c r="G430" s="6"/>
+      <c r="H430" s="6"/>
+      <c r="I430" s="6"/>
+      <c r="J430" s="6"/>
+      <c r="K430" s="6"/>
+      <c r="L430" s="6"/>
+      <c r="M430" s="6"/>
+      <c r="N430" s="6"/>
+      <c r="O430" s="6"/>
+    </row>
+    <row r="431" spans="1:15" ht="15.75" customHeight="1">
+      <c r="D431" s="6"/>
+      <c r="E431" s="6"/>
+      <c r="F431" s="6"/>
+      <c r="G431" s="6"/>
+      <c r="H431" s="6"/>
+      <c r="I431" s="6"/>
+      <c r="J431" s="6"/>
+      <c r="K431" s="6"/>
+      <c r="L431" s="6"/>
+      <c r="M431" s="6"/>
+      <c r="N431" s="6"/>
+      <c r="O431" s="6"/>
+    </row>
+    <row r="432" spans="1:15" ht="15.75" customHeight="1">
+      <c r="D432" s="6"/>
+      <c r="E432" s="6"/>
+      <c r="F432" s="6"/>
+      <c r="G432" s="6"/>
+      <c r="H432" s="6"/>
+      <c r="I432" s="6"/>
+      <c r="J432" s="6"/>
+      <c r="K432" s="6"/>
+      <c r="L432" s="6"/>
+      <c r="M432" s="6"/>
+      <c r="N432" s="6"/>
+      <c r="O432" s="6"/>
+    </row>
+    <row r="433" spans="4:15" ht="15.75" customHeight="1">
+      <c r="D433" s="6"/>
+      <c r="E433" s="6"/>
+      <c r="F433" s="6"/>
+      <c r="G433" s="6"/>
+      <c r="H433" s="6"/>
+      <c r="I433" s="6"/>
+      <c r="J433" s="6"/>
+      <c r="K433" s="6"/>
+      <c r="L433" s="6"/>
+      <c r="M433" s="6"/>
+      <c r="N433" s="6"/>
+      <c r="O433" s="6"/>
+    </row>
+    <row r="434" spans="4:15" ht="15.75" customHeight="1">
+      <c r="D434" s="6"/>
+      <c r="E434" s="6"/>
+      <c r="F434" s="6"/>
+      <c r="G434" s="6"/>
+      <c r="H434" s="6"/>
+      <c r="I434" s="6"/>
+      <c r="J434" s="6"/>
+      <c r="K434" s="6"/>
+      <c r="L434" s="6"/>
+      <c r="M434" s="6"/>
+      <c r="N434" s="6"/>
+      <c r="O434" s="6"/>
+    </row>
+    <row r="435" spans="4:15" ht="15.75" customHeight="1">
+      <c r="D435" s="6"/>
+      <c r="E435" s="6"/>
+      <c r="F435" s="6"/>
+      <c r="G435" s="6"/>
+      <c r="H435" s="6"/>
+      <c r="I435" s="6"/>
+      <c r="J435" s="6"/>
+      <c r="K435" s="6"/>
+      <c r="L435" s="6"/>
+      <c r="M435" s="6"/>
+      <c r="N435" s="6"/>
+      <c r="O435" s="6"/>
+    </row>
+    <row r="436" spans="4:15" ht="15.75" customHeight="1">
+      <c r="D436" s="6"/>
+      <c r="E436" s="6"/>
+      <c r="F436" s="6"/>
+      <c r="G436" s="6"/>
+      <c r="H436" s="6"/>
+      <c r="I436" s="6"/>
+      <c r="J436" s="6"/>
+      <c r="K436" s="6"/>
+      <c r="L436" s="6"/>
+      <c r="M436" s="6"/>
+      <c r="N436" s="6"/>
+      <c r="O436" s="6"/>
+    </row>
+    <row r="437" spans="4:15" ht="15.75" customHeight="1">
+      <c r="D437" s="6"/>
+      <c r="E437" s="6"/>
+      <c r="F437" s="6"/>
+      <c r="G437" s="6"/>
+      <c r="H437" s="6"/>
+      <c r="I437" s="6"/>
+      <c r="J437" s="6"/>
+      <c r="K437" s="6"/>
+      <c r="L437" s="6"/>
+      <c r="M437" s="6"/>
+      <c r="N437" s="6"/>
+      <c r="O437" s="6"/>
+    </row>
+    <row r="438" spans="4:15" ht="15.75" customHeight="1">
+      <c r="D438" s="6"/>
+      <c r="E438" s="6"/>
+      <c r="F438" s="6"/>
+      <c r="G438" s="6"/>
+      <c r="H438" s="6"/>
+      <c r="I438" s="6"/>
+      <c r="J438" s="6"/>
+      <c r="K438" s="6"/>
+      <c r="L438" s="6"/>
+      <c r="M438" s="6"/>
+      <c r="N438" s="6"/>
+      <c r="O438" s="6"/>
+    </row>
+    <row r="439" spans="4:15" ht="15.75" customHeight="1">
+      <c r="D439" s="6"/>
+      <c r="E439" s="6"/>
+      <c r="F439" s="6"/>
+      <c r="G439" s="6"/>
+      <c r="H439" s="6"/>
+      <c r="I439" s="6"/>
+      <c r="J439" s="6"/>
+      <c r="K439" s="6"/>
+      <c r="L439" s="6"/>
+      <c r="M439" s="6"/>
+      <c r="N439" s="6"/>
+      <c r="O439" s="6"/>
+    </row>
+    <row r="440" spans="4:15" ht="15.75" customHeight="1">
+      <c r="D440" s="6"/>
+      <c r="E440" s="6"/>
+      <c r="F440" s="6"/>
+      <c r="G440" s="6"/>
+      <c r="H440" s="6"/>
+      <c r="I440" s="6"/>
+      <c r="J440" s="6"/>
+      <c r="K440" s="6"/>
+      <c r="L440" s="6"/>
+      <c r="M440" s="6"/>
+      <c r="N440" s="6"/>
+      <c r="O440" s="6"/>
+    </row>
+    <row r="441" spans="4:15" ht="15.75" customHeight="1">
+      <c r="D441" s="6"/>
+      <c r="E441" s="6"/>
+      <c r="F441" s="6"/>
+      <c r="G441" s="6"/>
+      <c r="H441" s="6"/>
+      <c r="I441" s="6"/>
+      <c r="J441" s="6"/>
+      <c r="K441" s="6"/>
+      <c r="L441" s="6"/>
+      <c r="M441" s="6"/>
+      <c r="N441" s="6"/>
+      <c r="O441" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE8A012-25E7-BE47-B904-93771C3E16C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663E31B2-C0B3-184A-8F57-EF2270ECA4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="1980" windowWidth="24620" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="1020" windowWidth="24620" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="26">
   <si>
     <t>m</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Statistik</t>
+  </si>
+  <si>
+    <t>FU Berlin</t>
   </si>
 </sst>
 </file>
@@ -625,8 +628,8 @@
   <dimension ref="A1:Q441"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I431" sqref="I431"/>
+      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A316" sqref="A316:XFD316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -699,6 +702,9 @@
       <c r="A2">
         <v>2018</v>
       </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
@@ -744,6 +750,9 @@
       <c r="A3">
         <v>2018</v>
       </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
@@ -789,6 +798,9 @@
       <c r="A4">
         <v>2018</v>
       </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -834,6 +846,9 @@
       <c r="A5">
         <v>2018</v>
       </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -879,6 +894,9 @@
       <c r="A6">
         <v>2018</v>
       </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
@@ -924,6 +942,9 @@
       <c r="A7">
         <v>2018</v>
       </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -960,6 +981,9 @@
       <c r="A8">
         <v>2018</v>
       </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
@@ -1005,6 +1029,9 @@
       <c r="A9">
         <v>2018</v>
       </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
@@ -1050,6 +1077,9 @@
       <c r="A10">
         <v>2018</v>
       </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
@@ -1095,6 +1125,9 @@
       <c r="A11">
         <v>2018</v>
       </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
@@ -1140,6 +1173,9 @@
       <c r="A12">
         <v>2018</v>
       </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
@@ -1185,6 +1221,9 @@
       <c r="A13">
         <v>2018</v>
       </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
@@ -1230,6 +1269,9 @@
       <c r="A14">
         <v>2018</v>
       </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
@@ -1275,6 +1317,9 @@
       <c r="A15">
         <v>2018</v>
       </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
       <c r="C15" s="1">
         <v>5</v>
       </c>
@@ -1320,6 +1365,9 @@
       <c r="A16">
         <v>2018</v>
       </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
@@ -1365,6 +1413,9 @@
       <c r="A17">
         <v>2018</v>
       </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
@@ -1410,6 +1461,9 @@
       <c r="A18">
         <v>2018</v>
       </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
@@ -1455,6 +1509,9 @@
       <c r="A19">
         <v>2018</v>
       </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
       <c r="C19" s="1">
         <v>4</v>
       </c>
@@ -1497,6 +1554,9 @@
       <c r="A20">
         <v>2018</v>
       </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
@@ -1542,6 +1602,9 @@
       <c r="A21">
         <v>2018</v>
       </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
@@ -1587,6 +1650,9 @@
       <c r="A22">
         <v>2018</v>
       </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
@@ -1632,6 +1698,9 @@
       <c r="A23">
         <v>2018</v>
       </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
@@ -1677,6 +1746,9 @@
       <c r="A24">
         <v>2018</v>
       </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
       <c r="C24" s="1">
         <v>2</v>
       </c>
@@ -1722,6 +1794,9 @@
       <c r="A25">
         <v>2018</v>
       </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
@@ -1767,6 +1842,9 @@
       <c r="A26">
         <v>2018</v>
       </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
@@ -1812,6 +1890,9 @@
       <c r="A27">
         <v>2018</v>
       </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
       <c r="C27" s="1">
         <v>3</v>
       </c>
@@ -1857,6 +1938,9 @@
       <c r="A28">
         <v>2018</v>
       </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
@@ -1900,6 +1984,9 @@
       <c r="A29">
         <v>2018</v>
       </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
       <c r="C29" s="1">
         <v>2</v>
       </c>
@@ -1945,6 +2032,9 @@
       <c r="A30">
         <v>2018</v>
       </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
@@ -1978,6 +2068,9 @@
       <c r="A31">
         <v>2018</v>
       </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
       <c r="C31" s="1">
         <v>2</v>
       </c>
@@ -2023,6 +2116,9 @@
       <c r="A32">
         <v>2018</v>
       </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
       <c r="C32" s="1">
         <v>5</v>
       </c>
@@ -2068,6 +2164,9 @@
       <c r="A33">
         <v>2018</v>
       </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
       <c r="C33" s="1">
         <v>2</v>
       </c>
@@ -2113,6 +2212,9 @@
       <c r="A34">
         <v>2018</v>
       </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
       <c r="C34" s="1">
         <v>2</v>
       </c>
@@ -2158,6 +2260,9 @@
       <c r="A35">
         <v>2018</v>
       </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
       <c r="C35" s="1">
         <v>3</v>
       </c>
@@ -2203,6 +2308,9 @@
       <c r="A36">
         <v>2018</v>
       </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
@@ -2248,6 +2356,9 @@
       <c r="A37">
         <v>2018</v>
       </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
       <c r="C37" s="1">
         <v>2</v>
       </c>
@@ -2293,6 +2404,9 @@
       <c r="A38">
         <v>2018</v>
       </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
@@ -2338,6 +2452,9 @@
       <c r="A39">
         <v>2018</v>
       </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
       <c r="C39" s="1">
         <v>0</v>
       </c>
@@ -2383,6 +2500,9 @@
       <c r="A40">
         <v>2018</v>
       </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
       <c r="C40" s="1">
         <v>2</v>
       </c>
@@ -2416,6 +2536,9 @@
       <c r="A41">
         <v>2018</v>
       </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
       <c r="C41" s="2">
         <v>0</v>
       </c>
@@ -2461,6 +2584,9 @@
       <c r="A42">
         <v>2018</v>
       </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
       <c r="C42" s="2">
         <v>0</v>
       </c>
@@ -2506,6 +2632,9 @@
       <c r="A43">
         <v>2018</v>
       </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
       <c r="C43" s="1">
         <v>2</v>
       </c>
@@ -2551,6 +2680,9 @@
       <c r="A44">
         <v>2018</v>
       </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
@@ -2596,6 +2728,9 @@
       <c r="A45">
         <v>2018</v>
       </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
       <c r="C45" s="1">
         <v>0</v>
       </c>
@@ -2641,6 +2776,9 @@
       <c r="A46">
         <v>2018</v>
       </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
@@ -2686,6 +2824,9 @@
       <c r="A47">
         <v>2018</v>
       </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
@@ -2731,6 +2872,9 @@
       <c r="A48">
         <v>2018</v>
       </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
       <c r="C48" s="1">
         <v>2</v>
       </c>
@@ -2776,6 +2920,9 @@
       <c r="A49">
         <v>2018</v>
       </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
       <c r="C49" s="1">
         <v>2</v>
       </c>
@@ -2821,6 +2968,9 @@
       <c r="A50">
         <v>2018</v>
       </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
       <c r="C50" s="1">
         <v>2</v>
       </c>
@@ -2866,6 +3016,9 @@
       <c r="A51">
         <v>2018</v>
       </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
       <c r="C51" s="2">
         <v>0</v>
       </c>
@@ -2911,6 +3064,9 @@
       <c r="A52">
         <v>2018</v>
       </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
       <c r="C52" s="1">
         <v>2</v>
       </c>
@@ -2953,6 +3109,9 @@
       <c r="A53">
         <v>2018</v>
       </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
       <c r="C53" s="1">
         <v>0</v>
       </c>
@@ -2998,6 +3157,9 @@
       <c r="A54">
         <v>2018</v>
       </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
       <c r="C54" s="1">
         <v>1</v>
       </c>
@@ -3043,6 +3205,9 @@
       <c r="A55">
         <v>2018</v>
       </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
       <c r="C55" s="1">
         <v>2</v>
       </c>
@@ -3088,6 +3253,9 @@
       <c r="A56">
         <v>2018</v>
       </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
       <c r="C56" s="1">
         <v>0</v>
       </c>
@@ -3121,6 +3289,9 @@
       <c r="A57">
         <v>2018</v>
       </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
       <c r="C57" s="1">
         <v>1</v>
       </c>
@@ -3166,6 +3337,9 @@
       <c r="A58">
         <v>2018</v>
       </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
       <c r="C58" s="1">
         <v>0</v>
       </c>
@@ -3211,6 +3385,9 @@
       <c r="A59">
         <v>2018</v>
       </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
       <c r="C59" s="1">
         <v>2</v>
       </c>
@@ -3256,6 +3433,9 @@
       <c r="A60">
         <v>2018</v>
       </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
       <c r="C60" s="1">
         <v>1</v>
       </c>
@@ -3301,6 +3481,9 @@
       <c r="A61">
         <v>2018</v>
       </c>
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
       <c r="C61" s="1">
         <v>2</v>
       </c>
@@ -3346,6 +3529,9 @@
       <c r="A62">
         <v>2018</v>
       </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
       <c r="C62" s="1">
         <v>2</v>
       </c>
@@ -3388,6 +3574,9 @@
       <c r="A63">
         <v>2018</v>
       </c>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
       <c r="C63" s="1">
         <v>2</v>
       </c>
@@ -3433,6 +3622,9 @@
       <c r="A64">
         <v>2018</v>
       </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
       <c r="C64" s="1">
         <v>2</v>
       </c>
@@ -3478,6 +3670,9 @@
       <c r="A65">
         <v>2018</v>
       </c>
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
       <c r="C65" s="1">
         <v>0</v>
       </c>
@@ -3523,6 +3718,9 @@
       <c r="A66">
         <v>2018</v>
       </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
       <c r="C66" s="1">
         <v>2</v>
       </c>
@@ -3568,6 +3766,9 @@
       <c r="A67">
         <v>2018</v>
       </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
       <c r="C67" s="1">
         <v>2</v>
       </c>
@@ -3613,6 +3814,9 @@
       <c r="A68">
         <v>2018</v>
       </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
       <c r="C68" s="2">
         <v>0</v>
       </c>
@@ -3649,6 +3853,9 @@
       <c r="A69">
         <v>2018</v>
       </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
       <c r="C69" s="1">
         <v>1</v>
       </c>
@@ -3694,6 +3901,9 @@
       <c r="A70">
         <v>2018</v>
       </c>
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
       <c r="C70" s="1">
         <v>1</v>
       </c>
@@ -3739,6 +3949,9 @@
       <c r="A71">
         <v>2018</v>
       </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
       <c r="C71" s="1">
         <v>2</v>
       </c>
@@ -3784,6 +3997,9 @@
       <c r="A72">
         <v>2018</v>
       </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
       <c r="C72" s="1">
         <v>2</v>
       </c>
@@ -3817,6 +4033,9 @@
       <c r="A73">
         <v>2018</v>
       </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
       <c r="C73" s="1">
         <v>2</v>
       </c>
@@ -3862,6 +4081,9 @@
       <c r="A74">
         <v>2018</v>
       </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
       <c r="C74" s="2">
         <v>0</v>
       </c>
@@ -3907,6 +4129,9 @@
       <c r="A75">
         <v>2018</v>
       </c>
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
       <c r="C75" s="1">
         <v>5</v>
       </c>
@@ -3952,6 +4177,9 @@
       <c r="A76">
         <v>2018</v>
       </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
       <c r="C76" s="3">
         <v>0</v>
       </c>
@@ -3997,6 +4225,9 @@
       <c r="A77">
         <v>2018</v>
       </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
       <c r="C77" s="3">
         <v>1</v>
       </c>
@@ -4042,6 +4273,9 @@
       <c r="A78">
         <v>2018</v>
       </c>
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
       <c r="C78" s="3">
         <v>3</v>
       </c>
@@ -4087,6 +4321,9 @@
       <c r="A79">
         <v>2018</v>
       </c>
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
       <c r="C79" s="3">
         <v>2</v>
       </c>
@@ -4132,6 +4369,9 @@
       <c r="A80">
         <v>2018</v>
       </c>
+      <c r="B80" t="s">
+        <v>25</v>
+      </c>
       <c r="C80" s="3">
         <v>0</v>
       </c>
@@ -4177,6 +4417,9 @@
       <c r="A81">
         <v>2018</v>
       </c>
+      <c r="B81" t="s">
+        <v>25</v>
+      </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
@@ -4222,6 +4465,9 @@
       <c r="A82">
         <v>2018</v>
       </c>
+      <c r="B82" t="s">
+        <v>25</v>
+      </c>
       <c r="C82" s="3">
         <v>4</v>
       </c>
@@ -4267,6 +4513,9 @@
       <c r="A83">
         <v>2018</v>
       </c>
+      <c r="B83" t="s">
+        <v>25</v>
+      </c>
       <c r="C83" s="3">
         <v>0</v>
       </c>
@@ -4312,6 +4561,9 @@
       <c r="A84">
         <v>2018</v>
       </c>
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
       <c r="C84" s="3">
         <v>2</v>
       </c>
@@ -4357,6 +4609,9 @@
       <c r="A85">
         <v>2018</v>
       </c>
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
       <c r="C85" s="5">
         <v>2</v>
       </c>
@@ -4402,6 +4657,9 @@
       <c r="A86">
         <v>2018</v>
       </c>
+      <c r="B86" t="s">
+        <v>25</v>
+      </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
@@ -4447,6 +4705,9 @@
       <c r="A87">
         <v>2018</v>
       </c>
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
       <c r="C87" s="3">
         <v>0</v>
       </c>
@@ -4492,6 +4753,9 @@
       <c r="A88">
         <v>2018</v>
       </c>
+      <c r="B88" t="s">
+        <v>25</v>
+      </c>
       <c r="C88" s="3">
         <v>2</v>
       </c>
@@ -4537,6 +4801,9 @@
       <c r="A89">
         <v>2018</v>
       </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
@@ -4582,6 +4849,9 @@
       <c r="A90">
         <v>2018</v>
       </c>
+      <c r="B90" t="s">
+        <v>25</v>
+      </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
@@ -4627,6 +4897,9 @@
       <c r="A91">
         <v>2018</v>
       </c>
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
       <c r="C91" s="3">
         <v>2</v>
       </c>
@@ -4672,6 +4945,9 @@
       <c r="A92">
         <v>2018</v>
       </c>
+      <c r="B92" t="s">
+        <v>25</v>
+      </c>
       <c r="C92" s="3">
         <v>0</v>
       </c>
@@ -4717,6 +4993,9 @@
       <c r="A93">
         <v>2018</v>
       </c>
+      <c r="B93" t="s">
+        <v>25</v>
+      </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
@@ -4762,6 +5041,9 @@
       <c r="A94">
         <v>2018</v>
       </c>
+      <c r="B94" t="s">
+        <v>25</v>
+      </c>
       <c r="C94" s="3">
         <v>2</v>
       </c>
@@ -4807,6 +5089,9 @@
       <c r="A95">
         <v>2019</v>
       </c>
+      <c r="B95" t="s">
+        <v>25</v>
+      </c>
       <c r="C95">
         <v>0</v>
       </c>
@@ -4851,6 +5136,9 @@
       <c r="A96">
         <v>2019</v>
       </c>
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
       <c r="C96">
         <v>3</v>
       </c>
@@ -4895,6 +5183,9 @@
       <c r="A97">
         <v>2019</v>
       </c>
+      <c r="B97" t="s">
+        <v>25</v>
+      </c>
       <c r="C97">
         <v>1</v>
       </c>
@@ -4939,6 +5230,9 @@
       <c r="A98">
         <v>2019</v>
       </c>
+      <c r="B98" t="s">
+        <v>25</v>
+      </c>
       <c r="C98">
         <v>1</v>
       </c>
@@ -4983,6 +5277,9 @@
       <c r="A99">
         <v>2019</v>
       </c>
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
       <c r="C99">
         <v>2</v>
       </c>
@@ -5027,6 +5324,9 @@
       <c r="A100">
         <v>2019</v>
       </c>
+      <c r="B100" t="s">
+        <v>25</v>
+      </c>
       <c r="C100">
         <v>2</v>
       </c>
@@ -5059,6 +5359,9 @@
       <c r="A101">
         <v>2019</v>
       </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
       <c r="C101">
         <v>4</v>
       </c>
@@ -5094,6 +5397,9 @@
       <c r="A102">
         <v>2019</v>
       </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
       <c r="C102">
         <v>2</v>
       </c>
@@ -5138,6 +5444,9 @@
       <c r="A103">
         <v>2019</v>
       </c>
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
       <c r="C103">
         <v>3</v>
       </c>
@@ -5179,6 +5488,9 @@
       <c r="A104">
         <v>2019</v>
       </c>
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
       <c r="C104">
         <v>1</v>
       </c>
@@ -5223,6 +5535,9 @@
       <c r="A105">
         <v>2019</v>
       </c>
+      <c r="B105" t="s">
+        <v>25</v>
+      </c>
       <c r="C105">
         <v>3</v>
       </c>
@@ -5267,6 +5582,9 @@
       <c r="A106">
         <v>2019</v>
       </c>
+      <c r="B106" t="s">
+        <v>25</v>
+      </c>
       <c r="C106">
         <v>4</v>
       </c>
@@ -5311,6 +5629,9 @@
       <c r="A107">
         <v>2019</v>
       </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
       <c r="C107">
         <v>1</v>
       </c>
@@ -5355,6 +5676,9 @@
       <c r="A108">
         <v>2019</v>
       </c>
+      <c r="B108" t="s">
+        <v>25</v>
+      </c>
       <c r="C108">
         <v>1</v>
       </c>
@@ -5399,6 +5723,9 @@
       <c r="A109">
         <v>2019</v>
       </c>
+      <c r="B109" t="s">
+        <v>25</v>
+      </c>
       <c r="C109">
         <v>1</v>
       </c>
@@ -5443,6 +5770,9 @@
       <c r="A110">
         <v>2019</v>
       </c>
+      <c r="B110" t="s">
+        <v>25</v>
+      </c>
       <c r="C110">
         <v>1</v>
       </c>
@@ -5487,6 +5817,9 @@
       <c r="A111">
         <v>2019</v>
       </c>
+      <c r="B111" t="s">
+        <v>25</v>
+      </c>
       <c r="C111">
         <v>4</v>
       </c>
@@ -5531,6 +5864,9 @@
       <c r="A112">
         <v>2019</v>
       </c>
+      <c r="B112" t="s">
+        <v>25</v>
+      </c>
       <c r="C112">
         <v>1</v>
       </c>
@@ -5575,6 +5911,9 @@
       <c r="A113">
         <v>2019</v>
       </c>
+      <c r="B113" t="s">
+        <v>25</v>
+      </c>
       <c r="C113">
         <v>3</v>
       </c>
@@ -5619,6 +5958,9 @@
       <c r="A114">
         <v>2019</v>
       </c>
+      <c r="B114" t="s">
+        <v>25</v>
+      </c>
       <c r="C114">
         <v>2</v>
       </c>
@@ -5663,6 +6005,9 @@
       <c r="A115">
         <v>2019</v>
       </c>
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
       <c r="C115">
         <v>1</v>
       </c>
@@ -5707,6 +6052,9 @@
       <c r="A116">
         <v>2019</v>
       </c>
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
       <c r="C116">
         <v>3</v>
       </c>
@@ -5751,6 +6099,9 @@
       <c r="A117">
         <v>2019</v>
       </c>
+      <c r="B117" t="s">
+        <v>25</v>
+      </c>
       <c r="C117">
         <v>0</v>
       </c>
@@ -5795,6 +6146,9 @@
       <c r="A118">
         <v>2019</v>
       </c>
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
       <c r="C118">
         <v>2</v>
       </c>
@@ -5839,6 +6193,9 @@
       <c r="A119">
         <v>2019</v>
       </c>
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
       <c r="C119">
         <v>1</v>
       </c>
@@ -5883,6 +6240,9 @@
       <c r="A120">
         <v>2019</v>
       </c>
+      <c r="B120" t="s">
+        <v>25</v>
+      </c>
       <c r="C120" s="3">
         <v>2</v>
       </c>
@@ -5925,6 +6285,9 @@
       <c r="A121">
         <v>2019</v>
       </c>
+      <c r="B121" t="s">
+        <v>25</v>
+      </c>
       <c r="C121" s="3">
         <v>2</v>
       </c>
@@ -5967,6 +6330,9 @@
       <c r="A122">
         <v>2019</v>
       </c>
+      <c r="B122" t="s">
+        <v>25</v>
+      </c>
       <c r="C122" s="3">
         <v>0</v>
       </c>
@@ -6009,6 +6375,9 @@
       <c r="A123">
         <v>2019</v>
       </c>
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
       <c r="C123" s="3">
         <v>1</v>
       </c>
@@ -6051,6 +6420,9 @@
       <c r="A124">
         <v>2019</v>
       </c>
+      <c r="B124" t="s">
+        <v>25</v>
+      </c>
       <c r="C124" s="3">
         <v>0</v>
       </c>
@@ -6093,6 +6465,9 @@
       <c r="A125">
         <v>2019</v>
       </c>
+      <c r="B125" t="s">
+        <v>25</v>
+      </c>
       <c r="C125" s="3">
         <v>1</v>
       </c>
@@ -6135,6 +6510,9 @@
       <c r="A126">
         <v>2019</v>
       </c>
+      <c r="B126" t="s">
+        <v>25</v>
+      </c>
       <c r="C126" s="3">
         <v>2</v>
       </c>
@@ -6177,6 +6555,9 @@
       <c r="A127">
         <v>2019</v>
       </c>
+      <c r="B127" t="s">
+        <v>25</v>
+      </c>
       <c r="C127" s="3">
         <v>2</v>
       </c>
@@ -6217,6 +6598,9 @@
       <c r="A128">
         <v>2019</v>
       </c>
+      <c r="B128" t="s">
+        <v>25</v>
+      </c>
       <c r="C128" s="3">
         <v>0</v>
       </c>
@@ -6255,6 +6639,9 @@
       <c r="A129">
         <v>2019</v>
       </c>
+      <c r="B129" t="s">
+        <v>25</v>
+      </c>
       <c r="C129" s="3">
         <v>2</v>
       </c>
@@ -6297,6 +6684,9 @@
       <c r="A130">
         <v>2019</v>
       </c>
+      <c r="B130" t="s">
+        <v>25</v>
+      </c>
       <c r="C130" s="3">
         <v>2</v>
       </c>
@@ -6339,6 +6729,9 @@
       <c r="A131">
         <v>2019</v>
       </c>
+      <c r="B131" t="s">
+        <v>25</v>
+      </c>
       <c r="C131" s="3">
         <v>1</v>
       </c>
@@ -6381,6 +6774,9 @@
       <c r="A132">
         <v>2019</v>
       </c>
+      <c r="B132" t="s">
+        <v>25</v>
+      </c>
       <c r="C132" s="3">
         <v>1</v>
       </c>
@@ -6423,6 +6819,9 @@
       <c r="A133">
         <v>2019</v>
       </c>
+      <c r="B133" t="s">
+        <v>25</v>
+      </c>
       <c r="C133" s="3">
         <v>0</v>
       </c>
@@ -6465,6 +6864,9 @@
       <c r="A134">
         <v>2019</v>
       </c>
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
       <c r="C134" s="3">
         <v>1</v>
       </c>
@@ -6507,6 +6909,9 @@
       <c r="A135">
         <v>2019</v>
       </c>
+      <c r="B135" t="s">
+        <v>25</v>
+      </c>
       <c r="C135" s="3">
         <v>1</v>
       </c>
@@ -6549,6 +6954,9 @@
       <c r="A136">
         <v>2019</v>
       </c>
+      <c r="B136" t="s">
+        <v>25</v>
+      </c>
       <c r="C136">
         <v>1</v>
       </c>
@@ -6593,6 +7001,9 @@
       <c r="A137">
         <v>2019</v>
       </c>
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
       <c r="C137">
         <v>3</v>
       </c>
@@ -6637,6 +7048,9 @@
       <c r="A138">
         <v>2019</v>
       </c>
+      <c r="B138" t="s">
+        <v>25</v>
+      </c>
       <c r="C138">
         <v>2</v>
       </c>
@@ -6681,6 +7095,9 @@
       <c r="A139">
         <v>2019</v>
       </c>
+      <c r="B139" t="s">
+        <v>25</v>
+      </c>
       <c r="C139">
         <v>1</v>
       </c>
@@ -6725,6 +7142,9 @@
       <c r="A140">
         <v>2019</v>
       </c>
+      <c r="B140" t="s">
+        <v>25</v>
+      </c>
       <c r="C140">
         <v>1</v>
       </c>
@@ -6769,6 +7189,9 @@
       <c r="A141">
         <v>2019</v>
       </c>
+      <c r="B141" t="s">
+        <v>25</v>
+      </c>
       <c r="C141">
         <v>0</v>
       </c>
@@ -6813,6 +7236,9 @@
       <c r="A142">
         <v>2019</v>
       </c>
+      <c r="B142" t="s">
+        <v>25</v>
+      </c>
       <c r="C142">
         <v>0</v>
       </c>
@@ -6857,6 +7283,9 @@
       <c r="A143">
         <v>2019</v>
       </c>
+      <c r="B143" t="s">
+        <v>25</v>
+      </c>
       <c r="C143">
         <v>0</v>
       </c>
@@ -6901,6 +7330,9 @@
       <c r="A144">
         <v>2019</v>
       </c>
+      <c r="B144" t="s">
+        <v>25</v>
+      </c>
       <c r="C144">
         <v>1</v>
       </c>
@@ -6945,6 +7377,9 @@
       <c r="A145">
         <v>2019</v>
       </c>
+      <c r="B145" t="s">
+        <v>25</v>
+      </c>
       <c r="C145">
         <v>2</v>
       </c>
@@ -6989,6 +7424,9 @@
       <c r="A146">
         <v>2019</v>
       </c>
+      <c r="B146" t="s">
+        <v>25</v>
+      </c>
       <c r="C146">
         <v>2</v>
       </c>
@@ -7033,6 +7471,9 @@
       <c r="A147">
         <v>2019</v>
       </c>
+      <c r="B147" t="s">
+        <v>25</v>
+      </c>
       <c r="C147">
         <v>1</v>
       </c>
@@ -7077,6 +7518,9 @@
       <c r="A148">
         <v>2019</v>
       </c>
+      <c r="B148" t="s">
+        <v>25</v>
+      </c>
       <c r="C148">
         <v>2</v>
       </c>
@@ -7121,6 +7565,9 @@
       <c r="A149">
         <v>2019</v>
       </c>
+      <c r="B149" t="s">
+        <v>25</v>
+      </c>
       <c r="C149">
         <v>2</v>
       </c>
@@ -7165,6 +7612,9 @@
       <c r="A150">
         <v>2019</v>
       </c>
+      <c r="B150" t="s">
+        <v>25</v>
+      </c>
       <c r="C150">
         <v>1</v>
       </c>
@@ -7209,6 +7659,9 @@
       <c r="A151">
         <v>2019</v>
       </c>
+      <c r="B151" t="s">
+        <v>25</v>
+      </c>
       <c r="C151">
         <v>4</v>
       </c>
@@ -7253,6 +7706,9 @@
       <c r="A152">
         <v>2019</v>
       </c>
+      <c r="B152" t="s">
+        <v>25</v>
+      </c>
       <c r="C152">
         <v>2</v>
       </c>
@@ -7297,6 +7753,9 @@
       <c r="A153">
         <v>2019</v>
       </c>
+      <c r="B153" t="s">
+        <v>25</v>
+      </c>
       <c r="C153">
         <v>1</v>
       </c>
@@ -7341,6 +7800,9 @@
       <c r="A154">
         <v>2019</v>
       </c>
+      <c r="B154" t="s">
+        <v>25</v>
+      </c>
       <c r="C154">
         <v>3</v>
       </c>
@@ -7385,6 +7847,9 @@
       <c r="A155">
         <v>2019</v>
       </c>
+      <c r="B155" t="s">
+        <v>25</v>
+      </c>
       <c r="C155">
         <v>0</v>
       </c>
@@ -7429,6 +7894,9 @@
       <c r="A156">
         <v>2021</v>
       </c>
+      <c r="B156" t="s">
+        <v>25</v>
+      </c>
       <c r="C156" s="3">
         <v>2</v>
       </c>
@@ -7473,6 +7941,9 @@
       <c r="A157">
         <v>2021</v>
       </c>
+      <c r="B157" t="s">
+        <v>25</v>
+      </c>
       <c r="C157" s="3">
         <v>1</v>
       </c>
@@ -7517,6 +7988,9 @@
       <c r="A158">
         <v>2021</v>
       </c>
+      <c r="B158" t="s">
+        <v>25</v>
+      </c>
       <c r="C158" s="3">
         <v>1</v>
       </c>
@@ -7561,6 +8035,9 @@
       <c r="A159">
         <v>2021</v>
       </c>
+      <c r="B159" t="s">
+        <v>25</v>
+      </c>
       <c r="C159" s="3">
         <v>2</v>
       </c>
@@ -7605,6 +8082,9 @@
       <c r="A160">
         <v>2021</v>
       </c>
+      <c r="B160" t="s">
+        <v>25</v>
+      </c>
       <c r="C160" s="3">
         <v>2</v>
       </c>
@@ -7649,6 +8129,9 @@
       <c r="A161">
         <v>2021</v>
       </c>
+      <c r="B161" t="s">
+        <v>25</v>
+      </c>
       <c r="C161" s="3">
         <v>1</v>
       </c>
@@ -7693,6 +8176,9 @@
       <c r="A162">
         <v>2021</v>
       </c>
+      <c r="B162" t="s">
+        <v>25</v>
+      </c>
       <c r="C162" s="3">
         <v>1</v>
       </c>
@@ -7737,6 +8223,9 @@
       <c r="A163">
         <v>2021</v>
       </c>
+      <c r="B163" t="s">
+        <v>25</v>
+      </c>
       <c r="C163" s="3">
         <v>1</v>
       </c>
@@ -7781,6 +8270,9 @@
       <c r="A164">
         <v>2021</v>
       </c>
+      <c r="B164" t="s">
+        <v>25</v>
+      </c>
       <c r="C164" s="3">
         <v>3</v>
       </c>
@@ -7825,6 +8317,9 @@
       <c r="A165">
         <v>2021</v>
       </c>
+      <c r="B165" t="s">
+        <v>25</v>
+      </c>
       <c r="C165" s="3">
         <v>2</v>
       </c>
@@ -7869,6 +8364,9 @@
       <c r="A166">
         <v>2021</v>
       </c>
+      <c r="B166" t="s">
+        <v>25</v>
+      </c>
       <c r="C166" s="3">
         <v>1</v>
       </c>
@@ -7913,6 +8411,9 @@
       <c r="A167">
         <v>2021</v>
       </c>
+      <c r="B167" t="s">
+        <v>25</v>
+      </c>
       <c r="C167" s="3">
         <v>3</v>
       </c>
@@ -7957,6 +8458,9 @@
       <c r="A168">
         <v>2021</v>
       </c>
+      <c r="B168" t="s">
+        <v>25</v>
+      </c>
       <c r="C168" s="3">
         <v>1</v>
       </c>
@@ -8001,6 +8505,9 @@
       <c r="A169">
         <v>2021</v>
       </c>
+      <c r="B169" t="s">
+        <v>25</v>
+      </c>
       <c r="C169" s="3">
         <v>1</v>
       </c>
@@ -8045,6 +8552,9 @@
       <c r="A170">
         <v>2021</v>
       </c>
+      <c r="B170" t="s">
+        <v>25</v>
+      </c>
       <c r="C170" s="3">
         <v>0</v>
       </c>
@@ -8089,6 +8599,9 @@
       <c r="A171">
         <v>2021</v>
       </c>
+      <c r="B171" t="s">
+        <v>25</v>
+      </c>
       <c r="C171" s="3">
         <v>2</v>
       </c>
@@ -8133,6 +8646,9 @@
       <c r="A172">
         <v>2021</v>
       </c>
+      <c r="B172" t="s">
+        <v>25</v>
+      </c>
       <c r="C172" s="3">
         <v>1</v>
       </c>
@@ -8177,6 +8693,9 @@
       <c r="A173">
         <v>2021</v>
       </c>
+      <c r="B173" t="s">
+        <v>25</v>
+      </c>
       <c r="C173" s="3">
         <v>1</v>
       </c>
@@ -8221,6 +8740,9 @@
       <c r="A174">
         <v>2021</v>
       </c>
+      <c r="B174" t="s">
+        <v>25</v>
+      </c>
       <c r="C174" s="3">
         <v>2</v>
       </c>
@@ -8265,6 +8787,9 @@
       <c r="A175">
         <v>2021</v>
       </c>
+      <c r="B175" t="s">
+        <v>25</v>
+      </c>
       <c r="C175" s="3">
         <v>2</v>
       </c>
@@ -8309,6 +8834,9 @@
       <c r="A176">
         <v>2021</v>
       </c>
+      <c r="B176" t="s">
+        <v>25</v>
+      </c>
       <c r="C176" s="3">
         <v>0</v>
       </c>
@@ -8353,6 +8881,9 @@
       <c r="A177">
         <v>2021</v>
       </c>
+      <c r="B177" t="s">
+        <v>25</v>
+      </c>
       <c r="C177" s="3">
         <v>1</v>
       </c>
@@ -8397,6 +8928,9 @@
       <c r="A178">
         <v>2021</v>
       </c>
+      <c r="B178" t="s">
+        <v>25</v>
+      </c>
       <c r="C178" s="3">
         <v>1</v>
       </c>
@@ -8441,6 +8975,9 @@
       <c r="A179">
         <v>2021</v>
       </c>
+      <c r="B179" t="s">
+        <v>25</v>
+      </c>
       <c r="C179" s="3">
         <v>2</v>
       </c>
@@ -8485,6 +9022,9 @@
       <c r="A180">
         <v>2021</v>
       </c>
+      <c r="B180" t="s">
+        <v>25</v>
+      </c>
       <c r="C180" s="3">
         <v>2</v>
       </c>
@@ -8529,6 +9069,9 @@
       <c r="A181">
         <v>2021</v>
       </c>
+      <c r="B181" t="s">
+        <v>25</v>
+      </c>
       <c r="C181" s="3">
         <v>4</v>
       </c>
@@ -8573,6 +9116,9 @@
       <c r="A182">
         <v>2021</v>
       </c>
+      <c r="B182" t="s">
+        <v>25</v>
+      </c>
       <c r="C182" s="3">
         <v>2</v>
       </c>
@@ -8617,6 +9163,9 @@
       <c r="A183">
         <v>2021</v>
       </c>
+      <c r="B183" t="s">
+        <v>25</v>
+      </c>
       <c r="C183" s="3">
         <v>1</v>
       </c>
@@ -8661,6 +9210,9 @@
       <c r="A184">
         <v>2021</v>
       </c>
+      <c r="B184" t="s">
+        <v>25</v>
+      </c>
       <c r="C184" s="3">
         <v>1</v>
       </c>
@@ -8705,6 +9257,9 @@
       <c r="A185">
         <v>2021</v>
       </c>
+      <c r="B185" t="s">
+        <v>25</v>
+      </c>
       <c r="C185" s="3">
         <v>4</v>
       </c>
@@ -8749,6 +9304,9 @@
       <c r="A186">
         <v>2021</v>
       </c>
+      <c r="B186" t="s">
+        <v>25</v>
+      </c>
       <c r="C186" s="3">
         <v>0</v>
       </c>
@@ -8793,6 +9351,9 @@
       <c r="A187">
         <v>2021</v>
       </c>
+      <c r="B187" t="s">
+        <v>25</v>
+      </c>
       <c r="C187" s="3">
         <v>2</v>
       </c>
@@ -8837,6 +9398,9 @@
       <c r="A188">
         <v>2021</v>
       </c>
+      <c r="B188" t="s">
+        <v>25</v>
+      </c>
       <c r="C188" s="3">
         <v>1</v>
       </c>
@@ -8881,6 +9445,9 @@
       <c r="A189">
         <v>2021</v>
       </c>
+      <c r="B189" t="s">
+        <v>25</v>
+      </c>
       <c r="C189" s="3">
         <v>1</v>
       </c>
@@ -8925,6 +9492,9 @@
       <c r="A190">
         <v>2021</v>
       </c>
+      <c r="B190" t="s">
+        <v>25</v>
+      </c>
       <c r="C190" s="3">
         <v>1</v>
       </c>
@@ -8969,6 +9539,9 @@
       <c r="A191">
         <v>2021</v>
       </c>
+      <c r="B191" t="s">
+        <v>25</v>
+      </c>
       <c r="C191" s="3">
         <v>1</v>
       </c>
@@ -9013,6 +9586,9 @@
       <c r="A192">
         <v>2021</v>
       </c>
+      <c r="B192" t="s">
+        <v>25</v>
+      </c>
       <c r="C192" s="3">
         <v>2</v>
       </c>
@@ -9057,6 +9633,9 @@
       <c r="A193">
         <v>2021</v>
       </c>
+      <c r="B193" t="s">
+        <v>25</v>
+      </c>
       <c r="C193" s="3">
         <v>0</v>
       </c>
@@ -9101,6 +9680,9 @@
       <c r="A194">
         <v>2021</v>
       </c>
+      <c r="B194" t="s">
+        <v>25</v>
+      </c>
       <c r="C194" s="3">
         <v>3</v>
       </c>
@@ -9145,6 +9727,9 @@
       <c r="A195">
         <v>2021</v>
       </c>
+      <c r="B195" t="s">
+        <v>25</v>
+      </c>
       <c r="C195" s="3">
         <v>4</v>
       </c>
@@ -9189,6 +9774,9 @@
       <c r="A196">
         <v>2021</v>
       </c>
+      <c r="B196" t="s">
+        <v>25</v>
+      </c>
       <c r="C196" s="3">
         <v>2</v>
       </c>
@@ -9233,6 +9821,9 @@
       <c r="A197">
         <v>2021</v>
       </c>
+      <c r="B197" t="s">
+        <v>25</v>
+      </c>
       <c r="C197" s="3">
         <v>1</v>
       </c>
@@ -9277,6 +9868,9 @@
       <c r="A198">
         <v>2021</v>
       </c>
+      <c r="B198" t="s">
+        <v>25</v>
+      </c>
       <c r="C198" s="3">
         <v>1</v>
       </c>
@@ -9321,6 +9915,9 @@
       <c r="A199">
         <v>2021</v>
       </c>
+      <c r="B199" t="s">
+        <v>25</v>
+      </c>
       <c r="C199" s="3">
         <v>2</v>
       </c>
@@ -9365,6 +9962,9 @@
       <c r="A200">
         <v>2021</v>
       </c>
+      <c r="B200" t="s">
+        <v>25</v>
+      </c>
       <c r="C200" s="3">
         <v>3</v>
       </c>
@@ -9409,6 +10009,9 @@
       <c r="A201">
         <v>2021</v>
       </c>
+      <c r="B201" t="s">
+        <v>25</v>
+      </c>
       <c r="C201" s="3">
         <v>3</v>
       </c>
@@ -9453,6 +10056,9 @@
       <c r="A202">
         <v>2021</v>
       </c>
+      <c r="B202" t="s">
+        <v>25</v>
+      </c>
       <c r="C202" s="3">
         <v>4</v>
       </c>
@@ -9497,6 +10103,9 @@
       <c r="A203">
         <v>2021</v>
       </c>
+      <c r="B203" t="s">
+        <v>25</v>
+      </c>
       <c r="C203" s="3">
         <v>2</v>
       </c>
@@ -9541,6 +10150,9 @@
       <c r="A204">
         <v>2021</v>
       </c>
+      <c r="B204" t="s">
+        <v>25</v>
+      </c>
       <c r="C204" s="3">
         <v>2</v>
       </c>
@@ -9583,6 +10195,9 @@
       <c r="A205">
         <v>2021</v>
       </c>
+      <c r="B205" t="s">
+        <v>25</v>
+      </c>
       <c r="C205" s="3">
         <v>0</v>
       </c>
@@ -9627,6 +10242,9 @@
       <c r="A206">
         <v>2021</v>
       </c>
+      <c r="B206" t="s">
+        <v>25</v>
+      </c>
       <c r="C206" s="3">
         <v>1</v>
       </c>
@@ -9671,6 +10289,9 @@
       <c r="A207">
         <v>2021</v>
       </c>
+      <c r="B207" t="s">
+        <v>25</v>
+      </c>
       <c r="C207" s="3">
         <v>1</v>
       </c>
@@ -9715,6 +10336,9 @@
       <c r="A208">
         <v>2021</v>
       </c>
+      <c r="B208" t="s">
+        <v>25</v>
+      </c>
       <c r="C208" s="3">
         <v>4</v>
       </c>
@@ -9759,6 +10383,9 @@
       <c r="A209">
         <v>2021</v>
       </c>
+      <c r="B209" t="s">
+        <v>25</v>
+      </c>
       <c r="C209" s="3">
         <v>2</v>
       </c>
@@ -9803,6 +10430,9 @@
       <c r="A210">
         <v>2021</v>
       </c>
+      <c r="B210" t="s">
+        <v>25</v>
+      </c>
       <c r="C210" s="3">
         <v>2</v>
       </c>
@@ -9847,6 +10477,9 @@
       <c r="A211">
         <v>2021</v>
       </c>
+      <c r="B211" t="s">
+        <v>25</v>
+      </c>
       <c r="C211" s="3">
         <v>3</v>
       </c>
@@ -9890,6 +10523,9 @@
     <row r="212" spans="1:15" ht="15.75" customHeight="1">
       <c r="A212">
         <v>2021</v>
+      </c>
+      <c r="B212" t="s">
+        <v>25</v>
       </c>
       <c r="C212" s="3">
         <v>3</v>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663E31B2-C0B3-184A-8F57-EF2270ECA4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAF98DF-1A8C-9A4B-B4C4-F6F04A09CBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1020" windowWidth="24620" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="26">
   <si>
     <t>m</t>
   </si>
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -164,6 +164,12 @@
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -215,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -243,6 +249,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -625,11 +632,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q441"/>
+  <dimension ref="A1:Q500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A316" sqref="A316:XFD316"/>
+      <pane ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I498" sqref="I498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -645,7 +652,7 @@
     <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -20703,172 +20710,3153 @@
       <c r="O429" s="6"/>
     </row>
     <row r="430" spans="1:15" ht="15.75" customHeight="1">
-      <c r="D430" s="6"/>
-      <c r="E430" s="6"/>
-      <c r="F430" s="6"/>
-      <c r="G430" s="6"/>
-      <c r="H430" s="6"/>
-      <c r="I430" s="6"/>
-      <c r="J430" s="6"/>
-      <c r="K430" s="6"/>
-      <c r="L430" s="6"/>
-      <c r="M430" s="6"/>
-      <c r="N430" s="6"/>
-      <c r="O430" s="6"/>
+      <c r="A430" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B430" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C430" s="11">
+        <v>0</v>
+      </c>
+      <c r="D430" s="6">
+        <v>1</v>
+      </c>
+      <c r="E430" s="6">
+        <v>2</v>
+      </c>
+      <c r="F430" s="6">
+        <v>2</v>
+      </c>
+      <c r="G430" s="6">
+        <v>0</v>
+      </c>
+      <c r="H430" s="6">
+        <v>3</v>
+      </c>
+      <c r="I430" s="6">
+        <v>8</v>
+      </c>
+      <c r="J430" s="6">
+        <v>4</v>
+      </c>
+      <c r="K430" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L430" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M430" s="6">
+        <v>19</v>
+      </c>
+      <c r="N430" s="6">
+        <v>190</v>
+      </c>
+      <c r="O430" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="431" spans="1:15" ht="15.75" customHeight="1">
-      <c r="D431" s="6"/>
-      <c r="E431" s="6"/>
-      <c r="F431" s="6"/>
-      <c r="G431" s="6"/>
-      <c r="H431" s="6"/>
-      <c r="I431" s="6"/>
-      <c r="J431" s="6"/>
-      <c r="K431" s="6"/>
-      <c r="L431" s="6"/>
-      <c r="M431" s="6"/>
-      <c r="N431" s="6"/>
-      <c r="O431" s="6"/>
+      <c r="A431" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B431" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C431" s="6">
+        <v>0</v>
+      </c>
+      <c r="D431" s="6">
+        <v>2</v>
+      </c>
+      <c r="E431" s="6">
+        <v>3</v>
+      </c>
+      <c r="F431" s="6">
+        <v>2</v>
+      </c>
+      <c r="G431" s="6">
+        <v>1</v>
+      </c>
+      <c r="H431" s="6">
+        <v>1</v>
+      </c>
+      <c r="I431" s="6">
+        <v>9</v>
+      </c>
+      <c r="J431" s="6">
+        <v>5</v>
+      </c>
+      <c r="K431" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L431" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M431" s="6">
+        <v>27</v>
+      </c>
+      <c r="N431" s="6">
+        <v>184</v>
+      </c>
+      <c r="O431" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="432" spans="1:15" ht="15.75" customHeight="1">
-      <c r="D432" s="6"/>
-      <c r="E432" s="6"/>
-      <c r="F432" s="6"/>
-      <c r="G432" s="6"/>
-      <c r="H432" s="6"/>
-      <c r="I432" s="6"/>
-      <c r="J432" s="6"/>
-      <c r="K432" s="6"/>
-      <c r="L432" s="6"/>
-      <c r="M432" s="6"/>
-      <c r="N432" s="6"/>
-      <c r="O432" s="6"/>
-    </row>
-    <row r="433" spans="4:15" ht="15.75" customHeight="1">
-      <c r="D433" s="6"/>
-      <c r="E433" s="6"/>
-      <c r="F433" s="6"/>
-      <c r="G433" s="6"/>
-      <c r="H433" s="6"/>
-      <c r="I433" s="6"/>
-      <c r="J433" s="6"/>
-      <c r="K433" s="6"/>
-      <c r="L433" s="6"/>
-      <c r="M433" s="6"/>
-      <c r="N433" s="6"/>
-      <c r="O433" s="6"/>
-    </row>
-    <row r="434" spans="4:15" ht="15.75" customHeight="1">
-      <c r="D434" s="6"/>
-      <c r="E434" s="6"/>
-      <c r="F434" s="6"/>
-      <c r="G434" s="6"/>
-      <c r="H434" s="6"/>
-      <c r="I434" s="6"/>
-      <c r="J434" s="6"/>
-      <c r="K434" s="6"/>
-      <c r="L434" s="6"/>
-      <c r="M434" s="6"/>
-      <c r="N434" s="6"/>
-      <c r="O434" s="6"/>
-    </row>
-    <row r="435" spans="4:15" ht="15.75" customHeight="1">
-      <c r="D435" s="6"/>
-      <c r="E435" s="6"/>
-      <c r="F435" s="6"/>
-      <c r="G435" s="6"/>
-      <c r="H435" s="6"/>
-      <c r="I435" s="6"/>
-      <c r="J435" s="6"/>
-      <c r="K435" s="6"/>
-      <c r="L435" s="6"/>
-      <c r="M435" s="6"/>
-      <c r="N435" s="6"/>
-      <c r="O435" s="6"/>
-    </row>
-    <row r="436" spans="4:15" ht="15.75" customHeight="1">
-      <c r="D436" s="6"/>
-      <c r="E436" s="6"/>
-      <c r="F436" s="6"/>
-      <c r="G436" s="6"/>
-      <c r="H436" s="6"/>
-      <c r="I436" s="6"/>
-      <c r="J436" s="6"/>
-      <c r="K436" s="6"/>
-      <c r="L436" s="6"/>
-      <c r="M436" s="6"/>
-      <c r="N436" s="6"/>
-      <c r="O436" s="6"/>
-    </row>
-    <row r="437" spans="4:15" ht="15.75" customHeight="1">
-      <c r="D437" s="6"/>
-      <c r="E437" s="6"/>
-      <c r="F437" s="6"/>
-      <c r="G437" s="6"/>
-      <c r="H437" s="6"/>
-      <c r="I437" s="6"/>
-      <c r="J437" s="6"/>
-      <c r="K437" s="6"/>
-      <c r="L437" s="6"/>
-      <c r="M437" s="6"/>
-      <c r="N437" s="6"/>
-      <c r="O437" s="6"/>
-    </row>
-    <row r="438" spans="4:15" ht="15.75" customHeight="1">
-      <c r="D438" s="6"/>
-      <c r="E438" s="6"/>
-      <c r="F438" s="6"/>
-      <c r="G438" s="6"/>
-      <c r="H438" s="6"/>
-      <c r="I438" s="6"/>
-      <c r="J438" s="6"/>
-      <c r="K438" s="6"/>
-      <c r="L438" s="6"/>
-      <c r="M438" s="6"/>
-      <c r="N438" s="6"/>
-      <c r="O438" s="6"/>
-    </row>
-    <row r="439" spans="4:15" ht="15.75" customHeight="1">
-      <c r="D439" s="6"/>
-      <c r="E439" s="6"/>
-      <c r="F439" s="6"/>
-      <c r="G439" s="6"/>
-      <c r="H439" s="6"/>
-      <c r="I439" s="6"/>
-      <c r="J439" s="6"/>
-      <c r="K439" s="6"/>
-      <c r="L439" s="6"/>
-      <c r="M439" s="6"/>
-      <c r="N439" s="6"/>
-      <c r="O439" s="6"/>
-    </row>
-    <row r="440" spans="4:15" ht="15.75" customHeight="1">
-      <c r="D440" s="6"/>
-      <c r="E440" s="6"/>
-      <c r="F440" s="6"/>
-      <c r="G440" s="6"/>
-      <c r="H440" s="6"/>
-      <c r="I440" s="6"/>
-      <c r="J440" s="6"/>
-      <c r="K440" s="6"/>
-      <c r="L440" s="6"/>
-      <c r="M440" s="6"/>
-      <c r="N440" s="6"/>
-      <c r="O440" s="6"/>
-    </row>
-    <row r="441" spans="4:15" ht="15.75" customHeight="1">
-      <c r="D441" s="6"/>
-      <c r="E441" s="6"/>
-      <c r="F441" s="6"/>
-      <c r="G441" s="6"/>
-      <c r="H441" s="6"/>
-      <c r="I441" s="6"/>
-      <c r="J441" s="6"/>
-      <c r="K441" s="6"/>
-      <c r="L441" s="6"/>
-      <c r="M441" s="6"/>
-      <c r="N441" s="6"/>
-      <c r="O441" s="6"/>
+      <c r="A432" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B432" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C432" s="6">
+        <v>2</v>
+      </c>
+      <c r="D432" s="6">
+        <v>1</v>
+      </c>
+      <c r="E432" s="6">
+        <v>3</v>
+      </c>
+      <c r="F432" s="6">
+        <v>3</v>
+      </c>
+      <c r="G432" s="6">
+        <v>1</v>
+      </c>
+      <c r="H432" s="6">
+        <v>0</v>
+      </c>
+      <c r="I432" s="6">
+        <v>10</v>
+      </c>
+      <c r="J432" s="6">
+        <v>5</v>
+      </c>
+      <c r="K432" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L432" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M432" s="6">
+        <v>20</v>
+      </c>
+      <c r="N432" s="6">
+        <v>186</v>
+      </c>
+      <c r="O432" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A433" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B433" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C433" s="6">
+        <v>3</v>
+      </c>
+      <c r="D433" s="6">
+        <v>0</v>
+      </c>
+      <c r="E433" s="6">
+        <v>1</v>
+      </c>
+      <c r="F433" s="6">
+        <v>0</v>
+      </c>
+      <c r="G433" s="6">
+        <v>1</v>
+      </c>
+      <c r="H433" s="6">
+        <v>3</v>
+      </c>
+      <c r="I433" s="6">
+        <v>8</v>
+      </c>
+      <c r="J433" s="6">
+        <v>4</v>
+      </c>
+      <c r="K433" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L433" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M433" s="6">
+        <v>23</v>
+      </c>
+      <c r="N433" s="6">
+        <v>176</v>
+      </c>
+      <c r="O433" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A434" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B434" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C434" s="6">
+        <v>0</v>
+      </c>
+      <c r="D434" s="6">
+        <v>2</v>
+      </c>
+      <c r="E434" s="6">
+        <v>0</v>
+      </c>
+      <c r="F434" s="6">
+        <v>3</v>
+      </c>
+      <c r="G434" s="6">
+        <v>0</v>
+      </c>
+      <c r="H434" s="6">
+        <v>2</v>
+      </c>
+      <c r="I434" s="6">
+        <v>8</v>
+      </c>
+      <c r="J434" s="6">
+        <v>4</v>
+      </c>
+      <c r="K434" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L434" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M434" s="6">
+        <v>25</v>
+      </c>
+      <c r="N434" s="6">
+        <v>195</v>
+      </c>
+      <c r="O434" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A435" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B435" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C435" s="6">
+        <v>2</v>
+      </c>
+      <c r="D435" s="6">
+        <v>3</v>
+      </c>
+      <c r="E435" s="6">
+        <v>1</v>
+      </c>
+      <c r="F435" s="6">
+        <v>1</v>
+      </c>
+      <c r="G435" s="6">
+        <v>1</v>
+      </c>
+      <c r="H435" s="6">
+        <v>2</v>
+      </c>
+      <c r="I435" s="6">
+        <v>10</v>
+      </c>
+      <c r="J435" s="6">
+        <v>6</v>
+      </c>
+      <c r="K435" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L435" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M435" s="6">
+        <v>23</v>
+      </c>
+      <c r="N435" s="6">
+        <v>170</v>
+      </c>
+      <c r="O435" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A436" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B436" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C436" s="6">
+        <v>1</v>
+      </c>
+      <c r="D436" s="6">
+        <v>0</v>
+      </c>
+      <c r="E436" s="6">
+        <v>3</v>
+      </c>
+      <c r="F436" s="6">
+        <v>1</v>
+      </c>
+      <c r="G436" s="6">
+        <v>1</v>
+      </c>
+      <c r="H436" s="6">
+        <v>2</v>
+      </c>
+      <c r="I436" s="6">
+        <v>8</v>
+      </c>
+      <c r="J436" s="6">
+        <v>5</v>
+      </c>
+      <c r="K436" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L436" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M436" s="6">
+        <v>21</v>
+      </c>
+      <c r="N436" s="6">
+        <v>180</v>
+      </c>
+      <c r="O436" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A437" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B437" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C437" s="6">
+        <v>0</v>
+      </c>
+      <c r="D437" s="6">
+        <v>1</v>
+      </c>
+      <c r="E437" s="6">
+        <v>4</v>
+      </c>
+      <c r="F437" s="6">
+        <v>0</v>
+      </c>
+      <c r="G437" s="6">
+        <v>0</v>
+      </c>
+      <c r="H437" s="6">
+        <v>3</v>
+      </c>
+      <c r="I437" s="6">
+        <v>8</v>
+      </c>
+      <c r="J437" s="6">
+        <v>3</v>
+      </c>
+      <c r="K437" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L437" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M437" s="6">
+        <v>24</v>
+      </c>
+      <c r="N437" s="6">
+        <v>181</v>
+      </c>
+      <c r="O437" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A438" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B438" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C438" s="6">
+        <v>0</v>
+      </c>
+      <c r="D438" s="6">
+        <v>0</v>
+      </c>
+      <c r="E438" s="6">
+        <v>1</v>
+      </c>
+      <c r="F438" s="6">
+        <v>4</v>
+      </c>
+      <c r="G438" s="6">
+        <v>3</v>
+      </c>
+      <c r="H438" s="6">
+        <v>0</v>
+      </c>
+      <c r="I438" s="6">
+        <v>8</v>
+      </c>
+      <c r="J438" s="6">
+        <v>3</v>
+      </c>
+      <c r="K438" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L438" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M438" s="6">
+        <v>21</v>
+      </c>
+      <c r="N438" s="6">
+        <v>190</v>
+      </c>
+      <c r="O438" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A439" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B439" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C439" s="6">
+        <v>0</v>
+      </c>
+      <c r="D439" s="6">
+        <v>1</v>
+      </c>
+      <c r="E439" s="6">
+        <v>2</v>
+      </c>
+      <c r="F439" s="6">
+        <v>2</v>
+      </c>
+      <c r="G439" s="6">
+        <v>2</v>
+      </c>
+      <c r="H439" s="6">
+        <v>1</v>
+      </c>
+      <c r="I439" s="6">
+        <v>8</v>
+      </c>
+      <c r="J439" s="6">
+        <v>5</v>
+      </c>
+      <c r="K439" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L439" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M439" s="6">
+        <v>22</v>
+      </c>
+      <c r="N439" s="6">
+        <v>178</v>
+      </c>
+      <c r="O439" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A440" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B440" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C440" s="6">
+        <v>2</v>
+      </c>
+      <c r="D440" s="6">
+        <v>0</v>
+      </c>
+      <c r="E440" s="6">
+        <v>2</v>
+      </c>
+      <c r="F440" s="6">
+        <v>2</v>
+      </c>
+      <c r="G440" s="6">
+        <v>2</v>
+      </c>
+      <c r="H440" s="6">
+        <v>1</v>
+      </c>
+      <c r="I440" s="6">
+        <v>8</v>
+      </c>
+      <c r="J440" s="6">
+        <v>4</v>
+      </c>
+      <c r="K440" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L440" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M440" s="6">
+        <v>23</v>
+      </c>
+      <c r="N440" s="6">
+        <v>187</v>
+      </c>
+      <c r="O440" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A441" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B441" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C441" s="6">
+        <v>3</v>
+      </c>
+      <c r="D441" s="6">
+        <v>1</v>
+      </c>
+      <c r="E441" s="6">
+        <v>2</v>
+      </c>
+      <c r="F441" s="6">
+        <v>3</v>
+      </c>
+      <c r="G441" s="6">
+        <v>0</v>
+      </c>
+      <c r="H441" s="6">
+        <v>1</v>
+      </c>
+      <c r="I441" s="6">
+        <v>10</v>
+      </c>
+      <c r="J441" s="6">
+        <v>5</v>
+      </c>
+      <c r="K441" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L441" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M441" s="6">
+        <v>22</v>
+      </c>
+      <c r="N441" s="6">
+        <v>170</v>
+      </c>
+      <c r="O441" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A442" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B442" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C442" s="6">
+        <v>1</v>
+      </c>
+      <c r="D442" s="6">
+        <v>0</v>
+      </c>
+      <c r="E442" s="6">
+        <v>2</v>
+      </c>
+      <c r="F442" s="6">
+        <v>4</v>
+      </c>
+      <c r="G442" s="6">
+        <v>1</v>
+      </c>
+      <c r="H442" s="6">
+        <v>1</v>
+      </c>
+      <c r="I442" s="6">
+        <v>9</v>
+      </c>
+      <c r="J442" s="6">
+        <v>5</v>
+      </c>
+      <c r="K442" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L442" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M442" s="6">
+        <v>22</v>
+      </c>
+      <c r="N442" s="6">
+        <v>185</v>
+      </c>
+      <c r="O442" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A443" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B443" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C443" s="6">
+        <v>0</v>
+      </c>
+      <c r="D443" s="6">
+        <v>3</v>
+      </c>
+      <c r="E443" s="6">
+        <v>1</v>
+      </c>
+      <c r="F443" s="6">
+        <v>2</v>
+      </c>
+      <c r="G443" s="6">
+        <v>0</v>
+      </c>
+      <c r="H443" s="6">
+        <v>2</v>
+      </c>
+      <c r="I443" s="6">
+        <v>8</v>
+      </c>
+      <c r="J443" s="6">
+        <v>4</v>
+      </c>
+      <c r="K443" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L443" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M443" s="6">
+        <v>24</v>
+      </c>
+      <c r="N443" s="6">
+        <v>157</v>
+      </c>
+      <c r="O443" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A444" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B444" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C444" s="6">
+        <v>1</v>
+      </c>
+      <c r="D444" s="6">
+        <v>0</v>
+      </c>
+      <c r="E444" s="6">
+        <v>2</v>
+      </c>
+      <c r="F444" s="6">
+        <v>4</v>
+      </c>
+      <c r="G444" s="6">
+        <v>2</v>
+      </c>
+      <c r="H444" s="6">
+        <v>0</v>
+      </c>
+      <c r="I444" s="6">
+        <v>9</v>
+      </c>
+      <c r="J444" s="6">
+        <v>4</v>
+      </c>
+      <c r="K444" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L444" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M444" s="6">
+        <v>21</v>
+      </c>
+      <c r="N444" s="6">
+        <v>194</v>
+      </c>
+      <c r="O444" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A445" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B445" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C445" s="6">
+        <v>1</v>
+      </c>
+      <c r="D445" s="6">
+        <v>0</v>
+      </c>
+      <c r="E445" s="6">
+        <v>1</v>
+      </c>
+      <c r="F445" s="6">
+        <v>5</v>
+      </c>
+      <c r="G445" s="6">
+        <v>0</v>
+      </c>
+      <c r="H445" s="6">
+        <v>1</v>
+      </c>
+      <c r="I445" s="6">
+        <v>8</v>
+      </c>
+      <c r="J445" s="6">
+        <v>4</v>
+      </c>
+      <c r="K445" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L445" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M445" s="6">
+        <v>29</v>
+      </c>
+      <c r="N445" s="6">
+        <v>169</v>
+      </c>
+      <c r="O445" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A446" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B446" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C446" s="6">
+        <v>0</v>
+      </c>
+      <c r="D446" s="6">
+        <v>3</v>
+      </c>
+      <c r="E446" s="6">
+        <v>1</v>
+      </c>
+      <c r="F446" s="6">
+        <v>3</v>
+      </c>
+      <c r="G446" s="6">
+        <v>2</v>
+      </c>
+      <c r="H446" s="6">
+        <v>1</v>
+      </c>
+      <c r="I446" s="6">
+        <v>10</v>
+      </c>
+      <c r="J446" s="6">
+        <v>5</v>
+      </c>
+      <c r="K446" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L446" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M446" s="6">
+        <v>24</v>
+      </c>
+      <c r="N446" s="6">
+        <v>180</v>
+      </c>
+      <c r="O446" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A447" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B447" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C447" s="11">
+        <v>2</v>
+      </c>
+      <c r="D447" s="6">
+        <v>3</v>
+      </c>
+      <c r="E447" s="6">
+        <v>1</v>
+      </c>
+      <c r="F447" s="6">
+        <v>4</v>
+      </c>
+      <c r="G447" s="6">
+        <v>0</v>
+      </c>
+      <c r="H447" s="6">
+        <v>2</v>
+      </c>
+      <c r="I447" s="6">
+        <v>12</v>
+      </c>
+      <c r="J447" s="6">
+        <v>5</v>
+      </c>
+      <c r="K447" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L447" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M447" s="6">
+        <v>22</v>
+      </c>
+      <c r="N447" s="6">
+        <v>173</v>
+      </c>
+      <c r="O447" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A448" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B448" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C448" s="6">
+        <v>2</v>
+      </c>
+      <c r="D448" s="6">
+        <v>0</v>
+      </c>
+      <c r="E448" s="6">
+        <v>0</v>
+      </c>
+      <c r="F448" s="6">
+        <v>4</v>
+      </c>
+      <c r="G448" s="6">
+        <v>1</v>
+      </c>
+      <c r="H448" s="6">
+        <v>3</v>
+      </c>
+      <c r="I448" s="6">
+        <v>8</v>
+      </c>
+      <c r="J448" s="6">
+        <v>4</v>
+      </c>
+      <c r="K448" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L448" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M448" s="6">
+        <v>20</v>
+      </c>
+      <c r="N448" s="6">
+        <v>185</v>
+      </c>
+      <c r="O448" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A449" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B449" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C449" s="6">
+        <v>3</v>
+      </c>
+      <c r="D449" s="6">
+        <v>0</v>
+      </c>
+      <c r="E449" s="6">
+        <v>1</v>
+      </c>
+      <c r="F449" s="6">
+        <v>2</v>
+      </c>
+      <c r="G449" s="6">
+        <v>1</v>
+      </c>
+      <c r="H449" s="6">
+        <v>1</v>
+      </c>
+      <c r="I449" s="6">
+        <v>8</v>
+      </c>
+      <c r="J449" s="6">
+        <v>5</v>
+      </c>
+      <c r="K449" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L449" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M449" s="6">
+        <v>22</v>
+      </c>
+      <c r="N449" s="6">
+        <v>167</v>
+      </c>
+      <c r="O449" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A450" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B450" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C450" s="6">
+        <v>2</v>
+      </c>
+      <c r="D450" s="6">
+        <v>0</v>
+      </c>
+      <c r="E450" s="6">
+        <v>2</v>
+      </c>
+      <c r="F450" s="6">
+        <v>3</v>
+      </c>
+      <c r="G450" s="6">
+        <v>1</v>
+      </c>
+      <c r="H450" s="6">
+        <v>1</v>
+      </c>
+      <c r="I450" s="6">
+        <v>9</v>
+      </c>
+      <c r="J450" s="6">
+        <v>5</v>
+      </c>
+      <c r="K450" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L450" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M450" s="6">
+        <v>21</v>
+      </c>
+      <c r="N450" s="6">
+        <v>178</v>
+      </c>
+      <c r="O450" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A451" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B451" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C451" s="6">
+        <v>2</v>
+      </c>
+      <c r="D451" s="6">
+        <v>1</v>
+      </c>
+      <c r="E451" s="6">
+        <v>3</v>
+      </c>
+      <c r="F451" s="6">
+        <v>2</v>
+      </c>
+      <c r="G451" s="6">
+        <v>1</v>
+      </c>
+      <c r="H451" s="6">
+        <v>1</v>
+      </c>
+      <c r="I451" s="6">
+        <v>10</v>
+      </c>
+      <c r="J451" s="6">
+        <v>6</v>
+      </c>
+      <c r="K451" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L451" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M451" s="6">
+        <v>20</v>
+      </c>
+      <c r="N451" s="6">
+        <v>190</v>
+      </c>
+      <c r="O451" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A452" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B452" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C452" s="6">
+        <v>1</v>
+      </c>
+      <c r="D452" s="6">
+        <v>0</v>
+      </c>
+      <c r="E452" s="6">
+        <v>1</v>
+      </c>
+      <c r="F452" s="6">
+        <v>1</v>
+      </c>
+      <c r="G452" s="6">
+        <v>3</v>
+      </c>
+      <c r="H452" s="6">
+        <v>2</v>
+      </c>
+      <c r="I452" s="6">
+        <v>8</v>
+      </c>
+      <c r="J452" s="6">
+        <v>5</v>
+      </c>
+      <c r="K452" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L452" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M452" s="6">
+        <v>19</v>
+      </c>
+      <c r="N452" s="6">
+        <v>180</v>
+      </c>
+      <c r="O452" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A453" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B453" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C453" s="6">
+        <v>1</v>
+      </c>
+      <c r="D453" s="6">
+        <v>2</v>
+      </c>
+      <c r="E453" s="6">
+        <v>3</v>
+      </c>
+      <c r="F453" s="6">
+        <v>3</v>
+      </c>
+      <c r="G453" s="6">
+        <v>1</v>
+      </c>
+      <c r="H453" s="6">
+        <v>0</v>
+      </c>
+      <c r="I453" s="6">
+        <v>8</v>
+      </c>
+      <c r="J453" s="6">
+        <v>5</v>
+      </c>
+      <c r="K453" s="6"/>
+      <c r="L453" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M453" s="6">
+        <v>20</v>
+      </c>
+      <c r="N453" s="6">
+        <v>171</v>
+      </c>
+      <c r="O453" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A454" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B454" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C454" s="6">
+        <v>3</v>
+      </c>
+      <c r="D454" s="6">
+        <v>0</v>
+      </c>
+      <c r="E454" s="6">
+        <v>2</v>
+      </c>
+      <c r="F454" s="6">
+        <v>1</v>
+      </c>
+      <c r="G454" s="6">
+        <v>1</v>
+      </c>
+      <c r="H454" s="6">
+        <v>1</v>
+      </c>
+      <c r="I454" s="6">
+        <v>8</v>
+      </c>
+      <c r="J454" s="6">
+        <v>5</v>
+      </c>
+      <c r="K454" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L454" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M454" s="6">
+        <v>21</v>
+      </c>
+      <c r="N454" s="6">
+        <v>171</v>
+      </c>
+      <c r="O454" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A455" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B455" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C455" s="6">
+        <v>1</v>
+      </c>
+      <c r="D455" s="6">
+        <v>1</v>
+      </c>
+      <c r="E455" s="6">
+        <v>2</v>
+      </c>
+      <c r="F455" s="6">
+        <v>1</v>
+      </c>
+      <c r="G455" s="6">
+        <v>0</v>
+      </c>
+      <c r="H455" s="6">
+        <v>2</v>
+      </c>
+      <c r="I455" s="6">
+        <v>7</v>
+      </c>
+      <c r="J455" s="6">
+        <v>4</v>
+      </c>
+      <c r="K455" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L455" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M455" s="6">
+        <v>21</v>
+      </c>
+      <c r="N455" s="6">
+        <v>187</v>
+      </c>
+      <c r="O455" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A456" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B456" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C456" s="6">
+        <v>2</v>
+      </c>
+      <c r="D456" s="6">
+        <v>1</v>
+      </c>
+      <c r="E456" s="6">
+        <v>1</v>
+      </c>
+      <c r="F456" s="6">
+        <v>2</v>
+      </c>
+      <c r="G456" s="6">
+        <v>0</v>
+      </c>
+      <c r="H456" s="6">
+        <v>2</v>
+      </c>
+      <c r="I456" s="6">
+        <v>8</v>
+      </c>
+      <c r="J456" s="6">
+        <v>5</v>
+      </c>
+      <c r="K456" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L456" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M456" s="6">
+        <v>20</v>
+      </c>
+      <c r="N456" s="6">
+        <v>173</v>
+      </c>
+      <c r="O456" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A457" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B457" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C457" s="6">
+        <v>1</v>
+      </c>
+      <c r="D457" s="6">
+        <v>2</v>
+      </c>
+      <c r="E457" s="6">
+        <v>0</v>
+      </c>
+      <c r="F457" s="6">
+        <v>2</v>
+      </c>
+      <c r="G457" s="6">
+        <v>1</v>
+      </c>
+      <c r="H457" s="6">
+        <v>3</v>
+      </c>
+      <c r="I457" s="6">
+        <v>10</v>
+      </c>
+      <c r="J457" s="6">
+        <v>6</v>
+      </c>
+      <c r="K457" s="6"/>
+      <c r="L457" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M457" s="6">
+        <v>20</v>
+      </c>
+      <c r="N457" s="6">
+        <v>193</v>
+      </c>
+      <c r="O457" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A458" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B458" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C458" s="13">
+        <v>0</v>
+      </c>
+      <c r="D458" s="13">
+        <v>1</v>
+      </c>
+      <c r="E458" s="13">
+        <v>1</v>
+      </c>
+      <c r="F458" s="13">
+        <v>4</v>
+      </c>
+      <c r="G458" s="13">
+        <v>0</v>
+      </c>
+      <c r="H458" s="13">
+        <v>2</v>
+      </c>
+      <c r="I458" s="13">
+        <v>8</v>
+      </c>
+      <c r="J458" s="13">
+        <v>4</v>
+      </c>
+      <c r="K458" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L458" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M458" s="13">
+        <v>20</v>
+      </c>
+      <c r="N458" s="13">
+        <v>184</v>
+      </c>
+      <c r="O458" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A459" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B459" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C459" s="6">
+        <v>0</v>
+      </c>
+      <c r="D459" s="6">
+        <v>1</v>
+      </c>
+      <c r="E459" s="6">
+        <v>1</v>
+      </c>
+      <c r="F459" s="6">
+        <v>2</v>
+      </c>
+      <c r="G459" s="6">
+        <v>1</v>
+      </c>
+      <c r="H459" s="6">
+        <v>1</v>
+      </c>
+      <c r="I459" s="6">
+        <v>8</v>
+      </c>
+      <c r="J459" s="6">
+        <v>6</v>
+      </c>
+      <c r="K459" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L459" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M459" s="6">
+        <v>24</v>
+      </c>
+      <c r="N459" s="6">
+        <v>181</v>
+      </c>
+      <c r="O459" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A460" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B460" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C460" s="6">
+        <v>2</v>
+      </c>
+      <c r="D460" s="6">
+        <v>1</v>
+      </c>
+      <c r="E460" s="6">
+        <v>1</v>
+      </c>
+      <c r="F460" s="6">
+        <v>2</v>
+      </c>
+      <c r="G460" s="6">
+        <v>2</v>
+      </c>
+      <c r="H460" s="6">
+        <v>1</v>
+      </c>
+      <c r="I460" s="6">
+        <v>9</v>
+      </c>
+      <c r="J460" s="6">
+        <v>6</v>
+      </c>
+      <c r="K460" s="6"/>
+      <c r="L460" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M460" s="6">
+        <v>20</v>
+      </c>
+      <c r="N460" s="6">
+        <v>160</v>
+      </c>
+      <c r="O460" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A461" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B461" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C461" s="6">
+        <v>1</v>
+      </c>
+      <c r="D461" s="6">
+        <v>1</v>
+      </c>
+      <c r="E461" s="6">
+        <v>1</v>
+      </c>
+      <c r="F461" s="6">
+        <v>2</v>
+      </c>
+      <c r="G461" s="6">
+        <v>2</v>
+      </c>
+      <c r="H461" s="6">
+        <v>1</v>
+      </c>
+      <c r="I461" s="6">
+        <v>8</v>
+      </c>
+      <c r="J461" s="6">
+        <v>6</v>
+      </c>
+      <c r="K461" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L461" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M461" s="6">
+        <v>20</v>
+      </c>
+      <c r="N461" s="6">
+        <v>176</v>
+      </c>
+      <c r="O461" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A462" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B462" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C462" s="6">
+        <v>3</v>
+      </c>
+      <c r="D462" s="6">
+        <v>1</v>
+      </c>
+      <c r="E462" s="6">
+        <v>1</v>
+      </c>
+      <c r="F462" s="6">
+        <v>1</v>
+      </c>
+      <c r="G462" s="6">
+        <v>1</v>
+      </c>
+      <c r="H462" s="6">
+        <v>1</v>
+      </c>
+      <c r="I462" s="6">
+        <v>8</v>
+      </c>
+      <c r="J462" s="6">
+        <v>6</v>
+      </c>
+      <c r="K462" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L462" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M462" s="6">
+        <v>20</v>
+      </c>
+      <c r="N462" s="6">
+        <v>190</v>
+      </c>
+      <c r="O462" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A463" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B463" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C463" s="6">
+        <v>1</v>
+      </c>
+      <c r="D463" s="6">
+        <v>4</v>
+      </c>
+      <c r="E463" s="6">
+        <v>2</v>
+      </c>
+      <c r="F463" s="6">
+        <v>3</v>
+      </c>
+      <c r="G463" s="6">
+        <v>1</v>
+      </c>
+      <c r="H463" s="6">
+        <v>0</v>
+      </c>
+      <c r="I463" s="6">
+        <v>11</v>
+      </c>
+      <c r="J463" s="6">
+        <v>5</v>
+      </c>
+      <c r="K463" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L463" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M463" s="6">
+        <v>21</v>
+      </c>
+      <c r="N463" s="6">
+        <v>176</v>
+      </c>
+      <c r="O463" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A464" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B464" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C464" s="6">
+        <v>1</v>
+      </c>
+      <c r="D464" s="6">
+        <v>2</v>
+      </c>
+      <c r="E464" s="6">
+        <v>2</v>
+      </c>
+      <c r="F464" s="6">
+        <v>1</v>
+      </c>
+      <c r="G464" s="6">
+        <v>2</v>
+      </c>
+      <c r="H464" s="6">
+        <v>1</v>
+      </c>
+      <c r="I464" s="6">
+        <v>9</v>
+      </c>
+      <c r="J464" s="6">
+        <v>6</v>
+      </c>
+      <c r="K464" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L464" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M464" s="6">
+        <v>21</v>
+      </c>
+      <c r="N464" s="6">
+        <v>167</v>
+      </c>
+      <c r="O464" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A465" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B465" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C465" s="6">
+        <v>1</v>
+      </c>
+      <c r="D465" s="6">
+        <v>0</v>
+      </c>
+      <c r="E465" s="6">
+        <v>2</v>
+      </c>
+      <c r="F465" s="6">
+        <v>3</v>
+      </c>
+      <c r="G465" s="6">
+        <v>1</v>
+      </c>
+      <c r="H465" s="6">
+        <v>0</v>
+      </c>
+      <c r="I465" s="6">
+        <v>7</v>
+      </c>
+      <c r="J465" s="6">
+        <v>4</v>
+      </c>
+      <c r="K465" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L465" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M465" s="6">
+        <v>23</v>
+      </c>
+      <c r="N465" s="6">
+        <v>173</v>
+      </c>
+      <c r="O465" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A466" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B466" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C466" s="6">
+        <v>3</v>
+      </c>
+      <c r="D466" s="6">
+        <v>3</v>
+      </c>
+      <c r="E466" s="6">
+        <v>1</v>
+      </c>
+      <c r="F466" s="6">
+        <v>0</v>
+      </c>
+      <c r="G466" s="6">
+        <v>1</v>
+      </c>
+      <c r="H466" s="6">
+        <v>0</v>
+      </c>
+      <c r="I466" s="6">
+        <v>8</v>
+      </c>
+      <c r="J466" s="6">
+        <v>4</v>
+      </c>
+      <c r="K466" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L466" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M466" s="6">
+        <v>21</v>
+      </c>
+      <c r="N466" s="6">
+        <v>195</v>
+      </c>
+      <c r="O466" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A467" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B467" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C467" s="6">
+        <v>1</v>
+      </c>
+      <c r="D467" s="6">
+        <v>4</v>
+      </c>
+      <c r="E467" s="6">
+        <v>2</v>
+      </c>
+      <c r="F467" s="6">
+        <v>1</v>
+      </c>
+      <c r="G467" s="6">
+        <v>0</v>
+      </c>
+      <c r="H467" s="6">
+        <v>1</v>
+      </c>
+      <c r="I467" s="6">
+        <v>9</v>
+      </c>
+      <c r="J467" s="6">
+        <v>5</v>
+      </c>
+      <c r="K467" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L467" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M467" s="6">
+        <v>22</v>
+      </c>
+      <c r="N467" s="6">
+        <v>175</v>
+      </c>
+      <c r="O467" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A468" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B468" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C468" s="6">
+        <v>1</v>
+      </c>
+      <c r="D468" s="6">
+        <v>3</v>
+      </c>
+      <c r="E468" s="6">
+        <v>2</v>
+      </c>
+      <c r="F468" s="6">
+        <v>0</v>
+      </c>
+      <c r="G468" s="6">
+        <v>1</v>
+      </c>
+      <c r="H468" s="6">
+        <v>1</v>
+      </c>
+      <c r="I468" s="6">
+        <v>8</v>
+      </c>
+      <c r="J468" s="6">
+        <v>5</v>
+      </c>
+      <c r="K468" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L468" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M468" s="6">
+        <v>20</v>
+      </c>
+      <c r="N468" s="6">
+        <v>180</v>
+      </c>
+      <c r="O468" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A469" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B469" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C469" s="6">
+        <v>1</v>
+      </c>
+      <c r="D469" s="6">
+        <v>1</v>
+      </c>
+      <c r="E469" s="6">
+        <v>4</v>
+      </c>
+      <c r="F469" s="6">
+        <v>1</v>
+      </c>
+      <c r="G469" s="6">
+        <v>0</v>
+      </c>
+      <c r="H469" s="6">
+        <v>1</v>
+      </c>
+      <c r="I469" s="6">
+        <v>8</v>
+      </c>
+      <c r="J469" s="6">
+        <v>5</v>
+      </c>
+      <c r="K469" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L469" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M469" s="6">
+        <v>22</v>
+      </c>
+      <c r="N469" s="6">
+        <v>174</v>
+      </c>
+      <c r="O469" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A470" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B470" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C470" s="6">
+        <v>0</v>
+      </c>
+      <c r="D470" s="6">
+        <v>1</v>
+      </c>
+      <c r="E470" s="6">
+        <v>1</v>
+      </c>
+      <c r="F470" s="6">
+        <v>1</v>
+      </c>
+      <c r="G470" s="6">
+        <v>1</v>
+      </c>
+      <c r="H470" s="6">
+        <v>4</v>
+      </c>
+      <c r="I470" s="6">
+        <v>8</v>
+      </c>
+      <c r="J470" s="6">
+        <v>5</v>
+      </c>
+      <c r="K470" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L470" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M470" s="6">
+        <v>21</v>
+      </c>
+      <c r="N470" s="6">
+        <v>189</v>
+      </c>
+      <c r="O470" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A471" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B471" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C471" s="6">
+        <v>2</v>
+      </c>
+      <c r="D471" s="6">
+        <v>0</v>
+      </c>
+      <c r="E471" s="6">
+        <v>0</v>
+      </c>
+      <c r="F471" s="6">
+        <v>1</v>
+      </c>
+      <c r="G471" s="6">
+        <v>1</v>
+      </c>
+      <c r="H471" s="6">
+        <v>4</v>
+      </c>
+      <c r="I471" s="6">
+        <v>8</v>
+      </c>
+      <c r="J471" s="6">
+        <v>4</v>
+      </c>
+      <c r="K471" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L471" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M471" s="6">
+        <v>23</v>
+      </c>
+      <c r="N471" s="6">
+        <v>188</v>
+      </c>
+      <c r="O471" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A472" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B472" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C472" s="6">
+        <v>0</v>
+      </c>
+      <c r="D472" s="11">
+        <v>1</v>
+      </c>
+      <c r="E472" s="11">
+        <v>2</v>
+      </c>
+      <c r="F472" s="6">
+        <v>1</v>
+      </c>
+      <c r="G472" s="6">
+        <v>1</v>
+      </c>
+      <c r="H472" s="6">
+        <v>3</v>
+      </c>
+      <c r="I472" s="6">
+        <v>8</v>
+      </c>
+      <c r="J472" s="6">
+        <v>5</v>
+      </c>
+      <c r="K472" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L472" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M472" s="6">
+        <v>24</v>
+      </c>
+      <c r="N472" s="6">
+        <v>163</v>
+      </c>
+      <c r="O472" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A473" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B473" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C473" s="6">
+        <v>0</v>
+      </c>
+      <c r="D473" s="6">
+        <v>2</v>
+      </c>
+      <c r="E473" s="6">
+        <v>1</v>
+      </c>
+      <c r="F473" s="6">
+        <v>2</v>
+      </c>
+      <c r="G473" s="6">
+        <v>0</v>
+      </c>
+      <c r="H473" s="6">
+        <v>4</v>
+      </c>
+      <c r="I473" s="6">
+        <v>9</v>
+      </c>
+      <c r="J473" s="6">
+        <v>4</v>
+      </c>
+      <c r="K473" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L473" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M473" s="6">
+        <v>23</v>
+      </c>
+      <c r="N473" s="6">
+        <v>173</v>
+      </c>
+      <c r="O473" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A474" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B474" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C474" s="6">
+        <v>1</v>
+      </c>
+      <c r="D474" s="6">
+        <v>0</v>
+      </c>
+      <c r="E474" s="6">
+        <v>2</v>
+      </c>
+      <c r="F474" s="6">
+        <v>1</v>
+      </c>
+      <c r="G474" s="6">
+        <v>3</v>
+      </c>
+      <c r="H474" s="6">
+        <v>0</v>
+      </c>
+      <c r="I474" s="6">
+        <v>8</v>
+      </c>
+      <c r="J474" s="6">
+        <v>4</v>
+      </c>
+      <c r="K474" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L474" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M474" s="6">
+        <v>23</v>
+      </c>
+      <c r="N474" s="6">
+        <v>163</v>
+      </c>
+      <c r="O474" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A475" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B475" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C475" s="6">
+        <v>0</v>
+      </c>
+      <c r="D475" s="6">
+        <v>1</v>
+      </c>
+      <c r="E475" s="6">
+        <v>2</v>
+      </c>
+      <c r="F475" s="6">
+        <v>2</v>
+      </c>
+      <c r="G475" s="6">
+        <v>2</v>
+      </c>
+      <c r="H475" s="6">
+        <v>1</v>
+      </c>
+      <c r="I475" s="6">
+        <v>8</v>
+      </c>
+      <c r="J475" s="6">
+        <v>5</v>
+      </c>
+      <c r="K475" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L475" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M475" s="6">
+        <v>23</v>
+      </c>
+      <c r="N475" s="6">
+        <v>170</v>
+      </c>
+      <c r="O475" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A476" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B476" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C476" s="6">
+        <v>1</v>
+      </c>
+      <c r="D476" s="6">
+        <v>4</v>
+      </c>
+      <c r="E476" s="6">
+        <v>0</v>
+      </c>
+      <c r="F476" s="6">
+        <v>0</v>
+      </c>
+      <c r="G476" s="6">
+        <v>1</v>
+      </c>
+      <c r="H476" s="6">
+        <v>4</v>
+      </c>
+      <c r="I476" s="6">
+        <v>10</v>
+      </c>
+      <c r="J476" s="6">
+        <v>4</v>
+      </c>
+      <c r="K476" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L476" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M476" s="6">
+        <v>22</v>
+      </c>
+      <c r="N476" s="6">
+        <v>180</v>
+      </c>
+      <c r="O476" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A477" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B477" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C477" s="6">
+        <v>1</v>
+      </c>
+      <c r="D477" s="6">
+        <v>0</v>
+      </c>
+      <c r="E477" s="6">
+        <v>2</v>
+      </c>
+      <c r="F477" s="6">
+        <v>2</v>
+      </c>
+      <c r="G477" s="6">
+        <v>3</v>
+      </c>
+      <c r="H477" s="6">
+        <v>0</v>
+      </c>
+      <c r="I477" s="6">
+        <v>8</v>
+      </c>
+      <c r="J477" s="6">
+        <v>4</v>
+      </c>
+      <c r="K477" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L477" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M477" s="6">
+        <v>21</v>
+      </c>
+      <c r="N477" s="6">
+        <v>180</v>
+      </c>
+      <c r="O477" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A478" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B478" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C478" s="6">
+        <v>1</v>
+      </c>
+      <c r="D478" s="6">
+        <v>2</v>
+      </c>
+      <c r="E478" s="6">
+        <v>0</v>
+      </c>
+      <c r="F478" s="6">
+        <v>0</v>
+      </c>
+      <c r="G478" s="6">
+        <v>2</v>
+      </c>
+      <c r="H478" s="6">
+        <v>3</v>
+      </c>
+      <c r="I478" s="6">
+        <v>8</v>
+      </c>
+      <c r="J478" s="6">
+        <v>4</v>
+      </c>
+      <c r="K478" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L478" s="6"/>
+      <c r="M478" s="6">
+        <v>23</v>
+      </c>
+      <c r="N478" s="6">
+        <v>172</v>
+      </c>
+      <c r="O478" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A479" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B479" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C479" s="6">
+        <v>1</v>
+      </c>
+      <c r="D479" s="6">
+        <v>0</v>
+      </c>
+      <c r="E479" s="6">
+        <v>3</v>
+      </c>
+      <c r="F479" s="6">
+        <v>1</v>
+      </c>
+      <c r="G479" s="6">
+        <v>1</v>
+      </c>
+      <c r="H479" s="6">
+        <v>2</v>
+      </c>
+      <c r="I479" s="6">
+        <v>8</v>
+      </c>
+      <c r="J479" s="6">
+        <v>5</v>
+      </c>
+      <c r="K479" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L479" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M479" s="6">
+        <v>21</v>
+      </c>
+      <c r="N479" s="6">
+        <v>168</v>
+      </c>
+      <c r="O479" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A480" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B480" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C480" s="6">
+        <v>1</v>
+      </c>
+      <c r="D480" s="6">
+        <v>0</v>
+      </c>
+      <c r="E480" s="6">
+        <v>3</v>
+      </c>
+      <c r="F480" s="6">
+        <v>1</v>
+      </c>
+      <c r="G480" s="6">
+        <v>1</v>
+      </c>
+      <c r="H480" s="6">
+        <v>1</v>
+      </c>
+      <c r="I480" s="6">
+        <v>7</v>
+      </c>
+      <c r="J480" s="6">
+        <v>5</v>
+      </c>
+      <c r="K480" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L480" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M480" s="6">
+        <v>21</v>
+      </c>
+      <c r="N480" s="6">
+        <v>190</v>
+      </c>
+      <c r="O480" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A481" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B481" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C481" s="6">
+        <v>0</v>
+      </c>
+      <c r="D481" s="6">
+        <v>2</v>
+      </c>
+      <c r="E481" s="6">
+        <v>1</v>
+      </c>
+      <c r="F481" s="6">
+        <v>0</v>
+      </c>
+      <c r="G481" s="6">
+        <v>5</v>
+      </c>
+      <c r="H481" s="6">
+        <v>0</v>
+      </c>
+      <c r="I481" s="6">
+        <v>8</v>
+      </c>
+      <c r="J481" s="6">
+        <v>3</v>
+      </c>
+      <c r="K481" s="6"/>
+      <c r="L481" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M481" s="6">
+        <v>25</v>
+      </c>
+      <c r="N481" s="6">
+        <v>205</v>
+      </c>
+      <c r="O481" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A482" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B482" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C482" s="6">
+        <v>2</v>
+      </c>
+      <c r="D482" s="6">
+        <v>2</v>
+      </c>
+      <c r="E482" s="6">
+        <v>1</v>
+      </c>
+      <c r="F482" s="6">
+        <v>2</v>
+      </c>
+      <c r="G482" s="6">
+        <v>1</v>
+      </c>
+      <c r="H482" s="6">
+        <v>0</v>
+      </c>
+      <c r="I482" s="6">
+        <v>8</v>
+      </c>
+      <c r="J482" s="6">
+        <v>5</v>
+      </c>
+      <c r="K482" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L482" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M482" s="6">
+        <v>21</v>
+      </c>
+      <c r="N482" s="6">
+        <v>168</v>
+      </c>
+      <c r="O482" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A483" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B483" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C483" s="6">
+        <v>2</v>
+      </c>
+      <c r="D483" s="6">
+        <v>0</v>
+      </c>
+      <c r="E483" s="6">
+        <v>0</v>
+      </c>
+      <c r="F483" s="6">
+        <v>4</v>
+      </c>
+      <c r="G483" s="6">
+        <v>3</v>
+      </c>
+      <c r="H483" s="6">
+        <v>1</v>
+      </c>
+      <c r="I483" s="6">
+        <v>10</v>
+      </c>
+      <c r="J483" s="6">
+        <v>4</v>
+      </c>
+      <c r="K483" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L483" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M483" s="6">
+        <v>22</v>
+      </c>
+      <c r="N483" s="6">
+        <v>198</v>
+      </c>
+      <c r="O483" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A484" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B484" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C484" s="6">
+        <v>1</v>
+      </c>
+      <c r="D484" s="6">
+        <v>3</v>
+      </c>
+      <c r="E484" s="6">
+        <v>2</v>
+      </c>
+      <c r="F484" s="6">
+        <v>1</v>
+      </c>
+      <c r="G484" s="6">
+        <v>1</v>
+      </c>
+      <c r="H484" s="6">
+        <v>0</v>
+      </c>
+      <c r="I484" s="6">
+        <v>8</v>
+      </c>
+      <c r="J484" s="6">
+        <v>5</v>
+      </c>
+      <c r="K484" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L484" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M484" s="6">
+        <v>21</v>
+      </c>
+      <c r="N484" s="6">
+        <v>192</v>
+      </c>
+      <c r="O484" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A485" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B485" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C485" s="6">
+        <v>0</v>
+      </c>
+      <c r="D485" s="6">
+        <v>2</v>
+      </c>
+      <c r="E485" s="6">
+        <v>6</v>
+      </c>
+      <c r="F485" s="6">
+        <v>1</v>
+      </c>
+      <c r="G485" s="6">
+        <v>0</v>
+      </c>
+      <c r="H485" s="6">
+        <v>0</v>
+      </c>
+      <c r="I485" s="6">
+        <v>9</v>
+      </c>
+      <c r="J485" s="6">
+        <v>3</v>
+      </c>
+      <c r="K485" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L485" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M485" s="6">
+        <v>20</v>
+      </c>
+      <c r="N485" s="6">
+        <v>190</v>
+      </c>
+      <c r="O485" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A486" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B486" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C486" s="6">
+        <v>1</v>
+      </c>
+      <c r="D486" s="6">
+        <v>1</v>
+      </c>
+      <c r="E486" s="6">
+        <v>1</v>
+      </c>
+      <c r="F486" s="6">
+        <v>2</v>
+      </c>
+      <c r="G486" s="6">
+        <v>2</v>
+      </c>
+      <c r="H486" s="6">
+        <v>1</v>
+      </c>
+      <c r="I486" s="6">
+        <v>8</v>
+      </c>
+      <c r="J486" s="6">
+        <v>6</v>
+      </c>
+      <c r="K486" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L486" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M486" s="6">
+        <v>25</v>
+      </c>
+      <c r="N486" s="6">
+        <v>163</v>
+      </c>
+      <c r="O486" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A487" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B487" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C487" s="6">
+        <v>0</v>
+      </c>
+      <c r="D487" s="6">
+        <v>1</v>
+      </c>
+      <c r="E487" s="6">
+        <v>3</v>
+      </c>
+      <c r="F487" s="6">
+        <v>2</v>
+      </c>
+      <c r="G487" s="6">
+        <v>0</v>
+      </c>
+      <c r="H487" s="6">
+        <v>2</v>
+      </c>
+      <c r="I487" s="6">
+        <v>8</v>
+      </c>
+      <c r="J487" s="6">
+        <v>4</v>
+      </c>
+      <c r="K487" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L487" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M487" s="6">
+        <v>24</v>
+      </c>
+      <c r="N487" s="6">
+        <v>163</v>
+      </c>
+      <c r="O487" s="6"/>
+    </row>
+    <row r="488" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A488" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B488" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C488" s="6">
+        <v>1</v>
+      </c>
+      <c r="D488" s="6">
+        <v>0</v>
+      </c>
+      <c r="E488" s="6">
+        <v>3</v>
+      </c>
+      <c r="F488" s="6">
+        <v>1</v>
+      </c>
+      <c r="G488" s="6">
+        <v>0</v>
+      </c>
+      <c r="H488" s="6">
+        <v>2</v>
+      </c>
+      <c r="I488" s="6">
+        <v>7</v>
+      </c>
+      <c r="J488" s="6">
+        <v>4</v>
+      </c>
+      <c r="K488" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L488" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M488" s="6">
+        <v>20</v>
+      </c>
+      <c r="N488" s="6">
+        <v>165</v>
+      </c>
+      <c r="O488" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A489" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B489" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C489" s="6">
+        <v>2</v>
+      </c>
+      <c r="D489" s="6">
+        <v>2</v>
+      </c>
+      <c r="E489" s="6">
+        <v>0</v>
+      </c>
+      <c r="F489" s="6">
+        <v>2</v>
+      </c>
+      <c r="G489" s="6">
+        <v>1</v>
+      </c>
+      <c r="H489" s="6">
+        <v>2</v>
+      </c>
+      <c r="I489" s="6">
+        <v>9</v>
+      </c>
+      <c r="J489" s="6">
+        <v>5</v>
+      </c>
+      <c r="K489" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L489" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M489" s="6">
+        <v>21</v>
+      </c>
+      <c r="N489" s="6">
+        <v>185</v>
+      </c>
+      <c r="O489" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A490" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B490" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C490" s="6">
+        <v>3</v>
+      </c>
+      <c r="D490" s="6">
+        <v>1</v>
+      </c>
+      <c r="E490" s="6">
+        <v>1</v>
+      </c>
+      <c r="F490" s="6">
+        <v>1</v>
+      </c>
+      <c r="G490" s="6">
+        <v>0</v>
+      </c>
+      <c r="H490" s="6">
+        <v>2</v>
+      </c>
+      <c r="I490" s="6">
+        <v>8</v>
+      </c>
+      <c r="J490" s="6">
+        <v>5</v>
+      </c>
+      <c r="K490" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L490" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M490" s="6">
+        <v>20</v>
+      </c>
+      <c r="N490" s="6">
+        <v>170</v>
+      </c>
+      <c r="O490" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A491" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B491" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C491" s="6">
+        <v>2</v>
+      </c>
+      <c r="D491" s="6">
+        <v>2</v>
+      </c>
+      <c r="E491" s="6">
+        <v>3</v>
+      </c>
+      <c r="F491" s="6">
+        <v>1</v>
+      </c>
+      <c r="G491" s="6">
+        <v>0</v>
+      </c>
+      <c r="H491" s="6">
+        <v>0</v>
+      </c>
+      <c r="I491" s="6">
+        <v>8</v>
+      </c>
+      <c r="J491" s="6">
+        <v>4</v>
+      </c>
+      <c r="K491" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L491" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M491" s="6">
+        <v>26</v>
+      </c>
+      <c r="N491" s="6">
+        <v>170</v>
+      </c>
+      <c r="O491" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A492" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B492" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C492" s="6">
+        <v>2</v>
+      </c>
+      <c r="D492" s="6">
+        <v>2</v>
+      </c>
+      <c r="E492" s="6">
+        <v>1</v>
+      </c>
+      <c r="F492" s="6">
+        <v>1</v>
+      </c>
+      <c r="G492" s="6">
+        <v>0</v>
+      </c>
+      <c r="H492" s="6">
+        <v>2</v>
+      </c>
+      <c r="I492" s="6">
+        <v>8</v>
+      </c>
+      <c r="J492" s="6">
+        <v>5</v>
+      </c>
+      <c r="K492" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L492" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M492" s="6">
+        <v>19</v>
+      </c>
+      <c r="N492" s="6">
+        <v>164</v>
+      </c>
+      <c r="O492" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A493" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B493" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C493" s="6">
+        <v>2</v>
+      </c>
+      <c r="D493" s="6">
+        <v>1</v>
+      </c>
+      <c r="E493" s="6">
+        <v>0</v>
+      </c>
+      <c r="F493" s="6">
+        <v>1</v>
+      </c>
+      <c r="G493" s="6">
+        <v>3</v>
+      </c>
+      <c r="H493" s="6">
+        <v>1</v>
+      </c>
+      <c r="I493" s="6">
+        <v>8</v>
+      </c>
+      <c r="J493" s="6">
+        <v>5</v>
+      </c>
+      <c r="K493" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L493" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M493" s="6">
+        <v>22</v>
+      </c>
+      <c r="N493" s="6">
+        <v>165</v>
+      </c>
+      <c r="O493" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A494" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B494" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C494" s="6">
+        <v>3</v>
+      </c>
+      <c r="D494" s="6">
+        <v>1</v>
+      </c>
+      <c r="E494" s="6">
+        <v>3</v>
+      </c>
+      <c r="F494" s="6">
+        <v>0</v>
+      </c>
+      <c r="G494" s="6">
+        <v>2</v>
+      </c>
+      <c r="H494" s="6">
+        <v>1</v>
+      </c>
+      <c r="I494" s="6">
+        <v>10</v>
+      </c>
+      <c r="J494" s="6">
+        <v>5</v>
+      </c>
+      <c r="K494" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L494" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M494" s="6">
+        <v>21</v>
+      </c>
+      <c r="N494" s="6">
+        <v>186</v>
+      </c>
+      <c r="O494" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A495" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B495" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C495" s="6">
+        <v>0</v>
+      </c>
+      <c r="D495" s="6">
+        <v>3</v>
+      </c>
+      <c r="E495" s="6">
+        <v>2</v>
+      </c>
+      <c r="F495" s="6">
+        <v>1</v>
+      </c>
+      <c r="G495" s="6">
+        <v>2</v>
+      </c>
+      <c r="H495" s="6">
+        <v>2</v>
+      </c>
+      <c r="I495" s="6">
+        <v>10</v>
+      </c>
+      <c r="J495" s="6">
+        <v>5</v>
+      </c>
+      <c r="K495" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L495" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M495" s="6">
+        <v>25</v>
+      </c>
+      <c r="N495" s="6">
+        <v>193</v>
+      </c>
+      <c r="O495" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A496" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B496" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C496" s="6">
+        <v>0</v>
+      </c>
+      <c r="D496" s="6">
+        <v>0</v>
+      </c>
+      <c r="E496" s="6">
+        <v>2</v>
+      </c>
+      <c r="F496" s="6">
+        <v>4</v>
+      </c>
+      <c r="G496" s="6">
+        <v>2</v>
+      </c>
+      <c r="H496" s="6">
+        <v>1</v>
+      </c>
+      <c r="I496" s="6">
+        <v>9</v>
+      </c>
+      <c r="J496" s="6">
+        <v>4</v>
+      </c>
+      <c r="K496" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L496" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M496" s="6">
+        <v>25</v>
+      </c>
+      <c r="N496" s="6">
+        <v>194</v>
+      </c>
+      <c r="O496" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B497" s="6"/>
+    </row>
+    <row r="498" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B498" s="6"/>
+    </row>
+    <row r="499" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B499" s="6"/>
+    </row>
+    <row r="500" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B500" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAF98DF-1A8C-9A4B-B4C4-F6F04A09CBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D41B51-0B14-E342-B463-9180C8652583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1020" windowWidth="24620" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="26">
   <si>
     <t>m</t>
   </si>
@@ -635,8 +635,8 @@
   <dimension ref="A1:Q500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I498" sqref="I498"/>
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K317" sqref="K317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -15451,7 +15451,9 @@
       <c r="J317" s="6">
         <v>5</v>
       </c>
-      <c r="K317" s="6"/>
+      <c r="K317" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L317" s="6" t="s">
         <v>0</v>
       </c>
@@ -15825,7 +15827,9 @@
       <c r="J325" s="6">
         <v>6</v>
       </c>
-      <c r="K325" s="6"/>
+      <c r="K325" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L325" s="6" t="s">
         <v>0</v>
       </c>
@@ -17745,7 +17749,9 @@
       <c r="J365" s="6">
         <v>3</v>
       </c>
-      <c r="K365" s="6"/>
+      <c r="K365" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L365" s="6"/>
       <c r="M365" s="6"/>
       <c r="N365" s="6"/>
@@ -18127,7 +18133,9 @@
       <c r="J373" s="6">
         <v>5</v>
       </c>
-      <c r="K373" s="6"/>
+      <c r="K373" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L373" s="6"/>
       <c r="M373" s="6"/>
       <c r="N373" s="6"/>
@@ -18403,7 +18411,9 @@
       <c r="J379" s="6">
         <v>5</v>
       </c>
-      <c r="K379" s="6"/>
+      <c r="K379" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L379" s="6" t="s">
         <v>0</v>
       </c>
@@ -18646,7 +18656,9 @@
       <c r="J384" s="6">
         <v>5</v>
       </c>
-      <c r="K384" s="6"/>
+      <c r="K384" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L384" s="6"/>
       <c r="M384" s="6"/>
       <c r="N384" s="6"/>
@@ -19153,7 +19165,9 @@
       <c r="J395" s="6">
         <v>4</v>
       </c>
-      <c r="K395" s="6"/>
+      <c r="K395" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L395" s="6"/>
       <c r="M395" s="6"/>
       <c r="N395" s="6"/>
@@ -19190,7 +19204,9 @@
       <c r="J396" s="6">
         <v>5</v>
       </c>
-      <c r="K396" s="6"/>
+      <c r="K396" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L396" s="6"/>
       <c r="M396" s="6"/>
       <c r="N396" s="6"/>
@@ -19227,7 +19243,9 @@
       <c r="J397" s="6">
         <v>5</v>
       </c>
-      <c r="K397" s="6"/>
+      <c r="K397" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L397" s="6"/>
       <c r="M397" s="6"/>
       <c r="N397" s="6"/>
@@ -19920,7 +19938,9 @@
       <c r="J412" s="6">
         <v>4</v>
       </c>
-      <c r="K412" s="6"/>
+      <c r="K412" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L412" s="6"/>
       <c r="M412" s="6"/>
       <c r="N412" s="6"/>
@@ -20703,7 +20723,9 @@
       <c r="J429" s="6">
         <v>6</v>
       </c>
-      <c r="K429" s="6"/>
+      <c r="K429" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L429" s="6"/>
       <c r="M429" s="6"/>
       <c r="N429" s="6"/>
@@ -21821,7 +21843,9 @@
       <c r="J453" s="6">
         <v>5</v>
       </c>
-      <c r="K453" s="6"/>
+      <c r="K453" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L453" s="6" t="s">
         <v>0</v>
       </c>
@@ -22007,7 +22031,9 @@
       <c r="J457" s="6">
         <v>6</v>
       </c>
-      <c r="K457" s="6"/>
+      <c r="K457" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L457" s="6" t="s">
         <v>0</v>
       </c>
@@ -22146,7 +22172,9 @@
       <c r="J460" s="6">
         <v>6</v>
       </c>
-      <c r="K460" s="6"/>
+      <c r="K460" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L460" s="6" t="s">
         <v>1</v>
       </c>
@@ -23129,7 +23157,9 @@
       <c r="J481" s="6">
         <v>3</v>
       </c>
-      <c r="K481" s="6"/>
+      <c r="K481" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L481" s="6" t="s">
         <v>0</v>
       </c>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D41B51-0B14-E342-B463-9180C8652583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA47AF3-8CBA-DD4D-9E42-AF8456990263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1020" windowWidth="24620" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -635,8 +635,8 @@
   <dimension ref="A1:Q500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K317" sqref="K317"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J338" sqref="J338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -16723,7 +16723,9 @@
       <c r="I344" s="6">
         <v>9</v>
       </c>
-      <c r="J344" s="6"/>
+      <c r="J344" s="6">
+        <v>5</v>
+      </c>
       <c r="K344" s="6" t="s">
         <v>3</v>
       </c>
@@ -18235,7 +18237,9 @@
       <c r="N375" s="6">
         <v>168</v>
       </c>
-      <c r="O375" s="6"/>
+      <c r="O375" s="6">
+        <v>1</v>
+      </c>
       <c r="P375" s="6"/>
       <c r="Q375" s="6"/>
     </row>
@@ -19623,7 +19627,9 @@
       <c r="N405" s="6">
         <v>172</v>
       </c>
-      <c r="O405" s="6"/>
+      <c r="O405" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="406" spans="1:15" ht="15.75" customHeight="1">
       <c r="A406" s="6">
@@ -23451,7 +23457,9 @@
       <c r="N487" s="6">
         <v>163</v>
       </c>
-      <c r="O487" s="6"/>
+      <c r="O487" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="488" spans="1:15" ht="15.75" customHeight="1">
       <c r="A488" s="6">

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/jkruppa.github.io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\jkruppa.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA47AF3-8CBA-DD4D-9E42-AF8456990263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890C70A2-25A7-49EC-8F63-A6871E11831D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="1020" windowWidth="24620" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="26">
   <si>
     <t>m</t>
   </si>
@@ -632,27 +632,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q500"/>
+  <dimension ref="A1:Q508"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J338" sqref="J338"/>
+      <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F510" sqref="F510"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -1605,7 +1605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13">
+    <row r="21" spans="1:15" ht="13.2">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="13">
+    <row r="22" spans="1:15" ht="13.2">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="13">
+    <row r="23" spans="1:15" ht="13.2">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13">
+    <row r="24" spans="1:15" ht="13.2">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13">
+    <row r="25" spans="1:15" ht="13.2">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13">
+    <row r="26" spans="1:15" ht="13.2">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="13">
+    <row r="27" spans="1:15" ht="13.2">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="13">
+    <row r="28" spans="1:15" ht="13.2">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="13">
+    <row r="29" spans="1:15" ht="13.2">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="13">
+    <row r="30" spans="1:15" ht="13.2">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="13">
+    <row r="31" spans="1:15" ht="13.2">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="13">
+    <row r="32" spans="1:15" ht="13.2">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="13">
+    <row r="33" spans="1:15" ht="13.2">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="13">
+    <row r="34" spans="1:15" ht="13.2">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="13">
+    <row r="35" spans="1:15" ht="13.2">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="13">
+    <row r="36" spans="1:15" ht="13.2">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="13">
+    <row r="37" spans="1:15" ht="13.2">
       <c r="A37">
         <v>2018</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="13">
+    <row r="38" spans="1:15" ht="13.2">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="13">
+    <row r="39" spans="1:15" ht="13.2">
       <c r="A39">
         <v>2018</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13">
+    <row r="40" spans="1:15" ht="13.2">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="13">
+    <row r="41" spans="1:15" ht="13.2">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="13">
+    <row r="42" spans="1:15" ht="13.2">
       <c r="A42">
         <v>2018</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="13">
+    <row r="43" spans="1:15" ht="13.2">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="13">
+    <row r="44" spans="1:15" ht="13.2">
       <c r="A44">
         <v>2018</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="13">
+    <row r="45" spans="1:15" ht="13.2">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="13">
+    <row r="46" spans="1:15" ht="13.2">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="13">
+    <row r="47" spans="1:15" ht="13.2">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13">
+    <row r="48" spans="1:15" ht="13.2">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="13">
+    <row r="49" spans="1:15" ht="13.2">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="13">
+    <row r="50" spans="1:15" ht="13.2">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="13">
+    <row r="51" spans="1:15" ht="13.2">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="13">
+    <row r="52" spans="1:15" ht="13.2">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="13">
+    <row r="53" spans="1:15" ht="13.2">
       <c r="A53">
         <v>2018</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="13">
+    <row r="54" spans="1:15" ht="13.2">
       <c r="A54">
         <v>2018</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="13">
+    <row r="55" spans="1:15" ht="13.2">
       <c r="A55">
         <v>2018</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="13">
+    <row r="56" spans="1:15" ht="13.2">
       <c r="A56">
         <v>2018</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13">
+    <row r="57" spans="1:15" ht="13.2">
       <c r="A57">
         <v>2018</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="13">
+    <row r="58" spans="1:15" ht="13.2">
       <c r="A58">
         <v>2018</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="13">
+    <row r="59" spans="1:15" ht="13.2">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="13">
+    <row r="60" spans="1:15" ht="13.2">
       <c r="A60">
         <v>2018</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="13">
+    <row r="61" spans="1:15" ht="13.2">
       <c r="A61">
         <v>2018</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="13">
+    <row r="62" spans="1:15" ht="13.2">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13">
+    <row r="63" spans="1:15" ht="13.2">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="13">
+    <row r="64" spans="1:15" ht="13.2">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="13">
+    <row r="65" spans="1:15" ht="13.2">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="13">
+    <row r="66" spans="1:15" ht="13.2">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="13">
+    <row r="67" spans="1:15" ht="13.2">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="13">
+    <row r="68" spans="1:15" ht="13.2">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="13">
+    <row r="69" spans="1:15" ht="13.2">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="13">
+    <row r="70" spans="1:15" ht="13.2">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="13">
+    <row r="71" spans="1:15" ht="13.2">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="13">
+    <row r="72" spans="1:15" ht="13.2">
       <c r="A72">
         <v>2018</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="13">
+    <row r="73" spans="1:15" ht="13.2">
       <c r="A73">
         <v>2018</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="13">
+    <row r="74" spans="1:15" ht="13.2">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="13">
+    <row r="75" spans="1:15" ht="13.2">
       <c r="A75">
         <v>2018</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="14">
+    <row r="77" spans="1:15" ht="13.2">
       <c r="A77">
         <v>2018</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="14">
+    <row r="84" spans="1:15" ht="13.2">
       <c r="A84">
         <v>2018</v>
       </c>
@@ -23132,7 +23132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:15" ht="15.75" customHeight="1">
+    <row r="481" spans="1:16" ht="15.75" customHeight="1">
       <c r="A481" s="6">
         <v>2022</v>
       </c>
@@ -23179,7 +23179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:15" ht="15.75" customHeight="1">
+    <row r="482" spans="1:16" ht="15.75" customHeight="1">
       <c r="A482" s="6">
         <v>2022</v>
       </c>
@@ -23226,7 +23226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:15" ht="15.75" customHeight="1">
+    <row r="483" spans="1:16" ht="15.75" customHeight="1">
       <c r="A483" s="6">
         <v>2022</v>
       </c>
@@ -23273,7 +23273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:15" ht="15.75" customHeight="1">
+    <row r="484" spans="1:16" ht="15.75" customHeight="1">
       <c r="A484" s="6">
         <v>2022</v>
       </c>
@@ -23320,7 +23320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:15" ht="15.75" customHeight="1">
+    <row r="485" spans="1:16" ht="15.75" customHeight="1">
       <c r="A485" s="6">
         <v>2022</v>
       </c>
@@ -23367,7 +23367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:15" ht="15.75" customHeight="1">
+    <row r="486" spans="1:16" ht="15.75" customHeight="1">
       <c r="A486" s="6">
         <v>2022</v>
       </c>
@@ -23414,7 +23414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:15" ht="15.75" customHeight="1">
+    <row r="487" spans="1:16" ht="15.75" customHeight="1">
       <c r="A487" s="6">
         <v>2022</v>
       </c>
@@ -23461,7 +23461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:15" ht="15.75" customHeight="1">
+    <row r="488" spans="1:16" ht="15.75" customHeight="1">
       <c r="A488" s="6">
         <v>2022</v>
       </c>
@@ -23508,7 +23508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:15" ht="15.75" customHeight="1">
+    <row r="489" spans="1:16" ht="15.75" customHeight="1">
       <c r="A489" s="6">
         <v>2022</v>
       </c>
@@ -23555,7 +23555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:15" ht="15.75" customHeight="1">
+    <row r="490" spans="1:16" ht="15.75" customHeight="1">
       <c r="A490" s="6">
         <v>2022</v>
       </c>
@@ -23602,7 +23602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:15" ht="15.75" customHeight="1">
+    <row r="491" spans="1:16" ht="15.75" customHeight="1">
       <c r="A491" s="6">
         <v>2022</v>
       </c>
@@ -23649,7 +23649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:15" ht="15.75" customHeight="1">
+    <row r="492" spans="1:16" ht="15.75" customHeight="1">
       <c r="A492" s="6">
         <v>2022</v>
       </c>
@@ -23696,7 +23696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:15" ht="15.75" customHeight="1">
+    <row r="493" spans="1:16" ht="15.75" customHeight="1">
       <c r="A493" s="6">
         <v>2022</v>
       </c>
@@ -23743,7 +23743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:15" ht="15.75" customHeight="1">
+    <row r="494" spans="1:16" ht="15.75" customHeight="1">
       <c r="A494" s="6">
         <v>2022</v>
       </c>
@@ -23789,8 +23789,9 @@
       <c r="O494" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="495" spans="1:15" ht="15.75" customHeight="1">
+      <c r="P494" s="6"/>
+    </row>
+    <row r="495" spans="1:16" ht="15.75" customHeight="1">
       <c r="A495" s="6">
         <v>2022</v>
       </c>
@@ -23836,8 +23837,9 @@
       <c r="O495" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="496" spans="1:15" ht="15.75" customHeight="1">
+      <c r="P495" s="6"/>
+    </row>
+    <row r="496" spans="1:16" ht="15.75" customHeight="1">
       <c r="A496" s="6">
         <v>2022</v>
       </c>
@@ -23883,18 +23885,552 @@
       <c r="O496" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="497" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B497" s="6"/>
-    </row>
-    <row r="498" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B498" s="6"/>
-    </row>
-    <row r="499" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B499" s="6"/>
-    </row>
-    <row r="500" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B500" s="6"/>
+      <c r="P496" s="6"/>
+    </row>
+    <row r="497" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A497" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B497" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C497" s="6">
+        <v>0</v>
+      </c>
+      <c r="D497" s="6">
+        <v>2</v>
+      </c>
+      <c r="E497" s="6">
+        <v>2</v>
+      </c>
+      <c r="F497" s="6">
+        <v>2</v>
+      </c>
+      <c r="G497" s="6">
+        <v>2</v>
+      </c>
+      <c r="H497" s="6">
+        <v>0</v>
+      </c>
+      <c r="I497" s="6">
+        <v>8</v>
+      </c>
+      <c r="J497" s="6">
+        <v>4</v>
+      </c>
+      <c r="K497" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L497" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M497" s="6">
+        <v>21</v>
+      </c>
+      <c r="N497" s="6">
+        <v>175</v>
+      </c>
+      <c r="O497" s="6">
+        <v>2</v>
+      </c>
+      <c r="P497" s="6"/>
+    </row>
+    <row r="498" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A498" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B498" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C498" s="6">
+        <v>1</v>
+      </c>
+      <c r="D498" s="6">
+        <v>7</v>
+      </c>
+      <c r="E498" s="6">
+        <v>0</v>
+      </c>
+      <c r="F498" s="6">
+        <v>3</v>
+      </c>
+      <c r="G498" s="6">
+        <v>0</v>
+      </c>
+      <c r="H498" s="6">
+        <v>0</v>
+      </c>
+      <c r="I498" s="6">
+        <v>11</v>
+      </c>
+      <c r="J498" s="6">
+        <v>3</v>
+      </c>
+      <c r="K498" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L498" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M498" s="6">
+        <v>27</v>
+      </c>
+      <c r="N498" s="6">
+        <v>176</v>
+      </c>
+      <c r="O498" s="6">
+        <v>2</v>
+      </c>
+      <c r="P498" s="6"/>
+    </row>
+    <row r="499" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A499" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B499" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C499" s="6">
+        <v>3</v>
+      </c>
+      <c r="D499" s="6">
+        <v>0</v>
+      </c>
+      <c r="E499" s="6">
+        <v>4</v>
+      </c>
+      <c r="F499" s="6">
+        <v>2</v>
+      </c>
+      <c r="G499" s="6">
+        <v>2</v>
+      </c>
+      <c r="H499" s="6">
+        <v>2</v>
+      </c>
+      <c r="I499" s="6">
+        <v>13</v>
+      </c>
+      <c r="J499" s="6">
+        <v>5</v>
+      </c>
+      <c r="K499" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L499" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M499" s="6">
+        <v>20</v>
+      </c>
+      <c r="N499" s="6">
+        <v>168</v>
+      </c>
+      <c r="O499" s="6">
+        <v>2</v>
+      </c>
+      <c r="P499" s="6"/>
+    </row>
+    <row r="500" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A500" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B500" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C500" s="6">
+        <v>1</v>
+      </c>
+      <c r="D500" s="6">
+        <v>2</v>
+      </c>
+      <c r="E500" s="6">
+        <v>2</v>
+      </c>
+      <c r="F500" s="6">
+        <v>1</v>
+      </c>
+      <c r="G500" s="6">
+        <v>1</v>
+      </c>
+      <c r="H500" s="6">
+        <v>3</v>
+      </c>
+      <c r="I500" s="6">
+        <v>10</v>
+      </c>
+      <c r="J500" s="6">
+        <v>6</v>
+      </c>
+      <c r="K500" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L500" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M500" s="6">
+        <v>20</v>
+      </c>
+      <c r="N500" s="6">
+        <v>175</v>
+      </c>
+      <c r="O500" s="6">
+        <v>2</v>
+      </c>
+      <c r="P500" s="6"/>
+    </row>
+    <row r="501" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A501" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B501" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C501" s="6">
+        <v>2</v>
+      </c>
+      <c r="D501" s="6">
+        <v>4</v>
+      </c>
+      <c r="E501" s="6">
+        <v>1</v>
+      </c>
+      <c r="F501" s="6">
+        <v>2</v>
+      </c>
+      <c r="G501" s="6">
+        <v>0</v>
+      </c>
+      <c r="H501" s="6">
+        <v>0</v>
+      </c>
+      <c r="I501" s="6">
+        <v>9</v>
+      </c>
+      <c r="J501" s="6">
+        <v>4</v>
+      </c>
+      <c r="K501" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L501" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M501" s="6">
+        <v>26</v>
+      </c>
+      <c r="N501" s="6">
+        <v>183</v>
+      </c>
+      <c r="O501" s="6">
+        <v>2</v>
+      </c>
+      <c r="P501" s="6"/>
+    </row>
+    <row r="502" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A502" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B502" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C502" s="6">
+        <v>1</v>
+      </c>
+      <c r="D502" s="6">
+        <v>0</v>
+      </c>
+      <c r="E502" s="6">
+        <v>2</v>
+      </c>
+      <c r="F502" s="6">
+        <v>1</v>
+      </c>
+      <c r="G502" s="6">
+        <v>3</v>
+      </c>
+      <c r="H502" s="6">
+        <v>1</v>
+      </c>
+      <c r="I502" s="6">
+        <v>8</v>
+      </c>
+      <c r="J502" s="6">
+        <v>5</v>
+      </c>
+      <c r="K502" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L502" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M502" s="6">
+        <v>23</v>
+      </c>
+      <c r="N502" s="6">
+        <v>182</v>
+      </c>
+      <c r="O502" s="6">
+        <v>2</v>
+      </c>
+      <c r="P502" s="6"/>
+    </row>
+    <row r="503" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A503" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B503" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C503" s="6">
+        <v>1</v>
+      </c>
+      <c r="D503" s="6">
+        <v>0</v>
+      </c>
+      <c r="E503" s="6">
+        <v>2</v>
+      </c>
+      <c r="F503" s="6">
+        <v>3</v>
+      </c>
+      <c r="G503" s="6">
+        <v>1</v>
+      </c>
+      <c r="H503" s="6">
+        <v>3</v>
+      </c>
+      <c r="I503" s="6">
+        <v>10</v>
+      </c>
+      <c r="J503" s="6">
+        <v>5</v>
+      </c>
+      <c r="K503" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L503" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M503" s="6">
+        <v>23</v>
+      </c>
+      <c r="N503" s="6">
+        <v>190</v>
+      </c>
+      <c r="O503" s="6">
+        <v>2</v>
+      </c>
+      <c r="P503" s="6"/>
+    </row>
+    <row r="504" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A504" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B504" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C504" s="6">
+        <v>3</v>
+      </c>
+      <c r="D504" s="6">
+        <v>0</v>
+      </c>
+      <c r="E504" s="6">
+        <v>1</v>
+      </c>
+      <c r="F504" s="6">
+        <v>3</v>
+      </c>
+      <c r="G504" s="6">
+        <v>1</v>
+      </c>
+      <c r="H504" s="6">
+        <v>0</v>
+      </c>
+      <c r="I504" s="6">
+        <v>8</v>
+      </c>
+      <c r="J504" s="6">
+        <v>4</v>
+      </c>
+      <c r="K504" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L504" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M504" s="6">
+        <v>20</v>
+      </c>
+      <c r="N504" s="6">
+        <v>166</v>
+      </c>
+      <c r="O504" s="6">
+        <v>2</v>
+      </c>
+      <c r="P504" s="6"/>
+    </row>
+    <row r="505" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A505" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B505" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C505" s="6">
+        <v>1</v>
+      </c>
+      <c r="D505" s="6">
+        <v>2</v>
+      </c>
+      <c r="E505" s="6">
+        <v>2</v>
+      </c>
+      <c r="F505" s="6">
+        <v>2</v>
+      </c>
+      <c r="G505" s="6">
+        <v>0</v>
+      </c>
+      <c r="H505" s="6">
+        <v>2</v>
+      </c>
+      <c r="I505" s="6">
+        <v>9</v>
+      </c>
+      <c r="J505" s="6">
+        <v>5</v>
+      </c>
+      <c r="K505" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L505" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M505" s="6">
+        <v>18</v>
+      </c>
+      <c r="N505" s="6">
+        <v>175</v>
+      </c>
+      <c r="O505" s="6">
+        <v>2</v>
+      </c>
+      <c r="P505" s="6"/>
+    </row>
+    <row r="506" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A506" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B506" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C506" s="6">
+        <v>0</v>
+      </c>
+      <c r="D506" s="6">
+        <v>0</v>
+      </c>
+      <c r="E506" s="6">
+        <v>2</v>
+      </c>
+      <c r="F506" s="6">
+        <v>3</v>
+      </c>
+      <c r="G506" s="6">
+        <v>2</v>
+      </c>
+      <c r="H506" s="6">
+        <v>1</v>
+      </c>
+      <c r="I506" s="6">
+        <v>8</v>
+      </c>
+      <c r="J506" s="6">
+        <v>4</v>
+      </c>
+      <c r="K506" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L506" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M506" s="6">
+        <v>22</v>
+      </c>
+      <c r="N506" s="6">
+        <v>168</v>
+      </c>
+      <c r="O506" s="6">
+        <v>2</v>
+      </c>
+      <c r="P506" s="6"/>
+    </row>
+    <row r="507" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A507" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B507" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C507" s="6">
+        <v>2</v>
+      </c>
+      <c r="D507" s="6">
+        <v>1</v>
+      </c>
+      <c r="E507" s="6">
+        <v>3</v>
+      </c>
+      <c r="F507" s="6">
+        <v>2</v>
+      </c>
+      <c r="G507" s="6">
+        <v>2</v>
+      </c>
+      <c r="H507" s="6">
+        <v>1</v>
+      </c>
+      <c r="I507" s="6">
+        <v>11</v>
+      </c>
+      <c r="J507" s="6">
+        <v>6</v>
+      </c>
+      <c r="K507" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L507" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M507" s="6">
+        <v>19</v>
+      </c>
+      <c r="N507" s="6">
+        <v>180</v>
+      </c>
+      <c r="O507" s="6">
+        <v>2</v>
+      </c>
+      <c r="P507" s="6"/>
+    </row>
+    <row r="508" spans="1:16" ht="15.75" customHeight="1">
+      <c r="B508" s="6"/>
+      <c r="C508" s="6"/>
+      <c r="D508" s="6"/>
+      <c r="E508" s="6"/>
+      <c r="F508" s="6"/>
+      <c r="G508" s="6"/>
+      <c r="H508" s="6"/>
+      <c r="I508" s="6"/>
+      <c r="J508" s="6"/>
+      <c r="K508" s="6"/>
+      <c r="L508" s="6"/>
+      <c r="M508" s="6"/>
+      <c r="N508" s="6"/>
+      <c r="O508" s="6"/>
+      <c r="P508" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\jkruppa.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890C70A2-25A7-49EC-8F63-A6871E11831D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F116F812-3B42-4644-B019-D628563738F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="26">
   <si>
     <t>m</t>
   </si>
@@ -632,11 +632,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q508"/>
+  <dimension ref="A1:Q535"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F510" sqref="F510"/>
+      <pane ySplit="1" topLeftCell="A504" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I535" sqref="I535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -24416,21 +24416,1316 @@
       <c r="P507" s="6"/>
     </row>
     <row r="508" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B508" s="6"/>
-      <c r="C508" s="6"/>
-      <c r="D508" s="6"/>
-      <c r="E508" s="6"/>
-      <c r="F508" s="6"/>
-      <c r="G508" s="6"/>
-      <c r="H508" s="6"/>
-      <c r="I508" s="6"/>
-      <c r="J508" s="6"/>
-      <c r="K508" s="6"/>
-      <c r="L508" s="6"/>
-      <c r="M508" s="6"/>
-      <c r="N508" s="6"/>
-      <c r="O508" s="6"/>
+      <c r="A508" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B508" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C508" s="6">
+        <v>0</v>
+      </c>
+      <c r="D508" s="6">
+        <v>4</v>
+      </c>
+      <c r="E508" s="6">
+        <v>2</v>
+      </c>
+      <c r="F508" s="6">
+        <v>1</v>
+      </c>
+      <c r="G508" s="6">
+        <v>2</v>
+      </c>
+      <c r="H508" s="6">
+        <v>2</v>
+      </c>
+      <c r="I508" s="6">
+        <v>11</v>
+      </c>
+      <c r="J508" s="6">
+        <v>5</v>
+      </c>
+      <c r="K508" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L508" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M508" s="6">
+        <v>25</v>
+      </c>
+      <c r="N508" s="6">
+        <v>190</v>
+      </c>
+      <c r="O508" s="6">
+        <v>2</v>
+      </c>
       <c r="P508" s="6"/>
+    </row>
+    <row r="509" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A509" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B509" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C509" s="6">
+        <v>3</v>
+      </c>
+      <c r="D509" s="6">
+        <v>0</v>
+      </c>
+      <c r="E509" s="6">
+        <v>0</v>
+      </c>
+      <c r="F509" s="6">
+        <v>2</v>
+      </c>
+      <c r="G509" s="6">
+        <v>1</v>
+      </c>
+      <c r="H509" s="6">
+        <v>2</v>
+      </c>
+      <c r="I509" s="6">
+        <v>8</v>
+      </c>
+      <c r="J509" s="6">
+        <v>4</v>
+      </c>
+      <c r="K509" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L509" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M509" s="6">
+        <v>24</v>
+      </c>
+      <c r="N509" s="6">
+        <v>185</v>
+      </c>
+      <c r="O509" s="6">
+        <v>2</v>
+      </c>
+      <c r="P509" s="6"/>
+    </row>
+    <row r="510" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A510" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B510" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C510" s="6">
+        <v>2</v>
+      </c>
+      <c r="D510" s="6">
+        <v>2</v>
+      </c>
+      <c r="E510" s="6">
+        <v>1</v>
+      </c>
+      <c r="F510" s="6">
+        <v>0</v>
+      </c>
+      <c r="G510" s="6">
+        <v>4</v>
+      </c>
+      <c r="H510" s="6">
+        <v>1</v>
+      </c>
+      <c r="I510" s="6">
+        <v>10</v>
+      </c>
+      <c r="J510" s="6">
+        <v>5</v>
+      </c>
+      <c r="K510" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L510" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M510" s="6">
+        <v>22</v>
+      </c>
+      <c r="N510" s="6">
+        <v>165</v>
+      </c>
+      <c r="O510" s="6">
+        <v>2</v>
+      </c>
+      <c r="P510" s="6"/>
+    </row>
+    <row r="511" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A511" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B511" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C511" s="6">
+        <v>1</v>
+      </c>
+      <c r="D511" s="6">
+        <v>2</v>
+      </c>
+      <c r="E511" s="6">
+        <v>1</v>
+      </c>
+      <c r="F511" s="6">
+        <v>1</v>
+      </c>
+      <c r="G511" s="6">
+        <v>4</v>
+      </c>
+      <c r="H511" s="6">
+        <v>0</v>
+      </c>
+      <c r="I511" s="6">
+        <v>9</v>
+      </c>
+      <c r="J511" s="6">
+        <v>5</v>
+      </c>
+      <c r="K511" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L511" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M511" s="6">
+        <v>26</v>
+      </c>
+      <c r="N511" s="6">
+        <v>177</v>
+      </c>
+      <c r="O511" s="6">
+        <v>2</v>
+      </c>
+      <c r="P511" s="6"/>
+    </row>
+    <row r="512" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A512" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B512" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C512" s="6">
+        <v>0</v>
+      </c>
+      <c r="D512" s="6">
+        <v>0</v>
+      </c>
+      <c r="E512" s="6">
+        <v>2</v>
+      </c>
+      <c r="F512" s="6">
+        <v>3</v>
+      </c>
+      <c r="G512" s="6">
+        <v>3</v>
+      </c>
+      <c r="H512" s="6">
+        <v>0</v>
+      </c>
+      <c r="I512" s="6">
+        <v>10</v>
+      </c>
+      <c r="J512" s="6">
+        <v>4</v>
+      </c>
+      <c r="K512" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L512" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M512" s="6">
+        <v>24</v>
+      </c>
+      <c r="N512" s="6">
+        <v>185</v>
+      </c>
+      <c r="O512" s="6">
+        <v>2</v>
+      </c>
+      <c r="P512" s="6"/>
+    </row>
+    <row r="513" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A513" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B513" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C513" s="6">
+        <v>1</v>
+      </c>
+      <c r="D513" s="6">
+        <v>0</v>
+      </c>
+      <c r="E513" s="6">
+        <v>2</v>
+      </c>
+      <c r="F513" s="6">
+        <v>3</v>
+      </c>
+      <c r="G513" s="6">
+        <v>0</v>
+      </c>
+      <c r="H513" s="6">
+        <v>4</v>
+      </c>
+      <c r="I513" s="6">
+        <v>10</v>
+      </c>
+      <c r="J513" s="6">
+        <v>4</v>
+      </c>
+      <c r="K513" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L513" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M513" s="6">
+        <v>21</v>
+      </c>
+      <c r="N513" s="6">
+        <v>185</v>
+      </c>
+      <c r="O513" s="6">
+        <v>2</v>
+      </c>
+      <c r="P513" s="6"/>
+    </row>
+    <row r="514" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A514" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B514" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C514" s="6">
+        <v>1</v>
+      </c>
+      <c r="D514" s="6">
+        <v>2</v>
+      </c>
+      <c r="E514" s="6">
+        <v>1</v>
+      </c>
+      <c r="F514" s="6">
+        <v>4</v>
+      </c>
+      <c r="G514" s="6">
+        <v>0</v>
+      </c>
+      <c r="H514" s="6">
+        <v>2</v>
+      </c>
+      <c r="I514" s="6">
+        <v>10</v>
+      </c>
+      <c r="J514" s="6">
+        <v>5</v>
+      </c>
+      <c r="K514" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L514" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M514" s="6">
+        <v>25</v>
+      </c>
+      <c r="N514" s="6">
+        <v>165</v>
+      </c>
+      <c r="O514" s="6">
+        <v>2</v>
+      </c>
+      <c r="P514" s="6"/>
+    </row>
+    <row r="515" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A515" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B515" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C515" s="6">
+        <v>1</v>
+      </c>
+      <c r="D515" s="6">
+        <v>3</v>
+      </c>
+      <c r="E515" s="6">
+        <v>1</v>
+      </c>
+      <c r="F515" s="6">
+        <v>4</v>
+      </c>
+      <c r="G515" s="6">
+        <v>2</v>
+      </c>
+      <c r="H515" s="6">
+        <v>1</v>
+      </c>
+      <c r="I515" s="6">
+        <v>12</v>
+      </c>
+      <c r="J515" s="6">
+        <v>6</v>
+      </c>
+      <c r="K515" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L515" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M515" s="6">
+        <v>25</v>
+      </c>
+      <c r="N515" s="6">
+        <v>178</v>
+      </c>
+      <c r="O515" s="6">
+        <v>2</v>
+      </c>
+      <c r="P515" s="6"/>
+    </row>
+    <row r="516" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A516" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B516" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C516" s="6">
+        <v>0</v>
+      </c>
+      <c r="D516" s="6">
+        <v>0</v>
+      </c>
+      <c r="E516" s="6">
+        <v>0</v>
+      </c>
+      <c r="F516" s="6">
+        <v>4</v>
+      </c>
+      <c r="G516" s="6">
+        <v>2</v>
+      </c>
+      <c r="H516" s="6">
+        <v>2</v>
+      </c>
+      <c r="I516" s="6">
+        <v>8</v>
+      </c>
+      <c r="J516" s="6">
+        <v>3</v>
+      </c>
+      <c r="K516" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L516" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M516" s="6">
+        <v>28</v>
+      </c>
+      <c r="N516" s="6">
+        <v>178</v>
+      </c>
+      <c r="O516" s="6">
+        <v>2</v>
+      </c>
+      <c r="P516" s="6"/>
+    </row>
+    <row r="517" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A517" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B517" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C517" s="6">
+        <v>1</v>
+      </c>
+      <c r="D517" s="6">
+        <v>3</v>
+      </c>
+      <c r="E517" s="6">
+        <v>1</v>
+      </c>
+      <c r="F517" s="6">
+        <v>2</v>
+      </c>
+      <c r="G517" s="6">
+        <v>1</v>
+      </c>
+      <c r="H517" s="6">
+        <v>2</v>
+      </c>
+      <c r="I517" s="6">
+        <v>10</v>
+      </c>
+      <c r="J517" s="6">
+        <v>6</v>
+      </c>
+      <c r="K517" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L517" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M517" s="6">
+        <v>23</v>
+      </c>
+      <c r="N517" s="6">
+        <v>185</v>
+      </c>
+      <c r="O517" s="6">
+        <v>2</v>
+      </c>
+      <c r="P517" s="6"/>
+    </row>
+    <row r="518" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A518" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B518" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C518" s="6">
+        <v>2</v>
+      </c>
+      <c r="D518" s="6">
+        <v>4</v>
+      </c>
+      <c r="E518" s="6">
+        <v>1</v>
+      </c>
+      <c r="F518" s="6">
+        <v>1</v>
+      </c>
+      <c r="G518" s="6">
+        <v>2</v>
+      </c>
+      <c r="H518" s="6">
+        <v>1</v>
+      </c>
+      <c r="I518" s="6">
+        <v>11</v>
+      </c>
+      <c r="J518" s="6">
+        <v>6</v>
+      </c>
+      <c r="K518" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L518" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M518" s="6">
+        <v>26</v>
+      </c>
+      <c r="N518" s="6">
+        <v>172</v>
+      </c>
+      <c r="O518" s="6">
+        <v>2</v>
+      </c>
+      <c r="P518" s="6"/>
+    </row>
+    <row r="519" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A519" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B519" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C519" s="6">
+        <v>2</v>
+      </c>
+      <c r="D519" s="6">
+        <v>2</v>
+      </c>
+      <c r="E519" s="6">
+        <v>2</v>
+      </c>
+      <c r="F519" s="6">
+        <v>2</v>
+      </c>
+      <c r="G519" s="6">
+        <v>1</v>
+      </c>
+      <c r="H519" s="6">
+        <v>1</v>
+      </c>
+      <c r="I519" s="6">
+        <v>10</v>
+      </c>
+      <c r="J519" s="6">
+        <v>6</v>
+      </c>
+      <c r="K519" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L519" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M519" s="6">
+        <v>29</v>
+      </c>
+      <c r="N519" s="6">
+        <v>175</v>
+      </c>
+      <c r="O519" s="6">
+        <v>2</v>
+      </c>
+      <c r="P519" s="6"/>
+    </row>
+    <row r="520" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A520" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B520" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C520" s="6">
+        <v>3</v>
+      </c>
+      <c r="D520" s="6">
+        <v>1</v>
+      </c>
+      <c r="E520" s="6">
+        <v>0</v>
+      </c>
+      <c r="F520" s="6">
+        <v>1</v>
+      </c>
+      <c r="G520" s="6">
+        <v>2</v>
+      </c>
+      <c r="H520" s="6">
+        <v>3</v>
+      </c>
+      <c r="I520" s="6">
+        <v>10</v>
+      </c>
+      <c r="J520" s="6">
+        <v>5</v>
+      </c>
+      <c r="K520" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L520" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M520" s="6">
+        <v>23</v>
+      </c>
+      <c r="N520" s="6">
+        <v>165</v>
+      </c>
+      <c r="O520" s="6">
+        <v>2</v>
+      </c>
+      <c r="P520" s="6"/>
+    </row>
+    <row r="521" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A521" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B521" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C521" s="6">
+        <v>2</v>
+      </c>
+      <c r="D521" s="6">
+        <v>3</v>
+      </c>
+      <c r="E521" s="6">
+        <v>0</v>
+      </c>
+      <c r="F521" s="6">
+        <v>2</v>
+      </c>
+      <c r="G521" s="6">
+        <v>3</v>
+      </c>
+      <c r="H521" s="6">
+        <v>0</v>
+      </c>
+      <c r="I521" s="6">
+        <v>10</v>
+      </c>
+      <c r="J521" s="6">
+        <v>4</v>
+      </c>
+      <c r="K521" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L521" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M521" s="6">
+        <v>24</v>
+      </c>
+      <c r="N521" s="6">
+        <v>174</v>
+      </c>
+      <c r="O521" s="6">
+        <v>2</v>
+      </c>
+      <c r="P521" s="6"/>
+    </row>
+    <row r="522" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A522" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B522" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C522" s="6">
+        <v>0</v>
+      </c>
+      <c r="D522" s="6">
+        <v>2</v>
+      </c>
+      <c r="E522" s="6">
+        <v>1</v>
+      </c>
+      <c r="F522" s="6">
+        <v>2</v>
+      </c>
+      <c r="G522" s="6">
+        <v>2</v>
+      </c>
+      <c r="H522" s="6">
+        <v>3</v>
+      </c>
+      <c r="I522" s="6">
+        <v>10</v>
+      </c>
+      <c r="J522" s="6">
+        <v>5</v>
+      </c>
+      <c r="K522" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L522" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M522" s="6">
+        <v>28</v>
+      </c>
+      <c r="N522" s="6">
+        <v>168</v>
+      </c>
+      <c r="O522" s="6">
+        <v>2</v>
+      </c>
+      <c r="P522" s="6"/>
+    </row>
+    <row r="523" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A523" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B523" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C523" s="6">
+        <v>1</v>
+      </c>
+      <c r="D523" s="6">
+        <v>3</v>
+      </c>
+      <c r="E523" s="6">
+        <v>2</v>
+      </c>
+      <c r="F523" s="6">
+        <v>0</v>
+      </c>
+      <c r="G523" s="6">
+        <v>1</v>
+      </c>
+      <c r="H523" s="6">
+        <v>4</v>
+      </c>
+      <c r="I523" s="6">
+        <v>11</v>
+      </c>
+      <c r="J523" s="6">
+        <v>5</v>
+      </c>
+      <c r="K523" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L523" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M523" s="6">
+        <v>25</v>
+      </c>
+      <c r="N523" s="6">
+        <v>178</v>
+      </c>
+      <c r="O523" s="6">
+        <v>2</v>
+      </c>
+      <c r="P523" s="6"/>
+    </row>
+    <row r="524" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A524" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B524" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C524" s="6">
+        <v>2</v>
+      </c>
+      <c r="D524" s="6">
+        <v>3</v>
+      </c>
+      <c r="E524" s="6">
+        <v>3</v>
+      </c>
+      <c r="F524" s="6">
+        <v>0</v>
+      </c>
+      <c r="G524" s="6">
+        <v>0</v>
+      </c>
+      <c r="H524" s="6">
+        <v>2</v>
+      </c>
+      <c r="I524" s="6">
+        <v>10</v>
+      </c>
+      <c r="J524" s="6">
+        <v>4</v>
+      </c>
+      <c r="K524" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L524" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M524" s="6">
+        <v>25</v>
+      </c>
+      <c r="N524" s="6">
+        <v>175</v>
+      </c>
+      <c r="O524" s="6">
+        <v>2</v>
+      </c>
+      <c r="P524" s="6"/>
+    </row>
+    <row r="525" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A525" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B525" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C525" s="6">
+        <v>0</v>
+      </c>
+      <c r="D525" s="6">
+        <v>0</v>
+      </c>
+      <c r="E525" s="6">
+        <v>1</v>
+      </c>
+      <c r="F525" s="6">
+        <v>1</v>
+      </c>
+      <c r="G525" s="6">
+        <v>6</v>
+      </c>
+      <c r="H525" s="6">
+        <v>1</v>
+      </c>
+      <c r="I525" s="6">
+        <v>9</v>
+      </c>
+      <c r="J525" s="6">
+        <v>4</v>
+      </c>
+      <c r="K525" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L525" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M525" s="6">
+        <v>24</v>
+      </c>
+      <c r="N525" s="6">
+        <v>183</v>
+      </c>
+      <c r="O525" s="6">
+        <v>2</v>
+      </c>
+      <c r="P525" s="6"/>
+    </row>
+    <row r="526" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A526" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B526" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C526" s="6">
+        <v>2</v>
+      </c>
+      <c r="D526" s="6">
+        <v>1</v>
+      </c>
+      <c r="E526" s="6">
+        <v>1</v>
+      </c>
+      <c r="F526" s="6">
+        <v>2</v>
+      </c>
+      <c r="G526" s="6">
+        <v>2</v>
+      </c>
+      <c r="H526" s="6">
+        <v>0</v>
+      </c>
+      <c r="I526" s="6">
+        <v>8</v>
+      </c>
+      <c r="J526" s="6">
+        <v>5</v>
+      </c>
+      <c r="K526" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L526" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M526" s="6">
+        <v>26</v>
+      </c>
+      <c r="N526" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="O526" s="6">
+        <v>2</v>
+      </c>
+      <c r="P526" s="6"/>
+    </row>
+    <row r="527" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A527" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B527" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C527" s="6">
+        <v>4</v>
+      </c>
+      <c r="D527" s="6">
+        <v>3</v>
+      </c>
+      <c r="E527" s="6">
+        <v>2</v>
+      </c>
+      <c r="F527" s="6">
+        <v>1</v>
+      </c>
+      <c r="G527" s="6">
+        <v>0</v>
+      </c>
+      <c r="H527" s="6">
+        <v>1</v>
+      </c>
+      <c r="I527" s="6">
+        <v>11</v>
+      </c>
+      <c r="J527" s="6">
+        <v>5</v>
+      </c>
+      <c r="K527" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L527" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M527" s="6">
+        <v>25</v>
+      </c>
+      <c r="N527" s="6">
+        <v>178</v>
+      </c>
+      <c r="O527" s="6">
+        <v>2</v>
+      </c>
+      <c r="P527" s="6"/>
+    </row>
+    <row r="528" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A528" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B528" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C528" s="6">
+        <v>2</v>
+      </c>
+      <c r="D528" s="6">
+        <v>3</v>
+      </c>
+      <c r="E528" s="6">
+        <v>3</v>
+      </c>
+      <c r="F528" s="6">
+        <v>1</v>
+      </c>
+      <c r="G528" s="6">
+        <v>1</v>
+      </c>
+      <c r="H528" s="6">
+        <v>0</v>
+      </c>
+      <c r="I528" s="6">
+        <v>10</v>
+      </c>
+      <c r="J528" s="6">
+        <v>5</v>
+      </c>
+      <c r="K528" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L528" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M528" s="6">
+        <v>24</v>
+      </c>
+      <c r="N528" s="6">
+        <v>168</v>
+      </c>
+      <c r="O528" s="6">
+        <v>2</v>
+      </c>
+      <c r="P528" s="6"/>
+    </row>
+    <row r="529" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A529" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B529" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C529" s="6">
+        <v>2</v>
+      </c>
+      <c r="D529" s="6">
+        <v>1</v>
+      </c>
+      <c r="E529" s="6">
+        <v>1</v>
+      </c>
+      <c r="F529" s="6">
+        <v>2</v>
+      </c>
+      <c r="G529" s="6">
+        <v>1</v>
+      </c>
+      <c r="H529" s="6">
+        <v>3</v>
+      </c>
+      <c r="I529" s="6">
+        <v>10</v>
+      </c>
+      <c r="J529" s="6">
+        <v>6</v>
+      </c>
+      <c r="K529" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L529" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M529" s="6">
+        <v>33</v>
+      </c>
+      <c r="N529" s="6">
+        <v>175</v>
+      </c>
+      <c r="O529" s="6">
+        <v>4</v>
+      </c>
+      <c r="P529" s="6"/>
+    </row>
+    <row r="530" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A530" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B530" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C530" s="6">
+        <v>3</v>
+      </c>
+      <c r="D530" s="6">
+        <v>1</v>
+      </c>
+      <c r="E530" s="6">
+        <v>3</v>
+      </c>
+      <c r="F530" s="6">
+        <v>2</v>
+      </c>
+      <c r="G530" s="6">
+        <v>0</v>
+      </c>
+      <c r="H530" s="6">
+        <v>2</v>
+      </c>
+      <c r="I530" s="6">
+        <v>11</v>
+      </c>
+      <c r="J530" s="6">
+        <v>5</v>
+      </c>
+      <c r="K530" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L530" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M530" s="6">
+        <v>28</v>
+      </c>
+      <c r="N530" s="6">
+        <v>162</v>
+      </c>
+      <c r="O530" s="6">
+        <v>2</v>
+      </c>
+      <c r="P530" s="6"/>
+    </row>
+    <row r="531" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A531" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B531" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C531" s="6">
+        <v>0</v>
+      </c>
+      <c r="D531" s="6">
+        <v>1</v>
+      </c>
+      <c r="E531" s="6">
+        <v>2</v>
+      </c>
+      <c r="F531" s="6">
+        <v>3</v>
+      </c>
+      <c r="G531" s="6">
+        <v>0</v>
+      </c>
+      <c r="H531" s="6">
+        <v>3</v>
+      </c>
+      <c r="I531" s="6">
+        <v>9</v>
+      </c>
+      <c r="J531" s="6">
+        <v>4</v>
+      </c>
+      <c r="K531" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L531" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M531" s="6">
+        <v>24</v>
+      </c>
+      <c r="N531" s="6">
+        <v>180</v>
+      </c>
+      <c r="O531" s="6">
+        <v>2</v>
+      </c>
+      <c r="P531" s="6"/>
+    </row>
+    <row r="532" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A532" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B532" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C532" s="6">
+        <v>1</v>
+      </c>
+      <c r="D532" s="6">
+        <v>3</v>
+      </c>
+      <c r="E532" s="6">
+        <v>2</v>
+      </c>
+      <c r="F532" s="6">
+        <v>2</v>
+      </c>
+      <c r="G532" s="6">
+        <v>0</v>
+      </c>
+      <c r="H532" s="6">
+        <v>3</v>
+      </c>
+      <c r="I532" s="6">
+        <v>11</v>
+      </c>
+      <c r="J532" s="6">
+        <v>5</v>
+      </c>
+      <c r="K532" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L532" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M532" s="6">
+        <v>24</v>
+      </c>
+      <c r="N532" s="6">
+        <v>187</v>
+      </c>
+      <c r="O532" s="6">
+        <v>2</v>
+      </c>
+      <c r="P532" s="6"/>
+    </row>
+    <row r="533" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A533" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B533" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C533" s="6">
+        <v>2</v>
+      </c>
+      <c r="D533" s="6">
+        <v>2</v>
+      </c>
+      <c r="E533" s="6">
+        <v>1</v>
+      </c>
+      <c r="F533" s="6">
+        <v>0</v>
+      </c>
+      <c r="G533" s="6">
+        <v>4</v>
+      </c>
+      <c r="H533" s="6">
+        <v>1</v>
+      </c>
+      <c r="I533" s="6">
+        <v>10</v>
+      </c>
+      <c r="J533" s="6">
+        <v>5</v>
+      </c>
+      <c r="K533" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L533" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M533" s="6">
+        <v>23</v>
+      </c>
+      <c r="N533" s="6">
+        <v>194</v>
+      </c>
+      <c r="O533" s="6">
+        <v>2</v>
+      </c>
+      <c r="P533" s="6"/>
+    </row>
+    <row r="534" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A534" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B534" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C534" s="6">
+        <v>2</v>
+      </c>
+      <c r="D534" s="6">
+        <v>0</v>
+      </c>
+      <c r="E534" s="6">
+        <v>2</v>
+      </c>
+      <c r="F534" s="6">
+        <v>1</v>
+      </c>
+      <c r="G534" s="6">
+        <v>3</v>
+      </c>
+      <c r="H534" s="6">
+        <v>2</v>
+      </c>
+      <c r="I534" s="6">
+        <v>10</v>
+      </c>
+      <c r="J534" s="6">
+        <v>5</v>
+      </c>
+      <c r="K534" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L534" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M534" s="6">
+        <v>24</v>
+      </c>
+      <c r="N534" s="6">
+        <v>180</v>
+      </c>
+      <c r="O534" s="6">
+        <v>2</v>
+      </c>
+      <c r="P534" s="6"/>
+    </row>
+    <row r="535" spans="1:16" ht="15.75" customHeight="1">
+      <c r="C535" s="6"/>
+      <c r="D535" s="6"/>
+      <c r="E535" s="6"/>
+      <c r="F535" s="6"/>
+      <c r="G535" s="6"/>
+      <c r="H535" s="6"/>
+      <c r="I535" s="6"/>
+      <c r="J535" s="6"/>
+      <c r="K535" s="6"/>
+      <c r="L535" s="6"/>
+      <c r="M535" s="6"/>
+      <c r="N535" s="6"/>
+      <c r="O535" s="6"/>
+      <c r="P535" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\jkruppa.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F116F812-3B42-4644-B019-D628563738F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A63FBC3-CCD3-40F2-8D6B-575BAA824CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -635,8 +635,8 @@
   <dimension ref="A1:Q535"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A504" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I535" sqref="I535"/>
+      <pane ySplit="1" topLeftCell="A519" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N526" sqref="N526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -25320,7 +25320,7 @@
         <v>26</v>
       </c>
       <c r="N526" s="6">
-        <v>1.9</v>
+        <v>190</v>
       </c>
       <c r="O526" s="6">
         <v>2</v>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\jkruppa.github.io\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A63FBC3-CCD3-40F2-8D6B-575BAA824CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FACD302-BB31-DA4A-8FC6-3E6DA437EB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1540" windowWidth="28800" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="27">
   <si>
     <t>m</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>FU Berlin</t>
+  </si>
+  <si>
+    <t>Girls and Boys Day</t>
   </si>
 </sst>
 </file>
@@ -632,27 +635,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q535"/>
+  <dimension ref="A1:Q598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A519" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N526" sqref="N526"/>
+      <pane ySplit="1" topLeftCell="A555" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D578" sqref="D578"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -1605,7 +1608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13.2">
+    <row r="21" spans="1:15" ht="13">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="13.2">
+    <row r="22" spans="1:15" ht="13">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -1701,7 +1704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="13.2">
+    <row r="23" spans="1:15" ht="13">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -1749,7 +1752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13.2">
+    <row r="24" spans="1:15" ht="13">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -1797,7 +1800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13.2">
+    <row r="25" spans="1:15" ht="13">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13.2">
+    <row r="26" spans="1:15" ht="13">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="13.2">
+    <row r="27" spans="1:15" ht="13">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -1941,7 +1944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="13.2">
+    <row r="28" spans="1:15" ht="13">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -1987,7 +1990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="13.2">
+    <row r="29" spans="1:15" ht="13">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="13.2">
+    <row r="30" spans="1:15" ht="13">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="13.2">
+    <row r="31" spans="1:15" ht="13">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -2119,7 +2122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="13.2">
+    <row r="32" spans="1:15" ht="13">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -2167,7 +2170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="13.2">
+    <row r="33" spans="1:15" ht="13">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="13.2">
+    <row r="34" spans="1:15" ht="13">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -2263,7 +2266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="13.2">
+    <row r="35" spans="1:15" ht="13">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="13.2">
+    <row r="36" spans="1:15" ht="13">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -2359,7 +2362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="13.2">
+    <row r="37" spans="1:15" ht="13">
       <c r="A37">
         <v>2018</v>
       </c>
@@ -2407,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="13.2">
+    <row r="38" spans="1:15" ht="13">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -2455,7 +2458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="13.2">
+    <row r="39" spans="1:15" ht="13">
       <c r="A39">
         <v>2018</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13.2">
+    <row r="40" spans="1:15" ht="13">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -2539,7 +2542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="13.2">
+    <row r="41" spans="1:15" ht="13">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="13.2">
+    <row r="42" spans="1:15" ht="13">
       <c r="A42">
         <v>2018</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="13.2">
+    <row r="43" spans="1:15" ht="13">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -2683,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="13.2">
+    <row r="44" spans="1:15" ht="13">
       <c r="A44">
         <v>2018</v>
       </c>
@@ -2731,7 +2734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="13.2">
+    <row r="45" spans="1:15" ht="13">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -2779,7 +2782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="13.2">
+    <row r="46" spans="1:15" ht="13">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -2827,7 +2830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="13.2">
+    <row r="47" spans="1:15" ht="13">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -2875,7 +2878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13.2">
+    <row r="48" spans="1:15" ht="13">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="13.2">
+    <row r="49" spans="1:15" ht="13">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -2971,7 +2974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="13.2">
+    <row r="50" spans="1:15" ht="13">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -3019,7 +3022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="13.2">
+    <row r="51" spans="1:15" ht="13">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -3067,7 +3070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="13.2">
+    <row r="52" spans="1:15" ht="13">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -3112,7 +3115,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="13.2">
+    <row r="53" spans="1:15" ht="13">
       <c r="A53">
         <v>2018</v>
       </c>
@@ -3160,7 +3163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="13.2">
+    <row r="54" spans="1:15" ht="13">
       <c r="A54">
         <v>2018</v>
       </c>
@@ -3208,7 +3211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="13.2">
+    <row r="55" spans="1:15" ht="13">
       <c r="A55">
         <v>2018</v>
       </c>
@@ -3256,7 +3259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="13.2">
+    <row r="56" spans="1:15" ht="13">
       <c r="A56">
         <v>2018</v>
       </c>
@@ -3292,7 +3295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13.2">
+    <row r="57" spans="1:15" ht="13">
       <c r="A57">
         <v>2018</v>
       </c>
@@ -3340,7 +3343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="13.2">
+    <row r="58" spans="1:15" ht="13">
       <c r="A58">
         <v>2018</v>
       </c>
@@ -3388,7 +3391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="13.2">
+    <row r="59" spans="1:15" ht="13">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -3436,7 +3439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="13.2">
+    <row r="60" spans="1:15" ht="13">
       <c r="A60">
         <v>2018</v>
       </c>
@@ -3484,7 +3487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="13.2">
+    <row r="61" spans="1:15" ht="13">
       <c r="A61">
         <v>2018</v>
       </c>
@@ -3532,7 +3535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="13.2">
+    <row r="62" spans="1:15" ht="13">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -3577,7 +3580,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13.2">
+    <row r="63" spans="1:15" ht="13">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -3625,7 +3628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="13.2">
+    <row r="64" spans="1:15" ht="13">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -3673,7 +3676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="13.2">
+    <row r="65" spans="1:15" ht="13">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -3721,7 +3724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="13.2">
+    <row r="66" spans="1:15" ht="13">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3769,7 +3772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="13.2">
+    <row r="67" spans="1:15" ht="13">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -3817,7 +3820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="13.2">
+    <row r="68" spans="1:15" ht="13">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -3856,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="13.2">
+    <row r="69" spans="1:15" ht="13">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -3904,7 +3907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="13.2">
+    <row r="70" spans="1:15" ht="13">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -3952,7 +3955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="13.2">
+    <row r="71" spans="1:15" ht="13">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -4000,7 +4003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="13.2">
+    <row r="72" spans="1:15" ht="13">
       <c r="A72">
         <v>2018</v>
       </c>
@@ -4036,7 +4039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="13.2">
+    <row r="73" spans="1:15" ht="13">
       <c r="A73">
         <v>2018</v>
       </c>
@@ -4084,7 +4087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="13.2">
+    <row r="74" spans="1:15" ht="13">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -4132,7 +4135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="13.2">
+    <row r="75" spans="1:15" ht="13">
       <c r="A75">
         <v>2018</v>
       </c>
@@ -4228,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="13.2">
+    <row r="77" spans="1:15" ht="14">
       <c r="A77">
         <v>2018</v>
       </c>
@@ -4564,7 +4567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="13.2">
+    <row r="84" spans="1:15" ht="14">
       <c r="A84">
         <v>2018</v>
       </c>
@@ -25712,20 +25715,1643 @@
       <c r="P534" s="6"/>
     </row>
     <row r="535" spans="1:16" ht="15.75" customHeight="1">
-      <c r="C535" s="6"/>
-      <c r="D535" s="6"/>
-      <c r="E535" s="6"/>
-      <c r="F535" s="6"/>
-      <c r="G535" s="6"/>
-      <c r="H535" s="6"/>
-      <c r="I535" s="6"/>
-      <c r="J535" s="6"/>
-      <c r="K535" s="6"/>
-      <c r="L535" s="6"/>
-      <c r="M535" s="6"/>
-      <c r="N535" s="6"/>
-      <c r="O535" s="6"/>
+      <c r="A535" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B535" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C535" s="6">
+        <v>2</v>
+      </c>
+      <c r="D535" s="6">
+        <v>2</v>
+      </c>
+      <c r="E535" s="6">
+        <v>0</v>
+      </c>
+      <c r="F535" s="6">
+        <v>1</v>
+      </c>
+      <c r="G535" s="6">
+        <v>2</v>
+      </c>
+      <c r="H535" s="6">
+        <v>1</v>
+      </c>
+      <c r="I535" s="6">
+        <v>8</v>
+      </c>
+      <c r="J535" s="6">
+        <v>5</v>
+      </c>
+      <c r="K535" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L535" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M535" s="6">
+        <v>11</v>
+      </c>
+      <c r="N535" s="6">
+        <v>147</v>
+      </c>
+      <c r="O535" s="6">
+        <v>0</v>
+      </c>
       <c r="P535" s="6"/>
+    </row>
+    <row r="536" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A536" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B536" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C536" s="6">
+        <v>1</v>
+      </c>
+      <c r="D536" s="6">
+        <v>3</v>
+      </c>
+      <c r="E536" s="6">
+        <v>2</v>
+      </c>
+      <c r="F536" s="6">
+        <v>1</v>
+      </c>
+      <c r="G536" s="6">
+        <v>1</v>
+      </c>
+      <c r="H536" s="6">
+        <v>0</v>
+      </c>
+      <c r="I536" s="6">
+        <v>8</v>
+      </c>
+      <c r="J536" s="6">
+        <v>5</v>
+      </c>
+      <c r="K536" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L536" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M536" s="6">
+        <v>11</v>
+      </c>
+      <c r="N536" s="6">
+        <v>155</v>
+      </c>
+      <c r="O536" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A537" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B537" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C537" s="6">
+        <v>1</v>
+      </c>
+      <c r="D537" s="6">
+        <v>0</v>
+      </c>
+      <c r="E537" s="6">
+        <v>2</v>
+      </c>
+      <c r="F537" s="6">
+        <v>2</v>
+      </c>
+      <c r="G537" s="6">
+        <v>1</v>
+      </c>
+      <c r="H537" s="6">
+        <v>2</v>
+      </c>
+      <c r="I537" s="6">
+        <v>8</v>
+      </c>
+      <c r="J537" s="6">
+        <v>5</v>
+      </c>
+      <c r="K537" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L537" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M537" s="6">
+        <v>12</v>
+      </c>
+      <c r="N537" s="6">
+        <v>152</v>
+      </c>
+      <c r="O537" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A538" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B538" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C538" s="6">
+        <v>0</v>
+      </c>
+      <c r="D538" s="6">
+        <v>2</v>
+      </c>
+      <c r="E538" s="6">
+        <v>3</v>
+      </c>
+      <c r="F538" s="6">
+        <v>1</v>
+      </c>
+      <c r="G538" s="6">
+        <v>2</v>
+      </c>
+      <c r="H538" s="6">
+        <v>0</v>
+      </c>
+      <c r="I538" s="6">
+        <v>8</v>
+      </c>
+      <c r="J538" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A539" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B539" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C539" s="6">
+        <v>3</v>
+      </c>
+      <c r="D539" s="6">
+        <v>5</v>
+      </c>
+      <c r="E539" s="6">
+        <v>1</v>
+      </c>
+      <c r="F539" s="6">
+        <v>0</v>
+      </c>
+      <c r="G539" s="6">
+        <v>1</v>
+      </c>
+      <c r="H539" s="6">
+        <v>0</v>
+      </c>
+      <c r="I539" s="6">
+        <v>10</v>
+      </c>
+      <c r="J539" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A540" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B540" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C540" s="6">
+        <v>3</v>
+      </c>
+      <c r="D540" s="6">
+        <v>0</v>
+      </c>
+      <c r="E540" s="6">
+        <v>2</v>
+      </c>
+      <c r="F540" s="6">
+        <v>2</v>
+      </c>
+      <c r="G540" s="6">
+        <v>0</v>
+      </c>
+      <c r="H540" s="6">
+        <v>1</v>
+      </c>
+      <c r="I540" s="6">
+        <v>8</v>
+      </c>
+      <c r="J540" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="541" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A541" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B541" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C541" s="6">
+        <v>1</v>
+      </c>
+      <c r="D541" s="6">
+        <v>0</v>
+      </c>
+      <c r="E541" s="6">
+        <v>1</v>
+      </c>
+      <c r="F541" s="6">
+        <v>2</v>
+      </c>
+      <c r="G541" s="6">
+        <v>2</v>
+      </c>
+      <c r="H541" s="6">
+        <v>2</v>
+      </c>
+      <c r="I541" s="6">
+        <v>8</v>
+      </c>
+      <c r="J541" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A542" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B542" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C542" s="6">
+        <v>2</v>
+      </c>
+      <c r="D542" s="6">
+        <v>0</v>
+      </c>
+      <c r="E542" s="6">
+        <v>3</v>
+      </c>
+      <c r="F542" s="6">
+        <v>1</v>
+      </c>
+      <c r="G542" s="6">
+        <v>1</v>
+      </c>
+      <c r="H542" s="6">
+        <v>1</v>
+      </c>
+      <c r="I542" s="6">
+        <v>8</v>
+      </c>
+      <c r="J542" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="543" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A543" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B543" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C543" s="6">
+        <v>2</v>
+      </c>
+      <c r="D543" s="6">
+        <v>1</v>
+      </c>
+      <c r="E543" s="6">
+        <v>0</v>
+      </c>
+      <c r="F543" s="6">
+        <v>1</v>
+      </c>
+      <c r="G543" s="6">
+        <v>2</v>
+      </c>
+      <c r="H543" s="6">
+        <v>2</v>
+      </c>
+      <c r="I543" s="6">
+        <v>8</v>
+      </c>
+      <c r="J543" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A544" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B544" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C544" s="6">
+        <v>0</v>
+      </c>
+      <c r="D544" s="6">
+        <v>2</v>
+      </c>
+      <c r="E544" s="6">
+        <v>5</v>
+      </c>
+      <c r="F544" s="6">
+        <v>2</v>
+      </c>
+      <c r="G544" s="6">
+        <v>0</v>
+      </c>
+      <c r="H544" s="6">
+        <v>0</v>
+      </c>
+      <c r="I544" s="6">
+        <v>8</v>
+      </c>
+      <c r="J544" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="545" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A545" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B545" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C545" s="6">
+        <v>1</v>
+      </c>
+      <c r="D545" s="6">
+        <v>1</v>
+      </c>
+      <c r="E545" s="6">
+        <v>3</v>
+      </c>
+      <c r="F545" s="6">
+        <v>0</v>
+      </c>
+      <c r="G545" s="6">
+        <v>2</v>
+      </c>
+      <c r="H545">
+        <v>0</v>
+      </c>
+      <c r="I545" s="6">
+        <v>7</v>
+      </c>
+      <c r="J545" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="546" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A546" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B546" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C546" s="6">
+        <v>0</v>
+      </c>
+      <c r="D546" s="6">
+        <v>1</v>
+      </c>
+      <c r="E546" s="6">
+        <v>2</v>
+      </c>
+      <c r="F546" s="6">
+        <v>3</v>
+      </c>
+      <c r="G546" s="6">
+        <v>2</v>
+      </c>
+      <c r="H546" s="6">
+        <v>0</v>
+      </c>
+      <c r="I546" s="6">
+        <v>8</v>
+      </c>
+      <c r="J546" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="547" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A547" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B547" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C547" s="6">
+        <v>3</v>
+      </c>
+      <c r="D547" s="6">
+        <v>0</v>
+      </c>
+      <c r="E547" s="6">
+        <v>2</v>
+      </c>
+      <c r="F547" s="6">
+        <v>1</v>
+      </c>
+      <c r="G547" s="6">
+        <v>1</v>
+      </c>
+      <c r="H547" s="6">
+        <v>1</v>
+      </c>
+      <c r="I547" s="6">
+        <v>8</v>
+      </c>
+      <c r="J547" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="548" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A548" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B548" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C548" s="6">
+        <v>1</v>
+      </c>
+      <c r="D548" s="6">
+        <v>0</v>
+      </c>
+      <c r="E548" s="6">
+        <v>0</v>
+      </c>
+      <c r="F548" s="6">
+        <v>4</v>
+      </c>
+      <c r="G548" s="6">
+        <v>2</v>
+      </c>
+      <c r="H548" s="6">
+        <v>1</v>
+      </c>
+      <c r="I548" s="6">
+        <v>8</v>
+      </c>
+      <c r="J548" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="549" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A549" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B549" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C549" s="6">
+        <v>3</v>
+      </c>
+      <c r="D549" s="6">
+        <v>2</v>
+      </c>
+      <c r="E549" s="6">
+        <v>2</v>
+      </c>
+      <c r="F549" s="6">
+        <v>1</v>
+      </c>
+      <c r="G549" s="6">
+        <v>0</v>
+      </c>
+      <c r="H549" s="6">
+        <v>0</v>
+      </c>
+      <c r="I549" s="6">
+        <v>8</v>
+      </c>
+      <c r="J549" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="550" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A550" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B550" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C550" s="6">
+        <v>1</v>
+      </c>
+      <c r="D550" s="6">
+        <v>2</v>
+      </c>
+      <c r="E550" s="6">
+        <v>1</v>
+      </c>
+      <c r="F550" s="6">
+        <v>2</v>
+      </c>
+      <c r="G550" s="6">
+        <v>2</v>
+      </c>
+      <c r="H550" s="6">
+        <v>0</v>
+      </c>
+      <c r="I550" s="6">
+        <v>8</v>
+      </c>
+      <c r="J550" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="551" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A551" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B551" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C551" s="6">
+        <v>3</v>
+      </c>
+      <c r="D551" s="6">
+        <v>1</v>
+      </c>
+      <c r="E551" s="6">
+        <v>0</v>
+      </c>
+      <c r="F551" s="6">
+        <v>0</v>
+      </c>
+      <c r="G551" s="6">
+        <v>2</v>
+      </c>
+      <c r="H551" s="6">
+        <v>2</v>
+      </c>
+      <c r="I551" s="6">
+        <v>8</v>
+      </c>
+      <c r="J551" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="552" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A552" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B552" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C552" s="6">
+        <v>2</v>
+      </c>
+      <c r="D552" s="6">
+        <v>1</v>
+      </c>
+      <c r="E552" s="6">
+        <v>1</v>
+      </c>
+      <c r="F552" s="6">
+        <v>1</v>
+      </c>
+      <c r="G552" s="6">
+        <v>2</v>
+      </c>
+      <c r="H552" s="6">
+        <v>1</v>
+      </c>
+      <c r="I552" s="6">
+        <v>8</v>
+      </c>
+      <c r="J552" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="553" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A553" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B553" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C553" s="6">
+        <v>1</v>
+      </c>
+      <c r="D553" s="6">
+        <v>3</v>
+      </c>
+      <c r="E553" s="6">
+        <v>2</v>
+      </c>
+      <c r="F553" s="6">
+        <v>2</v>
+      </c>
+      <c r="G553" s="6">
+        <v>0</v>
+      </c>
+      <c r="H553" s="6">
+        <v>0</v>
+      </c>
+      <c r="I553" s="6">
+        <v>8</v>
+      </c>
+      <c r="J553" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A554" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B554" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C554" s="6">
+        <v>2</v>
+      </c>
+      <c r="D554" s="6">
+        <v>1</v>
+      </c>
+      <c r="E554" s="6">
+        <v>1</v>
+      </c>
+      <c r="F554" s="6">
+        <v>1</v>
+      </c>
+      <c r="G554" s="6">
+        <v>2</v>
+      </c>
+      <c r="H554" s="6">
+        <v>2</v>
+      </c>
+      <c r="I554" s="6">
+        <v>9</v>
+      </c>
+      <c r="J554" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="555" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A555" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B555" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C555" s="6">
+        <v>1</v>
+      </c>
+      <c r="D555" s="6">
+        <v>0</v>
+      </c>
+      <c r="E555" s="6">
+        <v>3</v>
+      </c>
+      <c r="F555" s="6">
+        <v>3</v>
+      </c>
+      <c r="G555" s="6">
+        <v>1</v>
+      </c>
+      <c r="H555" s="6">
+        <v>1</v>
+      </c>
+      <c r="I555" s="6">
+        <v>9</v>
+      </c>
+      <c r="J555" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="556" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A556" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B556" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C556" s="6">
+        <v>0</v>
+      </c>
+      <c r="D556" s="6">
+        <v>1</v>
+      </c>
+      <c r="E556" s="6">
+        <v>1</v>
+      </c>
+      <c r="F556" s="6">
+        <v>1</v>
+      </c>
+      <c r="G556" s="6">
+        <v>3</v>
+      </c>
+      <c r="H556" s="6">
+        <v>2</v>
+      </c>
+      <c r="I556" s="6">
+        <v>8</v>
+      </c>
+      <c r="J556" s="6">
+        <v>5</v>
+      </c>
+      <c r="K556" t="s">
+        <v>5</v>
+      </c>
+      <c r="L556" t="s">
+        <v>1</v>
+      </c>
+      <c r="M556">
+        <v>14</v>
+      </c>
+      <c r="N556">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="557" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A557" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B557" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C557" s="6">
+        <v>0</v>
+      </c>
+      <c r="D557" s="6">
+        <v>4</v>
+      </c>
+      <c r="E557" s="6">
+        <v>1</v>
+      </c>
+      <c r="F557" s="6">
+        <v>0</v>
+      </c>
+      <c r="G557" s="6">
+        <v>2</v>
+      </c>
+      <c r="H557" s="6">
+        <v>0</v>
+      </c>
+      <c r="I557" s="6">
+        <v>7</v>
+      </c>
+      <c r="J557" s="6">
+        <v>3</v>
+      </c>
+      <c r="K557" t="s">
+        <v>7</v>
+      </c>
+      <c r="L557" t="s">
+        <v>1</v>
+      </c>
+      <c r="M557">
+        <v>13</v>
+      </c>
+      <c r="N557">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="558" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A558" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B558" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C558" s="6">
+        <v>1</v>
+      </c>
+      <c r="D558" s="6">
+        <v>3</v>
+      </c>
+      <c r="E558" s="6">
+        <v>0</v>
+      </c>
+      <c r="F558" s="6">
+        <v>1</v>
+      </c>
+      <c r="G558" s="6">
+        <v>1</v>
+      </c>
+      <c r="H558" s="6">
+        <v>2</v>
+      </c>
+      <c r="I558" s="6">
+        <v>8</v>
+      </c>
+      <c r="J558" s="6">
+        <v>5</v>
+      </c>
+      <c r="K558" t="s">
+        <v>8</v>
+      </c>
+      <c r="L558" t="s">
+        <v>1</v>
+      </c>
+      <c r="M558">
+        <v>14</v>
+      </c>
+      <c r="N558">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="559" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A559" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B559" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C559" s="6">
+        <v>1</v>
+      </c>
+      <c r="D559" s="6">
+        <v>1</v>
+      </c>
+      <c r="E559" s="6">
+        <v>2</v>
+      </c>
+      <c r="F559" s="6">
+        <v>1</v>
+      </c>
+      <c r="G559" s="6">
+        <v>0</v>
+      </c>
+      <c r="H559" s="6">
+        <v>2</v>
+      </c>
+      <c r="I559" s="6">
+        <v>7</v>
+      </c>
+      <c r="J559" s="6">
+        <v>5</v>
+      </c>
+      <c r="K559" t="s">
+        <v>21</v>
+      </c>
+      <c r="L559" t="s">
+        <v>1</v>
+      </c>
+      <c r="M559">
+        <v>11</v>
+      </c>
+      <c r="N559">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="560" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A560" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B560" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C560" s="6">
+        <v>0</v>
+      </c>
+      <c r="D560" s="6">
+        <v>1</v>
+      </c>
+      <c r="E560" s="6">
+        <v>5</v>
+      </c>
+      <c r="F560" s="6">
+        <v>1</v>
+      </c>
+      <c r="G560" s="6">
+        <v>0</v>
+      </c>
+      <c r="H560" s="6">
+        <v>1</v>
+      </c>
+      <c r="I560" s="6">
+        <v>8</v>
+      </c>
+      <c r="J560" s="6">
+        <v>4</v>
+      </c>
+      <c r="K560" s="6"/>
+    </row>
+    <row r="561" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A561" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B561" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C561" s="6">
+        <v>3</v>
+      </c>
+      <c r="D561" s="6">
+        <v>2</v>
+      </c>
+      <c r="E561" s="6">
+        <v>0</v>
+      </c>
+      <c r="F561" s="6">
+        <v>2</v>
+      </c>
+      <c r="G561" s="6">
+        <v>0</v>
+      </c>
+      <c r="H561" s="6">
+        <v>1</v>
+      </c>
+      <c r="I561" s="6">
+        <v>8</v>
+      </c>
+      <c r="J561" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="562" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A562" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B562" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C562" s="6">
+        <v>2</v>
+      </c>
+      <c r="D562" s="6">
+        <v>2</v>
+      </c>
+      <c r="E562" s="6">
+        <v>1</v>
+      </c>
+      <c r="F562" s="6">
+        <v>0</v>
+      </c>
+      <c r="G562" s="6">
+        <v>1</v>
+      </c>
+      <c r="H562" s="6">
+        <v>2</v>
+      </c>
+      <c r="I562" s="6">
+        <v>8</v>
+      </c>
+      <c r="J562" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="563" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A563" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B563" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C563" s="6">
+        <v>1</v>
+      </c>
+      <c r="D563" s="6">
+        <v>0</v>
+      </c>
+      <c r="E563" s="6">
+        <v>0</v>
+      </c>
+      <c r="F563" s="6">
+        <v>1</v>
+      </c>
+      <c r="G563" s="6">
+        <v>3</v>
+      </c>
+      <c r="H563" s="6">
+        <v>3</v>
+      </c>
+      <c r="I563" s="6">
+        <v>8</v>
+      </c>
+      <c r="J563" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A564" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B564" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C564" s="6">
+        <v>1</v>
+      </c>
+      <c r="D564" s="6">
+        <v>0</v>
+      </c>
+      <c r="E564" s="6">
+        <v>0</v>
+      </c>
+      <c r="F564" s="6">
+        <v>4</v>
+      </c>
+      <c r="G564" s="6">
+        <v>2</v>
+      </c>
+      <c r="H564" s="6">
+        <v>3</v>
+      </c>
+      <c r="I564" s="6">
+        <v>10</v>
+      </c>
+      <c r="J564" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A565" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B565" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C565" s="6">
+        <v>1</v>
+      </c>
+      <c r="D565" s="6">
+        <v>2</v>
+      </c>
+      <c r="E565" s="6">
+        <v>2</v>
+      </c>
+      <c r="F565" s="6">
+        <v>0</v>
+      </c>
+      <c r="G565" s="6">
+        <v>1</v>
+      </c>
+      <c r="H565" s="6">
+        <v>2</v>
+      </c>
+      <c r="I565" s="6">
+        <v>8</v>
+      </c>
+      <c r="J565" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A566" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B566" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C566" s="6">
+        <v>2</v>
+      </c>
+      <c r="D566" s="6">
+        <v>0</v>
+      </c>
+      <c r="E566" s="6">
+        <v>1</v>
+      </c>
+      <c r="F566" s="6">
+        <v>2</v>
+      </c>
+      <c r="G566" s="6">
+        <v>2</v>
+      </c>
+      <c r="H566" s="6">
+        <v>0</v>
+      </c>
+      <c r="I566" s="6">
+        <v>7</v>
+      </c>
+      <c r="J566" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A567" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B567" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C567" s="6">
+        <v>0</v>
+      </c>
+      <c r="D567" s="6">
+        <v>2</v>
+      </c>
+      <c r="E567" s="6">
+        <v>2</v>
+      </c>
+      <c r="F567" s="6">
+        <v>1</v>
+      </c>
+      <c r="G567" s="6">
+        <v>0</v>
+      </c>
+      <c r="H567" s="6">
+        <v>2</v>
+      </c>
+      <c r="I567" s="6">
+        <v>7</v>
+      </c>
+      <c r="J567" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A568" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B568" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C568" s="6">
+        <v>2</v>
+      </c>
+      <c r="D568" s="6">
+        <v>0</v>
+      </c>
+      <c r="E568" s="6">
+        <v>2</v>
+      </c>
+      <c r="F568" s="6">
+        <v>2</v>
+      </c>
+      <c r="G568" s="6">
+        <v>1</v>
+      </c>
+      <c r="H568" s="6">
+        <v>1</v>
+      </c>
+      <c r="I568" s="6">
+        <v>8</v>
+      </c>
+      <c r="J568" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A569" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B569" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C569" s="6">
+        <v>1</v>
+      </c>
+      <c r="D569" s="6">
+        <v>1</v>
+      </c>
+      <c r="E569" s="6">
+        <v>1</v>
+      </c>
+      <c r="F569" s="6">
+        <v>2</v>
+      </c>
+      <c r="G569" s="6">
+        <v>2</v>
+      </c>
+      <c r="H569" s="6">
+        <v>1</v>
+      </c>
+      <c r="I569" s="6">
+        <v>8</v>
+      </c>
+      <c r="J569" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A570" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B570" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C570" s="6">
+        <v>0</v>
+      </c>
+      <c r="D570" s="6">
+        <v>0</v>
+      </c>
+      <c r="E570" s="6">
+        <v>0</v>
+      </c>
+      <c r="F570" s="6">
+        <v>3</v>
+      </c>
+      <c r="G570" s="6">
+        <v>3</v>
+      </c>
+      <c r="H570" s="6">
+        <v>2</v>
+      </c>
+      <c r="I570" s="6">
+        <v>8</v>
+      </c>
+      <c r="J570" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A571" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B571" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C571" s="6">
+        <v>0</v>
+      </c>
+      <c r="D571" s="6">
+        <v>2</v>
+      </c>
+      <c r="E571" s="6">
+        <v>1</v>
+      </c>
+      <c r="F571" s="6">
+        <v>1</v>
+      </c>
+      <c r="G571" s="6">
+        <v>0</v>
+      </c>
+      <c r="H571" s="6">
+        <v>3</v>
+      </c>
+      <c r="I571" s="6">
+        <v>7</v>
+      </c>
+      <c r="J571" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A572" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B572" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C572" s="6">
+        <v>2</v>
+      </c>
+      <c r="D572" s="6">
+        <v>0</v>
+      </c>
+      <c r="E572" s="6">
+        <v>2</v>
+      </c>
+      <c r="F572" s="6">
+        <v>0</v>
+      </c>
+      <c r="G572" s="6">
+        <v>0</v>
+      </c>
+      <c r="H572" s="6">
+        <v>4</v>
+      </c>
+      <c r="I572" s="6">
+        <v>8</v>
+      </c>
+      <c r="J572" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A573" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B573" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C573" s="6">
+        <v>2</v>
+      </c>
+      <c r="D573" s="6">
+        <v>1</v>
+      </c>
+      <c r="E573" s="6">
+        <v>2</v>
+      </c>
+      <c r="F573" s="6">
+        <v>1</v>
+      </c>
+      <c r="G573" s="6">
+        <v>3</v>
+      </c>
+      <c r="H573" s="6">
+        <v>0</v>
+      </c>
+      <c r="I573" s="6">
+        <v>9</v>
+      </c>
+      <c r="J573" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A574" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B574" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C574" s="6">
+        <v>1</v>
+      </c>
+      <c r="D574" s="6">
+        <v>0</v>
+      </c>
+      <c r="E574" s="6">
+        <v>1</v>
+      </c>
+      <c r="F574" s="6">
+        <v>0</v>
+      </c>
+      <c r="G574" s="6">
+        <v>3</v>
+      </c>
+      <c r="H574" s="6">
+        <v>2</v>
+      </c>
+      <c r="I574" s="6">
+        <v>7</v>
+      </c>
+      <c r="J574" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A575" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B575" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C575" s="6">
+        <v>1</v>
+      </c>
+      <c r="D575" s="6">
+        <v>1</v>
+      </c>
+      <c r="E575" s="6">
+        <v>3</v>
+      </c>
+      <c r="F575" s="6">
+        <v>2</v>
+      </c>
+      <c r="G575" s="6">
+        <v>1</v>
+      </c>
+      <c r="H575" s="6">
+        <v>0</v>
+      </c>
+      <c r="I575" s="6">
+        <v>8</v>
+      </c>
+      <c r="J575" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A576" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B576" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C576" s="6">
+        <v>1</v>
+      </c>
+      <c r="D576" s="6">
+        <v>1</v>
+      </c>
+      <c r="E576" s="6">
+        <v>2</v>
+      </c>
+      <c r="F576" s="6">
+        <v>1</v>
+      </c>
+      <c r="G576" s="6">
+        <v>0</v>
+      </c>
+      <c r="H576" s="6">
+        <v>3</v>
+      </c>
+      <c r="I576" s="6">
+        <v>8</v>
+      </c>
+      <c r="J576" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A577" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B577" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C577" s="6">
+        <v>0</v>
+      </c>
+      <c r="D577" s="6">
+        <v>2</v>
+      </c>
+      <c r="E577" s="6">
+        <v>1</v>
+      </c>
+      <c r="F577" s="6">
+        <v>0</v>
+      </c>
+      <c r="G577" s="6">
+        <v>3</v>
+      </c>
+      <c r="H577" s="6">
+        <v>1</v>
+      </c>
+      <c r="I577" s="6">
+        <v>7</v>
+      </c>
+      <c r="J577" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A578" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B578" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A579" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B579" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A580" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B580" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A581" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B581" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A582" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B582" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A583" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B583" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A584" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B584" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="585" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A585" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B585" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A586" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B586" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A587" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B587" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="588" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A588" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B588" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="589" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A589" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B589" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="590" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A590" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B590" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="591" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A591" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B591" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A592" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B592" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A593" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B593" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A594" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B594" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A595" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B595" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A596" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B596" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A597" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B597" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A598" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B598" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FACD302-BB31-DA4A-8FC6-3E6DA437EB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA5205D-09E8-234A-BC4F-71939453CA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1540" windowWidth="28800" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="27">
   <si>
     <t>m</t>
   </si>
@@ -638,8 +638,8 @@
   <dimension ref="A1:Q598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A555" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D578" sqref="D578"/>
+      <pane ySplit="1" topLeftCell="A573" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H596" sqref="H596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -25794,7 +25794,7 @@
         <v>5</v>
       </c>
       <c r="K536" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L536" s="6" t="s">
         <v>1</v>
@@ -26080,7 +26080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="545" spans="1:14" ht="15.75" customHeight="1">
+    <row r="545" spans="1:15" ht="15.75" customHeight="1">
       <c r="A545" s="6">
         <v>2023</v>
       </c>
@@ -26112,7 +26112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="546" spans="1:14" ht="15.75" customHeight="1">
+    <row r="546" spans="1:15" ht="15.75" customHeight="1">
       <c r="A546" s="6">
         <v>2023</v>
       </c>
@@ -26144,7 +26144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="547" spans="1:14" ht="15.75" customHeight="1">
+    <row r="547" spans="1:15" ht="15.75" customHeight="1">
       <c r="A547" s="6">
         <v>2023</v>
       </c>
@@ -26176,7 +26176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="548" spans="1:14" ht="15.75" customHeight="1">
+    <row r="548" spans="1:15" ht="15.75" customHeight="1">
       <c r="A548" s="6">
         <v>2023</v>
       </c>
@@ -26208,7 +26208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="549" spans="1:14" ht="15.75" customHeight="1">
+    <row r="549" spans="1:15" ht="15.75" customHeight="1">
       <c r="A549" s="6">
         <v>2023</v>
       </c>
@@ -26240,7 +26240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="550" spans="1:14" ht="15.75" customHeight="1">
+    <row r="550" spans="1:15" ht="15.75" customHeight="1">
       <c r="A550" s="6">
         <v>2023</v>
       </c>
@@ -26272,7 +26272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="551" spans="1:14" ht="15.75" customHeight="1">
+    <row r="551" spans="1:15" ht="15.75" customHeight="1">
       <c r="A551" s="6">
         <v>2023</v>
       </c>
@@ -26304,7 +26304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="552" spans="1:14" ht="15.75" customHeight="1">
+    <row r="552" spans="1:15" ht="15.75" customHeight="1">
       <c r="A552" s="6">
         <v>2023</v>
       </c>
@@ -26336,7 +26336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="553" spans="1:14" ht="15.75" customHeight="1">
+    <row r="553" spans="1:15" ht="15.75" customHeight="1">
       <c r="A553" s="6">
         <v>2023</v>
       </c>
@@ -26368,7 +26368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="554" spans="1:14" ht="15.75" customHeight="1">
+    <row r="554" spans="1:15" ht="15.75" customHeight="1">
       <c r="A554" s="6">
         <v>2023</v>
       </c>
@@ -26400,7 +26400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="555" spans="1:14" ht="15.75" customHeight="1">
+    <row r="555" spans="1:15" ht="15.75" customHeight="1">
       <c r="A555" s="6">
         <v>2023</v>
       </c>
@@ -26432,7 +26432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="556" spans="1:14" ht="15.75" customHeight="1">
+    <row r="556" spans="1:15" ht="15.75" customHeight="1">
       <c r="A556" s="6">
         <v>2023</v>
       </c>
@@ -26475,8 +26475,11 @@
       <c r="N556">
         <v>172</v>
       </c>
-    </row>
-    <row r="557" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:15" ht="15.75" customHeight="1">
       <c r="A557" s="6">
         <v>2023</v>
       </c>
@@ -26508,7 +26511,7 @@
         <v>3</v>
       </c>
       <c r="K557" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L557" t="s">
         <v>1</v>
@@ -26519,8 +26522,11 @@
       <c r="N557">
         <v>160</v>
       </c>
-    </row>
-    <row r="558" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:15" ht="15.75" customHeight="1">
       <c r="A558" s="6">
         <v>2023</v>
       </c>
@@ -26563,8 +26569,11 @@
       <c r="N558">
         <v>173</v>
       </c>
-    </row>
-    <row r="559" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:15" ht="15.75" customHeight="1">
       <c r="A559" s="6">
         <v>2023</v>
       </c>
@@ -26607,8 +26616,11 @@
       <c r="N559">
         <v>159</v>
       </c>
-    </row>
-    <row r="560" spans="1:14" ht="15.75" customHeight="1">
+      <c r="O559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:15" ht="15.75" customHeight="1">
       <c r="A560" s="6">
         <v>2023</v>
       </c>
@@ -27153,7 +27165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="577" spans="1:10" ht="15.75" customHeight="1">
+    <row r="577" spans="1:15" ht="15.75" customHeight="1">
       <c r="A577" s="6">
         <v>2023</v>
       </c>
@@ -27185,172 +27197,736 @@
         <v>4</v>
       </c>
     </row>
-    <row r="578" spans="1:10" ht="15.75" customHeight="1">
+    <row r="578" spans="1:15" ht="15.75" customHeight="1">
       <c r="A578" s="6">
         <v>2023</v>
       </c>
       <c r="B578" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="579" spans="1:10" ht="15.75" customHeight="1">
+      <c r="C578" s="6">
+        <v>0</v>
+      </c>
+      <c r="D578" s="6">
+        <v>1</v>
+      </c>
+      <c r="E578" s="6">
+        <v>2</v>
+      </c>
+      <c r="F578" s="6">
+        <v>2</v>
+      </c>
+      <c r="G578" s="6">
+        <v>1</v>
+      </c>
+      <c r="H578" s="6">
+        <v>1</v>
+      </c>
+      <c r="I578" s="6">
+        <v>7</v>
+      </c>
+      <c r="J578" s="6">
+        <v>5</v>
+      </c>
+      <c r="K578" t="s">
+        <v>3</v>
+      </c>
+      <c r="L578" t="s">
+        <v>1</v>
+      </c>
+      <c r="M578">
+        <v>12</v>
+      </c>
+      <c r="N578">
+        <v>158</v>
+      </c>
+      <c r="O578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:15" ht="15.75" customHeight="1">
       <c r="A579" s="6">
         <v>2023</v>
       </c>
       <c r="B579" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="580" spans="1:10" ht="15.75" customHeight="1">
+      <c r="C579" s="6">
+        <v>0</v>
+      </c>
+      <c r="D579" s="6">
+        <v>1</v>
+      </c>
+      <c r="E579" s="6">
+        <v>4</v>
+      </c>
+      <c r="F579" s="6">
+        <v>1</v>
+      </c>
+      <c r="G579" s="6">
+        <v>1</v>
+      </c>
+      <c r="H579" s="6">
+        <v>1</v>
+      </c>
+      <c r="I579">
+        <v>8</v>
+      </c>
+      <c r="J579" s="6">
+        <v>5</v>
+      </c>
+      <c r="K579" t="s">
+        <v>3</v>
+      </c>
+      <c r="L579" t="s">
+        <v>1</v>
+      </c>
+      <c r="M579">
+        <v>12</v>
+      </c>
+      <c r="N579">
+        <v>158</v>
+      </c>
+      <c r="O579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:15" ht="15.75" customHeight="1">
       <c r="A580" s="6">
         <v>2023</v>
       </c>
       <c r="B580" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="581" spans="1:10" ht="15.75" customHeight="1">
+      <c r="C580" s="6">
+        <v>1</v>
+      </c>
+      <c r="D580" s="6">
+        <v>1</v>
+      </c>
+      <c r="E580" s="6">
+        <v>0</v>
+      </c>
+      <c r="F580" s="6">
+        <v>2</v>
+      </c>
+      <c r="G580" s="6">
+        <v>1</v>
+      </c>
+      <c r="H580" s="6">
+        <v>2</v>
+      </c>
+      <c r="I580">
+        <v>7</v>
+      </c>
+      <c r="J580" s="6">
+        <v>5</v>
+      </c>
+      <c r="K580" t="s">
+        <v>3</v>
+      </c>
+      <c r="L580" t="s">
+        <v>1</v>
+      </c>
+      <c r="M580">
+        <v>12</v>
+      </c>
+      <c r="N580">
+        <v>156</v>
+      </c>
+      <c r="O580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:15" ht="15.75" customHeight="1">
       <c r="A581" s="6">
         <v>2023</v>
       </c>
       <c r="B581" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="582" spans="1:10" ht="15.75" customHeight="1">
+      <c r="C581" s="6">
+        <v>0</v>
+      </c>
+      <c r="D581" s="6">
+        <v>3</v>
+      </c>
+      <c r="E581" s="6">
+        <v>2</v>
+      </c>
+      <c r="F581" s="6">
+        <v>1</v>
+      </c>
+      <c r="G581" s="6">
+        <v>1</v>
+      </c>
+      <c r="H581" s="6">
+        <v>0</v>
+      </c>
+      <c r="I581">
+        <v>7</v>
+      </c>
+      <c r="J581" s="6">
+        <v>4</v>
+      </c>
+      <c r="K581" t="s">
+        <v>3</v>
+      </c>
+      <c r="L581" t="s">
+        <v>1</v>
+      </c>
+      <c r="M581">
+        <v>12</v>
+      </c>
+      <c r="N581">
+        <v>158</v>
+      </c>
+      <c r="O581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:15" ht="15.75" customHeight="1">
       <c r="A582" s="6">
         <v>2023</v>
       </c>
       <c r="B582" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="583" spans="1:10" ht="15.75" customHeight="1">
+      <c r="C582" s="6">
+        <v>2</v>
+      </c>
+      <c r="D582" s="6">
+        <v>2</v>
+      </c>
+      <c r="E582" s="6">
+        <v>2</v>
+      </c>
+      <c r="F582" s="6">
+        <v>0</v>
+      </c>
+      <c r="G582" s="6">
+        <v>0</v>
+      </c>
+      <c r="H582" s="6">
+        <v>1</v>
+      </c>
+      <c r="I582">
+        <v>7</v>
+      </c>
+      <c r="J582" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="583" spans="1:15" ht="15.75" customHeight="1">
       <c r="A583" s="6">
         <v>2023</v>
       </c>
       <c r="B583" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="584" spans="1:10" ht="15.75" customHeight="1">
+      <c r="C583" s="6">
+        <v>1</v>
+      </c>
+      <c r="D583" s="6">
+        <v>1</v>
+      </c>
+      <c r="E583" s="6">
+        <v>1</v>
+      </c>
+      <c r="F583" s="6">
+        <v>1</v>
+      </c>
+      <c r="G583" s="6">
+        <v>2</v>
+      </c>
+      <c r="H583" s="6">
+        <v>3</v>
+      </c>
+      <c r="I583">
+        <v>9</v>
+      </c>
+      <c r="J583" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="584" spans="1:15" ht="15.75" customHeight="1">
       <c r="A584" s="6">
         <v>2023</v>
       </c>
       <c r="B584" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="585" spans="1:10" ht="15.75" customHeight="1">
+      <c r="C584" s="6">
+        <v>2</v>
+      </c>
+      <c r="D584" s="6">
+        <v>0</v>
+      </c>
+      <c r="E584" s="6">
+        <v>1</v>
+      </c>
+      <c r="F584" s="6">
+        <v>3</v>
+      </c>
+      <c r="G584" s="6">
+        <v>2</v>
+      </c>
+      <c r="H584" s="6">
+        <v>0</v>
+      </c>
+      <c r="I584">
+        <v>8</v>
+      </c>
+      <c r="J584" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="585" spans="1:15" ht="15.75" customHeight="1">
       <c r="A585" s="6">
         <v>2023</v>
       </c>
       <c r="B585" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="586" spans="1:10" ht="15.75" customHeight="1">
+      <c r="C585" s="6">
+        <v>1</v>
+      </c>
+      <c r="D585" s="6">
+        <v>1</v>
+      </c>
+      <c r="E585" s="6">
+        <v>1</v>
+      </c>
+      <c r="F585" s="6">
+        <v>3</v>
+      </c>
+      <c r="G585" s="6">
+        <v>1</v>
+      </c>
+      <c r="H585" s="6">
+        <v>1</v>
+      </c>
+      <c r="I585">
+        <v>8</v>
+      </c>
+      <c r="J585" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="586" spans="1:15" ht="15.75" customHeight="1">
       <c r="A586" s="6">
         <v>2023</v>
       </c>
       <c r="B586" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="587" spans="1:10" ht="15.75" customHeight="1">
+      <c r="C586" s="6">
+        <v>1</v>
+      </c>
+      <c r="D586" s="6">
+        <v>0</v>
+      </c>
+      <c r="E586" s="6">
+        <v>2</v>
+      </c>
+      <c r="F586" s="6">
+        <v>1</v>
+      </c>
+      <c r="G586" s="6">
+        <v>3</v>
+      </c>
+      <c r="H586" s="6">
+        <v>1</v>
+      </c>
+      <c r="I586">
+        <v>8</v>
+      </c>
+      <c r="J586" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="587" spans="1:15" ht="15.75" customHeight="1">
       <c r="A587" s="6">
         <v>2023</v>
       </c>
       <c r="B587" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="588" spans="1:10" ht="15.75" customHeight="1">
+      <c r="C587" s="6">
+        <v>0</v>
+      </c>
+      <c r="D587" s="6">
+        <v>1</v>
+      </c>
+      <c r="E587" s="6">
+        <v>1</v>
+      </c>
+      <c r="F587" s="6">
+        <v>3</v>
+      </c>
+      <c r="G587" s="6">
+        <v>2</v>
+      </c>
+      <c r="H587" s="6">
+        <v>0</v>
+      </c>
+      <c r="I587">
+        <v>7</v>
+      </c>
+      <c r="J587" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="588" spans="1:15" ht="15.75" customHeight="1">
       <c r="A588" s="6">
         <v>2023</v>
       </c>
       <c r="B588" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="589" spans="1:10" ht="15.75" customHeight="1">
+      <c r="C588" s="6">
+        <v>1</v>
+      </c>
+      <c r="D588" s="6">
+        <v>2</v>
+      </c>
+      <c r="E588" s="6">
+        <v>2</v>
+      </c>
+      <c r="F588" s="6">
+        <v>3</v>
+      </c>
+      <c r="G588" s="6">
+        <v>1</v>
+      </c>
+      <c r="H588" s="6">
+        <v>1</v>
+      </c>
+      <c r="I588">
+        <v>10</v>
+      </c>
+      <c r="J588" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="589" spans="1:15" ht="15.75" customHeight="1">
       <c r="A589" s="6">
         <v>2023</v>
       </c>
       <c r="B589" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="590" spans="1:10" ht="15.75" customHeight="1">
+      <c r="C589" s="6">
+        <v>3</v>
+      </c>
+      <c r="D589" s="6">
+        <v>4</v>
+      </c>
+      <c r="E589" s="6">
+        <v>1</v>
+      </c>
+      <c r="F589" s="6">
+        <v>0</v>
+      </c>
+      <c r="G589" s="6">
+        <v>0</v>
+      </c>
+      <c r="H589" s="6">
+        <v>2</v>
+      </c>
+      <c r="I589">
+        <v>10</v>
+      </c>
+      <c r="J589" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="590" spans="1:15" ht="15.75" customHeight="1">
       <c r="A590" s="6">
         <v>2023</v>
       </c>
       <c r="B590" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="591" spans="1:10" ht="15.75" customHeight="1">
+      <c r="C590" s="6">
+        <v>1</v>
+      </c>
+      <c r="D590" s="6">
+        <v>1</v>
+      </c>
+      <c r="E590" s="6">
+        <v>1</v>
+      </c>
+      <c r="F590" s="6">
+        <v>2</v>
+      </c>
+      <c r="G590" s="6">
+        <v>2</v>
+      </c>
+      <c r="H590" s="6">
+        <v>1</v>
+      </c>
+      <c r="I590">
+        <v>8</v>
+      </c>
+      <c r="J590" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="591" spans="1:15" ht="15.75" customHeight="1">
       <c r="A591" s="6">
         <v>2023</v>
       </c>
       <c r="B591" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="592" spans="1:10" ht="15.75" customHeight="1">
+      <c r="C591" s="6">
+        <v>2</v>
+      </c>
+      <c r="D591" s="6">
+        <v>1</v>
+      </c>
+      <c r="E591" s="6">
+        <v>1</v>
+      </c>
+      <c r="F591" s="6">
+        <v>1</v>
+      </c>
+      <c r="G591" s="6">
+        <v>2</v>
+      </c>
+      <c r="H591" s="6">
+        <v>3</v>
+      </c>
+      <c r="I591">
+        <v>10</v>
+      </c>
+      <c r="J591" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="592" spans="1:15" ht="15.75" customHeight="1">
       <c r="A592" s="6">
         <v>2023</v>
       </c>
       <c r="B592" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="593" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C592" s="6">
+        <v>2</v>
+      </c>
+      <c r="D592" s="6">
+        <v>1</v>
+      </c>
+      <c r="E592" s="6">
+        <v>1</v>
+      </c>
+      <c r="F592" s="6">
+        <v>3</v>
+      </c>
+      <c r="G592" s="6">
+        <v>1</v>
+      </c>
+      <c r="H592" s="6">
+        <v>1</v>
+      </c>
+      <c r="I592">
+        <v>9</v>
+      </c>
+      <c r="J592" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10" ht="15.75" customHeight="1">
       <c r="A593" s="6">
         <v>2023</v>
       </c>
       <c r="B593" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="594" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C593" s="6">
+        <v>0</v>
+      </c>
+      <c r="D593" s="6">
+        <v>2</v>
+      </c>
+      <c r="E593" s="6">
+        <v>1</v>
+      </c>
+      <c r="F593" s="6">
+        <v>2</v>
+      </c>
+      <c r="G593" s="6">
+        <v>4</v>
+      </c>
+      <c r="H593" s="6">
+        <v>0</v>
+      </c>
+      <c r="I593">
+        <v>9</v>
+      </c>
+      <c r="J593" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" ht="15.75" customHeight="1">
       <c r="A594" s="6">
         <v>2023</v>
       </c>
       <c r="B594" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="595" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C594" s="6">
+        <v>1</v>
+      </c>
+      <c r="D594" s="6">
+        <v>2</v>
+      </c>
+      <c r="E594" s="6">
+        <v>0</v>
+      </c>
+      <c r="F594" s="6">
+        <v>0</v>
+      </c>
+      <c r="G594" s="6">
+        <v>2</v>
+      </c>
+      <c r="H594" s="6">
+        <v>3</v>
+      </c>
+      <c r="I594">
+        <v>9</v>
+      </c>
+      <c r="J594" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10" ht="15.75" customHeight="1">
       <c r="A595" s="6">
         <v>2023</v>
       </c>
       <c r="B595" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="596" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C595" s="6">
+        <v>0</v>
+      </c>
+      <c r="D595" s="6">
+        <v>3</v>
+      </c>
+      <c r="E595" s="6">
+        <v>2</v>
+      </c>
+      <c r="F595" s="6">
+        <v>1</v>
+      </c>
+      <c r="G595" s="6">
+        <v>2</v>
+      </c>
+      <c r="H595" s="6">
+        <v>0</v>
+      </c>
+      <c r="I595">
+        <v>8</v>
+      </c>
+      <c r="J595" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10" ht="15.75" customHeight="1">
       <c r="A596" s="6">
         <v>2023</v>
       </c>
       <c r="B596" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="597" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C596" s="6">
+        <v>0</v>
+      </c>
+      <c r="D596">
+        <v>0</v>
+      </c>
+      <c r="E596">
+        <v>0</v>
+      </c>
+      <c r="F596">
+        <v>4</v>
+      </c>
+      <c r="G596">
+        <v>2</v>
+      </c>
+      <c r="H596">
+        <v>2</v>
+      </c>
+      <c r="I596">
+        <v>8</v>
+      </c>
+      <c r="J596" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" ht="15.75" customHeight="1">
       <c r="A597" s="6">
         <v>2023</v>
       </c>
       <c r="B597" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="598" spans="1:2" ht="15.75" customHeight="1">
+      <c r="C597" s="6">
+        <v>0</v>
+      </c>
+      <c r="D597">
+        <v>0</v>
+      </c>
+      <c r="E597">
+        <v>1</v>
+      </c>
+      <c r="F597">
+        <v>2</v>
+      </c>
+      <c r="G597">
+        <v>4</v>
+      </c>
+      <c r="H597">
+        <v>1</v>
+      </c>
+      <c r="I597">
+        <v>8</v>
+      </c>
+      <c r="J597" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" ht="15.75" customHeight="1">
       <c r="A598" s="6">
         <v>2023</v>
       </c>
       <c r="B598" s="6" t="s">
         <v>26</v>
+      </c>
+      <c r="C598" s="6">
+        <v>0</v>
+      </c>
+      <c r="D598">
+        <v>0</v>
+      </c>
+      <c r="E598">
+        <v>4</v>
+      </c>
+      <c r="F598">
+        <v>2</v>
+      </c>
+      <c r="G598">
+        <v>1</v>
+      </c>
+      <c r="H598">
+        <v>1</v>
+      </c>
+      <c r="I598">
+        <v>8</v>
+      </c>
+      <c r="J598" s="6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA5205D-09E8-234A-BC4F-71939453CA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3F3221-D0A7-E741-8A93-9AB0DB06119E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1540" windowWidth="28800" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="27">
   <si>
     <t>m</t>
   </si>
@@ -635,11 +635,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q598"/>
+  <dimension ref="A1:Q545"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A573" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H596" sqref="H596"/>
+      <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I556" sqref="I556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -25867,25 +25867,40 @@
         <v>0</v>
       </c>
       <c r="D538" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E538" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F538" s="6">
         <v>1</v>
       </c>
       <c r="G538" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H538" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" s="6">
         <v>8</v>
       </c>
       <c r="J538" s="6">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="K538" t="s">
+        <v>5</v>
+      </c>
+      <c r="L538" t="s">
+        <v>1</v>
+      </c>
+      <c r="M538">
+        <v>14</v>
+      </c>
+      <c r="N538">
+        <v>172</v>
+      </c>
+      <c r="O538">
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:16" ht="15.75" customHeight="1">
@@ -25896,10 +25911,10 @@
         <v>26</v>
       </c>
       <c r="C539" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D539" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E539" s="6">
         <v>1</v>
@@ -25908,16 +25923,31 @@
         <v>0</v>
       </c>
       <c r="G539" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H539" s="6">
         <v>0</v>
       </c>
       <c r="I539" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J539" s="6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="K539" t="s">
+        <v>3</v>
+      </c>
+      <c r="L539" t="s">
+        <v>1</v>
+      </c>
+      <c r="M539">
+        <v>13</v>
+      </c>
+      <c r="N539">
+        <v>160</v>
+      </c>
+      <c r="O539">
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:16" ht="15.75" customHeight="1">
@@ -25928,28 +25958,43 @@
         <v>26</v>
       </c>
       <c r="C540" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D540" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E540" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F540" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G540" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H540" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I540" s="6">
         <v>8</v>
       </c>
       <c r="J540" s="6">
         <v>5</v>
+      </c>
+      <c r="K540" t="s">
+        <v>8</v>
+      </c>
+      <c r="L540" t="s">
+        <v>1</v>
+      </c>
+      <c r="M540">
+        <v>14</v>
+      </c>
+      <c r="N540">
+        <v>173</v>
+      </c>
+      <c r="O540">
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:16" ht="15.75" customHeight="1">
@@ -25963,25 +26008,40 @@
         <v>1</v>
       </c>
       <c r="D541" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E541" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F541" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G541" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H541" s="6">
         <v>2</v>
       </c>
       <c r="I541" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J541" s="6">
         <v>5</v>
+      </c>
+      <c r="K541" t="s">
+        <v>21</v>
+      </c>
+      <c r="L541" t="s">
+        <v>1</v>
+      </c>
+      <c r="M541">
+        <v>11</v>
+      </c>
+      <c r="N541">
+        <v>159</v>
+      </c>
+      <c r="O541">
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:16" ht="15.75" customHeight="1">
@@ -25992,16 +26052,16 @@
         <v>26</v>
       </c>
       <c r="C542" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D542" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E542" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F542" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G542" s="6">
         <v>1</v>
@@ -26010,10 +26070,25 @@
         <v>1</v>
       </c>
       <c r="I542" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J542" s="6">
         <v>5</v>
+      </c>
+      <c r="K542" t="s">
+        <v>3</v>
+      </c>
+      <c r="L542" t="s">
+        <v>1</v>
+      </c>
+      <c r="M542">
+        <v>12</v>
+      </c>
+      <c r="N542">
+        <v>158</v>
+      </c>
+      <c r="O542">
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:16" ht="15.75" customHeight="1">
@@ -26024,28 +26099,43 @@
         <v>26</v>
       </c>
       <c r="C543" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D543" s="6">
         <v>1</v>
       </c>
       <c r="E543" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F543" s="6">
         <v>1</v>
       </c>
       <c r="G543" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H543" s="6">
-        <v>2</v>
-      </c>
-      <c r="I543" s="6">
+        <v>1</v>
+      </c>
+      <c r="I543">
         <v>8</v>
       </c>
       <c r="J543" s="6">
         <v>5</v>
+      </c>
+      <c r="K543" t="s">
+        <v>3</v>
+      </c>
+      <c r="L543" t="s">
+        <v>1</v>
+      </c>
+      <c r="M543">
+        <v>12</v>
+      </c>
+      <c r="N543">
+        <v>158</v>
+      </c>
+      <c r="O543">
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:16" ht="15.75" customHeight="1">
@@ -26056,28 +26146,43 @@
         <v>26</v>
       </c>
       <c r="C544" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D544" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E544" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F544" s="6">
         <v>2</v>
       </c>
       <c r="G544" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H544" s="6">
-        <v>0</v>
-      </c>
-      <c r="I544" s="6">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="I544">
+        <v>7</v>
       </c>
       <c r="J544" s="6">
         <v>5</v>
+      </c>
+      <c r="K544" t="s">
+        <v>3</v>
+      </c>
+      <c r="L544" t="s">
+        <v>1</v>
+      </c>
+      <c r="M544">
+        <v>12</v>
+      </c>
+      <c r="N544">
+        <v>156</v>
+      </c>
+      <c r="O544">
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:15" ht="15.75" customHeight="1">
@@ -26088,1845 +26193,43 @@
         <v>26</v>
       </c>
       <c r="C545" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D545" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E545" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F545" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G545" s="6">
-        <v>2</v>
-      </c>
-      <c r="H545">
-        <v>0</v>
-      </c>
-      <c r="I545" s="6">
+        <v>1</v>
+      </c>
+      <c r="H545" s="6">
+        <v>0</v>
+      </c>
+      <c r="I545">
         <v>7</v>
       </c>
       <c r="J545" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="546" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A546" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B546" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C546" s="6">
-        <v>0</v>
-      </c>
-      <c r="D546" s="6">
-        <v>1</v>
-      </c>
-      <c r="E546" s="6">
-        <v>2</v>
-      </c>
-      <c r="F546" s="6">
-        <v>3</v>
-      </c>
-      <c r="G546" s="6">
-        <v>2</v>
-      </c>
-      <c r="H546" s="6">
-        <v>0</v>
-      </c>
-      <c r="I546" s="6">
-        <v>8</v>
-      </c>
-      <c r="J546" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="547" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A547" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B547" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C547" s="6">
-        <v>3</v>
-      </c>
-      <c r="D547" s="6">
-        <v>0</v>
-      </c>
-      <c r="E547" s="6">
-        <v>2</v>
-      </c>
-      <c r="F547" s="6">
-        <v>1</v>
-      </c>
-      <c r="G547" s="6">
-        <v>1</v>
-      </c>
-      <c r="H547" s="6">
-        <v>1</v>
-      </c>
-      <c r="I547" s="6">
-        <v>8</v>
-      </c>
-      <c r="J547" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="548" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A548" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B548" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C548" s="6">
-        <v>1</v>
-      </c>
-      <c r="D548" s="6">
-        <v>0</v>
-      </c>
-      <c r="E548" s="6">
-        <v>0</v>
-      </c>
-      <c r="F548" s="6">
-        <v>4</v>
-      </c>
-      <c r="G548" s="6">
-        <v>2</v>
-      </c>
-      <c r="H548" s="6">
-        <v>1</v>
-      </c>
-      <c r="I548" s="6">
-        <v>8</v>
-      </c>
-      <c r="J548" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="549" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A549" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B549" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C549" s="6">
-        <v>3</v>
-      </c>
-      <c r="D549" s="6">
-        <v>2</v>
-      </c>
-      <c r="E549" s="6">
-        <v>2</v>
-      </c>
-      <c r="F549" s="6">
-        <v>1</v>
-      </c>
-      <c r="G549" s="6">
-        <v>0</v>
-      </c>
-      <c r="H549" s="6">
-        <v>0</v>
-      </c>
-      <c r="I549" s="6">
-        <v>8</v>
-      </c>
-      <c r="J549" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="550" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A550" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B550" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C550" s="6">
-        <v>1</v>
-      </c>
-      <c r="D550" s="6">
-        <v>2</v>
-      </c>
-      <c r="E550" s="6">
-        <v>1</v>
-      </c>
-      <c r="F550" s="6">
-        <v>2</v>
-      </c>
-      <c r="G550" s="6">
-        <v>2</v>
-      </c>
-      <c r="H550" s="6">
-        <v>0</v>
-      </c>
-      <c r="I550" s="6">
-        <v>8</v>
-      </c>
-      <c r="J550" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="551" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A551" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B551" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C551" s="6">
-        <v>3</v>
-      </c>
-      <c r="D551" s="6">
-        <v>1</v>
-      </c>
-      <c r="E551" s="6">
-        <v>0</v>
-      </c>
-      <c r="F551" s="6">
-        <v>0</v>
-      </c>
-      <c r="G551" s="6">
-        <v>2</v>
-      </c>
-      <c r="H551" s="6">
-        <v>2</v>
-      </c>
-      <c r="I551" s="6">
-        <v>8</v>
-      </c>
-      <c r="J551" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="552" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A552" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B552" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C552" s="6">
-        <v>2</v>
-      </c>
-      <c r="D552" s="6">
-        <v>1</v>
-      </c>
-      <c r="E552" s="6">
-        <v>1</v>
-      </c>
-      <c r="F552" s="6">
-        <v>1</v>
-      </c>
-      <c r="G552" s="6">
-        <v>2</v>
-      </c>
-      <c r="H552" s="6">
-        <v>1</v>
-      </c>
-      <c r="I552" s="6">
-        <v>8</v>
-      </c>
-      <c r="J552" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="553" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A553" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B553" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C553" s="6">
-        <v>1</v>
-      </c>
-      <c r="D553" s="6">
-        <v>3</v>
-      </c>
-      <c r="E553" s="6">
-        <v>2</v>
-      </c>
-      <c r="F553" s="6">
-        <v>2</v>
-      </c>
-      <c r="G553" s="6">
-        <v>0</v>
-      </c>
-      <c r="H553" s="6">
-        <v>0</v>
-      </c>
-      <c r="I553" s="6">
-        <v>8</v>
-      </c>
-      <c r="J553" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="554" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A554" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B554" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C554" s="6">
-        <v>2</v>
-      </c>
-      <c r="D554" s="6">
-        <v>1</v>
-      </c>
-      <c r="E554" s="6">
-        <v>1</v>
-      </c>
-      <c r="F554" s="6">
-        <v>1</v>
-      </c>
-      <c r="G554" s="6">
-        <v>2</v>
-      </c>
-      <c r="H554" s="6">
-        <v>2</v>
-      </c>
-      <c r="I554" s="6">
-        <v>9</v>
-      </c>
-      <c r="J554" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="555" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A555" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B555" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C555" s="6">
-        <v>1</v>
-      </c>
-      <c r="D555" s="6">
-        <v>0</v>
-      </c>
-      <c r="E555" s="6">
-        <v>3</v>
-      </c>
-      <c r="F555" s="6">
-        <v>3</v>
-      </c>
-      <c r="G555" s="6">
-        <v>1</v>
-      </c>
-      <c r="H555" s="6">
-        <v>1</v>
-      </c>
-      <c r="I555" s="6">
-        <v>9</v>
-      </c>
-      <c r="J555" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="556" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A556" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B556" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C556" s="6">
-        <v>0</v>
-      </c>
-      <c r="D556" s="6">
-        <v>1</v>
-      </c>
-      <c r="E556" s="6">
-        <v>1</v>
-      </c>
-      <c r="F556" s="6">
-        <v>1</v>
-      </c>
-      <c r="G556" s="6">
-        <v>3</v>
-      </c>
-      <c r="H556" s="6">
-        <v>2</v>
-      </c>
-      <c r="I556" s="6">
-        <v>8</v>
-      </c>
-      <c r="J556" s="6">
-        <v>5</v>
-      </c>
-      <c r="K556" t="s">
-        <v>5</v>
-      </c>
-      <c r="L556" t="s">
-        <v>1</v>
-      </c>
-      <c r="M556">
-        <v>14</v>
-      </c>
-      <c r="N556">
-        <v>172</v>
-      </c>
-      <c r="O556">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="557" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A557" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B557" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C557" s="6">
-        <v>0</v>
-      </c>
-      <c r="D557" s="6">
-        <v>4</v>
-      </c>
-      <c r="E557" s="6">
-        <v>1</v>
-      </c>
-      <c r="F557" s="6">
-        <v>0</v>
-      </c>
-      <c r="G557" s="6">
-        <v>2</v>
-      </c>
-      <c r="H557" s="6">
-        <v>0</v>
-      </c>
-      <c r="I557" s="6">
-        <v>7</v>
-      </c>
-      <c r="J557" s="6">
-        <v>3</v>
-      </c>
-      <c r="K557" t="s">
-        <v>3</v>
-      </c>
-      <c r="L557" t="s">
-        <v>1</v>
-      </c>
-      <c r="M557">
-        <v>13</v>
-      </c>
-      <c r="N557">
-        <v>160</v>
-      </c>
-      <c r="O557">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="558" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A558" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B558" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C558" s="6">
-        <v>1</v>
-      </c>
-      <c r="D558" s="6">
-        <v>3</v>
-      </c>
-      <c r="E558" s="6">
-        <v>0</v>
-      </c>
-      <c r="F558" s="6">
-        <v>1</v>
-      </c>
-      <c r="G558" s="6">
-        <v>1</v>
-      </c>
-      <c r="H558" s="6">
-        <v>2</v>
-      </c>
-      <c r="I558" s="6">
-        <v>8</v>
-      </c>
-      <c r="J558" s="6">
-        <v>5</v>
-      </c>
-      <c r="K558" t="s">
-        <v>8</v>
-      </c>
-      <c r="L558" t="s">
-        <v>1</v>
-      </c>
-      <c r="M558">
-        <v>14</v>
-      </c>
-      <c r="N558">
-        <v>173</v>
-      </c>
-      <c r="O558">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="559" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A559" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B559" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C559" s="6">
-        <v>1</v>
-      </c>
-      <c r="D559" s="6">
-        <v>1</v>
-      </c>
-      <c r="E559" s="6">
-        <v>2</v>
-      </c>
-      <c r="F559" s="6">
-        <v>1</v>
-      </c>
-      <c r="G559" s="6">
-        <v>0</v>
-      </c>
-      <c r="H559" s="6">
-        <v>2</v>
-      </c>
-      <c r="I559" s="6">
-        <v>7</v>
-      </c>
-      <c r="J559" s="6">
-        <v>5</v>
-      </c>
-      <c r="K559" t="s">
-        <v>21</v>
-      </c>
-      <c r="L559" t="s">
-        <v>1</v>
-      </c>
-      <c r="M559">
-        <v>11</v>
-      </c>
-      <c r="N559">
-        <v>159</v>
-      </c>
-      <c r="O559">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="560" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A560" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B560" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C560" s="6">
-        <v>0</v>
-      </c>
-      <c r="D560" s="6">
-        <v>1</v>
-      </c>
-      <c r="E560" s="6">
-        <v>5</v>
-      </c>
-      <c r="F560" s="6">
-        <v>1</v>
-      </c>
-      <c r="G560" s="6">
-        <v>0</v>
-      </c>
-      <c r="H560" s="6">
-        <v>1</v>
-      </c>
-      <c r="I560" s="6">
-        <v>8</v>
-      </c>
-      <c r="J560" s="6">
-        <v>4</v>
-      </c>
-      <c r="K560" s="6"/>
-    </row>
-    <row r="561" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A561" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B561" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C561" s="6">
-        <v>3</v>
-      </c>
-      <c r="D561" s="6">
-        <v>2</v>
-      </c>
-      <c r="E561" s="6">
-        <v>0</v>
-      </c>
-      <c r="F561" s="6">
-        <v>2</v>
-      </c>
-      <c r="G561" s="6">
-        <v>0</v>
-      </c>
-      <c r="H561" s="6">
-        <v>1</v>
-      </c>
-      <c r="I561" s="6">
-        <v>8</v>
-      </c>
-      <c r="J561" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="562" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A562" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B562" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C562" s="6">
-        <v>2</v>
-      </c>
-      <c r="D562" s="6">
-        <v>2</v>
-      </c>
-      <c r="E562" s="6">
-        <v>1</v>
-      </c>
-      <c r="F562" s="6">
-        <v>0</v>
-      </c>
-      <c r="G562" s="6">
-        <v>1</v>
-      </c>
-      <c r="H562" s="6">
-        <v>2</v>
-      </c>
-      <c r="I562" s="6">
-        <v>8</v>
-      </c>
-      <c r="J562" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="563" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A563" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B563" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C563" s="6">
-        <v>1</v>
-      </c>
-      <c r="D563" s="6">
-        <v>0</v>
-      </c>
-      <c r="E563" s="6">
-        <v>0</v>
-      </c>
-      <c r="F563" s="6">
-        <v>1</v>
-      </c>
-      <c r="G563" s="6">
-        <v>3</v>
-      </c>
-      <c r="H563" s="6">
-        <v>3</v>
-      </c>
-      <c r="I563" s="6">
-        <v>8</v>
-      </c>
-      <c r="J563" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="564" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A564" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B564" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C564" s="6">
-        <v>1</v>
-      </c>
-      <c r="D564" s="6">
-        <v>0</v>
-      </c>
-      <c r="E564" s="6">
-        <v>0</v>
-      </c>
-      <c r="F564" s="6">
-        <v>4</v>
-      </c>
-      <c r="G564" s="6">
-        <v>2</v>
-      </c>
-      <c r="H564" s="6">
-        <v>3</v>
-      </c>
-      <c r="I564" s="6">
-        <v>10</v>
-      </c>
-      <c r="J564" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="565" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A565" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B565" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C565" s="6">
-        <v>1</v>
-      </c>
-      <c r="D565" s="6">
-        <v>2</v>
-      </c>
-      <c r="E565" s="6">
-        <v>2</v>
-      </c>
-      <c r="F565" s="6">
-        <v>0</v>
-      </c>
-      <c r="G565" s="6">
-        <v>1</v>
-      </c>
-      <c r="H565" s="6">
-        <v>2</v>
-      </c>
-      <c r="I565" s="6">
-        <v>8</v>
-      </c>
-      <c r="J565" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="566" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A566" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B566" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C566" s="6">
-        <v>2</v>
-      </c>
-      <c r="D566" s="6">
-        <v>0</v>
-      </c>
-      <c r="E566" s="6">
-        <v>1</v>
-      </c>
-      <c r="F566" s="6">
-        <v>2</v>
-      </c>
-      <c r="G566" s="6">
-        <v>2</v>
-      </c>
-      <c r="H566" s="6">
-        <v>0</v>
-      </c>
-      <c r="I566" s="6">
-        <v>7</v>
-      </c>
-      <c r="J566" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="567" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A567" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B567" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C567" s="6">
-        <v>0</v>
-      </c>
-      <c r="D567" s="6">
-        <v>2</v>
-      </c>
-      <c r="E567" s="6">
-        <v>2</v>
-      </c>
-      <c r="F567" s="6">
-        <v>1</v>
-      </c>
-      <c r="G567" s="6">
-        <v>0</v>
-      </c>
-      <c r="H567" s="6">
-        <v>2</v>
-      </c>
-      <c r="I567" s="6">
-        <v>7</v>
-      </c>
-      <c r="J567" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="568" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A568" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B568" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C568" s="6">
-        <v>2</v>
-      </c>
-      <c r="D568" s="6">
-        <v>0</v>
-      </c>
-      <c r="E568" s="6">
-        <v>2</v>
-      </c>
-      <c r="F568" s="6">
-        <v>2</v>
-      </c>
-      <c r="G568" s="6">
-        <v>1</v>
-      </c>
-      <c r="H568" s="6">
-        <v>1</v>
-      </c>
-      <c r="I568" s="6">
-        <v>8</v>
-      </c>
-      <c r="J568" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="569" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A569" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B569" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C569" s="6">
-        <v>1</v>
-      </c>
-      <c r="D569" s="6">
-        <v>1</v>
-      </c>
-      <c r="E569" s="6">
-        <v>1</v>
-      </c>
-      <c r="F569" s="6">
-        <v>2</v>
-      </c>
-      <c r="G569" s="6">
-        <v>2</v>
-      </c>
-      <c r="H569" s="6">
-        <v>1</v>
-      </c>
-      <c r="I569" s="6">
-        <v>8</v>
-      </c>
-      <c r="J569" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="570" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A570" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B570" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C570" s="6">
-        <v>0</v>
-      </c>
-      <c r="D570" s="6">
-        <v>0</v>
-      </c>
-      <c r="E570" s="6">
-        <v>0</v>
-      </c>
-      <c r="F570" s="6">
-        <v>3</v>
-      </c>
-      <c r="G570" s="6">
-        <v>3</v>
-      </c>
-      <c r="H570" s="6">
-        <v>2</v>
-      </c>
-      <c r="I570" s="6">
-        <v>8</v>
-      </c>
-      <c r="J570" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="571" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A571" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B571" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C571" s="6">
-        <v>0</v>
-      </c>
-      <c r="D571" s="6">
-        <v>2</v>
-      </c>
-      <c r="E571" s="6">
-        <v>1</v>
-      </c>
-      <c r="F571" s="6">
-        <v>1</v>
-      </c>
-      <c r="G571" s="6">
-        <v>0</v>
-      </c>
-      <c r="H571" s="6">
-        <v>3</v>
-      </c>
-      <c r="I571" s="6">
-        <v>7</v>
-      </c>
-      <c r="J571" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="572" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A572" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B572" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C572" s="6">
-        <v>2</v>
-      </c>
-      <c r="D572" s="6">
-        <v>0</v>
-      </c>
-      <c r="E572" s="6">
-        <v>2</v>
-      </c>
-      <c r="F572" s="6">
-        <v>0</v>
-      </c>
-      <c r="G572" s="6">
-        <v>0</v>
-      </c>
-      <c r="H572" s="6">
-        <v>4</v>
-      </c>
-      <c r="I572" s="6">
-        <v>8</v>
-      </c>
-      <c r="J572" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="573" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A573" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B573" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C573" s="6">
-        <v>2</v>
-      </c>
-      <c r="D573" s="6">
-        <v>1</v>
-      </c>
-      <c r="E573" s="6">
-        <v>2</v>
-      </c>
-      <c r="F573" s="6">
-        <v>1</v>
-      </c>
-      <c r="G573" s="6">
-        <v>3</v>
-      </c>
-      <c r="H573" s="6">
-        <v>0</v>
-      </c>
-      <c r="I573" s="6">
-        <v>9</v>
-      </c>
-      <c r="J573" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="574" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A574" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B574" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C574" s="6">
-        <v>1</v>
-      </c>
-      <c r="D574" s="6">
-        <v>0</v>
-      </c>
-      <c r="E574" s="6">
-        <v>1</v>
-      </c>
-      <c r="F574" s="6">
-        <v>0</v>
-      </c>
-      <c r="G574" s="6">
-        <v>3</v>
-      </c>
-      <c r="H574" s="6">
-        <v>2</v>
-      </c>
-      <c r="I574" s="6">
-        <v>7</v>
-      </c>
-      <c r="J574" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="575" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A575" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B575" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C575" s="6">
-        <v>1</v>
-      </c>
-      <c r="D575" s="6">
-        <v>1</v>
-      </c>
-      <c r="E575" s="6">
-        <v>3</v>
-      </c>
-      <c r="F575" s="6">
-        <v>2</v>
-      </c>
-      <c r="G575" s="6">
-        <v>1</v>
-      </c>
-      <c r="H575" s="6">
-        <v>0</v>
-      </c>
-      <c r="I575" s="6">
-        <v>8</v>
-      </c>
-      <c r="J575" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="576" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A576" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B576" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C576" s="6">
-        <v>1</v>
-      </c>
-      <c r="D576" s="6">
-        <v>1</v>
-      </c>
-      <c r="E576" s="6">
-        <v>2</v>
-      </c>
-      <c r="F576" s="6">
-        <v>1</v>
-      </c>
-      <c r="G576" s="6">
-        <v>0</v>
-      </c>
-      <c r="H576" s="6">
-        <v>3</v>
-      </c>
-      <c r="I576" s="6">
-        <v>8</v>
-      </c>
-      <c r="J576" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="577" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A577" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B577" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C577" s="6">
-        <v>0</v>
-      </c>
-      <c r="D577" s="6">
-        <v>2</v>
-      </c>
-      <c r="E577" s="6">
-        <v>1</v>
-      </c>
-      <c r="F577" s="6">
-        <v>0</v>
-      </c>
-      <c r="G577" s="6">
-        <v>3</v>
-      </c>
-      <c r="H577" s="6">
-        <v>1</v>
-      </c>
-      <c r="I577" s="6">
-        <v>7</v>
-      </c>
-      <c r="J577" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="578" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A578" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B578" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C578" s="6">
-        <v>0</v>
-      </c>
-      <c r="D578" s="6">
-        <v>1</v>
-      </c>
-      <c r="E578" s="6">
-        <v>2</v>
-      </c>
-      <c r="F578" s="6">
-        <v>2</v>
-      </c>
-      <c r="G578" s="6">
-        <v>1</v>
-      </c>
-      <c r="H578" s="6">
-        <v>1</v>
-      </c>
-      <c r="I578" s="6">
-        <v>7</v>
-      </c>
-      <c r="J578" s="6">
-        <v>5</v>
-      </c>
-      <c r="K578" t="s">
-        <v>3</v>
-      </c>
-      <c r="L578" t="s">
-        <v>1</v>
-      </c>
-      <c r="M578">
+      <c r="K545" t="s">
+        <v>3</v>
+      </c>
+      <c r="L545" t="s">
+        <v>1</v>
+      </c>
+      <c r="M545">
         <v>12</v>
       </c>
-      <c r="N578">
+      <c r="N545">
         <v>158</v>
       </c>
-      <c r="O578">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="579" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A579" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B579" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C579" s="6">
-        <v>0</v>
-      </c>
-      <c r="D579" s="6">
-        <v>1</v>
-      </c>
-      <c r="E579" s="6">
-        <v>4</v>
-      </c>
-      <c r="F579" s="6">
-        <v>1</v>
-      </c>
-      <c r="G579" s="6">
-        <v>1</v>
-      </c>
-      <c r="H579" s="6">
-        <v>1</v>
-      </c>
-      <c r="I579">
-        <v>8</v>
-      </c>
-      <c r="J579" s="6">
-        <v>5</v>
-      </c>
-      <c r="K579" t="s">
-        <v>3</v>
-      </c>
-      <c r="L579" t="s">
-        <v>1</v>
-      </c>
-      <c r="M579">
-        <v>12</v>
-      </c>
-      <c r="N579">
-        <v>158</v>
-      </c>
-      <c r="O579">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="580" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A580" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B580" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C580" s="6">
-        <v>1</v>
-      </c>
-      <c r="D580" s="6">
-        <v>1</v>
-      </c>
-      <c r="E580" s="6">
-        <v>0</v>
-      </c>
-      <c r="F580" s="6">
-        <v>2</v>
-      </c>
-      <c r="G580" s="6">
-        <v>1</v>
-      </c>
-      <c r="H580" s="6">
-        <v>2</v>
-      </c>
-      <c r="I580">
-        <v>7</v>
-      </c>
-      <c r="J580" s="6">
-        <v>5</v>
-      </c>
-      <c r="K580" t="s">
-        <v>3</v>
-      </c>
-      <c r="L580" t="s">
-        <v>1</v>
-      </c>
-      <c r="M580">
-        <v>12</v>
-      </c>
-      <c r="N580">
-        <v>156</v>
-      </c>
-      <c r="O580">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="581" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A581" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B581" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C581" s="6">
-        <v>0</v>
-      </c>
-      <c r="D581" s="6">
-        <v>3</v>
-      </c>
-      <c r="E581" s="6">
-        <v>2</v>
-      </c>
-      <c r="F581" s="6">
-        <v>1</v>
-      </c>
-      <c r="G581" s="6">
-        <v>1</v>
-      </c>
-      <c r="H581" s="6">
-        <v>0</v>
-      </c>
-      <c r="I581">
-        <v>7</v>
-      </c>
-      <c r="J581" s="6">
-        <v>4</v>
-      </c>
-      <c r="K581" t="s">
-        <v>3</v>
-      </c>
-      <c r="L581" t="s">
-        <v>1</v>
-      </c>
-      <c r="M581">
-        <v>12</v>
-      </c>
-      <c r="N581">
-        <v>158</v>
-      </c>
-      <c r="O581">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A582" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B582" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C582" s="6">
-        <v>2</v>
-      </c>
-      <c r="D582" s="6">
-        <v>2</v>
-      </c>
-      <c r="E582" s="6">
-        <v>2</v>
-      </c>
-      <c r="F582" s="6">
-        <v>0</v>
-      </c>
-      <c r="G582" s="6">
-        <v>0</v>
-      </c>
-      <c r="H582" s="6">
-        <v>1</v>
-      </c>
-      <c r="I582">
-        <v>7</v>
-      </c>
-      <c r="J582" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="583" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A583" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B583" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C583" s="6">
-        <v>1</v>
-      </c>
-      <c r="D583" s="6">
-        <v>1</v>
-      </c>
-      <c r="E583" s="6">
-        <v>1</v>
-      </c>
-      <c r="F583" s="6">
-        <v>1</v>
-      </c>
-      <c r="G583" s="6">
-        <v>2</v>
-      </c>
-      <c r="H583" s="6">
-        <v>3</v>
-      </c>
-      <c r="I583">
-        <v>9</v>
-      </c>
-      <c r="J583" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="584" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A584" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B584" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C584" s="6">
-        <v>2</v>
-      </c>
-      <c r="D584" s="6">
-        <v>0</v>
-      </c>
-      <c r="E584" s="6">
-        <v>1</v>
-      </c>
-      <c r="F584" s="6">
-        <v>3</v>
-      </c>
-      <c r="G584" s="6">
-        <v>2</v>
-      </c>
-      <c r="H584" s="6">
-        <v>0</v>
-      </c>
-      <c r="I584">
-        <v>8</v>
-      </c>
-      <c r="J584" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="585" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A585" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B585" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C585" s="6">
-        <v>1</v>
-      </c>
-      <c r="D585" s="6">
-        <v>1</v>
-      </c>
-      <c r="E585" s="6">
-        <v>1</v>
-      </c>
-      <c r="F585" s="6">
-        <v>3</v>
-      </c>
-      <c r="G585" s="6">
-        <v>1</v>
-      </c>
-      <c r="H585" s="6">
-        <v>1</v>
-      </c>
-      <c r="I585">
-        <v>8</v>
-      </c>
-      <c r="J585" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="586" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A586" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B586" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C586" s="6">
-        <v>1</v>
-      </c>
-      <c r="D586" s="6">
-        <v>0</v>
-      </c>
-      <c r="E586" s="6">
-        <v>2</v>
-      </c>
-      <c r="F586" s="6">
-        <v>1</v>
-      </c>
-      <c r="G586" s="6">
-        <v>3</v>
-      </c>
-      <c r="H586" s="6">
-        <v>1</v>
-      </c>
-      <c r="I586">
-        <v>8</v>
-      </c>
-      <c r="J586" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="587" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A587" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B587" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C587" s="6">
-        <v>0</v>
-      </c>
-      <c r="D587" s="6">
-        <v>1</v>
-      </c>
-      <c r="E587" s="6">
-        <v>1</v>
-      </c>
-      <c r="F587" s="6">
-        <v>3</v>
-      </c>
-      <c r="G587" s="6">
-        <v>2</v>
-      </c>
-      <c r="H587" s="6">
-        <v>0</v>
-      </c>
-      <c r="I587">
-        <v>7</v>
-      </c>
-      <c r="J587" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="588" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A588" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B588" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C588" s="6">
-        <v>1</v>
-      </c>
-      <c r="D588" s="6">
-        <v>2</v>
-      </c>
-      <c r="E588" s="6">
-        <v>2</v>
-      </c>
-      <c r="F588" s="6">
-        <v>3</v>
-      </c>
-      <c r="G588" s="6">
-        <v>1</v>
-      </c>
-      <c r="H588" s="6">
-        <v>1</v>
-      </c>
-      <c r="I588">
-        <v>10</v>
-      </c>
-      <c r="J588" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="589" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A589" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B589" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C589" s="6">
-        <v>3</v>
-      </c>
-      <c r="D589" s="6">
-        <v>4</v>
-      </c>
-      <c r="E589" s="6">
-        <v>1</v>
-      </c>
-      <c r="F589" s="6">
-        <v>0</v>
-      </c>
-      <c r="G589" s="6">
-        <v>0</v>
-      </c>
-      <c r="H589" s="6">
-        <v>2</v>
-      </c>
-      <c r="I589">
-        <v>10</v>
-      </c>
-      <c r="J589" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="590" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A590" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B590" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C590" s="6">
-        <v>1</v>
-      </c>
-      <c r="D590" s="6">
-        <v>1</v>
-      </c>
-      <c r="E590" s="6">
-        <v>1</v>
-      </c>
-      <c r="F590" s="6">
-        <v>2</v>
-      </c>
-      <c r="G590" s="6">
-        <v>2</v>
-      </c>
-      <c r="H590" s="6">
-        <v>1</v>
-      </c>
-      <c r="I590">
-        <v>8</v>
-      </c>
-      <c r="J590" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="591" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A591" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B591" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C591" s="6">
-        <v>2</v>
-      </c>
-      <c r="D591" s="6">
-        <v>1</v>
-      </c>
-      <c r="E591" s="6">
-        <v>1</v>
-      </c>
-      <c r="F591" s="6">
-        <v>1</v>
-      </c>
-      <c r="G591" s="6">
-        <v>2</v>
-      </c>
-      <c r="H591" s="6">
-        <v>3</v>
-      </c>
-      <c r="I591">
-        <v>10</v>
-      </c>
-      <c r="J591" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="592" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A592" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B592" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C592" s="6">
-        <v>2</v>
-      </c>
-      <c r="D592" s="6">
-        <v>1</v>
-      </c>
-      <c r="E592" s="6">
-        <v>1</v>
-      </c>
-      <c r="F592" s="6">
-        <v>3</v>
-      </c>
-      <c r="G592" s="6">
-        <v>1</v>
-      </c>
-      <c r="H592" s="6">
-        <v>1</v>
-      </c>
-      <c r="I592">
-        <v>9</v>
-      </c>
-      <c r="J592" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="593" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A593" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B593" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C593" s="6">
-        <v>0</v>
-      </c>
-      <c r="D593" s="6">
-        <v>2</v>
-      </c>
-      <c r="E593" s="6">
-        <v>1</v>
-      </c>
-      <c r="F593" s="6">
-        <v>2</v>
-      </c>
-      <c r="G593" s="6">
-        <v>4</v>
-      </c>
-      <c r="H593" s="6">
-        <v>0</v>
-      </c>
-      <c r="I593">
-        <v>9</v>
-      </c>
-      <c r="J593" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="594" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A594" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B594" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C594" s="6">
-        <v>1</v>
-      </c>
-      <c r="D594" s="6">
-        <v>2</v>
-      </c>
-      <c r="E594" s="6">
-        <v>0</v>
-      </c>
-      <c r="F594" s="6">
-        <v>0</v>
-      </c>
-      <c r="G594" s="6">
-        <v>2</v>
-      </c>
-      <c r="H594" s="6">
-        <v>3</v>
-      </c>
-      <c r="I594">
-        <v>9</v>
-      </c>
-      <c r="J594" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="595" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A595" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B595" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C595" s="6">
-        <v>0</v>
-      </c>
-      <c r="D595" s="6">
-        <v>3</v>
-      </c>
-      <c r="E595" s="6">
-        <v>2</v>
-      </c>
-      <c r="F595" s="6">
-        <v>1</v>
-      </c>
-      <c r="G595" s="6">
-        <v>2</v>
-      </c>
-      <c r="H595" s="6">
-        <v>0</v>
-      </c>
-      <c r="I595">
-        <v>8</v>
-      </c>
-      <c r="J595" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="596" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A596" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B596" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C596" s="6">
-        <v>0</v>
-      </c>
-      <c r="D596">
-        <v>0</v>
-      </c>
-      <c r="E596">
-        <v>0</v>
-      </c>
-      <c r="F596">
-        <v>4</v>
-      </c>
-      <c r="G596">
-        <v>2</v>
-      </c>
-      <c r="H596">
-        <v>2</v>
-      </c>
-      <c r="I596">
-        <v>8</v>
-      </c>
-      <c r="J596" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="597" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A597" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B597" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C597" s="6">
-        <v>0</v>
-      </c>
-      <c r="D597">
-        <v>0</v>
-      </c>
-      <c r="E597">
-        <v>1</v>
-      </c>
-      <c r="F597">
-        <v>2</v>
-      </c>
-      <c r="G597">
-        <v>4</v>
-      </c>
-      <c r="H597">
-        <v>1</v>
-      </c>
-      <c r="I597">
-        <v>8</v>
-      </c>
-      <c r="J597" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="598" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A598" s="6">
-        <v>2023</v>
-      </c>
-      <c r="B598" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C598" s="6">
-        <v>0</v>
-      </c>
-      <c r="D598">
-        <v>0</v>
-      </c>
-      <c r="E598">
-        <v>4</v>
-      </c>
-      <c r="F598">
-        <v>2</v>
-      </c>
-      <c r="G598">
-        <v>1</v>
-      </c>
-      <c r="H598">
-        <v>1</v>
-      </c>
-      <c r="I598">
-        <v>8</v>
-      </c>
-      <c r="J598" s="6">
-        <v>4</v>
+      <c r="O545">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3F3221-D0A7-E741-8A93-9AB0DB06119E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E19620A0-B00C-6344-B5CE-99AA568D56BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1540" windowWidth="28800" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="27">
   <si>
     <t>m</t>
   </si>
@@ -635,11 +635,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q545"/>
+  <dimension ref="A1:Q598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I556" sqref="I556"/>
+      <pane ySplit="1" topLeftCell="A587" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H596" sqref="H596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -25867,40 +25867,25 @@
         <v>0</v>
       </c>
       <c r="D538" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E538" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F538" s="6">
         <v>1</v>
       </c>
       <c r="G538" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H538" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" s="6">
         <v>8</v>
       </c>
       <c r="J538" s="6">
-        <v>5</v>
-      </c>
-      <c r="K538" t="s">
-        <v>5</v>
-      </c>
-      <c r="L538" t="s">
-        <v>1</v>
-      </c>
-      <c r="M538">
-        <v>14</v>
-      </c>
-      <c r="N538">
-        <v>172</v>
-      </c>
-      <c r="O538">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="539" spans="1:16" ht="15.75" customHeight="1">
@@ -25911,10 +25896,10 @@
         <v>26</v>
       </c>
       <c r="C539" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D539" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E539" s="6">
         <v>1</v>
@@ -25923,31 +25908,16 @@
         <v>0</v>
       </c>
       <c r="G539" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H539" s="6">
         <v>0</v>
       </c>
       <c r="I539" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J539" s="6">
-        <v>3</v>
-      </c>
-      <c r="K539" t="s">
-        <v>3</v>
-      </c>
-      <c r="L539" t="s">
-        <v>1</v>
-      </c>
-      <c r="M539">
-        <v>13</v>
-      </c>
-      <c r="N539">
-        <v>160</v>
-      </c>
-      <c r="O539">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="540" spans="1:16" ht="15.75" customHeight="1">
@@ -25958,43 +25928,28 @@
         <v>26</v>
       </c>
       <c r="C540" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D540" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E540" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F540" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G540" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H540" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I540" s="6">
         <v>8</v>
       </c>
       <c r="J540" s="6">
         <v>5</v>
-      </c>
-      <c r="K540" t="s">
-        <v>8</v>
-      </c>
-      <c r="L540" t="s">
-        <v>1</v>
-      </c>
-      <c r="M540">
-        <v>14</v>
-      </c>
-      <c r="N540">
-        <v>173</v>
-      </c>
-      <c r="O540">
-        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:16" ht="15.75" customHeight="1">
@@ -26008,40 +25963,25 @@
         <v>1</v>
       </c>
       <c r="D541" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E541" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F541" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G541" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H541" s="6">
         <v>2</v>
       </c>
       <c r="I541" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J541" s="6">
         <v>5</v>
-      </c>
-      <c r="K541" t="s">
-        <v>21</v>
-      </c>
-      <c r="L541" t="s">
-        <v>1</v>
-      </c>
-      <c r="M541">
-        <v>11</v>
-      </c>
-      <c r="N541">
-        <v>159</v>
-      </c>
-      <c r="O541">
-        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:16" ht="15.75" customHeight="1">
@@ -26052,16 +25992,16 @@
         <v>26</v>
       </c>
       <c r="C542" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D542" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E542" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F542" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G542" s="6">
         <v>1</v>
@@ -26070,25 +26010,10 @@
         <v>1</v>
       </c>
       <c r="I542" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J542" s="6">
         <v>5</v>
-      </c>
-      <c r="K542" t="s">
-        <v>3</v>
-      </c>
-      <c r="L542" t="s">
-        <v>1</v>
-      </c>
-      <c r="M542">
-        <v>12</v>
-      </c>
-      <c r="N542">
-        <v>158</v>
-      </c>
-      <c r="O542">
-        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:16" ht="15.75" customHeight="1">
@@ -26099,43 +26024,28 @@
         <v>26</v>
       </c>
       <c r="C543" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D543" s="6">
         <v>1</v>
       </c>
       <c r="E543" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F543" s="6">
         <v>1</v>
       </c>
       <c r="G543" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H543" s="6">
-        <v>1</v>
-      </c>
-      <c r="I543">
+        <v>2</v>
+      </c>
+      <c r="I543" s="6">
         <v>8</v>
       </c>
       <c r="J543" s="6">
         <v>5</v>
-      </c>
-      <c r="K543" t="s">
-        <v>3</v>
-      </c>
-      <c r="L543" t="s">
-        <v>1</v>
-      </c>
-      <c r="M543">
-        <v>12</v>
-      </c>
-      <c r="N543">
-        <v>158</v>
-      </c>
-      <c r="O543">
-        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:16" ht="15.75" customHeight="1">
@@ -26146,43 +26056,28 @@
         <v>26</v>
       </c>
       <c r="C544" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D544" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E544" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F544" s="6">
         <v>2</v>
       </c>
       <c r="G544" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H544" s="6">
-        <v>2</v>
-      </c>
-      <c r="I544">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="I544" s="6">
+        <v>8</v>
       </c>
       <c r="J544" s="6">
         <v>5</v>
-      </c>
-      <c r="K544" t="s">
-        <v>3</v>
-      </c>
-      <c r="L544" t="s">
-        <v>1</v>
-      </c>
-      <c r="M544">
-        <v>12</v>
-      </c>
-      <c r="N544">
-        <v>156</v>
-      </c>
-      <c r="O544">
-        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:15" ht="15.75" customHeight="1">
@@ -26193,43 +26088,1845 @@
         <v>26</v>
       </c>
       <c r="C545" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D545" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E545" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F545" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G545" s="6">
-        <v>1</v>
-      </c>
-      <c r="H545" s="6">
-        <v>0</v>
-      </c>
-      <c r="I545">
+        <v>2</v>
+      </c>
+      <c r="H545">
+        <v>0</v>
+      </c>
+      <c r="I545" s="6">
         <v>7</v>
       </c>
       <c r="J545" s="6">
         <v>4</v>
       </c>
-      <c r="K545" t="s">
-        <v>3</v>
-      </c>
-      <c r="L545" t="s">
-        <v>1</v>
-      </c>
-      <c r="M545">
+    </row>
+    <row r="546" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A546" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B546" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C546" s="6">
+        <v>0</v>
+      </c>
+      <c r="D546" s="6">
+        <v>1</v>
+      </c>
+      <c r="E546" s="6">
+        <v>2</v>
+      </c>
+      <c r="F546" s="6">
+        <v>3</v>
+      </c>
+      <c r="G546" s="6">
+        <v>2</v>
+      </c>
+      <c r="H546" s="6">
+        <v>0</v>
+      </c>
+      <c r="I546" s="6">
+        <v>8</v>
+      </c>
+      <c r="J546" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="547" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A547" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B547" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C547" s="6">
+        <v>3</v>
+      </c>
+      <c r="D547" s="6">
+        <v>0</v>
+      </c>
+      <c r="E547" s="6">
+        <v>2</v>
+      </c>
+      <c r="F547" s="6">
+        <v>1</v>
+      </c>
+      <c r="G547" s="6">
+        <v>1</v>
+      </c>
+      <c r="H547" s="6">
+        <v>1</v>
+      </c>
+      <c r="I547" s="6">
+        <v>8</v>
+      </c>
+      <c r="J547" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="548" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A548" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B548" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C548" s="6">
+        <v>1</v>
+      </c>
+      <c r="D548" s="6">
+        <v>0</v>
+      </c>
+      <c r="E548" s="6">
+        <v>0</v>
+      </c>
+      <c r="F548" s="6">
+        <v>4</v>
+      </c>
+      <c r="G548" s="6">
+        <v>2</v>
+      </c>
+      <c r="H548" s="6">
+        <v>1</v>
+      </c>
+      <c r="I548" s="6">
+        <v>8</v>
+      </c>
+      <c r="J548" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="549" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A549" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B549" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C549" s="6">
+        <v>3</v>
+      </c>
+      <c r="D549" s="6">
+        <v>2</v>
+      </c>
+      <c r="E549" s="6">
+        <v>2</v>
+      </c>
+      <c r="F549" s="6">
+        <v>1</v>
+      </c>
+      <c r="G549" s="6">
+        <v>0</v>
+      </c>
+      <c r="H549" s="6">
+        <v>0</v>
+      </c>
+      <c r="I549" s="6">
+        <v>8</v>
+      </c>
+      <c r="J549" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="550" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A550" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B550" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C550" s="6">
+        <v>1</v>
+      </c>
+      <c r="D550" s="6">
+        <v>2</v>
+      </c>
+      <c r="E550" s="6">
+        <v>1</v>
+      </c>
+      <c r="F550" s="6">
+        <v>2</v>
+      </c>
+      <c r="G550" s="6">
+        <v>2</v>
+      </c>
+      <c r="H550" s="6">
+        <v>0</v>
+      </c>
+      <c r="I550" s="6">
+        <v>8</v>
+      </c>
+      <c r="J550" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="551" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A551" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B551" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C551" s="6">
+        <v>3</v>
+      </c>
+      <c r="D551" s="6">
+        <v>1</v>
+      </c>
+      <c r="E551" s="6">
+        <v>0</v>
+      </c>
+      <c r="F551" s="6">
+        <v>0</v>
+      </c>
+      <c r="G551" s="6">
+        <v>2</v>
+      </c>
+      <c r="H551" s="6">
+        <v>2</v>
+      </c>
+      <c r="I551" s="6">
+        <v>8</v>
+      </c>
+      <c r="J551" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="552" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A552" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B552" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C552" s="6">
+        <v>2</v>
+      </c>
+      <c r="D552" s="6">
+        <v>1</v>
+      </c>
+      <c r="E552" s="6">
+        <v>1</v>
+      </c>
+      <c r="F552" s="6">
+        <v>1</v>
+      </c>
+      <c r="G552" s="6">
+        <v>2</v>
+      </c>
+      <c r="H552" s="6">
+        <v>1</v>
+      </c>
+      <c r="I552" s="6">
+        <v>8</v>
+      </c>
+      <c r="J552" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="553" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A553" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B553" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C553" s="6">
+        <v>1</v>
+      </c>
+      <c r="D553" s="6">
+        <v>3</v>
+      </c>
+      <c r="E553" s="6">
+        <v>2</v>
+      </c>
+      <c r="F553" s="6">
+        <v>2</v>
+      </c>
+      <c r="G553" s="6">
+        <v>0</v>
+      </c>
+      <c r="H553" s="6">
+        <v>0</v>
+      </c>
+      <c r="I553" s="6">
+        <v>8</v>
+      </c>
+      <c r="J553" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A554" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B554" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C554" s="6">
+        <v>2</v>
+      </c>
+      <c r="D554" s="6">
+        <v>1</v>
+      </c>
+      <c r="E554" s="6">
+        <v>1</v>
+      </c>
+      <c r="F554" s="6">
+        <v>1</v>
+      </c>
+      <c r="G554" s="6">
+        <v>2</v>
+      </c>
+      <c r="H554" s="6">
+        <v>2</v>
+      </c>
+      <c r="I554" s="6">
+        <v>9</v>
+      </c>
+      <c r="J554" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="555" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A555" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B555" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C555" s="6">
+        <v>1</v>
+      </c>
+      <c r="D555" s="6">
+        <v>0</v>
+      </c>
+      <c r="E555" s="6">
+        <v>3</v>
+      </c>
+      <c r="F555" s="6">
+        <v>3</v>
+      </c>
+      <c r="G555" s="6">
+        <v>1</v>
+      </c>
+      <c r="H555" s="6">
+        <v>1</v>
+      </c>
+      <c r="I555" s="6">
+        <v>9</v>
+      </c>
+      <c r="J555" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="556" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A556" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B556" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C556" s="6">
+        <v>0</v>
+      </c>
+      <c r="D556" s="6">
+        <v>1</v>
+      </c>
+      <c r="E556" s="6">
+        <v>1</v>
+      </c>
+      <c r="F556" s="6">
+        <v>1</v>
+      </c>
+      <c r="G556" s="6">
+        <v>3</v>
+      </c>
+      <c r="H556" s="6">
+        <v>2</v>
+      </c>
+      <c r="I556" s="6">
+        <v>8</v>
+      </c>
+      <c r="J556" s="6">
+        <v>5</v>
+      </c>
+      <c r="K556" t="s">
+        <v>5</v>
+      </c>
+      <c r="L556" t="s">
+        <v>1</v>
+      </c>
+      <c r="M556">
+        <v>14</v>
+      </c>
+      <c r="N556">
+        <v>172</v>
+      </c>
+      <c r="O556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A557" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B557" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C557" s="6">
+        <v>0</v>
+      </c>
+      <c r="D557" s="6">
+        <v>4</v>
+      </c>
+      <c r="E557" s="6">
+        <v>1</v>
+      </c>
+      <c r="F557" s="6">
+        <v>0</v>
+      </c>
+      <c r="G557" s="6">
+        <v>2</v>
+      </c>
+      <c r="H557" s="6">
+        <v>0</v>
+      </c>
+      <c r="I557" s="6">
+        <v>7</v>
+      </c>
+      <c r="J557" s="6">
+        <v>3</v>
+      </c>
+      <c r="K557" t="s">
+        <v>3</v>
+      </c>
+      <c r="L557" t="s">
+        <v>1</v>
+      </c>
+      <c r="M557">
+        <v>13</v>
+      </c>
+      <c r="N557">
+        <v>160</v>
+      </c>
+      <c r="O557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A558" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B558" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C558" s="6">
+        <v>1</v>
+      </c>
+      <c r="D558" s="6">
+        <v>3</v>
+      </c>
+      <c r="E558" s="6">
+        <v>0</v>
+      </c>
+      <c r="F558" s="6">
+        <v>1</v>
+      </c>
+      <c r="G558" s="6">
+        <v>1</v>
+      </c>
+      <c r="H558" s="6">
+        <v>2</v>
+      </c>
+      <c r="I558" s="6">
+        <v>8</v>
+      </c>
+      <c r="J558" s="6">
+        <v>5</v>
+      </c>
+      <c r="K558" t="s">
+        <v>8</v>
+      </c>
+      <c r="L558" t="s">
+        <v>1</v>
+      </c>
+      <c r="M558">
+        <v>14</v>
+      </c>
+      <c r="N558">
+        <v>173</v>
+      </c>
+      <c r="O558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A559" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B559" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C559" s="6">
+        <v>1</v>
+      </c>
+      <c r="D559" s="6">
+        <v>1</v>
+      </c>
+      <c r="E559" s="6">
+        <v>2</v>
+      </c>
+      <c r="F559" s="6">
+        <v>1</v>
+      </c>
+      <c r="G559" s="6">
+        <v>0</v>
+      </c>
+      <c r="H559" s="6">
+        <v>2</v>
+      </c>
+      <c r="I559" s="6">
+        <v>7</v>
+      </c>
+      <c r="J559" s="6">
+        <v>5</v>
+      </c>
+      <c r="K559" t="s">
+        <v>21</v>
+      </c>
+      <c r="L559" t="s">
+        <v>1</v>
+      </c>
+      <c r="M559">
+        <v>11</v>
+      </c>
+      <c r="N559">
+        <v>159</v>
+      </c>
+      <c r="O559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A560" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B560" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C560" s="6">
+        <v>0</v>
+      </c>
+      <c r="D560" s="6">
+        <v>1</v>
+      </c>
+      <c r="E560" s="6">
+        <v>5</v>
+      </c>
+      <c r="F560" s="6">
+        <v>1</v>
+      </c>
+      <c r="G560" s="6">
+        <v>0</v>
+      </c>
+      <c r="H560" s="6">
+        <v>1</v>
+      </c>
+      <c r="I560" s="6">
+        <v>8</v>
+      </c>
+      <c r="J560" s="6">
+        <v>4</v>
+      </c>
+      <c r="K560" s="6"/>
+    </row>
+    <row r="561" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A561" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B561" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C561" s="6">
+        <v>3</v>
+      </c>
+      <c r="D561" s="6">
+        <v>2</v>
+      </c>
+      <c r="E561" s="6">
+        <v>0</v>
+      </c>
+      <c r="F561" s="6">
+        <v>2</v>
+      </c>
+      <c r="G561" s="6">
+        <v>0</v>
+      </c>
+      <c r="H561" s="6">
+        <v>1</v>
+      </c>
+      <c r="I561" s="6">
+        <v>8</v>
+      </c>
+      <c r="J561" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="562" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A562" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B562" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C562" s="6">
+        <v>2</v>
+      </c>
+      <c r="D562" s="6">
+        <v>2</v>
+      </c>
+      <c r="E562" s="6">
+        <v>1</v>
+      </c>
+      <c r="F562" s="6">
+        <v>0</v>
+      </c>
+      <c r="G562" s="6">
+        <v>1</v>
+      </c>
+      <c r="H562" s="6">
+        <v>2</v>
+      </c>
+      <c r="I562" s="6">
+        <v>8</v>
+      </c>
+      <c r="J562" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="563" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A563" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B563" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C563" s="6">
+        <v>1</v>
+      </c>
+      <c r="D563" s="6">
+        <v>0</v>
+      </c>
+      <c r="E563" s="6">
+        <v>0</v>
+      </c>
+      <c r="F563" s="6">
+        <v>1</v>
+      </c>
+      <c r="G563" s="6">
+        <v>3</v>
+      </c>
+      <c r="H563" s="6">
+        <v>3</v>
+      </c>
+      <c r="I563" s="6">
+        <v>8</v>
+      </c>
+      <c r="J563" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A564" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B564" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C564" s="6">
+        <v>1</v>
+      </c>
+      <c r="D564" s="6">
+        <v>0</v>
+      </c>
+      <c r="E564" s="6">
+        <v>0</v>
+      </c>
+      <c r="F564" s="6">
+        <v>4</v>
+      </c>
+      <c r="G564" s="6">
+        <v>2</v>
+      </c>
+      <c r="H564" s="6">
+        <v>3</v>
+      </c>
+      <c r="I564" s="6">
+        <v>10</v>
+      </c>
+      <c r="J564" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A565" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B565" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C565" s="6">
+        <v>1</v>
+      </c>
+      <c r="D565" s="6">
+        <v>2</v>
+      </c>
+      <c r="E565" s="6">
+        <v>2</v>
+      </c>
+      <c r="F565" s="6">
+        <v>0</v>
+      </c>
+      <c r="G565" s="6">
+        <v>1</v>
+      </c>
+      <c r="H565" s="6">
+        <v>2</v>
+      </c>
+      <c r="I565" s="6">
+        <v>8</v>
+      </c>
+      <c r="J565" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A566" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B566" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C566" s="6">
+        <v>2</v>
+      </c>
+      <c r="D566" s="6">
+        <v>0</v>
+      </c>
+      <c r="E566" s="6">
+        <v>1</v>
+      </c>
+      <c r="F566" s="6">
+        <v>2</v>
+      </c>
+      <c r="G566" s="6">
+        <v>2</v>
+      </c>
+      <c r="H566" s="6">
+        <v>0</v>
+      </c>
+      <c r="I566" s="6">
+        <v>7</v>
+      </c>
+      <c r="J566" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A567" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B567" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C567" s="6">
+        <v>0</v>
+      </c>
+      <c r="D567" s="6">
+        <v>2</v>
+      </c>
+      <c r="E567" s="6">
+        <v>2</v>
+      </c>
+      <c r="F567" s="6">
+        <v>1</v>
+      </c>
+      <c r="G567" s="6">
+        <v>0</v>
+      </c>
+      <c r="H567" s="6">
+        <v>2</v>
+      </c>
+      <c r="I567" s="6">
+        <v>7</v>
+      </c>
+      <c r="J567" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A568" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B568" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C568" s="6">
+        <v>2</v>
+      </c>
+      <c r="D568" s="6">
+        <v>0</v>
+      </c>
+      <c r="E568" s="6">
+        <v>2</v>
+      </c>
+      <c r="F568" s="6">
+        <v>2</v>
+      </c>
+      <c r="G568" s="6">
+        <v>1</v>
+      </c>
+      <c r="H568" s="6">
+        <v>1</v>
+      </c>
+      <c r="I568" s="6">
+        <v>8</v>
+      </c>
+      <c r="J568" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A569" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B569" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C569" s="6">
+        <v>1</v>
+      </c>
+      <c r="D569" s="6">
+        <v>1</v>
+      </c>
+      <c r="E569" s="6">
+        <v>1</v>
+      </c>
+      <c r="F569" s="6">
+        <v>2</v>
+      </c>
+      <c r="G569" s="6">
+        <v>2</v>
+      </c>
+      <c r="H569" s="6">
+        <v>1</v>
+      </c>
+      <c r="I569" s="6">
+        <v>8</v>
+      </c>
+      <c r="J569" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A570" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B570" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C570" s="6">
+        <v>0</v>
+      </c>
+      <c r="D570" s="6">
+        <v>0</v>
+      </c>
+      <c r="E570" s="6">
+        <v>0</v>
+      </c>
+      <c r="F570" s="6">
+        <v>3</v>
+      </c>
+      <c r="G570" s="6">
+        <v>3</v>
+      </c>
+      <c r="H570" s="6">
+        <v>2</v>
+      </c>
+      <c r="I570" s="6">
+        <v>8</v>
+      </c>
+      <c r="J570" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A571" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B571" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C571" s="6">
+        <v>0</v>
+      </c>
+      <c r="D571" s="6">
+        <v>2</v>
+      </c>
+      <c r="E571" s="6">
+        <v>1</v>
+      </c>
+      <c r="F571" s="6">
+        <v>1</v>
+      </c>
+      <c r="G571" s="6">
+        <v>0</v>
+      </c>
+      <c r="H571" s="6">
+        <v>3</v>
+      </c>
+      <c r="I571" s="6">
+        <v>7</v>
+      </c>
+      <c r="J571" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A572" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B572" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C572" s="6">
+        <v>2</v>
+      </c>
+      <c r="D572" s="6">
+        <v>0</v>
+      </c>
+      <c r="E572" s="6">
+        <v>2</v>
+      </c>
+      <c r="F572" s="6">
+        <v>0</v>
+      </c>
+      <c r="G572" s="6">
+        <v>0</v>
+      </c>
+      <c r="H572" s="6">
+        <v>4</v>
+      </c>
+      <c r="I572" s="6">
+        <v>8</v>
+      </c>
+      <c r="J572" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A573" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B573" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C573" s="6">
+        <v>2</v>
+      </c>
+      <c r="D573" s="6">
+        <v>1</v>
+      </c>
+      <c r="E573" s="6">
+        <v>2</v>
+      </c>
+      <c r="F573" s="6">
+        <v>1</v>
+      </c>
+      <c r="G573" s="6">
+        <v>3</v>
+      </c>
+      <c r="H573" s="6">
+        <v>0</v>
+      </c>
+      <c r="I573" s="6">
+        <v>9</v>
+      </c>
+      <c r="J573" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A574" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B574" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C574" s="6">
+        <v>1</v>
+      </c>
+      <c r="D574" s="6">
+        <v>0</v>
+      </c>
+      <c r="E574" s="6">
+        <v>1</v>
+      </c>
+      <c r="F574" s="6">
+        <v>0</v>
+      </c>
+      <c r="G574" s="6">
+        <v>3</v>
+      </c>
+      <c r="H574" s="6">
+        <v>2</v>
+      </c>
+      <c r="I574" s="6">
+        <v>7</v>
+      </c>
+      <c r="J574" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A575" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B575" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C575" s="6">
+        <v>1</v>
+      </c>
+      <c r="D575" s="6">
+        <v>1</v>
+      </c>
+      <c r="E575" s="6">
+        <v>3</v>
+      </c>
+      <c r="F575" s="6">
+        <v>2</v>
+      </c>
+      <c r="G575" s="6">
+        <v>1</v>
+      </c>
+      <c r="H575" s="6">
+        <v>0</v>
+      </c>
+      <c r="I575" s="6">
+        <v>8</v>
+      </c>
+      <c r="J575" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A576" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B576" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C576" s="6">
+        <v>1</v>
+      </c>
+      <c r="D576" s="6">
+        <v>1</v>
+      </c>
+      <c r="E576" s="6">
+        <v>2</v>
+      </c>
+      <c r="F576" s="6">
+        <v>1</v>
+      </c>
+      <c r="G576" s="6">
+        <v>0</v>
+      </c>
+      <c r="H576" s="6">
+        <v>3</v>
+      </c>
+      <c r="I576" s="6">
+        <v>8</v>
+      </c>
+      <c r="J576" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A577" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B577" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C577" s="6">
+        <v>0</v>
+      </c>
+      <c r="D577" s="6">
+        <v>2</v>
+      </c>
+      <c r="E577" s="6">
+        <v>1</v>
+      </c>
+      <c r="F577" s="6">
+        <v>0</v>
+      </c>
+      <c r="G577" s="6">
+        <v>3</v>
+      </c>
+      <c r="H577" s="6">
+        <v>1</v>
+      </c>
+      <c r="I577" s="6">
+        <v>7</v>
+      </c>
+      <c r="J577" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="578" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A578" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B578" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C578" s="6">
+        <v>0</v>
+      </c>
+      <c r="D578" s="6">
+        <v>1</v>
+      </c>
+      <c r="E578" s="6">
+        <v>2</v>
+      </c>
+      <c r="F578" s="6">
+        <v>2</v>
+      </c>
+      <c r="G578" s="6">
+        <v>1</v>
+      </c>
+      <c r="H578" s="6">
+        <v>1</v>
+      </c>
+      <c r="I578" s="6">
+        <v>7</v>
+      </c>
+      <c r="J578" s="6">
+        <v>5</v>
+      </c>
+      <c r="K578" t="s">
+        <v>3</v>
+      </c>
+      <c r="L578" t="s">
+        <v>1</v>
+      </c>
+      <c r="M578">
         <v>12</v>
       </c>
-      <c r="N545">
+      <c r="N578">
         <v>158</v>
       </c>
-      <c r="O545">
-        <v>0</v>
+      <c r="O578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A579" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B579" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C579" s="6">
+        <v>0</v>
+      </c>
+      <c r="D579" s="6">
+        <v>1</v>
+      </c>
+      <c r="E579" s="6">
+        <v>4</v>
+      </c>
+      <c r="F579" s="6">
+        <v>1</v>
+      </c>
+      <c r="G579" s="6">
+        <v>1</v>
+      </c>
+      <c r="H579" s="6">
+        <v>1</v>
+      </c>
+      <c r="I579">
+        <v>8</v>
+      </c>
+      <c r="J579" s="6">
+        <v>5</v>
+      </c>
+      <c r="K579" t="s">
+        <v>3</v>
+      </c>
+      <c r="L579" t="s">
+        <v>1</v>
+      </c>
+      <c r="M579">
+        <v>12</v>
+      </c>
+      <c r="N579">
+        <v>158</v>
+      </c>
+      <c r="O579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A580" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B580" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C580" s="6">
+        <v>1</v>
+      </c>
+      <c r="D580" s="6">
+        <v>1</v>
+      </c>
+      <c r="E580" s="6">
+        <v>0</v>
+      </c>
+      <c r="F580" s="6">
+        <v>2</v>
+      </c>
+      <c r="G580" s="6">
+        <v>1</v>
+      </c>
+      <c r="H580" s="6">
+        <v>2</v>
+      </c>
+      <c r="I580">
+        <v>7</v>
+      </c>
+      <c r="J580" s="6">
+        <v>5</v>
+      </c>
+      <c r="K580" t="s">
+        <v>3</v>
+      </c>
+      <c r="L580" t="s">
+        <v>1</v>
+      </c>
+      <c r="M580">
+        <v>12</v>
+      </c>
+      <c r="N580">
+        <v>156</v>
+      </c>
+      <c r="O580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A581" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B581" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C581" s="6">
+        <v>0</v>
+      </c>
+      <c r="D581" s="6">
+        <v>3</v>
+      </c>
+      <c r="E581" s="6">
+        <v>2</v>
+      </c>
+      <c r="F581" s="6">
+        <v>1</v>
+      </c>
+      <c r="G581" s="6">
+        <v>1</v>
+      </c>
+      <c r="H581" s="6">
+        <v>0</v>
+      </c>
+      <c r="I581">
+        <v>7</v>
+      </c>
+      <c r="J581" s="6">
+        <v>4</v>
+      </c>
+      <c r="K581" t="s">
+        <v>3</v>
+      </c>
+      <c r="L581" t="s">
+        <v>1</v>
+      </c>
+      <c r="M581">
+        <v>12</v>
+      </c>
+      <c r="N581">
+        <v>158</v>
+      </c>
+      <c r="O581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A582" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B582" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C582" s="6">
+        <v>2</v>
+      </c>
+      <c r="D582" s="6">
+        <v>2</v>
+      </c>
+      <c r="E582" s="6">
+        <v>2</v>
+      </c>
+      <c r="F582" s="6">
+        <v>0</v>
+      </c>
+      <c r="G582" s="6">
+        <v>0</v>
+      </c>
+      <c r="H582" s="6">
+        <v>1</v>
+      </c>
+      <c r="I582">
+        <v>7</v>
+      </c>
+      <c r="J582" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="583" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A583" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B583" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C583" s="6">
+        <v>1</v>
+      </c>
+      <c r="D583" s="6">
+        <v>1</v>
+      </c>
+      <c r="E583" s="6">
+        <v>1</v>
+      </c>
+      <c r="F583" s="6">
+        <v>1</v>
+      </c>
+      <c r="G583" s="6">
+        <v>2</v>
+      </c>
+      <c r="H583" s="6">
+        <v>3</v>
+      </c>
+      <c r="I583">
+        <v>9</v>
+      </c>
+      <c r="J583" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="584" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A584" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B584" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C584" s="6">
+        <v>2</v>
+      </c>
+      <c r="D584" s="6">
+        <v>0</v>
+      </c>
+      <c r="E584" s="6">
+        <v>1</v>
+      </c>
+      <c r="F584" s="6">
+        <v>3</v>
+      </c>
+      <c r="G584" s="6">
+        <v>2</v>
+      </c>
+      <c r="H584" s="6">
+        <v>0</v>
+      </c>
+      <c r="I584">
+        <v>8</v>
+      </c>
+      <c r="J584" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="585" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A585" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B585" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C585" s="6">
+        <v>1</v>
+      </c>
+      <c r="D585" s="6">
+        <v>1</v>
+      </c>
+      <c r="E585" s="6">
+        <v>1</v>
+      </c>
+      <c r="F585" s="6">
+        <v>3</v>
+      </c>
+      <c r="G585" s="6">
+        <v>1</v>
+      </c>
+      <c r="H585" s="6">
+        <v>1</v>
+      </c>
+      <c r="I585">
+        <v>8</v>
+      </c>
+      <c r="J585" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="586" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A586" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B586" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C586" s="6">
+        <v>1</v>
+      </c>
+      <c r="D586" s="6">
+        <v>0</v>
+      </c>
+      <c r="E586" s="6">
+        <v>2</v>
+      </c>
+      <c r="F586" s="6">
+        <v>1</v>
+      </c>
+      <c r="G586" s="6">
+        <v>3</v>
+      </c>
+      <c r="H586" s="6">
+        <v>1</v>
+      </c>
+      <c r="I586">
+        <v>8</v>
+      </c>
+      <c r="J586" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="587" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A587" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B587" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C587" s="6">
+        <v>0</v>
+      </c>
+      <c r="D587" s="6">
+        <v>1</v>
+      </c>
+      <c r="E587" s="6">
+        <v>1</v>
+      </c>
+      <c r="F587" s="6">
+        <v>3</v>
+      </c>
+      <c r="G587" s="6">
+        <v>2</v>
+      </c>
+      <c r="H587" s="6">
+        <v>0</v>
+      </c>
+      <c r="I587">
+        <v>7</v>
+      </c>
+      <c r="J587" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="588" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A588" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B588" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C588" s="6">
+        <v>1</v>
+      </c>
+      <c r="D588" s="6">
+        <v>2</v>
+      </c>
+      <c r="E588" s="6">
+        <v>2</v>
+      </c>
+      <c r="F588" s="6">
+        <v>3</v>
+      </c>
+      <c r="G588" s="6">
+        <v>1</v>
+      </c>
+      <c r="H588" s="6">
+        <v>1</v>
+      </c>
+      <c r="I588">
+        <v>10</v>
+      </c>
+      <c r="J588" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="589" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A589" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B589" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C589" s="6">
+        <v>3</v>
+      </c>
+      <c r="D589" s="6">
+        <v>4</v>
+      </c>
+      <c r="E589" s="6">
+        <v>1</v>
+      </c>
+      <c r="F589" s="6">
+        <v>0</v>
+      </c>
+      <c r="G589" s="6">
+        <v>0</v>
+      </c>
+      <c r="H589" s="6">
+        <v>2</v>
+      </c>
+      <c r="I589">
+        <v>10</v>
+      </c>
+      <c r="J589" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="590" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A590" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B590" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C590" s="6">
+        <v>1</v>
+      </c>
+      <c r="D590" s="6">
+        <v>1</v>
+      </c>
+      <c r="E590" s="6">
+        <v>1</v>
+      </c>
+      <c r="F590" s="6">
+        <v>2</v>
+      </c>
+      <c r="G590" s="6">
+        <v>2</v>
+      </c>
+      <c r="H590" s="6">
+        <v>1</v>
+      </c>
+      <c r="I590">
+        <v>8</v>
+      </c>
+      <c r="J590" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="591" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A591" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B591" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C591" s="6">
+        <v>2</v>
+      </c>
+      <c r="D591" s="6">
+        <v>1</v>
+      </c>
+      <c r="E591" s="6">
+        <v>1</v>
+      </c>
+      <c r="F591" s="6">
+        <v>1</v>
+      </c>
+      <c r="G591" s="6">
+        <v>2</v>
+      </c>
+      <c r="H591" s="6">
+        <v>3</v>
+      </c>
+      <c r="I591">
+        <v>10</v>
+      </c>
+      <c r="J591" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="592" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A592" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B592" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C592" s="6">
+        <v>2</v>
+      </c>
+      <c r="D592" s="6">
+        <v>1</v>
+      </c>
+      <c r="E592" s="6">
+        <v>1</v>
+      </c>
+      <c r="F592" s="6">
+        <v>3</v>
+      </c>
+      <c r="G592" s="6">
+        <v>1</v>
+      </c>
+      <c r="H592" s="6">
+        <v>1</v>
+      </c>
+      <c r="I592">
+        <v>9</v>
+      </c>
+      <c r="J592" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A593" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B593" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C593" s="6">
+        <v>0</v>
+      </c>
+      <c r="D593" s="6">
+        <v>2</v>
+      </c>
+      <c r="E593" s="6">
+        <v>1</v>
+      </c>
+      <c r="F593" s="6">
+        <v>2</v>
+      </c>
+      <c r="G593" s="6">
+        <v>4</v>
+      </c>
+      <c r="H593" s="6">
+        <v>0</v>
+      </c>
+      <c r="I593">
+        <v>9</v>
+      </c>
+      <c r="J593" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A594" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B594" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C594" s="6">
+        <v>1</v>
+      </c>
+      <c r="D594" s="6">
+        <v>2</v>
+      </c>
+      <c r="E594" s="6">
+        <v>0</v>
+      </c>
+      <c r="F594" s="6">
+        <v>0</v>
+      </c>
+      <c r="G594" s="6">
+        <v>2</v>
+      </c>
+      <c r="H594" s="6">
+        <v>3</v>
+      </c>
+      <c r="I594">
+        <v>9</v>
+      </c>
+      <c r="J594" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A595" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B595" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C595" s="6">
+        <v>0</v>
+      </c>
+      <c r="D595" s="6">
+        <v>3</v>
+      </c>
+      <c r="E595" s="6">
+        <v>2</v>
+      </c>
+      <c r="F595" s="6">
+        <v>1</v>
+      </c>
+      <c r="G595" s="6">
+        <v>2</v>
+      </c>
+      <c r="H595" s="6">
+        <v>0</v>
+      </c>
+      <c r="I595">
+        <v>8</v>
+      </c>
+      <c r="J595" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A596" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B596" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C596" s="6">
+        <v>0</v>
+      </c>
+      <c r="D596">
+        <v>0</v>
+      </c>
+      <c r="E596">
+        <v>0</v>
+      </c>
+      <c r="F596">
+        <v>4</v>
+      </c>
+      <c r="G596">
+        <v>2</v>
+      </c>
+      <c r="H596">
+        <v>2</v>
+      </c>
+      <c r="I596">
+        <v>8</v>
+      </c>
+      <c r="J596" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A597" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B597" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C597" s="6">
+        <v>0</v>
+      </c>
+      <c r="D597">
+        <v>0</v>
+      </c>
+      <c r="E597">
+        <v>1</v>
+      </c>
+      <c r="F597">
+        <v>2</v>
+      </c>
+      <c r="G597">
+        <v>4</v>
+      </c>
+      <c r="H597">
+        <v>1</v>
+      </c>
+      <c r="I597">
+        <v>8</v>
+      </c>
+      <c r="J597" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A598" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B598" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C598" s="6">
+        <v>0</v>
+      </c>
+      <c r="D598">
+        <v>0</v>
+      </c>
+      <c r="E598">
+        <v>4</v>
+      </c>
+      <c r="F598">
+        <v>2</v>
+      </c>
+      <c r="G598">
+        <v>1</v>
+      </c>
+      <c r="H598">
+        <v>1</v>
+      </c>
+      <c r="I598">
+        <v>8</v>
+      </c>
+      <c r="J598" s="6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/jkruppa.github.io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\jkruppa.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E19620A0-B00C-6344-B5CE-99AA568D56BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3177106-446B-4829-BE6B-CF300A27165A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1540" windowWidth="28800" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14340" yWindow="1812" windowWidth="21744" windowHeight="12612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="27">
   <si>
     <t>m</t>
   </si>
@@ -635,27 +635,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q598"/>
+  <dimension ref="A1:Q624"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A587" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H596" sqref="H596"/>
+      <pane ySplit="1" topLeftCell="A604" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L589" sqref="L589"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -1608,7 +1608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13">
+    <row r="21" spans="1:15" ht="13.2">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="13">
+    <row r="22" spans="1:15" ht="13.2">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="13">
+    <row r="23" spans="1:15" ht="13.2">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13">
+    <row r="24" spans="1:15" ht="13.2">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13">
+    <row r="25" spans="1:15" ht="13.2">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13">
+    <row r="26" spans="1:15" ht="13.2">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="13">
+    <row r="27" spans="1:15" ht="13.2">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="13">
+    <row r="28" spans="1:15" ht="13.2">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="13">
+    <row r="29" spans="1:15" ht="13.2">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="13">
+    <row r="30" spans="1:15" ht="13.2">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="13">
+    <row r="31" spans="1:15" ht="13.2">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="13">
+    <row r="32" spans="1:15" ht="13.2">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="13">
+    <row r="33" spans="1:15" ht="13.2">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="13">
+    <row r="34" spans="1:15" ht="13.2">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="13">
+    <row r="35" spans="1:15" ht="13.2">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="13">
+    <row r="36" spans="1:15" ht="13.2">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="13">
+    <row r="37" spans="1:15" ht="13.2">
       <c r="A37">
         <v>2018</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="13">
+    <row r="38" spans="1:15" ht="13.2">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="13">
+    <row r="39" spans="1:15" ht="13.2">
       <c r="A39">
         <v>2018</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13">
+    <row r="40" spans="1:15" ht="13.2">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="13">
+    <row r="41" spans="1:15" ht="13.2">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="13">
+    <row r="42" spans="1:15" ht="13.2">
       <c r="A42">
         <v>2018</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="13">
+    <row r="43" spans="1:15" ht="13.2">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="13">
+    <row r="44" spans="1:15" ht="13.2">
       <c r="A44">
         <v>2018</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="13">
+    <row r="45" spans="1:15" ht="13.2">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="13">
+    <row r="46" spans="1:15" ht="13.2">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="13">
+    <row r="47" spans="1:15" ht="13.2">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13">
+    <row r="48" spans="1:15" ht="13.2">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="13">
+    <row r="49" spans="1:15" ht="13.2">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="13">
+    <row r="50" spans="1:15" ht="13.2">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="13">
+    <row r="51" spans="1:15" ht="13.2">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="13">
+    <row r="52" spans="1:15" ht="13.2">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="13">
+    <row r="53" spans="1:15" ht="13.2">
       <c r="A53">
         <v>2018</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="13">
+    <row r="54" spans="1:15" ht="13.2">
       <c r="A54">
         <v>2018</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="13">
+    <row r="55" spans="1:15" ht="13.2">
       <c r="A55">
         <v>2018</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="13">
+    <row r="56" spans="1:15" ht="13.2">
       <c r="A56">
         <v>2018</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13">
+    <row r="57" spans="1:15" ht="13.2">
       <c r="A57">
         <v>2018</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="13">
+    <row r="58" spans="1:15" ht="13.2">
       <c r="A58">
         <v>2018</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="13">
+    <row r="59" spans="1:15" ht="13.2">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="13">
+    <row r="60" spans="1:15" ht="13.2">
       <c r="A60">
         <v>2018</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="13">
+    <row r="61" spans="1:15" ht="13.2">
       <c r="A61">
         <v>2018</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="13">
+    <row r="62" spans="1:15" ht="13.2">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13">
+    <row r="63" spans="1:15" ht="13.2">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="13">
+    <row r="64" spans="1:15" ht="13.2">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="13">
+    <row r="65" spans="1:15" ht="13.2">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="13">
+    <row r="66" spans="1:15" ht="13.2">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="13">
+    <row r="67" spans="1:15" ht="13.2">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="13">
+    <row r="68" spans="1:15" ht="13.2">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="13">
+    <row r="69" spans="1:15" ht="13.2">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="13">
+    <row r="70" spans="1:15" ht="13.2">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="13">
+    <row r="71" spans="1:15" ht="13.2">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="13">
+    <row r="72" spans="1:15" ht="13.2">
       <c r="A72">
         <v>2018</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="13">
+    <row r="73" spans="1:15" ht="13.2">
       <c r="A73">
         <v>2018</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="13">
+    <row r="74" spans="1:15" ht="13.2">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="13">
+    <row r="75" spans="1:15" ht="13.2">
       <c r="A75">
         <v>2018</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="14">
+    <row r="77" spans="1:15" ht="13.2">
       <c r="A77">
         <v>2018</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="14">
+    <row r="84" spans="1:15" ht="13.2">
       <c r="A84">
         <v>2018</v>
       </c>
@@ -27737,7 +27737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="593" spans="1:10" ht="15.75" customHeight="1">
+    <row r="593" spans="1:15" ht="15.75" customHeight="1">
       <c r="A593" s="6">
         <v>2023</v>
       </c>
@@ -27769,7 +27769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="594" spans="1:10" ht="15.75" customHeight="1">
+    <row r="594" spans="1:15" ht="15.75" customHeight="1">
       <c r="A594" s="6">
         <v>2023</v>
       </c>
@@ -27801,7 +27801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="595" spans="1:10" ht="15.75" customHeight="1">
+    <row r="595" spans="1:15" ht="15.75" customHeight="1">
       <c r="A595" s="6">
         <v>2023</v>
       </c>
@@ -27833,7 +27833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="596" spans="1:10" ht="15.75" customHeight="1">
+    <row r="596" spans="1:15" ht="15.75" customHeight="1">
       <c r="A596" s="6">
         <v>2023</v>
       </c>
@@ -27865,7 +27865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="597" spans="1:10" ht="15.75" customHeight="1">
+    <row r="597" spans="1:15" ht="15.75" customHeight="1">
       <c r="A597" s="6">
         <v>2023</v>
       </c>
@@ -27897,7 +27897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="598" spans="1:10" ht="15.75" customHeight="1">
+    <row r="598" spans="1:15" ht="15.75" customHeight="1">
       <c r="A598" s="6">
         <v>2023</v>
       </c>
@@ -27927,6 +27927,1210 @@
       </c>
       <c r="J598" s="6">
         <v>4</v>
+      </c>
+    </row>
+    <row r="599" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A599" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B599" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C599">
+        <v>1</v>
+      </c>
+      <c r="D599">
+        <v>2</v>
+      </c>
+      <c r="E599">
+        <v>0</v>
+      </c>
+      <c r="F599">
+        <v>3</v>
+      </c>
+      <c r="G599">
+        <v>1</v>
+      </c>
+      <c r="H599">
+        <v>4</v>
+      </c>
+      <c r="I599">
+        <v>11</v>
+      </c>
+      <c r="J599">
+        <v>5</v>
+      </c>
+      <c r="K599" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L599" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M599">
+        <v>19</v>
+      </c>
+      <c r="N599">
+        <v>162</v>
+      </c>
+      <c r="O599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A600" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B600" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C600">
+        <v>0</v>
+      </c>
+      <c r="E600">
+        <v>3</v>
+      </c>
+      <c r="F600">
+        <v>2</v>
+      </c>
+      <c r="G600">
+        <v>2</v>
+      </c>
+      <c r="H600">
+        <v>2</v>
+      </c>
+      <c r="I600">
+        <v>10</v>
+      </c>
+      <c r="J600">
+        <v>5</v>
+      </c>
+      <c r="K600" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L600" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M600">
+        <v>20</v>
+      </c>
+      <c r="N600">
+        <v>178</v>
+      </c>
+      <c r="O600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A601" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B601" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C601">
+        <v>2</v>
+      </c>
+      <c r="D601">
+        <v>2</v>
+      </c>
+      <c r="E601">
+        <v>2</v>
+      </c>
+      <c r="F601">
+        <v>3</v>
+      </c>
+      <c r="G601">
+        <v>0</v>
+      </c>
+      <c r="H601">
+        <v>2</v>
+      </c>
+      <c r="I601">
+        <v>11</v>
+      </c>
+      <c r="J601">
+        <v>5</v>
+      </c>
+      <c r="K601" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L601" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M601">
+        <v>20</v>
+      </c>
+      <c r="O601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A602" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B602" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C602">
+        <v>0</v>
+      </c>
+      <c r="D602">
+        <v>0</v>
+      </c>
+      <c r="E602">
+        <v>3</v>
+      </c>
+      <c r="F602">
+        <v>6</v>
+      </c>
+      <c r="G602">
+        <v>1</v>
+      </c>
+      <c r="H602">
+        <v>0</v>
+      </c>
+      <c r="I602">
+        <v>10</v>
+      </c>
+      <c r="J602">
+        <v>3</v>
+      </c>
+      <c r="K602" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L602" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M602">
+        <v>23</v>
+      </c>
+      <c r="N602">
+        <v>189</v>
+      </c>
+      <c r="O602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A603" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B603" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C603">
+        <v>2</v>
+      </c>
+      <c r="D603">
+        <v>1</v>
+      </c>
+      <c r="E603">
+        <v>2</v>
+      </c>
+      <c r="F603">
+        <v>3</v>
+      </c>
+      <c r="G603">
+        <v>0</v>
+      </c>
+      <c r="H603">
+        <v>3</v>
+      </c>
+      <c r="I603">
+        <v>11</v>
+      </c>
+      <c r="J603">
+        <v>5</v>
+      </c>
+      <c r="K603" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L603" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M603">
+        <v>22</v>
+      </c>
+      <c r="N603">
+        <v>178</v>
+      </c>
+      <c r="O603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A604" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B604" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C604">
+        <v>2</v>
+      </c>
+      <c r="D604">
+        <v>1</v>
+      </c>
+      <c r="E604">
+        <v>1</v>
+      </c>
+      <c r="F604">
+        <v>5</v>
+      </c>
+      <c r="G604">
+        <v>2</v>
+      </c>
+      <c r="H604">
+        <v>1</v>
+      </c>
+      <c r="I604">
+        <v>12</v>
+      </c>
+      <c r="J604">
+        <v>6</v>
+      </c>
+      <c r="K604" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L604" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M604">
+        <v>21</v>
+      </c>
+      <c r="N604">
+        <v>166</v>
+      </c>
+      <c r="O604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A605" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B605" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C605">
+        <v>4</v>
+      </c>
+      <c r="D605">
+        <v>0</v>
+      </c>
+      <c r="E605">
+        <v>0</v>
+      </c>
+      <c r="F605">
+        <v>0</v>
+      </c>
+      <c r="G605">
+        <v>2</v>
+      </c>
+      <c r="H605">
+        <v>1</v>
+      </c>
+      <c r="I605">
+        <v>10</v>
+      </c>
+      <c r="J605">
+        <v>4</v>
+      </c>
+      <c r="K605" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L605" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M605">
+        <v>24</v>
+      </c>
+      <c r="N605">
+        <v>170</v>
+      </c>
+      <c r="O605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A606" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B606" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C606">
+        <v>2</v>
+      </c>
+      <c r="D606">
+        <v>1</v>
+      </c>
+      <c r="E606">
+        <v>2</v>
+      </c>
+      <c r="G606">
+        <v>2</v>
+      </c>
+      <c r="H606">
+        <v>6</v>
+      </c>
+      <c r="I606">
+        <v>13</v>
+      </c>
+      <c r="J606">
+        <v>4</v>
+      </c>
+      <c r="K606" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L606" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M606">
+        <v>21</v>
+      </c>
+      <c r="N606">
+        <v>180</v>
+      </c>
+      <c r="O606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A607" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B607" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C607">
+        <v>1</v>
+      </c>
+      <c r="D607">
+        <v>1</v>
+      </c>
+      <c r="E607">
+        <v>2</v>
+      </c>
+      <c r="F607">
+        <v>0</v>
+      </c>
+      <c r="G607">
+        <v>3</v>
+      </c>
+      <c r="H607">
+        <v>3</v>
+      </c>
+      <c r="I607">
+        <v>10</v>
+      </c>
+      <c r="J607">
+        <v>5</v>
+      </c>
+      <c r="K607" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L607" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M607">
+        <v>20</v>
+      </c>
+      <c r="N607">
+        <v>191</v>
+      </c>
+      <c r="O607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A608" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B608" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C608">
+        <v>3</v>
+      </c>
+      <c r="D608">
+        <v>1</v>
+      </c>
+      <c r="E608">
+        <v>4</v>
+      </c>
+      <c r="F608">
+        <v>1</v>
+      </c>
+      <c r="G608">
+        <v>2</v>
+      </c>
+      <c r="H608">
+        <v>1</v>
+      </c>
+      <c r="I608">
+        <v>12</v>
+      </c>
+      <c r="J608">
+        <v>6</v>
+      </c>
+      <c r="K608" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L608" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M608">
+        <v>19</v>
+      </c>
+      <c r="N608">
+        <v>185</v>
+      </c>
+      <c r="O608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A609" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B609" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C609">
+        <v>1</v>
+      </c>
+      <c r="D609">
+        <v>2</v>
+      </c>
+      <c r="E609">
+        <v>2</v>
+      </c>
+      <c r="F609">
+        <v>4</v>
+      </c>
+      <c r="G609">
+        <v>2</v>
+      </c>
+      <c r="H609">
+        <v>2</v>
+      </c>
+      <c r="I609">
+        <v>11</v>
+      </c>
+      <c r="J609">
+        <v>5</v>
+      </c>
+      <c r="K609" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L609" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M609">
+        <v>19</v>
+      </c>
+      <c r="N609">
+        <v>190</v>
+      </c>
+      <c r="O609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A610" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B610" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C610">
+        <v>2</v>
+      </c>
+      <c r="D610">
+        <v>0</v>
+      </c>
+      <c r="E610">
+        <v>2</v>
+      </c>
+      <c r="F610">
+        <v>2</v>
+      </c>
+      <c r="G610">
+        <v>0</v>
+      </c>
+      <c r="H610">
+        <v>3</v>
+      </c>
+      <c r="I610">
+        <v>10</v>
+      </c>
+      <c r="J610">
+        <v>4</v>
+      </c>
+      <c r="K610" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L610" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M610">
+        <v>22</v>
+      </c>
+      <c r="N610">
+        <v>180</v>
+      </c>
+      <c r="O610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A611" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B611" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C611">
+        <v>1</v>
+      </c>
+      <c r="D611">
+        <v>3</v>
+      </c>
+      <c r="E611">
+        <v>0</v>
+      </c>
+      <c r="F611">
+        <v>1</v>
+      </c>
+      <c r="G611">
+        <v>2</v>
+      </c>
+      <c r="H611">
+        <v>1</v>
+      </c>
+      <c r="I611">
+        <v>8</v>
+      </c>
+      <c r="J611">
+        <v>5</v>
+      </c>
+      <c r="K611" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L611" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M611">
+        <v>20</v>
+      </c>
+      <c r="N611">
+        <v>177</v>
+      </c>
+      <c r="O611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A612" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B612" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C612">
+        <v>4</v>
+      </c>
+      <c r="D612">
+        <v>1</v>
+      </c>
+      <c r="E612">
+        <v>0</v>
+      </c>
+      <c r="F612">
+        <v>2</v>
+      </c>
+      <c r="G612">
+        <v>2</v>
+      </c>
+      <c r="H612">
+        <v>1</v>
+      </c>
+      <c r="I612">
+        <v>10</v>
+      </c>
+      <c r="J612">
+        <v>5</v>
+      </c>
+      <c r="K612" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L612" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M612">
+        <v>22</v>
+      </c>
+      <c r="N612">
+        <v>190</v>
+      </c>
+      <c r="O612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A613" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B613" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C613">
+        <v>0</v>
+      </c>
+      <c r="D613">
+        <v>4</v>
+      </c>
+      <c r="E613">
+        <v>3</v>
+      </c>
+      <c r="F613">
+        <v>2</v>
+      </c>
+      <c r="G613">
+        <v>1</v>
+      </c>
+      <c r="H613">
+        <v>1</v>
+      </c>
+      <c r="I613">
+        <v>11</v>
+      </c>
+      <c r="J613">
+        <v>5</v>
+      </c>
+      <c r="K613" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L613" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M613">
+        <v>22</v>
+      </c>
+      <c r="N613">
+        <v>180</v>
+      </c>
+      <c r="O613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A614" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B614" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C614">
+        <v>1</v>
+      </c>
+      <c r="D614">
+        <v>2</v>
+      </c>
+      <c r="E614">
+        <v>0</v>
+      </c>
+      <c r="F614">
+        <v>0</v>
+      </c>
+      <c r="G614">
+        <v>4</v>
+      </c>
+      <c r="H614">
+        <v>3</v>
+      </c>
+      <c r="I614">
+        <v>10</v>
+      </c>
+      <c r="J614">
+        <v>4</v>
+      </c>
+      <c r="L614" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M614">
+        <v>19</v>
+      </c>
+      <c r="N614">
+        <v>180</v>
+      </c>
+      <c r="O614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A615" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B615" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C615">
+        <v>1</v>
+      </c>
+      <c r="D615">
+        <v>2</v>
+      </c>
+      <c r="E615">
+        <v>1</v>
+      </c>
+      <c r="F615">
+        <v>3</v>
+      </c>
+      <c r="G615">
+        <v>0</v>
+      </c>
+      <c r="H615">
+        <v>1</v>
+      </c>
+      <c r="I615">
+        <v>8</v>
+      </c>
+      <c r="J615">
+        <v>5</v>
+      </c>
+      <c r="K615" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L615" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M615">
+        <v>23</v>
+      </c>
+      <c r="N615">
+        <v>170</v>
+      </c>
+      <c r="O615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A616" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B616" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C616">
+        <v>1</v>
+      </c>
+      <c r="D616">
+        <v>3</v>
+      </c>
+      <c r="E616">
+        <v>2</v>
+      </c>
+      <c r="F616">
+        <v>0</v>
+      </c>
+      <c r="G616">
+        <v>2</v>
+      </c>
+      <c r="H616">
+        <v>2</v>
+      </c>
+      <c r="I616">
+        <v>10</v>
+      </c>
+      <c r="J616">
+        <v>5</v>
+      </c>
+      <c r="K616" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L616" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M616">
+        <v>20</v>
+      </c>
+      <c r="N616">
+        <v>180</v>
+      </c>
+      <c r="O616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A617" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B617" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C617">
+        <v>0</v>
+      </c>
+      <c r="D617">
+        <v>3</v>
+      </c>
+      <c r="E617">
+        <v>2</v>
+      </c>
+      <c r="F617">
+        <v>1</v>
+      </c>
+      <c r="G617">
+        <v>3</v>
+      </c>
+      <c r="H617">
+        <v>1</v>
+      </c>
+      <c r="I617">
+        <v>10</v>
+      </c>
+      <c r="J617">
+        <v>5</v>
+      </c>
+      <c r="K617" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L617" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M617">
+        <v>23</v>
+      </c>
+      <c r="N617">
+        <v>193</v>
+      </c>
+      <c r="O617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A618" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B618" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C618">
+        <v>0</v>
+      </c>
+      <c r="D618">
+        <v>1</v>
+      </c>
+      <c r="E618">
+        <v>3</v>
+      </c>
+      <c r="F618">
+        <v>3</v>
+      </c>
+      <c r="G618">
+        <v>2</v>
+      </c>
+      <c r="H618">
+        <v>1</v>
+      </c>
+      <c r="I618">
+        <v>10</v>
+      </c>
+      <c r="J618">
+        <v>5</v>
+      </c>
+      <c r="K618" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L618" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M618">
+        <v>24</v>
+      </c>
+      <c r="N618">
+        <v>176</v>
+      </c>
+      <c r="O618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A619" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B619" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C619">
+        <v>1</v>
+      </c>
+      <c r="D619">
+        <v>4</v>
+      </c>
+      <c r="E619">
+        <v>2</v>
+      </c>
+      <c r="F619">
+        <v>2</v>
+      </c>
+      <c r="G619">
+        <v>0</v>
+      </c>
+      <c r="H619">
+        <v>1</v>
+      </c>
+      <c r="I619">
+        <v>10</v>
+      </c>
+      <c r="J619">
+        <v>5</v>
+      </c>
+      <c r="K619" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L619" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M619">
+        <v>20</v>
+      </c>
+      <c r="N619">
+        <v>173</v>
+      </c>
+      <c r="O619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A620" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B620" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C620">
+        <v>3</v>
+      </c>
+      <c r="D620">
+        <v>3</v>
+      </c>
+      <c r="E620">
+        <v>0</v>
+      </c>
+      <c r="F620">
+        <v>2</v>
+      </c>
+      <c r="G620">
+        <v>1</v>
+      </c>
+      <c r="H620">
+        <v>2</v>
+      </c>
+      <c r="I620">
+        <v>11</v>
+      </c>
+      <c r="J620">
+        <v>5</v>
+      </c>
+      <c r="K620" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L620" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M620">
+        <v>22</v>
+      </c>
+      <c r="N620">
+        <v>175</v>
+      </c>
+      <c r="O620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A621" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B621" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C621">
+        <v>0</v>
+      </c>
+      <c r="D621">
+        <v>1</v>
+      </c>
+      <c r="E621">
+        <v>2</v>
+      </c>
+      <c r="F621">
+        <v>3</v>
+      </c>
+      <c r="G621">
+        <v>2</v>
+      </c>
+      <c r="H621">
+        <v>2</v>
+      </c>
+      <c r="I621">
+        <v>10</v>
+      </c>
+      <c r="J621">
+        <v>5</v>
+      </c>
+      <c r="K621" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L621" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A622" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B622" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C622">
+        <v>0</v>
+      </c>
+      <c r="D622">
+        <v>0</v>
+      </c>
+      <c r="E622">
+        <v>1</v>
+      </c>
+      <c r="F622">
+        <v>2</v>
+      </c>
+      <c r="G622">
+        <v>3</v>
+      </c>
+      <c r="H622">
+        <v>3</v>
+      </c>
+      <c r="I622">
+        <v>9</v>
+      </c>
+      <c r="J622">
+        <v>4</v>
+      </c>
+      <c r="K622" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L622" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M622">
+        <v>21</v>
+      </c>
+      <c r="N622">
+        <v>192</v>
+      </c>
+      <c r="O622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A623" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B623" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C623">
+        <v>1</v>
+      </c>
+      <c r="D623">
+        <v>1</v>
+      </c>
+      <c r="E623">
+        <v>4</v>
+      </c>
+      <c r="F623">
+        <v>0</v>
+      </c>
+      <c r="G623">
+        <v>2</v>
+      </c>
+      <c r="H623">
+        <v>2</v>
+      </c>
+      <c r="I623">
+        <v>10</v>
+      </c>
+      <c r="J623">
+        <v>5</v>
+      </c>
+      <c r="K623" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L623" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M623">
+        <v>22</v>
+      </c>
+      <c r="N623">
+        <v>183</v>
+      </c>
+      <c r="O623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A624" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B624" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C624">
+        <v>2</v>
+      </c>
+      <c r="D624">
+        <v>1</v>
+      </c>
+      <c r="E624">
+        <v>0</v>
+      </c>
+      <c r="F624">
+        <v>0</v>
+      </c>
+      <c r="G624">
+        <v>4</v>
+      </c>
+      <c r="H624">
+        <v>4</v>
+      </c>
+      <c r="I624">
+        <v>11</v>
+      </c>
+      <c r="J624">
+        <v>4</v>
+      </c>
+      <c r="K624" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L624" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M624">
+        <v>23</v>
+      </c>
+      <c r="N624">
+        <v>162</v>
+      </c>
+      <c r="O624">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\jkruppa.github.io\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3177106-446B-4829-BE6B-CF300A27165A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B459F0A8-748D-B148-A652-416DFE6D65D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="1812" windowWidth="21744" windowHeight="12612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14340" yWindow="1820" windowWidth="21740" windowHeight="12620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -638,24 +638,24 @@
   <dimension ref="A1:Q624"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A604" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L589" sqref="L589"/>
+      <pane ySplit="1" topLeftCell="A596" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G603" sqref="G603"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -1608,7 +1608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13.2">
+    <row r="21" spans="1:15" ht="13">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="13.2">
+    <row r="22" spans="1:15" ht="13">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="13.2">
+    <row r="23" spans="1:15" ht="13">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13.2">
+    <row r="24" spans="1:15" ht="13">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13.2">
+    <row r="25" spans="1:15" ht="13">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13.2">
+    <row r="26" spans="1:15" ht="13">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="13.2">
+    <row r="27" spans="1:15" ht="13">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="13.2">
+    <row r="28" spans="1:15" ht="13">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="13.2">
+    <row r="29" spans="1:15" ht="13">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="13.2">
+    <row r="30" spans="1:15" ht="13">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="13.2">
+    <row r="31" spans="1:15" ht="13">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="13.2">
+    <row r="32" spans="1:15" ht="13">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="13.2">
+    <row r="33" spans="1:15" ht="13">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="13.2">
+    <row r="34" spans="1:15" ht="13">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="13.2">
+    <row r="35" spans="1:15" ht="13">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="13.2">
+    <row r="36" spans="1:15" ht="13">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="13.2">
+    <row r="37" spans="1:15" ht="13">
       <c r="A37">
         <v>2018</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="13.2">
+    <row r="38" spans="1:15" ht="13">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="13.2">
+    <row r="39" spans="1:15" ht="13">
       <c r="A39">
         <v>2018</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13.2">
+    <row r="40" spans="1:15" ht="13">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="13.2">
+    <row r="41" spans="1:15" ht="13">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="13.2">
+    <row r="42" spans="1:15" ht="13">
       <c r="A42">
         <v>2018</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="13.2">
+    <row r="43" spans="1:15" ht="13">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="13.2">
+    <row r="44" spans="1:15" ht="13">
       <c r="A44">
         <v>2018</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="13.2">
+    <row r="45" spans="1:15" ht="13">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="13.2">
+    <row r="46" spans="1:15" ht="13">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="13.2">
+    <row r="47" spans="1:15" ht="13">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13.2">
+    <row r="48" spans="1:15" ht="13">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="13.2">
+    <row r="49" spans="1:15" ht="13">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="13.2">
+    <row r="50" spans="1:15" ht="13">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="13.2">
+    <row r="51" spans="1:15" ht="13">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="13.2">
+    <row r="52" spans="1:15" ht="13">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="13.2">
+    <row r="53" spans="1:15" ht="13">
       <c r="A53">
         <v>2018</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="13.2">
+    <row r="54" spans="1:15" ht="13">
       <c r="A54">
         <v>2018</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="13.2">
+    <row r="55" spans="1:15" ht="13">
       <c r="A55">
         <v>2018</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="13.2">
+    <row r="56" spans="1:15" ht="13">
       <c r="A56">
         <v>2018</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13.2">
+    <row r="57" spans="1:15" ht="13">
       <c r="A57">
         <v>2018</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="13.2">
+    <row r="58" spans="1:15" ht="13">
       <c r="A58">
         <v>2018</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="13.2">
+    <row r="59" spans="1:15" ht="13">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="13.2">
+    <row r="60" spans="1:15" ht="13">
       <c r="A60">
         <v>2018</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="13.2">
+    <row r="61" spans="1:15" ht="13">
       <c r="A61">
         <v>2018</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="13.2">
+    <row r="62" spans="1:15" ht="13">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13.2">
+    <row r="63" spans="1:15" ht="13">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="13.2">
+    <row r="64" spans="1:15" ht="13">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="13.2">
+    <row r="65" spans="1:15" ht="13">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="13.2">
+    <row r="66" spans="1:15" ht="13">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="13.2">
+    <row r="67" spans="1:15" ht="13">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="13.2">
+    <row r="68" spans="1:15" ht="13">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="13.2">
+    <row r="69" spans="1:15" ht="13">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="13.2">
+    <row r="70" spans="1:15" ht="13">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="13.2">
+    <row r="71" spans="1:15" ht="13">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="13.2">
+    <row r="72" spans="1:15" ht="13">
       <c r="A72">
         <v>2018</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="13.2">
+    <row r="73" spans="1:15" ht="13">
       <c r="A73">
         <v>2018</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="13.2">
+    <row r="74" spans="1:15" ht="13">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="13.2">
+    <row r="75" spans="1:15" ht="13">
       <c r="A75">
         <v>2018</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="13.2">
+    <row r="77" spans="1:15" ht="14">
       <c r="A77">
         <v>2018</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="13.2">
+    <row r="84" spans="1:15" ht="14">
       <c r="A84">
         <v>2018</v>
       </c>
@@ -27986,6 +27986,9 @@
       <c r="C600">
         <v>0</v>
       </c>
+      <c r="D600">
+        <v>0</v>
+      </c>
       <c r="E600">
         <v>3</v>
       </c>
@@ -28267,6 +28270,9 @@
       </c>
       <c r="E606">
         <v>2</v>
+      </c>
+      <c r="F606">
+        <v>0</v>
       </c>
       <c r="G606">
         <v>2</v>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B459F0A8-748D-B148-A652-416DFE6D65D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08372C87-83A5-7547-BD64-A438DFCEAA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="1820" windowWidth="21740" windowHeight="12620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7060" yWindow="1820" windowWidth="21740" windowHeight="12620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="31">
   <si>
     <t>m</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>Girls and Boys Day</t>
+  </si>
+  <si>
+    <t>Borstel</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>dark red</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -635,11 +647,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q624"/>
+  <dimension ref="A1:Q634"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A596" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G603" sqref="G603"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K614" sqref="K614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -28662,6 +28674,9 @@
       <c r="J614">
         <v>4</v>
       </c>
+      <c r="K614" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L614" s="6" t="s">
         <v>0</v>
       </c>
@@ -29137,6 +29152,476 @@
       </c>
       <c r="O624">
         <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A625" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B625" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C625" s="11">
+        <v>1</v>
+      </c>
+      <c r="D625" s="6">
+        <v>1</v>
+      </c>
+      <c r="E625" s="6">
+        <v>2</v>
+      </c>
+      <c r="F625" s="6">
+        <v>2</v>
+      </c>
+      <c r="G625" s="6">
+        <v>3</v>
+      </c>
+      <c r="H625" s="6">
+        <v>1</v>
+      </c>
+      <c r="I625" s="6">
+        <v>10</v>
+      </c>
+      <c r="J625" s="6">
+        <v>6</v>
+      </c>
+      <c r="K625" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L625" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M625" s="6">
+        <v>27</v>
+      </c>
+      <c r="N625" s="6">
+        <v>167</v>
+      </c>
+      <c r="O625" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="626" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A626" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B626" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C626" s="6">
+        <v>1</v>
+      </c>
+      <c r="D626" s="6">
+        <v>0</v>
+      </c>
+      <c r="E626" s="6">
+        <v>6</v>
+      </c>
+      <c r="F626" s="6">
+        <v>2</v>
+      </c>
+      <c r="G626" s="6">
+        <v>0</v>
+      </c>
+      <c r="H626" s="6">
+        <v>2</v>
+      </c>
+      <c r="I626" s="6">
+        <v>11</v>
+      </c>
+      <c r="J626" s="6">
+        <v>4</v>
+      </c>
+      <c r="K626" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L626" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M626" s="6">
+        <v>33</v>
+      </c>
+      <c r="N626" s="6">
+        <v>166</v>
+      </c>
+      <c r="O626" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="627" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A627" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B627" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C627" s="6">
+        <v>1</v>
+      </c>
+      <c r="D627" s="6">
+        <v>2</v>
+      </c>
+      <c r="E627" s="6">
+        <v>1</v>
+      </c>
+      <c r="F627" s="6">
+        <v>1</v>
+      </c>
+      <c r="G627" s="6">
+        <v>2</v>
+      </c>
+      <c r="H627" s="6">
+        <v>4</v>
+      </c>
+      <c r="I627" s="6">
+        <v>11</v>
+      </c>
+      <c r="J627" s="6">
+        <v>6</v>
+      </c>
+      <c r="K627" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L627" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M627" s="6">
+        <v>28</v>
+      </c>
+      <c r="N627" s="6">
+        <v>168</v>
+      </c>
+      <c r="O627" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="628" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A628" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B628" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C628" s="6">
+        <v>0</v>
+      </c>
+      <c r="D628" s="6">
+        <v>2</v>
+      </c>
+      <c r="E628" s="6">
+        <v>2</v>
+      </c>
+      <c r="F628" s="6">
+        <v>3</v>
+      </c>
+      <c r="G628" s="6">
+        <v>0</v>
+      </c>
+      <c r="H628" s="6">
+        <v>3</v>
+      </c>
+      <c r="I628" s="6">
+        <v>10</v>
+      </c>
+      <c r="J628" s="6">
+        <v>4</v>
+      </c>
+      <c r="K628" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L628" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M628" s="6">
+        <v>29</v>
+      </c>
+      <c r="N628" s="6">
+        <v>180</v>
+      </c>
+      <c r="O628" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="629" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A629" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B629" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C629" s="6">
+        <v>2</v>
+      </c>
+      <c r="D629" s="6">
+        <v>3</v>
+      </c>
+      <c r="E629" s="6">
+        <v>2</v>
+      </c>
+      <c r="F629" s="6">
+        <v>3</v>
+      </c>
+      <c r="G629" s="6">
+        <v>1</v>
+      </c>
+      <c r="H629" s="6">
+        <v>1</v>
+      </c>
+      <c r="I629" s="6">
+        <v>9</v>
+      </c>
+      <c r="J629" s="6">
+        <v>6</v>
+      </c>
+      <c r="K629" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L629" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M629" s="6">
+        <v>30</v>
+      </c>
+      <c r="N629" s="6">
+        <v>160</v>
+      </c>
+      <c r="O629" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A630" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B630" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C630" s="6">
+        <v>3</v>
+      </c>
+      <c r="D630" s="6">
+        <v>0</v>
+      </c>
+      <c r="E630" s="6">
+        <v>3</v>
+      </c>
+      <c r="F630" s="6">
+        <v>4</v>
+      </c>
+      <c r="G630" s="6">
+        <v>0</v>
+      </c>
+      <c r="H630" s="6">
+        <v>1</v>
+      </c>
+      <c r="I630" s="6">
+        <v>11</v>
+      </c>
+      <c r="J630" s="6">
+        <v>4</v>
+      </c>
+      <c r="K630" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L630" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M630" s="6">
+        <v>32</v>
+      </c>
+      <c r="N630" s="6">
+        <v>150</v>
+      </c>
+      <c r="O630" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A631" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B631" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C631" s="6">
+        <v>1</v>
+      </c>
+      <c r="D631" s="6">
+        <v>0</v>
+      </c>
+      <c r="E631" s="6">
+        <v>4</v>
+      </c>
+      <c r="F631" s="6">
+        <v>3</v>
+      </c>
+      <c r="G631" s="6">
+        <v>1</v>
+      </c>
+      <c r="H631" s="6">
+        <v>1</v>
+      </c>
+      <c r="I631" s="6">
+        <v>10</v>
+      </c>
+      <c r="J631" s="6">
+        <v>5</v>
+      </c>
+      <c r="K631" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L631" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M631" s="6">
+        <v>31</v>
+      </c>
+      <c r="N631" s="6">
+        <v>167</v>
+      </c>
+      <c r="O631" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A632" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B632" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C632" s="6">
+        <v>1</v>
+      </c>
+      <c r="D632" s="6">
+        <v>0</v>
+      </c>
+      <c r="E632" s="6">
+        <v>2</v>
+      </c>
+      <c r="F632" s="6">
+        <v>1</v>
+      </c>
+      <c r="G632" s="6">
+        <v>2</v>
+      </c>
+      <c r="H632" s="6">
+        <v>4</v>
+      </c>
+      <c r="I632" s="6">
+        <v>10</v>
+      </c>
+      <c r="J632" s="6">
+        <v>5</v>
+      </c>
+      <c r="K632" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L632" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M632" s="6">
+        <v>30</v>
+      </c>
+      <c r="N632" s="6">
+        <v>158</v>
+      </c>
+      <c r="O632" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A633" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B633" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C633" s="6">
+        <v>0</v>
+      </c>
+      <c r="D633" s="6">
+        <v>3</v>
+      </c>
+      <c r="E633" s="6">
+        <v>2</v>
+      </c>
+      <c r="F633" s="6">
+        <v>2</v>
+      </c>
+      <c r="G633" s="6">
+        <v>3</v>
+      </c>
+      <c r="H633" s="6">
+        <v>0</v>
+      </c>
+      <c r="I633" s="6">
+        <v>10</v>
+      </c>
+      <c r="J633" s="6">
+        <v>4</v>
+      </c>
+      <c r="K633" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L633" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M633" s="6">
+        <v>31</v>
+      </c>
+      <c r="N633" s="6">
+        <v>172</v>
+      </c>
+      <c r="O633" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A634" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B634" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C634" s="6">
+        <v>2</v>
+      </c>
+      <c r="D634" s="6">
+        <v>1</v>
+      </c>
+      <c r="E634" s="6">
+        <v>1</v>
+      </c>
+      <c r="F634" s="6">
+        <v>2</v>
+      </c>
+      <c r="G634" s="6">
+        <v>1</v>
+      </c>
+      <c r="H634" s="6">
+        <v>3</v>
+      </c>
+      <c r="I634" s="6">
+        <v>10</v>
+      </c>
+      <c r="J634" s="6">
+        <v>6</v>
+      </c>
+      <c r="K634" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L634" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M634" s="6">
+        <v>33</v>
+      </c>
+      <c r="N634" s="6">
+        <v>176</v>
+      </c>
+      <c r="O634" s="6">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08372C87-83A5-7547-BD64-A438DFCEAA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2294914-2577-EF4C-9AB6-6F916BDF9EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="1820" windowWidth="21740" windowHeight="12620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="30">
   <si>
     <t>m</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>dark red</t>
-  </si>
-  <si>
-    <t>f</t>
   </si>
 </sst>
 </file>
@@ -650,8 +647,8 @@
   <dimension ref="A1:Q634"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K614" sqref="K614"/>
+      <pane ySplit="1" topLeftCell="A617" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L632" sqref="L632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -29377,7 +29374,7 @@
         <v>28</v>
       </c>
       <c r="L629" s="6" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="M629" s="6">
         <v>30</v>
@@ -29424,7 +29421,7 @@
         <v>4</v>
       </c>
       <c r="L630" s="6" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="M630" s="6">
         <v>32</v>
@@ -29471,7 +29468,7 @@
         <v>4</v>
       </c>
       <c r="L631" s="6" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="M631" s="6">
         <v>31</v>
@@ -29518,7 +29515,7 @@
         <v>5</v>
       </c>
       <c r="L632" s="6" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="M632" s="6">
         <v>30</v>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2294914-2577-EF4C-9AB6-6F916BDF9EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B91709-095E-A842-A301-9EDAA954DE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7060" yWindow="1820" windowWidth="21740" windowHeight="12620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7060" yWindow="1820" windowWidth="24900" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="31">
   <si>
     <t>m</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>dark red</t>
+  </si>
+  <si>
+    <t>PhD Osnabrück</t>
   </si>
 </sst>
 </file>
@@ -644,11 +647,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q634"/>
+  <dimension ref="A1:Q649"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A617" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L632" sqref="L632"/>
+      <pane ySplit="1" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L648" sqref="L648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1568,6 +1571,9 @@
       <c r="N19" s="1">
         <v>185</v>
       </c>
+      <c r="O19" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="A20">
@@ -1988,7 +1994,9 @@
       <c r="K28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="M28" s="1">
         <v>19</v>
       </c>
@@ -5502,6 +5510,9 @@
       <c r="N103">
         <v>187</v>
       </c>
+      <c r="O103">
+        <v>3</v>
+      </c>
     </row>
     <row r="104" spans="1:15" ht="15.75" customHeight="1">
       <c r="A104">
@@ -6298,7 +6309,9 @@
       <c r="N120" s="3">
         <v>171</v>
       </c>
-      <c r="O120" s="4"/>
+      <c r="O120" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:15" ht="15.75" customHeight="1">
       <c r="A121">
@@ -6343,7 +6356,9 @@
       <c r="N121" s="3">
         <v>189</v>
       </c>
-      <c r="O121" s="4"/>
+      <c r="O121" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" spans="1:15" ht="15.75" customHeight="1">
       <c r="A122">
@@ -6388,7 +6403,9 @@
       <c r="N122" s="3">
         <v>173</v>
       </c>
-      <c r="O122" s="4"/>
+      <c r="O122" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:15" ht="15.75" customHeight="1">
       <c r="A123">
@@ -6433,7 +6450,9 @@
       <c r="N123" s="3">
         <v>164</v>
       </c>
-      <c r="O123" s="4"/>
+      <c r="O123" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:15" ht="15.75" customHeight="1">
       <c r="A124">
@@ -6478,7 +6497,9 @@
       <c r="N124" s="3">
         <v>198</v>
       </c>
-      <c r="O124" s="4"/>
+      <c r="O124" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:15" ht="15.75" customHeight="1">
       <c r="A125">
@@ -6523,7 +6544,9 @@
       <c r="N125" s="3">
         <v>173</v>
       </c>
-      <c r="O125" s="4"/>
+      <c r="O125" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="1:15" ht="15.75" customHeight="1">
       <c r="A126">
@@ -6568,7 +6591,9 @@
       <c r="N126" s="3">
         <v>182</v>
       </c>
-      <c r="O126" s="4"/>
+      <c r="O126" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:15" ht="15.75" customHeight="1">
       <c r="A127">
@@ -6611,7 +6636,9 @@
       <c r="N127" s="3">
         <v>175</v>
       </c>
-      <c r="O127" s="3"/>
+      <c r="O127" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:15" ht="15.75" customHeight="1">
       <c r="A128">
@@ -6652,7 +6679,9 @@
       </c>
       <c r="M128" s="4"/>
       <c r="N128" s="3"/>
-      <c r="O128" s="4"/>
+      <c r="O128" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="129" spans="1:15" ht="15.75" customHeight="1">
       <c r="A129">
@@ -6697,7 +6726,9 @@
       <c r="N129" s="3">
         <v>173</v>
       </c>
-      <c r="O129" s="7"/>
+      <c r="O129" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" spans="1:15" ht="15.75" customHeight="1">
       <c r="A130">
@@ -6742,7 +6773,9 @@
       <c r="N130" s="3">
         <v>170</v>
       </c>
-      <c r="O130" s="4"/>
+      <c r="O130" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" spans="1:15" ht="15.75" customHeight="1">
       <c r="A131">
@@ -6787,7 +6820,9 @@
       <c r="N131" s="3">
         <v>175</v>
       </c>
-      <c r="O131" s="3"/>
+      <c r="O131" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="1:15" ht="15.75" customHeight="1">
       <c r="A132">
@@ -6832,7 +6867,9 @@
       <c r="N132" s="3">
         <v>166</v>
       </c>
-      <c r="O132" s="3"/>
+      <c r="O132" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:15" ht="15.75" customHeight="1">
       <c r="A133">
@@ -6877,7 +6914,9 @@
       <c r="N133" s="3">
         <v>163</v>
       </c>
-      <c r="O133" s="4"/>
+      <c r="O133" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:15" ht="15.75" customHeight="1">
       <c r="A134">
@@ -6922,7 +6961,9 @@
       <c r="N134" s="8">
         <v>166</v>
       </c>
-      <c r="O134" s="3"/>
+      <c r="O134" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:15" ht="15.75" customHeight="1">
       <c r="A135">
@@ -6967,7 +7008,9 @@
       <c r="N135" s="3">
         <v>178</v>
       </c>
-      <c r="O135" s="3"/>
+      <c r="O135" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:15" ht="15.75" customHeight="1">
       <c r="A136">
@@ -10208,7 +10251,9 @@
       <c r="N204" s="3">
         <v>175</v>
       </c>
-      <c r="O204" s="4"/>
+      <c r="O204" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="205" spans="1:15" ht="15.75" customHeight="1">
       <c r="A205">
@@ -12462,6 +12507,9 @@
       <c r="N252">
         <v>163</v>
       </c>
+      <c r="O252">
+        <v>5</v>
+      </c>
     </row>
     <row r="253" spans="1:15" ht="15.75" customHeight="1">
       <c r="A253" s="6">
@@ -12600,6 +12648,9 @@
       <c r="N255">
         <v>187</v>
       </c>
+      <c r="O255">
+        <v>5</v>
+      </c>
     </row>
     <row r="256" spans="1:15" ht="15.75" customHeight="1">
       <c r="A256" s="6">
@@ -13789,6 +13840,9 @@
       <c r="N281">
         <v>172</v>
       </c>
+      <c r="O281">
+        <v>5</v>
+      </c>
     </row>
     <row r="282" spans="1:15" ht="15.75" customHeight="1">
       <c r="A282" s="6">
@@ -14632,6 +14686,9 @@
       <c r="N299">
         <v>180</v>
       </c>
+      <c r="O299">
+        <v>8</v>
+      </c>
     </row>
     <row r="300" spans="1:15" ht="15.75" customHeight="1">
       <c r="A300" s="6">
@@ -16271,7 +16328,9 @@
       <c r="K334" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L334" s="6"/>
+      <c r="L334" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M334" s="6">
         <v>21</v>
       </c>
@@ -16467,7 +16526,9 @@
       <c r="M338" s="6">
         <v>22</v>
       </c>
-      <c r="N338" s="6"/>
+      <c r="N338" s="6">
+        <v>171</v>
+      </c>
       <c r="O338" s="6">
         <v>5</v>
       </c>
@@ -16516,7 +16577,9 @@
       <c r="N339" s="6">
         <v>172</v>
       </c>
-      <c r="O339" s="6"/>
+      <c r="O339" s="6">
+        <v>1</v>
+      </c>
       <c r="P339" s="6"/>
     </row>
     <row r="340" spans="1:17" ht="15.75" customHeight="1">
@@ -17133,7 +17196,9 @@
       <c r="K352" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L352" s="6"/>
+      <c r="L352" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M352" s="6">
         <v>21</v>
       </c>
@@ -17336,7 +17401,9 @@
       <c r="N356" s="6">
         <v>195</v>
       </c>
-      <c r="O356" s="6"/>
+      <c r="O356" s="6">
+        <v>1</v>
+      </c>
       <c r="P356" s="6"/>
       <c r="Q356" s="6"/>
     </row>
@@ -23039,7 +23106,9 @@
       <c r="K478" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L478" s="6"/>
+      <c r="L478" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M478" s="6">
         <v>23</v>
       </c>
@@ -28072,6 +28141,9 @@
       <c r="M601">
         <v>20</v>
       </c>
+      <c r="N601">
+        <v>183</v>
+      </c>
       <c r="O601">
         <v>1</v>
       </c>
@@ -29619,6 +29691,711 @@
       </c>
       <c r="O634" s="6">
         <v>7</v>
+      </c>
+    </row>
+    <row r="635" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A635" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B635" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C635" s="11">
+        <v>1</v>
+      </c>
+      <c r="D635" s="6">
+        <v>1</v>
+      </c>
+      <c r="E635" s="6">
+        <v>3</v>
+      </c>
+      <c r="F635" s="6">
+        <v>2</v>
+      </c>
+      <c r="G635" s="6">
+        <v>0</v>
+      </c>
+      <c r="H635" s="6">
+        <v>2</v>
+      </c>
+      <c r="I635" s="6">
+        <v>9</v>
+      </c>
+      <c r="J635" s="6">
+        <v>5</v>
+      </c>
+      <c r="K635" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L635" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M635" s="6">
+        <v>28</v>
+      </c>
+      <c r="N635" s="6">
+        <v>163</v>
+      </c>
+      <c r="O635" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="636" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A636" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B636" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C636" s="6">
+        <v>0</v>
+      </c>
+      <c r="D636" s="6">
+        <v>1</v>
+      </c>
+      <c r="E636" s="6">
+        <v>2</v>
+      </c>
+      <c r="F636" s="6">
+        <v>1</v>
+      </c>
+      <c r="G636" s="6">
+        <v>2</v>
+      </c>
+      <c r="H636" s="6">
+        <v>2</v>
+      </c>
+      <c r="I636" s="6">
+        <v>8</v>
+      </c>
+      <c r="J636" s="6">
+        <v>5</v>
+      </c>
+      <c r="K636" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L636" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M636" s="6">
+        <v>32</v>
+      </c>
+      <c r="N636" s="6">
+        <v>164</v>
+      </c>
+      <c r="O636" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="637" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A637" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B637" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C637" s="6">
+        <v>2</v>
+      </c>
+      <c r="D637" s="6">
+        <v>0</v>
+      </c>
+      <c r="E637" s="6">
+        <v>3</v>
+      </c>
+      <c r="F637" s="6">
+        <v>1</v>
+      </c>
+      <c r="G637" s="6">
+        <v>4</v>
+      </c>
+      <c r="H637" s="6">
+        <v>1</v>
+      </c>
+      <c r="I637" s="6">
+        <v>11</v>
+      </c>
+      <c r="J637" s="6">
+        <v>5</v>
+      </c>
+      <c r="K637" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L637" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M637" s="6">
+        <v>30</v>
+      </c>
+      <c r="N637" s="6">
+        <v>189</v>
+      </c>
+      <c r="O637" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="638" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A638" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B638" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C638" s="6">
+        <v>2</v>
+      </c>
+      <c r="D638" s="6">
+        <v>0</v>
+      </c>
+      <c r="E638" s="6">
+        <v>2</v>
+      </c>
+      <c r="F638" s="6">
+        <v>3</v>
+      </c>
+      <c r="G638" s="6">
+        <v>1</v>
+      </c>
+      <c r="H638" s="6">
+        <v>2</v>
+      </c>
+      <c r="I638" s="6">
+        <v>10</v>
+      </c>
+      <c r="J638" s="6">
+        <v>5</v>
+      </c>
+      <c r="K638" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L638" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M638" s="6">
+        <v>29</v>
+      </c>
+      <c r="N638" s="6">
+        <v>162</v>
+      </c>
+      <c r="O638" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="639" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A639" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B639" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C639" s="6">
+        <v>0</v>
+      </c>
+      <c r="D639" s="6">
+        <v>3</v>
+      </c>
+      <c r="E639" s="6">
+        <v>2</v>
+      </c>
+      <c r="F639" s="6">
+        <v>1</v>
+      </c>
+      <c r="G639" s="6">
+        <v>4</v>
+      </c>
+      <c r="H639" s="6">
+        <v>0</v>
+      </c>
+      <c r="I639" s="6">
+        <v>11</v>
+      </c>
+      <c r="J639" s="6">
+        <v>4</v>
+      </c>
+      <c r="K639" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L639" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M639" s="6">
+        <v>26</v>
+      </c>
+      <c r="N639" s="6">
+        <v>168</v>
+      </c>
+      <c r="O639" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="640" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A640" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B640" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C640" s="6">
+        <v>0</v>
+      </c>
+      <c r="D640" s="6">
+        <v>2</v>
+      </c>
+      <c r="E640" s="6">
+        <v>4</v>
+      </c>
+      <c r="F640" s="6">
+        <v>1</v>
+      </c>
+      <c r="G640" s="6">
+        <v>2</v>
+      </c>
+      <c r="H640" s="6">
+        <v>0</v>
+      </c>
+      <c r="I640" s="6">
+        <v>9</v>
+      </c>
+      <c r="J640" s="6">
+        <v>4</v>
+      </c>
+      <c r="K640" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L640" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M640" s="6">
+        <v>26</v>
+      </c>
+      <c r="N640" s="6">
+        <v>164</v>
+      </c>
+      <c r="O640" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="641" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A641" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B641" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C641" s="6">
+        <v>0</v>
+      </c>
+      <c r="D641" s="6">
+        <v>1</v>
+      </c>
+      <c r="E641" s="6">
+        <v>1</v>
+      </c>
+      <c r="F641" s="6">
+        <v>2</v>
+      </c>
+      <c r="G641" s="6">
+        <v>2</v>
+      </c>
+      <c r="H641" s="6">
+        <v>2</v>
+      </c>
+      <c r="I641" s="6">
+        <v>8</v>
+      </c>
+      <c r="J641" s="6">
+        <v>5</v>
+      </c>
+      <c r="K641" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L641" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M641" s="6">
+        <v>27</v>
+      </c>
+      <c r="N641" s="6">
+        <v>169</v>
+      </c>
+      <c r="O641" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="642" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A642" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B642" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C642" s="6">
+        <v>2</v>
+      </c>
+      <c r="D642" s="6">
+        <v>1</v>
+      </c>
+      <c r="E642" s="6">
+        <v>3</v>
+      </c>
+      <c r="F642" s="6">
+        <v>0</v>
+      </c>
+      <c r="G642" s="6">
+        <v>3</v>
+      </c>
+      <c r="H642" s="6">
+        <v>0</v>
+      </c>
+      <c r="I642" s="6">
+        <v>9</v>
+      </c>
+      <c r="J642" s="6">
+        <v>4</v>
+      </c>
+      <c r="K642" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L642" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M642" s="6">
+        <v>27</v>
+      </c>
+      <c r="N642" s="6">
+        <v>165</v>
+      </c>
+      <c r="O642" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="643" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A643" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B643" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C643" s="6">
+        <v>2</v>
+      </c>
+      <c r="D643" s="6">
+        <v>3</v>
+      </c>
+      <c r="E643" s="6">
+        <v>0</v>
+      </c>
+      <c r="F643" s="6">
+        <v>1</v>
+      </c>
+      <c r="G643" s="6">
+        <v>2</v>
+      </c>
+      <c r="H643" s="6">
+        <v>1</v>
+      </c>
+      <c r="I643" s="6">
+        <v>9</v>
+      </c>
+      <c r="J643" s="6">
+        <v>5</v>
+      </c>
+      <c r="K643" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L643" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M643" s="6">
+        <v>30</v>
+      </c>
+      <c r="N643" s="6">
+        <v>169</v>
+      </c>
+      <c r="O643" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="644" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A644" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B644" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C644" s="6">
+        <v>3</v>
+      </c>
+      <c r="D644" s="6">
+        <v>0</v>
+      </c>
+      <c r="E644" s="6">
+        <v>0</v>
+      </c>
+      <c r="F644" s="6">
+        <v>2</v>
+      </c>
+      <c r="G644" s="6">
+        <v>2</v>
+      </c>
+      <c r="H644" s="6">
+        <v>3</v>
+      </c>
+      <c r="I644" s="6">
+        <v>10</v>
+      </c>
+      <c r="J644" s="6">
+        <v>4</v>
+      </c>
+      <c r="K644" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L644" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M644" s="6">
+        <v>26</v>
+      </c>
+      <c r="N644" s="6">
+        <v>176</v>
+      </c>
+      <c r="O644" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="645" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A645" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B645" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C645" s="6">
+        <v>1</v>
+      </c>
+      <c r="D645" s="6">
+        <v>4</v>
+      </c>
+      <c r="E645" s="6">
+        <v>1</v>
+      </c>
+      <c r="F645" s="6">
+        <v>0</v>
+      </c>
+      <c r="G645" s="6">
+        <v>1</v>
+      </c>
+      <c r="H645" s="6">
+        <v>2</v>
+      </c>
+      <c r="I645" s="6">
+        <v>9</v>
+      </c>
+      <c r="J645" s="6">
+        <v>5</v>
+      </c>
+      <c r="K645" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L645" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M645" s="6">
+        <v>26</v>
+      </c>
+      <c r="N645" s="6">
+        <v>187</v>
+      </c>
+      <c r="O645" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="646" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A646" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B646" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C646" s="6">
+        <v>0</v>
+      </c>
+      <c r="D646" s="6">
+        <v>1</v>
+      </c>
+      <c r="E646" s="6">
+        <v>3</v>
+      </c>
+      <c r="F646" s="6">
+        <v>2</v>
+      </c>
+      <c r="G646" s="6">
+        <v>1</v>
+      </c>
+      <c r="H646" s="6">
+        <v>2</v>
+      </c>
+      <c r="I646" s="6">
+        <v>9</v>
+      </c>
+      <c r="J646" s="6">
+        <v>5</v>
+      </c>
+      <c r="K646" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L646" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M646" s="6">
+        <v>25</v>
+      </c>
+      <c r="N646" s="6">
+        <v>170</v>
+      </c>
+      <c r="O646" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="647" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A647" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B647" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C647" s="6">
+        <v>4</v>
+      </c>
+      <c r="D647" s="6">
+        <v>2</v>
+      </c>
+      <c r="E647" s="6">
+        <v>3</v>
+      </c>
+      <c r="F647" s="6">
+        <v>2</v>
+      </c>
+      <c r="G647" s="6">
+        <v>0</v>
+      </c>
+      <c r="H647" s="6">
+        <v>0</v>
+      </c>
+      <c r="I647" s="6">
+        <v>11</v>
+      </c>
+      <c r="J647" s="6">
+        <v>4</v>
+      </c>
+      <c r="K647" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L647" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M647" s="6">
+        <v>29</v>
+      </c>
+      <c r="N647" s="6">
+        <v>174</v>
+      </c>
+      <c r="O647" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="648" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A648" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B648" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C648" s="6">
+        <v>1</v>
+      </c>
+      <c r="D648" s="6">
+        <v>1</v>
+      </c>
+      <c r="E648" s="6">
+        <v>2</v>
+      </c>
+      <c r="F648" s="6">
+        <v>1</v>
+      </c>
+      <c r="G648" s="6">
+        <v>2</v>
+      </c>
+      <c r="H648" s="6">
+        <v>1</v>
+      </c>
+      <c r="I648" s="6">
+        <v>9</v>
+      </c>
+      <c r="J648" s="6">
+        <v>6</v>
+      </c>
+      <c r="K648" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L648" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M648" s="6">
+        <v>29</v>
+      </c>
+      <c r="N648" s="6">
+        <v>173</v>
+      </c>
+      <c r="O648" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="649" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A649" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B649" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C649" s="6">
+        <v>3</v>
+      </c>
+      <c r="D649" s="6">
+        <v>0</v>
+      </c>
+      <c r="E649" s="6">
+        <v>0</v>
+      </c>
+      <c r="F649" s="6">
+        <v>3</v>
+      </c>
+      <c r="G649" s="6">
+        <v>2</v>
+      </c>
+      <c r="H649" s="6">
+        <v>2</v>
+      </c>
+      <c r="I649" s="6">
+        <v>10</v>
+      </c>
+      <c r="J649" s="6">
+        <v>4</v>
+      </c>
+      <c r="K649" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L649" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M649" s="6">
+        <v>26</v>
+      </c>
+      <c r="N649" s="6">
+        <v>165</v>
+      </c>
+      <c r="O649" s="6">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B91709-095E-A842-A301-9EDAA954DE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9263182A-25D9-F34F-8609-B707DE911097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="1820" windowWidth="24900" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="31">
   <si>
     <t>m</t>
   </si>
@@ -650,8 +650,8 @@
   <dimension ref="A1:Q649"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L648" sqref="L648"/>
+      <pane ySplit="1" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P607" sqref="P607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -995,9 +995,7 @@
       <c r="K7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8">
@@ -3872,9 +3870,7 @@
       <c r="K68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L68" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="L68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="13">
       <c r="A69">
@@ -5416,9 +5412,6 @@
       <c r="K101" t="s">
         <v>3</v>
       </c>
-      <c r="O101">
-        <v>1</v>
-      </c>
     </row>
     <row r="102" spans="1:15" ht="15.75" customHeight="1">
       <c r="A102">
@@ -6629,16 +6622,10 @@
       <c r="K127" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L127" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="L127" s="4"/>
       <c r="M127" s="4"/>
-      <c r="N127" s="3">
-        <v>175</v>
-      </c>
-      <c r="O127" s="3">
-        <v>1</v>
-      </c>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
     </row>
     <row r="128" spans="1:15" ht="15.75" customHeight="1">
       <c r="A128">
@@ -6674,14 +6661,10 @@
       <c r="K128" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L128" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="L128" s="4"/>
       <c r="M128" s="4"/>
       <c r="N128" s="3"/>
-      <c r="O128" s="4">
-        <v>1</v>
-      </c>
+      <c r="O128" s="4"/>
     </row>
     <row r="129" spans="1:15" ht="15.75" customHeight="1">
       <c r="A129">
@@ -13014,12 +12997,6 @@
       </c>
       <c r="K263" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="L263" t="s">
-        <v>0</v>
-      </c>
-      <c r="O263">
-        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:15" ht="15.75" customHeight="1">
@@ -18356,9 +18333,7 @@
       <c r="K376" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L376" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="L376" s="6"/>
       <c r="M376" s="6"/>
       <c r="N376" s="6"/>
       <c r="O376" s="6"/>
@@ -19073,16 +19048,10 @@
       <c r="K391" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L391" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M391" s="6">
-        <v>26</v>
-      </c>
+      <c r="L391" s="6"/>
+      <c r="M391" s="6"/>
       <c r="N391" s="6"/>
-      <c r="O391" s="6">
-        <v>3</v>
-      </c>
+      <c r="O391" s="6"/>
     </row>
     <row r="392" spans="1:17" ht="15.75" customHeight="1">
       <c r="A392" s="6">
@@ -20770,9 +20739,7 @@
       <c r="K428" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L428" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="L428" s="6"/>
       <c r="M428" s="6"/>
       <c r="N428" s="6"/>
       <c r="O428" s="6"/>
@@ -29075,12 +29042,7 @@
       <c r="K621" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L621" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O621">
-        <v>1</v>
-      </c>
+      <c r="L621" s="6"/>
     </row>
     <row r="622" spans="1:15" ht="15.75" customHeight="1">
       <c r="A622" s="6">

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9263182A-25D9-F34F-8609-B707DE911097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68666D8E-31E8-7C45-8208-713B43BCFDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="1820" windowWidth="24900" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="29">
   <si>
     <t>m</t>
   </si>
@@ -116,12 +116,6 @@
   </si>
   <si>
     <t>Borstel</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>dark red</t>
   </si>
   <si>
     <t>PhD Osnabrück</t>
@@ -647,11 +641,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q649"/>
+  <dimension ref="A1:Q784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P607" sqref="P607"/>
+      <pane ySplit="1" topLeftCell="A740" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A758" sqref="A758"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -29358,7 +29352,7 @@
         <v>4</v>
       </c>
       <c r="K628" s="6" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="L628" s="6" t="s">
         <v>0</v>
@@ -29405,7 +29399,7 @@
         <v>6</v>
       </c>
       <c r="K629" s="6" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="L629" s="6" t="s">
         <v>1</v>
@@ -29640,7 +29634,7 @@
         <v>6</v>
       </c>
       <c r="K634" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="L634" s="6" t="s">
         <v>0</v>
@@ -29660,7 +29654,7 @@
         <v>2023</v>
       </c>
       <c r="B635" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C635" s="11">
         <v>1</v>
@@ -29707,7 +29701,7 @@
         <v>2023</v>
       </c>
       <c r="B636" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C636" s="6">
         <v>0</v>
@@ -29754,7 +29748,7 @@
         <v>2023</v>
       </c>
       <c r="B637" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C637" s="6">
         <v>2</v>
@@ -29781,7 +29775,7 @@
         <v>5</v>
       </c>
       <c r="K637" s="6" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="L637" s="6" t="s">
         <v>0</v>
@@ -29801,7 +29795,7 @@
         <v>2023</v>
       </c>
       <c r="B638" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C638" s="6">
         <v>2</v>
@@ -29848,7 +29842,7 @@
         <v>2023</v>
       </c>
       <c r="B639" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C639" s="6">
         <v>0</v>
@@ -29895,7 +29889,7 @@
         <v>2023</v>
       </c>
       <c r="B640" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C640" s="6">
         <v>0</v>
@@ -29942,7 +29936,7 @@
         <v>2023</v>
       </c>
       <c r="B641" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C641" s="6">
         <v>0</v>
@@ -29989,7 +29983,7 @@
         <v>2023</v>
       </c>
       <c r="B642" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C642" s="6">
         <v>2</v>
@@ -30036,7 +30030,7 @@
         <v>2023</v>
       </c>
       <c r="B643" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C643" s="6">
         <v>2</v>
@@ -30083,7 +30077,7 @@
         <v>2023</v>
       </c>
       <c r="B644" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C644" s="6">
         <v>3</v>
@@ -30110,7 +30104,7 @@
         <v>4</v>
       </c>
       <c r="K644" s="6" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="L644" s="6" t="s">
         <v>1</v>
@@ -30130,7 +30124,7 @@
         <v>2023</v>
       </c>
       <c r="B645" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C645" s="6">
         <v>1</v>
@@ -30177,7 +30171,7 @@
         <v>2023</v>
       </c>
       <c r="B646" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C646" s="6">
         <v>0</v>
@@ -30224,7 +30218,7 @@
         <v>2023</v>
       </c>
       <c r="B647" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C647" s="6">
         <v>4</v>
@@ -30271,7 +30265,7 @@
         <v>2023</v>
       </c>
       <c r="B648" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C648" s="6">
         <v>1</v>
@@ -30318,7 +30312,7 @@
         <v>2023</v>
       </c>
       <c r="B649" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C649" s="6">
         <v>3</v>
@@ -30359,6 +30353,5434 @@
       <c r="O649" s="6">
         <v>8</v>
       </c>
+    </row>
+    <row r="650" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A650" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B650" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C650">
+        <v>1</v>
+      </c>
+      <c r="D650">
+        <v>0</v>
+      </c>
+      <c r="E650">
+        <v>0</v>
+      </c>
+      <c r="F650">
+        <v>1</v>
+      </c>
+      <c r="G650">
+        <v>2</v>
+      </c>
+      <c r="H650">
+        <v>4</v>
+      </c>
+      <c r="I650">
+        <v>8</v>
+      </c>
+      <c r="J650">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="651" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A651" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B651" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C651">
+        <v>0</v>
+      </c>
+      <c r="D651">
+        <v>0</v>
+      </c>
+      <c r="E651">
+        <v>1</v>
+      </c>
+      <c r="F651">
+        <v>0</v>
+      </c>
+      <c r="G651">
+        <v>2</v>
+      </c>
+      <c r="H651">
+        <v>3</v>
+      </c>
+      <c r="I651">
+        <v>8</v>
+      </c>
+      <c r="J651">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="652" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A652" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B652" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C652">
+        <v>2</v>
+      </c>
+      <c r="D652">
+        <v>1</v>
+      </c>
+      <c r="E652">
+        <v>2</v>
+      </c>
+      <c r="F652">
+        <v>1</v>
+      </c>
+      <c r="G652">
+        <v>1</v>
+      </c>
+      <c r="H652">
+        <v>1</v>
+      </c>
+      <c r="I652">
+        <v>8</v>
+      </c>
+      <c r="J652">
+        <v>6</v>
+      </c>
+      <c r="K652" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L652" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M652">
+        <v>19</v>
+      </c>
+      <c r="N652">
+        <v>165</v>
+      </c>
+      <c r="O652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A653" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B653" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C653">
+        <v>1</v>
+      </c>
+      <c r="D653">
+        <v>0</v>
+      </c>
+      <c r="E653">
+        <v>2</v>
+      </c>
+      <c r="F653">
+        <v>2</v>
+      </c>
+      <c r="G653">
+        <v>1</v>
+      </c>
+      <c r="H653">
+        <v>3</v>
+      </c>
+      <c r="I653">
+        <v>8</v>
+      </c>
+      <c r="J653">
+        <v>4</v>
+      </c>
+      <c r="K653" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L653" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M653">
+        <v>22</v>
+      </c>
+      <c r="N653" s="6">
+        <v>183</v>
+      </c>
+      <c r="O653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A654" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B654" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C654">
+        <v>1</v>
+      </c>
+      <c r="D654">
+        <v>3</v>
+      </c>
+      <c r="E654">
+        <v>0</v>
+      </c>
+      <c r="F654">
+        <v>2</v>
+      </c>
+      <c r="G654">
+        <v>1</v>
+      </c>
+      <c r="H654">
+        <v>2</v>
+      </c>
+      <c r="I654">
+        <v>9</v>
+      </c>
+      <c r="J654">
+        <v>5</v>
+      </c>
+      <c r="K654" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L654" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M654">
+        <v>20</v>
+      </c>
+      <c r="N654">
+        <v>168</v>
+      </c>
+      <c r="O654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A655" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B655" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C655">
+        <v>2</v>
+      </c>
+      <c r="D655">
+        <v>3</v>
+      </c>
+      <c r="E655">
+        <v>0</v>
+      </c>
+      <c r="F655">
+        <v>3</v>
+      </c>
+      <c r="G655">
+        <v>0</v>
+      </c>
+      <c r="H655">
+        <v>2</v>
+      </c>
+      <c r="I655">
+        <v>8</v>
+      </c>
+      <c r="J655">
+        <v>3</v>
+      </c>
+      <c r="K655" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L655" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M655">
+        <v>23</v>
+      </c>
+      <c r="N655">
+        <v>164</v>
+      </c>
+      <c r="O655">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="656" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A656" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B656" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C656">
+        <v>2</v>
+      </c>
+      <c r="D656">
+        <v>3</v>
+      </c>
+      <c r="E656">
+        <v>2</v>
+      </c>
+      <c r="F656">
+        <v>1</v>
+      </c>
+      <c r="G656">
+        <v>0</v>
+      </c>
+      <c r="H656">
+        <v>2</v>
+      </c>
+      <c r="I656">
+        <v>10</v>
+      </c>
+      <c r="J656">
+        <v>5</v>
+      </c>
+      <c r="K656" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L656" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M656">
+        <v>23</v>
+      </c>
+      <c r="N656">
+        <v>170</v>
+      </c>
+      <c r="O656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A657" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B657" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C657">
+        <v>4</v>
+      </c>
+      <c r="D657">
+        <v>2</v>
+      </c>
+      <c r="E657">
+        <v>0</v>
+      </c>
+      <c r="F657">
+        <v>1</v>
+      </c>
+      <c r="G657">
+        <v>1</v>
+      </c>
+      <c r="H657">
+        <v>2</v>
+      </c>
+      <c r="I657">
+        <v>10</v>
+      </c>
+      <c r="J657">
+        <v>5</v>
+      </c>
+      <c r="K657" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L657" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M657">
+        <v>20</v>
+      </c>
+      <c r="N657">
+        <v>186</v>
+      </c>
+      <c r="O657">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A658" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B658" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C658">
+        <v>1</v>
+      </c>
+      <c r="D658">
+        <v>1</v>
+      </c>
+      <c r="E658">
+        <v>3</v>
+      </c>
+      <c r="F658">
+        <v>0</v>
+      </c>
+      <c r="G658">
+        <v>3</v>
+      </c>
+      <c r="H658">
+        <v>2</v>
+      </c>
+      <c r="I658">
+        <v>10</v>
+      </c>
+      <c r="J658">
+        <v>5</v>
+      </c>
+      <c r="K658" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L658" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M658">
+        <v>23</v>
+      </c>
+      <c r="N658">
+        <v>180</v>
+      </c>
+      <c r="O658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A659" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B659" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C659">
+        <v>0</v>
+      </c>
+      <c r="D659">
+        <v>1</v>
+      </c>
+      <c r="E659">
+        <v>2</v>
+      </c>
+      <c r="F659">
+        <v>1</v>
+      </c>
+      <c r="G659">
+        <v>2</v>
+      </c>
+      <c r="H659">
+        <v>2</v>
+      </c>
+      <c r="I659">
+        <v>8</v>
+      </c>
+      <c r="J659">
+        <v>5</v>
+      </c>
+      <c r="K659" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L659" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M659">
+        <v>22</v>
+      </c>
+      <c r="N659">
+        <v>189</v>
+      </c>
+      <c r="O659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A660" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B660" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C660">
+        <v>1</v>
+      </c>
+      <c r="D660">
+        <v>3</v>
+      </c>
+      <c r="E660">
+        <v>2</v>
+      </c>
+      <c r="F660">
+        <v>0</v>
+      </c>
+      <c r="G660">
+        <v>1</v>
+      </c>
+      <c r="H660">
+        <v>3</v>
+      </c>
+      <c r="I660">
+        <v>10</v>
+      </c>
+      <c r="J660">
+        <v>5</v>
+      </c>
+      <c r="K660" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L660" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M660">
+        <v>20</v>
+      </c>
+      <c r="N660">
+        <v>178</v>
+      </c>
+      <c r="O660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A661" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B661" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C661">
+        <v>1</v>
+      </c>
+      <c r="D661">
+        <v>0</v>
+      </c>
+      <c r="E661">
+        <v>0</v>
+      </c>
+      <c r="F661">
+        <v>2</v>
+      </c>
+      <c r="G661">
+        <v>4</v>
+      </c>
+      <c r="H661">
+        <v>1</v>
+      </c>
+      <c r="I661">
+        <v>8</v>
+      </c>
+      <c r="J661">
+        <v>4</v>
+      </c>
+      <c r="K661" t="s">
+        <v>8</v>
+      </c>
+      <c r="L661" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M661">
+        <v>20</v>
+      </c>
+      <c r="N661" s="6">
+        <v>165</v>
+      </c>
+      <c r="O661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A662" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B662" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C662">
+        <v>1</v>
+      </c>
+      <c r="D662">
+        <v>2</v>
+      </c>
+      <c r="E662">
+        <v>3</v>
+      </c>
+      <c r="F662">
+        <v>2</v>
+      </c>
+      <c r="G662">
+        <v>1</v>
+      </c>
+      <c r="H662">
+        <v>0</v>
+      </c>
+      <c r="I662">
+        <v>9</v>
+      </c>
+      <c r="J662">
+        <v>5</v>
+      </c>
+      <c r="K662" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L662" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M662">
+        <v>20</v>
+      </c>
+      <c r="N662">
+        <v>175</v>
+      </c>
+      <c r="O662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A663" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B663" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C663">
+        <v>2</v>
+      </c>
+      <c r="D663">
+        <v>2</v>
+      </c>
+      <c r="E663">
+        <v>1</v>
+      </c>
+      <c r="F663">
+        <v>1</v>
+      </c>
+      <c r="G663">
+        <v>4</v>
+      </c>
+      <c r="H663">
+        <v>1</v>
+      </c>
+      <c r="I663">
+        <v>10</v>
+      </c>
+      <c r="J663">
+        <v>5</v>
+      </c>
+      <c r="K663" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L663" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M663">
+        <v>20</v>
+      </c>
+      <c r="N663">
+        <v>185</v>
+      </c>
+      <c r="O663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A664" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B664" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C664">
+        <v>2</v>
+      </c>
+      <c r="D664">
+        <v>1</v>
+      </c>
+      <c r="E664">
+        <v>2</v>
+      </c>
+      <c r="F664">
+        <v>2</v>
+      </c>
+      <c r="G664">
+        <v>1</v>
+      </c>
+      <c r="H664">
+        <v>1</v>
+      </c>
+      <c r="I664">
+        <v>9</v>
+      </c>
+      <c r="J664">
+        <v>6</v>
+      </c>
+      <c r="K664" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L664" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M664">
+        <v>21</v>
+      </c>
+      <c r="N664">
+        <v>183</v>
+      </c>
+      <c r="O664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A665" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B665" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C665">
+        <v>2</v>
+      </c>
+      <c r="D665">
+        <v>0</v>
+      </c>
+      <c r="E665">
+        <v>4</v>
+      </c>
+      <c r="F665">
+        <v>2</v>
+      </c>
+      <c r="G665">
+        <v>1</v>
+      </c>
+      <c r="H665">
+        <v>1</v>
+      </c>
+      <c r="I665">
+        <v>10</v>
+      </c>
+      <c r="J665">
+        <v>5</v>
+      </c>
+      <c r="K665" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L665" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M665">
+        <v>25</v>
+      </c>
+      <c r="N665">
+        <v>176</v>
+      </c>
+      <c r="O665">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="666" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A666" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B666" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C666">
+        <v>2</v>
+      </c>
+      <c r="D666">
+        <v>1</v>
+      </c>
+      <c r="E666">
+        <v>2</v>
+      </c>
+      <c r="F666">
+        <v>1</v>
+      </c>
+      <c r="G666">
+        <v>1</v>
+      </c>
+      <c r="H666">
+        <v>2</v>
+      </c>
+      <c r="I666">
+        <v>9</v>
+      </c>
+      <c r="J666">
+        <v>6</v>
+      </c>
+      <c r="K666" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L666" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M666">
+        <v>25</v>
+      </c>
+      <c r="N666">
+        <v>198</v>
+      </c>
+      <c r="O666">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="667" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A667" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B667" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C667">
+        <v>2</v>
+      </c>
+      <c r="D667">
+        <v>0</v>
+      </c>
+      <c r="E667">
+        <v>1</v>
+      </c>
+      <c r="F667">
+        <v>2</v>
+      </c>
+      <c r="G667">
+        <v>2</v>
+      </c>
+      <c r="H667">
+        <v>2</v>
+      </c>
+      <c r="I667">
+        <v>9</v>
+      </c>
+      <c r="J667">
+        <v>5</v>
+      </c>
+      <c r="K667" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L667" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M667">
+        <v>25</v>
+      </c>
+      <c r="N667">
+        <v>164</v>
+      </c>
+      <c r="O667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A668" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B668" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C668">
+        <v>1</v>
+      </c>
+      <c r="D668">
+        <v>1</v>
+      </c>
+      <c r="E668">
+        <v>1</v>
+      </c>
+      <c r="F668">
+        <v>1</v>
+      </c>
+      <c r="G668">
+        <v>1</v>
+      </c>
+      <c r="H668">
+        <v>4</v>
+      </c>
+      <c r="I668">
+        <v>9</v>
+      </c>
+      <c r="J668">
+        <v>6</v>
+      </c>
+      <c r="K668" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L668" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M668">
+        <v>20</v>
+      </c>
+      <c r="N668">
+        <v>195</v>
+      </c>
+      <c r="O668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A669" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B669" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C669">
+        <v>2</v>
+      </c>
+      <c r="D669">
+        <v>3</v>
+      </c>
+      <c r="E669">
+        <v>0</v>
+      </c>
+      <c r="F669">
+        <v>1</v>
+      </c>
+      <c r="G669">
+        <v>3</v>
+      </c>
+      <c r="H669">
+        <v>1</v>
+      </c>
+      <c r="I669">
+        <v>10</v>
+      </c>
+      <c r="J669">
+        <v>5</v>
+      </c>
+      <c r="K669" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L669" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M669">
+        <v>21</v>
+      </c>
+      <c r="N669">
+        <v>173</v>
+      </c>
+      <c r="O669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A670" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B670" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C670">
+        <v>1</v>
+      </c>
+      <c r="D670">
+        <v>2</v>
+      </c>
+      <c r="E670">
+        <v>0</v>
+      </c>
+      <c r="F670">
+        <v>2</v>
+      </c>
+      <c r="G670">
+        <v>2</v>
+      </c>
+      <c r="H670">
+        <v>2</v>
+      </c>
+      <c r="I670">
+        <v>9</v>
+      </c>
+      <c r="J670">
+        <v>5</v>
+      </c>
+      <c r="K670" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L670" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M670">
+        <v>21</v>
+      </c>
+      <c r="N670">
+        <v>186</v>
+      </c>
+      <c r="O670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A671" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B671" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C671">
+        <v>3</v>
+      </c>
+      <c r="D671">
+        <v>0</v>
+      </c>
+      <c r="E671">
+        <v>1</v>
+      </c>
+      <c r="F671">
+        <v>1</v>
+      </c>
+      <c r="G671">
+        <v>1</v>
+      </c>
+      <c r="H671">
+        <v>4</v>
+      </c>
+      <c r="I671">
+        <v>10</v>
+      </c>
+      <c r="J671">
+        <v>5</v>
+      </c>
+      <c r="K671" t="s">
+        <v>3</v>
+      </c>
+      <c r="L671" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M671">
+        <v>25</v>
+      </c>
+      <c r="N671">
+        <v>181</v>
+      </c>
+      <c r="O671">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="672" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A672" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B672" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C672">
+        <v>2</v>
+      </c>
+      <c r="D672">
+        <v>1</v>
+      </c>
+      <c r="E672">
+        <v>1</v>
+      </c>
+      <c r="F672">
+        <v>2</v>
+      </c>
+      <c r="G672">
+        <v>1</v>
+      </c>
+      <c r="H672">
+        <v>1</v>
+      </c>
+      <c r="I672">
+        <v>11</v>
+      </c>
+      <c r="J672">
+        <v>6</v>
+      </c>
+      <c r="K672" t="s">
+        <v>3</v>
+      </c>
+      <c r="L672" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M672">
+        <v>25</v>
+      </c>
+      <c r="N672">
+        <v>184</v>
+      </c>
+      <c r="O672">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="673" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A673" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B673" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C673">
+        <v>1</v>
+      </c>
+      <c r="D673">
+        <v>1</v>
+      </c>
+      <c r="E673">
+        <v>2</v>
+      </c>
+      <c r="F673">
+        <v>2</v>
+      </c>
+      <c r="G673">
+        <v>4</v>
+      </c>
+      <c r="H673">
+        <v>1</v>
+      </c>
+      <c r="I673">
+        <v>11</v>
+      </c>
+      <c r="J673">
+        <v>6</v>
+      </c>
+      <c r="K673" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L673" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M673">
+        <v>20</v>
+      </c>
+      <c r="N673">
+        <v>163</v>
+      </c>
+      <c r="O673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A674" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B674" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C674">
+        <v>1</v>
+      </c>
+      <c r="D674">
+        <v>3</v>
+      </c>
+      <c r="E674">
+        <v>3</v>
+      </c>
+      <c r="F674">
+        <v>1</v>
+      </c>
+      <c r="G674">
+        <v>1</v>
+      </c>
+      <c r="H674">
+        <v>1</v>
+      </c>
+      <c r="I674">
+        <v>10</v>
+      </c>
+      <c r="J674">
+        <v>6</v>
+      </c>
+      <c r="K674" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L674" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M674">
+        <v>23</v>
+      </c>
+      <c r="N674">
+        <v>176</v>
+      </c>
+      <c r="O674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A675" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B675" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C675">
+        <v>2</v>
+      </c>
+      <c r="D675">
+        <v>1</v>
+      </c>
+      <c r="E675">
+        <v>0</v>
+      </c>
+      <c r="F675">
+        <v>2</v>
+      </c>
+      <c r="G675">
+        <v>2</v>
+      </c>
+      <c r="H675">
+        <v>2</v>
+      </c>
+      <c r="I675">
+        <v>9</v>
+      </c>
+      <c r="J675">
+        <v>5</v>
+      </c>
+      <c r="K675" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L675" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M675">
+        <v>20</v>
+      </c>
+      <c r="N675">
+        <v>182</v>
+      </c>
+      <c r="O675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A676" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B676" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C676">
+        <v>2</v>
+      </c>
+      <c r="D676">
+        <v>1</v>
+      </c>
+      <c r="E676">
+        <v>3</v>
+      </c>
+      <c r="F676">
+        <v>2</v>
+      </c>
+      <c r="G676">
+        <v>0</v>
+      </c>
+      <c r="H676">
+        <v>1</v>
+      </c>
+      <c r="I676">
+        <v>9</v>
+      </c>
+      <c r="J676">
+        <v>5</v>
+      </c>
+      <c r="K676" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L676" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M676">
+        <v>22</v>
+      </c>
+      <c r="N676">
+        <v>190</v>
+      </c>
+      <c r="O676">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A677" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B677" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C677">
+        <v>3</v>
+      </c>
+      <c r="D677">
+        <v>2</v>
+      </c>
+      <c r="E677">
+        <v>2</v>
+      </c>
+      <c r="F677">
+        <v>0</v>
+      </c>
+      <c r="G677">
+        <v>0</v>
+      </c>
+      <c r="H677">
+        <v>3</v>
+      </c>
+      <c r="I677">
+        <v>10</v>
+      </c>
+      <c r="J677">
+        <v>4</v>
+      </c>
+      <c r="K677" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L677" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M677">
+        <v>24</v>
+      </c>
+      <c r="N677">
+        <v>180</v>
+      </c>
+      <c r="O677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A678" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B678" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C678">
+        <v>1</v>
+      </c>
+      <c r="D678">
+        <v>1</v>
+      </c>
+      <c r="E678">
+        <v>3</v>
+      </c>
+      <c r="F678">
+        <v>1</v>
+      </c>
+      <c r="G678">
+        <v>0</v>
+      </c>
+      <c r="H678">
+        <v>3</v>
+      </c>
+      <c r="I678">
+        <v>9</v>
+      </c>
+      <c r="J678">
+        <v>5</v>
+      </c>
+      <c r="K678" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L678" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M678">
+        <v>22</v>
+      </c>
+      <c r="N678">
+        <v>179</v>
+      </c>
+      <c r="O678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A679" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B679" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C679">
+        <v>4</v>
+      </c>
+      <c r="D679">
+        <v>4</v>
+      </c>
+      <c r="E679">
+        <v>0</v>
+      </c>
+      <c r="F679">
+        <v>0</v>
+      </c>
+      <c r="G679">
+        <v>1</v>
+      </c>
+      <c r="H679">
+        <v>0</v>
+      </c>
+      <c r="I679">
+        <v>9</v>
+      </c>
+      <c r="J679">
+        <v>3</v>
+      </c>
+      <c r="K679" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L679" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M679">
+        <v>21</v>
+      </c>
+      <c r="N679">
+        <v>180</v>
+      </c>
+      <c r="O679">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A680" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B680" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C680">
+        <v>3</v>
+      </c>
+      <c r="D680">
+        <v>0</v>
+      </c>
+      <c r="E680">
+        <v>4</v>
+      </c>
+      <c r="F680">
+        <v>2</v>
+      </c>
+      <c r="G680">
+        <v>1</v>
+      </c>
+      <c r="H680">
+        <v>1</v>
+      </c>
+      <c r="I680">
+        <v>11</v>
+      </c>
+      <c r="J680">
+        <v>5</v>
+      </c>
+      <c r="K680" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L680" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M680">
+        <v>21</v>
+      </c>
+      <c r="N680">
+        <v>178</v>
+      </c>
+      <c r="O680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A681" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B681" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C681">
+        <v>3</v>
+      </c>
+      <c r="D681">
+        <v>1</v>
+      </c>
+      <c r="E681">
+        <v>2</v>
+      </c>
+      <c r="F681">
+        <v>1</v>
+      </c>
+      <c r="G681">
+        <v>0</v>
+      </c>
+      <c r="H681">
+        <v>2</v>
+      </c>
+      <c r="I681">
+        <v>9</v>
+      </c>
+      <c r="J681">
+        <v>5</v>
+      </c>
+      <c r="K681" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L681" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M681">
+        <v>24</v>
+      </c>
+      <c r="N681">
+        <v>185</v>
+      </c>
+      <c r="O681">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="682" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A682" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B682" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C682">
+        <v>4</v>
+      </c>
+      <c r="D682">
+        <v>2</v>
+      </c>
+      <c r="E682">
+        <v>1</v>
+      </c>
+      <c r="F682">
+        <v>2</v>
+      </c>
+      <c r="G682">
+        <v>1</v>
+      </c>
+      <c r="H682">
+        <v>0</v>
+      </c>
+      <c r="I682">
+        <v>10</v>
+      </c>
+      <c r="J682">
+        <v>5</v>
+      </c>
+      <c r="K682" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L682" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M682">
+        <v>21</v>
+      </c>
+      <c r="N682">
+        <v>177</v>
+      </c>
+      <c r="O682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A683" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B683" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C683">
+        <v>1</v>
+      </c>
+      <c r="D683">
+        <v>1</v>
+      </c>
+      <c r="E683">
+        <v>2</v>
+      </c>
+      <c r="F683">
+        <v>2</v>
+      </c>
+      <c r="G683">
+        <v>0</v>
+      </c>
+      <c r="H683">
+        <v>3</v>
+      </c>
+      <c r="I683">
+        <v>9</v>
+      </c>
+      <c r="J683">
+        <v>5</v>
+      </c>
+      <c r="K683" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L683" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M683">
+        <v>20</v>
+      </c>
+      <c r="N683">
+        <v>181</v>
+      </c>
+      <c r="O683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A684" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B684" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C684">
+        <v>0</v>
+      </c>
+      <c r="D684">
+        <v>4</v>
+      </c>
+      <c r="E684">
+        <v>1</v>
+      </c>
+      <c r="F684">
+        <v>2</v>
+      </c>
+      <c r="G684">
+        <v>2</v>
+      </c>
+      <c r="H684">
+        <v>3</v>
+      </c>
+      <c r="I684">
+        <v>10</v>
+      </c>
+      <c r="J684">
+        <v>4</v>
+      </c>
+      <c r="K684" t="s">
+        <v>2</v>
+      </c>
+      <c r="L684" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M684">
+        <v>22</v>
+      </c>
+      <c r="N684">
+        <v>179</v>
+      </c>
+      <c r="O684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A685" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B685" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C685">
+        <v>2</v>
+      </c>
+      <c r="D685">
+        <v>4</v>
+      </c>
+      <c r="E685">
+        <v>0</v>
+      </c>
+      <c r="F685">
+        <v>0</v>
+      </c>
+      <c r="G685">
+        <v>0</v>
+      </c>
+      <c r="H685">
+        <v>2</v>
+      </c>
+      <c r="I685">
+        <v>8</v>
+      </c>
+      <c r="J685">
+        <v>3</v>
+      </c>
+      <c r="K685" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L685" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M685">
+        <v>19</v>
+      </c>
+      <c r="N685">
+        <v>172</v>
+      </c>
+      <c r="O685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A686" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B686" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C686">
+        <v>2</v>
+      </c>
+      <c r="D686">
+        <v>3</v>
+      </c>
+      <c r="E686">
+        <v>2</v>
+      </c>
+      <c r="F686">
+        <v>0</v>
+      </c>
+      <c r="G686">
+        <v>1</v>
+      </c>
+      <c r="H686">
+        <v>0</v>
+      </c>
+      <c r="I686">
+        <v>8</v>
+      </c>
+      <c r="J686">
+        <v>4</v>
+      </c>
+      <c r="K686" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L686" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M686">
+        <v>21</v>
+      </c>
+      <c r="N686">
+        <v>185</v>
+      </c>
+      <c r="O686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A687" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B687" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C687">
+        <v>2</v>
+      </c>
+      <c r="D687">
+        <v>1</v>
+      </c>
+      <c r="E687">
+        <v>0</v>
+      </c>
+      <c r="F687">
+        <v>1</v>
+      </c>
+      <c r="G687">
+        <v>2</v>
+      </c>
+      <c r="H687">
+        <v>3</v>
+      </c>
+      <c r="I687">
+        <v>9</v>
+      </c>
+      <c r="J687">
+        <v>5</v>
+      </c>
+      <c r="K687" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L687" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M687">
+        <v>31</v>
+      </c>
+      <c r="N687">
+        <v>178</v>
+      </c>
+      <c r="O687">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A688" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B688" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C688">
+        <v>0</v>
+      </c>
+      <c r="D688">
+        <v>0</v>
+      </c>
+      <c r="E688">
+        <v>3</v>
+      </c>
+      <c r="F688">
+        <v>2</v>
+      </c>
+      <c r="G688">
+        <v>1</v>
+      </c>
+      <c r="H688">
+        <v>2</v>
+      </c>
+      <c r="I688">
+        <v>10</v>
+      </c>
+      <c r="J688">
+        <v>5</v>
+      </c>
+      <c r="K688" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L688" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M688">
+        <v>23</v>
+      </c>
+      <c r="N688">
+        <v>183</v>
+      </c>
+      <c r="O688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A689" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B689" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C689">
+        <v>1</v>
+      </c>
+      <c r="D689">
+        <v>0</v>
+      </c>
+      <c r="E689">
+        <v>2</v>
+      </c>
+      <c r="F689">
+        <v>1</v>
+      </c>
+      <c r="G689">
+        <v>3</v>
+      </c>
+      <c r="H689">
+        <v>2</v>
+      </c>
+      <c r="I689">
+        <v>9</v>
+      </c>
+      <c r="J689">
+        <v>5</v>
+      </c>
+      <c r="K689" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L689" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M689">
+        <v>22</v>
+      </c>
+      <c r="N689">
+        <v>183</v>
+      </c>
+      <c r="O689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A690" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B690" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C690">
+        <v>1</v>
+      </c>
+      <c r="D690">
+        <v>2</v>
+      </c>
+      <c r="E690">
+        <v>2</v>
+      </c>
+      <c r="F690">
+        <v>2</v>
+      </c>
+      <c r="G690">
+        <v>1</v>
+      </c>
+      <c r="H690">
+        <v>1</v>
+      </c>
+      <c r="I690">
+        <v>9</v>
+      </c>
+      <c r="J690">
+        <v>6</v>
+      </c>
+      <c r="K690" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L690" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M690">
+        <v>20</v>
+      </c>
+      <c r="N690">
+        <v>193</v>
+      </c>
+      <c r="O690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A691" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B691" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C691">
+        <v>3</v>
+      </c>
+      <c r="D691">
+        <v>1</v>
+      </c>
+      <c r="E691">
+        <v>1</v>
+      </c>
+      <c r="F691">
+        <v>2</v>
+      </c>
+      <c r="G691">
+        <v>1</v>
+      </c>
+      <c r="H691">
+        <v>0</v>
+      </c>
+      <c r="I691">
+        <v>8</v>
+      </c>
+      <c r="J691">
+        <v>5</v>
+      </c>
+      <c r="K691" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L691" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M691">
+        <v>23</v>
+      </c>
+      <c r="N691">
+        <v>153</v>
+      </c>
+      <c r="O691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A692" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B692" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C692">
+        <v>0</v>
+      </c>
+      <c r="D692">
+        <v>1</v>
+      </c>
+      <c r="E692">
+        <v>6</v>
+      </c>
+      <c r="F692">
+        <v>0</v>
+      </c>
+      <c r="G692">
+        <v>1</v>
+      </c>
+      <c r="H692">
+        <v>0</v>
+      </c>
+      <c r="I692">
+        <v>8</v>
+      </c>
+      <c r="J692">
+        <v>3</v>
+      </c>
+      <c r="K692" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L692" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M692">
+        <v>22</v>
+      </c>
+      <c r="N692">
+        <v>157</v>
+      </c>
+      <c r="O692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A693" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B693" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C693">
+        <v>2</v>
+      </c>
+      <c r="D693">
+        <v>3</v>
+      </c>
+      <c r="E693">
+        <v>0</v>
+      </c>
+      <c r="F693">
+        <v>0</v>
+      </c>
+      <c r="G693">
+        <v>4</v>
+      </c>
+      <c r="H693">
+        <v>0</v>
+      </c>
+      <c r="I693">
+        <v>8</v>
+      </c>
+      <c r="J693">
+        <v>3</v>
+      </c>
+      <c r="K693" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L693" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M693">
+        <v>30</v>
+      </c>
+      <c r="N693">
+        <v>172</v>
+      </c>
+      <c r="O693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A694" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B694" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C694">
+        <v>1</v>
+      </c>
+      <c r="D694">
+        <v>3</v>
+      </c>
+      <c r="E694">
+        <v>1</v>
+      </c>
+      <c r="F694">
+        <v>1</v>
+      </c>
+      <c r="G694">
+        <v>1</v>
+      </c>
+      <c r="H694">
+        <v>1</v>
+      </c>
+      <c r="I694">
+        <v>8</v>
+      </c>
+      <c r="J694">
+        <v>6</v>
+      </c>
+      <c r="K694" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L694" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M694">
+        <v>19</v>
+      </c>
+      <c r="N694">
+        <v>174</v>
+      </c>
+      <c r="O694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A695" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B695" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C695">
+        <v>0</v>
+      </c>
+      <c r="D695">
+        <v>2</v>
+      </c>
+      <c r="E695">
+        <v>1</v>
+      </c>
+      <c r="F695">
+        <v>2</v>
+      </c>
+      <c r="G695">
+        <v>1</v>
+      </c>
+      <c r="H695">
+        <v>2</v>
+      </c>
+      <c r="I695">
+        <v>8</v>
+      </c>
+      <c r="J695">
+        <v>5</v>
+      </c>
+      <c r="K695" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L695" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M695">
+        <v>21</v>
+      </c>
+      <c r="N695">
+        <v>185</v>
+      </c>
+      <c r="O695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A696" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B696" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C696">
+        <v>2</v>
+      </c>
+      <c r="D696">
+        <v>2</v>
+      </c>
+      <c r="E696">
+        <v>1</v>
+      </c>
+      <c r="F696">
+        <v>2</v>
+      </c>
+      <c r="G696">
+        <v>1</v>
+      </c>
+      <c r="H696">
+        <v>0</v>
+      </c>
+      <c r="I696">
+        <v>8</v>
+      </c>
+      <c r="J696">
+        <v>5</v>
+      </c>
+      <c r="K696" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L696" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M696">
+        <v>27</v>
+      </c>
+      <c r="N696">
+        <v>193</v>
+      </c>
+      <c r="O696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A697" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B697" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C697">
+        <v>1</v>
+      </c>
+      <c r="D697">
+        <v>1</v>
+      </c>
+      <c r="E697">
+        <v>2</v>
+      </c>
+      <c r="F697">
+        <v>2</v>
+      </c>
+      <c r="G697">
+        <v>1</v>
+      </c>
+      <c r="H697">
+        <v>1</v>
+      </c>
+      <c r="I697">
+        <v>8</v>
+      </c>
+      <c r="J697">
+        <v>6</v>
+      </c>
+      <c r="K697" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L697" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M697">
+        <v>21</v>
+      </c>
+      <c r="N697">
+        <v>173</v>
+      </c>
+      <c r="O697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A698" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B698" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C698">
+        <v>2</v>
+      </c>
+      <c r="D698">
+        <v>2</v>
+      </c>
+      <c r="E698">
+        <v>3</v>
+      </c>
+      <c r="F698">
+        <v>3</v>
+      </c>
+      <c r="G698">
+        <v>1</v>
+      </c>
+      <c r="H698">
+        <v>2</v>
+      </c>
+      <c r="I698">
+        <v>13</v>
+      </c>
+      <c r="J698">
+        <v>6</v>
+      </c>
+      <c r="K698" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L698" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M698">
+        <v>20</v>
+      </c>
+      <c r="N698">
+        <v>167</v>
+      </c>
+      <c r="O698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A699" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B699" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C699">
+        <v>1</v>
+      </c>
+      <c r="D699">
+        <v>3</v>
+      </c>
+      <c r="E699">
+        <v>0</v>
+      </c>
+      <c r="F699">
+        <v>2</v>
+      </c>
+      <c r="G699">
+        <v>1</v>
+      </c>
+      <c r="H699">
+        <v>2</v>
+      </c>
+      <c r="I699">
+        <v>9</v>
+      </c>
+      <c r="J699">
+        <v>5</v>
+      </c>
+      <c r="K699" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L699" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M699">
+        <v>20</v>
+      </c>
+      <c r="N699">
+        <v>170</v>
+      </c>
+      <c r="O699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A700" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B700" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C700">
+        <v>1</v>
+      </c>
+      <c r="D700">
+        <v>1</v>
+      </c>
+      <c r="E700">
+        <v>0</v>
+      </c>
+      <c r="F700">
+        <v>2</v>
+      </c>
+      <c r="G700">
+        <v>1</v>
+      </c>
+      <c r="H700">
+        <v>4</v>
+      </c>
+      <c r="I700">
+        <v>9</v>
+      </c>
+      <c r="J700">
+        <v>5</v>
+      </c>
+      <c r="K700" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L700" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M700">
+        <v>20</v>
+      </c>
+      <c r="N700">
+        <v>187</v>
+      </c>
+      <c r="O700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A701" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B701" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C701">
+        <v>1</v>
+      </c>
+      <c r="D701">
+        <v>3</v>
+      </c>
+      <c r="E701">
+        <v>1</v>
+      </c>
+      <c r="F701">
+        <v>2</v>
+      </c>
+      <c r="G701">
+        <v>1</v>
+      </c>
+      <c r="H701">
+        <v>1</v>
+      </c>
+      <c r="I701">
+        <v>9</v>
+      </c>
+      <c r="J701">
+        <v>6</v>
+      </c>
+      <c r="K701" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L701" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M701">
+        <v>19</v>
+      </c>
+      <c r="N701">
+        <v>172</v>
+      </c>
+      <c r="O701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A702" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B702" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C702">
+        <v>1</v>
+      </c>
+      <c r="D702">
+        <v>0</v>
+      </c>
+      <c r="E702">
+        <v>3</v>
+      </c>
+      <c r="F702">
+        <v>0</v>
+      </c>
+      <c r="G702">
+        <v>2</v>
+      </c>
+      <c r="H702">
+        <v>3</v>
+      </c>
+      <c r="I702">
+        <v>9</v>
+      </c>
+      <c r="J702">
+        <v>4</v>
+      </c>
+      <c r="K702" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L702" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M702">
+        <v>20</v>
+      </c>
+      <c r="N702">
+        <v>184</v>
+      </c>
+      <c r="O702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A703" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B703" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C703">
+        <v>0</v>
+      </c>
+      <c r="D703">
+        <v>2</v>
+      </c>
+      <c r="E703">
+        <v>1</v>
+      </c>
+      <c r="F703">
+        <v>1</v>
+      </c>
+      <c r="G703">
+        <v>1</v>
+      </c>
+      <c r="H703">
+        <v>4</v>
+      </c>
+      <c r="I703">
+        <v>9</v>
+      </c>
+      <c r="J703">
+        <v>5</v>
+      </c>
+      <c r="K703" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L703" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M703">
+        <v>20</v>
+      </c>
+      <c r="N703">
+        <v>195</v>
+      </c>
+      <c r="O703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A704" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B704" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C704">
+        <v>2</v>
+      </c>
+      <c r="D704">
+        <v>1</v>
+      </c>
+      <c r="E704">
+        <v>2</v>
+      </c>
+      <c r="F704">
+        <v>1</v>
+      </c>
+      <c r="G704">
+        <v>1</v>
+      </c>
+      <c r="H704">
+        <v>2</v>
+      </c>
+      <c r="I704">
+        <v>9</v>
+      </c>
+      <c r="J704">
+        <v>6</v>
+      </c>
+      <c r="K704" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L704" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M704">
+        <v>21</v>
+      </c>
+      <c r="N704">
+        <v>174</v>
+      </c>
+      <c r="O704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A705" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B705" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C705">
+        <v>1</v>
+      </c>
+      <c r="D705">
+        <v>3</v>
+      </c>
+      <c r="E705">
+        <v>1</v>
+      </c>
+      <c r="F705">
+        <v>1</v>
+      </c>
+      <c r="G705">
+        <v>1</v>
+      </c>
+      <c r="H705">
+        <v>1</v>
+      </c>
+      <c r="I705">
+        <v>8</v>
+      </c>
+      <c r="J705">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="706" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A706" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B706" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C706" s="6">
+        <v>2</v>
+      </c>
+      <c r="D706" s="6">
+        <v>2</v>
+      </c>
+      <c r="E706" s="6">
+        <v>2</v>
+      </c>
+      <c r="F706" s="6">
+        <v>3</v>
+      </c>
+      <c r="G706" s="6">
+        <v>0</v>
+      </c>
+      <c r="H706" s="6">
+        <v>0</v>
+      </c>
+      <c r="I706" s="6">
+        <v>9</v>
+      </c>
+      <c r="J706" s="6">
+        <v>4</v>
+      </c>
+      <c r="K706" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L706" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M706" s="6">
+        <v>21</v>
+      </c>
+      <c r="N706" s="6">
+        <v>205</v>
+      </c>
+      <c r="O706" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A707" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B707" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C707" s="6">
+        <v>2</v>
+      </c>
+      <c r="D707" s="6">
+        <v>1</v>
+      </c>
+      <c r="E707" s="6">
+        <v>1</v>
+      </c>
+      <c r="F707" s="6">
+        <v>0</v>
+      </c>
+      <c r="G707" s="6">
+        <v>3</v>
+      </c>
+      <c r="H707" s="6">
+        <v>3</v>
+      </c>
+      <c r="I707" s="6">
+        <v>10</v>
+      </c>
+      <c r="J707" s="6">
+        <v>5</v>
+      </c>
+      <c r="K707" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L707" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M707" s="6">
+        <v>23</v>
+      </c>
+      <c r="N707" s="6">
+        <v>176</v>
+      </c>
+      <c r="O707" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A708" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B708" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C708" s="6">
+        <v>1</v>
+      </c>
+      <c r="D708" s="6">
+        <v>2</v>
+      </c>
+      <c r="E708" s="6">
+        <v>1</v>
+      </c>
+      <c r="F708" s="6">
+        <v>3</v>
+      </c>
+      <c r="G708" s="6">
+        <v>4</v>
+      </c>
+      <c r="H708" s="6">
+        <v>1</v>
+      </c>
+      <c r="I708" s="6">
+        <v>12</v>
+      </c>
+      <c r="J708" s="6">
+        <v>6</v>
+      </c>
+      <c r="K708" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L708" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M708" s="6">
+        <v>21</v>
+      </c>
+      <c r="N708" s="6">
+        <v>194</v>
+      </c>
+      <c r="O708" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A709" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B709" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C709" s="6">
+        <v>2</v>
+      </c>
+      <c r="D709" s="6">
+        <v>0</v>
+      </c>
+      <c r="E709" s="6">
+        <v>2</v>
+      </c>
+      <c r="F709" s="6">
+        <v>4</v>
+      </c>
+      <c r="G709" s="6">
+        <v>0</v>
+      </c>
+      <c r="H709" s="6">
+        <v>0</v>
+      </c>
+      <c r="I709" s="6">
+        <v>8</v>
+      </c>
+      <c r="J709" s="6">
+        <v>3</v>
+      </c>
+      <c r="K709" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L709" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M709" s="6">
+        <v>21</v>
+      </c>
+      <c r="N709" s="6">
+        <v>200</v>
+      </c>
+      <c r="O709" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A710" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B710" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C710" s="6">
+        <v>2</v>
+      </c>
+      <c r="D710" s="6">
+        <v>0</v>
+      </c>
+      <c r="E710" s="6">
+        <v>1</v>
+      </c>
+      <c r="F710" s="6">
+        <v>2</v>
+      </c>
+      <c r="G710" s="6">
+        <v>3</v>
+      </c>
+      <c r="H710" s="6">
+        <v>0</v>
+      </c>
+      <c r="I710" s="6">
+        <v>8</v>
+      </c>
+      <c r="J710" s="6">
+        <v>5</v>
+      </c>
+      <c r="K710" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L710" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M710" s="6">
+        <v>21</v>
+      </c>
+      <c r="N710" s="6">
+        <v>180</v>
+      </c>
+      <c r="O710" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A711" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B711" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C711" s="6">
+        <v>3</v>
+      </c>
+      <c r="D711" s="6">
+        <v>0</v>
+      </c>
+      <c r="E711" s="6">
+        <v>2</v>
+      </c>
+      <c r="F711" s="6">
+        <v>2</v>
+      </c>
+      <c r="G711" s="6">
+        <v>1</v>
+      </c>
+      <c r="H711" s="6">
+        <v>1</v>
+      </c>
+      <c r="I711" s="6">
+        <v>9</v>
+      </c>
+      <c r="J711" s="6">
+        <v>5</v>
+      </c>
+      <c r="K711" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L711" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M711" s="6">
+        <v>21</v>
+      </c>
+      <c r="N711" s="6">
+        <v>168</v>
+      </c>
+      <c r="O711" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A712" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B712" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C712" s="6">
+        <v>4</v>
+      </c>
+      <c r="D712" s="6">
+        <v>3</v>
+      </c>
+      <c r="E712" s="6">
+        <v>0</v>
+      </c>
+      <c r="F712" s="6">
+        <v>0</v>
+      </c>
+      <c r="G712" s="6">
+        <v>2</v>
+      </c>
+      <c r="H712" s="6">
+        <v>1</v>
+      </c>
+      <c r="I712" s="6">
+        <v>8</v>
+      </c>
+      <c r="J712" s="6">
+        <v>4</v>
+      </c>
+      <c r="K712" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L712" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M712" s="6">
+        <v>23</v>
+      </c>
+      <c r="N712" s="6">
+        <v>180</v>
+      </c>
+      <c r="O712" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A713" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B713" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C713" s="6">
+        <v>4</v>
+      </c>
+      <c r="D713" s="6">
+        <v>0</v>
+      </c>
+      <c r="E713" s="6">
+        <v>3</v>
+      </c>
+      <c r="F713" s="6">
+        <v>1</v>
+      </c>
+      <c r="G713" s="6">
+        <v>2</v>
+      </c>
+      <c r="H713" s="6">
+        <v>2</v>
+      </c>
+      <c r="I713" s="6">
+        <v>10</v>
+      </c>
+      <c r="J713" s="6">
+        <v>5</v>
+      </c>
+      <c r="K713" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L713" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M713" s="6">
+        <v>23</v>
+      </c>
+      <c r="N713" s="6">
+        <v>185</v>
+      </c>
+      <c r="O713" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A714" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B714" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C714" s="6">
+        <v>1</v>
+      </c>
+      <c r="D714" s="6">
+        <v>2</v>
+      </c>
+      <c r="E714" s="6">
+        <v>1</v>
+      </c>
+      <c r="F714" s="6">
+        <v>1</v>
+      </c>
+      <c r="G714" s="6">
+        <v>1</v>
+      </c>
+      <c r="H714" s="6">
+        <v>2</v>
+      </c>
+      <c r="I714" s="6">
+        <v>8</v>
+      </c>
+      <c r="J714" s="6">
+        <v>6</v>
+      </c>
+      <c r="K714" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L714" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M714" s="6">
+        <v>19</v>
+      </c>
+      <c r="N714" s="6">
+        <v>181</v>
+      </c>
+      <c r="O714" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A715" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B715" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C715" s="6">
+        <v>0</v>
+      </c>
+      <c r="D715" s="6">
+        <v>2</v>
+      </c>
+      <c r="E715" s="6">
+        <v>1</v>
+      </c>
+      <c r="F715" s="6">
+        <v>2</v>
+      </c>
+      <c r="G715" s="6">
+        <v>2</v>
+      </c>
+      <c r="H715" s="6">
+        <v>2</v>
+      </c>
+      <c r="I715" s="6">
+        <v>8</v>
+      </c>
+      <c r="J715" s="6">
+        <v>5</v>
+      </c>
+      <c r="K715" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L715" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M715" s="6">
+        <v>21</v>
+      </c>
+      <c r="N715" s="6">
+        <v>189</v>
+      </c>
+      <c r="O715" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A716" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B716" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C716" s="6">
+        <v>0</v>
+      </c>
+      <c r="D716" s="6">
+        <v>2</v>
+      </c>
+      <c r="E716" s="6">
+        <v>3</v>
+      </c>
+      <c r="F716" s="6">
+        <v>1</v>
+      </c>
+      <c r="G716" s="6">
+        <v>2</v>
+      </c>
+      <c r="H716" s="6">
+        <v>1</v>
+      </c>
+      <c r="I716" s="6">
+        <v>9</v>
+      </c>
+      <c r="J716" s="6">
+        <v>5</v>
+      </c>
+      <c r="K716" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L716" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M716" s="6">
+        <v>19</v>
+      </c>
+      <c r="N716" s="6">
+        <v>170</v>
+      </c>
+      <c r="O716" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A717" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B717" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C717" s="6">
+        <v>1</v>
+      </c>
+      <c r="D717" s="6">
+        <v>4</v>
+      </c>
+      <c r="E717" s="6">
+        <v>1</v>
+      </c>
+      <c r="F717" s="6">
+        <v>1</v>
+      </c>
+      <c r="G717" s="6">
+        <v>1</v>
+      </c>
+      <c r="H717" s="6">
+        <v>1</v>
+      </c>
+      <c r="I717" s="6">
+        <v>9</v>
+      </c>
+      <c r="J717" s="6">
+        <v>6</v>
+      </c>
+      <c r="K717" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L717" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M717" s="6">
+        <v>28</v>
+      </c>
+      <c r="N717" s="6">
+        <v>174</v>
+      </c>
+      <c r="O717" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A718" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B718" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C718" s="6">
+        <v>0</v>
+      </c>
+      <c r="D718" s="6">
+        <v>2</v>
+      </c>
+      <c r="E718" s="6">
+        <v>2</v>
+      </c>
+      <c r="F718" s="6">
+        <v>1</v>
+      </c>
+      <c r="G718" s="6">
+        <v>1</v>
+      </c>
+      <c r="H718" s="6">
+        <v>2</v>
+      </c>
+      <c r="I718" s="6">
+        <v>9</v>
+      </c>
+      <c r="J718" s="6">
+        <v>5</v>
+      </c>
+      <c r="K718" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L718" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M718" s="6">
+        <v>22</v>
+      </c>
+      <c r="N718" s="6">
+        <v>165</v>
+      </c>
+      <c r="O718" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A719" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B719" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C719" s="6">
+        <v>2</v>
+      </c>
+      <c r="D719" s="6">
+        <v>1</v>
+      </c>
+      <c r="E719" s="6">
+        <v>3</v>
+      </c>
+      <c r="F719" s="6">
+        <v>0</v>
+      </c>
+      <c r="G719" s="6">
+        <v>1</v>
+      </c>
+      <c r="H719" s="6">
+        <v>2</v>
+      </c>
+      <c r="I719" s="6">
+        <v>9</v>
+      </c>
+      <c r="J719" s="6">
+        <v>5</v>
+      </c>
+      <c r="K719" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L719" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M719" s="6">
+        <v>18</v>
+      </c>
+      <c r="N719" s="6">
+        <v>174</v>
+      </c>
+      <c r="O719" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A720" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B720" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C720" s="6">
+        <v>3</v>
+      </c>
+      <c r="D720" s="6">
+        <v>2</v>
+      </c>
+      <c r="E720" s="6">
+        <v>0</v>
+      </c>
+      <c r="F720" s="6">
+        <v>2</v>
+      </c>
+      <c r="G720" s="6">
+        <v>1</v>
+      </c>
+      <c r="H720" s="6">
+        <v>1</v>
+      </c>
+      <c r="I720" s="6">
+        <v>9</v>
+      </c>
+      <c r="J720" s="6">
+        <v>5</v>
+      </c>
+      <c r="K720" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L720" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M720" s="6">
+        <v>24</v>
+      </c>
+      <c r="N720" s="6">
+        <v>172</v>
+      </c>
+      <c r="O720" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A721" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B721" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C721" s="6">
+        <v>3</v>
+      </c>
+      <c r="D721" s="6">
+        <v>1</v>
+      </c>
+      <c r="E721" s="6">
+        <v>1</v>
+      </c>
+      <c r="F721" s="6">
+        <v>1</v>
+      </c>
+      <c r="G721" s="6">
+        <v>3</v>
+      </c>
+      <c r="H721" s="6">
+        <v>1</v>
+      </c>
+      <c r="I721" s="6">
+        <v>10</v>
+      </c>
+      <c r="J721" s="6">
+        <v>6</v>
+      </c>
+      <c r="K721" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L721" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M721" s="6">
+        <v>22</v>
+      </c>
+      <c r="N721" s="6">
+        <v>203</v>
+      </c>
+      <c r="O721" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A722" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B722" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C722" s="6">
+        <v>3</v>
+      </c>
+      <c r="D722" s="6">
+        <v>0</v>
+      </c>
+      <c r="E722" s="6">
+        <v>1</v>
+      </c>
+      <c r="F722" s="6">
+        <v>2</v>
+      </c>
+      <c r="G722" s="6">
+        <v>0</v>
+      </c>
+      <c r="H722" s="6">
+        <v>2</v>
+      </c>
+      <c r="I722" s="6">
+        <v>8</v>
+      </c>
+      <c r="J722" s="6">
+        <v>4</v>
+      </c>
+      <c r="K722" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L722" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M722" s="6">
+        <v>22</v>
+      </c>
+      <c r="N722" s="6">
+        <v>196</v>
+      </c>
+      <c r="O722" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A723" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B723" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C723" s="6">
+        <v>2</v>
+      </c>
+      <c r="D723" s="6">
+        <v>2</v>
+      </c>
+      <c r="E723" s="6">
+        <v>1</v>
+      </c>
+      <c r="F723" s="6">
+        <v>0</v>
+      </c>
+      <c r="G723" s="6">
+        <v>2</v>
+      </c>
+      <c r="H723" s="6">
+        <v>1</v>
+      </c>
+      <c r="I723" s="6">
+        <v>8</v>
+      </c>
+      <c r="J723" s="6">
+        <v>5</v>
+      </c>
+      <c r="K723" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L723" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M723" s="6">
+        <v>23</v>
+      </c>
+      <c r="N723" s="6">
+        <v>184</v>
+      </c>
+      <c r="O723" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A724" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B724" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C724" s="6">
+        <v>2</v>
+      </c>
+      <c r="D724" s="6">
+        <v>2</v>
+      </c>
+      <c r="E724" s="6">
+        <v>0</v>
+      </c>
+      <c r="F724" s="6">
+        <v>1</v>
+      </c>
+      <c r="G724" s="6">
+        <v>1</v>
+      </c>
+      <c r="H724" s="6">
+        <v>2</v>
+      </c>
+      <c r="I724" s="6">
+        <v>8</v>
+      </c>
+      <c r="J724" s="6">
+        <v>5</v>
+      </c>
+      <c r="K724" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L724" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M724" s="6">
+        <v>19</v>
+      </c>
+      <c r="N724" s="6">
+        <v>179</v>
+      </c>
+      <c r="O724" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A725" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B725" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C725" s="6">
+        <v>0</v>
+      </c>
+      <c r="D725" s="6">
+        <v>2</v>
+      </c>
+      <c r="E725" s="6">
+        <v>2</v>
+      </c>
+      <c r="F725" s="6">
+        <v>1</v>
+      </c>
+      <c r="G725" s="6">
+        <v>2</v>
+      </c>
+      <c r="H725" s="6">
+        <v>1</v>
+      </c>
+      <c r="I725" s="6">
+        <v>8</v>
+      </c>
+      <c r="J725" s="6">
+        <v>5</v>
+      </c>
+      <c r="K725" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L725" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M725" s="6">
+        <v>18</v>
+      </c>
+      <c r="N725" s="6">
+        <v>176</v>
+      </c>
+      <c r="O725" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A726" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B726" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C726" s="6">
+        <v>2</v>
+      </c>
+      <c r="D726" s="6">
+        <v>4</v>
+      </c>
+      <c r="E726" s="6">
+        <v>1</v>
+      </c>
+      <c r="F726" s="6">
+        <v>2</v>
+      </c>
+      <c r="G726" s="6">
+        <v>0</v>
+      </c>
+      <c r="H726" s="6">
+        <v>3</v>
+      </c>
+      <c r="I726" s="6">
+        <v>12</v>
+      </c>
+      <c r="J726" s="6">
+        <v>5</v>
+      </c>
+      <c r="K726" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L726" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M726" s="6">
+        <v>25</v>
+      </c>
+      <c r="N726" s="6">
+        <v>168</v>
+      </c>
+      <c r="O726" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="727" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A727" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B727" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C727" s="6">
+        <v>2</v>
+      </c>
+      <c r="D727" s="6">
+        <v>4</v>
+      </c>
+      <c r="E727" s="6">
+        <v>0</v>
+      </c>
+      <c r="F727" s="6">
+        <v>2</v>
+      </c>
+      <c r="G727" s="6">
+        <v>1</v>
+      </c>
+      <c r="H727" s="6">
+        <v>1</v>
+      </c>
+      <c r="I727" s="6">
+        <v>9</v>
+      </c>
+      <c r="J727" s="6">
+        <v>5</v>
+      </c>
+      <c r="K727" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L727" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M727" s="6">
+        <v>22</v>
+      </c>
+      <c r="N727" s="6">
+        <v>183</v>
+      </c>
+      <c r="O727" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A728" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B728" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C728" s="6">
+        <v>1</v>
+      </c>
+      <c r="D728" s="6">
+        <v>3</v>
+      </c>
+      <c r="E728" s="6">
+        <v>1</v>
+      </c>
+      <c r="F728" s="6">
+        <v>2</v>
+      </c>
+      <c r="G728" s="6">
+        <v>4</v>
+      </c>
+      <c r="H728" s="6">
+        <v>2</v>
+      </c>
+      <c r="I728" s="6">
+        <v>13</v>
+      </c>
+      <c r="J728" s="6">
+        <v>6</v>
+      </c>
+      <c r="K728" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L728" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M728" s="6">
+        <v>23</v>
+      </c>
+      <c r="N728" s="6">
+        <v>186</v>
+      </c>
+      <c r="O728" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A729" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B729" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C729" s="6">
+        <v>0</v>
+      </c>
+      <c r="D729" s="6">
+        <v>3</v>
+      </c>
+      <c r="E729" s="6">
+        <v>1</v>
+      </c>
+      <c r="F729" s="6">
+        <v>1</v>
+      </c>
+      <c r="G729" s="6">
+        <v>1</v>
+      </c>
+      <c r="H729" s="6">
+        <v>2</v>
+      </c>
+      <c r="I729" s="6">
+        <v>8</v>
+      </c>
+      <c r="J729" s="6">
+        <v>5</v>
+      </c>
+      <c r="K729" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L729" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M729" s="6">
+        <v>20</v>
+      </c>
+      <c r="N729" s="6">
+        <v>175</v>
+      </c>
+      <c r="O729" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A730" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B730" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C730" s="6">
+        <v>1</v>
+      </c>
+      <c r="D730" s="6">
+        <v>0</v>
+      </c>
+      <c r="E730" s="6">
+        <v>2</v>
+      </c>
+      <c r="F730" s="6">
+        <v>3</v>
+      </c>
+      <c r="G730" s="6">
+        <v>2</v>
+      </c>
+      <c r="H730" s="6">
+        <v>1</v>
+      </c>
+      <c r="I730" s="6">
+        <v>9</v>
+      </c>
+      <c r="J730" s="6">
+        <v>5</v>
+      </c>
+      <c r="K730" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L730" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M730" s="6">
+        <v>24</v>
+      </c>
+      <c r="N730" s="6">
+        <v>192</v>
+      </c>
+      <c r="O730" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A731" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B731" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C731" s="6">
+        <v>0</v>
+      </c>
+      <c r="D731" s="6">
+        <v>5</v>
+      </c>
+      <c r="E731" s="6">
+        <v>0</v>
+      </c>
+      <c r="F731" s="6">
+        <v>2</v>
+      </c>
+      <c r="G731" s="6">
+        <v>1</v>
+      </c>
+      <c r="H731" s="6">
+        <v>1</v>
+      </c>
+      <c r="I731" s="6">
+        <v>9</v>
+      </c>
+      <c r="J731" s="6">
+        <v>4</v>
+      </c>
+      <c r="K731" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L731" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M731" s="6">
+        <v>21</v>
+      </c>
+      <c r="N731" s="6">
+        <v>188</v>
+      </c>
+      <c r="O731" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A732" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B732" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C732" s="6">
+        <v>1</v>
+      </c>
+      <c r="D732" s="6">
+        <v>0</v>
+      </c>
+      <c r="E732" s="6">
+        <v>2</v>
+      </c>
+      <c r="F732" s="6">
+        <v>1</v>
+      </c>
+      <c r="G732" s="6">
+        <v>3</v>
+      </c>
+      <c r="H732" s="6">
+        <v>2</v>
+      </c>
+      <c r="I732" s="6">
+        <v>9</v>
+      </c>
+      <c r="J732" s="6">
+        <v>5</v>
+      </c>
+      <c r="K732" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L732" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M732" s="6">
+        <v>21</v>
+      </c>
+      <c r="N732" s="6">
+        <v>185</v>
+      </c>
+      <c r="O732" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A733" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B733" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C733" s="6">
+        <v>2</v>
+      </c>
+      <c r="D733" s="6">
+        <v>0</v>
+      </c>
+      <c r="E733" s="6">
+        <v>1</v>
+      </c>
+      <c r="F733" s="6">
+        <v>1</v>
+      </c>
+      <c r="G733" s="6">
+        <v>2</v>
+      </c>
+      <c r="H733" s="6">
+        <v>2</v>
+      </c>
+      <c r="I733" s="6">
+        <v>8</v>
+      </c>
+      <c r="J733" s="6">
+        <v>5</v>
+      </c>
+      <c r="K733" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L733" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M733" s="6">
+        <v>24</v>
+      </c>
+      <c r="N733" s="6">
+        <v>163</v>
+      </c>
+      <c r="O733" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="734" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A734" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B734" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C734" s="6">
+        <v>3</v>
+      </c>
+      <c r="D734" s="6">
+        <v>1</v>
+      </c>
+      <c r="E734" s="6">
+        <v>1</v>
+      </c>
+      <c r="F734" s="6">
+        <v>0</v>
+      </c>
+      <c r="G734" s="6">
+        <v>1</v>
+      </c>
+      <c r="H734" s="6">
+        <v>3</v>
+      </c>
+      <c r="I734" s="6">
+        <v>9</v>
+      </c>
+      <c r="J734" s="6">
+        <v>5</v>
+      </c>
+      <c r="K734" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L734" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M734" s="6">
+        <v>20</v>
+      </c>
+      <c r="N734" s="6">
+        <v>165</v>
+      </c>
+      <c r="O734" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A735" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B735" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C735" s="6">
+        <v>1</v>
+      </c>
+      <c r="D735" s="6">
+        <v>3</v>
+      </c>
+      <c r="E735" s="6">
+        <v>0</v>
+      </c>
+      <c r="F735" s="6">
+        <v>1</v>
+      </c>
+      <c r="G735" s="6">
+        <v>1</v>
+      </c>
+      <c r="H735" s="6">
+        <v>2</v>
+      </c>
+      <c r="I735" s="6">
+        <v>8</v>
+      </c>
+      <c r="J735" s="6">
+        <v>5</v>
+      </c>
+      <c r="K735" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L735" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M735" s="6">
+        <v>20</v>
+      </c>
+      <c r="N735" s="6">
+        <v>168</v>
+      </c>
+      <c r="O735" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A736" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B736" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C736" s="6">
+        <v>3</v>
+      </c>
+      <c r="D736" s="6">
+        <v>0</v>
+      </c>
+      <c r="E736" s="6">
+        <v>0</v>
+      </c>
+      <c r="F736" s="6">
+        <v>1</v>
+      </c>
+      <c r="G736" s="6">
+        <v>3</v>
+      </c>
+      <c r="H736" s="6">
+        <v>1</v>
+      </c>
+      <c r="I736" s="6">
+        <v>8</v>
+      </c>
+      <c r="J736" s="6">
+        <v>5</v>
+      </c>
+      <c r="K736" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L736" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M736" s="6">
+        <v>21</v>
+      </c>
+      <c r="N736" s="6">
+        <v>183</v>
+      </c>
+      <c r="O736" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A737" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B737" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C737" s="6">
+        <v>0</v>
+      </c>
+      <c r="D737" s="6">
+        <v>0</v>
+      </c>
+      <c r="E737" s="6">
+        <v>2</v>
+      </c>
+      <c r="F737" s="6">
+        <v>3</v>
+      </c>
+      <c r="G737" s="6">
+        <v>2</v>
+      </c>
+      <c r="H737" s="6">
+        <v>1</v>
+      </c>
+      <c r="I737" s="6">
+        <v>8</v>
+      </c>
+      <c r="J737" s="6">
+        <v>4</v>
+      </c>
+      <c r="K737" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L737" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M737" s="6">
+        <v>20</v>
+      </c>
+      <c r="N737" s="6">
+        <v>190</v>
+      </c>
+      <c r="O737" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A738" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B738" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C738" s="6">
+        <v>1</v>
+      </c>
+      <c r="D738" s="6">
+        <v>1</v>
+      </c>
+      <c r="E738" s="6">
+        <v>2</v>
+      </c>
+      <c r="F738" s="6">
+        <v>2</v>
+      </c>
+      <c r="G738" s="6">
+        <v>1</v>
+      </c>
+      <c r="H738" s="6">
+        <v>1</v>
+      </c>
+      <c r="I738" s="6">
+        <v>8</v>
+      </c>
+      <c r="J738" s="6">
+        <v>6</v>
+      </c>
+      <c r="K738" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L738" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M738" s="6">
+        <v>21</v>
+      </c>
+      <c r="N738" s="6">
+        <v>198</v>
+      </c>
+      <c r="O738" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A739" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B739" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C739" s="6">
+        <v>2</v>
+      </c>
+      <c r="D739" s="6">
+        <v>3</v>
+      </c>
+      <c r="E739" s="6">
+        <v>1</v>
+      </c>
+      <c r="F739" s="6">
+        <v>1</v>
+      </c>
+      <c r="G739" s="6">
+        <v>0</v>
+      </c>
+      <c r="H739" s="6">
+        <v>1</v>
+      </c>
+      <c r="I739" s="6">
+        <v>9</v>
+      </c>
+      <c r="J739" s="6">
+        <v>5</v>
+      </c>
+      <c r="K739" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L739" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M739" s="6">
+        <v>22</v>
+      </c>
+      <c r="N739" s="6">
+        <v>185</v>
+      </c>
+      <c r="O739" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A740" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B740" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C740" s="6">
+        <v>3</v>
+      </c>
+      <c r="D740" s="6">
+        <v>2</v>
+      </c>
+      <c r="E740" s="6">
+        <v>0</v>
+      </c>
+      <c r="F740" s="6">
+        <v>2</v>
+      </c>
+      <c r="G740" s="6">
+        <v>0</v>
+      </c>
+      <c r="H740" s="6">
+        <v>1</v>
+      </c>
+      <c r="I740" s="6">
+        <v>8</v>
+      </c>
+      <c r="J740" s="6">
+        <v>4</v>
+      </c>
+      <c r="K740" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L740" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M740" s="6">
+        <v>21</v>
+      </c>
+      <c r="N740" s="6">
+        <v>170</v>
+      </c>
+      <c r="O740" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A741" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B741" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C741" s="6">
+        <v>3</v>
+      </c>
+      <c r="D741" s="6">
+        <v>2</v>
+      </c>
+      <c r="E741" s="6">
+        <v>2</v>
+      </c>
+      <c r="F741" s="6">
+        <v>2</v>
+      </c>
+      <c r="G741" s="6">
+        <v>1</v>
+      </c>
+      <c r="H741" s="6">
+        <v>1</v>
+      </c>
+      <c r="I741" s="6">
+        <v>11</v>
+      </c>
+      <c r="J741" s="6">
+        <v>6</v>
+      </c>
+      <c r="K741" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L741" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M741" s="6">
+        <v>22</v>
+      </c>
+      <c r="N741" s="6">
+        <v>172</v>
+      </c>
+      <c r="O741" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A742" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B742" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C742" s="6">
+        <v>2</v>
+      </c>
+      <c r="D742" s="6">
+        <v>1</v>
+      </c>
+      <c r="E742" s="6">
+        <v>1</v>
+      </c>
+      <c r="F742" s="6">
+        <v>2</v>
+      </c>
+      <c r="G742" s="6">
+        <v>0</v>
+      </c>
+      <c r="H742" s="6">
+        <v>2</v>
+      </c>
+      <c r="I742" s="6">
+        <v>8</v>
+      </c>
+      <c r="J742" s="6">
+        <v>5</v>
+      </c>
+      <c r="K742" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L742" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M742" s="6">
+        <v>23</v>
+      </c>
+      <c r="N742" s="6">
+        <v>192</v>
+      </c>
+      <c r="O742" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A743" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B743" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C743" s="6">
+        <v>1</v>
+      </c>
+      <c r="D743" s="6">
+        <v>2</v>
+      </c>
+      <c r="E743" s="6">
+        <v>3</v>
+      </c>
+      <c r="F743" s="6">
+        <v>2</v>
+      </c>
+      <c r="G743" s="6">
+        <v>2</v>
+      </c>
+      <c r="H743" s="6">
+        <v>2</v>
+      </c>
+      <c r="I743" s="6">
+        <v>12</v>
+      </c>
+      <c r="J743" s="6">
+        <v>6</v>
+      </c>
+      <c r="K743" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L743" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M743" s="6">
+        <v>22</v>
+      </c>
+      <c r="N743" s="6">
+        <v>184</v>
+      </c>
+      <c r="O743" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A744" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B744" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C744" s="6">
+        <v>2</v>
+      </c>
+      <c r="D744" s="6">
+        <v>1</v>
+      </c>
+      <c r="E744" s="6">
+        <v>1</v>
+      </c>
+      <c r="F744" s="6">
+        <v>4</v>
+      </c>
+      <c r="G744" s="6">
+        <v>0</v>
+      </c>
+      <c r="H744" s="6">
+        <v>1</v>
+      </c>
+      <c r="I744" s="6">
+        <v>9</v>
+      </c>
+      <c r="J744" s="6">
+        <v>5</v>
+      </c>
+      <c r="K744" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L744" s="6"/>
+      <c r="M744" s="6"/>
+      <c r="N744" s="6"/>
+      <c r="O744" s="6"/>
+    </row>
+    <row r="745" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A745" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B745" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C745" s="6">
+        <v>2</v>
+      </c>
+      <c r="D745" s="6">
+        <v>2</v>
+      </c>
+      <c r="E745" s="6">
+        <v>3</v>
+      </c>
+      <c r="F745" s="6">
+        <v>1</v>
+      </c>
+      <c r="G745" s="6">
+        <v>2</v>
+      </c>
+      <c r="H745" s="6">
+        <v>1</v>
+      </c>
+      <c r="I745" s="6">
+        <v>11</v>
+      </c>
+      <c r="J745" s="6">
+        <v>6</v>
+      </c>
+      <c r="K745" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L745" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M745" s="6">
+        <v>20</v>
+      </c>
+      <c r="N745" s="6">
+        <v>180</v>
+      </c>
+      <c r="O745" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A746" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B746" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C746" s="6">
+        <v>0</v>
+      </c>
+      <c r="D746" s="6">
+        <v>3</v>
+      </c>
+      <c r="E746" s="6">
+        <v>3</v>
+      </c>
+      <c r="F746" s="6">
+        <v>2</v>
+      </c>
+      <c r="G746" s="6">
+        <v>0</v>
+      </c>
+      <c r="H746" s="6">
+        <v>2</v>
+      </c>
+      <c r="I746" s="6">
+        <v>10</v>
+      </c>
+      <c r="J746" s="6">
+        <v>4</v>
+      </c>
+      <c r="K746" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L746" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M746" s="6">
+        <v>26</v>
+      </c>
+      <c r="N746" s="6">
+        <v>170</v>
+      </c>
+      <c r="O746" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A747" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B747" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C747" s="6">
+        <v>2</v>
+      </c>
+      <c r="D747" s="6">
+        <v>0</v>
+      </c>
+      <c r="E747" s="6">
+        <v>2</v>
+      </c>
+      <c r="F747" s="6">
+        <v>3</v>
+      </c>
+      <c r="G747" s="6">
+        <v>4</v>
+      </c>
+      <c r="H747" s="6">
+        <v>0</v>
+      </c>
+      <c r="I747" s="6">
+        <v>11</v>
+      </c>
+      <c r="J747" s="6">
+        <v>4</v>
+      </c>
+      <c r="K747" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L747" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M747" s="6">
+        <v>21</v>
+      </c>
+      <c r="N747" s="6">
+        <v>185</v>
+      </c>
+      <c r="O747" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A748" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B748" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C748" s="6">
+        <v>3</v>
+      </c>
+      <c r="D748" s="6">
+        <v>2</v>
+      </c>
+      <c r="E748" s="6">
+        <v>1</v>
+      </c>
+      <c r="F748" s="6">
+        <v>1</v>
+      </c>
+      <c r="G748" s="6">
+        <v>1</v>
+      </c>
+      <c r="H748" s="6">
+        <v>3</v>
+      </c>
+      <c r="I748" s="6">
+        <v>11</v>
+      </c>
+      <c r="J748" s="6">
+        <v>6</v>
+      </c>
+      <c r="K748" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L748" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M748" s="6">
+        <v>24</v>
+      </c>
+      <c r="N748" s="6">
+        <v>183</v>
+      </c>
+      <c r="O748" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A749" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B749" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C749" s="6">
+        <v>2</v>
+      </c>
+      <c r="D749" s="6">
+        <v>3</v>
+      </c>
+      <c r="E749" s="6">
+        <v>0</v>
+      </c>
+      <c r="F749" s="6">
+        <v>2</v>
+      </c>
+      <c r="G749" s="6">
+        <v>3</v>
+      </c>
+      <c r="H749" s="6">
+        <v>0</v>
+      </c>
+      <c r="I749" s="6">
+        <v>10</v>
+      </c>
+      <c r="J749" s="6">
+        <v>4</v>
+      </c>
+      <c r="K749" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L749" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M749" s="6">
+        <v>21</v>
+      </c>
+      <c r="N749" s="6">
+        <v>185</v>
+      </c>
+      <c r="O749" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A750" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B750" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C750" s="6">
+        <v>3</v>
+      </c>
+      <c r="D750" s="6">
+        <v>3</v>
+      </c>
+      <c r="E750" s="6">
+        <v>2</v>
+      </c>
+      <c r="F750" s="6">
+        <v>1</v>
+      </c>
+      <c r="G750" s="6">
+        <v>0</v>
+      </c>
+      <c r="H750" s="6">
+        <v>1</v>
+      </c>
+      <c r="I750" s="6">
+        <v>10</v>
+      </c>
+      <c r="J750" s="6">
+        <v>5</v>
+      </c>
+      <c r="K750" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L750" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M750" s="6">
+        <v>22</v>
+      </c>
+      <c r="N750" s="6">
+        <v>180</v>
+      </c>
+      <c r="O750" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A751" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B751" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C751" s="6">
+        <v>1</v>
+      </c>
+      <c r="D751" s="6">
+        <v>1</v>
+      </c>
+      <c r="E751" s="6">
+        <v>1</v>
+      </c>
+      <c r="F751" s="6">
+        <v>2</v>
+      </c>
+      <c r="G751" s="6">
+        <v>0</v>
+      </c>
+      <c r="H751" s="6">
+        <v>3</v>
+      </c>
+      <c r="I751" s="6">
+        <v>8</v>
+      </c>
+      <c r="J751" s="6">
+        <v>5</v>
+      </c>
+      <c r="K751" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L751" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M751" s="6">
+        <v>20</v>
+      </c>
+      <c r="N751" s="6">
+        <v>196</v>
+      </c>
+      <c r="O751" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A752" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B752" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C752" s="6">
+        <v>3</v>
+      </c>
+      <c r="D752" s="6">
+        <v>1</v>
+      </c>
+      <c r="E752" s="6">
+        <v>2</v>
+      </c>
+      <c r="F752" s="6">
+        <v>1</v>
+      </c>
+      <c r="G752" s="6">
+        <v>1</v>
+      </c>
+      <c r="H752" s="6">
+        <v>1</v>
+      </c>
+      <c r="I752" s="6">
+        <v>9</v>
+      </c>
+      <c r="J752" s="6">
+        <v>6</v>
+      </c>
+      <c r="K752" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L752" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M752" s="6">
+        <v>21</v>
+      </c>
+      <c r="N752" s="6">
+        <v>188</v>
+      </c>
+      <c r="O752" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A753" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B753" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C753" s="6">
+        <v>0</v>
+      </c>
+      <c r="D753" s="6">
+        <v>2</v>
+      </c>
+      <c r="E753" s="6">
+        <v>2</v>
+      </c>
+      <c r="F753" s="6">
+        <v>1</v>
+      </c>
+      <c r="G753" s="6">
+        <v>2</v>
+      </c>
+      <c r="H753" s="6">
+        <v>2</v>
+      </c>
+      <c r="I753" s="6">
+        <v>9</v>
+      </c>
+      <c r="J753" s="6">
+        <v>5</v>
+      </c>
+      <c r="K753" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L753" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M753" s="6">
+        <v>23</v>
+      </c>
+      <c r="N753" s="6">
+        <v>159</v>
+      </c>
+      <c r="O753" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A754" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B754" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C754" s="6">
+        <v>3</v>
+      </c>
+      <c r="D754" s="6">
+        <v>1</v>
+      </c>
+      <c r="E754" s="6">
+        <v>0</v>
+      </c>
+      <c r="F754" s="6">
+        <v>2</v>
+      </c>
+      <c r="G754" s="6">
+        <v>2</v>
+      </c>
+      <c r="H754" s="6">
+        <v>0</v>
+      </c>
+      <c r="I754" s="6">
+        <v>8</v>
+      </c>
+      <c r="J754" s="6">
+        <v>4</v>
+      </c>
+      <c r="K754" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L754" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M754" s="6">
+        <v>20</v>
+      </c>
+      <c r="N754" s="6">
+        <v>160</v>
+      </c>
+      <c r="O754" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A755" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B755" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C755" s="6">
+        <v>2</v>
+      </c>
+      <c r="D755" s="6">
+        <v>0</v>
+      </c>
+      <c r="E755" s="6">
+        <v>4</v>
+      </c>
+      <c r="F755" s="6">
+        <v>2</v>
+      </c>
+      <c r="G755" s="6">
+        <v>0</v>
+      </c>
+      <c r="H755" s="6">
+        <v>2</v>
+      </c>
+      <c r="I755" s="6">
+        <v>10</v>
+      </c>
+      <c r="J755" s="6">
+        <v>4</v>
+      </c>
+      <c r="K755" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L755" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M755" s="6">
+        <v>20</v>
+      </c>
+      <c r="N755" s="6">
+        <v>175</v>
+      </c>
+      <c r="O755" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A756" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B756" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C756" s="6">
+        <v>2</v>
+      </c>
+      <c r="D756" s="6">
+        <v>1</v>
+      </c>
+      <c r="E756" s="6">
+        <v>1</v>
+      </c>
+      <c r="F756" s="6">
+        <v>4</v>
+      </c>
+      <c r="G756" s="6">
+        <v>0</v>
+      </c>
+      <c r="H756" s="6">
+        <v>1</v>
+      </c>
+      <c r="I756" s="6">
+        <v>9</v>
+      </c>
+      <c r="J756" s="6">
+        <v>5</v>
+      </c>
+      <c r="K756" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L756" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M756" s="6">
+        <v>20</v>
+      </c>
+      <c r="N756" s="6">
+        <v>173</v>
+      </c>
+      <c r="O756" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A757" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B757" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C757" s="6">
+        <v>2</v>
+      </c>
+      <c r="D757" s="6">
+        <v>1</v>
+      </c>
+      <c r="E757" s="6">
+        <v>1</v>
+      </c>
+      <c r="F757" s="6">
+        <v>4</v>
+      </c>
+      <c r="G757" s="6">
+        <v>0</v>
+      </c>
+      <c r="H757" s="6">
+        <v>1</v>
+      </c>
+      <c r="I757" s="6">
+        <v>9</v>
+      </c>
+      <c r="J757" s="6">
+        <v>5</v>
+      </c>
+      <c r="K757" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L757" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M757" s="6">
+        <v>20</v>
+      </c>
+      <c r="N757" s="6">
+        <v>166</v>
+      </c>
+      <c r="O757" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:15" ht="15.75" customHeight="1">
+      <c r="C758" s="6"/>
+      <c r="D758" s="6"/>
+      <c r="E758" s="6"/>
+      <c r="F758" s="6"/>
+      <c r="G758" s="6"/>
+      <c r="H758" s="6"/>
+      <c r="I758" s="6"/>
+      <c r="J758" s="6"/>
+      <c r="K758" s="6"/>
+      <c r="L758" s="6"/>
+      <c r="M758" s="6"/>
+      <c r="N758" s="6"/>
+      <c r="O758" s="6"/>
+    </row>
+    <row r="759" spans="1:15" ht="15.75" customHeight="1">
+      <c r="C759" s="6"/>
+      <c r="D759" s="6"/>
+      <c r="E759" s="6"/>
+      <c r="F759" s="6"/>
+      <c r="G759" s="6"/>
+      <c r="H759" s="6"/>
+      <c r="I759" s="6"/>
+      <c r="J759" s="6"/>
+      <c r="K759" s="6"/>
+      <c r="L759" s="6"/>
+      <c r="M759" s="6"/>
+      <c r="N759" s="6"/>
+      <c r="O759" s="6"/>
+    </row>
+    <row r="760" spans="1:15" ht="15.75" customHeight="1">
+      <c r="C760" s="6"/>
+      <c r="D760" s="6"/>
+      <c r="E760" s="6"/>
+      <c r="F760" s="6"/>
+      <c r="G760" s="6"/>
+      <c r="H760" s="6"/>
+      <c r="I760" s="6"/>
+      <c r="J760" s="6"/>
+      <c r="K760" s="6"/>
+      <c r="L760" s="6"/>
+      <c r="M760" s="6"/>
+      <c r="N760" s="6"/>
+      <c r="O760" s="6"/>
+    </row>
+    <row r="761" spans="1:15" ht="15.75" customHeight="1">
+      <c r="C761" s="6"/>
+      <c r="D761" s="6"/>
+      <c r="E761" s="6"/>
+      <c r="F761" s="6"/>
+      <c r="G761" s="6"/>
+      <c r="H761" s="6"/>
+      <c r="I761" s="6"/>
+      <c r="J761" s="6"/>
+      <c r="K761" s="6"/>
+      <c r="L761" s="6"/>
+      <c r="M761" s="6"/>
+      <c r="N761" s="6"/>
+      <c r="O761" s="6"/>
+    </row>
+    <row r="762" spans="1:15" ht="15.75" customHeight="1">
+      <c r="C762" s="6"/>
+      <c r="D762" s="6"/>
+      <c r="E762" s="6"/>
+      <c r="F762" s="6"/>
+      <c r="G762" s="6"/>
+      <c r="H762" s="6"/>
+      <c r="I762" s="6"/>
+      <c r="J762" s="6"/>
+      <c r="K762" s="6"/>
+      <c r="L762" s="6"/>
+      <c r="M762" s="6"/>
+      <c r="N762" s="6"/>
+      <c r="O762" s="6"/>
+    </row>
+    <row r="763" spans="1:15" ht="15.75" customHeight="1">
+      <c r="C763" s="6"/>
+      <c r="D763" s="6"/>
+      <c r="E763" s="6"/>
+      <c r="F763" s="6"/>
+      <c r="G763" s="6"/>
+      <c r="H763" s="6"/>
+      <c r="I763" s="6"/>
+      <c r="J763" s="6"/>
+      <c r="K763" s="6"/>
+      <c r="L763" s="6"/>
+      <c r="M763" s="6"/>
+      <c r="N763" s="6"/>
+      <c r="O763" s="6"/>
+    </row>
+    <row r="764" spans="1:15" ht="15.75" customHeight="1">
+      <c r="C764" s="6"/>
+      <c r="D764" s="6"/>
+      <c r="E764" s="6"/>
+      <c r="F764" s="6"/>
+      <c r="G764" s="6"/>
+      <c r="H764" s="6"/>
+      <c r="I764" s="6"/>
+      <c r="J764" s="6"/>
+      <c r="K764" s="6"/>
+      <c r="L764" s="6"/>
+      <c r="M764" s="6"/>
+      <c r="N764" s="6"/>
+      <c r="O764" s="6"/>
+    </row>
+    <row r="765" spans="1:15" ht="15.75" customHeight="1">
+      <c r="C765" s="6"/>
+      <c r="D765" s="6"/>
+      <c r="E765" s="6"/>
+      <c r="F765" s="6"/>
+      <c r="G765" s="6"/>
+      <c r="H765" s="6"/>
+      <c r="I765" s="6"/>
+      <c r="J765" s="6"/>
+      <c r="K765" s="6"/>
+      <c r="L765" s="6"/>
+      <c r="M765" s="6"/>
+      <c r="N765" s="6"/>
+      <c r="O765" s="6"/>
+    </row>
+    <row r="766" spans="1:15" ht="15.75" customHeight="1">
+      <c r="C766" s="6"/>
+      <c r="D766" s="6"/>
+      <c r="E766" s="6"/>
+      <c r="F766" s="6"/>
+      <c r="G766" s="6"/>
+      <c r="H766" s="6"/>
+      <c r="I766" s="6"/>
+      <c r="J766" s="6"/>
+      <c r="K766" s="6"/>
+      <c r="L766" s="6"/>
+      <c r="M766" s="6"/>
+      <c r="N766" s="6"/>
+      <c r="O766" s="6"/>
+    </row>
+    <row r="767" spans="1:15" ht="15.75" customHeight="1">
+      <c r="C767" s="6"/>
+      <c r="D767" s="6"/>
+      <c r="E767" s="6"/>
+      <c r="F767" s="6"/>
+      <c r="G767" s="6"/>
+      <c r="H767" s="6"/>
+      <c r="I767" s="6"/>
+      <c r="J767" s="6"/>
+      <c r="K767" s="6"/>
+      <c r="L767" s="6"/>
+      <c r="M767" s="6"/>
+      <c r="N767" s="6"/>
+      <c r="O767" s="6"/>
+    </row>
+    <row r="768" spans="1:15" ht="15.75" customHeight="1">
+      <c r="C768" s="6"/>
+      <c r="D768" s="6"/>
+      <c r="E768" s="6"/>
+      <c r="F768" s="6"/>
+      <c r="G768" s="6"/>
+      <c r="H768" s="6"/>
+      <c r="I768" s="6"/>
+      <c r="J768" s="6"/>
+      <c r="K768" s="6"/>
+      <c r="L768" s="6"/>
+      <c r="M768" s="6"/>
+      <c r="N768" s="6"/>
+      <c r="O768" s="6"/>
+    </row>
+    <row r="769" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C769" s="6"/>
+      <c r="D769" s="6"/>
+      <c r="E769" s="6"/>
+      <c r="F769" s="6"/>
+      <c r="G769" s="6"/>
+      <c r="H769" s="6"/>
+      <c r="I769" s="6"/>
+      <c r="J769" s="6"/>
+      <c r="K769" s="6"/>
+      <c r="L769" s="6"/>
+      <c r="M769" s="6"/>
+      <c r="N769" s="6"/>
+      <c r="O769" s="6"/>
+    </row>
+    <row r="770" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C770" s="6"/>
+      <c r="D770" s="6"/>
+      <c r="E770" s="6"/>
+      <c r="F770" s="6"/>
+      <c r="G770" s="6"/>
+      <c r="H770" s="6"/>
+      <c r="I770" s="6"/>
+      <c r="J770" s="6"/>
+      <c r="K770" s="6"/>
+      <c r="L770" s="6"/>
+      <c r="M770" s="6"/>
+      <c r="N770" s="6"/>
+      <c r="O770" s="6"/>
+    </row>
+    <row r="771" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C771" s="6"/>
+      <c r="D771" s="6"/>
+      <c r="E771" s="6"/>
+      <c r="F771" s="6"/>
+      <c r="G771" s="6"/>
+      <c r="H771" s="6"/>
+      <c r="I771" s="6"/>
+      <c r="J771" s="6"/>
+      <c r="K771" s="6"/>
+      <c r="L771" s="6"/>
+      <c r="M771" s="6"/>
+      <c r="N771" s="6"/>
+      <c r="O771" s="6"/>
+    </row>
+    <row r="772" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C772" s="6"/>
+      <c r="D772" s="6"/>
+      <c r="E772" s="6"/>
+      <c r="F772" s="6"/>
+      <c r="G772" s="6"/>
+      <c r="H772" s="6"/>
+      <c r="I772" s="6"/>
+      <c r="J772" s="6"/>
+      <c r="K772" s="6"/>
+      <c r="L772" s="6"/>
+      <c r="M772" s="6"/>
+      <c r="N772" s="6"/>
+      <c r="O772" s="6"/>
+    </row>
+    <row r="773" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C773" s="6"/>
+      <c r="D773" s="6"/>
+      <c r="E773" s="6"/>
+      <c r="F773" s="6"/>
+      <c r="G773" s="6"/>
+      <c r="H773" s="6"/>
+      <c r="I773" s="6"/>
+      <c r="J773" s="6"/>
+      <c r="K773" s="6"/>
+      <c r="L773" s="6"/>
+      <c r="M773" s="6"/>
+      <c r="N773" s="6"/>
+      <c r="O773" s="6"/>
+    </row>
+    <row r="774" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C774" s="6"/>
+      <c r="D774" s="6"/>
+      <c r="E774" s="6"/>
+      <c r="F774" s="6"/>
+      <c r="G774" s="6"/>
+      <c r="H774" s="6"/>
+      <c r="I774" s="6"/>
+      <c r="J774" s="6"/>
+      <c r="K774" s="6"/>
+      <c r="L774" s="6"/>
+      <c r="M774" s="6"/>
+      <c r="N774" s="6"/>
+      <c r="O774" s="6"/>
+    </row>
+    <row r="775" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C775" s="6"/>
+      <c r="D775" s="6"/>
+      <c r="E775" s="6"/>
+      <c r="F775" s="6"/>
+      <c r="G775" s="6"/>
+      <c r="H775" s="6"/>
+      <c r="I775" s="6"/>
+      <c r="J775" s="6"/>
+      <c r="K775" s="6"/>
+      <c r="L775" s="6"/>
+      <c r="M775" s="6"/>
+      <c r="N775" s="6"/>
+      <c r="O775" s="6"/>
+    </row>
+    <row r="776" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C776" s="6"/>
+      <c r="D776" s="6"/>
+      <c r="E776" s="6"/>
+      <c r="F776" s="6"/>
+      <c r="G776" s="6"/>
+      <c r="H776" s="6"/>
+      <c r="I776" s="6"/>
+      <c r="J776" s="6"/>
+      <c r="K776" s="6"/>
+      <c r="L776" s="6"/>
+      <c r="M776" s="6"/>
+      <c r="N776" s="6"/>
+      <c r="O776" s="6"/>
+    </row>
+    <row r="777" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C777" s="6"/>
+      <c r="D777" s="6"/>
+      <c r="E777" s="6"/>
+      <c r="F777" s="6"/>
+      <c r="G777" s="6"/>
+      <c r="H777" s="6"/>
+      <c r="I777" s="6"/>
+      <c r="J777" s="6"/>
+      <c r="K777" s="6"/>
+      <c r="L777" s="6"/>
+      <c r="M777" s="6"/>
+      <c r="N777" s="6"/>
+      <c r="O777" s="6"/>
+    </row>
+    <row r="778" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C778" s="6"/>
+      <c r="D778" s="6"/>
+      <c r="E778" s="6"/>
+      <c r="F778" s="6"/>
+      <c r="G778" s="6"/>
+      <c r="H778" s="6"/>
+      <c r="I778" s="6"/>
+      <c r="J778" s="6"/>
+      <c r="K778" s="6"/>
+      <c r="L778" s="6"/>
+      <c r="M778" s="6"/>
+      <c r="N778" s="6"/>
+      <c r="O778" s="6"/>
+    </row>
+    <row r="779" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C779" s="6"/>
+      <c r="D779" s="6"/>
+      <c r="E779" s="6"/>
+      <c r="F779" s="6"/>
+      <c r="G779" s="6"/>
+      <c r="H779" s="6"/>
+      <c r="I779" s="6"/>
+      <c r="J779" s="6"/>
+      <c r="K779" s="6"/>
+      <c r="L779" s="6"/>
+      <c r="M779" s="6"/>
+      <c r="N779" s="6"/>
+      <c r="O779" s="6"/>
+    </row>
+    <row r="780" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C780" s="6"/>
+      <c r="D780" s="6"/>
+      <c r="E780" s="6"/>
+      <c r="F780" s="6"/>
+      <c r="G780" s="6"/>
+      <c r="H780" s="6"/>
+      <c r="I780" s="6"/>
+      <c r="J780" s="6"/>
+      <c r="K780" s="6"/>
+      <c r="L780" s="6"/>
+      <c r="M780" s="6"/>
+      <c r="N780" s="6"/>
+      <c r="O780" s="6"/>
+    </row>
+    <row r="781" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C781" s="6"/>
+      <c r="D781" s="6"/>
+      <c r="E781" s="6"/>
+      <c r="F781" s="6"/>
+      <c r="G781" s="6"/>
+      <c r="H781" s="6"/>
+      <c r="I781" s="6"/>
+      <c r="J781" s="6"/>
+      <c r="K781" s="6"/>
+      <c r="L781" s="6"/>
+      <c r="M781" s="6"/>
+      <c r="N781" s="6"/>
+      <c r="O781" s="6"/>
+    </row>
+    <row r="782" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C782" s="6"/>
+      <c r="D782" s="6"/>
+      <c r="E782" s="6"/>
+      <c r="F782" s="6"/>
+      <c r="G782" s="6"/>
+      <c r="H782" s="6"/>
+      <c r="I782" s="6"/>
+      <c r="J782" s="6"/>
+      <c r="K782" s="6"/>
+      <c r="L782" s="6"/>
+      <c r="M782" s="6"/>
+      <c r="N782" s="6"/>
+      <c r="O782" s="6"/>
+    </row>
+    <row r="783" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C783" s="6"/>
+      <c r="D783" s="6"/>
+      <c r="E783" s="6"/>
+      <c r="F783" s="6"/>
+      <c r="G783" s="6"/>
+      <c r="H783" s="6"/>
+      <c r="I783" s="6"/>
+      <c r="J783" s="6"/>
+      <c r="K783" s="6"/>
+      <c r="L783" s="6"/>
+      <c r="M783" s="6"/>
+      <c r="N783" s="6"/>
+      <c r="O783" s="6"/>
+    </row>
+    <row r="784" spans="3:15" ht="15.75" customHeight="1">
+      <c r="C784" s="6"/>
+      <c r="D784" s="6"/>
+      <c r="E784" s="6"/>
+      <c r="F784" s="6"/>
+      <c r="G784" s="6"/>
+      <c r="H784" s="6"/>
+      <c r="I784" s="6"/>
+      <c r="J784" s="6"/>
+      <c r="K784" s="6"/>
+      <c r="L784" s="6"/>
+      <c r="M784" s="6"/>
+      <c r="N784" s="6"/>
+      <c r="O784" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68666D8E-31E8-7C45-8208-713B43BCFDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E1A8AB-EAF0-3441-A122-0B5C2C6D0DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="1820" windowWidth="24900" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="29">
   <si>
     <t>m</t>
   </si>
@@ -644,8 +644,8 @@
   <dimension ref="A1:Q784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A740" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A758" sqref="A758"/>
+      <pane ySplit="1" topLeftCell="A738" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B766" sqref="B766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -35378,94 +35378,286 @@
       </c>
     </row>
     <row r="758" spans="1:15" ht="15.75" customHeight="1">
-      <c r="C758" s="6"/>
-      <c r="D758" s="6"/>
-      <c r="E758" s="6"/>
-      <c r="F758" s="6"/>
-      <c r="G758" s="6"/>
-      <c r="H758" s="6"/>
-      <c r="I758" s="6"/>
-      <c r="J758" s="6"/>
-      <c r="K758" s="6"/>
-      <c r="L758" s="6"/>
-      <c r="M758" s="6"/>
-      <c r="N758" s="6"/>
-      <c r="O758" s="6"/>
+      <c r="A758" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B758" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C758" s="11">
+        <v>5</v>
+      </c>
+      <c r="D758" s="6">
+        <v>1</v>
+      </c>
+      <c r="E758" s="6">
+        <v>0</v>
+      </c>
+      <c r="F758" s="6">
+        <v>3</v>
+      </c>
+      <c r="G758" s="6">
+        <v>0</v>
+      </c>
+      <c r="H758" s="6">
+        <v>1</v>
+      </c>
+      <c r="I758" s="6">
+        <v>10</v>
+      </c>
+      <c r="J758" s="6">
+        <v>4</v>
+      </c>
+      <c r="K758" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L758" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M758" s="6">
+        <v>20</v>
+      </c>
+      <c r="N758" s="6">
+        <v>177</v>
+      </c>
+      <c r="O758" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="759" spans="1:15" ht="15.75" customHeight="1">
-      <c r="C759" s="6"/>
-      <c r="D759" s="6"/>
-      <c r="E759" s="6"/>
-      <c r="F759" s="6"/>
-      <c r="G759" s="6"/>
-      <c r="H759" s="6"/>
-      <c r="I759" s="6"/>
-      <c r="J759" s="6"/>
-      <c r="K759" s="6"/>
-      <c r="L759" s="6"/>
-      <c r="M759" s="6"/>
-      <c r="N759" s="6"/>
-      <c r="O759" s="6"/>
+      <c r="A759" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B759" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C759" s="6">
+        <v>2</v>
+      </c>
+      <c r="D759" s="6">
+        <v>2</v>
+      </c>
+      <c r="E759" s="6">
+        <v>2</v>
+      </c>
+      <c r="F759" s="6">
+        <v>0</v>
+      </c>
+      <c r="G759" s="6">
+        <v>1</v>
+      </c>
+      <c r="H759" s="6">
+        <v>2</v>
+      </c>
+      <c r="I759" s="6">
+        <v>9</v>
+      </c>
+      <c r="J759" s="6">
+        <v>5</v>
+      </c>
+      <c r="K759" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L759" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M759" s="6">
+        <v>23</v>
+      </c>
+      <c r="N759" s="6">
+        <v>188</v>
+      </c>
+      <c r="O759" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="760" spans="1:15" ht="15.75" customHeight="1">
-      <c r="C760" s="6"/>
-      <c r="D760" s="6"/>
-      <c r="E760" s="6"/>
-      <c r="F760" s="6"/>
-      <c r="G760" s="6"/>
-      <c r="H760" s="6"/>
-      <c r="I760" s="6"/>
-      <c r="J760" s="6"/>
-      <c r="K760" s="6"/>
-      <c r="L760" s="6"/>
-      <c r="M760" s="6"/>
-      <c r="N760" s="6"/>
-      <c r="O760" s="6"/>
+      <c r="A760" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B760" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C760" s="6">
+        <v>0</v>
+      </c>
+      <c r="D760" s="6">
+        <v>3</v>
+      </c>
+      <c r="E760" s="6">
+        <v>1</v>
+      </c>
+      <c r="F760" s="6">
+        <v>4</v>
+      </c>
+      <c r="G760" s="6">
+        <v>0</v>
+      </c>
+      <c r="H760" s="6">
+        <v>1</v>
+      </c>
+      <c r="I760" s="6">
+        <v>9</v>
+      </c>
+      <c r="J760" s="6">
+        <v>4</v>
+      </c>
+      <c r="K760" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L760" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M760" s="6">
+        <v>19</v>
+      </c>
+      <c r="N760" s="6">
+        <v>178</v>
+      </c>
+      <c r="O760" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="761" spans="1:15" ht="15.75" customHeight="1">
-      <c r="C761" s="6"/>
-      <c r="D761" s="6"/>
-      <c r="E761" s="6"/>
-      <c r="F761" s="6"/>
-      <c r="G761" s="6"/>
-      <c r="H761" s="6"/>
-      <c r="I761" s="6"/>
-      <c r="J761" s="6"/>
-      <c r="K761" s="6"/>
-      <c r="L761" s="6"/>
-      <c r="M761" s="6"/>
-      <c r="N761" s="6"/>
-      <c r="O761" s="6"/>
+      <c r="A761" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B761" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C761" s="6">
+        <v>3</v>
+      </c>
+      <c r="D761" s="6">
+        <v>1</v>
+      </c>
+      <c r="E761" s="6">
+        <v>1</v>
+      </c>
+      <c r="F761" s="6">
+        <v>3</v>
+      </c>
+      <c r="G761" s="6">
+        <v>0</v>
+      </c>
+      <c r="H761" s="6">
+        <v>1</v>
+      </c>
+      <c r="I761" s="6">
+        <v>9</v>
+      </c>
+      <c r="J761" s="6">
+        <v>5</v>
+      </c>
+      <c r="K761" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L761" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M761" s="6">
+        <v>20</v>
+      </c>
+      <c r="N761" s="6">
+        <v>178</v>
+      </c>
+      <c r="O761" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="762" spans="1:15" ht="15.75" customHeight="1">
-      <c r="C762" s="6"/>
-      <c r="D762" s="6"/>
-      <c r="E762" s="6"/>
-      <c r="F762" s="6"/>
-      <c r="G762" s="6"/>
-      <c r="H762" s="6"/>
-      <c r="I762" s="6"/>
-      <c r="J762" s="6"/>
-      <c r="K762" s="6"/>
-      <c r="L762" s="6"/>
-      <c r="M762" s="6"/>
-      <c r="N762" s="6"/>
-      <c r="O762" s="6"/>
+      <c r="A762" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B762" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C762" s="6">
+        <v>3</v>
+      </c>
+      <c r="D762" s="6">
+        <v>1</v>
+      </c>
+      <c r="E762" s="6">
+        <v>4</v>
+      </c>
+      <c r="F762" s="6">
+        <v>2</v>
+      </c>
+      <c r="G762" s="6">
+        <v>0</v>
+      </c>
+      <c r="H762" s="6">
+        <v>1</v>
+      </c>
+      <c r="I762" s="6">
+        <v>11</v>
+      </c>
+      <c r="J762" s="6">
+        <v>5</v>
+      </c>
+      <c r="K762" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L762" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M762" s="6">
+        <v>19</v>
+      </c>
+      <c r="N762" s="6">
+        <v>171</v>
+      </c>
+      <c r="O762" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="763" spans="1:15" ht="15.75" customHeight="1">
-      <c r="C763" s="6"/>
-      <c r="D763" s="6"/>
-      <c r="E763" s="6"/>
-      <c r="F763" s="6"/>
-      <c r="G763" s="6"/>
-      <c r="H763" s="6"/>
-      <c r="I763" s="6"/>
-      <c r="J763" s="6"/>
-      <c r="K763" s="6"/>
-      <c r="L763" s="6"/>
-      <c r="M763" s="6"/>
-      <c r="N763" s="6"/>
-      <c r="O763" s="6"/>
+      <c r="A763" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B763" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C763" s="6">
+        <v>1</v>
+      </c>
+      <c r="D763" s="6">
+        <v>1</v>
+      </c>
+      <c r="E763" s="6">
+        <v>3</v>
+      </c>
+      <c r="F763" s="6">
+        <v>4</v>
+      </c>
+      <c r="G763" s="6">
+        <v>1</v>
+      </c>
+      <c r="H763" s="6">
+        <v>1</v>
+      </c>
+      <c r="I763" s="6">
+        <v>11</v>
+      </c>
+      <c r="J763" s="6">
+        <v>6</v>
+      </c>
+      <c r="K763" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L763" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M763" s="6">
+        <v>20</v>
+      </c>
+      <c r="N763" s="6">
+        <v>165</v>
+      </c>
+      <c r="O763" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="764" spans="1:15" ht="15.75" customHeight="1">
       <c r="C764" s="6"/>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\jkruppa.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E1A8AB-EAF0-3441-A122-0B5C2C6D0DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A121BE5-6F51-4E5E-AFC1-7304AD7C98F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7060" yWindow="1820" windowWidth="24900" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="30">
   <si>
     <t>m</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>PhD Osnabrück</t>
+  </si>
+  <si>
+    <t>hellrot</t>
   </si>
 </sst>
 </file>
@@ -641,27 +644,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q784"/>
+  <dimension ref="A1:Q786"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A738" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B766" sqref="B766"/>
+      <pane ySplit="1" topLeftCell="A752" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q781" sqref="Q781"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -1615,7 +1618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13">
+    <row r="21" spans="1:15" ht="13.2">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="13">
+    <row r="22" spans="1:15" ht="13.2">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -1711,7 +1714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="13">
+    <row r="23" spans="1:15" ht="13.2">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13">
+    <row r="24" spans="1:15" ht="13.2">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -1807,7 +1810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13">
+    <row r="25" spans="1:15" ht="13.2">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -1855,7 +1858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13">
+    <row r="26" spans="1:15" ht="13.2">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -1903,7 +1906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="13">
+    <row r="27" spans="1:15" ht="13.2">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -1951,7 +1954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="13">
+    <row r="28" spans="1:15" ht="13.2">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -1999,7 +2002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="13">
+    <row r="29" spans="1:15" ht="13.2">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -2047,7 +2050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="13">
+    <row r="30" spans="1:15" ht="13.2">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -2083,7 +2086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="13">
+    <row r="31" spans="1:15" ht="13.2">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -2131,7 +2134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="13">
+    <row r="32" spans="1:15" ht="13.2">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -2179,7 +2182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="13">
+    <row r="33" spans="1:15" ht="13.2">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -2227,7 +2230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="13">
+    <row r="34" spans="1:15" ht="13.2">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -2275,7 +2278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="13">
+    <row r="35" spans="1:15" ht="13.2">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -2323,7 +2326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="13">
+    <row r="36" spans="1:15" ht="13.2">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -2371,7 +2374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="13">
+    <row r="37" spans="1:15" ht="13.2">
       <c r="A37">
         <v>2018</v>
       </c>
@@ -2419,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="13">
+    <row r="38" spans="1:15" ht="13.2">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -2467,7 +2470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="13">
+    <row r="39" spans="1:15" ht="13.2">
       <c r="A39">
         <v>2018</v>
       </c>
@@ -2515,7 +2518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13">
+    <row r="40" spans="1:15" ht="13.2">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -2551,7 +2554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="13">
+    <row r="41" spans="1:15" ht="13.2">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -2599,7 +2602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="13">
+    <row r="42" spans="1:15" ht="13.2">
       <c r="A42">
         <v>2018</v>
       </c>
@@ -2647,7 +2650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="13">
+    <row r="43" spans="1:15" ht="13.2">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -2695,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="13">
+    <row r="44" spans="1:15" ht="13.2">
       <c r="A44">
         <v>2018</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="13">
+    <row r="45" spans="1:15" ht="13.2">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -2791,7 +2794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="13">
+    <row r="46" spans="1:15" ht="13.2">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -2839,7 +2842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="13">
+    <row r="47" spans="1:15" ht="13.2">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -2887,7 +2890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13">
+    <row r="48" spans="1:15" ht="13.2">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="13">
+    <row r="49" spans="1:15" ht="13.2">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -2983,7 +2986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="13">
+    <row r="50" spans="1:15" ht="13.2">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -3031,7 +3034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="13">
+    <row r="51" spans="1:15" ht="13.2">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="13">
+    <row r="52" spans="1:15" ht="13.2">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -3124,7 +3127,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="13">
+    <row r="53" spans="1:15" ht="13.2">
       <c r="A53">
         <v>2018</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="13">
+    <row r="54" spans="1:15" ht="13.2">
       <c r="A54">
         <v>2018</v>
       </c>
@@ -3220,7 +3223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="13">
+    <row r="55" spans="1:15" ht="13.2">
       <c r="A55">
         <v>2018</v>
       </c>
@@ -3268,7 +3271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="13">
+    <row r="56" spans="1:15" ht="13.2">
       <c r="A56">
         <v>2018</v>
       </c>
@@ -3304,7 +3307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13">
+    <row r="57" spans="1:15" ht="13.2">
       <c r="A57">
         <v>2018</v>
       </c>
@@ -3352,7 +3355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="13">
+    <row r="58" spans="1:15" ht="13.2">
       <c r="A58">
         <v>2018</v>
       </c>
@@ -3400,7 +3403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="13">
+    <row r="59" spans="1:15" ht="13.2">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -3448,7 +3451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="13">
+    <row r="60" spans="1:15" ht="13.2">
       <c r="A60">
         <v>2018</v>
       </c>
@@ -3496,7 +3499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="13">
+    <row r="61" spans="1:15" ht="13.2">
       <c r="A61">
         <v>2018</v>
       </c>
@@ -3544,7 +3547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="13">
+    <row r="62" spans="1:15" ht="13.2">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -3589,7 +3592,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13">
+    <row r="63" spans="1:15" ht="13.2">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -3637,7 +3640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="13">
+    <row r="64" spans="1:15" ht="13.2">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -3685,7 +3688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="13">
+    <row r="65" spans="1:15" ht="13.2">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="13">
+    <row r="66" spans="1:15" ht="13.2">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3781,7 +3784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="13">
+    <row r="67" spans="1:15" ht="13.2">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -3829,7 +3832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="13">
+    <row r="68" spans="1:15" ht="13.2">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -3866,7 +3869,7 @@
       </c>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="13">
+    <row r="69" spans="1:15" ht="13.2">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -3914,7 +3917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="13">
+    <row r="70" spans="1:15" ht="13.2">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -3962,7 +3965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="13">
+    <row r="71" spans="1:15" ht="13.2">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -4010,7 +4013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="13">
+    <row r="72" spans="1:15" ht="13.2">
       <c r="A72">
         <v>2018</v>
       </c>
@@ -4046,7 +4049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="13">
+    <row r="73" spans="1:15" ht="13.2">
       <c r="A73">
         <v>2018</v>
       </c>
@@ -4094,7 +4097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="13">
+    <row r="74" spans="1:15" ht="13.2">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -4142,7 +4145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="13">
+    <row r="75" spans="1:15" ht="13.2">
       <c r="A75">
         <v>2018</v>
       </c>
@@ -4238,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="14">
+    <row r="77" spans="1:15" ht="13.2">
       <c r="A77">
         <v>2018</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="14">
+    <row r="84" spans="1:15" ht="13.2">
       <c r="A84">
         <v>2018</v>
       </c>
@@ -35142,7 +35145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:15" ht="15.75" customHeight="1">
+    <row r="753" spans="1:16" ht="15.75" customHeight="1">
       <c r="A753" s="6">
         <v>2023</v>
       </c>
@@ -35189,7 +35192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:15" ht="15.75" customHeight="1">
+    <row r="754" spans="1:16" ht="15.75" customHeight="1">
       <c r="A754" s="6">
         <v>2023</v>
       </c>
@@ -35236,7 +35239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:15" ht="15.75" customHeight="1">
+    <row r="755" spans="1:16" ht="15.75" customHeight="1">
       <c r="A755" s="6">
         <v>2023</v>
       </c>
@@ -35283,7 +35286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:15" ht="15.75" customHeight="1">
+    <row r="756" spans="1:16" ht="15.75" customHeight="1">
       <c r="A756" s="6">
         <v>2023</v>
       </c>
@@ -35330,7 +35333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:15" ht="15.75" customHeight="1">
+    <row r="757" spans="1:16" ht="15.75" customHeight="1">
       <c r="A757" s="6">
         <v>2023</v>
       </c>
@@ -35377,7 +35380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:15" ht="15.75" customHeight="1">
+    <row r="758" spans="1:16" ht="15.75" customHeight="1">
       <c r="A758" s="6">
         <v>2024</v>
       </c>
@@ -35424,7 +35427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="759" spans="1:15" ht="15.75" customHeight="1">
+    <row r="759" spans="1:16" ht="15.75" customHeight="1">
       <c r="A759" s="6">
         <v>2024</v>
       </c>
@@ -35471,7 +35474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="760" spans="1:15" ht="15.75" customHeight="1">
+    <row r="760" spans="1:16" ht="15.75" customHeight="1">
       <c r="A760" s="6">
         <v>2024</v>
       </c>
@@ -35518,7 +35521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="761" spans="1:15" ht="15.75" customHeight="1">
+    <row r="761" spans="1:16" ht="15.75" customHeight="1">
       <c r="A761" s="6">
         <v>2024</v>
       </c>
@@ -35564,8 +35567,9 @@
       <c r="O761" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="762" spans="1:15" ht="15.75" customHeight="1">
+      <c r="P761" s="6"/>
+    </row>
+    <row r="762" spans="1:16" ht="15.75" customHeight="1">
       <c r="A762" s="6">
         <v>2024</v>
       </c>
@@ -35611,8 +35615,9 @@
       <c r="O762" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="763" spans="1:15" ht="15.75" customHeight="1">
+      <c r="P762" s="6"/>
+    </row>
+    <row r="763" spans="1:16" ht="15.75" customHeight="1">
       <c r="A763" s="6">
         <v>2024</v>
       </c>
@@ -35658,321 +35663,1049 @@
       <c r="O763" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="764" spans="1:15" ht="15.75" customHeight="1">
-      <c r="C764" s="6"/>
-      <c r="D764" s="6"/>
-      <c r="E764" s="6"/>
-      <c r="F764" s="6"/>
-      <c r="G764" s="6"/>
-      <c r="H764" s="6"/>
-      <c r="I764" s="6"/>
-      <c r="J764" s="6"/>
-      <c r="K764" s="6"/>
-      <c r="L764" s="6"/>
-      <c r="M764" s="6"/>
-      <c r="N764" s="6"/>
-      <c r="O764" s="6"/>
-    </row>
-    <row r="765" spans="1:15" ht="15.75" customHeight="1">
-      <c r="C765" s="6"/>
-      <c r="D765" s="6"/>
-      <c r="E765" s="6"/>
-      <c r="F765" s="6"/>
-      <c r="G765" s="6"/>
-      <c r="H765" s="6"/>
-      <c r="I765" s="6"/>
-      <c r="J765" s="6"/>
-      <c r="K765" s="6"/>
-      <c r="L765" s="6"/>
-      <c r="M765" s="6"/>
-      <c r="N765" s="6"/>
-      <c r="O765" s="6"/>
-    </row>
-    <row r="766" spans="1:15" ht="15.75" customHeight="1">
-      <c r="C766" s="6"/>
-      <c r="D766" s="6"/>
-      <c r="E766" s="6"/>
-      <c r="F766" s="6"/>
-      <c r="G766" s="6"/>
-      <c r="H766" s="6"/>
-      <c r="I766" s="6"/>
-      <c r="J766" s="6"/>
-      <c r="K766" s="6"/>
-      <c r="L766" s="6"/>
-      <c r="M766" s="6"/>
-      <c r="N766" s="6"/>
-      <c r="O766" s="6"/>
-    </row>
-    <row r="767" spans="1:15" ht="15.75" customHeight="1">
-      <c r="C767" s="6"/>
-      <c r="D767" s="6"/>
-      <c r="E767" s="6"/>
-      <c r="F767" s="6"/>
-      <c r="G767" s="6"/>
-      <c r="H767" s="6"/>
-      <c r="I767" s="6"/>
-      <c r="J767" s="6"/>
-      <c r="K767" s="6"/>
-      <c r="L767" s="6"/>
-      <c r="M767" s="6"/>
-      <c r="N767" s="6"/>
-      <c r="O767" s="6"/>
-    </row>
-    <row r="768" spans="1:15" ht="15.75" customHeight="1">
-      <c r="C768" s="6"/>
-      <c r="D768" s="6"/>
-      <c r="E768" s="6"/>
-      <c r="F768" s="6"/>
-      <c r="G768" s="6"/>
-      <c r="H768" s="6"/>
-      <c r="I768" s="6"/>
-      <c r="J768" s="6"/>
-      <c r="K768" s="6"/>
-      <c r="L768" s="6"/>
-      <c r="M768" s="6"/>
-      <c r="N768" s="6"/>
-      <c r="O768" s="6"/>
-    </row>
-    <row r="769" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C769" s="6"/>
-      <c r="D769" s="6"/>
-      <c r="E769" s="6"/>
-      <c r="F769" s="6"/>
-      <c r="G769" s="6"/>
-      <c r="H769" s="6"/>
-      <c r="I769" s="6"/>
-      <c r="J769" s="6"/>
-      <c r="K769" s="6"/>
-      <c r="L769" s="6"/>
-      <c r="M769" s="6"/>
-      <c r="N769" s="6"/>
-      <c r="O769" s="6"/>
-    </row>
-    <row r="770" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C770" s="6"/>
-      <c r="D770" s="6"/>
-      <c r="E770" s="6"/>
-      <c r="F770" s="6"/>
-      <c r="G770" s="6"/>
-      <c r="H770" s="6"/>
-      <c r="I770" s="6"/>
-      <c r="J770" s="6"/>
-      <c r="K770" s="6"/>
-      <c r="L770" s="6"/>
-      <c r="M770" s="6"/>
-      <c r="N770" s="6"/>
-      <c r="O770" s="6"/>
-    </row>
-    <row r="771" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C771" s="6"/>
-      <c r="D771" s="6"/>
-      <c r="E771" s="6"/>
-      <c r="F771" s="6"/>
-      <c r="G771" s="6"/>
-      <c r="H771" s="6"/>
-      <c r="I771" s="6"/>
-      <c r="J771" s="6"/>
-      <c r="K771" s="6"/>
-      <c r="L771" s="6"/>
-      <c r="M771" s="6"/>
-      <c r="N771" s="6"/>
-      <c r="O771" s="6"/>
-    </row>
-    <row r="772" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C772" s="6"/>
-      <c r="D772" s="6"/>
-      <c r="E772" s="6"/>
-      <c r="F772" s="6"/>
-      <c r="G772" s="6"/>
-      <c r="H772" s="6"/>
-      <c r="I772" s="6"/>
-      <c r="J772" s="6"/>
-      <c r="K772" s="6"/>
-      <c r="L772" s="6"/>
-      <c r="M772" s="6"/>
-      <c r="N772" s="6"/>
-      <c r="O772" s="6"/>
-    </row>
-    <row r="773" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C773" s="6"/>
-      <c r="D773" s="6"/>
-      <c r="E773" s="6"/>
-      <c r="F773" s="6"/>
-      <c r="G773" s="6"/>
-      <c r="H773" s="6"/>
-      <c r="I773" s="6"/>
-      <c r="J773" s="6"/>
-      <c r="K773" s="6"/>
-      <c r="L773" s="6"/>
-      <c r="M773" s="6"/>
-      <c r="N773" s="6"/>
-      <c r="O773" s="6"/>
-    </row>
-    <row r="774" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C774" s="6"/>
-      <c r="D774" s="6"/>
-      <c r="E774" s="6"/>
-      <c r="F774" s="6"/>
-      <c r="G774" s="6"/>
-      <c r="H774" s="6"/>
-      <c r="I774" s="6"/>
-      <c r="J774" s="6"/>
-      <c r="K774" s="6"/>
-      <c r="L774" s="6"/>
-      <c r="M774" s="6"/>
-      <c r="N774" s="6"/>
-      <c r="O774" s="6"/>
-    </row>
-    <row r="775" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C775" s="6"/>
-      <c r="D775" s="6"/>
-      <c r="E775" s="6"/>
-      <c r="F775" s="6"/>
-      <c r="G775" s="6"/>
-      <c r="H775" s="6"/>
-      <c r="I775" s="6"/>
-      <c r="J775" s="6"/>
-      <c r="K775" s="6"/>
-      <c r="L775" s="6"/>
-      <c r="M775" s="6"/>
-      <c r="N775" s="6"/>
-      <c r="O775" s="6"/>
-    </row>
-    <row r="776" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C776" s="6"/>
-      <c r="D776" s="6"/>
-      <c r="E776" s="6"/>
-      <c r="F776" s="6"/>
-      <c r="G776" s="6"/>
-      <c r="H776" s="6"/>
-      <c r="I776" s="6"/>
-      <c r="J776" s="6"/>
-      <c r="K776" s="6"/>
-      <c r="L776" s="6"/>
-      <c r="M776" s="6"/>
-      <c r="N776" s="6"/>
-      <c r="O776" s="6"/>
-    </row>
-    <row r="777" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C777" s="6"/>
-      <c r="D777" s="6"/>
-      <c r="E777" s="6"/>
-      <c r="F777" s="6"/>
-      <c r="G777" s="6"/>
-      <c r="H777" s="6"/>
-      <c r="I777" s="6"/>
-      <c r="J777" s="6"/>
-      <c r="K777" s="6"/>
-      <c r="L777" s="6"/>
-      <c r="M777" s="6"/>
-      <c r="N777" s="6"/>
-      <c r="O777" s="6"/>
-    </row>
-    <row r="778" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C778" s="6"/>
-      <c r="D778" s="6"/>
-      <c r="E778" s="6"/>
-      <c r="F778" s="6"/>
-      <c r="G778" s="6"/>
-      <c r="H778" s="6"/>
-      <c r="I778" s="6"/>
-      <c r="J778" s="6"/>
-      <c r="K778" s="6"/>
-      <c r="L778" s="6"/>
-      <c r="M778" s="6"/>
-      <c r="N778" s="6"/>
-      <c r="O778" s="6"/>
-    </row>
-    <row r="779" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C779" s="6"/>
-      <c r="D779" s="6"/>
-      <c r="E779" s="6"/>
-      <c r="F779" s="6"/>
-      <c r="G779" s="6"/>
-      <c r="H779" s="6"/>
-      <c r="I779" s="6"/>
-      <c r="J779" s="6"/>
-      <c r="K779" s="6"/>
-      <c r="L779" s="6"/>
-      <c r="M779" s="6"/>
-      <c r="N779" s="6"/>
-      <c r="O779" s="6"/>
-    </row>
-    <row r="780" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C780" s="6"/>
-      <c r="D780" s="6"/>
-      <c r="E780" s="6"/>
-      <c r="F780" s="6"/>
-      <c r="G780" s="6"/>
-      <c r="H780" s="6"/>
-      <c r="I780" s="6"/>
-      <c r="J780" s="6"/>
-      <c r="K780" s="6"/>
-      <c r="L780" s="6"/>
-      <c r="M780" s="6"/>
-      <c r="N780" s="6"/>
-      <c r="O780" s="6"/>
-    </row>
-    <row r="781" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C781" s="6"/>
-      <c r="D781" s="6"/>
-      <c r="E781" s="6"/>
-      <c r="F781" s="6"/>
-      <c r="G781" s="6"/>
-      <c r="H781" s="6"/>
-      <c r="I781" s="6"/>
-      <c r="J781" s="6"/>
-      <c r="K781" s="6"/>
-      <c r="L781" s="6"/>
-      <c r="M781" s="6"/>
-      <c r="N781" s="6"/>
-      <c r="O781" s="6"/>
-    </row>
-    <row r="782" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C782" s="6"/>
-      <c r="D782" s="6"/>
-      <c r="E782" s="6"/>
-      <c r="F782" s="6"/>
-      <c r="G782" s="6"/>
-      <c r="H782" s="6"/>
-      <c r="I782" s="6"/>
-      <c r="J782" s="6"/>
-      <c r="K782" s="6"/>
-      <c r="L782" s="6"/>
-      <c r="M782" s="6"/>
-      <c r="N782" s="6"/>
-      <c r="O782" s="6"/>
-    </row>
-    <row r="783" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C783" s="6"/>
-      <c r="D783" s="6"/>
-      <c r="E783" s="6"/>
-      <c r="F783" s="6"/>
-      <c r="G783" s="6"/>
-      <c r="H783" s="6"/>
-      <c r="I783" s="6"/>
-      <c r="J783" s="6"/>
-      <c r="K783" s="6"/>
-      <c r="L783" s="6"/>
-      <c r="M783" s="6"/>
-      <c r="N783" s="6"/>
-      <c r="O783" s="6"/>
-    </row>
-    <row r="784" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C784" s="6"/>
-      <c r="D784" s="6"/>
-      <c r="E784" s="6"/>
-      <c r="F784" s="6"/>
-      <c r="G784" s="6"/>
-      <c r="H784" s="6"/>
-      <c r="I784" s="6"/>
-      <c r="J784" s="6"/>
-      <c r="K784" s="6"/>
-      <c r="L784" s="6"/>
-      <c r="M784" s="6"/>
-      <c r="N784" s="6"/>
-      <c r="O784" s="6"/>
+      <c r="P763" s="6"/>
+    </row>
+    <row r="764" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A764" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B764" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C764" s="6">
+        <v>2</v>
+      </c>
+      <c r="D764" s="6">
+        <v>1</v>
+      </c>
+      <c r="E764" s="6">
+        <v>4</v>
+      </c>
+      <c r="F764" s="6">
+        <v>1</v>
+      </c>
+      <c r="G764" s="6">
+        <v>0</v>
+      </c>
+      <c r="H764" s="6">
+        <v>1</v>
+      </c>
+      <c r="I764" s="6">
+        <v>9</v>
+      </c>
+      <c r="J764" s="6">
+        <v>5</v>
+      </c>
+      <c r="K764" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L764" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M764" s="6">
+        <v>32</v>
+      </c>
+      <c r="N764" s="6">
+        <v>168</v>
+      </c>
+      <c r="O764" s="6">
+        <v>2</v>
+      </c>
+      <c r="P764" s="6"/>
+    </row>
+    <row r="765" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A765" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B765" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C765" s="6">
+        <v>1</v>
+      </c>
+      <c r="D765" s="6">
+        <v>1</v>
+      </c>
+      <c r="E765" s="6">
+        <v>1</v>
+      </c>
+      <c r="F765" s="6">
+        <v>1</v>
+      </c>
+      <c r="G765" s="6">
+        <v>1</v>
+      </c>
+      <c r="H765" s="6">
+        <v>4</v>
+      </c>
+      <c r="I765" s="6">
+        <v>9</v>
+      </c>
+      <c r="J765" s="6">
+        <v>6</v>
+      </c>
+      <c r="K765" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L765" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M765" s="6">
+        <v>23</v>
+      </c>
+      <c r="N765" s="6">
+        <v>158</v>
+      </c>
+      <c r="O765" s="6">
+        <v>2</v>
+      </c>
+      <c r="P765" s="6"/>
+    </row>
+    <row r="766" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A766" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B766" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C766" s="6">
+        <v>4</v>
+      </c>
+      <c r="D766" s="6">
+        <v>1</v>
+      </c>
+      <c r="E766" s="6">
+        <v>2</v>
+      </c>
+      <c r="F766" s="6">
+        <v>1</v>
+      </c>
+      <c r="G766" s="6">
+        <v>2</v>
+      </c>
+      <c r="H766" s="6">
+        <v>0</v>
+      </c>
+      <c r="I766" s="6">
+        <v>10</v>
+      </c>
+      <c r="J766" s="6">
+        <v>5</v>
+      </c>
+      <c r="K766" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L766" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M766" s="6">
+        <v>24</v>
+      </c>
+      <c r="N766" s="6">
+        <v>174</v>
+      </c>
+      <c r="O766" s="6">
+        <v>2</v>
+      </c>
+      <c r="P766" s="6"/>
+    </row>
+    <row r="767" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A767" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B767" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C767" s="6">
+        <v>1</v>
+      </c>
+      <c r="D767" s="6">
+        <v>1</v>
+      </c>
+      <c r="E767" s="6">
+        <v>1</v>
+      </c>
+      <c r="F767" s="6">
+        <v>4</v>
+      </c>
+      <c r="G767" s="6">
+        <v>1</v>
+      </c>
+      <c r="H767" s="6">
+        <v>2</v>
+      </c>
+      <c r="I767" s="6">
+        <v>10</v>
+      </c>
+      <c r="J767" s="6">
+        <v>6</v>
+      </c>
+      <c r="K767" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L767" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M767" s="6">
+        <v>24</v>
+      </c>
+      <c r="N767" s="6">
+        <v>178</v>
+      </c>
+      <c r="O767" s="6">
+        <v>2</v>
+      </c>
+      <c r="P767" s="6"/>
+    </row>
+    <row r="768" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A768" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B768" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C768" s="6">
+        <v>3</v>
+      </c>
+      <c r="D768" s="6">
+        <v>2</v>
+      </c>
+      <c r="E768" s="6">
+        <v>1</v>
+      </c>
+      <c r="F768" s="6">
+        <v>1</v>
+      </c>
+      <c r="G768" s="6">
+        <v>0</v>
+      </c>
+      <c r="H768" s="6">
+        <v>2</v>
+      </c>
+      <c r="I768" s="6">
+        <v>9</v>
+      </c>
+      <c r="J768" s="6">
+        <v>5</v>
+      </c>
+      <c r="K768" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L768" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M768" s="6">
+        <v>27</v>
+      </c>
+      <c r="N768" s="6">
+        <v>185</v>
+      </c>
+      <c r="O768" s="6">
+        <v>2</v>
+      </c>
+      <c r="P768" s="6"/>
+    </row>
+    <row r="769" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A769" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B769" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C769" s="6">
+        <v>0</v>
+      </c>
+      <c r="D769" s="6">
+        <v>0</v>
+      </c>
+      <c r="E769" s="6">
+        <v>3</v>
+      </c>
+      <c r="F769" s="6">
+        <v>2</v>
+      </c>
+      <c r="G769" s="6">
+        <v>4</v>
+      </c>
+      <c r="H769" s="6">
+        <v>2</v>
+      </c>
+      <c r="I769" s="6">
+        <v>11</v>
+      </c>
+      <c r="J769" s="6">
+        <v>4</v>
+      </c>
+      <c r="K769" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L769" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M769" s="6">
+        <v>24</v>
+      </c>
+      <c r="N769" s="6">
+        <v>196</v>
+      </c>
+      <c r="O769" s="6">
+        <v>2</v>
+      </c>
+      <c r="P769" s="6"/>
+    </row>
+    <row r="770" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A770" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B770" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C770" s="6">
+        <v>3</v>
+      </c>
+      <c r="D770" s="6">
+        <v>3</v>
+      </c>
+      <c r="E770" s="6">
+        <v>0</v>
+      </c>
+      <c r="F770" s="6">
+        <v>2</v>
+      </c>
+      <c r="G770" s="6">
+        <v>1</v>
+      </c>
+      <c r="H770" s="6">
+        <v>0</v>
+      </c>
+      <c r="I770" s="6">
+        <v>9</v>
+      </c>
+      <c r="J770" s="6">
+        <v>4</v>
+      </c>
+      <c r="K770" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L770" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M770" s="6">
+        <v>22</v>
+      </c>
+      <c r="N770" s="6">
+        <v>176</v>
+      </c>
+      <c r="O770" s="6">
+        <v>2</v>
+      </c>
+      <c r="P770" s="6"/>
+    </row>
+    <row r="771" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A771" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B771" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C771" s="6">
+        <v>3</v>
+      </c>
+      <c r="D771" s="6">
+        <v>1</v>
+      </c>
+      <c r="E771" s="6">
+        <v>1</v>
+      </c>
+      <c r="F771" s="6">
+        <v>3</v>
+      </c>
+      <c r="G771" s="6">
+        <v>1</v>
+      </c>
+      <c r="H771" s="6">
+        <v>0</v>
+      </c>
+      <c r="I771" s="6">
+        <v>9</v>
+      </c>
+      <c r="J771" s="6">
+        <v>5</v>
+      </c>
+      <c r="K771" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L771" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M771" s="6">
+        <v>24</v>
+      </c>
+      <c r="N771" s="6">
+        <v>185</v>
+      </c>
+      <c r="O771" s="6">
+        <v>2</v>
+      </c>
+      <c r="P771" s="6"/>
+    </row>
+    <row r="772" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A772" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B772" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C772" s="6">
+        <v>4</v>
+      </c>
+      <c r="D772" s="6">
+        <v>0</v>
+      </c>
+      <c r="E772" s="6">
+        <v>2</v>
+      </c>
+      <c r="F772" s="6">
+        <v>0</v>
+      </c>
+      <c r="G772" s="6">
+        <v>1</v>
+      </c>
+      <c r="H772" s="6">
+        <v>2</v>
+      </c>
+      <c r="I772" s="6">
+        <v>9</v>
+      </c>
+      <c r="J772" s="6">
+        <v>4</v>
+      </c>
+      <c r="K772" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L772" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M772" s="6">
+        <v>24</v>
+      </c>
+      <c r="N772" s="6">
+        <v>181</v>
+      </c>
+      <c r="O772" s="6">
+        <v>2</v>
+      </c>
+      <c r="P772" s="6"/>
+    </row>
+    <row r="773" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A773" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B773" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C773" s="6">
+        <v>3</v>
+      </c>
+      <c r="D773" s="6">
+        <v>3</v>
+      </c>
+      <c r="E773" s="6">
+        <v>2</v>
+      </c>
+      <c r="F773" s="6">
+        <v>1</v>
+      </c>
+      <c r="G773" s="6">
+        <v>2</v>
+      </c>
+      <c r="H773" s="6">
+        <v>0</v>
+      </c>
+      <c r="I773" s="6">
+        <v>11</v>
+      </c>
+      <c r="J773" s="6">
+        <v>5</v>
+      </c>
+      <c r="K773" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L773" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M773" s="6">
+        <v>24</v>
+      </c>
+      <c r="N773" s="6">
+        <v>178</v>
+      </c>
+      <c r="O773" s="6">
+        <v>2</v>
+      </c>
+      <c r="P773" s="6"/>
+    </row>
+    <row r="774" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A774" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B774" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C774" s="6">
+        <v>1</v>
+      </c>
+      <c r="D774" s="6">
+        <v>2</v>
+      </c>
+      <c r="E774" s="6">
+        <v>0</v>
+      </c>
+      <c r="F774" s="6">
+        <v>2</v>
+      </c>
+      <c r="G774" s="6">
+        <v>3</v>
+      </c>
+      <c r="H774" s="6">
+        <v>2</v>
+      </c>
+      <c r="I774" s="6">
+        <v>10</v>
+      </c>
+      <c r="J774" s="6">
+        <v>6</v>
+      </c>
+      <c r="K774" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L774" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M774" s="6">
+        <v>26</v>
+      </c>
+      <c r="N774" s="6">
+        <v>192</v>
+      </c>
+      <c r="O774" s="6">
+        <v>2</v>
+      </c>
+      <c r="P774" s="6"/>
+    </row>
+    <row r="775" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A775" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B775" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C775" s="6">
+        <v>2</v>
+      </c>
+      <c r="D775" s="6">
+        <v>3</v>
+      </c>
+      <c r="E775" s="6">
+        <v>2</v>
+      </c>
+      <c r="F775" s="6">
+        <v>2</v>
+      </c>
+      <c r="G775" s="6">
+        <v>2</v>
+      </c>
+      <c r="H775" s="6">
+        <v>1</v>
+      </c>
+      <c r="I775" s="6">
+        <v>12</v>
+      </c>
+      <c r="J775" s="6">
+        <v>6</v>
+      </c>
+      <c r="K775" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L775" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M775" s="6">
+        <v>24</v>
+      </c>
+      <c r="N775" s="6">
+        <v>195</v>
+      </c>
+      <c r="O775" s="6">
+        <v>2</v>
+      </c>
+      <c r="P775" s="6"/>
+    </row>
+    <row r="776" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A776" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B776" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C776" s="6">
+        <v>3</v>
+      </c>
+      <c r="D776" s="6">
+        <v>0</v>
+      </c>
+      <c r="E776" s="6">
+        <v>0</v>
+      </c>
+      <c r="F776" s="6">
+        <v>3</v>
+      </c>
+      <c r="G776" s="6">
+        <v>1</v>
+      </c>
+      <c r="H776" s="6">
+        <v>1</v>
+      </c>
+      <c r="I776" s="6">
+        <v>8</v>
+      </c>
+      <c r="J776" s="6">
+        <v>4</v>
+      </c>
+      <c r="K776" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L776" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M776" s="6">
+        <v>21</v>
+      </c>
+      <c r="N776" s="6">
+        <v>180</v>
+      </c>
+      <c r="O776" s="6">
+        <v>2</v>
+      </c>
+      <c r="P776" s="6"/>
+    </row>
+    <row r="777" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A777" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B777" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C777" s="6">
+        <v>4</v>
+      </c>
+      <c r="D777" s="6">
+        <v>1</v>
+      </c>
+      <c r="E777" s="6">
+        <v>0</v>
+      </c>
+      <c r="F777" s="6">
+        <v>2</v>
+      </c>
+      <c r="G777" s="6">
+        <v>1</v>
+      </c>
+      <c r="H777" s="6">
+        <v>2</v>
+      </c>
+      <c r="I777" s="6">
+        <v>10</v>
+      </c>
+      <c r="J777" s="6">
+        <v>5</v>
+      </c>
+      <c r="K777" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L777" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M777" s="6">
+        <v>24</v>
+      </c>
+      <c r="N777" s="6">
+        <v>183</v>
+      </c>
+      <c r="O777" s="6">
+        <v>2</v>
+      </c>
+      <c r="P777" s="6"/>
+    </row>
+    <row r="778" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A778" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B778" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C778" s="6">
+        <v>1</v>
+      </c>
+      <c r="D778" s="6">
+        <v>2</v>
+      </c>
+      <c r="E778" s="6">
+        <v>1</v>
+      </c>
+      <c r="F778" s="6">
+        <v>1</v>
+      </c>
+      <c r="G778" s="6">
+        <v>2</v>
+      </c>
+      <c r="H778" s="6">
+        <v>2</v>
+      </c>
+      <c r="I778" s="6">
+        <v>9</v>
+      </c>
+      <c r="J778" s="6">
+        <v>6</v>
+      </c>
+      <c r="K778" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L778" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M778" s="6">
+        <v>28</v>
+      </c>
+      <c r="N778" s="6">
+        <v>189</v>
+      </c>
+      <c r="O778" s="6">
+        <v>2</v>
+      </c>
+      <c r="P778" s="6"/>
+    </row>
+    <row r="779" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A779" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B779" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C779" s="6">
+        <v>0</v>
+      </c>
+      <c r="D779" s="6">
+        <v>4</v>
+      </c>
+      <c r="E779" s="6">
+        <v>0</v>
+      </c>
+      <c r="F779" s="6">
+        <v>1</v>
+      </c>
+      <c r="G779" s="6">
+        <v>3</v>
+      </c>
+      <c r="H779" s="6">
+        <v>1</v>
+      </c>
+      <c r="I779" s="6">
+        <v>9</v>
+      </c>
+      <c r="J779" s="6">
+        <v>4</v>
+      </c>
+      <c r="K779" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L779" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M779" s="6">
+        <v>24</v>
+      </c>
+      <c r="N779" s="6">
+        <v>193</v>
+      </c>
+      <c r="O779" s="6">
+        <v>2</v>
+      </c>
+      <c r="P779" s="6"/>
+    </row>
+    <row r="780" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A780" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B780" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C780" s="6">
+        <v>1</v>
+      </c>
+      <c r="D780" s="6">
+        <v>1</v>
+      </c>
+      <c r="E780" s="6">
+        <v>2</v>
+      </c>
+      <c r="F780" s="6">
+        <v>4</v>
+      </c>
+      <c r="G780" s="6">
+        <v>1</v>
+      </c>
+      <c r="H780" s="6">
+        <v>0</v>
+      </c>
+      <c r="I780" s="6">
+        <v>9</v>
+      </c>
+      <c r="J780" s="6">
+        <v>5</v>
+      </c>
+      <c r="K780" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L780" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M780" s="6">
+        <v>27</v>
+      </c>
+      <c r="N780" s="6">
+        <v>189</v>
+      </c>
+      <c r="O780" s="6">
+        <v>2</v>
+      </c>
+      <c r="P780" s="6"/>
+    </row>
+    <row r="781" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A781" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B781" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C781" s="6">
+        <v>1</v>
+      </c>
+      <c r="D781" s="6">
+        <v>1</v>
+      </c>
+      <c r="E781" s="6">
+        <v>2</v>
+      </c>
+      <c r="F781" s="6">
+        <v>1</v>
+      </c>
+      <c r="G781" s="6">
+        <v>3</v>
+      </c>
+      <c r="H781" s="6">
+        <v>3</v>
+      </c>
+      <c r="I781" s="6">
+        <v>11</v>
+      </c>
+      <c r="J781" s="6">
+        <v>6</v>
+      </c>
+      <c r="K781" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L781" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M781" s="6">
+        <v>24</v>
+      </c>
+      <c r="N781" s="6">
+        <v>187</v>
+      </c>
+      <c r="O781" s="6">
+        <v>2</v>
+      </c>
+      <c r="P781" s="6"/>
+    </row>
+    <row r="782" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A782" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B782" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C782" s="6">
+        <v>0</v>
+      </c>
+      <c r="D782" s="6">
+        <v>3</v>
+      </c>
+      <c r="E782" s="6">
+        <v>2</v>
+      </c>
+      <c r="F782" s="6">
+        <v>3</v>
+      </c>
+      <c r="G782" s="6">
+        <v>2</v>
+      </c>
+      <c r="H782" s="6">
+        <v>0</v>
+      </c>
+      <c r="I782" s="6">
+        <v>10</v>
+      </c>
+      <c r="J782" s="6">
+        <v>4</v>
+      </c>
+      <c r="K782" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L782" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M782" s="6">
+        <v>24</v>
+      </c>
+      <c r="N782" s="6">
+        <v>182</v>
+      </c>
+      <c r="O782" s="6">
+        <v>2</v>
+      </c>
+      <c r="P782" s="6"/>
+    </row>
+    <row r="783" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A783" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B783" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C783" s="6">
+        <v>2</v>
+      </c>
+      <c r="D783" s="6">
+        <v>0</v>
+      </c>
+      <c r="E783" s="6">
+        <v>1</v>
+      </c>
+      <c r="F783" s="6">
+        <v>4</v>
+      </c>
+      <c r="G783" s="6">
+        <v>2</v>
+      </c>
+      <c r="H783" s="6">
+        <v>0</v>
+      </c>
+      <c r="I783" s="6">
+        <v>9</v>
+      </c>
+      <c r="J783" s="6">
+        <v>4</v>
+      </c>
+      <c r="K783" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L783" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M783" s="6">
+        <v>23</v>
+      </c>
+      <c r="N783" s="6">
+        <v>170</v>
+      </c>
+      <c r="O783" s="6">
+        <v>2</v>
+      </c>
+      <c r="P783" s="6"/>
+    </row>
+    <row r="784" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A784" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B784" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C784" s="6">
+        <v>2</v>
+      </c>
+      <c r="D784" s="6">
+        <v>3</v>
+      </c>
+      <c r="E784" s="6">
+        <v>2</v>
+      </c>
+      <c r="F784" s="6">
+        <v>1</v>
+      </c>
+      <c r="G784" s="6">
+        <v>1</v>
+      </c>
+      <c r="H784" s="6">
+        <v>1</v>
+      </c>
+      <c r="I784" s="6">
+        <v>10</v>
+      </c>
+      <c r="J784" s="6">
+        <v>6</v>
+      </c>
+      <c r="K784" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L784" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M784" s="6">
+        <v>24</v>
+      </c>
+      <c r="N784" s="6">
+        <v>180</v>
+      </c>
+      <c r="O784" s="6">
+        <v>2</v>
+      </c>
+      <c r="P784" s="6"/>
+    </row>
+    <row r="785" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B785" s="6"/>
+      <c r="C785" s="6"/>
+      <c r="D785" s="6"/>
+      <c r="E785" s="6"/>
+      <c r="F785" s="6"/>
+      <c r="G785" s="6"/>
+      <c r="H785" s="6"/>
+      <c r="I785" s="6"/>
+      <c r="J785" s="6"/>
+      <c r="K785" s="6"/>
+      <c r="L785" s="6"/>
+      <c r="M785" s="6"/>
+      <c r="N785" s="6"/>
+      <c r="O785" s="6"/>
+      <c r="P785" s="6"/>
+    </row>
+    <row r="786" spans="2:16" ht="15.75" customHeight="1">
+      <c r="B786" s="6"/>
+      <c r="C786" s="6"/>
+      <c r="D786" s="6"/>
+      <c r="E786" s="6"/>
+      <c r="F786" s="6"/>
+      <c r="G786" s="6"/>
+      <c r="H786" s="6"/>
+      <c r="I786" s="6"/>
+      <c r="J786" s="6"/>
+      <c r="K786" s="6"/>
+      <c r="L786" s="6"/>
+      <c r="M786" s="6"/>
+      <c r="N786" s="6"/>
+      <c r="O786" s="6"/>
+      <c r="P786" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\jkruppa.github.io\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A121BE5-6F51-4E5E-AFC1-7304AD7C98F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9443CCB-D248-1A4D-825A-5802AAB97D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="32320" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="29">
   <si>
     <t>m</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>PhD Osnabrück</t>
-  </si>
-  <si>
-    <t>hellrot</t>
   </si>
 </sst>
 </file>
@@ -644,27 +641,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q786"/>
+  <dimension ref="A1:Q813"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A752" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q781" sqref="Q781"/>
+      <pane ySplit="1" topLeftCell="A783" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I805" sqref="I805"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -1618,7 +1615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13.2">
+    <row r="21" spans="1:15" ht="13">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -1666,7 +1663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="13.2">
+    <row r="22" spans="1:15" ht="13">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -1714,7 +1711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="13.2">
+    <row r="23" spans="1:15" ht="13">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -1762,7 +1759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13.2">
+    <row r="24" spans="1:15" ht="13">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -1810,7 +1807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13.2">
+    <row r="25" spans="1:15" ht="13">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -1858,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13.2">
+    <row r="26" spans="1:15" ht="13">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -1906,7 +1903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="13.2">
+    <row r="27" spans="1:15" ht="13">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -1954,7 +1951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="13.2">
+    <row r="28" spans="1:15" ht="13">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -2002,7 +1999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="13.2">
+    <row r="29" spans="1:15" ht="13">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -2050,7 +2047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="13.2">
+    <row r="30" spans="1:15" ht="13">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -2086,7 +2083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="13.2">
+    <row r="31" spans="1:15" ht="13">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -2134,7 +2131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="13.2">
+    <row r="32" spans="1:15" ht="13">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -2182,7 +2179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="13.2">
+    <row r="33" spans="1:15" ht="13">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -2230,7 +2227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="13.2">
+    <row r="34" spans="1:15" ht="13">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -2278,7 +2275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="13.2">
+    <row r="35" spans="1:15" ht="13">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -2326,7 +2323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="13.2">
+    <row r="36" spans="1:15" ht="13">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -2374,7 +2371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="13.2">
+    <row r="37" spans="1:15" ht="13">
       <c r="A37">
         <v>2018</v>
       </c>
@@ -2422,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="13.2">
+    <row r="38" spans="1:15" ht="13">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -2470,7 +2467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="13.2">
+    <row r="39" spans="1:15" ht="13">
       <c r="A39">
         <v>2018</v>
       </c>
@@ -2518,7 +2515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13.2">
+    <row r="40" spans="1:15" ht="13">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -2554,7 +2551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="13.2">
+    <row r="41" spans="1:15" ht="13">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -2602,7 +2599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="13.2">
+    <row r="42" spans="1:15" ht="13">
       <c r="A42">
         <v>2018</v>
       </c>
@@ -2650,7 +2647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="13.2">
+    <row r="43" spans="1:15" ht="13">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -2698,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="13.2">
+    <row r="44" spans="1:15" ht="13">
       <c r="A44">
         <v>2018</v>
       </c>
@@ -2746,7 +2743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="13.2">
+    <row r="45" spans="1:15" ht="13">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -2794,7 +2791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="13.2">
+    <row r="46" spans="1:15" ht="13">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -2842,7 +2839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="13.2">
+    <row r="47" spans="1:15" ht="13">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -2890,7 +2887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13.2">
+    <row r="48" spans="1:15" ht="13">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -2938,7 +2935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="13.2">
+    <row r="49" spans="1:15" ht="13">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -2986,7 +2983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="13.2">
+    <row r="50" spans="1:15" ht="13">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -3034,7 +3031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="13.2">
+    <row r="51" spans="1:15" ht="13">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -3082,7 +3079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="13.2">
+    <row r="52" spans="1:15" ht="13">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -3127,7 +3124,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="13.2">
+    <row r="53" spans="1:15" ht="13">
       <c r="A53">
         <v>2018</v>
       </c>
@@ -3175,7 +3172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="13.2">
+    <row r="54" spans="1:15" ht="13">
       <c r="A54">
         <v>2018</v>
       </c>
@@ -3223,7 +3220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="13.2">
+    <row r="55" spans="1:15" ht="13">
       <c r="A55">
         <v>2018</v>
       </c>
@@ -3271,7 +3268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="13.2">
+    <row r="56" spans="1:15" ht="13">
       <c r="A56">
         <v>2018</v>
       </c>
@@ -3307,7 +3304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13.2">
+    <row r="57" spans="1:15" ht="13">
       <c r="A57">
         <v>2018</v>
       </c>
@@ -3355,7 +3352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="13.2">
+    <row r="58" spans="1:15" ht="13">
       <c r="A58">
         <v>2018</v>
       </c>
@@ -3403,7 +3400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="13.2">
+    <row r="59" spans="1:15" ht="13">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -3451,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="13.2">
+    <row r="60" spans="1:15" ht="13">
       <c r="A60">
         <v>2018</v>
       </c>
@@ -3499,7 +3496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="13.2">
+    <row r="61" spans="1:15" ht="13">
       <c r="A61">
         <v>2018</v>
       </c>
@@ -3547,7 +3544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="13.2">
+    <row r="62" spans="1:15" ht="13">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -3592,7 +3589,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13.2">
+    <row r="63" spans="1:15" ht="13">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -3640,7 +3637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="13.2">
+    <row r="64" spans="1:15" ht="13">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -3688,7 +3685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="13.2">
+    <row r="65" spans="1:15" ht="13">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -3736,7 +3733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="13.2">
+    <row r="66" spans="1:15" ht="13">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3784,7 +3781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="13.2">
+    <row r="67" spans="1:15" ht="13">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -3832,7 +3829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="13.2">
+    <row r="68" spans="1:15" ht="13">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -3869,7 +3866,7 @@
       </c>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="13.2">
+    <row r="69" spans="1:15" ht="13">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -3917,7 +3914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="13.2">
+    <row r="70" spans="1:15" ht="13">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -3965,7 +3962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="13.2">
+    <row r="71" spans="1:15" ht="13">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -4013,7 +4010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="13.2">
+    <row r="72" spans="1:15" ht="13">
       <c r="A72">
         <v>2018</v>
       </c>
@@ -4049,7 +4046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="13.2">
+    <row r="73" spans="1:15" ht="13">
       <c r="A73">
         <v>2018</v>
       </c>
@@ -4097,7 +4094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="13.2">
+    <row r="74" spans="1:15" ht="13">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -4145,7 +4142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="13.2">
+    <row r="75" spans="1:15" ht="13">
       <c r="A75">
         <v>2018</v>
       </c>
@@ -4241,7 +4238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="13.2">
+    <row r="77" spans="1:15" ht="14">
       <c r="A77">
         <v>2018</v>
       </c>
@@ -4577,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="13.2">
+    <row r="84" spans="1:15" ht="14">
       <c r="A84">
         <v>2018</v>
       </c>
@@ -36129,7 +36126,7 @@
         <v>5</v>
       </c>
       <c r="K773" s="6" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L773" s="6" t="s">
         <v>0</v>
@@ -36673,39 +36670,1370 @@
       </c>
       <c r="P784" s="6"/>
     </row>
-    <row r="785" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B785" s="6"/>
-      <c r="C785" s="6"/>
-      <c r="D785" s="6"/>
-      <c r="E785" s="6"/>
-      <c r="F785" s="6"/>
-      <c r="G785" s="6"/>
-      <c r="H785" s="6"/>
-      <c r="I785" s="6"/>
-      <c r="J785" s="6"/>
-      <c r="K785" s="6"/>
-      <c r="L785" s="6"/>
-      <c r="M785" s="6"/>
-      <c r="N785" s="6"/>
-      <c r="O785" s="6"/>
+    <row r="785" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A785" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B785" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C785" s="6">
+        <v>0</v>
+      </c>
+      <c r="D785" s="6">
+        <v>0</v>
+      </c>
+      <c r="E785" s="6">
+        <v>3</v>
+      </c>
+      <c r="F785" s="6">
+        <v>1</v>
+      </c>
+      <c r="G785" s="6">
+        <v>1</v>
+      </c>
+      <c r="H785" s="6">
+        <v>4</v>
+      </c>
+      <c r="I785" s="6">
+        <v>9</v>
+      </c>
+      <c r="J785" s="6">
+        <v>4</v>
+      </c>
+      <c r="K785" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L785" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M785" s="6">
+        <v>23</v>
+      </c>
+      <c r="N785" s="6">
+        <v>186</v>
+      </c>
+      <c r="O785" s="6">
+        <v>1</v>
+      </c>
       <c r="P785" s="6"/>
     </row>
-    <row r="786" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B786" s="6"/>
-      <c r="C786" s="6"/>
-      <c r="D786" s="6"/>
-      <c r="E786" s="6"/>
-      <c r="F786" s="6"/>
-      <c r="G786" s="6"/>
-      <c r="H786" s="6"/>
-      <c r="I786" s="6"/>
-      <c r="J786" s="6"/>
-      <c r="K786" s="6"/>
-      <c r="L786" s="6"/>
-      <c r="M786" s="6"/>
-      <c r="N786" s="6"/>
-      <c r="O786" s="6"/>
+    <row r="786" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A786" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B786" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C786" s="6">
+        <v>1</v>
+      </c>
+      <c r="D786" s="6">
+        <v>3</v>
+      </c>
+      <c r="E786" s="6">
+        <v>1</v>
+      </c>
+      <c r="F786" s="6">
+        <v>2</v>
+      </c>
+      <c r="G786" s="6">
+        <v>2</v>
+      </c>
+      <c r="H786" s="6">
+        <v>1</v>
+      </c>
+      <c r="I786" s="6">
+        <v>10</v>
+      </c>
+      <c r="J786" s="6">
+        <v>6</v>
+      </c>
+      <c r="K786" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L786" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M786" s="6">
+        <v>21</v>
+      </c>
+      <c r="N786" s="6">
+        <v>187</v>
+      </c>
+      <c r="O786" s="6">
+        <v>1</v>
+      </c>
       <c r="P786" s="6"/>
+    </row>
+    <row r="787" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A787" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B787" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C787">
+        <v>0</v>
+      </c>
+      <c r="D787">
+        <v>2</v>
+      </c>
+      <c r="E787">
+        <v>2</v>
+      </c>
+      <c r="F787">
+        <v>4</v>
+      </c>
+      <c r="G787">
+        <v>0</v>
+      </c>
+      <c r="H787">
+        <v>1</v>
+      </c>
+      <c r="I787">
+        <v>9</v>
+      </c>
+      <c r="J787">
+        <v>4</v>
+      </c>
+      <c r="K787" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L787" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M787">
+        <v>19</v>
+      </c>
+      <c r="N787">
+        <v>185</v>
+      </c>
+      <c r="O787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A788" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B788" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C788">
+        <v>5</v>
+      </c>
+      <c r="D788">
+        <v>0</v>
+      </c>
+      <c r="E788">
+        <v>1</v>
+      </c>
+      <c r="F788">
+        <v>2</v>
+      </c>
+      <c r="G788">
+        <v>1</v>
+      </c>
+      <c r="H788">
+        <v>1</v>
+      </c>
+      <c r="I788">
+        <v>10</v>
+      </c>
+      <c r="J788">
+        <v>5</v>
+      </c>
+      <c r="K788" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L788" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M788">
+        <v>24</v>
+      </c>
+      <c r="N788">
+        <v>182</v>
+      </c>
+      <c r="O788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A789" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B789" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C789">
+        <v>0</v>
+      </c>
+      <c r="D789">
+        <v>1</v>
+      </c>
+      <c r="E789">
+        <v>1</v>
+      </c>
+      <c r="F789">
+        <v>1</v>
+      </c>
+      <c r="G789">
+        <v>5</v>
+      </c>
+      <c r="H789">
+        <v>1</v>
+      </c>
+      <c r="I789">
+        <v>9</v>
+      </c>
+      <c r="J789">
+        <v>5</v>
+      </c>
+      <c r="K789" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L789" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M789">
+        <v>22</v>
+      </c>
+      <c r="N789">
+        <v>184</v>
+      </c>
+      <c r="O789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A790" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B790" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C790">
+        <v>3</v>
+      </c>
+      <c r="D790">
+        <v>0</v>
+      </c>
+      <c r="E790">
+        <v>2</v>
+      </c>
+      <c r="F790">
+        <v>1</v>
+      </c>
+      <c r="G790">
+        <v>3</v>
+      </c>
+      <c r="H790">
+        <v>1</v>
+      </c>
+      <c r="I790">
+        <v>10</v>
+      </c>
+      <c r="J790">
+        <v>5</v>
+      </c>
+      <c r="K790" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L790" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M790">
+        <v>18</v>
+      </c>
+      <c r="N790">
+        <v>189</v>
+      </c>
+      <c r="O790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A791" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B791" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C791">
+        <v>2</v>
+      </c>
+      <c r="D791">
+        <v>2</v>
+      </c>
+      <c r="E791">
+        <v>0</v>
+      </c>
+      <c r="F791">
+        <v>2</v>
+      </c>
+      <c r="G791">
+        <v>2</v>
+      </c>
+      <c r="H791">
+        <v>2</v>
+      </c>
+      <c r="I791">
+        <v>10</v>
+      </c>
+      <c r="J791">
+        <v>5</v>
+      </c>
+      <c r="K791" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L791" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M791">
+        <v>26</v>
+      </c>
+      <c r="N791">
+        <v>186</v>
+      </c>
+      <c r="O791">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A792" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B792" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C792">
+        <v>1</v>
+      </c>
+      <c r="D792">
+        <v>2</v>
+      </c>
+      <c r="E792">
+        <v>3</v>
+      </c>
+      <c r="F792">
+        <v>1</v>
+      </c>
+      <c r="G792">
+        <v>2</v>
+      </c>
+      <c r="H792">
+        <v>0</v>
+      </c>
+      <c r="I792">
+        <v>9</v>
+      </c>
+      <c r="J792">
+        <v>5</v>
+      </c>
+      <c r="K792" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L792" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M792">
+        <v>24</v>
+      </c>
+      <c r="N792">
+        <v>190</v>
+      </c>
+      <c r="O792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A793" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B793" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C793">
+        <v>2</v>
+      </c>
+      <c r="D793">
+        <v>2</v>
+      </c>
+      <c r="E793">
+        <v>2</v>
+      </c>
+      <c r="F793">
+        <v>2</v>
+      </c>
+      <c r="G793">
+        <v>3</v>
+      </c>
+      <c r="H793">
+        <v>0</v>
+      </c>
+      <c r="I793">
+        <v>11</v>
+      </c>
+      <c r="J793">
+        <v>5</v>
+      </c>
+      <c r="K793" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L793" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M793">
+        <v>20</v>
+      </c>
+      <c r="N793">
+        <v>195</v>
+      </c>
+      <c r="O793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A794" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B794" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C794">
+        <v>2</v>
+      </c>
+      <c r="D794">
+        <v>2</v>
+      </c>
+      <c r="E794">
+        <v>1</v>
+      </c>
+      <c r="F794">
+        <v>2</v>
+      </c>
+      <c r="G794">
+        <v>1</v>
+      </c>
+      <c r="H794">
+        <v>2</v>
+      </c>
+      <c r="I794">
+        <v>10</v>
+      </c>
+      <c r="J794">
+        <v>6</v>
+      </c>
+      <c r="K794" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L794" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M794">
+        <v>20</v>
+      </c>
+      <c r="N794">
+        <v>178</v>
+      </c>
+      <c r="O794">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A795" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B795" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C795">
+        <v>1</v>
+      </c>
+      <c r="D795">
+        <v>2</v>
+      </c>
+      <c r="E795">
+        <v>0</v>
+      </c>
+      <c r="F795">
+        <v>3</v>
+      </c>
+      <c r="G795">
+        <v>2</v>
+      </c>
+      <c r="H795">
+        <v>1</v>
+      </c>
+      <c r="I795">
+        <v>9</v>
+      </c>
+      <c r="J795">
+        <v>5</v>
+      </c>
+      <c r="K795" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L795" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M795">
+        <v>20</v>
+      </c>
+      <c r="N795">
+        <v>175</v>
+      </c>
+      <c r="O795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A796" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B796" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C796">
+        <v>0</v>
+      </c>
+      <c r="D796">
+        <v>2</v>
+      </c>
+      <c r="E796">
+        <v>1</v>
+      </c>
+      <c r="F796">
+        <v>1</v>
+      </c>
+      <c r="G796">
+        <v>1</v>
+      </c>
+      <c r="H796">
+        <v>2</v>
+      </c>
+      <c r="I796">
+        <v>10</v>
+      </c>
+      <c r="J796">
+        <v>6</v>
+      </c>
+      <c r="K796" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L796" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M796">
+        <v>19</v>
+      </c>
+      <c r="N796">
+        <v>182</v>
+      </c>
+      <c r="O796">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A797" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B797" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C797">
+        <v>1</v>
+      </c>
+      <c r="D797">
+        <v>0</v>
+      </c>
+      <c r="E797">
+        <v>1</v>
+      </c>
+      <c r="F797">
+        <v>4</v>
+      </c>
+      <c r="G797">
+        <v>3</v>
+      </c>
+      <c r="H797">
+        <v>0</v>
+      </c>
+      <c r="I797">
+        <v>9</v>
+      </c>
+      <c r="J797">
+        <v>4</v>
+      </c>
+      <c r="K797" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L797" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M797">
+        <v>20</v>
+      </c>
+      <c r="N797">
+        <v>180</v>
+      </c>
+      <c r="O797">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A798" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B798" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C798">
+        <v>0</v>
+      </c>
+      <c r="D798">
+        <v>4</v>
+      </c>
+      <c r="E798">
+        <v>1</v>
+      </c>
+      <c r="F798">
+        <v>1</v>
+      </c>
+      <c r="G798">
+        <v>3</v>
+      </c>
+      <c r="H798">
+        <v>2</v>
+      </c>
+      <c r="I798">
+        <v>11</v>
+      </c>
+      <c r="J798">
+        <v>5</v>
+      </c>
+      <c r="K798" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L798" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M798">
+        <v>22</v>
+      </c>
+      <c r="N798">
+        <v>168</v>
+      </c>
+      <c r="O798">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A799" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B799" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C799">
+        <v>1</v>
+      </c>
+      <c r="D799">
+        <v>2</v>
+      </c>
+      <c r="E799">
+        <v>1</v>
+      </c>
+      <c r="F799">
+        <v>1</v>
+      </c>
+      <c r="G799">
+        <v>1</v>
+      </c>
+      <c r="H799">
+        <v>4</v>
+      </c>
+      <c r="I799">
+        <v>10</v>
+      </c>
+      <c r="J799">
+        <v>6</v>
+      </c>
+      <c r="K799" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L799" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M799">
+        <v>21</v>
+      </c>
+      <c r="N799">
+        <v>186</v>
+      </c>
+      <c r="O799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A800" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B800" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C800">
+        <v>1</v>
+      </c>
+      <c r="D800">
+        <v>6</v>
+      </c>
+      <c r="E800">
+        <v>1</v>
+      </c>
+      <c r="F800">
+        <v>1</v>
+      </c>
+      <c r="G800">
+        <v>0</v>
+      </c>
+      <c r="H800">
+        <v>1</v>
+      </c>
+      <c r="I800">
+        <v>10</v>
+      </c>
+      <c r="J800">
+        <v>5</v>
+      </c>
+      <c r="K800" t="s">
+        <v>2</v>
+      </c>
+      <c r="L800" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M800">
+        <v>22</v>
+      </c>
+      <c r="N800">
+        <v>181</v>
+      </c>
+      <c r="O800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A801" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B801" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C801">
+        <v>2</v>
+      </c>
+      <c r="D801">
+        <v>1</v>
+      </c>
+      <c r="E801">
+        <v>1</v>
+      </c>
+      <c r="F801">
+        <v>1</v>
+      </c>
+      <c r="G801">
+        <v>5</v>
+      </c>
+      <c r="H801">
+        <v>2</v>
+      </c>
+      <c r="I801">
+        <v>12</v>
+      </c>
+      <c r="J801">
+        <v>6</v>
+      </c>
+      <c r="K801" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L801" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M801">
+        <v>19</v>
+      </c>
+      <c r="N801">
+        <v>169</v>
+      </c>
+      <c r="O801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A802" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B802" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C802">
+        <v>0</v>
+      </c>
+      <c r="D802">
+        <v>2</v>
+      </c>
+      <c r="E802">
+        <v>3</v>
+      </c>
+      <c r="F802">
+        <v>2</v>
+      </c>
+      <c r="G802">
+        <v>2</v>
+      </c>
+      <c r="H802">
+        <v>1</v>
+      </c>
+      <c r="I802">
+        <v>10</v>
+      </c>
+      <c r="J802">
+        <v>5</v>
+      </c>
+      <c r="K802" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L802" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M802">
+        <v>22</v>
+      </c>
+      <c r="N802">
+        <v>163</v>
+      </c>
+      <c r="O802">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A803" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B803" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C803">
+        <v>2</v>
+      </c>
+      <c r="D803">
+        <v>1</v>
+      </c>
+      <c r="E803">
+        <v>3</v>
+      </c>
+      <c r="F803">
+        <v>3</v>
+      </c>
+      <c r="G803">
+        <v>0</v>
+      </c>
+      <c r="H803">
+        <v>1</v>
+      </c>
+      <c r="I803">
+        <v>10</v>
+      </c>
+      <c r="J803">
+        <v>5</v>
+      </c>
+      <c r="K803" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L803" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M803">
+        <v>22</v>
+      </c>
+      <c r="N803">
+        <v>193</v>
+      </c>
+      <c r="O803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A804" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B804" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C804">
+        <v>3</v>
+      </c>
+      <c r="D804">
+        <v>1</v>
+      </c>
+      <c r="E804">
+        <v>2</v>
+      </c>
+      <c r="F804">
+        <v>1</v>
+      </c>
+      <c r="G804">
+        <v>0</v>
+      </c>
+      <c r="H804">
+        <v>2</v>
+      </c>
+      <c r="I804">
+        <v>10</v>
+      </c>
+      <c r="J804">
+        <v>6</v>
+      </c>
+      <c r="K804" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L804" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M804">
+        <v>20</v>
+      </c>
+      <c r="N804">
+        <v>193</v>
+      </c>
+      <c r="O804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A805" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B805" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C805">
+        <v>2</v>
+      </c>
+      <c r="D805">
+        <v>0</v>
+      </c>
+      <c r="E805">
+        <v>1</v>
+      </c>
+      <c r="F805">
+        <v>0</v>
+      </c>
+      <c r="G805">
+        <v>4</v>
+      </c>
+      <c r="H805">
+        <v>2</v>
+      </c>
+      <c r="I805">
+        <v>9</v>
+      </c>
+      <c r="J805">
+        <v>4</v>
+      </c>
+      <c r="K805" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L805" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M805">
+        <v>28</v>
+      </c>
+      <c r="N805">
+        <v>183</v>
+      </c>
+      <c r="O805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A806" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B806" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C806">
+        <v>0</v>
+      </c>
+      <c r="D806">
+        <v>2</v>
+      </c>
+      <c r="E806">
+        <v>0</v>
+      </c>
+      <c r="F806">
+        <v>4</v>
+      </c>
+      <c r="G806">
+        <v>0</v>
+      </c>
+      <c r="H806">
+        <v>4</v>
+      </c>
+      <c r="I806">
+        <v>10</v>
+      </c>
+      <c r="J806">
+        <v>3</v>
+      </c>
+      <c r="K806" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L806" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M806">
+        <v>20</v>
+      </c>
+      <c r="N806">
+        <v>163</v>
+      </c>
+      <c r="O806">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A807" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B807" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C807">
+        <v>1</v>
+      </c>
+      <c r="D807">
+        <v>2</v>
+      </c>
+      <c r="E807">
+        <v>2</v>
+      </c>
+      <c r="F807">
+        <v>3</v>
+      </c>
+      <c r="G807">
+        <v>1</v>
+      </c>
+      <c r="H807">
+        <v>1</v>
+      </c>
+      <c r="I807">
+        <v>10</v>
+      </c>
+      <c r="J807">
+        <v>5</v>
+      </c>
+      <c r="K807" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L807" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M807" s="6">
+        <v>21</v>
+      </c>
+      <c r="N807" s="6">
+        <v>192</v>
+      </c>
+      <c r="O807" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A808" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B808" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C808">
+        <v>2</v>
+      </c>
+      <c r="D808">
+        <v>4</v>
+      </c>
+      <c r="E808">
+        <v>0</v>
+      </c>
+      <c r="F808">
+        <v>0</v>
+      </c>
+      <c r="G808">
+        <v>2</v>
+      </c>
+      <c r="H808">
+        <v>2</v>
+      </c>
+      <c r="I808">
+        <v>10</v>
+      </c>
+      <c r="J808">
+        <v>4</v>
+      </c>
+      <c r="K808" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L808" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M808">
+        <v>22</v>
+      </c>
+      <c r="N808">
+        <v>175</v>
+      </c>
+      <c r="O808">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A809" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B809" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C809">
+        <v>3</v>
+      </c>
+      <c r="D809">
+        <v>1</v>
+      </c>
+      <c r="E809">
+        <v>3</v>
+      </c>
+      <c r="F809">
+        <v>2</v>
+      </c>
+      <c r="G809">
+        <v>1</v>
+      </c>
+      <c r="H809">
+        <v>0</v>
+      </c>
+      <c r="I809">
+        <v>10</v>
+      </c>
+      <c r="J809">
+        <v>5</v>
+      </c>
+      <c r="K809" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L809" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M809">
+        <v>22</v>
+      </c>
+      <c r="N809">
+        <v>168</v>
+      </c>
+      <c r="O809">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A810" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B810" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C810">
+        <v>0</v>
+      </c>
+      <c r="D810">
+        <v>0</v>
+      </c>
+      <c r="E810">
+        <v>1</v>
+      </c>
+      <c r="F810">
+        <v>3</v>
+      </c>
+      <c r="G810">
+        <v>3</v>
+      </c>
+      <c r="H810">
+        <v>3</v>
+      </c>
+      <c r="I810">
+        <v>10</v>
+      </c>
+      <c r="J810">
+        <v>4</v>
+      </c>
+      <c r="K810" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L810" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M810">
+        <v>22</v>
+      </c>
+      <c r="N810">
+        <v>180</v>
+      </c>
+      <c r="O810">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A811" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B811" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C811">
+        <v>1</v>
+      </c>
+      <c r="D811">
+        <v>1</v>
+      </c>
+      <c r="E811">
+        <v>1</v>
+      </c>
+      <c r="F811">
+        <v>2</v>
+      </c>
+      <c r="G811">
+        <v>1</v>
+      </c>
+      <c r="H811">
+        <v>4</v>
+      </c>
+      <c r="I811">
+        <v>10</v>
+      </c>
+      <c r="J811">
+        <v>6</v>
+      </c>
+      <c r="K811" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L811" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M811">
+        <v>22</v>
+      </c>
+      <c r="N811">
+        <v>170</v>
+      </c>
+      <c r="O811">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A812" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B812" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C812">
+        <v>1</v>
+      </c>
+      <c r="D812">
+        <v>1</v>
+      </c>
+      <c r="E812">
+        <v>1</v>
+      </c>
+      <c r="F812">
+        <v>3</v>
+      </c>
+      <c r="G812">
+        <v>2</v>
+      </c>
+      <c r="H812">
+        <v>1</v>
+      </c>
+      <c r="I812">
+        <v>9</v>
+      </c>
+      <c r="J812">
+        <v>6</v>
+      </c>
+      <c r="K812" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L812" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M812">
+        <v>25</v>
+      </c>
+      <c r="N812">
+        <v>175</v>
+      </c>
+      <c r="O812">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A813" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B813" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C813">
+        <v>3</v>
+      </c>
+      <c r="D813">
+        <v>0</v>
+      </c>
+      <c r="E813">
+        <v>4</v>
+      </c>
+      <c r="F813">
+        <v>1</v>
+      </c>
+      <c r="G813">
+        <v>1</v>
+      </c>
+      <c r="H813">
+        <v>1</v>
+      </c>
+      <c r="I813">
+        <v>10</v>
+      </c>
+      <c r="J813">
+        <v>5</v>
+      </c>
+      <c r="K813" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L813" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M813">
+        <v>22</v>
+      </c>
+      <c r="N813">
+        <v>186</v>
+      </c>
+      <c r="O813">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9443CCB-D248-1A4D-825A-5802AAB97D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBFED2C-1220-274D-859F-B288F4FFF110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="32320" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="32320" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="29">
   <si>
     <t>m</t>
   </si>
@@ -641,11 +641,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q813"/>
+  <dimension ref="A1:Q898"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A783" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I805" sqref="I805"/>
+      <pane ySplit="1" topLeftCell="A739" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N881" sqref="N881"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -38035,6 +38035,3951 @@
         <v>1</v>
       </c>
     </row>
+    <row r="814" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A814" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B814" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C814" s="6">
+        <v>3</v>
+      </c>
+      <c r="D814" s="6">
+        <v>2</v>
+      </c>
+      <c r="E814" s="6">
+        <v>0</v>
+      </c>
+      <c r="F814" s="6">
+        <v>2</v>
+      </c>
+      <c r="G814" s="6">
+        <v>1</v>
+      </c>
+      <c r="H814" s="6">
+        <v>1</v>
+      </c>
+      <c r="I814" s="6">
+        <v>9</v>
+      </c>
+      <c r="J814" s="6">
+        <v>5</v>
+      </c>
+      <c r="K814" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L814" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M814" s="6">
+        <v>20</v>
+      </c>
+      <c r="N814" s="6">
+        <v>178</v>
+      </c>
+      <c r="O814" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A815" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B815" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C815" s="6">
+        <v>1</v>
+      </c>
+      <c r="D815" s="6">
+        <v>3</v>
+      </c>
+      <c r="E815" s="6">
+        <v>1</v>
+      </c>
+      <c r="F815" s="6">
+        <v>1</v>
+      </c>
+      <c r="G815" s="6">
+        <v>2</v>
+      </c>
+      <c r="H815" s="6">
+        <v>1</v>
+      </c>
+      <c r="I815" s="6">
+        <v>8</v>
+      </c>
+      <c r="J815" s="6">
+        <v>6</v>
+      </c>
+      <c r="K815" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L815" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M815" s="6">
+        <v>20</v>
+      </c>
+      <c r="N815" s="6">
+        <v>178</v>
+      </c>
+      <c r="O815" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A816" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B816" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C816" s="6">
+        <v>2</v>
+      </c>
+      <c r="D816" s="6">
+        <v>2</v>
+      </c>
+      <c r="E816" s="6">
+        <v>1</v>
+      </c>
+      <c r="F816" s="6">
+        <v>2</v>
+      </c>
+      <c r="G816" s="6">
+        <v>1</v>
+      </c>
+      <c r="H816" s="6">
+        <v>1</v>
+      </c>
+      <c r="I816" s="6">
+        <v>9</v>
+      </c>
+      <c r="J816" s="6">
+        <v>6</v>
+      </c>
+      <c r="K816" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L816" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M816" s="6">
+        <v>24</v>
+      </c>
+      <c r="N816" s="6"/>
+      <c r="O816" s="6"/>
+    </row>
+    <row r="817" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A817" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B817" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C817" s="6">
+        <v>0</v>
+      </c>
+      <c r="D817" s="6">
+        <v>0</v>
+      </c>
+      <c r="E817" s="6">
+        <v>3</v>
+      </c>
+      <c r="F817" s="6">
+        <v>1</v>
+      </c>
+      <c r="G817" s="6">
+        <v>1</v>
+      </c>
+      <c r="H817" s="6">
+        <v>3</v>
+      </c>
+      <c r="I817" s="6">
+        <v>8</v>
+      </c>
+      <c r="J817" s="6">
+        <v>4</v>
+      </c>
+      <c r="K817" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L817" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M817" s="6">
+        <v>20</v>
+      </c>
+      <c r="N817" s="6">
+        <v>168</v>
+      </c>
+      <c r="O817" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A818" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B818" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C818" s="6">
+        <v>1</v>
+      </c>
+      <c r="D818" s="6">
+        <v>1</v>
+      </c>
+      <c r="E818" s="6">
+        <v>2</v>
+      </c>
+      <c r="F818" s="6">
+        <v>1</v>
+      </c>
+      <c r="G818" s="6">
+        <v>2</v>
+      </c>
+      <c r="H818" s="6">
+        <v>0</v>
+      </c>
+      <c r="I818" s="6">
+        <v>7</v>
+      </c>
+      <c r="J818" s="6">
+        <v>5</v>
+      </c>
+      <c r="K818" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L818" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M818" s="6">
+        <v>23</v>
+      </c>
+      <c r="N818" s="6">
+        <v>173</v>
+      </c>
+      <c r="O818" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A819" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B819" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C819" s="6">
+        <v>2</v>
+      </c>
+      <c r="D819" s="6">
+        <v>4</v>
+      </c>
+      <c r="E819" s="6">
+        <v>2</v>
+      </c>
+      <c r="F819" s="6">
+        <v>0</v>
+      </c>
+      <c r="G819" s="6">
+        <v>0</v>
+      </c>
+      <c r="H819" s="6">
+        <v>0</v>
+      </c>
+      <c r="I819" s="6">
+        <v>8</v>
+      </c>
+      <c r="J819" s="6">
+        <v>3</v>
+      </c>
+      <c r="K819" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L819" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M819" s="6">
+        <v>22</v>
+      </c>
+      <c r="N819" s="6">
+        <v>181</v>
+      </c>
+      <c r="O819" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A820" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B820" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C820" s="6">
+        <v>0</v>
+      </c>
+      <c r="D820" s="6">
+        <v>2</v>
+      </c>
+      <c r="E820" s="6">
+        <v>0</v>
+      </c>
+      <c r="F820" s="6">
+        <v>1</v>
+      </c>
+      <c r="G820" s="6">
+        <v>2</v>
+      </c>
+      <c r="H820" s="6">
+        <v>0</v>
+      </c>
+      <c r="I820" s="6">
+        <v>9</v>
+      </c>
+      <c r="J820" s="6">
+        <v>4</v>
+      </c>
+      <c r="K820" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L820" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M820" s="6"/>
+      <c r="N820" s="6"/>
+      <c r="O820" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A821" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B821" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C821" s="6">
+        <v>0</v>
+      </c>
+      <c r="D821" s="6">
+        <v>3</v>
+      </c>
+      <c r="E821" s="6">
+        <v>0</v>
+      </c>
+      <c r="F821" s="6">
+        <v>2</v>
+      </c>
+      <c r="G821" s="6">
+        <v>0</v>
+      </c>
+      <c r="H821" s="6">
+        <v>4</v>
+      </c>
+      <c r="I821" s="6">
+        <v>9</v>
+      </c>
+      <c r="J821" s="6">
+        <v>3</v>
+      </c>
+      <c r="K821" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L821" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M821" s="6">
+        <v>20</v>
+      </c>
+      <c r="N821" s="6">
+        <v>180</v>
+      </c>
+      <c r="O821" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A822" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B822" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C822" s="6">
+        <v>0</v>
+      </c>
+      <c r="D822" s="6">
+        <v>2</v>
+      </c>
+      <c r="E822" s="6">
+        <v>0</v>
+      </c>
+      <c r="F822" s="6">
+        <v>2</v>
+      </c>
+      <c r="G822" s="6">
+        <v>1</v>
+      </c>
+      <c r="H822" s="6">
+        <v>3</v>
+      </c>
+      <c r="I822" s="6">
+        <v>8</v>
+      </c>
+      <c r="J822" s="6">
+        <v>4</v>
+      </c>
+      <c r="K822" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L822" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M822" s="6">
+        <v>19</v>
+      </c>
+      <c r="N822" s="6">
+        <v>175</v>
+      </c>
+      <c r="O822" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A823" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B823" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C823" s="6">
+        <v>1</v>
+      </c>
+      <c r="D823" s="6">
+        <v>0</v>
+      </c>
+      <c r="E823" s="6">
+        <v>4</v>
+      </c>
+      <c r="F823" s="6">
+        <v>2</v>
+      </c>
+      <c r="G823" s="6">
+        <v>0</v>
+      </c>
+      <c r="H823" s="6">
+        <v>1</v>
+      </c>
+      <c r="I823" s="6">
+        <v>9</v>
+      </c>
+      <c r="J823" s="6">
+        <v>4</v>
+      </c>
+      <c r="K823" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L823" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M823" s="6">
+        <v>24</v>
+      </c>
+      <c r="N823" s="6">
+        <v>190</v>
+      </c>
+      <c r="O823" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A824" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B824" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C824" s="6">
+        <v>1</v>
+      </c>
+      <c r="D824" s="6">
+        <v>2</v>
+      </c>
+      <c r="E824" s="6">
+        <v>0</v>
+      </c>
+      <c r="F824" s="6">
+        <v>1</v>
+      </c>
+      <c r="G824" s="6">
+        <v>4</v>
+      </c>
+      <c r="H824" s="6">
+        <v>1</v>
+      </c>
+      <c r="I824" s="6">
+        <v>7</v>
+      </c>
+      <c r="J824" s="6">
+        <v>4</v>
+      </c>
+      <c r="K824" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L824" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M824" s="6">
+        <v>19</v>
+      </c>
+      <c r="N824" s="6">
+        <v>175</v>
+      </c>
+      <c r="O824" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A825" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B825" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C825" s="6">
+        <v>1</v>
+      </c>
+      <c r="D825" s="6">
+        <v>3</v>
+      </c>
+      <c r="E825" s="6">
+        <v>1</v>
+      </c>
+      <c r="F825" s="6">
+        <v>0</v>
+      </c>
+      <c r="G825" s="6">
+        <v>3</v>
+      </c>
+      <c r="H825" s="6">
+        <v>0</v>
+      </c>
+      <c r="I825" s="6">
+        <v>8</v>
+      </c>
+      <c r="J825" s="6">
+        <v>4</v>
+      </c>
+      <c r="K825" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L825" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M825" s="6">
+        <v>22</v>
+      </c>
+      <c r="N825" s="6">
+        <v>169</v>
+      </c>
+      <c r="O825" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A826" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B826" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C826" s="6">
+        <v>1</v>
+      </c>
+      <c r="D826" s="6">
+        <v>0</v>
+      </c>
+      <c r="E826" s="6">
+        <v>2</v>
+      </c>
+      <c r="F826" s="6">
+        <v>2</v>
+      </c>
+      <c r="G826" s="6">
+        <v>1</v>
+      </c>
+      <c r="H826" s="6">
+        <v>2</v>
+      </c>
+      <c r="I826" s="6">
+        <v>8</v>
+      </c>
+      <c r="J826" s="6">
+        <v>5</v>
+      </c>
+      <c r="K826" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L826" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M826" s="6">
+        <v>21</v>
+      </c>
+      <c r="N826" s="6">
+        <v>164</v>
+      </c>
+      <c r="O826" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A827" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B827" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C827" s="6">
+        <v>0</v>
+      </c>
+      <c r="D827" s="6">
+        <v>3</v>
+      </c>
+      <c r="E827" s="6">
+        <v>3</v>
+      </c>
+      <c r="F827" s="6">
+        <v>0</v>
+      </c>
+      <c r="G827" s="6">
+        <v>0</v>
+      </c>
+      <c r="H827" s="6">
+        <v>2</v>
+      </c>
+      <c r="I827" s="6">
+        <v>8</v>
+      </c>
+      <c r="J827" s="6">
+        <v>3</v>
+      </c>
+      <c r="K827" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L827" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M827" s="6">
+        <v>22</v>
+      </c>
+      <c r="N827" s="6">
+        <v>160</v>
+      </c>
+      <c r="O827" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A828" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B828" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C828" s="6">
+        <v>1</v>
+      </c>
+      <c r="D828" s="6">
+        <v>2</v>
+      </c>
+      <c r="E828" s="6">
+        <v>1</v>
+      </c>
+      <c r="F828" s="6">
+        <v>2</v>
+      </c>
+      <c r="G828" s="6">
+        <v>0</v>
+      </c>
+      <c r="H828" s="6">
+        <v>2</v>
+      </c>
+      <c r="I828" s="6">
+        <v>8</v>
+      </c>
+      <c r="J828" s="6">
+        <v>5</v>
+      </c>
+      <c r="K828" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L828" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M828" s="6">
+        <v>22</v>
+      </c>
+      <c r="N828" s="6">
+        <v>184</v>
+      </c>
+      <c r="O828" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A829" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B829" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C829" s="6">
+        <v>2</v>
+      </c>
+      <c r="D829" s="6">
+        <v>2</v>
+      </c>
+      <c r="E829" s="6">
+        <v>1</v>
+      </c>
+      <c r="F829" s="6">
+        <v>1</v>
+      </c>
+      <c r="G829" s="6">
+        <v>1</v>
+      </c>
+      <c r="H829" s="6">
+        <v>1</v>
+      </c>
+      <c r="I829" s="6">
+        <v>8</v>
+      </c>
+      <c r="J829" s="6">
+        <v>6</v>
+      </c>
+      <c r="K829" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L829" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M829" s="6">
+        <v>20</v>
+      </c>
+      <c r="N829" s="6">
+        <v>186</v>
+      </c>
+      <c r="O829" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A830" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B830" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C830" s="6">
+        <v>1</v>
+      </c>
+      <c r="D830" s="6">
+        <v>2</v>
+      </c>
+      <c r="E830" s="6">
+        <v>0</v>
+      </c>
+      <c r="F830" s="6">
+        <v>3</v>
+      </c>
+      <c r="G830" s="6">
+        <v>1</v>
+      </c>
+      <c r="H830" s="6">
+        <v>1</v>
+      </c>
+      <c r="I830" s="6">
+        <v>8</v>
+      </c>
+      <c r="J830" s="6">
+        <v>5</v>
+      </c>
+      <c r="K830" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L830" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M830" s="6">
+        <v>22</v>
+      </c>
+      <c r="N830" s="6">
+        <v>167</v>
+      </c>
+      <c r="O830" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A831" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B831" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C831" s="6">
+        <v>2</v>
+      </c>
+      <c r="D831" s="6">
+        <v>1</v>
+      </c>
+      <c r="E831" s="6">
+        <v>3</v>
+      </c>
+      <c r="F831" s="6">
+        <v>3</v>
+      </c>
+      <c r="G831" s="6">
+        <v>1</v>
+      </c>
+      <c r="H831" s="6">
+        <v>1</v>
+      </c>
+      <c r="I831" s="6">
+        <v>11</v>
+      </c>
+      <c r="J831" s="6">
+        <v>6</v>
+      </c>
+      <c r="K831" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L831" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M831" s="6">
+        <v>20</v>
+      </c>
+      <c r="N831" s="6">
+        <v>163</v>
+      </c>
+      <c r="O831" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A832" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B832" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C832" s="6">
+        <v>0</v>
+      </c>
+      <c r="D832" s="6">
+        <v>2</v>
+      </c>
+      <c r="E832" s="6">
+        <v>3</v>
+      </c>
+      <c r="F832" s="6">
+        <v>1</v>
+      </c>
+      <c r="G832" s="6">
+        <v>0</v>
+      </c>
+      <c r="H832" s="6">
+        <v>2</v>
+      </c>
+      <c r="I832" s="6">
+        <v>8</v>
+      </c>
+      <c r="J832" s="6">
+        <v>4</v>
+      </c>
+      <c r="K832" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L832" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M832" s="6">
+        <v>22</v>
+      </c>
+      <c r="N832" s="6">
+        <v>153</v>
+      </c>
+      <c r="O832" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A833" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B833" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C833" s="6">
+        <v>0</v>
+      </c>
+      <c r="D833" s="6">
+        <v>3</v>
+      </c>
+      <c r="E833" s="6">
+        <v>1</v>
+      </c>
+      <c r="F833" s="6">
+        <v>0</v>
+      </c>
+      <c r="G833" s="6">
+        <v>3</v>
+      </c>
+      <c r="H833" s="6">
+        <v>1</v>
+      </c>
+      <c r="I833" s="6">
+        <v>8</v>
+      </c>
+      <c r="J833" s="6">
+        <v>4</v>
+      </c>
+      <c r="K833" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L833" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M833" s="6">
+        <v>20</v>
+      </c>
+      <c r="N833" s="6">
+        <v>186</v>
+      </c>
+      <c r="O833" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A834" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B834" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C834" s="6">
+        <v>0</v>
+      </c>
+      <c r="D834" s="6">
+        <v>0</v>
+      </c>
+      <c r="E834" s="6">
+        <v>0</v>
+      </c>
+      <c r="F834" s="6">
+        <v>4</v>
+      </c>
+      <c r="G834" s="6">
+        <v>3</v>
+      </c>
+      <c r="H834" s="6">
+        <v>1</v>
+      </c>
+      <c r="I834" s="6">
+        <v>8</v>
+      </c>
+      <c r="J834" s="6">
+        <v>3</v>
+      </c>
+      <c r="K834" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L834" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M834" s="6">
+        <v>19</v>
+      </c>
+      <c r="N834" s="6">
+        <v>176</v>
+      </c>
+      <c r="O834" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A835" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B835" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C835" s="6">
+        <v>1</v>
+      </c>
+      <c r="D835" s="6">
+        <v>1</v>
+      </c>
+      <c r="E835" s="6">
+        <v>1</v>
+      </c>
+      <c r="F835" s="6">
+        <v>0</v>
+      </c>
+      <c r="G835" s="6">
+        <v>1</v>
+      </c>
+      <c r="H835" s="6">
+        <v>4</v>
+      </c>
+      <c r="I835" s="6">
+        <v>8</v>
+      </c>
+      <c r="J835" s="6">
+        <v>5</v>
+      </c>
+      <c r="K835" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L835" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M835" s="6">
+        <v>23</v>
+      </c>
+      <c r="N835" s="6">
+        <v>183</v>
+      </c>
+      <c r="O835" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A836" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B836" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C836" s="6">
+        <v>2</v>
+      </c>
+      <c r="D836" s="6">
+        <v>0</v>
+      </c>
+      <c r="E836" s="6">
+        <v>3</v>
+      </c>
+      <c r="F836" s="6">
+        <v>2</v>
+      </c>
+      <c r="G836" s="6">
+        <v>0</v>
+      </c>
+      <c r="H836" s="6">
+        <v>1</v>
+      </c>
+      <c r="I836" s="6">
+        <v>8</v>
+      </c>
+      <c r="J836" s="6">
+        <v>4</v>
+      </c>
+      <c r="K836" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L836" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M836" s="6">
+        <v>22</v>
+      </c>
+      <c r="N836" s="6">
+        <v>176</v>
+      </c>
+      <c r="O836" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A837" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B837" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C837" s="6">
+        <v>1</v>
+      </c>
+      <c r="D837" s="6">
+        <v>2</v>
+      </c>
+      <c r="E837" s="6">
+        <v>3</v>
+      </c>
+      <c r="F837" s="6">
+        <v>0</v>
+      </c>
+      <c r="G837" s="6">
+        <v>0</v>
+      </c>
+      <c r="H837" s="6">
+        <v>2</v>
+      </c>
+      <c r="I837" s="6">
+        <v>8</v>
+      </c>
+      <c r="J837" s="6">
+        <v>4</v>
+      </c>
+      <c r="K837" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L837" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M837" s="6">
+        <v>20</v>
+      </c>
+      <c r="N837" s="6">
+        <v>169</v>
+      </c>
+      <c r="O837" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A838" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B838" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C838" s="6">
+        <v>4</v>
+      </c>
+      <c r="D838" s="6">
+        <v>0</v>
+      </c>
+      <c r="E838" s="6">
+        <v>2</v>
+      </c>
+      <c r="F838" s="6">
+        <v>2</v>
+      </c>
+      <c r="G838" s="6">
+        <v>1</v>
+      </c>
+      <c r="H838" s="6">
+        <v>0</v>
+      </c>
+      <c r="I838" s="6">
+        <v>9</v>
+      </c>
+      <c r="J838" s="6">
+        <v>4</v>
+      </c>
+      <c r="K838" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L838" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M838" s="6">
+        <v>22</v>
+      </c>
+      <c r="N838" s="6">
+        <v>187</v>
+      </c>
+      <c r="O838" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A839" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B839" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C839" s="6">
+        <v>2</v>
+      </c>
+      <c r="D839" s="6">
+        <v>0</v>
+      </c>
+      <c r="E839" s="6">
+        <v>3</v>
+      </c>
+      <c r="F839" s="6">
+        <v>1</v>
+      </c>
+      <c r="G839" s="6">
+        <v>0</v>
+      </c>
+      <c r="H839" s="6">
+        <v>2</v>
+      </c>
+      <c r="I839" s="6">
+        <v>8</v>
+      </c>
+      <c r="J839" s="6">
+        <v>4</v>
+      </c>
+      <c r="K839" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L839" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M839" s="6">
+        <v>22</v>
+      </c>
+      <c r="N839" s="6">
+        <v>165</v>
+      </c>
+      <c r="O839" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A840" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B840" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C840" s="6">
+        <v>0</v>
+      </c>
+      <c r="D840" s="6">
+        <v>4</v>
+      </c>
+      <c r="E840" s="6">
+        <v>0</v>
+      </c>
+      <c r="F840" s="6">
+        <v>1</v>
+      </c>
+      <c r="G840" s="6">
+        <v>1</v>
+      </c>
+      <c r="H840" s="6">
+        <v>2</v>
+      </c>
+      <c r="I840" s="6">
+        <v>8</v>
+      </c>
+      <c r="J840" s="6">
+        <v>4</v>
+      </c>
+      <c r="K840" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L840" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M840" s="6">
+        <v>20</v>
+      </c>
+      <c r="N840" s="6">
+        <v>186</v>
+      </c>
+      <c r="O840" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A841" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B841" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C841" s="6">
+        <v>1</v>
+      </c>
+      <c r="D841" s="6">
+        <v>2</v>
+      </c>
+      <c r="E841" s="6">
+        <v>2</v>
+      </c>
+      <c r="F841" s="6">
+        <v>3</v>
+      </c>
+      <c r="G841" s="6">
+        <v>0</v>
+      </c>
+      <c r="H841" s="6">
+        <v>0</v>
+      </c>
+      <c r="I841" s="6">
+        <v>8</v>
+      </c>
+      <c r="J841" s="6">
+        <v>4</v>
+      </c>
+      <c r="K841" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L841" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M841" s="6">
+        <v>18</v>
+      </c>
+      <c r="N841" s="6">
+        <v>172</v>
+      </c>
+      <c r="O841" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A842" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B842" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C842" s="6">
+        <v>1</v>
+      </c>
+      <c r="D842" s="6">
+        <v>0</v>
+      </c>
+      <c r="E842" s="6">
+        <v>2</v>
+      </c>
+      <c r="F842" s="6">
+        <v>1</v>
+      </c>
+      <c r="G842" s="6">
+        <v>0</v>
+      </c>
+      <c r="H842" s="6">
+        <v>4</v>
+      </c>
+      <c r="I842" s="6">
+        <v>8</v>
+      </c>
+      <c r="J842" s="6">
+        <v>3</v>
+      </c>
+      <c r="K842" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L842" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M842" s="6">
+        <v>21</v>
+      </c>
+      <c r="N842" s="6">
+        <v>185</v>
+      </c>
+      <c r="O842" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A843" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B843" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C843" s="6">
+        <v>1</v>
+      </c>
+      <c r="D843" s="6">
+        <v>4</v>
+      </c>
+      <c r="E843" s="6">
+        <v>0</v>
+      </c>
+      <c r="F843" s="6">
+        <v>0</v>
+      </c>
+      <c r="G843" s="6">
+        <v>0</v>
+      </c>
+      <c r="H843" s="6">
+        <v>3</v>
+      </c>
+      <c r="I843" s="6">
+        <v>8</v>
+      </c>
+      <c r="J843" s="6">
+        <v>3</v>
+      </c>
+      <c r="K843" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L843" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M843" s="6">
+        <v>20</v>
+      </c>
+      <c r="N843" s="6">
+        <v>170</v>
+      </c>
+      <c r="O843" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A844" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B844" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C844" s="6">
+        <v>1</v>
+      </c>
+      <c r="D844" s="6">
+        <v>0</v>
+      </c>
+      <c r="E844" s="6">
+        <v>3</v>
+      </c>
+      <c r="F844" s="6">
+        <v>2</v>
+      </c>
+      <c r="G844" s="6">
+        <v>0</v>
+      </c>
+      <c r="H844" s="6">
+        <v>2</v>
+      </c>
+      <c r="I844" s="6">
+        <v>8</v>
+      </c>
+      <c r="J844" s="6">
+        <v>4</v>
+      </c>
+      <c r="K844" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L844" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M844" s="6">
+        <v>22</v>
+      </c>
+      <c r="N844" s="6">
+        <v>182</v>
+      </c>
+      <c r="O844" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A845" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B845" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C845" s="6">
+        <v>1</v>
+      </c>
+      <c r="D845" s="6">
+        <v>2</v>
+      </c>
+      <c r="E845" s="6">
+        <v>2</v>
+      </c>
+      <c r="F845" s="6">
+        <v>1</v>
+      </c>
+      <c r="G845" s="6">
+        <v>1</v>
+      </c>
+      <c r="H845" s="6">
+        <v>1</v>
+      </c>
+      <c r="I845" s="6">
+        <v>8</v>
+      </c>
+      <c r="J845" s="6">
+        <v>6</v>
+      </c>
+      <c r="K845" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L845" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M845" s="6">
+        <v>22</v>
+      </c>
+      <c r="N845" s="6">
+        <v>168</v>
+      </c>
+      <c r="O845" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A846" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B846" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C846" s="6">
+        <v>3</v>
+      </c>
+      <c r="D846" s="6">
+        <v>2</v>
+      </c>
+      <c r="E846" s="6">
+        <v>0</v>
+      </c>
+      <c r="F846" s="6">
+        <v>1</v>
+      </c>
+      <c r="G846" s="6">
+        <v>5</v>
+      </c>
+      <c r="H846" s="6">
+        <v>1</v>
+      </c>
+      <c r="I846" s="6">
+        <v>9</v>
+      </c>
+      <c r="J846" s="6">
+        <v>4</v>
+      </c>
+      <c r="K846" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L846" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M846" s="6">
+        <v>25</v>
+      </c>
+      <c r="N846" s="6">
+        <v>197</v>
+      </c>
+      <c r="O846" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A847" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B847" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C847" s="6">
+        <v>2</v>
+      </c>
+      <c r="D847" s="6">
+        <v>0</v>
+      </c>
+      <c r="E847" s="6">
+        <v>1</v>
+      </c>
+      <c r="F847" s="6">
+        <v>0</v>
+      </c>
+      <c r="G847" s="6">
+        <v>2</v>
+      </c>
+      <c r="H847" s="6">
+        <v>3</v>
+      </c>
+      <c r="I847" s="6">
+        <v>8</v>
+      </c>
+      <c r="J847" s="6">
+        <v>4</v>
+      </c>
+      <c r="K847" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L847" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M847" s="6">
+        <v>22</v>
+      </c>
+      <c r="N847" s="6">
+        <v>178</v>
+      </c>
+      <c r="O847" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A848" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B848" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C848" s="6">
+        <v>1</v>
+      </c>
+      <c r="D848" s="6">
+        <v>2</v>
+      </c>
+      <c r="E848" s="6">
+        <v>2</v>
+      </c>
+      <c r="F848" s="6">
+        <v>2</v>
+      </c>
+      <c r="G848" s="6">
+        <v>0</v>
+      </c>
+      <c r="H848" s="6">
+        <v>2</v>
+      </c>
+      <c r="I848" s="6">
+        <v>9</v>
+      </c>
+      <c r="J848" s="6">
+        <v>5</v>
+      </c>
+      <c r="K848" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L848" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M848" s="6">
+        <v>22</v>
+      </c>
+      <c r="N848" s="6">
+        <v>193</v>
+      </c>
+      <c r="O848" s="6"/>
+    </row>
+    <row r="849" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A849" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B849" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C849" s="6">
+        <v>1</v>
+      </c>
+      <c r="D849" s="6">
+        <v>5</v>
+      </c>
+      <c r="E849" s="6">
+        <v>0</v>
+      </c>
+      <c r="F849" s="6">
+        <v>1</v>
+      </c>
+      <c r="G849" s="6">
+        <v>0</v>
+      </c>
+      <c r="H849" s="6">
+        <v>1</v>
+      </c>
+      <c r="I849" s="6">
+        <v>8</v>
+      </c>
+      <c r="J849" s="6">
+        <v>4</v>
+      </c>
+      <c r="K849" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L849" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M849" s="6">
+        <v>22</v>
+      </c>
+      <c r="N849" s="6">
+        <v>165</v>
+      </c>
+      <c r="O849" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A850" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B850" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C850" s="6">
+        <v>0</v>
+      </c>
+      <c r="D850" s="6">
+        <v>3</v>
+      </c>
+      <c r="E850" s="6">
+        <v>0</v>
+      </c>
+      <c r="F850" s="6">
+        <v>3</v>
+      </c>
+      <c r="G850" s="6">
+        <v>2</v>
+      </c>
+      <c r="H850" s="6">
+        <v>0</v>
+      </c>
+      <c r="I850" s="6">
+        <v>8</v>
+      </c>
+      <c r="J850" s="6">
+        <v>3</v>
+      </c>
+      <c r="K850" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L850" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M850" s="6">
+        <v>21</v>
+      </c>
+      <c r="N850" s="6"/>
+      <c r="O850" s="6"/>
+    </row>
+    <row r="851" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A851" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B851" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C851" s="6">
+        <v>1</v>
+      </c>
+      <c r="D851" s="6">
+        <v>0</v>
+      </c>
+      <c r="E851" s="6">
+        <v>1</v>
+      </c>
+      <c r="F851" s="6">
+        <v>2</v>
+      </c>
+      <c r="G851" s="6">
+        <v>2</v>
+      </c>
+      <c r="H851" s="6">
+        <v>2</v>
+      </c>
+      <c r="I851" s="6">
+        <v>8</v>
+      </c>
+      <c r="J851" s="6">
+        <v>5</v>
+      </c>
+      <c r="K851" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L851" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M851" s="6">
+        <v>21</v>
+      </c>
+      <c r="N851" s="6">
+        <v>203</v>
+      </c>
+      <c r="O851" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A852" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B852" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C852" s="6">
+        <v>3</v>
+      </c>
+      <c r="D852" s="6">
+        <v>2</v>
+      </c>
+      <c r="E852" s="6">
+        <v>0</v>
+      </c>
+      <c r="F852" s="6">
+        <v>1</v>
+      </c>
+      <c r="G852" s="6">
+        <v>1</v>
+      </c>
+      <c r="H852" s="6">
+        <v>1</v>
+      </c>
+      <c r="I852" s="6">
+        <v>8</v>
+      </c>
+      <c r="J852" s="6">
+        <v>5</v>
+      </c>
+      <c r="K852" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L852" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M852" s="6">
+        <v>21</v>
+      </c>
+      <c r="N852" s="6">
+        <v>170</v>
+      </c>
+      <c r="O852" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A853" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B853" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C853" s="6">
+        <v>0</v>
+      </c>
+      <c r="D853" s="6">
+        <v>2</v>
+      </c>
+      <c r="E853" s="6">
+        <v>0</v>
+      </c>
+      <c r="F853" s="6">
+        <v>2</v>
+      </c>
+      <c r="G853" s="6">
+        <v>4</v>
+      </c>
+      <c r="H853" s="6">
+        <v>0</v>
+      </c>
+      <c r="I853" s="6">
+        <v>8</v>
+      </c>
+      <c r="J853" s="6">
+        <v>3</v>
+      </c>
+      <c r="K853" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L853" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M853" s="6">
+        <v>27</v>
+      </c>
+      <c r="N853" s="6">
+        <v>178</v>
+      </c>
+      <c r="O853" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A854" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B854" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C854" s="6">
+        <v>1</v>
+      </c>
+      <c r="D854" s="6">
+        <v>1</v>
+      </c>
+      <c r="E854" s="6">
+        <v>0</v>
+      </c>
+      <c r="F854" s="6">
+        <v>3</v>
+      </c>
+      <c r="G854" s="6">
+        <v>1</v>
+      </c>
+      <c r="H854" s="6">
+        <v>2</v>
+      </c>
+      <c r="I854" s="6">
+        <v>8</v>
+      </c>
+      <c r="J854" s="6">
+        <v>5</v>
+      </c>
+      <c r="K854" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L854" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M854" s="6">
+        <v>19</v>
+      </c>
+      <c r="N854" s="6">
+        <v>168</v>
+      </c>
+      <c r="O854" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A855" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B855" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C855" s="6">
+        <v>0</v>
+      </c>
+      <c r="D855" s="6">
+        <v>0</v>
+      </c>
+      <c r="E855" s="6">
+        <v>1</v>
+      </c>
+      <c r="F855" s="6">
+        <v>4</v>
+      </c>
+      <c r="G855" s="6">
+        <v>1</v>
+      </c>
+      <c r="H855" s="6">
+        <v>3</v>
+      </c>
+      <c r="I855" s="6">
+        <v>8</v>
+      </c>
+      <c r="J855" s="6">
+        <v>3</v>
+      </c>
+      <c r="K855" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L855" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M855" s="6">
+        <v>22</v>
+      </c>
+      <c r="N855" s="6">
+        <v>197</v>
+      </c>
+      <c r="O855" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A856" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B856" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C856" s="6">
+        <v>0</v>
+      </c>
+      <c r="D856" s="6">
+        <v>0</v>
+      </c>
+      <c r="E856" s="6">
+        <v>1</v>
+      </c>
+      <c r="F856" s="6">
+        <v>1</v>
+      </c>
+      <c r="G856" s="6">
+        <v>3</v>
+      </c>
+      <c r="H856" s="6">
+        <v>3</v>
+      </c>
+      <c r="I856" s="6">
+        <v>8</v>
+      </c>
+      <c r="J856" s="6">
+        <v>4</v>
+      </c>
+      <c r="K856" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L856" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M856" s="6">
+        <v>23</v>
+      </c>
+      <c r="N856" s="6">
+        <v>173</v>
+      </c>
+      <c r="O856" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A857" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B857" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C857" s="6">
+        <v>0</v>
+      </c>
+      <c r="D857" s="6">
+        <v>4</v>
+      </c>
+      <c r="E857" s="6">
+        <v>2</v>
+      </c>
+      <c r="F857" s="6">
+        <v>0</v>
+      </c>
+      <c r="G857" s="6">
+        <v>0</v>
+      </c>
+      <c r="H857" s="6">
+        <v>2</v>
+      </c>
+      <c r="I857" s="6">
+        <v>8</v>
+      </c>
+      <c r="J857" s="6">
+        <v>3</v>
+      </c>
+      <c r="K857" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L857" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M857" s="6">
+        <v>20</v>
+      </c>
+      <c r="N857" s="6">
+        <v>162</v>
+      </c>
+      <c r="O857" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A858" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B858" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C858" s="6">
+        <v>1</v>
+      </c>
+      <c r="D858" s="6">
+        <v>1</v>
+      </c>
+      <c r="E858" s="6">
+        <v>3</v>
+      </c>
+      <c r="F858" s="6">
+        <v>2</v>
+      </c>
+      <c r="G858" s="6">
+        <v>1</v>
+      </c>
+      <c r="H858" s="6">
+        <v>0</v>
+      </c>
+      <c r="I858" s="6">
+        <v>8</v>
+      </c>
+      <c r="J858" s="6">
+        <v>5</v>
+      </c>
+      <c r="K858" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L858" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M858" s="6">
+        <v>24</v>
+      </c>
+      <c r="N858" s="6">
+        <v>170</v>
+      </c>
+      <c r="O858" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A859" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B859" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C859" s="6">
+        <v>2</v>
+      </c>
+      <c r="D859" s="6">
+        <v>0</v>
+      </c>
+      <c r="E859" s="6">
+        <v>0</v>
+      </c>
+      <c r="F859" s="6">
+        <v>2</v>
+      </c>
+      <c r="G859" s="6">
+        <v>2</v>
+      </c>
+      <c r="H859" s="6">
+        <v>2</v>
+      </c>
+      <c r="I859" s="6">
+        <v>8</v>
+      </c>
+      <c r="J859" s="6">
+        <v>4</v>
+      </c>
+      <c r="K859" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L859" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M859" s="6">
+        <v>21</v>
+      </c>
+      <c r="N859" s="6">
+        <v>180</v>
+      </c>
+      <c r="O859" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A860" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B860" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C860" s="6">
+        <v>1</v>
+      </c>
+      <c r="D860" s="6">
+        <v>1</v>
+      </c>
+      <c r="E860" s="6">
+        <v>2</v>
+      </c>
+      <c r="F860" s="6">
+        <v>1</v>
+      </c>
+      <c r="G860" s="6">
+        <v>3</v>
+      </c>
+      <c r="H860" s="6">
+        <v>1</v>
+      </c>
+      <c r="I860" s="6">
+        <v>10</v>
+      </c>
+      <c r="J860" s="6">
+        <v>6</v>
+      </c>
+      <c r="K860" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L860" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M860" s="6">
+        <v>22</v>
+      </c>
+      <c r="N860" s="6">
+        <v>172</v>
+      </c>
+      <c r="O860" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A861" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B861" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C861" s="6">
+        <v>1</v>
+      </c>
+      <c r="D861" s="6">
+        <v>1</v>
+      </c>
+      <c r="E861" s="6">
+        <v>3</v>
+      </c>
+      <c r="F861" s="6">
+        <v>1</v>
+      </c>
+      <c r="G861" s="6">
+        <v>1</v>
+      </c>
+      <c r="H861" s="6">
+        <v>2</v>
+      </c>
+      <c r="I861" s="6">
+        <v>9</v>
+      </c>
+      <c r="J861" s="6">
+        <v>6</v>
+      </c>
+      <c r="K861" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L861" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M861" s="6">
+        <v>23</v>
+      </c>
+      <c r="N861" s="6">
+        <v>175</v>
+      </c>
+      <c r="O861" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A862" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B862" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C862" s="6">
+        <v>2</v>
+      </c>
+      <c r="D862" s="6">
+        <v>2</v>
+      </c>
+      <c r="E862" s="6">
+        <v>3</v>
+      </c>
+      <c r="F862" s="6">
+        <v>0</v>
+      </c>
+      <c r="G862" s="6">
+        <v>0</v>
+      </c>
+      <c r="H862" s="6">
+        <v>1</v>
+      </c>
+      <c r="I862" s="6">
+        <v>8</v>
+      </c>
+      <c r="J862" s="6">
+        <v>4</v>
+      </c>
+      <c r="K862" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L862" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M862" s="6">
+        <v>21</v>
+      </c>
+      <c r="N862" s="6">
+        <v>170</v>
+      </c>
+      <c r="O862" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A863" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B863" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C863" s="6">
+        <v>0</v>
+      </c>
+      <c r="D863" s="6">
+        <v>3</v>
+      </c>
+      <c r="E863" s="6">
+        <v>2</v>
+      </c>
+      <c r="F863" s="6">
+        <v>2</v>
+      </c>
+      <c r="G863" s="6">
+        <v>0</v>
+      </c>
+      <c r="H863" s="6">
+        <v>2</v>
+      </c>
+      <c r="I863" s="6">
+        <v>9</v>
+      </c>
+      <c r="J863" s="6">
+        <v>4</v>
+      </c>
+      <c r="K863" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L863" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M863" s="6">
+        <v>24</v>
+      </c>
+      <c r="N863" s="6">
+        <v>166</v>
+      </c>
+      <c r="O863" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A864" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B864" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C864" s="6">
+        <v>1</v>
+      </c>
+      <c r="D864" s="6">
+        <v>1</v>
+      </c>
+      <c r="E864" s="6">
+        <v>2</v>
+      </c>
+      <c r="F864" s="6">
+        <v>2</v>
+      </c>
+      <c r="G864" s="6">
+        <v>2</v>
+      </c>
+      <c r="H864" s="6">
+        <v>0</v>
+      </c>
+      <c r="I864" s="6">
+        <v>8</v>
+      </c>
+      <c r="J864" s="6">
+        <v>5</v>
+      </c>
+      <c r="K864" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L864" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M864" s="6">
+        <v>20</v>
+      </c>
+      <c r="N864" s="6">
+        <v>187</v>
+      </c>
+      <c r="O864" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A865" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B865" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C865" s="6">
+        <v>1</v>
+      </c>
+      <c r="D865" s="6">
+        <v>3</v>
+      </c>
+      <c r="E865" s="6">
+        <v>2</v>
+      </c>
+      <c r="F865" s="6">
+        <v>0</v>
+      </c>
+      <c r="G865" s="6">
+        <v>2</v>
+      </c>
+      <c r="H865" s="6">
+        <v>0</v>
+      </c>
+      <c r="I865" s="6">
+        <v>8</v>
+      </c>
+      <c r="J865" s="6">
+        <v>4</v>
+      </c>
+      <c r="K865" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L865" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M865" s="6">
+        <v>22</v>
+      </c>
+      <c r="N865" s="6">
+        <v>174</v>
+      </c>
+      <c r="O865" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A866" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B866" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C866" s="6">
+        <v>1</v>
+      </c>
+      <c r="D866" s="6">
+        <v>3</v>
+      </c>
+      <c r="E866" s="6">
+        <v>0</v>
+      </c>
+      <c r="F866" s="6">
+        <v>0</v>
+      </c>
+      <c r="G866" s="6">
+        <v>3</v>
+      </c>
+      <c r="H866" s="6">
+        <v>1</v>
+      </c>
+      <c r="I866" s="6">
+        <v>8</v>
+      </c>
+      <c r="J866" s="6">
+        <v>4</v>
+      </c>
+      <c r="K866" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L866" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M866" s="6">
+        <v>22</v>
+      </c>
+      <c r="N866" s="6">
+        <v>173</v>
+      </c>
+      <c r="O866" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A867" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B867" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C867" s="6">
+        <v>2</v>
+      </c>
+      <c r="D867" s="6">
+        <v>0</v>
+      </c>
+      <c r="E867" s="6">
+        <v>3</v>
+      </c>
+      <c r="F867" s="6">
+        <v>1</v>
+      </c>
+      <c r="G867" s="6">
+        <v>0</v>
+      </c>
+      <c r="H867" s="6">
+        <v>2</v>
+      </c>
+      <c r="I867" s="6">
+        <v>8</v>
+      </c>
+      <c r="J867" s="6">
+        <v>4</v>
+      </c>
+      <c r="K867" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L867" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M867" s="6">
+        <v>24</v>
+      </c>
+      <c r="N867" s="6">
+        <v>183</v>
+      </c>
+      <c r="O867" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="868" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A868" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B868" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C868" s="6">
+        <v>2</v>
+      </c>
+      <c r="D868" s="6">
+        <v>1</v>
+      </c>
+      <c r="E868" s="6">
+        <v>2</v>
+      </c>
+      <c r="F868" s="6">
+        <v>0</v>
+      </c>
+      <c r="G868" s="6">
+        <v>1</v>
+      </c>
+      <c r="H868" s="6">
+        <v>2</v>
+      </c>
+      <c r="I868" s="6">
+        <v>8</v>
+      </c>
+      <c r="J868" s="6">
+        <v>5</v>
+      </c>
+      <c r="K868" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L868" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M868" s="6">
+        <v>21</v>
+      </c>
+      <c r="N868" s="6">
+        <v>164</v>
+      </c>
+      <c r="O868" s="6"/>
+    </row>
+    <row r="869" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A869" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B869" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C869" s="6">
+        <v>2</v>
+      </c>
+      <c r="D869" s="6">
+        <v>0</v>
+      </c>
+      <c r="E869" s="6">
+        <v>4</v>
+      </c>
+      <c r="F869" s="6">
+        <v>0</v>
+      </c>
+      <c r="G869" s="6">
+        <v>1</v>
+      </c>
+      <c r="H869" s="6">
+        <v>0</v>
+      </c>
+      <c r="I869" s="6">
+        <v>8</v>
+      </c>
+      <c r="J869" s="6">
+        <v>3</v>
+      </c>
+      <c r="K869" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L869" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M869" s="6">
+        <v>19</v>
+      </c>
+      <c r="N869" s="6">
+        <v>161</v>
+      </c>
+      <c r="O869" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A870" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B870" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C870" s="6">
+        <v>1</v>
+      </c>
+      <c r="D870" s="6">
+        <v>2</v>
+      </c>
+      <c r="E870" s="6">
+        <v>2</v>
+      </c>
+      <c r="F870" s="6">
+        <v>2</v>
+      </c>
+      <c r="G870" s="6">
+        <v>0</v>
+      </c>
+      <c r="H870" s="6">
+        <v>1</v>
+      </c>
+      <c r="I870" s="6">
+        <v>8</v>
+      </c>
+      <c r="J870" s="6">
+        <v>5</v>
+      </c>
+      <c r="K870" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L870" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M870" s="6">
+        <v>22</v>
+      </c>
+      <c r="N870" s="6">
+        <v>168</v>
+      </c>
+      <c r="O870" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A871" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B871" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C871" s="6">
+        <v>2</v>
+      </c>
+      <c r="D871" s="6">
+        <v>2</v>
+      </c>
+      <c r="E871" s="6">
+        <v>2</v>
+      </c>
+      <c r="F871" s="6">
+        <v>0</v>
+      </c>
+      <c r="G871" s="6">
+        <v>3</v>
+      </c>
+      <c r="H871" s="6">
+        <v>0</v>
+      </c>
+      <c r="I871" s="6">
+        <v>9</v>
+      </c>
+      <c r="J871" s="6">
+        <v>4</v>
+      </c>
+      <c r="K871" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L871" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M871" s="6">
+        <v>22</v>
+      </c>
+      <c r="N871" s="6">
+        <v>172</v>
+      </c>
+      <c r="O871" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A872" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B872" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C872" s="6">
+        <v>0</v>
+      </c>
+      <c r="D872" s="6">
+        <v>3</v>
+      </c>
+      <c r="E872" s="6">
+        <v>1</v>
+      </c>
+      <c r="F872" s="6">
+        <v>3</v>
+      </c>
+      <c r="G872" s="6">
+        <v>1</v>
+      </c>
+      <c r="H872" s="6">
+        <v>0</v>
+      </c>
+      <c r="I872" s="6">
+        <v>8</v>
+      </c>
+      <c r="J872" s="6">
+        <v>4</v>
+      </c>
+      <c r="K872" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L872" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M872" s="6">
+        <v>21</v>
+      </c>
+      <c r="N872" s="6">
+        <v>172</v>
+      </c>
+      <c r="O872" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A873" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B873" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C873" s="6">
+        <v>2</v>
+      </c>
+      <c r="D873" s="6">
+        <v>3</v>
+      </c>
+      <c r="E873" s="6">
+        <v>1</v>
+      </c>
+      <c r="F873" s="6">
+        <v>1</v>
+      </c>
+      <c r="G873" s="6">
+        <v>2</v>
+      </c>
+      <c r="H873" s="6">
+        <v>0</v>
+      </c>
+      <c r="I873" s="6">
+        <v>9</v>
+      </c>
+      <c r="J873" s="6">
+        <v>5</v>
+      </c>
+      <c r="K873" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L873" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M873" s="6">
+        <v>22</v>
+      </c>
+      <c r="N873" s="6">
+        <v>171</v>
+      </c>
+      <c r="O873" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A874" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B874" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C874" s="6">
+        <v>2</v>
+      </c>
+      <c r="D874" s="6">
+        <v>0</v>
+      </c>
+      <c r="E874" s="6">
+        <v>0</v>
+      </c>
+      <c r="F874" s="6">
+        <v>3</v>
+      </c>
+      <c r="G874" s="6">
+        <v>2</v>
+      </c>
+      <c r="H874" s="6">
+        <v>1</v>
+      </c>
+      <c r="I874" s="6">
+        <v>8</v>
+      </c>
+      <c r="J874" s="6">
+        <v>4</v>
+      </c>
+      <c r="K874" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L874" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M874" s="6">
+        <v>21</v>
+      </c>
+      <c r="N874" s="6">
+        <v>200</v>
+      </c>
+      <c r="O874" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A875" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B875" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C875" s="6">
+        <v>1</v>
+      </c>
+      <c r="D875" s="6">
+        <v>1</v>
+      </c>
+      <c r="E875" s="6">
+        <v>2</v>
+      </c>
+      <c r="F875" s="6">
+        <v>1</v>
+      </c>
+      <c r="G875" s="6">
+        <v>1</v>
+      </c>
+      <c r="H875" s="6">
+        <v>2</v>
+      </c>
+      <c r="I875" s="6">
+        <v>8</v>
+      </c>
+      <c r="J875" s="6">
+        <v>6</v>
+      </c>
+      <c r="K875" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L875" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M875" s="6">
+        <v>19</v>
+      </c>
+      <c r="N875" s="6">
+        <v>164</v>
+      </c>
+      <c r="O875" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A876" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B876" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C876" s="6">
+        <v>1</v>
+      </c>
+      <c r="D876" s="6">
+        <v>0</v>
+      </c>
+      <c r="E876" s="6">
+        <v>1</v>
+      </c>
+      <c r="F876" s="6">
+        <v>4</v>
+      </c>
+      <c r="G876" s="6">
+        <v>1</v>
+      </c>
+      <c r="H876" s="6">
+        <v>1</v>
+      </c>
+      <c r="I876" s="6">
+        <v>8</v>
+      </c>
+      <c r="J876" s="6">
+        <v>5</v>
+      </c>
+      <c r="K876" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L876" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M876" s="6">
+        <v>22</v>
+      </c>
+      <c r="N876" s="6">
+        <v>193</v>
+      </c>
+      <c r="O876" s="6"/>
+    </row>
+    <row r="877" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A877" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B877" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C877" s="6">
+        <v>2</v>
+      </c>
+      <c r="D877" s="6">
+        <v>1</v>
+      </c>
+      <c r="E877" s="6">
+        <v>2</v>
+      </c>
+      <c r="F877" s="6">
+        <v>1</v>
+      </c>
+      <c r="G877" s="6">
+        <v>1</v>
+      </c>
+      <c r="H877" s="6">
+        <v>1</v>
+      </c>
+      <c r="I877" s="6">
+        <v>8</v>
+      </c>
+      <c r="J877" s="6">
+        <v>6</v>
+      </c>
+      <c r="K877" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L877" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M877" s="6">
+        <v>21</v>
+      </c>
+      <c r="N877" s="6">
+        <v>180</v>
+      </c>
+      <c r="O877" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A878" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B878" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C878" s="6">
+        <v>1</v>
+      </c>
+      <c r="D878" s="6">
+        <v>2</v>
+      </c>
+      <c r="E878" s="6">
+        <v>1</v>
+      </c>
+      <c r="F878" s="6">
+        <v>0</v>
+      </c>
+      <c r="G878" s="6">
+        <v>1</v>
+      </c>
+      <c r="H878" s="6">
+        <v>3</v>
+      </c>
+      <c r="I878" s="6">
+        <v>8</v>
+      </c>
+      <c r="J878" s="6">
+        <v>5</v>
+      </c>
+      <c r="K878" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L878" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M878" s="6">
+        <v>31</v>
+      </c>
+      <c r="N878" s="6">
+        <v>197</v>
+      </c>
+      <c r="O878" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A879" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B879" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C879" s="6">
+        <v>2</v>
+      </c>
+      <c r="D879" s="6">
+        <v>0</v>
+      </c>
+      <c r="E879" s="6">
+        <v>2</v>
+      </c>
+      <c r="F879" s="6">
+        <v>0</v>
+      </c>
+      <c r="G879" s="6">
+        <v>2</v>
+      </c>
+      <c r="H879" s="6">
+        <v>2</v>
+      </c>
+      <c r="I879" s="6">
+        <v>8</v>
+      </c>
+      <c r="J879" s="6">
+        <v>4</v>
+      </c>
+      <c r="K879" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L879" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M879" s="6">
+        <v>35</v>
+      </c>
+      <c r="N879" s="6">
+        <v>178</v>
+      </c>
+      <c r="O879" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A880" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B880" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C880" s="6">
+        <v>3</v>
+      </c>
+      <c r="D880" s="6">
+        <v>0</v>
+      </c>
+      <c r="E880" s="6">
+        <v>3</v>
+      </c>
+      <c r="F880" s="6">
+        <v>0</v>
+      </c>
+      <c r="G880" s="6">
+        <v>4</v>
+      </c>
+      <c r="H880" s="6">
+        <v>0</v>
+      </c>
+      <c r="I880" s="6">
+        <v>10</v>
+      </c>
+      <c r="J880" s="6">
+        <v>3</v>
+      </c>
+      <c r="K880" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L880" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M880" s="6">
+        <v>21</v>
+      </c>
+      <c r="N880" s="6">
+        <v>193</v>
+      </c>
+      <c r="O880" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A881" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B881" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C881" s="6">
+        <v>1</v>
+      </c>
+      <c r="D881" s="6">
+        <v>2</v>
+      </c>
+      <c r="E881" s="6">
+        <v>0</v>
+      </c>
+      <c r="F881" s="6">
+        <v>1</v>
+      </c>
+      <c r="G881" s="6">
+        <v>3</v>
+      </c>
+      <c r="H881" s="6">
+        <v>1</v>
+      </c>
+      <c r="I881" s="6">
+        <v>8</v>
+      </c>
+      <c r="J881" s="6">
+        <v>5</v>
+      </c>
+      <c r="K881" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L881" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M881" s="6">
+        <v>19</v>
+      </c>
+      <c r="N881" s="6">
+        <v>180</v>
+      </c>
+      <c r="O881" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A882" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B882" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C882" s="6">
+        <v>1</v>
+      </c>
+      <c r="D882" s="6">
+        <v>2</v>
+      </c>
+      <c r="E882" s="6">
+        <v>1</v>
+      </c>
+      <c r="F882" s="6">
+        <v>0</v>
+      </c>
+      <c r="G882" s="6">
+        <v>3</v>
+      </c>
+      <c r="H882" s="6">
+        <v>0</v>
+      </c>
+      <c r="I882" s="6">
+        <v>8</v>
+      </c>
+      <c r="J882" s="6">
+        <v>5</v>
+      </c>
+      <c r="K882" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L882" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M882" s="6">
+        <v>20</v>
+      </c>
+      <c r="N882" s="6">
+        <v>187</v>
+      </c>
+      <c r="O882" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A883" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B883" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C883" s="6">
+        <v>3</v>
+      </c>
+      <c r="D883" s="6">
+        <v>1</v>
+      </c>
+      <c r="E883" s="6">
+        <v>2</v>
+      </c>
+      <c r="F883" s="6">
+        <v>0</v>
+      </c>
+      <c r="G883" s="6">
+        <v>2</v>
+      </c>
+      <c r="H883" s="6">
+        <v>0</v>
+      </c>
+      <c r="I883" s="6">
+        <v>8</v>
+      </c>
+      <c r="J883" s="6">
+        <v>4</v>
+      </c>
+      <c r="K883" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L883" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M883" s="6"/>
+      <c r="N883" s="6"/>
+      <c r="O883" s="6"/>
+    </row>
+    <row r="884" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A884" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B884" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C884" s="6">
+        <v>1</v>
+      </c>
+      <c r="D884" s="6">
+        <v>5</v>
+      </c>
+      <c r="E884" s="6">
+        <v>0</v>
+      </c>
+      <c r="F884" s="6">
+        <v>1</v>
+      </c>
+      <c r="G884" s="6">
+        <v>1</v>
+      </c>
+      <c r="H884" s="6">
+        <v>3</v>
+      </c>
+      <c r="I884" s="6">
+        <v>8</v>
+      </c>
+      <c r="J884" s="6">
+        <v>4</v>
+      </c>
+      <c r="K884" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L884" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M884" s="6">
+        <v>24</v>
+      </c>
+      <c r="N884" s="6">
+        <v>183</v>
+      </c>
+      <c r="O884" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A885" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B885" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C885" s="6">
+        <v>3</v>
+      </c>
+      <c r="D885" s="6">
+        <v>1</v>
+      </c>
+      <c r="E885" s="6">
+        <v>3</v>
+      </c>
+      <c r="F885" s="6">
+        <v>1</v>
+      </c>
+      <c r="G885" s="6">
+        <v>0</v>
+      </c>
+      <c r="H885" s="6">
+        <v>0</v>
+      </c>
+      <c r="I885" s="6">
+        <v>8</v>
+      </c>
+      <c r="J885" s="6">
+        <v>4</v>
+      </c>
+      <c r="K885" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L885" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M885" s="6">
+        <v>22</v>
+      </c>
+      <c r="N885" s="6">
+        <v>197</v>
+      </c>
+      <c r="O885" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A886" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B886" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C886" s="6">
+        <v>3</v>
+      </c>
+      <c r="D886" s="6">
+        <v>0</v>
+      </c>
+      <c r="E886" s="6">
+        <v>1</v>
+      </c>
+      <c r="F886" s="6">
+        <v>1</v>
+      </c>
+      <c r="G886" s="6">
+        <v>2</v>
+      </c>
+      <c r="H886" s="6">
+        <v>1</v>
+      </c>
+      <c r="I886" s="6">
+        <v>8</v>
+      </c>
+      <c r="J886" s="6"/>
+      <c r="K886" s="6"/>
+      <c r="L886" s="6"/>
+      <c r="M886" s="6"/>
+      <c r="N886" s="6"/>
+      <c r="O886" s="6"/>
+    </row>
+    <row r="887" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A887" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B887" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C887" s="6">
+        <v>0</v>
+      </c>
+      <c r="D887" s="6">
+        <v>3</v>
+      </c>
+      <c r="E887" s="6">
+        <v>1</v>
+      </c>
+      <c r="F887" s="6">
+        <v>2</v>
+      </c>
+      <c r="G887" s="6">
+        <v>2</v>
+      </c>
+      <c r="H887" s="6">
+        <v>1</v>
+      </c>
+      <c r="I887" s="6">
+        <v>9</v>
+      </c>
+      <c r="J887" s="6">
+        <v>5</v>
+      </c>
+      <c r="K887" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L887" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M887" s="6">
+        <v>24</v>
+      </c>
+      <c r="N887" s="6">
+        <v>180</v>
+      </c>
+      <c r="O887" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A888" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B888" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C888" s="6">
+        <v>2</v>
+      </c>
+      <c r="D888" s="6">
+        <v>1</v>
+      </c>
+      <c r="E888" s="6">
+        <v>4</v>
+      </c>
+      <c r="F888" s="6">
+        <v>1</v>
+      </c>
+      <c r="G888" s="6">
+        <v>0</v>
+      </c>
+      <c r="H888" s="6">
+        <v>0</v>
+      </c>
+      <c r="I888" s="6">
+        <v>8</v>
+      </c>
+      <c r="J888" s="6">
+        <v>4</v>
+      </c>
+      <c r="K888" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L888" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M888" s="6">
+        <v>20</v>
+      </c>
+      <c r="N888" s="6">
+        <v>203</v>
+      </c>
+      <c r="O888" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A889" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B889" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C889" s="6">
+        <v>0</v>
+      </c>
+      <c r="D889" s="6">
+        <v>2</v>
+      </c>
+      <c r="E889" s="6">
+        <v>2</v>
+      </c>
+      <c r="F889" s="6">
+        <v>1</v>
+      </c>
+      <c r="G889" s="6">
+        <v>2</v>
+      </c>
+      <c r="H889" s="6">
+        <v>1</v>
+      </c>
+      <c r="I889" s="6">
+        <v>8</v>
+      </c>
+      <c r="J889" s="6">
+        <v>5</v>
+      </c>
+      <c r="K889" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L889" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M889" s="6">
+        <v>22</v>
+      </c>
+      <c r="N889" s="6">
+        <v>170</v>
+      </c>
+      <c r="O889" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A890" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B890" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C890" s="6">
+        <v>1</v>
+      </c>
+      <c r="D890" s="6">
+        <v>1</v>
+      </c>
+      <c r="E890" s="6">
+        <v>1</v>
+      </c>
+      <c r="F890" s="6">
+        <v>1</v>
+      </c>
+      <c r="G890" s="6">
+        <v>2</v>
+      </c>
+      <c r="H890" s="6">
+        <v>2</v>
+      </c>
+      <c r="I890" s="6">
+        <v>8</v>
+      </c>
+      <c r="J890" s="6">
+        <v>6</v>
+      </c>
+      <c r="K890" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L890" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M890" s="6">
+        <v>21</v>
+      </c>
+      <c r="N890" s="6">
+        <v>172</v>
+      </c>
+      <c r="O890" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A891" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B891" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C891" s="6">
+        <v>3</v>
+      </c>
+      <c r="D891" s="6">
+        <v>1</v>
+      </c>
+      <c r="E891" s="6">
+        <v>2</v>
+      </c>
+      <c r="F891" s="6">
+        <v>0</v>
+      </c>
+      <c r="G891" s="6">
+        <v>2</v>
+      </c>
+      <c r="H891" s="6">
+        <v>0</v>
+      </c>
+      <c r="I891" s="6">
+        <v>8</v>
+      </c>
+      <c r="J891" s="6">
+        <v>4</v>
+      </c>
+      <c r="K891" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L891" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M891" s="6">
+        <v>20</v>
+      </c>
+      <c r="N891" s="6">
+        <v>183</v>
+      </c>
+      <c r="O891" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A892" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B892" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C892" s="6">
+        <v>4</v>
+      </c>
+      <c r="D892" s="6">
+        <v>2</v>
+      </c>
+      <c r="E892" s="6">
+        <v>0</v>
+      </c>
+      <c r="F892" s="6">
+        <v>1</v>
+      </c>
+      <c r="G892" s="6">
+        <v>0</v>
+      </c>
+      <c r="H892" s="6">
+        <v>1</v>
+      </c>
+      <c r="I892" s="6">
+        <v>8</v>
+      </c>
+      <c r="J892" s="6">
+        <v>4</v>
+      </c>
+      <c r="K892" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L892" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M892" s="6">
+        <v>21</v>
+      </c>
+      <c r="N892" s="6">
+        <v>184</v>
+      </c>
+      <c r="O892" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A893" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B893" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C893" s="6">
+        <v>1</v>
+      </c>
+      <c r="D893" s="6">
+        <v>2</v>
+      </c>
+      <c r="E893" s="6">
+        <v>1</v>
+      </c>
+      <c r="F893" s="6">
+        <v>0</v>
+      </c>
+      <c r="G893" s="6">
+        <v>3</v>
+      </c>
+      <c r="H893" s="6">
+        <v>1</v>
+      </c>
+      <c r="I893" s="6">
+        <v>8</v>
+      </c>
+      <c r="J893" s="6">
+        <v>5</v>
+      </c>
+      <c r="K893" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L893" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M893" s="6">
+        <v>19</v>
+      </c>
+      <c r="N893" s="6">
+        <v>184</v>
+      </c>
+      <c r="O893" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A894" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B894" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C894" s="6">
+        <v>1</v>
+      </c>
+      <c r="D894" s="6">
+        <v>3</v>
+      </c>
+      <c r="E894" s="6">
+        <v>2</v>
+      </c>
+      <c r="F894" s="6">
+        <v>2</v>
+      </c>
+      <c r="G894" s="6">
+        <v>0</v>
+      </c>
+      <c r="H894" s="6">
+        <v>1</v>
+      </c>
+      <c r="I894" s="6">
+        <v>8</v>
+      </c>
+      <c r="J894" s="6"/>
+      <c r="K894" s="6"/>
+      <c r="L894" s="6"/>
+      <c r="M894" s="6"/>
+      <c r="N894" s="6"/>
+      <c r="O894" s="6"/>
+    </row>
+    <row r="895" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A895" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B895" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C895" s="6">
+        <v>1</v>
+      </c>
+      <c r="D895" s="6">
+        <v>0</v>
+      </c>
+      <c r="E895" s="6">
+        <v>2</v>
+      </c>
+      <c r="F895" s="6">
+        <v>1</v>
+      </c>
+      <c r="G895" s="6">
+        <v>1</v>
+      </c>
+      <c r="H895" s="6">
+        <v>3</v>
+      </c>
+      <c r="I895" s="6">
+        <v>8</v>
+      </c>
+      <c r="J895" s="6">
+        <v>5</v>
+      </c>
+      <c r="K895" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L895" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M895" s="6">
+        <v>23</v>
+      </c>
+      <c r="N895" s="6">
+        <v>180</v>
+      </c>
+      <c r="O895" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="896" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A896" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B896" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C896" s="6">
+        <v>1</v>
+      </c>
+      <c r="D896" s="6">
+        <v>3</v>
+      </c>
+      <c r="E896" s="6">
+        <v>2</v>
+      </c>
+      <c r="F896" s="6">
+        <v>2</v>
+      </c>
+      <c r="G896" s="6">
+        <v>0</v>
+      </c>
+      <c r="H896" s="6">
+        <v>1</v>
+      </c>
+      <c r="I896" s="6">
+        <v>8</v>
+      </c>
+      <c r="J896" s="6">
+        <v>5</v>
+      </c>
+      <c r="K896" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L896" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M896" s="6">
+        <v>22</v>
+      </c>
+      <c r="N896" s="6">
+        <v>170</v>
+      </c>
+      <c r="O896" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A897" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B897" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C897" s="6">
+        <v>1</v>
+      </c>
+      <c r="D897" s="6">
+        <v>3</v>
+      </c>
+      <c r="E897" s="6">
+        <v>0</v>
+      </c>
+      <c r="F897" s="6">
+        <v>1</v>
+      </c>
+      <c r="G897" s="6">
+        <v>2</v>
+      </c>
+      <c r="H897" s="6">
+        <v>1</v>
+      </c>
+      <c r="I897" s="6">
+        <v>8</v>
+      </c>
+      <c r="J897" s="6">
+        <v>5</v>
+      </c>
+      <c r="K897" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L897" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M897" s="6">
+        <v>22</v>
+      </c>
+      <c r="N897" s="6">
+        <v>181</v>
+      </c>
+      <c r="O897" s="6"/>
+    </row>
+    <row r="898" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A898" s="6">
+        <v>2024</v>
+      </c>
+      <c r="B898" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C898" s="6">
+        <v>3</v>
+      </c>
+      <c r="D898" s="6">
+        <v>0</v>
+      </c>
+      <c r="E898" s="6">
+        <v>3</v>
+      </c>
+      <c r="F898" s="6">
+        <v>0</v>
+      </c>
+      <c r="G898" s="6">
+        <v>2</v>
+      </c>
+      <c r="H898" s="6">
+        <v>0</v>
+      </c>
+      <c r="I898" s="6">
+        <v>8</v>
+      </c>
+      <c r="J898" s="6">
+        <v>3</v>
+      </c>
+      <c r="K898" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L898" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M898" s="6">
+        <v>20</v>
+      </c>
+      <c r="N898" s="6">
+        <v>182</v>
+      </c>
+      <c r="O898" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\jkruppa.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBFED2C-1220-274D-859F-B288F4FFF110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6446038E-46CA-49F8-A90F-79AB077D4A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="32320" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="29">
   <si>
     <t>m</t>
   </si>
@@ -641,27 +641,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q898"/>
+  <dimension ref="A1:Q909"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A739" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N881" sqref="N881"/>
+      <pane ySplit="1" topLeftCell="A889" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B912" sqref="B912"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -1615,7 +1615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13">
+    <row r="21" spans="1:15" ht="13.2">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="13">
+    <row r="22" spans="1:15" ht="13.2">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="13">
+    <row r="23" spans="1:15" ht="13.2">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13">
+    <row r="24" spans="1:15" ht="13.2">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13">
+    <row r="25" spans="1:15" ht="13.2">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13">
+    <row r="26" spans="1:15" ht="13.2">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="13">
+    <row r="27" spans="1:15" ht="13.2">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="13">
+    <row r="28" spans="1:15" ht="13.2">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="13">
+    <row r="29" spans="1:15" ht="13.2">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="13">
+    <row r="30" spans="1:15" ht="13.2">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="13">
+    <row r="31" spans="1:15" ht="13.2">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="13">
+    <row r="32" spans="1:15" ht="13.2">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="13">
+    <row r="33" spans="1:15" ht="13.2">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="13">
+    <row r="34" spans="1:15" ht="13.2">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="13">
+    <row r="35" spans="1:15" ht="13.2">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="13">
+    <row r="36" spans="1:15" ht="13.2">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="13">
+    <row r="37" spans="1:15" ht="13.2">
       <c r="A37">
         <v>2018</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="13">
+    <row r="38" spans="1:15" ht="13.2">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="13">
+    <row r="39" spans="1:15" ht="13.2">
       <c r="A39">
         <v>2018</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13">
+    <row r="40" spans="1:15" ht="13.2">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="13">
+    <row r="41" spans="1:15" ht="13.2">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="13">
+    <row r="42" spans="1:15" ht="13.2">
       <c r="A42">
         <v>2018</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="13">
+    <row r="43" spans="1:15" ht="13.2">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="13">
+    <row r="44" spans="1:15" ht="13.2">
       <c r="A44">
         <v>2018</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="13">
+    <row r="45" spans="1:15" ht="13.2">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="13">
+    <row r="46" spans="1:15" ht="13.2">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="13">
+    <row r="47" spans="1:15" ht="13.2">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13">
+    <row r="48" spans="1:15" ht="13.2">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="13">
+    <row r="49" spans="1:15" ht="13.2">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="13">
+    <row r="50" spans="1:15" ht="13.2">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="13">
+    <row r="51" spans="1:15" ht="13.2">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="13">
+    <row r="52" spans="1:15" ht="13.2">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="13">
+    <row r="53" spans="1:15" ht="13.2">
       <c r="A53">
         <v>2018</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="13">
+    <row r="54" spans="1:15" ht="13.2">
       <c r="A54">
         <v>2018</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="13">
+    <row r="55" spans="1:15" ht="13.2">
       <c r="A55">
         <v>2018</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="13">
+    <row r="56" spans="1:15" ht="13.2">
       <c r="A56">
         <v>2018</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13">
+    <row r="57" spans="1:15" ht="13.2">
       <c r="A57">
         <v>2018</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="13">
+    <row r="58" spans="1:15" ht="13.2">
       <c r="A58">
         <v>2018</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="13">
+    <row r="59" spans="1:15" ht="13.2">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="13">
+    <row r="60" spans="1:15" ht="13.2">
       <c r="A60">
         <v>2018</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="13">
+    <row r="61" spans="1:15" ht="13.2">
       <c r="A61">
         <v>2018</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="13">
+    <row r="62" spans="1:15" ht="13.2">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13">
+    <row r="63" spans="1:15" ht="13.2">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="13">
+    <row r="64" spans="1:15" ht="13.2">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="13">
+    <row r="65" spans="1:15" ht="13.2">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="13">
+    <row r="66" spans="1:15" ht="13.2">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="13">
+    <row r="67" spans="1:15" ht="13.2">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="13">
+    <row r="68" spans="1:15" ht="13.2">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="13">
+    <row r="69" spans="1:15" ht="13.2">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="13">
+    <row r="70" spans="1:15" ht="13.2">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="13">
+    <row r="71" spans="1:15" ht="13.2">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="13">
+    <row r="72" spans="1:15" ht="13.2">
       <c r="A72">
         <v>2018</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="13">
+    <row r="73" spans="1:15" ht="13.2">
       <c r="A73">
         <v>2018</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="13">
+    <row r="74" spans="1:15" ht="13.2">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="13">
+    <row r="75" spans="1:15" ht="13.2">
       <c r="A75">
         <v>2018</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="14">
+    <row r="77" spans="1:15" ht="13.2">
       <c r="A77">
         <v>2018</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="14">
+    <row r="84" spans="1:15" ht="13.2">
       <c r="A84">
         <v>2018</v>
       </c>
@@ -41978,6 +41978,508 @@
       </c>
       <c r="O898" s="6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="899" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A899" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B899" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C899">
+        <v>2</v>
+      </c>
+      <c r="D899">
+        <v>0</v>
+      </c>
+      <c r="E899">
+        <v>0</v>
+      </c>
+      <c r="F899">
+        <v>3</v>
+      </c>
+      <c r="G899">
+        <v>0</v>
+      </c>
+      <c r="H899">
+        <v>3</v>
+      </c>
+      <c r="I899">
+        <v>8</v>
+      </c>
+      <c r="J899">
+        <v>3</v>
+      </c>
+      <c r="K899" t="s">
+        <v>4</v>
+      </c>
+      <c r="L899" t="s">
+        <v>1</v>
+      </c>
+      <c r="M899">
+        <v>21</v>
+      </c>
+      <c r="N899">
+        <v>170</v>
+      </c>
+      <c r="O899">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="900" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A900" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B900" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C900">
+        <v>3</v>
+      </c>
+      <c r="D900">
+        <v>1</v>
+      </c>
+      <c r="E900">
+        <v>2</v>
+      </c>
+      <c r="F900">
+        <v>0</v>
+      </c>
+      <c r="G900">
+        <v>1</v>
+      </c>
+      <c r="H900">
+        <v>1</v>
+      </c>
+      <c r="I900">
+        <v>8</v>
+      </c>
+      <c r="J900">
+        <v>5</v>
+      </c>
+      <c r="K900" t="s">
+        <v>2</v>
+      </c>
+      <c r="L900" t="s">
+        <v>0</v>
+      </c>
+      <c r="M900">
+        <v>29</v>
+      </c>
+      <c r="N900">
+        <v>175</v>
+      </c>
+      <c r="O900">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="901" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A901" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B901" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C901">
+        <v>1</v>
+      </c>
+      <c r="D901">
+        <v>2</v>
+      </c>
+      <c r="E901">
+        <v>0</v>
+      </c>
+      <c r="F901">
+        <v>3</v>
+      </c>
+      <c r="G901">
+        <v>1</v>
+      </c>
+      <c r="H901">
+        <v>1</v>
+      </c>
+      <c r="I901">
+        <v>8</v>
+      </c>
+      <c r="J901">
+        <v>5</v>
+      </c>
+      <c r="K901" t="s">
+        <v>7</v>
+      </c>
+      <c r="L901" t="s">
+        <v>0</v>
+      </c>
+      <c r="M901">
+        <v>27</v>
+      </c>
+      <c r="N901">
+        <v>170</v>
+      </c>
+      <c r="O901">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="902" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A902" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B902" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C902">
+        <v>1</v>
+      </c>
+      <c r="D902">
+        <v>0</v>
+      </c>
+      <c r="E902">
+        <v>1</v>
+      </c>
+      <c r="F902">
+        <v>1</v>
+      </c>
+      <c r="G902">
+        <v>3</v>
+      </c>
+      <c r="H902">
+        <v>2</v>
+      </c>
+      <c r="I902">
+        <v>8</v>
+      </c>
+      <c r="J902">
+        <v>5</v>
+      </c>
+      <c r="K902" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="903" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A903" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B903" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C903">
+        <v>1</v>
+      </c>
+      <c r="D903">
+        <v>0</v>
+      </c>
+      <c r="E903">
+        <v>1</v>
+      </c>
+      <c r="F903">
+        <v>1</v>
+      </c>
+      <c r="G903">
+        <v>3</v>
+      </c>
+      <c r="H903">
+        <v>2</v>
+      </c>
+      <c r="I903">
+        <v>8</v>
+      </c>
+      <c r="J903">
+        <v>5</v>
+      </c>
+      <c r="K903" t="s">
+        <v>4</v>
+      </c>
+      <c r="L903" t="s">
+        <v>1</v>
+      </c>
+      <c r="M903">
+        <v>27</v>
+      </c>
+      <c r="N903">
+        <v>172</v>
+      </c>
+      <c r="O903">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="904" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A904" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B904" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C904">
+        <v>0</v>
+      </c>
+      <c r="D904">
+        <v>3</v>
+      </c>
+      <c r="E904">
+        <v>0</v>
+      </c>
+      <c r="F904">
+        <v>2</v>
+      </c>
+      <c r="G904">
+        <v>3</v>
+      </c>
+      <c r="H904">
+        <v>0</v>
+      </c>
+      <c r="I904">
+        <v>8</v>
+      </c>
+      <c r="J904">
+        <v>3</v>
+      </c>
+      <c r="K904" t="s">
+        <v>3</v>
+      </c>
+      <c r="L904" t="s">
+        <v>1</v>
+      </c>
+      <c r="M904">
+        <v>21</v>
+      </c>
+      <c r="N904">
+        <v>174</v>
+      </c>
+      <c r="O904">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="905" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A905" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B905" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C905">
+        <v>0</v>
+      </c>
+      <c r="D905">
+        <v>0</v>
+      </c>
+      <c r="E905">
+        <v>0</v>
+      </c>
+      <c r="F905">
+        <v>1</v>
+      </c>
+      <c r="G905">
+        <v>2</v>
+      </c>
+      <c r="H905">
+        <v>5</v>
+      </c>
+      <c r="I905">
+        <v>8</v>
+      </c>
+      <c r="J905">
+        <v>3</v>
+      </c>
+      <c r="K905" t="s">
+        <v>5</v>
+      </c>
+      <c r="L905" t="s">
+        <v>1</v>
+      </c>
+      <c r="M905">
+        <v>20</v>
+      </c>
+      <c r="N905">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="906" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A906" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B906" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C906">
+        <v>0</v>
+      </c>
+      <c r="D906">
+        <v>1</v>
+      </c>
+      <c r="E906">
+        <v>1</v>
+      </c>
+      <c r="F906">
+        <v>1</v>
+      </c>
+      <c r="G906">
+        <v>1</v>
+      </c>
+      <c r="H906">
+        <v>4</v>
+      </c>
+      <c r="I906">
+        <v>8</v>
+      </c>
+      <c r="J906">
+        <v>5</v>
+      </c>
+      <c r="K906" t="s">
+        <v>3</v>
+      </c>
+      <c r="L906" t="s">
+        <v>1</v>
+      </c>
+      <c r="M906">
+        <v>23</v>
+      </c>
+      <c r="N906">
+        <v>173</v>
+      </c>
+      <c r="O906">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="907" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A907" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B907" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C907">
+        <v>1</v>
+      </c>
+      <c r="D907">
+        <v>0</v>
+      </c>
+      <c r="E907">
+        <v>3</v>
+      </c>
+      <c r="F907">
+        <v>1</v>
+      </c>
+      <c r="G907">
+        <v>1</v>
+      </c>
+      <c r="H907">
+        <v>2</v>
+      </c>
+      <c r="I907">
+        <v>8</v>
+      </c>
+      <c r="J907">
+        <v>5</v>
+      </c>
+      <c r="K907" t="s">
+        <v>4</v>
+      </c>
+      <c r="L907" t="s">
+        <v>1</v>
+      </c>
+      <c r="M907">
+        <v>28</v>
+      </c>
+      <c r="N907">
+        <v>160</v>
+      </c>
+      <c r="O907">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="908" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A908" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B908" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C908">
+        <v>2</v>
+      </c>
+      <c r="D908">
+        <v>0</v>
+      </c>
+      <c r="E908">
+        <v>2</v>
+      </c>
+      <c r="F908">
+        <v>3</v>
+      </c>
+      <c r="G908">
+        <v>0</v>
+      </c>
+      <c r="H908">
+        <v>1</v>
+      </c>
+      <c r="I908">
+        <v>8</v>
+      </c>
+      <c r="J908">
+        <v>4</v>
+      </c>
+      <c r="K908" t="s">
+        <v>5</v>
+      </c>
+      <c r="L908" t="s">
+        <v>1</v>
+      </c>
+      <c r="M908">
+        <v>20</v>
+      </c>
+      <c r="N908">
+        <v>163</v>
+      </c>
+      <c r="O908">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="909" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A909" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B909" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C909">
+        <v>1</v>
+      </c>
+      <c r="D909">
+        <v>1</v>
+      </c>
+      <c r="E909">
+        <v>1</v>
+      </c>
+      <c r="F909">
+        <v>2</v>
+      </c>
+      <c r="G909">
+        <v>0</v>
+      </c>
+      <c r="H909">
+        <v>3</v>
+      </c>
+      <c r="I909">
+        <v>8</v>
+      </c>
+      <c r="J909">
+        <v>5</v>
+      </c>
+      <c r="K909" t="s">
+        <v>21</v>
+      </c>
+      <c r="L909" t="s">
+        <v>1</v>
+      </c>
+      <c r="M909">
+        <v>32</v>
+      </c>
+      <c r="N909">
+        <v>168</v>
+      </c>
+      <c r="O909">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\jkruppa.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6446038E-46CA-49F8-A90F-79AB077D4A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBC9139-D410-4637-BE6E-6AEF4ADC8ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="30960" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="29">
   <si>
     <t>m</t>
   </si>
@@ -641,11 +641,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q909"/>
+  <dimension ref="A1:Q942"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A889" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B912" sqref="B912"/>
+      <pane ySplit="1" topLeftCell="A926" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B937" sqref="B937"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -42482,6 +42482,1551 @@
         <v>2</v>
       </c>
     </row>
+    <row r="910" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A910" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B910" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C910">
+        <v>1</v>
+      </c>
+      <c r="D910">
+        <v>1</v>
+      </c>
+      <c r="E910">
+        <v>3</v>
+      </c>
+      <c r="F910">
+        <v>3</v>
+      </c>
+      <c r="G910">
+        <v>0</v>
+      </c>
+      <c r="H910">
+        <v>0</v>
+      </c>
+      <c r="I910">
+        <v>8</v>
+      </c>
+      <c r="J910">
+        <v>3</v>
+      </c>
+      <c r="K910" t="s">
+        <v>5</v>
+      </c>
+      <c r="L910" t="s">
+        <v>0</v>
+      </c>
+      <c r="M910">
+        <v>23</v>
+      </c>
+      <c r="N910">
+        <v>183</v>
+      </c>
+      <c r="O910">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="911" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A911" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B911" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C911">
+        <v>2</v>
+      </c>
+      <c r="D911">
+        <v>1</v>
+      </c>
+      <c r="E911">
+        <v>0</v>
+      </c>
+      <c r="F911">
+        <v>1</v>
+      </c>
+      <c r="G911">
+        <v>0</v>
+      </c>
+      <c r="H911">
+        <v>4</v>
+      </c>
+      <c r="I911">
+        <v>8</v>
+      </c>
+      <c r="J911">
+        <v>4</v>
+      </c>
+      <c r="K911" t="s">
+        <v>7</v>
+      </c>
+      <c r="L911" t="s">
+        <v>0</v>
+      </c>
+      <c r="M911">
+        <v>23</v>
+      </c>
+      <c r="N911">
+        <v>181</v>
+      </c>
+      <c r="O911">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="912" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A912" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B912" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C912">
+        <v>2</v>
+      </c>
+      <c r="D912">
+        <v>2</v>
+      </c>
+      <c r="E912">
+        <v>1</v>
+      </c>
+      <c r="F912">
+        <v>2</v>
+      </c>
+      <c r="G912">
+        <v>0</v>
+      </c>
+      <c r="H912">
+        <v>1</v>
+      </c>
+      <c r="I912">
+        <v>8</v>
+      </c>
+      <c r="J912">
+        <v>5</v>
+      </c>
+      <c r="K912" t="s">
+        <v>7</v>
+      </c>
+      <c r="L912" t="s">
+        <v>0</v>
+      </c>
+      <c r="M912">
+        <v>32</v>
+      </c>
+      <c r="N912">
+        <v>178</v>
+      </c>
+      <c r="O912">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="913" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A913" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B913" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C913">
+        <v>2</v>
+      </c>
+      <c r="D913">
+        <v>1</v>
+      </c>
+      <c r="E913">
+        <v>1</v>
+      </c>
+      <c r="F913">
+        <v>1</v>
+      </c>
+      <c r="G913">
+        <v>2</v>
+      </c>
+      <c r="H913">
+        <v>1</v>
+      </c>
+      <c r="I913">
+        <v>8</v>
+      </c>
+      <c r="J913">
+        <v>6</v>
+      </c>
+      <c r="K913" t="s">
+        <v>4</v>
+      </c>
+      <c r="L913" t="s">
+        <v>1</v>
+      </c>
+      <c r="M913">
+        <v>23</v>
+      </c>
+      <c r="N913">
+        <v>169</v>
+      </c>
+      <c r="O913">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="914" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A914" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B914" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C914">
+        <v>3</v>
+      </c>
+      <c r="D914">
+        <v>1</v>
+      </c>
+      <c r="E914">
+        <v>3</v>
+      </c>
+      <c r="F914">
+        <v>0</v>
+      </c>
+      <c r="G914">
+        <v>1</v>
+      </c>
+      <c r="H914">
+        <v>0</v>
+      </c>
+      <c r="I914">
+        <v>8</v>
+      </c>
+      <c r="J914">
+        <v>3</v>
+      </c>
+      <c r="K914" t="s">
+        <v>4</v>
+      </c>
+      <c r="L914" t="s">
+        <v>1</v>
+      </c>
+      <c r="M914">
+        <v>23</v>
+      </c>
+      <c r="N914">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="915" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A915" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B915" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C915">
+        <v>0</v>
+      </c>
+      <c r="D915">
+        <v>3</v>
+      </c>
+      <c r="E915">
+        <v>2</v>
+      </c>
+      <c r="F915">
+        <v>1</v>
+      </c>
+      <c r="G915">
+        <v>2</v>
+      </c>
+      <c r="H915">
+        <v>0</v>
+      </c>
+      <c r="I915">
+        <v>8</v>
+      </c>
+      <c r="J915">
+        <v>4</v>
+      </c>
+      <c r="K915" t="s">
+        <v>4</v>
+      </c>
+      <c r="L915" t="s">
+        <v>1</v>
+      </c>
+      <c r="M915">
+        <v>25</v>
+      </c>
+      <c r="N915">
+        <v>168</v>
+      </c>
+      <c r="O915">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="916" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A916" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B916" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C916">
+        <v>3</v>
+      </c>
+      <c r="D916">
+        <v>0</v>
+      </c>
+      <c r="E916">
+        <v>2</v>
+      </c>
+      <c r="F916">
+        <v>1</v>
+      </c>
+      <c r="G916">
+        <v>0</v>
+      </c>
+      <c r="H916">
+        <v>2</v>
+      </c>
+      <c r="I916">
+        <v>8</v>
+      </c>
+      <c r="J916">
+        <v>4</v>
+      </c>
+      <c r="K916" t="s">
+        <v>7</v>
+      </c>
+      <c r="L916" t="s">
+        <v>1</v>
+      </c>
+      <c r="M916">
+        <v>25</v>
+      </c>
+      <c r="N916">
+        <v>172</v>
+      </c>
+      <c r="O916">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="917" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A917" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B917" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C917">
+        <v>2</v>
+      </c>
+      <c r="D917">
+        <v>3</v>
+      </c>
+      <c r="E917">
+        <v>0</v>
+      </c>
+      <c r="F917">
+        <v>2</v>
+      </c>
+      <c r="G917">
+        <v>0</v>
+      </c>
+      <c r="H917">
+        <v>1</v>
+      </c>
+      <c r="I917">
+        <v>8</v>
+      </c>
+      <c r="J917">
+        <v>4</v>
+      </c>
+      <c r="K917" t="s">
+        <v>7</v>
+      </c>
+      <c r="L917" t="s">
+        <v>1</v>
+      </c>
+      <c r="M917">
+        <v>27</v>
+      </c>
+      <c r="N917">
+        <v>163</v>
+      </c>
+      <c r="O917">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="918" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A918" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B918" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C918">
+        <v>0</v>
+      </c>
+      <c r="D918">
+        <v>0</v>
+      </c>
+      <c r="E918">
+        <v>2</v>
+      </c>
+      <c r="F918">
+        <v>1</v>
+      </c>
+      <c r="G918">
+        <v>0</v>
+      </c>
+      <c r="H918">
+        <v>5</v>
+      </c>
+      <c r="I918">
+        <v>8</v>
+      </c>
+      <c r="J918">
+        <v>3</v>
+      </c>
+      <c r="K918" t="s">
+        <v>5</v>
+      </c>
+      <c r="L918" t="s">
+        <v>0</v>
+      </c>
+      <c r="M918">
+        <v>25</v>
+      </c>
+      <c r="N918">
+        <v>174</v>
+      </c>
+      <c r="O918">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="919" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A919" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B919" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C919">
+        <v>1</v>
+      </c>
+      <c r="D919">
+        <v>0</v>
+      </c>
+      <c r="E919">
+        <v>1</v>
+      </c>
+      <c r="F919">
+        <v>4</v>
+      </c>
+      <c r="G919">
+        <v>2</v>
+      </c>
+      <c r="H919">
+        <v>0</v>
+      </c>
+      <c r="I919">
+        <v>8</v>
+      </c>
+      <c r="J919">
+        <v>4</v>
+      </c>
+      <c r="K919" t="s">
+        <v>4</v>
+      </c>
+      <c r="L919" t="s">
+        <v>1</v>
+      </c>
+      <c r="N919">
+        <v>172</v>
+      </c>
+      <c r="O919">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="920" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A920" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B920" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C920">
+        <v>4</v>
+      </c>
+      <c r="D920">
+        <v>1</v>
+      </c>
+      <c r="E920">
+        <v>0</v>
+      </c>
+      <c r="F920">
+        <v>3</v>
+      </c>
+      <c r="G920">
+        <v>0</v>
+      </c>
+      <c r="H920">
+        <v>0</v>
+      </c>
+      <c r="I920">
+        <v>8</v>
+      </c>
+      <c r="J920">
+        <v>3</v>
+      </c>
+      <c r="K920" t="s">
+        <v>7</v>
+      </c>
+      <c r="L920" t="s">
+        <v>1</v>
+      </c>
+      <c r="M920">
+        <v>24</v>
+      </c>
+      <c r="N920">
+        <v>183</v>
+      </c>
+      <c r="O920">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="921" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A921" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B921" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C921">
+        <v>0</v>
+      </c>
+      <c r="D921">
+        <v>0</v>
+      </c>
+      <c r="E921">
+        <v>4</v>
+      </c>
+      <c r="F921">
+        <v>3</v>
+      </c>
+      <c r="G921">
+        <v>1</v>
+      </c>
+      <c r="H921">
+        <v>0</v>
+      </c>
+      <c r="I921">
+        <v>8</v>
+      </c>
+      <c r="J921">
+        <v>3</v>
+      </c>
+      <c r="K921" t="s">
+        <v>4</v>
+      </c>
+      <c r="L921" t="s">
+        <v>1</v>
+      </c>
+      <c r="M921">
+        <v>26</v>
+      </c>
+      <c r="N921">
+        <v>173</v>
+      </c>
+      <c r="O921">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="922" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A922" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B922" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C922">
+        <v>1</v>
+      </c>
+      <c r="D922">
+        <v>0</v>
+      </c>
+      <c r="E922">
+        <v>1</v>
+      </c>
+      <c r="F922">
+        <v>3</v>
+      </c>
+      <c r="G922">
+        <v>2</v>
+      </c>
+      <c r="H922">
+        <v>1</v>
+      </c>
+      <c r="I922">
+        <v>8</v>
+      </c>
+      <c r="J922">
+        <v>5</v>
+      </c>
+      <c r="K922" t="s">
+        <v>3</v>
+      </c>
+      <c r="L922" t="s">
+        <v>1</v>
+      </c>
+      <c r="M922">
+        <v>24</v>
+      </c>
+      <c r="N922">
+        <v>166</v>
+      </c>
+      <c r="O922">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="923" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A923" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B923" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C923">
+        <v>2</v>
+      </c>
+      <c r="D923">
+        <v>1</v>
+      </c>
+      <c r="E923">
+        <v>1</v>
+      </c>
+      <c r="F923">
+        <v>0</v>
+      </c>
+      <c r="G923">
+        <v>1</v>
+      </c>
+      <c r="H923">
+        <v>3</v>
+      </c>
+      <c r="I923">
+        <v>8</v>
+      </c>
+      <c r="J923">
+        <v>5</v>
+      </c>
+      <c r="K923" t="s">
+        <v>3</v>
+      </c>
+      <c r="L923" t="s">
+        <v>0</v>
+      </c>
+      <c r="M923">
+        <v>23</v>
+      </c>
+      <c r="N923">
+        <v>187</v>
+      </c>
+      <c r="O923">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="924" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A924" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B924" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C924">
+        <v>0</v>
+      </c>
+      <c r="D924">
+        <v>2</v>
+      </c>
+      <c r="E924">
+        <v>1</v>
+      </c>
+      <c r="F924">
+        <v>1</v>
+      </c>
+      <c r="G924">
+        <v>2</v>
+      </c>
+      <c r="H924">
+        <v>2</v>
+      </c>
+      <c r="I924">
+        <v>8</v>
+      </c>
+      <c r="J924">
+        <v>5</v>
+      </c>
+      <c r="K924" t="s">
+        <v>5</v>
+      </c>
+      <c r="L924" t="s">
+        <v>0</v>
+      </c>
+      <c r="M924">
+        <v>28</v>
+      </c>
+      <c r="N924">
+        <v>189</v>
+      </c>
+      <c r="O924">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="925" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A925" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B925" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C925">
+        <v>1</v>
+      </c>
+      <c r="D925">
+        <v>1</v>
+      </c>
+      <c r="E925">
+        <v>4</v>
+      </c>
+      <c r="F925">
+        <v>2</v>
+      </c>
+      <c r="G925">
+        <v>0</v>
+      </c>
+      <c r="H925">
+        <v>0</v>
+      </c>
+      <c r="I925">
+        <v>8</v>
+      </c>
+      <c r="J925">
+        <v>4</v>
+      </c>
+      <c r="K925" t="s">
+        <v>3</v>
+      </c>
+      <c r="L925" t="s">
+        <v>0</v>
+      </c>
+      <c r="M925">
+        <v>27</v>
+      </c>
+      <c r="N925">
+        <v>185</v>
+      </c>
+      <c r="O925">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="926" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A926" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B926" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C926">
+        <v>2</v>
+      </c>
+      <c r="D926">
+        <v>1</v>
+      </c>
+      <c r="E926">
+        <v>2</v>
+      </c>
+      <c r="F926">
+        <v>1</v>
+      </c>
+      <c r="G926">
+        <v>0</v>
+      </c>
+      <c r="H926">
+        <v>2</v>
+      </c>
+      <c r="I926">
+        <v>8</v>
+      </c>
+      <c r="J926">
+        <v>5</v>
+      </c>
+      <c r="K926" t="s">
+        <v>7</v>
+      </c>
+      <c r="L926" t="s">
+        <v>1</v>
+      </c>
+      <c r="M926">
+        <v>25</v>
+      </c>
+      <c r="N926">
+        <v>180</v>
+      </c>
+      <c r="O926">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="927" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A927" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B927" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C927">
+        <v>1</v>
+      </c>
+      <c r="D927">
+        <v>0</v>
+      </c>
+      <c r="E927">
+        <v>2</v>
+      </c>
+      <c r="F927">
+        <v>3</v>
+      </c>
+      <c r="G927">
+        <v>0</v>
+      </c>
+      <c r="H927">
+        <v>2</v>
+      </c>
+      <c r="I927">
+        <v>8</v>
+      </c>
+      <c r="J927">
+        <v>4</v>
+      </c>
+      <c r="K927" t="s">
+        <v>7</v>
+      </c>
+      <c r="L927" t="s">
+        <v>0</v>
+      </c>
+      <c r="M927">
+        <v>27</v>
+      </c>
+      <c r="N927">
+        <v>182</v>
+      </c>
+      <c r="O927">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="928" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A928" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B928" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C928">
+        <v>1</v>
+      </c>
+      <c r="D928">
+        <v>0</v>
+      </c>
+      <c r="E928">
+        <v>1</v>
+      </c>
+      <c r="F928">
+        <v>3</v>
+      </c>
+      <c r="G928">
+        <v>0</v>
+      </c>
+      <c r="H928">
+        <v>3</v>
+      </c>
+      <c r="I928">
+        <v>8</v>
+      </c>
+      <c r="J928">
+        <v>4</v>
+      </c>
+      <c r="K928" t="s">
+        <v>5</v>
+      </c>
+      <c r="L928" t="s">
+        <v>0</v>
+      </c>
+      <c r="M928">
+        <v>26</v>
+      </c>
+      <c r="N928">
+        <v>193</v>
+      </c>
+      <c r="O928">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="929" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A929" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B929" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C929">
+        <v>1</v>
+      </c>
+      <c r="D929">
+        <v>0</v>
+      </c>
+      <c r="E929">
+        <v>2</v>
+      </c>
+      <c r="F929">
+        <v>3</v>
+      </c>
+      <c r="G929">
+        <v>1</v>
+      </c>
+      <c r="H929">
+        <v>1</v>
+      </c>
+      <c r="I929">
+        <v>8</v>
+      </c>
+      <c r="J929">
+        <v>5</v>
+      </c>
+      <c r="K929" t="s">
+        <v>7</v>
+      </c>
+      <c r="L929" t="s">
+        <v>0</v>
+      </c>
+      <c r="M929">
+        <v>23</v>
+      </c>
+      <c r="N929">
+        <v>193</v>
+      </c>
+      <c r="O929">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="930" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A930" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B930" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C930">
+        <v>0</v>
+      </c>
+      <c r="D930">
+        <v>2</v>
+      </c>
+      <c r="E930">
+        <v>2</v>
+      </c>
+      <c r="F930">
+        <v>1</v>
+      </c>
+      <c r="G930">
+        <v>0</v>
+      </c>
+      <c r="H930">
+        <v>3</v>
+      </c>
+      <c r="I930">
+        <v>8</v>
+      </c>
+      <c r="J930">
+        <v>4</v>
+      </c>
+      <c r="K930" t="s">
+        <v>3</v>
+      </c>
+      <c r="L930" t="s">
+        <v>1</v>
+      </c>
+      <c r="M930">
+        <v>23</v>
+      </c>
+      <c r="N930">
+        <v>186</v>
+      </c>
+      <c r="O930">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="931" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A931" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B931" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C931">
+        <v>3</v>
+      </c>
+      <c r="D931">
+        <v>1</v>
+      </c>
+      <c r="E931">
+        <v>3</v>
+      </c>
+      <c r="F931">
+        <v>0</v>
+      </c>
+      <c r="G931">
+        <v>1</v>
+      </c>
+      <c r="H931">
+        <v>0</v>
+      </c>
+      <c r="I931">
+        <v>8</v>
+      </c>
+      <c r="J931">
+        <v>4</v>
+      </c>
+      <c r="K931" t="s">
+        <v>7</v>
+      </c>
+      <c r="L931" t="s">
+        <v>0</v>
+      </c>
+      <c r="M931">
+        <v>28</v>
+      </c>
+      <c r="N931">
+        <v>184</v>
+      </c>
+      <c r="O931">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="932" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A932" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B932" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C932">
+        <v>1</v>
+      </c>
+      <c r="D932">
+        <v>3</v>
+      </c>
+      <c r="E932">
+        <v>3</v>
+      </c>
+      <c r="F932">
+        <v>1</v>
+      </c>
+      <c r="G932">
+        <v>1</v>
+      </c>
+      <c r="H932">
+        <v>0</v>
+      </c>
+      <c r="I932">
+        <v>9</v>
+      </c>
+      <c r="J932">
+        <v>5</v>
+      </c>
+      <c r="K932" t="s">
+        <v>3</v>
+      </c>
+      <c r="L932" t="s">
+        <v>1</v>
+      </c>
+      <c r="M932">
+        <v>25</v>
+      </c>
+      <c r="N932">
+        <v>173</v>
+      </c>
+      <c r="O932">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="933" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A933" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B933" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C933">
+        <v>2</v>
+      </c>
+      <c r="D933">
+        <v>1</v>
+      </c>
+      <c r="E933">
+        <v>0</v>
+      </c>
+      <c r="F933">
+        <v>2</v>
+      </c>
+      <c r="G933">
+        <v>2</v>
+      </c>
+      <c r="H933">
+        <v>1</v>
+      </c>
+      <c r="I933">
+        <v>8</v>
+      </c>
+      <c r="J933">
+        <v>5</v>
+      </c>
+      <c r="K933" t="s">
+        <v>3</v>
+      </c>
+      <c r="L933" t="s">
+        <v>1</v>
+      </c>
+      <c r="M933">
+        <v>24</v>
+      </c>
+      <c r="N933">
+        <v>167</v>
+      </c>
+      <c r="O933">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="934" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A934" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B934" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C934">
+        <v>3</v>
+      </c>
+      <c r="D934">
+        <v>1</v>
+      </c>
+      <c r="E934">
+        <v>2</v>
+      </c>
+      <c r="F934">
+        <v>1</v>
+      </c>
+      <c r="G934">
+        <v>1</v>
+      </c>
+      <c r="H934">
+        <v>0</v>
+      </c>
+      <c r="I934">
+        <v>8</v>
+      </c>
+      <c r="J934">
+        <v>5</v>
+      </c>
+      <c r="K934" t="s">
+        <v>7</v>
+      </c>
+      <c r="L934" t="s">
+        <v>0</v>
+      </c>
+      <c r="M934">
+        <v>24</v>
+      </c>
+      <c r="N934">
+        <v>193</v>
+      </c>
+      <c r="O934">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="935" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A935" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B935" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C935">
+        <v>1</v>
+      </c>
+      <c r="D935">
+        <v>1</v>
+      </c>
+      <c r="E935">
+        <v>1</v>
+      </c>
+      <c r="F935">
+        <v>0</v>
+      </c>
+      <c r="G935">
+        <v>3</v>
+      </c>
+      <c r="H935">
+        <v>2</v>
+      </c>
+      <c r="I935">
+        <v>8</v>
+      </c>
+      <c r="J935">
+        <v>5</v>
+      </c>
+      <c r="K935" t="s">
+        <v>7</v>
+      </c>
+      <c r="L935" t="s">
+        <v>1</v>
+      </c>
+      <c r="M935">
+        <v>23</v>
+      </c>
+      <c r="N935">
+        <v>160</v>
+      </c>
+      <c r="O935">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="936" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A936" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B936" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C936">
+        <v>1</v>
+      </c>
+      <c r="D936">
+        <v>1</v>
+      </c>
+      <c r="E936">
+        <v>2</v>
+      </c>
+      <c r="F936">
+        <v>1</v>
+      </c>
+      <c r="G936">
+        <v>2</v>
+      </c>
+      <c r="H936">
+        <v>2</v>
+      </c>
+      <c r="I936">
+        <v>9</v>
+      </c>
+      <c r="J936">
+        <v>5</v>
+      </c>
+      <c r="K936" t="s">
+        <v>7</v>
+      </c>
+      <c r="L936" t="s">
+        <v>0</v>
+      </c>
+      <c r="M936">
+        <v>23</v>
+      </c>
+      <c r="N936">
+        <v>202</v>
+      </c>
+      <c r="O936">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="937" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A937" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B937" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C937">
+        <v>3</v>
+      </c>
+      <c r="D937">
+        <v>1</v>
+      </c>
+      <c r="E937">
+        <v>0</v>
+      </c>
+      <c r="F937">
+        <v>0</v>
+      </c>
+      <c r="G937">
+        <v>2</v>
+      </c>
+      <c r="H937">
+        <v>2</v>
+      </c>
+      <c r="I937">
+        <v>8</v>
+      </c>
+      <c r="J937">
+        <v>4</v>
+      </c>
+      <c r="K937" t="s">
+        <v>3</v>
+      </c>
+      <c r="L937" t="s">
+        <v>0</v>
+      </c>
+      <c r="M937">
+        <v>23</v>
+      </c>
+      <c r="N937">
+        <v>196</v>
+      </c>
+      <c r="O937">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="938" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A938" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B938" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C938">
+        <v>1</v>
+      </c>
+      <c r="D938">
+        <v>1</v>
+      </c>
+      <c r="E938">
+        <v>2</v>
+      </c>
+      <c r="F938">
+        <v>1</v>
+      </c>
+      <c r="G938">
+        <v>2</v>
+      </c>
+      <c r="H938">
+        <v>2</v>
+      </c>
+      <c r="I938">
+        <v>9</v>
+      </c>
+      <c r="J938">
+        <v>5</v>
+      </c>
+      <c r="K938" t="s">
+        <v>8</v>
+      </c>
+      <c r="L938" t="s">
+        <v>1</v>
+      </c>
+      <c r="M938">
+        <v>24</v>
+      </c>
+      <c r="N938">
+        <v>168</v>
+      </c>
+      <c r="O938">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="939" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A939" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B939" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C939">
+        <v>0</v>
+      </c>
+      <c r="D939">
+        <v>1</v>
+      </c>
+      <c r="E939">
+        <v>3</v>
+      </c>
+      <c r="F939">
+        <v>1</v>
+      </c>
+      <c r="G939">
+        <v>0</v>
+      </c>
+      <c r="H939">
+        <v>3</v>
+      </c>
+      <c r="I939">
+        <v>8</v>
+      </c>
+      <c r="J939">
+        <v>4</v>
+      </c>
+      <c r="K939" t="s">
+        <v>4</v>
+      </c>
+      <c r="L939" t="s">
+        <v>0</v>
+      </c>
+      <c r="M939">
+        <v>24</v>
+      </c>
+      <c r="N939">
+        <v>178</v>
+      </c>
+      <c r="O939">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="940" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A940" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B940" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C940">
+        <v>2</v>
+      </c>
+      <c r="D940">
+        <v>0</v>
+      </c>
+      <c r="E940">
+        <v>0</v>
+      </c>
+      <c r="F940">
+        <v>4</v>
+      </c>
+      <c r="G940">
+        <v>0</v>
+      </c>
+      <c r="H940">
+        <v>2</v>
+      </c>
+      <c r="I940">
+        <v>8</v>
+      </c>
+      <c r="J940">
+        <v>3</v>
+      </c>
+      <c r="K940" t="s">
+        <v>7</v>
+      </c>
+      <c r="L940" t="s">
+        <v>1</v>
+      </c>
+      <c r="M940">
+        <v>23</v>
+      </c>
+      <c r="N940">
+        <v>180</v>
+      </c>
+      <c r="O940">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="941" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A941" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B941" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C941">
+        <v>2</v>
+      </c>
+      <c r="D941">
+        <v>2</v>
+      </c>
+      <c r="E941">
+        <v>1</v>
+      </c>
+      <c r="F941">
+        <v>1</v>
+      </c>
+      <c r="G941">
+        <v>1</v>
+      </c>
+      <c r="H941">
+        <v>2</v>
+      </c>
+      <c r="I941">
+        <v>9</v>
+      </c>
+      <c r="J941">
+        <v>6</v>
+      </c>
+      <c r="K941" t="s">
+        <v>3</v>
+      </c>
+      <c r="L941" t="s">
+        <v>0</v>
+      </c>
+      <c r="M941">
+        <v>25</v>
+      </c>
+      <c r="N941">
+        <v>202</v>
+      </c>
+      <c r="O941">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="942" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A942" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B942" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C942">
+        <v>3</v>
+      </c>
+      <c r="D942">
+        <v>0</v>
+      </c>
+      <c r="E942">
+        <v>0</v>
+      </c>
+      <c r="F942">
+        <v>2</v>
+      </c>
+      <c r="G942">
+        <v>0</v>
+      </c>
+      <c r="H942">
+        <v>3</v>
+      </c>
+      <c r="I942">
+        <v>8</v>
+      </c>
+      <c r="J942">
+        <v>3</v>
+      </c>
+      <c r="K942" t="s">
+        <v>3</v>
+      </c>
+      <c r="L942" t="s">
+        <v>1</v>
+      </c>
+      <c r="M942">
+        <v>23</v>
+      </c>
+      <c r="N942">
+        <v>172</v>
+      </c>
+      <c r="O942">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\jkruppa.github.io\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBC9139-D410-4637-BE6E-6AEF4ADC8ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2511E391-14CD-FC41-9E19-CCAE709167C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="30960" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1540" yWindow="1540" windowWidth="30960" windowHeight="12260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="29">
   <si>
     <t>m</t>
   </si>
@@ -641,27 +641,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q942"/>
+  <dimension ref="A1:Q943"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A926" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B937" sqref="B937"/>
+      <pane ySplit="1" topLeftCell="A931" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I947" sqref="I947"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -1615,7 +1615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13.2">
+    <row r="21" spans="1:15" ht="13">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="13.2">
+    <row r="22" spans="1:15" ht="13">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="13.2">
+    <row r="23" spans="1:15" ht="13">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13.2">
+    <row r="24" spans="1:15" ht="13">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13.2">
+    <row r="25" spans="1:15" ht="13">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13.2">
+    <row r="26" spans="1:15" ht="13">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="13.2">
+    <row r="27" spans="1:15" ht="13">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="13.2">
+    <row r="28" spans="1:15" ht="13">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="13.2">
+    <row r="29" spans="1:15" ht="13">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="13.2">
+    <row r="30" spans="1:15" ht="13">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="13.2">
+    <row r="31" spans="1:15" ht="13">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="13.2">
+    <row r="32" spans="1:15" ht="13">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="13.2">
+    <row r="33" spans="1:15" ht="13">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="13.2">
+    <row r="34" spans="1:15" ht="13">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="13.2">
+    <row r="35" spans="1:15" ht="13">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="13.2">
+    <row r="36" spans="1:15" ht="13">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="13.2">
+    <row r="37" spans="1:15" ht="13">
       <c r="A37">
         <v>2018</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="13.2">
+    <row r="38" spans="1:15" ht="13">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="13.2">
+    <row r="39" spans="1:15" ht="13">
       <c r="A39">
         <v>2018</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13.2">
+    <row r="40" spans="1:15" ht="13">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="13.2">
+    <row r="41" spans="1:15" ht="13">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="13.2">
+    <row r="42" spans="1:15" ht="13">
       <c r="A42">
         <v>2018</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="13.2">
+    <row r="43" spans="1:15" ht="13">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="13.2">
+    <row r="44" spans="1:15" ht="13">
       <c r="A44">
         <v>2018</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="13.2">
+    <row r="45" spans="1:15" ht="13">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="13.2">
+    <row r="46" spans="1:15" ht="13">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="13.2">
+    <row r="47" spans="1:15" ht="13">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13.2">
+    <row r="48" spans="1:15" ht="13">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="13.2">
+    <row r="49" spans="1:15" ht="13">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="13.2">
+    <row r="50" spans="1:15" ht="13">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="13.2">
+    <row r="51" spans="1:15" ht="13">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="13.2">
+    <row r="52" spans="1:15" ht="13">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="13.2">
+    <row r="53" spans="1:15" ht="13">
       <c r="A53">
         <v>2018</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="13.2">
+    <row r="54" spans="1:15" ht="13">
       <c r="A54">
         <v>2018</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="13.2">
+    <row r="55" spans="1:15" ht="13">
       <c r="A55">
         <v>2018</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="13.2">
+    <row r="56" spans="1:15" ht="13">
       <c r="A56">
         <v>2018</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13.2">
+    <row r="57" spans="1:15" ht="13">
       <c r="A57">
         <v>2018</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="13.2">
+    <row r="58" spans="1:15" ht="13">
       <c r="A58">
         <v>2018</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="13.2">
+    <row r="59" spans="1:15" ht="13">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="13.2">
+    <row r="60" spans="1:15" ht="13">
       <c r="A60">
         <v>2018</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="13.2">
+    <row r="61" spans="1:15" ht="13">
       <c r="A61">
         <v>2018</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="13.2">
+    <row r="62" spans="1:15" ht="13">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13.2">
+    <row r="63" spans="1:15" ht="13">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="13.2">
+    <row r="64" spans="1:15" ht="13">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="13.2">
+    <row r="65" spans="1:15" ht="13">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="13.2">
+    <row r="66" spans="1:15" ht="13">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="13.2">
+    <row r="67" spans="1:15" ht="13">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="13.2">
+    <row r="68" spans="1:15" ht="13">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="13.2">
+    <row r="69" spans="1:15" ht="13">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="13.2">
+    <row r="70" spans="1:15" ht="13">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="13.2">
+    <row r="71" spans="1:15" ht="13">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="13.2">
+    <row r="72" spans="1:15" ht="13">
       <c r="A72">
         <v>2018</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="13.2">
+    <row r="73" spans="1:15" ht="13">
       <c r="A73">
         <v>2018</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="13.2">
+    <row r="74" spans="1:15" ht="13">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="13.2">
+    <row r="75" spans="1:15" ht="13">
       <c r="A75">
         <v>2018</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="13.2">
+    <row r="77" spans="1:15" ht="14">
       <c r="A77">
         <v>2018</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="13.2">
+    <row r="84" spans="1:15" ht="14">
       <c r="A84">
         <v>2018</v>
       </c>
@@ -44025,6 +44025,53 @@
       </c>
       <c r="O942">
         <v>2</v>
+      </c>
+    </row>
+    <row r="943" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A943" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B943" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C943" s="6">
+        <v>0</v>
+      </c>
+      <c r="D943" s="6">
+        <v>2</v>
+      </c>
+      <c r="E943" s="6">
+        <v>3</v>
+      </c>
+      <c r="F943" s="6">
+        <v>0</v>
+      </c>
+      <c r="G943" s="6">
+        <v>1</v>
+      </c>
+      <c r="H943" s="6">
+        <v>2</v>
+      </c>
+      <c r="I943" s="6">
+        <v>8</v>
+      </c>
+      <c r="J943" s="6">
+        <v>4</v>
+      </c>
+      <c r="K943" t="s">
+        <v>3</v>
+      </c>
+      <c r="L943" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M943" s="6">
+        <v>57</v>
+      </c>
+      <c r="N943" s="6">
+        <v>170</v>
+      </c>
+      <c r="O943" s="6">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\jkruppa.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2511E391-14CD-FC41-9E19-CCAE709167C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5089C523-E6C0-4A25-BE99-2684D1563E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="1540" windowWidth="30960" windowHeight="12260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="30960" windowHeight="12372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2747" uniqueCount="29">
   <si>
     <t>m</t>
   </si>
@@ -641,27 +641,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q943"/>
+  <dimension ref="A1:Q960"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A931" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I947" sqref="I947"/>
+      <pane ySplit="1" topLeftCell="A946" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M952" sqref="M952"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -1615,7 +1615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13">
+    <row r="21" spans="1:15" ht="13.2">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="13">
+    <row r="22" spans="1:15" ht="13.2">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="13">
+    <row r="23" spans="1:15" ht="13.2">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13">
+    <row r="24" spans="1:15" ht="13.2">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13">
+    <row r="25" spans="1:15" ht="13.2">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13">
+    <row r="26" spans="1:15" ht="13.2">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="13">
+    <row r="27" spans="1:15" ht="13.2">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="13">
+    <row r="28" spans="1:15" ht="13.2">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="13">
+    <row r="29" spans="1:15" ht="13.2">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="13">
+    <row r="30" spans="1:15" ht="13.2">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="13">
+    <row r="31" spans="1:15" ht="13.2">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="13">
+    <row r="32" spans="1:15" ht="13.2">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="13">
+    <row r="33" spans="1:15" ht="13.2">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="13">
+    <row r="34" spans="1:15" ht="13.2">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="13">
+    <row r="35" spans="1:15" ht="13.2">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="13">
+    <row r="36" spans="1:15" ht="13.2">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="13">
+    <row r="37" spans="1:15" ht="13.2">
       <c r="A37">
         <v>2018</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="13">
+    <row r="38" spans="1:15" ht="13.2">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="13">
+    <row r="39" spans="1:15" ht="13.2">
       <c r="A39">
         <v>2018</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13">
+    <row r="40" spans="1:15" ht="13.2">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="13">
+    <row r="41" spans="1:15" ht="13.2">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="13">
+    <row r="42" spans="1:15" ht="13.2">
       <c r="A42">
         <v>2018</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="13">
+    <row r="43" spans="1:15" ht="13.2">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="13">
+    <row r="44" spans="1:15" ht="13.2">
       <c r="A44">
         <v>2018</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="13">
+    <row r="45" spans="1:15" ht="13.2">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="13">
+    <row r="46" spans="1:15" ht="13.2">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="13">
+    <row r="47" spans="1:15" ht="13.2">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13">
+    <row r="48" spans="1:15" ht="13.2">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="13">
+    <row r="49" spans="1:15" ht="13.2">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="13">
+    <row r="50" spans="1:15" ht="13.2">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="13">
+    <row r="51" spans="1:15" ht="13.2">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="13">
+    <row r="52" spans="1:15" ht="13.2">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="13">
+    <row r="53" spans="1:15" ht="13.2">
       <c r="A53">
         <v>2018</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="13">
+    <row r="54" spans="1:15" ht="13.2">
       <c r="A54">
         <v>2018</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="13">
+    <row r="55" spans="1:15" ht="13.2">
       <c r="A55">
         <v>2018</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="13">
+    <row r="56" spans="1:15" ht="13.2">
       <c r="A56">
         <v>2018</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13">
+    <row r="57" spans="1:15" ht="13.2">
       <c r="A57">
         <v>2018</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="13">
+    <row r="58" spans="1:15" ht="13.2">
       <c r="A58">
         <v>2018</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="13">
+    <row r="59" spans="1:15" ht="13.2">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="13">
+    <row r="60" spans="1:15" ht="13.2">
       <c r="A60">
         <v>2018</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="13">
+    <row r="61" spans="1:15" ht="13.2">
       <c r="A61">
         <v>2018</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="13">
+    <row r="62" spans="1:15" ht="13.2">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13">
+    <row r="63" spans="1:15" ht="13.2">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="13">
+    <row r="64" spans="1:15" ht="13.2">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="13">
+    <row r="65" spans="1:15" ht="13.2">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="13">
+    <row r="66" spans="1:15" ht="13.2">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="13">
+    <row r="67" spans="1:15" ht="13.2">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="13">
+    <row r="68" spans="1:15" ht="13.2">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="13">
+    <row r="69" spans="1:15" ht="13.2">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="13">
+    <row r="70" spans="1:15" ht="13.2">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="13">
+    <row r="71" spans="1:15" ht="13.2">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="13">
+    <row r="72" spans="1:15" ht="13.2">
       <c r="A72">
         <v>2018</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="13">
+    <row r="73" spans="1:15" ht="13.2">
       <c r="A73">
         <v>2018</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="13">
+    <row r="74" spans="1:15" ht="13.2">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="13">
+    <row r="75" spans="1:15" ht="13.2">
       <c r="A75">
         <v>2018</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="14">
+    <row r="77" spans="1:15" ht="13.2">
       <c r="A77">
         <v>2018</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="14">
+    <row r="84" spans="1:15" ht="13.2">
       <c r="A84">
         <v>2018</v>
       </c>
@@ -41352,46 +41352,46 @@
       <c r="A885" s="6">
         <v>2024</v>
       </c>
-      <c r="B885" s="6" t="s">
+      <c r="B885" t="s">
         <v>23</v>
       </c>
-      <c r="C885" s="6">
-        <v>3</v>
-      </c>
-      <c r="D885" s="6">
-        <v>1</v>
-      </c>
-      <c r="E885" s="6">
-        <v>3</v>
-      </c>
-      <c r="F885" s="6">
-        <v>1</v>
-      </c>
-      <c r="G885" s="6">
-        <v>0</v>
-      </c>
-      <c r="H885" s="6">
-        <v>0</v>
-      </c>
-      <c r="I885" s="6">
+      <c r="C885">
+        <v>3</v>
+      </c>
+      <c r="D885">
+        <v>1</v>
+      </c>
+      <c r="E885">
+        <v>3</v>
+      </c>
+      <c r="F885">
+        <v>1</v>
+      </c>
+      <c r="G885">
+        <v>0</v>
+      </c>
+      <c r="H885">
+        <v>0</v>
+      </c>
+      <c r="I885">
         <v>8</v>
       </c>
-      <c r="J885" s="6">
-        <v>4</v>
-      </c>
-      <c r="K885" s="6" t="s">
+      <c r="J885">
+        <v>4</v>
+      </c>
+      <c r="K885" t="s">
         <v>7</v>
       </c>
-      <c r="L885" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M885" s="6">
+      <c r="L885" t="s">
+        <v>0</v>
+      </c>
+      <c r="M885">
         <v>22</v>
       </c>
-      <c r="N885" s="6">
+      <c r="N885">
         <v>197</v>
       </c>
-      <c r="O885" s="6">
+      <c r="O885">
         <v>1</v>
       </c>
     </row>
@@ -41399,81 +41399,75 @@
       <c r="A886" s="6">
         <v>2024</v>
       </c>
-      <c r="B886" s="6" t="s">
+      <c r="B886" t="s">
         <v>23</v>
       </c>
-      <c r="C886" s="6">
-        <v>3</v>
-      </c>
-      <c r="D886" s="6">
-        <v>0</v>
-      </c>
-      <c r="E886" s="6">
-        <v>1</v>
-      </c>
-      <c r="F886" s="6">
-        <v>1</v>
-      </c>
-      <c r="G886" s="6">
-        <v>2</v>
-      </c>
-      <c r="H886" s="6">
-        <v>1</v>
-      </c>
-      <c r="I886" s="6">
+      <c r="C886">
+        <v>3</v>
+      </c>
+      <c r="D886">
+        <v>0</v>
+      </c>
+      <c r="E886">
+        <v>1</v>
+      </c>
+      <c r="F886">
+        <v>1</v>
+      </c>
+      <c r="G886">
+        <v>2</v>
+      </c>
+      <c r="H886">
+        <v>1</v>
+      </c>
+      <c r="I886">
         <v>8</v>
       </c>
-      <c r="J886" s="6"/>
-      <c r="K886" s="6"/>
-      <c r="L886" s="6"/>
-      <c r="M886" s="6"/>
-      <c r="N886" s="6"/>
-      <c r="O886" s="6"/>
     </row>
     <row r="887" spans="1:15" ht="15.75" customHeight="1">
       <c r="A887" s="6">
         <v>2024</v>
       </c>
-      <c r="B887" s="6" t="s">
+      <c r="B887" t="s">
         <v>23</v>
       </c>
-      <c r="C887" s="6">
-        <v>0</v>
-      </c>
-      <c r="D887" s="6">
-        <v>3</v>
-      </c>
-      <c r="E887" s="6">
-        <v>1</v>
-      </c>
-      <c r="F887" s="6">
-        <v>2</v>
-      </c>
-      <c r="G887" s="6">
-        <v>2</v>
-      </c>
-      <c r="H887" s="6">
-        <v>1</v>
-      </c>
-      <c r="I887" s="6">
+      <c r="C887">
+        <v>0</v>
+      </c>
+      <c r="D887">
+        <v>3</v>
+      </c>
+      <c r="E887">
+        <v>1</v>
+      </c>
+      <c r="F887">
+        <v>2</v>
+      </c>
+      <c r="G887">
+        <v>2</v>
+      </c>
+      <c r="H887">
+        <v>1</v>
+      </c>
+      <c r="I887">
         <v>9</v>
       </c>
-      <c r="J887" s="6">
-        <v>5</v>
-      </c>
-      <c r="K887" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L887" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M887" s="6">
+      <c r="J887">
+        <v>5</v>
+      </c>
+      <c r="K887" t="s">
+        <v>4</v>
+      </c>
+      <c r="L887" t="s">
+        <v>0</v>
+      </c>
+      <c r="M887">
         <v>24</v>
       </c>
-      <c r="N887" s="6">
+      <c r="N887">
         <v>180</v>
       </c>
-      <c r="O887" s="6">
+      <c r="O887">
         <v>1</v>
       </c>
     </row>
@@ -41481,46 +41475,46 @@
       <c r="A888" s="6">
         <v>2024</v>
       </c>
-      <c r="B888" s="6" t="s">
+      <c r="B888" t="s">
         <v>23</v>
       </c>
-      <c r="C888" s="6">
-        <v>2</v>
-      </c>
-      <c r="D888" s="6">
-        <v>1</v>
-      </c>
-      <c r="E888" s="6">
-        <v>4</v>
-      </c>
-      <c r="F888" s="6">
-        <v>1</v>
-      </c>
-      <c r="G888" s="6">
-        <v>0</v>
-      </c>
-      <c r="H888" s="6">
-        <v>0</v>
-      </c>
-      <c r="I888" s="6">
+      <c r="C888">
+        <v>2</v>
+      </c>
+      <c r="D888">
+        <v>1</v>
+      </c>
+      <c r="E888">
+        <v>4</v>
+      </c>
+      <c r="F888">
+        <v>1</v>
+      </c>
+      <c r="G888">
+        <v>0</v>
+      </c>
+      <c r="H888">
+        <v>0</v>
+      </c>
+      <c r="I888">
         <v>8</v>
       </c>
-      <c r="J888" s="6">
-        <v>4</v>
-      </c>
-      <c r="K888" s="6" t="s">
+      <c r="J888">
+        <v>4</v>
+      </c>
+      <c r="K888" t="s">
         <v>7</v>
       </c>
-      <c r="L888" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M888" s="6">
+      <c r="L888" t="s">
+        <v>0</v>
+      </c>
+      <c r="M888">
         <v>20</v>
       </c>
-      <c r="N888" s="6">
+      <c r="N888">
         <v>203</v>
       </c>
-      <c r="O888" s="6">
+      <c r="O888">
         <v>1</v>
       </c>
     </row>
@@ -41528,46 +41522,46 @@
       <c r="A889" s="6">
         <v>2024</v>
       </c>
-      <c r="B889" s="6" t="s">
+      <c r="B889" t="s">
         <v>23</v>
       </c>
-      <c r="C889" s="6">
-        <v>0</v>
-      </c>
-      <c r="D889" s="6">
-        <v>2</v>
-      </c>
-      <c r="E889" s="6">
-        <v>2</v>
-      </c>
-      <c r="F889" s="6">
-        <v>1</v>
-      </c>
-      <c r="G889" s="6">
-        <v>2</v>
-      </c>
-      <c r="H889" s="6">
-        <v>1</v>
-      </c>
-      <c r="I889" s="6">
+      <c r="C889">
+        <v>0</v>
+      </c>
+      <c r="D889">
+        <v>2</v>
+      </c>
+      <c r="E889">
+        <v>2</v>
+      </c>
+      <c r="F889">
+        <v>1</v>
+      </c>
+      <c r="G889">
+        <v>2</v>
+      </c>
+      <c r="H889">
+        <v>1</v>
+      </c>
+      <c r="I889">
         <v>8</v>
       </c>
-      <c r="J889" s="6">
-        <v>5</v>
-      </c>
-      <c r="K889" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L889" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M889" s="6">
+      <c r="J889">
+        <v>5</v>
+      </c>
+      <c r="K889" t="s">
+        <v>4</v>
+      </c>
+      <c r="L889" t="s">
+        <v>1</v>
+      </c>
+      <c r="M889">
         <v>22</v>
       </c>
-      <c r="N889" s="6">
+      <c r="N889">
         <v>170</v>
       </c>
-      <c r="O889" s="6">
+      <c r="O889">
         <v>1</v>
       </c>
     </row>
@@ -41575,46 +41569,46 @@
       <c r="A890" s="6">
         <v>2024</v>
       </c>
-      <c r="B890" s="6" t="s">
+      <c r="B890" t="s">
         <v>23</v>
       </c>
-      <c r="C890" s="6">
-        <v>1</v>
-      </c>
-      <c r="D890" s="6">
-        <v>1</v>
-      </c>
-      <c r="E890" s="6">
-        <v>1</v>
-      </c>
-      <c r="F890" s="6">
-        <v>1</v>
-      </c>
-      <c r="G890" s="6">
-        <v>2</v>
-      </c>
-      <c r="H890" s="6">
-        <v>2</v>
-      </c>
-      <c r="I890" s="6">
+      <c r="C890">
+        <v>1</v>
+      </c>
+      <c r="D890">
+        <v>1</v>
+      </c>
+      <c r="E890">
+        <v>1</v>
+      </c>
+      <c r="F890">
+        <v>1</v>
+      </c>
+      <c r="G890">
+        <v>2</v>
+      </c>
+      <c r="H890">
+        <v>2</v>
+      </c>
+      <c r="I890">
         <v>8</v>
       </c>
-      <c r="J890" s="6">
+      <c r="J890">
         <v>6</v>
       </c>
-      <c r="K890" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L890" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M890" s="6">
+      <c r="K890" t="s">
+        <v>3</v>
+      </c>
+      <c r="L890" t="s">
+        <v>1</v>
+      </c>
+      <c r="M890">
         <v>21</v>
       </c>
-      <c r="N890" s="6">
+      <c r="N890">
         <v>172</v>
       </c>
-      <c r="O890" s="6">
+      <c r="O890">
         <v>1</v>
       </c>
     </row>
@@ -41622,46 +41616,46 @@
       <c r="A891" s="6">
         <v>2024</v>
       </c>
-      <c r="B891" s="6" t="s">
+      <c r="B891" t="s">
         <v>23</v>
       </c>
-      <c r="C891" s="6">
-        <v>3</v>
-      </c>
-      <c r="D891" s="6">
-        <v>1</v>
-      </c>
-      <c r="E891" s="6">
-        <v>2</v>
-      </c>
-      <c r="F891" s="6">
-        <v>0</v>
-      </c>
-      <c r="G891" s="6">
-        <v>2</v>
-      </c>
-      <c r="H891" s="6">
-        <v>0</v>
-      </c>
-      <c r="I891" s="6">
+      <c r="C891">
+        <v>3</v>
+      </c>
+      <c r="D891">
+        <v>1</v>
+      </c>
+      <c r="E891">
+        <v>2</v>
+      </c>
+      <c r="F891">
+        <v>0</v>
+      </c>
+      <c r="G891">
+        <v>2</v>
+      </c>
+      <c r="H891">
+        <v>0</v>
+      </c>
+      <c r="I891">
         <v>8</v>
       </c>
-      <c r="J891" s="6">
-        <v>4</v>
-      </c>
-      <c r="K891" s="6" t="s">
+      <c r="J891">
+        <v>4</v>
+      </c>
+      <c r="K891" t="s">
         <v>8</v>
       </c>
-      <c r="L891" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M891" s="6">
+      <c r="L891" t="s">
+        <v>1</v>
+      </c>
+      <c r="M891">
         <v>20</v>
       </c>
-      <c r="N891" s="6">
+      <c r="N891">
         <v>183</v>
       </c>
-      <c r="O891" s="6">
+      <c r="O891">
         <v>1</v>
       </c>
     </row>
@@ -41669,46 +41663,46 @@
       <c r="A892" s="6">
         <v>2024</v>
       </c>
-      <c r="B892" s="6" t="s">
+      <c r="B892" t="s">
         <v>23</v>
       </c>
-      <c r="C892" s="6">
-        <v>4</v>
-      </c>
-      <c r="D892" s="6">
-        <v>2</v>
-      </c>
-      <c r="E892" s="6">
-        <v>0</v>
-      </c>
-      <c r="F892" s="6">
-        <v>1</v>
-      </c>
-      <c r="G892" s="6">
-        <v>0</v>
-      </c>
-      <c r="H892" s="6">
-        <v>1</v>
-      </c>
-      <c r="I892" s="6">
+      <c r="C892">
+        <v>4</v>
+      </c>
+      <c r="D892">
+        <v>2</v>
+      </c>
+      <c r="E892">
+        <v>0</v>
+      </c>
+      <c r="F892">
+        <v>1</v>
+      </c>
+      <c r="G892">
+        <v>0</v>
+      </c>
+      <c r="H892">
+        <v>1</v>
+      </c>
+      <c r="I892">
         <v>8</v>
       </c>
-      <c r="J892" s="6">
-        <v>4</v>
-      </c>
-      <c r="K892" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L892" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M892" s="6">
+      <c r="J892">
+        <v>4</v>
+      </c>
+      <c r="K892" t="s">
+        <v>4</v>
+      </c>
+      <c r="L892" t="s">
+        <v>1</v>
+      </c>
+      <c r="M892">
         <v>21</v>
       </c>
-      <c r="N892" s="6">
+      <c r="N892">
         <v>184</v>
       </c>
-      <c r="O892" s="6">
+      <c r="O892">
         <v>1</v>
       </c>
     </row>
@@ -41716,46 +41710,46 @@
       <c r="A893" s="6">
         <v>2024</v>
       </c>
-      <c r="B893" s="6" t="s">
+      <c r="B893" t="s">
         <v>23</v>
       </c>
-      <c r="C893" s="6">
-        <v>1</v>
-      </c>
-      <c r="D893" s="6">
-        <v>2</v>
-      </c>
-      <c r="E893" s="6">
-        <v>1</v>
-      </c>
-      <c r="F893" s="6">
-        <v>0</v>
-      </c>
-      <c r="G893" s="6">
-        <v>3</v>
-      </c>
-      <c r="H893" s="6">
-        <v>1</v>
-      </c>
-      <c r="I893" s="6">
+      <c r="C893">
+        <v>1</v>
+      </c>
+      <c r="D893">
+        <v>2</v>
+      </c>
+      <c r="E893">
+        <v>1</v>
+      </c>
+      <c r="F893">
+        <v>0</v>
+      </c>
+      <c r="G893">
+        <v>3</v>
+      </c>
+      <c r="H893">
+        <v>1</v>
+      </c>
+      <c r="I893">
         <v>8</v>
       </c>
-      <c r="J893" s="6">
-        <v>5</v>
-      </c>
-      <c r="K893" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L893" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M893" s="6">
+      <c r="J893">
+        <v>5</v>
+      </c>
+      <c r="K893" t="s">
+        <v>3</v>
+      </c>
+      <c r="L893" t="s">
+        <v>0</v>
+      </c>
+      <c r="M893">
         <v>19</v>
       </c>
-      <c r="N893" s="6">
+      <c r="N893">
         <v>184</v>
       </c>
-      <c r="O893" s="6">
+      <c r="O893">
         <v>1</v>
       </c>
     </row>
@@ -41763,81 +41757,75 @@
       <c r="A894" s="6">
         <v>2024</v>
       </c>
-      <c r="B894" s="6" t="s">
+      <c r="B894" t="s">
         <v>23</v>
       </c>
-      <c r="C894" s="6">
-        <v>1</v>
-      </c>
-      <c r="D894" s="6">
-        <v>3</v>
-      </c>
-      <c r="E894" s="6">
-        <v>2</v>
-      </c>
-      <c r="F894" s="6">
-        <v>2</v>
-      </c>
-      <c r="G894" s="6">
-        <v>0</v>
-      </c>
-      <c r="H894" s="6">
-        <v>1</v>
-      </c>
-      <c r="I894" s="6">
+      <c r="C894">
+        <v>1</v>
+      </c>
+      <c r="D894">
+        <v>3</v>
+      </c>
+      <c r="E894">
+        <v>2</v>
+      </c>
+      <c r="F894">
+        <v>2</v>
+      </c>
+      <c r="G894">
+        <v>0</v>
+      </c>
+      <c r="H894">
+        <v>1</v>
+      </c>
+      <c r="I894">
         <v>8</v>
       </c>
-      <c r="J894" s="6"/>
-      <c r="K894" s="6"/>
-      <c r="L894" s="6"/>
-      <c r="M894" s="6"/>
-      <c r="N894" s="6"/>
-      <c r="O894" s="6"/>
     </row>
     <row r="895" spans="1:15" ht="15.75" customHeight="1">
       <c r="A895" s="6">
         <v>2024</v>
       </c>
-      <c r="B895" s="6" t="s">
+      <c r="B895" t="s">
         <v>23</v>
       </c>
-      <c r="C895" s="6">
-        <v>1</v>
-      </c>
-      <c r="D895" s="6">
-        <v>0</v>
-      </c>
-      <c r="E895" s="6">
-        <v>2</v>
-      </c>
-      <c r="F895" s="6">
-        <v>1</v>
-      </c>
-      <c r="G895" s="6">
-        <v>1</v>
-      </c>
-      <c r="H895" s="6">
-        <v>3</v>
-      </c>
-      <c r="I895" s="6">
+      <c r="C895">
+        <v>1</v>
+      </c>
+      <c r="D895">
+        <v>0</v>
+      </c>
+      <c r="E895">
+        <v>2</v>
+      </c>
+      <c r="F895">
+        <v>1</v>
+      </c>
+      <c r="G895">
+        <v>1</v>
+      </c>
+      <c r="H895">
+        <v>3</v>
+      </c>
+      <c r="I895">
         <v>8</v>
       </c>
-      <c r="J895" s="6">
-        <v>5</v>
-      </c>
-      <c r="K895" s="6" t="s">
+      <c r="J895">
+        <v>5</v>
+      </c>
+      <c r="K895" t="s">
         <v>7</v>
       </c>
-      <c r="L895" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M895" s="6">
+      <c r="L895" t="s">
+        <v>1</v>
+      </c>
+      <c r="M895">
         <v>23</v>
       </c>
-      <c r="N895" s="6">
+      <c r="N895">
         <v>180</v>
       </c>
-      <c r="O895" s="6">
+      <c r="O895">
         <v>1</v>
       </c>
     </row>
@@ -41845,46 +41833,46 @@
       <c r="A896" s="6">
         <v>2024</v>
       </c>
-      <c r="B896" s="6" t="s">
+      <c r="B896" t="s">
         <v>23</v>
       </c>
-      <c r="C896" s="6">
-        <v>1</v>
-      </c>
-      <c r="D896" s="6">
-        <v>3</v>
-      </c>
-      <c r="E896" s="6">
-        <v>2</v>
-      </c>
-      <c r="F896" s="6">
-        <v>2</v>
-      </c>
-      <c r="G896" s="6">
-        <v>0</v>
-      </c>
-      <c r="H896" s="6">
-        <v>1</v>
-      </c>
-      <c r="I896" s="6">
+      <c r="C896">
+        <v>1</v>
+      </c>
+      <c r="D896">
+        <v>3</v>
+      </c>
+      <c r="E896">
+        <v>2</v>
+      </c>
+      <c r="F896">
+        <v>2</v>
+      </c>
+      <c r="G896">
+        <v>0</v>
+      </c>
+      <c r="H896">
+        <v>1</v>
+      </c>
+      <c r="I896">
         <v>8</v>
       </c>
-      <c r="J896" s="6">
-        <v>5</v>
-      </c>
-      <c r="K896" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L896" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M896" s="6">
+      <c r="J896">
+        <v>5</v>
+      </c>
+      <c r="K896" t="s">
+        <v>3</v>
+      </c>
+      <c r="L896" t="s">
+        <v>0</v>
+      </c>
+      <c r="M896">
         <v>22</v>
       </c>
-      <c r="N896" s="6">
+      <c r="N896">
         <v>170</v>
       </c>
-      <c r="O896" s="6">
+      <c r="O896">
         <v>1</v>
       </c>
     </row>
@@ -41892,91 +41880,90 @@
       <c r="A897" s="6">
         <v>2024</v>
       </c>
-      <c r="B897" s="6" t="s">
+      <c r="B897" t="s">
         <v>23</v>
       </c>
-      <c r="C897" s="6">
-        <v>1</v>
-      </c>
-      <c r="D897" s="6">
-        <v>3</v>
-      </c>
-      <c r="E897" s="6">
-        <v>0</v>
-      </c>
-      <c r="F897" s="6">
-        <v>1</v>
-      </c>
-      <c r="G897" s="6">
-        <v>2</v>
-      </c>
-      <c r="H897" s="6">
-        <v>1</v>
-      </c>
-      <c r="I897" s="6">
+      <c r="C897">
+        <v>1</v>
+      </c>
+      <c r="D897">
+        <v>3</v>
+      </c>
+      <c r="E897">
+        <v>0</v>
+      </c>
+      <c r="F897">
+        <v>1</v>
+      </c>
+      <c r="G897">
+        <v>2</v>
+      </c>
+      <c r="H897">
+        <v>1</v>
+      </c>
+      <c r="I897">
         <v>8</v>
       </c>
-      <c r="J897" s="6">
-        <v>5</v>
-      </c>
-      <c r="K897" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L897" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M897" s="6">
+      <c r="J897">
+        <v>5</v>
+      </c>
+      <c r="K897" t="s">
+        <v>4</v>
+      </c>
+      <c r="L897" t="s">
+        <v>0</v>
+      </c>
+      <c r="M897">
         <v>22</v>
       </c>
-      <c r="N897" s="6">
+      <c r="N897">
         <v>181</v>
       </c>
-      <c r="O897" s="6"/>
     </row>
     <row r="898" spans="1:15" ht="15.75" customHeight="1">
       <c r="A898" s="6">
         <v>2024</v>
       </c>
-      <c r="B898" s="6" t="s">
+      <c r="B898" t="s">
         <v>23</v>
       </c>
-      <c r="C898" s="6">
-        <v>3</v>
-      </c>
-      <c r="D898" s="6">
-        <v>0</v>
-      </c>
-      <c r="E898" s="6">
-        <v>3</v>
-      </c>
-      <c r="F898" s="6">
-        <v>0</v>
-      </c>
-      <c r="G898" s="6">
-        <v>2</v>
-      </c>
-      <c r="H898" s="6">
-        <v>0</v>
-      </c>
-      <c r="I898" s="6">
+      <c r="C898">
+        <v>3</v>
+      </c>
+      <c r="D898">
+        <v>0</v>
+      </c>
+      <c r="E898">
+        <v>3</v>
+      </c>
+      <c r="F898">
+        <v>0</v>
+      </c>
+      <c r="G898">
+        <v>2</v>
+      </c>
+      <c r="H898">
+        <v>0</v>
+      </c>
+      <c r="I898">
         <v>8</v>
       </c>
-      <c r="J898" s="6">
-        <v>3</v>
-      </c>
-      <c r="K898" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L898" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M898" s="6">
+      <c r="J898">
+        <v>3</v>
+      </c>
+      <c r="K898" t="s">
+        <v>3</v>
+      </c>
+      <c r="L898" t="s">
+        <v>0</v>
+      </c>
+      <c r="M898">
         <v>20</v>
       </c>
-      <c r="N898" s="6">
+      <c r="N898">
         <v>182</v>
       </c>
-      <c r="O898" s="6">
+      <c r="O898">
         <v>1</v>
       </c>
     </row>
@@ -41984,7 +41971,7 @@
       <c r="A899" s="6">
         <v>2025</v>
       </c>
-      <c r="B899" s="6" t="s">
+      <c r="B899" t="s">
         <v>17</v>
       </c>
       <c r="C899">
@@ -42031,7 +42018,7 @@
       <c r="A900" s="6">
         <v>2025</v>
       </c>
-      <c r="B900" s="6" t="s">
+      <c r="B900" t="s">
         <v>17</v>
       </c>
       <c r="C900">
@@ -42078,7 +42065,7 @@
       <c r="A901" s="6">
         <v>2025</v>
       </c>
-      <c r="B901" s="6" t="s">
+      <c r="B901" t="s">
         <v>17</v>
       </c>
       <c r="C901">
@@ -42125,7 +42112,7 @@
       <c r="A902" s="6">
         <v>2025</v>
       </c>
-      <c r="B902" s="6" t="s">
+      <c r="B902" t="s">
         <v>17</v>
       </c>
       <c r="C902">
@@ -42160,7 +42147,7 @@
       <c r="A903" s="6">
         <v>2025</v>
       </c>
-      <c r="B903" s="6" t="s">
+      <c r="B903" t="s">
         <v>17</v>
       </c>
       <c r="C903">
@@ -42207,7 +42194,7 @@
       <c r="A904" s="6">
         <v>2025</v>
       </c>
-      <c r="B904" s="6" t="s">
+      <c r="B904" t="s">
         <v>17</v>
       </c>
       <c r="C904">
@@ -42254,7 +42241,7 @@
       <c r="A905" s="6">
         <v>2025</v>
       </c>
-      <c r="B905" s="6" t="s">
+      <c r="B905" t="s">
         <v>17</v>
       </c>
       <c r="C905">
@@ -42298,7 +42285,7 @@
       <c r="A906" s="6">
         <v>2025</v>
       </c>
-      <c r="B906" s="6" t="s">
+      <c r="B906" t="s">
         <v>17</v>
       </c>
       <c r="C906">
@@ -42345,7 +42332,7 @@
       <c r="A907" s="6">
         <v>2025</v>
       </c>
-      <c r="B907" s="6" t="s">
+      <c r="B907" t="s">
         <v>17</v>
       </c>
       <c r="C907">
@@ -42392,7 +42379,7 @@
       <c r="A908" s="6">
         <v>2025</v>
       </c>
-      <c r="B908" s="6" t="s">
+      <c r="B908" t="s">
         <v>17</v>
       </c>
       <c r="C908">
@@ -42439,7 +42426,7 @@
       <c r="A909" s="6">
         <v>2025</v>
       </c>
-      <c r="B909" s="6" t="s">
+      <c r="B909" t="s">
         <v>17</v>
       </c>
       <c r="C909">
@@ -42486,7 +42473,7 @@
       <c r="A910" s="6">
         <v>2025</v>
       </c>
-      <c r="B910" s="6" t="s">
+      <c r="B910" t="s">
         <v>19</v>
       </c>
       <c r="C910">
@@ -42533,7 +42520,7 @@
       <c r="A911" s="6">
         <v>2025</v>
       </c>
-      <c r="B911" s="6" t="s">
+      <c r="B911" t="s">
         <v>19</v>
       </c>
       <c r="C911">
@@ -42580,7 +42567,7 @@
       <c r="A912" s="6">
         <v>2025</v>
       </c>
-      <c r="B912" s="6" t="s">
+      <c r="B912" t="s">
         <v>19</v>
       </c>
       <c r="C912">
@@ -42627,7 +42614,7 @@
       <c r="A913" s="6">
         <v>2025</v>
       </c>
-      <c r="B913" s="6" t="s">
+      <c r="B913" t="s">
         <v>19</v>
       </c>
       <c r="C913">
@@ -42674,7 +42661,7 @@
       <c r="A914" s="6">
         <v>2025</v>
       </c>
-      <c r="B914" s="6" t="s">
+      <c r="B914" t="s">
         <v>19</v>
       </c>
       <c r="C914">
@@ -42718,7 +42705,7 @@
       <c r="A915" s="6">
         <v>2025</v>
       </c>
-      <c r="B915" s="6" t="s">
+      <c r="B915" t="s">
         <v>19</v>
       </c>
       <c r="C915">
@@ -42765,7 +42752,7 @@
       <c r="A916" s="6">
         <v>2025</v>
       </c>
-      <c r="B916" s="6" t="s">
+      <c r="B916" t="s">
         <v>19</v>
       </c>
       <c r="C916">
@@ -42812,7 +42799,7 @@
       <c r="A917" s="6">
         <v>2025</v>
       </c>
-      <c r="B917" s="6" t="s">
+      <c r="B917" t="s">
         <v>19</v>
       </c>
       <c r="C917">
@@ -42859,7 +42846,7 @@
       <c r="A918" s="6">
         <v>2025</v>
       </c>
-      <c r="B918" s="6" t="s">
+      <c r="B918" t="s">
         <v>19</v>
       </c>
       <c r="C918">
@@ -42906,7 +42893,7 @@
       <c r="A919" s="6">
         <v>2025</v>
       </c>
-      <c r="B919" s="6" t="s">
+      <c r="B919" t="s">
         <v>19</v>
       </c>
       <c r="C919">
@@ -42950,7 +42937,7 @@
       <c r="A920" s="6">
         <v>2025</v>
       </c>
-      <c r="B920" s="6" t="s">
+      <c r="B920" t="s">
         <v>19</v>
       </c>
       <c r="C920">
@@ -42997,7 +42984,7 @@
       <c r="A921" s="6">
         <v>2025</v>
       </c>
-      <c r="B921" s="6" t="s">
+      <c r="B921" t="s">
         <v>19</v>
       </c>
       <c r="C921">
@@ -43044,7 +43031,7 @@
       <c r="A922" s="6">
         <v>2025</v>
       </c>
-      <c r="B922" s="6" t="s">
+      <c r="B922" t="s">
         <v>19</v>
       </c>
       <c r="C922">
@@ -43091,7 +43078,7 @@
       <c r="A923" s="6">
         <v>2025</v>
       </c>
-      <c r="B923" s="6" t="s">
+      <c r="B923" t="s">
         <v>19</v>
       </c>
       <c r="C923">
@@ -43138,7 +43125,7 @@
       <c r="A924" s="6">
         <v>2025</v>
       </c>
-      <c r="B924" s="6" t="s">
+      <c r="B924" t="s">
         <v>19</v>
       </c>
       <c r="C924">
@@ -43185,7 +43172,7 @@
       <c r="A925" s="6">
         <v>2025</v>
       </c>
-      <c r="B925" s="6" t="s">
+      <c r="B925" t="s">
         <v>19</v>
       </c>
       <c r="C925">
@@ -43232,7 +43219,7 @@
       <c r="A926" s="6">
         <v>2025</v>
       </c>
-      <c r="B926" s="6" t="s">
+      <c r="B926" t="s">
         <v>19</v>
       </c>
       <c r="C926">
@@ -43279,7 +43266,7 @@
       <c r="A927" s="6">
         <v>2025</v>
       </c>
-      <c r="B927" s="6" t="s">
+      <c r="B927" t="s">
         <v>19</v>
       </c>
       <c r="C927">
@@ -43326,7 +43313,7 @@
       <c r="A928" s="6">
         <v>2025</v>
       </c>
-      <c r="B928" s="6" t="s">
+      <c r="B928" t="s">
         <v>19</v>
       </c>
       <c r="C928">
@@ -43373,7 +43360,7 @@
       <c r="A929" s="6">
         <v>2025</v>
       </c>
-      <c r="B929" s="6" t="s">
+      <c r="B929" t="s">
         <v>19</v>
       </c>
       <c r="C929">
@@ -43420,7 +43407,7 @@
       <c r="A930" s="6">
         <v>2025</v>
       </c>
-      <c r="B930" s="6" t="s">
+      <c r="B930" t="s">
         <v>19</v>
       </c>
       <c r="C930">
@@ -43467,7 +43454,7 @@
       <c r="A931" s="6">
         <v>2025</v>
       </c>
-      <c r="B931" s="6" t="s">
+      <c r="B931" t="s">
         <v>19</v>
       </c>
       <c r="C931">
@@ -43514,7 +43501,7 @@
       <c r="A932" s="6">
         <v>2025</v>
       </c>
-      <c r="B932" s="6" t="s">
+      <c r="B932" t="s">
         <v>19</v>
       </c>
       <c r="C932">
@@ -43561,7 +43548,7 @@
       <c r="A933" s="6">
         <v>2025</v>
       </c>
-      <c r="B933" s="6" t="s">
+      <c r="B933" t="s">
         <v>19</v>
       </c>
       <c r="C933">
@@ -43608,7 +43595,7 @@
       <c r="A934" s="6">
         <v>2025</v>
       </c>
-      <c r="B934" s="6" t="s">
+      <c r="B934" t="s">
         <v>19</v>
       </c>
       <c r="C934">
@@ -43655,7 +43642,7 @@
       <c r="A935" s="6">
         <v>2025</v>
       </c>
-      <c r="B935" s="6" t="s">
+      <c r="B935" t="s">
         <v>19</v>
       </c>
       <c r="C935">
@@ -43702,7 +43689,7 @@
       <c r="A936" s="6">
         <v>2025</v>
       </c>
-      <c r="B936" s="6" t="s">
+      <c r="B936" t="s">
         <v>19</v>
       </c>
       <c r="C936">
@@ -43749,7 +43736,7 @@
       <c r="A937" s="6">
         <v>2025</v>
       </c>
-      <c r="B937" s="6" t="s">
+      <c r="B937" t="s">
         <v>19</v>
       </c>
       <c r="C937">
@@ -43796,7 +43783,7 @@
       <c r="A938" s="6">
         <v>2025</v>
       </c>
-      <c r="B938" s="6" t="s">
+      <c r="B938" t="s">
         <v>19</v>
       </c>
       <c r="C938">
@@ -43843,7 +43830,7 @@
       <c r="A939" s="6">
         <v>2025</v>
       </c>
-      <c r="B939" s="6" t="s">
+      <c r="B939" t="s">
         <v>19</v>
       </c>
       <c r="C939">
@@ -43890,7 +43877,7 @@
       <c r="A940" s="6">
         <v>2025</v>
       </c>
-      <c r="B940" s="6" t="s">
+      <c r="B940" t="s">
         <v>19</v>
       </c>
       <c r="C940">
@@ -43937,7 +43924,7 @@
       <c r="A941" s="6">
         <v>2025</v>
       </c>
-      <c r="B941" s="6" t="s">
+      <c r="B941" t="s">
         <v>19</v>
       </c>
       <c r="C941">
@@ -43984,7 +43971,7 @@
       <c r="A942" s="6">
         <v>2025</v>
       </c>
-      <c r="B942" s="6" t="s">
+      <c r="B942" t="s">
         <v>19</v>
       </c>
       <c r="C942">
@@ -44031,47 +44018,840 @@
       <c r="A943" s="6">
         <v>2025</v>
       </c>
-      <c r="B943" s="6" t="s">
+      <c r="B943" t="s">
         <v>19</v>
       </c>
-      <c r="C943" s="6">
-        <v>0</v>
-      </c>
-      <c r="D943" s="6">
-        <v>2</v>
-      </c>
-      <c r="E943" s="6">
-        <v>3</v>
-      </c>
-      <c r="F943" s="6">
-        <v>0</v>
-      </c>
-      <c r="G943" s="6">
-        <v>1</v>
-      </c>
-      <c r="H943" s="6">
-        <v>2</v>
-      </c>
-      <c r="I943" s="6">
+      <c r="C943">
+        <v>0</v>
+      </c>
+      <c r="D943">
+        <v>2</v>
+      </c>
+      <c r="E943">
+        <v>3</v>
+      </c>
+      <c r="F943">
+        <v>0</v>
+      </c>
+      <c r="G943">
+        <v>1</v>
+      </c>
+      <c r="H943">
+        <v>2</v>
+      </c>
+      <c r="I943">
         <v>8</v>
       </c>
-      <c r="J943" s="6">
+      <c r="J943">
         <v>4</v>
       </c>
       <c r="K943" t="s">
         <v>3</v>
       </c>
-      <c r="L943" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M943" s="6">
+      <c r="L943" t="s">
+        <v>1</v>
+      </c>
+      <c r="M943">
         <v>57</v>
       </c>
-      <c r="N943" s="6">
+      <c r="N943">
         <v>170</v>
       </c>
-      <c r="O943" s="6">
+      <c r="O943">
         <v>12</v>
+      </c>
+    </row>
+    <row r="944" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A944" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B944" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C944">
+        <v>1</v>
+      </c>
+      <c r="D944">
+        <v>1</v>
+      </c>
+      <c r="E944">
+        <v>2</v>
+      </c>
+      <c r="F944">
+        <v>4</v>
+      </c>
+      <c r="G944">
+        <v>0</v>
+      </c>
+      <c r="H944">
+        <v>1</v>
+      </c>
+      <c r="I944">
+        <v>9</v>
+      </c>
+      <c r="J944">
+        <v>5</v>
+      </c>
+      <c r="K944" t="s">
+        <v>3</v>
+      </c>
+      <c r="L944" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M944">
+        <v>19</v>
+      </c>
+      <c r="N944">
+        <v>193</v>
+      </c>
+      <c r="O944">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A945" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B945" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C945">
+        <v>3</v>
+      </c>
+      <c r="D945">
+        <v>2</v>
+      </c>
+      <c r="E945">
+        <v>2</v>
+      </c>
+      <c r="F945">
+        <v>1</v>
+      </c>
+      <c r="G945">
+        <v>1</v>
+      </c>
+      <c r="H945">
+        <v>1</v>
+      </c>
+      <c r="I945">
+        <v>10</v>
+      </c>
+      <c r="J945">
+        <v>6</v>
+      </c>
+      <c r="K945" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L945" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M945">
+        <v>22</v>
+      </c>
+      <c r="N945">
+        <v>171</v>
+      </c>
+      <c r="O945">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="946" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A946" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B946" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C946">
+        <v>0</v>
+      </c>
+      <c r="D946">
+        <v>0</v>
+      </c>
+      <c r="E946">
+        <v>1</v>
+      </c>
+      <c r="F946">
+        <v>4</v>
+      </c>
+      <c r="G946">
+        <v>0</v>
+      </c>
+      <c r="H946">
+        <v>4</v>
+      </c>
+      <c r="I946">
+        <v>9</v>
+      </c>
+      <c r="J946">
+        <v>3</v>
+      </c>
+      <c r="K946" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L946" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M946">
+        <v>22</v>
+      </c>
+      <c r="N946">
+        <v>183</v>
+      </c>
+      <c r="O946">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="947" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A947" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B947" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C947">
+        <v>2</v>
+      </c>
+      <c r="D947">
+        <v>0</v>
+      </c>
+      <c r="E947">
+        <v>4</v>
+      </c>
+      <c r="F947">
+        <v>4</v>
+      </c>
+      <c r="G947">
+        <v>1</v>
+      </c>
+      <c r="H947">
+        <v>0</v>
+      </c>
+      <c r="I947">
+        <v>11</v>
+      </c>
+      <c r="J947">
+        <v>4</v>
+      </c>
+      <c r="K947" t="s">
+        <v>3</v>
+      </c>
+      <c r="L947" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M947">
+        <v>24</v>
+      </c>
+      <c r="N947">
+        <v>172</v>
+      </c>
+      <c r="O947">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="948" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A948" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B948" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C948">
+        <v>2</v>
+      </c>
+      <c r="D948">
+        <v>1</v>
+      </c>
+      <c r="E948">
+        <v>3</v>
+      </c>
+      <c r="F948">
+        <v>2</v>
+      </c>
+      <c r="G948">
+        <v>0</v>
+      </c>
+      <c r="H948">
+        <v>0</v>
+      </c>
+      <c r="I948">
+        <v>9</v>
+      </c>
+      <c r="J948">
+        <v>4</v>
+      </c>
+      <c r="K948" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L948" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M948">
+        <v>25</v>
+      </c>
+      <c r="N948">
+        <v>187</v>
+      </c>
+      <c r="O948">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="949" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A949" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B949" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C949">
+        <v>0</v>
+      </c>
+      <c r="D949">
+        <v>0</v>
+      </c>
+      <c r="E949">
+        <v>2</v>
+      </c>
+      <c r="F949">
+        <v>4</v>
+      </c>
+      <c r="G949">
+        <v>3</v>
+      </c>
+      <c r="H949">
+        <v>0</v>
+      </c>
+      <c r="I949">
+        <v>9</v>
+      </c>
+      <c r="J949">
+        <v>3</v>
+      </c>
+      <c r="K949" t="s">
+        <v>3</v>
+      </c>
+      <c r="L949" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M949">
+        <v>21</v>
+      </c>
+      <c r="N949">
+        <v>173</v>
+      </c>
+      <c r="O949">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="950" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A950" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B950" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C950">
+        <v>3</v>
+      </c>
+      <c r="D950">
+        <v>1</v>
+      </c>
+      <c r="E950">
+        <v>4</v>
+      </c>
+      <c r="F950">
+        <v>1</v>
+      </c>
+      <c r="G950">
+        <v>1</v>
+      </c>
+      <c r="H950">
+        <v>0</v>
+      </c>
+      <c r="I950">
+        <v>10</v>
+      </c>
+      <c r="J950">
+        <v>5</v>
+      </c>
+      <c r="K950" t="s">
+        <v>3</v>
+      </c>
+      <c r="L950" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M950">
+        <v>20</v>
+      </c>
+      <c r="N950">
+        <v>171</v>
+      </c>
+      <c r="O950">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="951" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A951" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B951" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C951">
+        <v>1</v>
+      </c>
+      <c r="D951">
+        <v>0</v>
+      </c>
+      <c r="E951">
+        <v>2</v>
+      </c>
+      <c r="F951">
+        <v>4</v>
+      </c>
+      <c r="G951">
+        <v>2</v>
+      </c>
+      <c r="H951">
+        <v>1</v>
+      </c>
+      <c r="I951">
+        <v>10</v>
+      </c>
+      <c r="J951">
+        <v>5</v>
+      </c>
+      <c r="K951" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L951" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M951">
+        <v>27</v>
+      </c>
+      <c r="N951">
+        <v>157</v>
+      </c>
+      <c r="O951">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="952" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A952" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B952" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C952">
+        <v>2</v>
+      </c>
+      <c r="D952">
+        <v>2</v>
+      </c>
+      <c r="E952">
+        <v>3</v>
+      </c>
+      <c r="F952">
+        <v>2</v>
+      </c>
+      <c r="G952">
+        <v>1</v>
+      </c>
+      <c r="H952">
+        <v>0</v>
+      </c>
+      <c r="I952">
+        <v>9</v>
+      </c>
+      <c r="J952">
+        <v>5</v>
+      </c>
+      <c r="K952" t="s">
+        <v>3</v>
+      </c>
+      <c r="L952" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N952">
+        <v>187</v>
+      </c>
+      <c r="O952">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="953" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A953" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B953" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C953">
+        <v>2</v>
+      </c>
+      <c r="D953">
+        <v>4</v>
+      </c>
+      <c r="E953">
+        <v>1</v>
+      </c>
+      <c r="F953">
+        <v>1</v>
+      </c>
+      <c r="G953">
+        <v>1</v>
+      </c>
+      <c r="H953">
+        <v>0</v>
+      </c>
+      <c r="I953">
+        <v>9</v>
+      </c>
+      <c r="J953">
+        <v>5</v>
+      </c>
+      <c r="K953" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L953" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M953">
+        <v>19</v>
+      </c>
+      <c r="N953">
+        <v>178</v>
+      </c>
+      <c r="O953">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="954" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A954" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B954" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C954">
+        <v>2</v>
+      </c>
+      <c r="D954">
+        <v>1</v>
+      </c>
+      <c r="E954">
+        <v>0</v>
+      </c>
+      <c r="F954">
+        <v>2</v>
+      </c>
+      <c r="G954">
+        <v>0</v>
+      </c>
+      <c r="H954">
+        <v>3</v>
+      </c>
+      <c r="I954">
+        <v>9</v>
+      </c>
+      <c r="J954">
+        <v>5</v>
+      </c>
+      <c r="K954" t="s">
+        <v>3</v>
+      </c>
+      <c r="L954" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M954">
+        <v>19</v>
+      </c>
+      <c r="N954">
+        <v>172</v>
+      </c>
+      <c r="O954">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A955" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B955" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C955">
+        <v>1</v>
+      </c>
+      <c r="D955">
+        <v>0</v>
+      </c>
+      <c r="E955">
+        <v>2</v>
+      </c>
+      <c r="F955">
+        <v>2</v>
+      </c>
+      <c r="G955">
+        <v>4</v>
+      </c>
+      <c r="H955">
+        <v>0</v>
+      </c>
+      <c r="I955">
+        <v>9</v>
+      </c>
+      <c r="J955">
+        <v>4</v>
+      </c>
+      <c r="K955" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L955" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M955">
+        <v>18</v>
+      </c>
+      <c r="N955">
+        <v>160</v>
+      </c>
+      <c r="O955">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="956" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A956" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B956" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C956">
+        <v>3</v>
+      </c>
+      <c r="D956">
+        <v>4</v>
+      </c>
+      <c r="E956">
+        <v>3</v>
+      </c>
+      <c r="F956">
+        <v>2</v>
+      </c>
+      <c r="G956">
+        <v>1</v>
+      </c>
+      <c r="H956">
+        <v>1</v>
+      </c>
+      <c r="I956">
+        <v>13</v>
+      </c>
+      <c r="J956">
+        <v>5</v>
+      </c>
+      <c r="K956" t="s">
+        <v>3</v>
+      </c>
+      <c r="L956" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M956">
+        <v>39</v>
+      </c>
+      <c r="N956">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="957" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A957" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B957" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C957">
+        <v>0</v>
+      </c>
+      <c r="D957">
+        <v>1</v>
+      </c>
+      <c r="E957">
+        <v>1</v>
+      </c>
+      <c r="F957">
+        <v>2</v>
+      </c>
+      <c r="G957">
+        <v>4</v>
+      </c>
+      <c r="H957">
+        <v>0</v>
+      </c>
+      <c r="I957">
+        <v>9</v>
+      </c>
+      <c r="J957">
+        <v>5</v>
+      </c>
+      <c r="K957" t="s">
+        <v>3</v>
+      </c>
+      <c r="L957" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M957">
+        <v>21</v>
+      </c>
+      <c r="N957">
+        <v>184</v>
+      </c>
+      <c r="O957">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="958" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A958" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B958" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C958">
+        <v>3</v>
+      </c>
+      <c r="D958">
+        <v>1</v>
+      </c>
+      <c r="E958">
+        <v>1</v>
+      </c>
+      <c r="F958">
+        <v>3</v>
+      </c>
+      <c r="G958">
+        <v>0</v>
+      </c>
+      <c r="H958">
+        <v>1</v>
+      </c>
+      <c r="I958">
+        <v>9</v>
+      </c>
+      <c r="J958">
+        <v>5</v>
+      </c>
+      <c r="K958" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L958" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M958">
+        <v>23</v>
+      </c>
+      <c r="N958">
+        <v>193</v>
+      </c>
+      <c r="O958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A959" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B959" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C959">
+        <v>2</v>
+      </c>
+      <c r="D959">
+        <v>2</v>
+      </c>
+      <c r="E959">
+        <v>1</v>
+      </c>
+      <c r="F959">
+        <v>2</v>
+      </c>
+      <c r="G959">
+        <v>2</v>
+      </c>
+      <c r="H959">
+        <v>2</v>
+      </c>
+      <c r="I959">
+        <v>11</v>
+      </c>
+      <c r="J959">
+        <v>6</v>
+      </c>
+      <c r="K959" t="s">
+        <v>2</v>
+      </c>
+      <c r="L959" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M959">
+        <v>22</v>
+      </c>
+      <c r="N959">
+        <v>190</v>
+      </c>
+      <c r="O959">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A960" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B960" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C960">
+        <v>1</v>
+      </c>
+      <c r="D960">
+        <v>2</v>
+      </c>
+      <c r="E960">
+        <v>2</v>
+      </c>
+      <c r="F960">
+        <v>1</v>
+      </c>
+      <c r="G960">
+        <v>3</v>
+      </c>
+      <c r="H960">
+        <v>0</v>
+      </c>
+      <c r="I960">
+        <v>9</v>
+      </c>
+      <c r="J960">
+        <v>5</v>
+      </c>
+      <c r="K960" t="s">
+        <v>3</v>
+      </c>
+      <c r="L960" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M960">
+        <v>19</v>
+      </c>
+      <c r="N960">
+        <v>175</v>
+      </c>
+      <c r="O960">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\jkruppa.github.io\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5089C523-E6C0-4A25-BE99-2684D1563E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A48F3A-961E-EC45-90F9-077CCA5FC81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="30960" windowHeight="12372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3080" yWindow="3080" windowWidth="30960" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2747" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="29">
   <si>
     <t>m</t>
   </si>
@@ -230,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -259,6 +259,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -641,29 +642,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q960"/>
+  <dimension ref="A1:Q966"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A946" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M952" sqref="M952"/>
+      <pane ySplit="1" topLeftCell="A948" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B959" sqref="B959"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1615,7 +1616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13.2">
+    <row r="21" spans="1:15" ht="13">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="13.2">
+    <row r="22" spans="1:15" ht="13">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -1711,7 +1712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="13.2">
+    <row r="23" spans="1:15" ht="13">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13.2">
+    <row r="24" spans="1:15" ht="13">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13.2">
+    <row r="25" spans="1:15" ht="13">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13.2">
+    <row r="26" spans="1:15" ht="13">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="13.2">
+    <row r="27" spans="1:15" ht="13">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -1951,7 +1952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="13.2">
+    <row r="28" spans="1:15" ht="13">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -1999,7 +2000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="13.2">
+    <row r="29" spans="1:15" ht="13">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="13.2">
+    <row r="30" spans="1:15" ht="13">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="13.2">
+    <row r="31" spans="1:15" ht="13">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -2131,7 +2132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="13.2">
+    <row r="32" spans="1:15" ht="13">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -2179,7 +2180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="13.2">
+    <row r="33" spans="1:15" ht="13">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -2227,7 +2228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="13.2">
+    <row r="34" spans="1:15" ht="13">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -2275,7 +2276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="13.2">
+    <row r="35" spans="1:15" ht="13">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="13.2">
+    <row r="36" spans="1:15" ht="13">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="13.2">
+    <row r="37" spans="1:15" ht="13">
       <c r="A37">
         <v>2018</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="13.2">
+    <row r="38" spans="1:15" ht="13">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="13.2">
+    <row r="39" spans="1:15" ht="13">
       <c r="A39">
         <v>2018</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13.2">
+    <row r="40" spans="1:15" ht="13">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -2551,7 +2552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="13.2">
+    <row r="41" spans="1:15" ht="13">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="13.2">
+    <row r="42" spans="1:15" ht="13">
       <c r="A42">
         <v>2018</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="13.2">
+    <row r="43" spans="1:15" ht="13">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -2695,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="13.2">
+    <row r="44" spans="1:15" ht="13">
       <c r="A44">
         <v>2018</v>
       </c>
@@ -2743,7 +2744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="13.2">
+    <row r="45" spans="1:15" ht="13">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -2791,7 +2792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="13.2">
+    <row r="46" spans="1:15" ht="13">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="13.2">
+    <row r="47" spans="1:15" ht="13">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -2887,7 +2888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13.2">
+    <row r="48" spans="1:15" ht="13">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="13.2">
+    <row r="49" spans="1:15" ht="13">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="13.2">
+    <row r="50" spans="1:15" ht="13">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -3031,7 +3032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="13.2">
+    <row r="51" spans="1:15" ht="13">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -3079,7 +3080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="13.2">
+    <row r="52" spans="1:15" ht="13">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -3124,7 +3125,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="13.2">
+    <row r="53" spans="1:15" ht="13">
       <c r="A53">
         <v>2018</v>
       </c>
@@ -3172,7 +3173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="13.2">
+    <row r="54" spans="1:15" ht="13">
       <c r="A54">
         <v>2018</v>
       </c>
@@ -3220,7 +3221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="13.2">
+    <row r="55" spans="1:15" ht="13">
       <c r="A55">
         <v>2018</v>
       </c>
@@ -3268,7 +3269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="13.2">
+    <row r="56" spans="1:15" ht="13">
       <c r="A56">
         <v>2018</v>
       </c>
@@ -3304,7 +3305,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13.2">
+    <row r="57" spans="1:15" ht="13">
       <c r="A57">
         <v>2018</v>
       </c>
@@ -3352,7 +3353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="13.2">
+    <row r="58" spans="1:15" ht="13">
       <c r="A58">
         <v>2018</v>
       </c>
@@ -3400,7 +3401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="13.2">
+    <row r="59" spans="1:15" ht="13">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -3448,7 +3449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="13.2">
+    <row r="60" spans="1:15" ht="13">
       <c r="A60">
         <v>2018</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="13.2">
+    <row r="61" spans="1:15" ht="13">
       <c r="A61">
         <v>2018</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="13.2">
+    <row r="62" spans="1:15" ht="13">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13.2">
+    <row r="63" spans="1:15" ht="13">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -3637,7 +3638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="13.2">
+    <row r="64" spans="1:15" ht="13">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -3685,7 +3686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="13.2">
+    <row r="65" spans="1:15" ht="13">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -3733,7 +3734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="13.2">
+    <row r="66" spans="1:15" ht="13">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3781,7 +3782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="13.2">
+    <row r="67" spans="1:15" ht="13">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -3829,7 +3830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="13.2">
+    <row r="68" spans="1:15" ht="13">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -3866,7 +3867,7 @@
       </c>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="13.2">
+    <row r="69" spans="1:15" ht="13">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -3914,7 +3915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="13.2">
+    <row r="70" spans="1:15" ht="13">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -3962,7 +3963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="13.2">
+    <row r="71" spans="1:15" ht="13">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -4010,7 +4011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="13.2">
+    <row r="72" spans="1:15" ht="13">
       <c r="A72">
         <v>2018</v>
       </c>
@@ -4046,7 +4047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="13.2">
+    <row r="73" spans="1:15" ht="13">
       <c r="A73">
         <v>2018</v>
       </c>
@@ -4094,7 +4095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="13.2">
+    <row r="74" spans="1:15" ht="13">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="13.2">
+    <row r="75" spans="1:15" ht="13">
       <c r="A75">
         <v>2018</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="13.2">
+    <row r="77" spans="1:15" ht="14">
       <c r="A77">
         <v>2018</v>
       </c>
@@ -4574,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="13.2">
+    <row r="84" spans="1:15" ht="14">
       <c r="A84">
         <v>2018</v>
       </c>
@@ -44853,6 +44854,292 @@
       <c r="O960">
         <v>1</v>
       </c>
+    </row>
+    <row r="961" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A961" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B961" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C961" s="6">
+        <v>0</v>
+      </c>
+      <c r="D961" s="6">
+        <v>3</v>
+      </c>
+      <c r="E961" s="6">
+        <v>1</v>
+      </c>
+      <c r="F961" s="6">
+        <v>3</v>
+      </c>
+      <c r="G961" s="6">
+        <v>2</v>
+      </c>
+      <c r="H961" s="6">
+        <v>0</v>
+      </c>
+      <c r="I961" s="6">
+        <v>8</v>
+      </c>
+      <c r="J961" s="6">
+        <v>4</v>
+      </c>
+      <c r="K961" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L961" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M961" s="6">
+        <v>27</v>
+      </c>
+      <c r="N961">
+        <v>163</v>
+      </c>
+      <c r="O961" s="6">
+        <v>17</v>
+      </c>
+      <c r="P961" s="14"/>
+    </row>
+    <row r="962" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A962" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B962" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C962" s="6">
+        <v>2</v>
+      </c>
+      <c r="D962" s="6">
+        <v>0</v>
+      </c>
+      <c r="E962" s="6">
+        <v>0</v>
+      </c>
+      <c r="F962" s="6">
+        <v>1</v>
+      </c>
+      <c r="G962" s="6">
+        <v>1</v>
+      </c>
+      <c r="H962" s="6">
+        <v>0</v>
+      </c>
+      <c r="I962" s="6">
+        <v>8</v>
+      </c>
+      <c r="J962" s="6">
+        <v>4</v>
+      </c>
+      <c r="K962" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L962" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M962" s="6">
+        <v>27</v>
+      </c>
+      <c r="N962">
+        <v>178</v>
+      </c>
+      <c r="O962" s="6">
+        <v>2</v>
+      </c>
+      <c r="P962" s="14"/>
+    </row>
+    <row r="963" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A963" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B963" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C963" s="6">
+        <v>1</v>
+      </c>
+      <c r="D963" s="6">
+        <v>2</v>
+      </c>
+      <c r="E963" s="6">
+        <v>2</v>
+      </c>
+      <c r="F963" s="6">
+        <v>4</v>
+      </c>
+      <c r="G963" s="6">
+        <v>0</v>
+      </c>
+      <c r="H963" s="6">
+        <v>1</v>
+      </c>
+      <c r="I963" s="6">
+        <v>10</v>
+      </c>
+      <c r="J963" s="6">
+        <v>5</v>
+      </c>
+      <c r="K963" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L963" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M963" s="6">
+        <v>28</v>
+      </c>
+      <c r="N963">
+        <v>177</v>
+      </c>
+      <c r="O963" s="6">
+        <v>5</v>
+      </c>
+      <c r="P963" s="14"/>
+    </row>
+    <row r="964" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A964" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B964" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C964" s="6">
+        <v>0</v>
+      </c>
+      <c r="D964" s="6">
+        <v>3</v>
+      </c>
+      <c r="E964" s="6">
+        <v>3</v>
+      </c>
+      <c r="F964" s="6">
+        <v>1</v>
+      </c>
+      <c r="G964" s="6">
+        <v>0</v>
+      </c>
+      <c r="H964" s="6">
+        <v>2</v>
+      </c>
+      <c r="I964" s="6">
+        <v>9</v>
+      </c>
+      <c r="J964" s="6">
+        <v>4</v>
+      </c>
+      <c r="K964" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L964" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M964" s="6">
+        <v>26</v>
+      </c>
+      <c r="N964">
+        <v>177</v>
+      </c>
+      <c r="O964" s="6">
+        <v>2</v>
+      </c>
+      <c r="P964" s="14"/>
+    </row>
+    <row r="965" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A965" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B965" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C965" s="6">
+        <v>2</v>
+      </c>
+      <c r="D965" s="6">
+        <v>1</v>
+      </c>
+      <c r="E965" s="6">
+        <v>0</v>
+      </c>
+      <c r="F965" s="6">
+        <v>4</v>
+      </c>
+      <c r="G965" s="6">
+        <v>1</v>
+      </c>
+      <c r="H965" s="6">
+        <v>0</v>
+      </c>
+      <c r="I965" s="6">
+        <v>8</v>
+      </c>
+      <c r="J965" s="6">
+        <v>4</v>
+      </c>
+      <c r="K965" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L965" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M965" s="6">
+        <v>28</v>
+      </c>
+      <c r="N965">
+        <v>174</v>
+      </c>
+      <c r="O965" s="6">
+        <v>6</v>
+      </c>
+      <c r="P965" s="14"/>
+    </row>
+    <row r="966" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A966" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B966" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C966" s="6">
+        <v>0</v>
+      </c>
+      <c r="D966" s="6">
+        <v>1</v>
+      </c>
+      <c r="E966" s="6">
+        <v>2</v>
+      </c>
+      <c r="F966" s="6">
+        <v>2</v>
+      </c>
+      <c r="G966" s="6">
+        <v>2</v>
+      </c>
+      <c r="H966" s="6">
+        <v>0</v>
+      </c>
+      <c r="I966" s="6">
+        <v>7</v>
+      </c>
+      <c r="J966" s="6">
+        <v>4</v>
+      </c>
+      <c r="K966" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L966" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M966" s="6">
+        <v>36</v>
+      </c>
+      <c r="N966">
+        <v>165</v>
+      </c>
+      <c r="O966" s="6"/>
+      <c r="P966" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\jkruppa.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5089C523-E6C0-4A25-BE99-2684D1563E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79935445-16B1-4F7A-814F-493CA3B2089C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="30960" windowHeight="12372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6588" yWindow="1920" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2747" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="62">
   <si>
     <t>m</t>
   </si>
@@ -120,6 +120,105 @@
   <si>
     <t>PhD Osnabrück</t>
   </si>
+  <si>
+    <t>Weiß</t>
+  </si>
+  <si>
+    <t>Männlich</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Darkred</t>
+  </si>
+  <si>
+    <t>Weiblich</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Dunkelrot</t>
+  </si>
+  <si>
+    <t>weiblich</t>
+  </si>
+  <si>
+    <t>weiß</t>
+  </si>
+  <si>
+    <t>männlich</t>
+  </si>
+  <si>
+    <t>grün</t>
+  </si>
+  <si>
+    <t>Rot</t>
+  </si>
+  <si>
+    <t>Grün</t>
+  </si>
+  <si>
+    <t>gelb</t>
+  </si>
+  <si>
+    <t>rot</t>
+  </si>
+  <si>
+    <t>Gelb</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>weiß/ grün</t>
+  </si>
+  <si>
+    <t>alle</t>
+  </si>
+  <si>
+    <t>Mänlich</t>
+  </si>
+  <si>
+    <t>dunkelrot</t>
+  </si>
+  <si>
+    <t>mänlich</t>
+  </si>
+  <si>
+    <t>1,70cm</t>
+  </si>
+  <si>
+    <t>160cm</t>
+  </si>
+  <si>
+    <t>1,83cm</t>
+  </si>
+  <si>
+    <t>165cm</t>
+  </si>
+  <si>
+    <t>163cm</t>
+  </si>
+  <si>
+    <t>180cm</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>200cm</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>179cm</t>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +282,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,8 +301,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9900FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -226,11 +349,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -259,6 +412,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -287,9 +479,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>315195</xdr:colOff>
+      <xdr:colOff>307575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>2990</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -641,11 +833,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q960"/>
+  <dimension ref="A1:Q1098"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A946" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M952" sqref="M952"/>
+      <pane ySplit="1" topLeftCell="A1059" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1081" sqref="D1081"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -663,7 +855,7 @@
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -44853,6 +45045,3885 @@
       <c r="O960">
         <v>1</v>
       </c>
+    </row>
+    <row r="961" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A961" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B961" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C961">
+        <v>1</v>
+      </c>
+      <c r="D961">
+        <v>0</v>
+      </c>
+      <c r="E961">
+        <v>3</v>
+      </c>
+      <c r="F961">
+        <v>3</v>
+      </c>
+      <c r="G961">
+        <v>2</v>
+      </c>
+      <c r="H961">
+        <v>1</v>
+      </c>
+      <c r="I961">
+        <v>10</v>
+      </c>
+      <c r="J961">
+        <v>5</v>
+      </c>
+      <c r="K961" t="s">
+        <v>4</v>
+      </c>
+      <c r="L961" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M961" s="6">
+        <v>61</v>
+      </c>
+      <c r="N961" s="6">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="962" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C962" s="14">
+        <v>0</v>
+      </c>
+      <c r="D962" s="14">
+        <v>1</v>
+      </c>
+      <c r="E962" s="14">
+        <v>1</v>
+      </c>
+      <c r="F962" s="14">
+        <v>2</v>
+      </c>
+      <c r="G962" s="14">
+        <v>1</v>
+      </c>
+      <c r="H962" s="14">
+        <v>4</v>
+      </c>
+      <c r="I962" s="14">
+        <v>9</v>
+      </c>
+      <c r="J962" s="14">
+        <v>5</v>
+      </c>
+      <c r="K962" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L962" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M962" s="14">
+        <v>20</v>
+      </c>
+      <c r="N962" s="14">
+        <v>190</v>
+      </c>
+      <c r="O962" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="963" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C963" s="16"/>
+      <c r="D963" s="16"/>
+      <c r="E963" s="17">
+        <v>1</v>
+      </c>
+      <c r="F963" s="16"/>
+      <c r="G963" s="16"/>
+      <c r="H963" s="16"/>
+      <c r="I963" s="16"/>
+      <c r="J963" s="16"/>
+      <c r="K963" s="16"/>
+      <c r="L963" s="16"/>
+      <c r="M963" s="16"/>
+      <c r="N963" s="16"/>
+      <c r="O963" s="16"/>
+    </row>
+    <row r="964" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C964" s="17">
+        <v>2</v>
+      </c>
+      <c r="D964" s="17">
+        <v>4</v>
+      </c>
+      <c r="E964" s="17">
+        <v>1</v>
+      </c>
+      <c r="F964" s="17">
+        <v>3</v>
+      </c>
+      <c r="G964" s="17">
+        <v>4</v>
+      </c>
+      <c r="H964" s="17">
+        <v>1</v>
+      </c>
+      <c r="I964" s="17">
+        <v>15</v>
+      </c>
+      <c r="J964" s="17">
+        <v>6</v>
+      </c>
+      <c r="K964" s="16"/>
+      <c r="L964" s="16"/>
+      <c r="M964" s="16"/>
+      <c r="N964" s="16"/>
+      <c r="O964" s="16"/>
+    </row>
+    <row r="965" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C965" s="17">
+        <v>2</v>
+      </c>
+      <c r="D965" s="17">
+        <v>0</v>
+      </c>
+      <c r="E965" s="17">
+        <v>2</v>
+      </c>
+      <c r="F965" s="17">
+        <v>4</v>
+      </c>
+      <c r="G965" s="17">
+        <v>1</v>
+      </c>
+      <c r="H965" s="17">
+        <v>1</v>
+      </c>
+      <c r="I965" s="17">
+        <v>10</v>
+      </c>
+      <c r="J965" s="17">
+        <v>5</v>
+      </c>
+      <c r="K965" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L965" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M965" s="17">
+        <v>20</v>
+      </c>
+      <c r="N965" s="17">
+        <v>160</v>
+      </c>
+      <c r="O965" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C966" s="17">
+        <v>1</v>
+      </c>
+      <c r="D966" s="17">
+        <v>1</v>
+      </c>
+      <c r="E966" s="17">
+        <v>4</v>
+      </c>
+      <c r="F966" s="17">
+        <v>3</v>
+      </c>
+      <c r="G966" s="17">
+        <v>2</v>
+      </c>
+      <c r="H966" s="17">
+        <v>2</v>
+      </c>
+      <c r="I966" s="17">
+        <v>11</v>
+      </c>
+      <c r="J966" s="17">
+        <v>6</v>
+      </c>
+      <c r="K966" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L966" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M966" s="17">
+        <v>22</v>
+      </c>
+      <c r="N966" s="17">
+        <v>168</v>
+      </c>
+      <c r="O966" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="967" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C967" s="16"/>
+      <c r="D967" s="17">
+        <v>1</v>
+      </c>
+      <c r="E967" s="17">
+        <v>2</v>
+      </c>
+      <c r="F967" s="17">
+        <v>4</v>
+      </c>
+      <c r="G967" s="16"/>
+      <c r="H967" s="17">
+        <v>1</v>
+      </c>
+      <c r="I967" s="17">
+        <v>8</v>
+      </c>
+      <c r="J967" s="17">
+        <v>4</v>
+      </c>
+      <c r="K967" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L967" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M967" s="17">
+        <v>22</v>
+      </c>
+      <c r="N967" s="17">
+        <v>195</v>
+      </c>
+      <c r="O967" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="968" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C968" s="16"/>
+      <c r="D968" s="18">
+        <v>3</v>
+      </c>
+      <c r="E968" s="16"/>
+      <c r="F968" s="16"/>
+      <c r="G968" s="17">
+        <v>2</v>
+      </c>
+      <c r="H968" s="17">
+        <v>3</v>
+      </c>
+      <c r="I968" s="16"/>
+      <c r="J968" s="16"/>
+      <c r="K968" s="16"/>
+      <c r="L968" s="16"/>
+      <c r="M968" s="16"/>
+      <c r="N968" s="16"/>
+      <c r="O968" s="16"/>
+    </row>
+    <row r="969" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C969" s="17">
+        <v>3</v>
+      </c>
+      <c r="D969" s="17">
+        <v>0</v>
+      </c>
+      <c r="E969" s="17">
+        <v>1</v>
+      </c>
+      <c r="F969" s="17">
+        <v>3</v>
+      </c>
+      <c r="G969" s="17">
+        <v>1</v>
+      </c>
+      <c r="H969" s="17">
+        <v>2</v>
+      </c>
+      <c r="I969" s="17">
+        <v>10</v>
+      </c>
+      <c r="J969" s="17">
+        <v>5</v>
+      </c>
+      <c r="K969" s="16"/>
+      <c r="L969" s="16"/>
+      <c r="M969" s="16"/>
+      <c r="N969" s="16"/>
+      <c r="O969" s="16"/>
+    </row>
+    <row r="970" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C970" s="17">
+        <v>0</v>
+      </c>
+      <c r="D970" s="17">
+        <v>3</v>
+      </c>
+      <c r="E970" s="17">
+        <v>0</v>
+      </c>
+      <c r="F970" s="17">
+        <v>0</v>
+      </c>
+      <c r="G970" s="17">
+        <v>4</v>
+      </c>
+      <c r="H970" s="17">
+        <v>2</v>
+      </c>
+      <c r="I970" s="17">
+        <v>9</v>
+      </c>
+      <c r="J970" s="17">
+        <v>3</v>
+      </c>
+      <c r="K970" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L970" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M970" s="17">
+        <v>20</v>
+      </c>
+      <c r="N970" s="17">
+        <v>170</v>
+      </c>
+      <c r="O970" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="971" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C971" s="17">
+        <v>2</v>
+      </c>
+      <c r="D971" s="16"/>
+      <c r="E971" s="16"/>
+      <c r="F971" s="17">
+        <v>2</v>
+      </c>
+      <c r="G971" s="16"/>
+      <c r="H971" s="17">
+        <v>2</v>
+      </c>
+      <c r="I971" s="16"/>
+      <c r="J971" s="16"/>
+      <c r="K971" s="16"/>
+      <c r="L971" s="16"/>
+      <c r="M971" s="16"/>
+      <c r="N971" s="16"/>
+      <c r="O971" s="16"/>
+    </row>
+    <row r="972" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C972" s="17">
+        <v>0</v>
+      </c>
+      <c r="D972" s="17">
+        <v>1</v>
+      </c>
+      <c r="E972" s="17">
+        <v>4</v>
+      </c>
+      <c r="F972" s="17">
+        <v>2</v>
+      </c>
+      <c r="G972" s="17">
+        <v>1</v>
+      </c>
+      <c r="H972" s="17">
+        <v>1</v>
+      </c>
+      <c r="I972" s="17">
+        <v>9</v>
+      </c>
+      <c r="J972" s="17">
+        <v>5</v>
+      </c>
+      <c r="K972" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L972" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M972" s="17">
+        <v>21</v>
+      </c>
+      <c r="N972" s="17">
+        <v>1.67</v>
+      </c>
+      <c r="O972" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="973" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C973" s="17">
+        <v>2</v>
+      </c>
+      <c r="D973" s="17">
+        <v>3</v>
+      </c>
+      <c r="E973" s="17">
+        <v>2</v>
+      </c>
+      <c r="F973" s="17">
+        <v>3</v>
+      </c>
+      <c r="G973" s="17">
+        <v>1</v>
+      </c>
+      <c r="H973" s="17">
+        <v>2</v>
+      </c>
+      <c r="I973" s="17">
+        <v>8</v>
+      </c>
+      <c r="J973" s="17">
+        <v>4</v>
+      </c>
+      <c r="K973" s="16"/>
+      <c r="L973" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M973" s="16"/>
+      <c r="N973" s="16"/>
+      <c r="O973" s="16"/>
+    </row>
+    <row r="974" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C974" s="17">
+        <v>2</v>
+      </c>
+      <c r="D974" s="17">
+        <v>2</v>
+      </c>
+      <c r="E974" s="17">
+        <v>2</v>
+      </c>
+      <c r="F974" s="17">
+        <v>2</v>
+      </c>
+      <c r="G974" s="17">
+        <v>0</v>
+      </c>
+      <c r="H974" s="17">
+        <v>2</v>
+      </c>
+      <c r="I974" s="17">
+        <v>10</v>
+      </c>
+      <c r="J974" s="17">
+        <v>5</v>
+      </c>
+      <c r="K974" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L974" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M974" s="17">
+        <v>24</v>
+      </c>
+      <c r="N974" s="17">
+        <v>1.72</v>
+      </c>
+      <c r="O974" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="975" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C975" s="17">
+        <v>3</v>
+      </c>
+      <c r="D975" s="16"/>
+      <c r="E975" s="17">
+        <v>3</v>
+      </c>
+      <c r="F975" s="17">
+        <v>2</v>
+      </c>
+      <c r="G975" s="16"/>
+      <c r="H975" s="16"/>
+      <c r="I975" s="17">
+        <v>8</v>
+      </c>
+      <c r="J975" s="16"/>
+      <c r="K975" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L975" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M975" s="17">
+        <v>22</v>
+      </c>
+      <c r="N975" s="17">
+        <v>1.87</v>
+      </c>
+      <c r="O975" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="976" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C976" s="17">
+        <v>1</v>
+      </c>
+      <c r="D976" s="16"/>
+      <c r="E976" s="17">
+        <v>2</v>
+      </c>
+      <c r="F976" s="17">
+        <v>3</v>
+      </c>
+      <c r="G976" s="17">
+        <v>1</v>
+      </c>
+      <c r="H976" s="17">
+        <v>2</v>
+      </c>
+      <c r="I976" s="17">
+        <v>9</v>
+      </c>
+      <c r="J976" s="17">
+        <v>5</v>
+      </c>
+      <c r="K976" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L976" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M976" s="17">
+        <v>22</v>
+      </c>
+      <c r="N976" s="17">
+        <v>1.83</v>
+      </c>
+      <c r="O976" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="977" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C977" s="17">
+        <v>2</v>
+      </c>
+      <c r="D977" s="17">
+        <v>3</v>
+      </c>
+      <c r="E977" s="17">
+        <v>0</v>
+      </c>
+      <c r="F977" s="17">
+        <v>1</v>
+      </c>
+      <c r="G977" s="16"/>
+      <c r="H977" s="17">
+        <v>3</v>
+      </c>
+      <c r="I977" s="17">
+        <v>9</v>
+      </c>
+      <c r="J977" s="17">
+        <v>4</v>
+      </c>
+      <c r="K977" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L977" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M977" s="17">
+        <v>21</v>
+      </c>
+      <c r="N977" s="17">
+        <v>1.82</v>
+      </c>
+      <c r="O977" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="978" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C978" s="16"/>
+      <c r="D978" s="17">
+        <v>4</v>
+      </c>
+      <c r="E978" s="16"/>
+      <c r="F978" s="16"/>
+      <c r="G978" s="17">
+        <v>2</v>
+      </c>
+      <c r="H978" s="17">
+        <v>5</v>
+      </c>
+      <c r="I978" s="17">
+        <v>11</v>
+      </c>
+      <c r="J978" s="17">
+        <v>3</v>
+      </c>
+      <c r="K978" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L978" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M978" s="17">
+        <v>22</v>
+      </c>
+      <c r="N978" s="17">
+        <v>1.83</v>
+      </c>
+      <c r="O978" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="979" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C979" s="17">
+        <v>1</v>
+      </c>
+      <c r="D979" s="17">
+        <v>3</v>
+      </c>
+      <c r="E979" s="17">
+        <v>0</v>
+      </c>
+      <c r="F979" s="17">
+        <v>3</v>
+      </c>
+      <c r="G979" s="17">
+        <v>1</v>
+      </c>
+      <c r="H979" s="17">
+        <v>0</v>
+      </c>
+      <c r="I979" s="17">
+        <v>8</v>
+      </c>
+      <c r="J979" s="17">
+        <v>4</v>
+      </c>
+      <c r="K979" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L979" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M979" s="17">
+        <v>20</v>
+      </c>
+      <c r="N979" s="17">
+        <v>1.64</v>
+      </c>
+      <c r="O979" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C980" s="17">
+        <v>2</v>
+      </c>
+      <c r="D980" s="17">
+        <v>2</v>
+      </c>
+      <c r="E980" s="17">
+        <v>2</v>
+      </c>
+      <c r="F980" s="16"/>
+      <c r="G980" s="17">
+        <v>0</v>
+      </c>
+      <c r="H980" s="17">
+        <v>2</v>
+      </c>
+      <c r="I980" s="17">
+        <v>10</v>
+      </c>
+      <c r="J980" s="17">
+        <v>3</v>
+      </c>
+      <c r="K980" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L980" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M980" s="17">
+        <v>23</v>
+      </c>
+      <c r="N980" s="17">
+        <v>1.75</v>
+      </c>
+      <c r="O980" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C981" s="16"/>
+      <c r="D981" s="17">
+        <v>1</v>
+      </c>
+      <c r="E981" s="17">
+        <v>2</v>
+      </c>
+      <c r="F981" s="16"/>
+      <c r="G981" s="17">
+        <v>2</v>
+      </c>
+      <c r="H981" s="17">
+        <v>3</v>
+      </c>
+      <c r="I981" s="17">
+        <v>8</v>
+      </c>
+      <c r="J981" s="17">
+        <v>4</v>
+      </c>
+      <c r="K981" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L981" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M981" s="17">
+        <v>22</v>
+      </c>
+      <c r="N981" s="17">
+        <v>177</v>
+      </c>
+      <c r="O981" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C982" s="19">
+        <v>1</v>
+      </c>
+      <c r="D982" s="19">
+        <v>1</v>
+      </c>
+      <c r="E982" s="19">
+        <v>2</v>
+      </c>
+      <c r="F982" s="19">
+        <v>2</v>
+      </c>
+      <c r="G982" s="19">
+        <v>2</v>
+      </c>
+      <c r="H982" s="19">
+        <v>0</v>
+      </c>
+      <c r="I982" s="19">
+        <v>8</v>
+      </c>
+      <c r="J982" s="19">
+        <v>5</v>
+      </c>
+      <c r="K982" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L982" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M982" s="19">
+        <v>19</v>
+      </c>
+      <c r="N982" s="19">
+        <v>1.63</v>
+      </c>
+      <c r="O982" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="983" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C983" s="17">
+        <v>2</v>
+      </c>
+      <c r="D983" s="17">
+        <v>3</v>
+      </c>
+      <c r="E983" s="16"/>
+      <c r="F983" s="17">
+        <v>2</v>
+      </c>
+      <c r="G983" s="17">
+        <v>3</v>
+      </c>
+      <c r="H983" s="17">
+        <v>1</v>
+      </c>
+      <c r="I983" s="17">
+        <v>11</v>
+      </c>
+      <c r="J983" s="17">
+        <v>5</v>
+      </c>
+      <c r="K983" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L983" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M983" s="17">
+        <v>19</v>
+      </c>
+      <c r="N983" s="17">
+        <v>1.82</v>
+      </c>
+      <c r="O983" s="16"/>
+    </row>
+    <row r="984" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C984" s="16"/>
+      <c r="D984" s="17">
+        <v>1</v>
+      </c>
+      <c r="E984" s="17">
+        <v>4</v>
+      </c>
+      <c r="F984" s="17">
+        <v>3</v>
+      </c>
+      <c r="G984" s="17">
+        <v>2</v>
+      </c>
+      <c r="H984" s="16"/>
+      <c r="I984" s="17">
+        <v>10</v>
+      </c>
+      <c r="J984" s="17">
+        <v>4</v>
+      </c>
+      <c r="K984" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L984" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M984" s="17">
+        <v>21</v>
+      </c>
+      <c r="N984" s="17">
+        <v>1.72</v>
+      </c>
+      <c r="O984" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="985" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C985" s="17">
+        <v>1</v>
+      </c>
+      <c r="D985" s="17">
+        <v>3</v>
+      </c>
+      <c r="E985" s="17">
+        <v>2</v>
+      </c>
+      <c r="F985" s="17">
+        <v>0</v>
+      </c>
+      <c r="G985" s="17">
+        <v>0</v>
+      </c>
+      <c r="H985" s="17">
+        <v>4</v>
+      </c>
+      <c r="I985" s="17">
+        <v>10</v>
+      </c>
+      <c r="J985" s="17">
+        <v>4</v>
+      </c>
+      <c r="K985" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L985" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M985" s="17">
+        <v>19</v>
+      </c>
+      <c r="N985" s="17">
+        <v>170</v>
+      </c>
+      <c r="O985" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="986" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C986" s="16"/>
+      <c r="D986" s="16"/>
+      <c r="E986" s="17">
+        <v>3</v>
+      </c>
+      <c r="F986" s="17">
+        <v>4</v>
+      </c>
+      <c r="G986" s="16"/>
+      <c r="H986" s="17">
+        <v>3</v>
+      </c>
+      <c r="I986" s="16"/>
+      <c r="J986" s="16"/>
+      <c r="K986" s="16"/>
+      <c r="L986" s="16"/>
+      <c r="M986" s="16"/>
+      <c r="N986" s="16"/>
+      <c r="O986" s="16"/>
+    </row>
+    <row r="987" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C987" s="17">
+        <v>2</v>
+      </c>
+      <c r="D987" s="17">
+        <v>1</v>
+      </c>
+      <c r="E987" s="17">
+        <v>4</v>
+      </c>
+      <c r="F987" s="17">
+        <v>1</v>
+      </c>
+      <c r="G987" s="17">
+        <v>2</v>
+      </c>
+      <c r="H987" s="17">
+        <v>0</v>
+      </c>
+      <c r="I987" s="17">
+        <v>10</v>
+      </c>
+      <c r="J987" s="17">
+        <v>5</v>
+      </c>
+      <c r="K987" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L987" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M987" s="17">
+        <v>23</v>
+      </c>
+      <c r="N987" s="17">
+        <v>1.68</v>
+      </c>
+      <c r="O987" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="988" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C988" s="17">
+        <v>2</v>
+      </c>
+      <c r="D988" s="17">
+        <v>2</v>
+      </c>
+      <c r="E988" s="17">
+        <v>1</v>
+      </c>
+      <c r="F988" s="17">
+        <v>1</v>
+      </c>
+      <c r="G988" s="17">
+        <v>2</v>
+      </c>
+      <c r="H988" s="17">
+        <v>2</v>
+      </c>
+      <c r="I988" s="17">
+        <v>10</v>
+      </c>
+      <c r="J988" s="17">
+        <v>6</v>
+      </c>
+      <c r="K988" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L988" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M988" s="17">
+        <v>20</v>
+      </c>
+      <c r="N988" s="17">
+        <v>1.74</v>
+      </c>
+      <c r="O988" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="989" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C989" s="17">
+        <v>0</v>
+      </c>
+      <c r="D989" s="17">
+        <v>2</v>
+      </c>
+      <c r="E989" s="17">
+        <v>2</v>
+      </c>
+      <c r="F989" s="17">
+        <v>2</v>
+      </c>
+      <c r="G989" s="17">
+        <v>2</v>
+      </c>
+      <c r="H989" s="17">
+        <v>2</v>
+      </c>
+      <c r="I989" s="17">
+        <v>10</v>
+      </c>
+      <c r="J989" s="17">
+        <v>5</v>
+      </c>
+      <c r="K989" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L989" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M989" s="17">
+        <v>20</v>
+      </c>
+      <c r="N989" s="17">
+        <v>1.72</v>
+      </c>
+      <c r="O989" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="990" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C990" s="17">
+        <v>2</v>
+      </c>
+      <c r="D990" s="17">
+        <v>2</v>
+      </c>
+      <c r="E990" s="17">
+        <v>0</v>
+      </c>
+      <c r="F990" s="17">
+        <v>0</v>
+      </c>
+      <c r="G990" s="17">
+        <v>4</v>
+      </c>
+      <c r="H990" s="17">
+        <v>1</v>
+      </c>
+      <c r="I990" s="17">
+        <v>9</v>
+      </c>
+      <c r="J990" s="17">
+        <v>4</v>
+      </c>
+      <c r="K990" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L990" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M990" s="17">
+        <v>20</v>
+      </c>
+      <c r="N990" s="17">
+        <v>1.75</v>
+      </c>
+      <c r="O990" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="991" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C991" s="17">
+        <v>1</v>
+      </c>
+      <c r="D991" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E991" s="17">
+        <v>1</v>
+      </c>
+      <c r="F991" s="17">
+        <v>3</v>
+      </c>
+      <c r="G991" s="17">
+        <v>2</v>
+      </c>
+      <c r="H991" s="17">
+        <v>3</v>
+      </c>
+      <c r="I991" s="17">
+        <v>10</v>
+      </c>
+      <c r="J991" s="17">
+        <v>5</v>
+      </c>
+      <c r="K991" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L991" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M991" s="17">
+        <v>19</v>
+      </c>
+      <c r="N991" s="17">
+        <v>1.75</v>
+      </c>
+      <c r="O991" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="992" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C992" s="16"/>
+      <c r="D992" s="16"/>
+      <c r="E992" s="16"/>
+      <c r="F992" s="16"/>
+      <c r="G992" s="16"/>
+      <c r="H992" s="16"/>
+      <c r="I992" s="16"/>
+      <c r="J992" s="16"/>
+      <c r="K992" s="16"/>
+      <c r="L992" s="16"/>
+      <c r="M992" s="16"/>
+      <c r="N992" s="16"/>
+      <c r="O992" s="16"/>
+    </row>
+    <row r="993" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C993" s="17">
+        <v>0</v>
+      </c>
+      <c r="D993" s="17">
+        <v>1</v>
+      </c>
+      <c r="E993" s="17">
+        <v>0</v>
+      </c>
+      <c r="F993" s="17">
+        <v>5</v>
+      </c>
+      <c r="G993" s="17">
+        <v>1</v>
+      </c>
+      <c r="H993" s="17">
+        <v>1</v>
+      </c>
+      <c r="I993" s="17">
+        <v>8</v>
+      </c>
+      <c r="J993" s="17">
+        <v>4</v>
+      </c>
+      <c r="K993" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L993" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M993" s="17">
+        <v>21</v>
+      </c>
+      <c r="N993" s="17">
+        <v>1.78</v>
+      </c>
+      <c r="O993" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="994" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C994" s="16"/>
+      <c r="D994" s="16"/>
+      <c r="E994" s="16"/>
+      <c r="F994" s="16"/>
+      <c r="G994" s="16"/>
+      <c r="H994" s="16"/>
+      <c r="I994" s="16"/>
+      <c r="J994" s="16"/>
+      <c r="K994" s="16"/>
+      <c r="L994" s="16"/>
+      <c r="M994" s="16"/>
+      <c r="N994" s="16"/>
+      <c r="O994" s="16"/>
+    </row>
+    <row r="995" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C995" s="17">
+        <v>2</v>
+      </c>
+      <c r="D995" s="16"/>
+      <c r="E995" s="16"/>
+      <c r="F995" s="16"/>
+      <c r="G995" s="16"/>
+      <c r="H995" s="16"/>
+      <c r="I995" s="16"/>
+      <c r="J995" s="16"/>
+      <c r="K995" s="16"/>
+      <c r="L995" s="16"/>
+      <c r="M995" s="16"/>
+      <c r="N995" s="16"/>
+      <c r="O995" s="16"/>
+    </row>
+    <row r="996" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C996" s="17">
+        <v>4</v>
+      </c>
+      <c r="D996" s="17">
+        <v>1</v>
+      </c>
+      <c r="E996" s="17">
+        <v>3</v>
+      </c>
+      <c r="F996" s="17">
+        <v>1</v>
+      </c>
+      <c r="G996" s="16"/>
+      <c r="H996" s="17">
+        <v>1</v>
+      </c>
+      <c r="I996" s="17">
+        <v>10</v>
+      </c>
+      <c r="J996" s="17">
+        <v>5</v>
+      </c>
+      <c r="K996" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L996" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M996" s="17">
+        <v>27</v>
+      </c>
+      <c r="N996" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="O996" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="997" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C997" s="16"/>
+      <c r="D997" s="17">
+        <v>2</v>
+      </c>
+      <c r="E997" s="17">
+        <v>1</v>
+      </c>
+      <c r="F997" s="17">
+        <v>6</v>
+      </c>
+      <c r="G997" s="16"/>
+      <c r="H997" s="16"/>
+      <c r="I997" s="17">
+        <v>9</v>
+      </c>
+      <c r="J997" s="17">
+        <v>3</v>
+      </c>
+      <c r="K997" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L997" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M997" s="17">
+        <v>24</v>
+      </c>
+      <c r="N997" s="17">
+        <v>173</v>
+      </c>
+      <c r="O997" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="998" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C998" s="17">
+        <v>0</v>
+      </c>
+      <c r="D998" s="17">
+        <v>1</v>
+      </c>
+      <c r="E998" s="17">
+        <v>1</v>
+      </c>
+      <c r="F998" s="17">
+        <v>3</v>
+      </c>
+      <c r="G998" s="17">
+        <v>2</v>
+      </c>
+      <c r="H998" s="17">
+        <v>2</v>
+      </c>
+      <c r="I998" s="17">
+        <v>9</v>
+      </c>
+      <c r="J998" s="17">
+        <v>5</v>
+      </c>
+      <c r="K998" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L998" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M998" s="17">
+        <v>21</v>
+      </c>
+      <c r="N998" s="17">
+        <v>1.74</v>
+      </c>
+      <c r="O998" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="999" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C999" s="17">
+        <v>3</v>
+      </c>
+      <c r="D999" s="17">
+        <v>0</v>
+      </c>
+      <c r="E999" s="17">
+        <v>4</v>
+      </c>
+      <c r="F999" s="17">
+        <v>0</v>
+      </c>
+      <c r="G999" s="17">
+        <v>1</v>
+      </c>
+      <c r="H999" s="17">
+        <v>4</v>
+      </c>
+      <c r="I999" s="17">
+        <v>12</v>
+      </c>
+      <c r="J999" s="17">
+        <v>4</v>
+      </c>
+      <c r="K999" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L999" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M999" s="17">
+        <v>20</v>
+      </c>
+      <c r="N999" s="17">
+        <v>1.68</v>
+      </c>
+      <c r="O999" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1000" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1000" s="16"/>
+      <c r="D1000" s="16"/>
+      <c r="E1000" s="16"/>
+      <c r="F1000" s="16"/>
+      <c r="G1000" s="16"/>
+      <c r="H1000" s="16"/>
+      <c r="I1000" s="16"/>
+      <c r="J1000" s="16"/>
+      <c r="K1000" s="16"/>
+      <c r="L1000" s="16"/>
+      <c r="M1000" s="16"/>
+      <c r="N1000" s="16"/>
+      <c r="O1000" s="16"/>
+    </row>
+    <row r="1001" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1001" s="17">
+        <v>0</v>
+      </c>
+      <c r="D1001" s="17">
+        <v>0</v>
+      </c>
+      <c r="E1001" s="17">
+        <v>0</v>
+      </c>
+      <c r="F1001" s="17">
+        <v>5</v>
+      </c>
+      <c r="G1001" s="17">
+        <v>1</v>
+      </c>
+      <c r="H1001" s="17">
+        <v>3</v>
+      </c>
+      <c r="I1001" s="17">
+        <v>9</v>
+      </c>
+      <c r="J1001" s="17">
+        <v>3</v>
+      </c>
+      <c r="K1001" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1001" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1001" s="17">
+        <v>19</v>
+      </c>
+      <c r="N1001" s="17">
+        <v>1.7</v>
+      </c>
+      <c r="O1001" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1002" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1002" s="16"/>
+      <c r="E1002" s="17">
+        <v>3</v>
+      </c>
+      <c r="F1002" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1002" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1002" s="16"/>
+      <c r="I1002" s="17">
+        <v>9</v>
+      </c>
+      <c r="J1002" s="17">
+        <v>4</v>
+      </c>
+      <c r="K1002" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1002" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1002" s="17">
+        <v>21</v>
+      </c>
+      <c r="N1002" s="17">
+        <v>1.67</v>
+      </c>
+      <c r="O1002" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1003" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1003" s="17">
+        <v>3</v>
+      </c>
+      <c r="D1003" s="17">
+        <v>2</v>
+      </c>
+      <c r="E1003" s="17">
+        <v>0</v>
+      </c>
+      <c r="F1003" s="17">
+        <v>1</v>
+      </c>
+      <c r="G1003" s="17">
+        <v>3</v>
+      </c>
+      <c r="H1003" s="17">
+        <v>1</v>
+      </c>
+      <c r="I1003" s="17">
+        <v>10</v>
+      </c>
+      <c r="J1003" s="16"/>
+      <c r="K1003" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1003" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1003" s="17">
+        <v>24</v>
+      </c>
+      <c r="N1003" s="17">
+        <v>1.7</v>
+      </c>
+      <c r="O1003" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1004" s="17">
+        <v>0</v>
+      </c>
+      <c r="D1004" s="17">
+        <v>2</v>
+      </c>
+      <c r="E1004" s="17">
+        <v>3</v>
+      </c>
+      <c r="F1004" s="17">
+        <v>1</v>
+      </c>
+      <c r="G1004" s="17">
+        <v>3</v>
+      </c>
+      <c r="H1004" s="17">
+        <v>2</v>
+      </c>
+      <c r="I1004" s="17">
+        <v>11</v>
+      </c>
+      <c r="J1004" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1004" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1004" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1004" s="17">
+        <v>24</v>
+      </c>
+      <c r="N1004" s="17">
+        <v>178</v>
+      </c>
+      <c r="O1004" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1005" s="17">
+        <v>3</v>
+      </c>
+      <c r="D1005" s="17">
+        <v>0</v>
+      </c>
+      <c r="E1005" s="17">
+        <v>1</v>
+      </c>
+      <c r="F1005" s="17">
+        <v>0</v>
+      </c>
+      <c r="G1005" s="17">
+        <v>3</v>
+      </c>
+      <c r="H1005" s="17">
+        <v>1</v>
+      </c>
+      <c r="I1005" s="17">
+        <v>9</v>
+      </c>
+      <c r="J1005" s="17">
+        <v>4</v>
+      </c>
+      <c r="K1005" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1005" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1005" s="17">
+        <v>20</v>
+      </c>
+      <c r="N1005" s="17">
+        <v>1.8</v>
+      </c>
+      <c r="O1005" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1006" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1006" s="17">
+        <v>0</v>
+      </c>
+      <c r="E1006" s="17">
+        <v>5</v>
+      </c>
+      <c r="F1006" s="17">
+        <v>1</v>
+      </c>
+      <c r="G1006" s="17">
+        <v>0</v>
+      </c>
+      <c r="H1006" s="17">
+        <v>1</v>
+      </c>
+      <c r="I1006" s="17">
+        <v>8</v>
+      </c>
+      <c r="J1006" s="17">
+        <v>4</v>
+      </c>
+      <c r="K1006" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1006" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1006" s="17">
+        <v>21</v>
+      </c>
+      <c r="N1006" s="17">
+        <v>1.93</v>
+      </c>
+      <c r="O1006" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1007" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1007" s="16"/>
+      <c r="D1007" s="16"/>
+      <c r="E1007" s="16"/>
+      <c r="F1007" s="16"/>
+      <c r="G1007" s="16"/>
+      <c r="H1007" s="16"/>
+      <c r="I1007" s="16"/>
+      <c r="J1007" s="16"/>
+      <c r="K1007" s="16"/>
+      <c r="L1007" s="16"/>
+      <c r="M1007" s="16"/>
+      <c r="N1007" s="16"/>
+      <c r="O1007" s="16"/>
+    </row>
+    <row r="1008" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1008" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1008" s="16"/>
+      <c r="E1008" s="17">
+        <v>1</v>
+      </c>
+      <c r="F1008" s="17">
+        <v>2</v>
+      </c>
+      <c r="G1008" s="17">
+        <v>1</v>
+      </c>
+      <c r="H1008" s="17">
+        <v>4</v>
+      </c>
+      <c r="I1008" s="17">
+        <v>9</v>
+      </c>
+      <c r="J1008" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1008" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1008" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1008" s="17">
+        <v>22</v>
+      </c>
+      <c r="N1008" s="17">
+        <v>169</v>
+      </c>
+      <c r="O1008" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1009" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1009" s="16"/>
+      <c r="D1009" s="16"/>
+      <c r="E1009" s="16"/>
+      <c r="F1009" s="16"/>
+      <c r="G1009" s="16"/>
+      <c r="H1009" s="16"/>
+      <c r="I1009" s="16"/>
+      <c r="J1009" s="16"/>
+      <c r="K1009" s="16"/>
+      <c r="L1009" s="16"/>
+      <c r="M1009" s="16"/>
+      <c r="N1009" s="16"/>
+      <c r="O1009" s="16"/>
+    </row>
+    <row r="1010" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1010" s="16"/>
+      <c r="D1010" s="16"/>
+      <c r="E1010" s="16"/>
+      <c r="F1010" s="16"/>
+      <c r="G1010" s="16"/>
+      <c r="H1010" s="16"/>
+      <c r="I1010" s="16"/>
+      <c r="J1010" s="16"/>
+      <c r="K1010" s="16"/>
+      <c r="L1010" s="16"/>
+      <c r="M1010" s="16"/>
+      <c r="N1010" s="16"/>
+      <c r="O1010" s="16"/>
+    </row>
+    <row r="1011" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1011" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1011" s="16"/>
+      <c r="E1011" s="17">
+        <v>3</v>
+      </c>
+      <c r="F1011" s="17">
+        <v>2</v>
+      </c>
+      <c r="G1011" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1011" s="16"/>
+      <c r="I1011" s="17">
+        <v>8</v>
+      </c>
+      <c r="J1011" s="17">
+        <v>4</v>
+      </c>
+      <c r="K1011" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1011" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1011" s="17">
+        <v>19</v>
+      </c>
+      <c r="N1011" s="17">
+        <v>1.8</v>
+      </c>
+      <c r="O1011" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1012" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1012" s="17">
+        <v>3</v>
+      </c>
+      <c r="D1012" s="16"/>
+      <c r="E1012" s="17">
+        <v>3</v>
+      </c>
+      <c r="F1012" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1012" s="17">
+        <v>1</v>
+      </c>
+      <c r="H1012" s="17">
+        <v>1</v>
+      </c>
+      <c r="I1012" s="17">
+        <v>11</v>
+      </c>
+      <c r="J1012" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1012" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1012" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1012" s="17">
+        <v>21</v>
+      </c>
+      <c r="N1012" s="17">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="O1012" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1013" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1013" s="17">
+        <v>3</v>
+      </c>
+      <c r="D1013" s="17">
+        <v>1</v>
+      </c>
+      <c r="E1013" s="17">
+        <v>1</v>
+      </c>
+      <c r="F1013" s="17">
+        <v>2</v>
+      </c>
+      <c r="G1013" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1013" s="17">
+        <v>1</v>
+      </c>
+      <c r="I1013" s="17">
+        <v>10</v>
+      </c>
+      <c r="J1013" s="17">
+        <v>6</v>
+      </c>
+      <c r="K1013" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1013" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1013" s="17">
+        <v>21</v>
+      </c>
+      <c r="N1013" s="17">
+        <v>1.75</v>
+      </c>
+      <c r="O1013" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1014" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1014" s="16"/>
+      <c r="D1014" s="16"/>
+      <c r="E1014" s="16"/>
+      <c r="F1014" s="16"/>
+      <c r="G1014" s="16"/>
+      <c r="H1014" s="16"/>
+      <c r="I1014" s="16"/>
+      <c r="J1014" s="16"/>
+      <c r="K1014" s="16"/>
+      <c r="L1014" s="16"/>
+      <c r="M1014" s="16"/>
+      <c r="N1014" s="16"/>
+      <c r="O1014" s="16"/>
+    </row>
+    <row r="1015" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1015" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1015" s="17">
+        <v>1</v>
+      </c>
+      <c r="E1015" s="17">
+        <v>2</v>
+      </c>
+      <c r="F1015" s="17">
+        <v>1</v>
+      </c>
+      <c r="G1015" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1015" s="17">
+        <v>2</v>
+      </c>
+      <c r="I1015" s="17">
+        <v>9</v>
+      </c>
+      <c r="J1015" s="17">
+        <v>6</v>
+      </c>
+      <c r="K1015" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1015" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1015" s="17">
+        <v>20</v>
+      </c>
+      <c r="N1015" s="17">
+        <v>1.75</v>
+      </c>
+      <c r="O1015" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1016" s="16"/>
+      <c r="D1016" s="16"/>
+      <c r="E1016" s="16"/>
+      <c r="F1016" s="16"/>
+      <c r="G1016" s="16"/>
+      <c r="H1016" s="16"/>
+      <c r="I1016" s="16"/>
+      <c r="J1016" s="16"/>
+      <c r="K1016" s="16"/>
+      <c r="L1016" s="16"/>
+      <c r="M1016" s="16"/>
+      <c r="N1016" s="16"/>
+      <c r="O1016" s="16"/>
+    </row>
+    <row r="1017" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1017" s="17">
+        <v>3</v>
+      </c>
+      <c r="D1017" s="17">
+        <v>2</v>
+      </c>
+      <c r="E1017" s="16"/>
+      <c r="F1017" s="16"/>
+      <c r="G1017" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1017" s="17">
+        <v>2</v>
+      </c>
+      <c r="I1017" s="17">
+        <v>9</v>
+      </c>
+      <c r="J1017" s="17">
+        <v>4</v>
+      </c>
+      <c r="K1017" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1017" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1017" s="17">
+        <v>21</v>
+      </c>
+      <c r="N1017" s="17">
+        <v>188</v>
+      </c>
+      <c r="O1017" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1018" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1018" s="16"/>
+      <c r="D1018" s="16"/>
+      <c r="E1018" s="16"/>
+      <c r="F1018" s="16"/>
+      <c r="G1018" s="16"/>
+      <c r="H1018" s="16"/>
+      <c r="I1018" s="16"/>
+      <c r="J1018" s="16"/>
+      <c r="K1018" s="16"/>
+      <c r="L1018" s="16"/>
+      <c r="M1018" s="16"/>
+      <c r="N1018" s="16"/>
+      <c r="O1018" s="16"/>
+    </row>
+    <row r="1019" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1019" s="16"/>
+      <c r="D1019" s="16"/>
+      <c r="E1019" s="16"/>
+      <c r="F1019" s="16"/>
+      <c r="G1019" s="16"/>
+      <c r="H1019" s="16"/>
+      <c r="I1019" s="16"/>
+      <c r="J1019" s="16"/>
+      <c r="K1019" s="16"/>
+      <c r="L1019" s="16"/>
+      <c r="M1019" s="16"/>
+      <c r="N1019" s="16"/>
+      <c r="O1019" s="16"/>
+    </row>
+    <row r="1020" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1020" s="16"/>
+      <c r="D1020" s="16"/>
+      <c r="E1020" s="16"/>
+      <c r="F1020" s="16"/>
+      <c r="G1020" s="16"/>
+      <c r="H1020" s="16"/>
+      <c r="I1020" s="16"/>
+      <c r="J1020" s="16"/>
+      <c r="K1020" s="16"/>
+      <c r="L1020" s="16"/>
+      <c r="M1020" s="16"/>
+      <c r="N1020" s="16"/>
+      <c r="O1020" s="16"/>
+    </row>
+    <row r="1021" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1021" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1021" s="17">
+        <v>0</v>
+      </c>
+      <c r="E1021" s="17">
+        <v>1</v>
+      </c>
+      <c r="F1021" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1021" s="17">
+        <v>1</v>
+      </c>
+      <c r="H1021" s="17">
+        <v>1</v>
+      </c>
+      <c r="I1021" s="17">
+        <v>7</v>
+      </c>
+      <c r="J1021" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1021" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1021" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1021" s="17">
+        <v>23</v>
+      </c>
+      <c r="N1021" s="17">
+        <v>1.93</v>
+      </c>
+      <c r="O1021" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1022" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1022" s="16"/>
+      <c r="D1022" s="16"/>
+      <c r="E1022" s="16"/>
+      <c r="F1022" s="16"/>
+      <c r="G1022" s="16"/>
+      <c r="H1022" s="16"/>
+      <c r="I1022" s="16"/>
+      <c r="J1022" s="16"/>
+      <c r="K1022" s="16"/>
+      <c r="L1022" s="16"/>
+      <c r="M1022" s="16"/>
+      <c r="N1022" s="16"/>
+      <c r="O1022" s="16"/>
+    </row>
+    <row r="1023" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1023" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1023" s="16"/>
+      <c r="E1023" s="17">
+        <v>1</v>
+      </c>
+      <c r="F1023" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1023" s="17">
+        <v>1</v>
+      </c>
+      <c r="H1023" s="17">
+        <v>2</v>
+      </c>
+      <c r="I1023" s="17">
+        <v>9</v>
+      </c>
+      <c r="J1023" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1023" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1023" s="16"/>
+      <c r="M1023" s="16"/>
+      <c r="N1023" s="16"/>
+      <c r="O1023" s="16"/>
+    </row>
+    <row r="1024" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1024" s="21">
+        <v>2</v>
+      </c>
+      <c r="D1024" s="21">
+        <v>0</v>
+      </c>
+      <c r="E1024" s="21">
+        <v>1</v>
+      </c>
+      <c r="F1024" s="21">
+        <v>2</v>
+      </c>
+      <c r="G1024" s="21">
+        <v>3</v>
+      </c>
+      <c r="H1024" s="21">
+        <v>1</v>
+      </c>
+      <c r="I1024" s="21">
+        <v>9</v>
+      </c>
+      <c r="J1024" s="21">
+        <v>5</v>
+      </c>
+      <c r="K1024" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1024" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1024" s="21">
+        <v>20</v>
+      </c>
+      <c r="N1024" s="21">
+        <v>1.67</v>
+      </c>
+      <c r="O1024" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1025" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1025" s="16"/>
+      <c r="D1025" s="16"/>
+      <c r="E1025" s="16"/>
+      <c r="F1025" s="16"/>
+      <c r="G1025" s="16"/>
+      <c r="H1025" s="16"/>
+      <c r="I1025" s="16"/>
+      <c r="J1025" s="16"/>
+      <c r="K1025" s="16"/>
+      <c r="L1025" s="16"/>
+      <c r="M1025" s="16"/>
+      <c r="N1025" s="16"/>
+      <c r="O1025" s="16"/>
+    </row>
+    <row r="1026" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1026" s="16"/>
+      <c r="D1026" s="16"/>
+      <c r="E1026" s="16"/>
+      <c r="F1026" s="16"/>
+      <c r="G1026" s="16"/>
+      <c r="H1026" s="16"/>
+      <c r="I1026" s="16"/>
+      <c r="J1026" s="16"/>
+      <c r="K1026" s="16"/>
+      <c r="L1026" s="16"/>
+      <c r="M1026" s="16"/>
+      <c r="N1026" s="16"/>
+      <c r="O1026" s="16"/>
+    </row>
+    <row r="1027" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1027" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1027" s="17">
+        <v>1</v>
+      </c>
+      <c r="E1027" s="17">
+        <v>3</v>
+      </c>
+      <c r="F1027" s="17">
+        <v>1</v>
+      </c>
+      <c r="G1027" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1027" s="17">
+        <v>0</v>
+      </c>
+      <c r="I1027" s="17">
+        <v>8</v>
+      </c>
+      <c r="J1027" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1027" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1027" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1027" s="17">
+        <v>20</v>
+      </c>
+      <c r="N1027" s="17">
+        <v>174</v>
+      </c>
+      <c r="O1027" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1028" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1028" s="16"/>
+      <c r="D1028" s="16"/>
+      <c r="E1028" s="16"/>
+      <c r="F1028" s="16"/>
+      <c r="G1028" s="16"/>
+      <c r="H1028" s="16"/>
+      <c r="I1028" s="16"/>
+      <c r="J1028" s="16"/>
+      <c r="K1028" s="16"/>
+      <c r="L1028" s="16"/>
+      <c r="M1028" s="16"/>
+      <c r="N1028" s="16"/>
+      <c r="O1028" s="16"/>
+    </row>
+    <row r="1029" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1029" s="16"/>
+      <c r="D1029" s="16"/>
+      <c r="E1029" s="16"/>
+      <c r="F1029" s="16"/>
+      <c r="G1029" s="16"/>
+      <c r="H1029" s="16"/>
+      <c r="I1029" s="16"/>
+      <c r="J1029" s="16"/>
+      <c r="K1029" s="16"/>
+      <c r="L1029" s="16"/>
+      <c r="M1029" s="16"/>
+      <c r="N1029" s="16"/>
+      <c r="O1029" s="16"/>
+    </row>
+    <row r="1030" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1030" s="16"/>
+      <c r="D1030" s="17">
+        <v>1</v>
+      </c>
+      <c r="E1030" s="16"/>
+      <c r="F1030" s="16"/>
+      <c r="G1030" s="16"/>
+      <c r="H1030" s="16"/>
+      <c r="I1030" s="16"/>
+      <c r="J1030" s="16"/>
+      <c r="K1030" s="16"/>
+      <c r="L1030" s="16"/>
+      <c r="M1030" s="16"/>
+      <c r="N1030" s="16"/>
+      <c r="O1030" s="16"/>
+    </row>
+    <row r="1031" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1031" s="16"/>
+      <c r="D1031" s="16"/>
+      <c r="E1031" s="16"/>
+      <c r="F1031" s="16"/>
+      <c r="G1031" s="16"/>
+      <c r="H1031" s="16"/>
+      <c r="I1031" s="16"/>
+      <c r="J1031" s="16"/>
+      <c r="K1031" s="16"/>
+      <c r="L1031" s="16"/>
+      <c r="M1031" s="16"/>
+      <c r="N1031" s="16"/>
+      <c r="O1031" s="16"/>
+    </row>
+    <row r="1032" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1032" s="16"/>
+      <c r="D1032" s="16"/>
+      <c r="E1032" s="16"/>
+      <c r="F1032" s="16"/>
+      <c r="G1032" s="16"/>
+      <c r="H1032" s="16"/>
+      <c r="I1032" s="16"/>
+      <c r="J1032" s="16"/>
+      <c r="K1032" s="16"/>
+      <c r="L1032" s="16"/>
+      <c r="M1032" s="16"/>
+      <c r="N1032" s="16"/>
+      <c r="O1032" s="16"/>
+    </row>
+    <row r="1033" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1033" s="16"/>
+      <c r="D1033" s="16"/>
+      <c r="E1033" s="16"/>
+      <c r="F1033" s="16"/>
+      <c r="G1033" s="16"/>
+      <c r="H1033" s="16"/>
+      <c r="I1033" s="16"/>
+      <c r="J1033" s="16"/>
+      <c r="K1033" s="16"/>
+      <c r="L1033" s="16"/>
+      <c r="M1033" s="16"/>
+      <c r="N1033" s="16"/>
+      <c r="O1033" s="16"/>
+    </row>
+    <row r="1034" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1034" s="16"/>
+      <c r="D1034" s="16"/>
+      <c r="E1034" s="16"/>
+      <c r="F1034" s="16"/>
+      <c r="G1034" s="16"/>
+      <c r="H1034" s="16"/>
+      <c r="I1034" s="16"/>
+      <c r="J1034" s="16"/>
+      <c r="K1034" s="16"/>
+      <c r="L1034" s="16"/>
+      <c r="M1034" s="16"/>
+      <c r="N1034" s="16"/>
+      <c r="O1034" s="16"/>
+    </row>
+    <row r="1035" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1035" s="16"/>
+      <c r="D1035" s="16"/>
+      <c r="E1035" s="16"/>
+      <c r="F1035" s="16"/>
+      <c r="G1035" s="16"/>
+      <c r="H1035" s="17">
+        <v>2</v>
+      </c>
+      <c r="I1035" s="16"/>
+      <c r="J1035" s="16"/>
+      <c r="K1035" s="16"/>
+      <c r="L1035" s="16"/>
+      <c r="M1035" s="16"/>
+      <c r="N1035" s="16"/>
+      <c r="O1035" s="16"/>
+    </row>
+    <row r="1036" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1036" s="17">
+        <v>2</v>
+      </c>
+      <c r="D1036" s="17">
+        <v>2</v>
+      </c>
+      <c r="E1036" s="16"/>
+      <c r="F1036" s="17">
+        <v>2</v>
+      </c>
+      <c r="G1036" s="17">
+        <v>1</v>
+      </c>
+      <c r="H1036" s="16"/>
+      <c r="I1036" s="17">
+        <v>8</v>
+      </c>
+      <c r="J1036" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1036" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1036" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1036" s="17">
+        <v>23</v>
+      </c>
+      <c r="N1036" s="17">
+        <v>1.78</v>
+      </c>
+      <c r="O1036" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1037" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1037" s="23">
+        <v>1</v>
+      </c>
+      <c r="D1037" s="23">
+        <v>0</v>
+      </c>
+      <c r="E1037" s="23">
+        <v>2</v>
+      </c>
+      <c r="F1037" s="23">
+        <v>0</v>
+      </c>
+      <c r="G1037" s="23">
+        <v>1</v>
+      </c>
+      <c r="H1037" s="23">
+        <v>4</v>
+      </c>
+      <c r="I1037" s="23">
+        <v>8</v>
+      </c>
+      <c r="J1037" s="23">
+        <v>4</v>
+      </c>
+      <c r="K1037" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1037" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1037" s="23">
+        <v>21</v>
+      </c>
+      <c r="N1037" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1037" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1038" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1038" s="25">
+        <v>2</v>
+      </c>
+      <c r="D1038" s="25">
+        <v>3</v>
+      </c>
+      <c r="E1038" s="25">
+        <v>1</v>
+      </c>
+      <c r="F1038" s="25">
+        <v>0</v>
+      </c>
+      <c r="G1038" s="25">
+        <v>0</v>
+      </c>
+      <c r="H1038" s="25">
+        <v>2</v>
+      </c>
+      <c r="I1038" s="25">
+        <v>8</v>
+      </c>
+      <c r="J1038" s="25">
+        <v>4</v>
+      </c>
+      <c r="K1038" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1038" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1038" s="25">
+        <v>19</v>
+      </c>
+      <c r="N1038" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1038" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1039" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1039" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1039" s="17">
+        <v>2</v>
+      </c>
+      <c r="E1039" s="17">
+        <v>1</v>
+      </c>
+      <c r="F1039" s="17">
+        <v>1</v>
+      </c>
+      <c r="G1039" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1039" s="17">
+        <v>1</v>
+      </c>
+      <c r="I1039" s="17">
+        <v>8</v>
+      </c>
+      <c r="J1039" s="17">
+        <v>6</v>
+      </c>
+      <c r="K1039" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1039" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1039" s="17">
+        <v>20</v>
+      </c>
+      <c r="N1039" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1039" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1040" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1040" s="16"/>
+      <c r="D1040" s="16"/>
+      <c r="E1040" s="16"/>
+      <c r="F1040" s="16"/>
+      <c r="G1040" s="16"/>
+      <c r="H1040" s="16"/>
+      <c r="I1040" s="16"/>
+      <c r="J1040" s="16"/>
+      <c r="K1040" s="16"/>
+      <c r="L1040" s="16"/>
+      <c r="M1040" s="16"/>
+      <c r="N1040" s="16"/>
+      <c r="O1040" s="16"/>
+    </row>
+    <row r="1041" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1041" s="16"/>
+      <c r="D1041" s="16"/>
+      <c r="E1041" s="16"/>
+      <c r="F1041" s="16"/>
+      <c r="G1041" s="16"/>
+      <c r="H1041" s="16"/>
+      <c r="I1041" s="16"/>
+      <c r="J1041" s="16"/>
+      <c r="K1041" s="16"/>
+      <c r="L1041" s="16"/>
+      <c r="M1041" s="16"/>
+      <c r="N1041" s="16"/>
+      <c r="O1041" s="16"/>
+    </row>
+    <row r="1042" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1042" s="16"/>
+      <c r="D1042" s="16"/>
+      <c r="E1042" s="16"/>
+      <c r="F1042" s="16"/>
+      <c r="G1042" s="16"/>
+      <c r="H1042" s="16"/>
+      <c r="I1042" s="16"/>
+      <c r="J1042" s="16"/>
+      <c r="K1042" s="16"/>
+      <c r="L1042" s="16"/>
+      <c r="M1042" s="16"/>
+      <c r="N1042" s="16"/>
+      <c r="O1042" s="16"/>
+    </row>
+    <row r="1043" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1043" s="16"/>
+      <c r="D1043" s="16"/>
+      <c r="E1043" s="16"/>
+      <c r="F1043" s="16"/>
+      <c r="G1043" s="16"/>
+      <c r="H1043" s="16"/>
+      <c r="I1043" s="16"/>
+      <c r="J1043" s="16"/>
+      <c r="K1043" s="16"/>
+      <c r="L1043" s="16"/>
+      <c r="M1043" s="16"/>
+      <c r="N1043" s="16"/>
+      <c r="O1043" s="16"/>
+    </row>
+    <row r="1044" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1044" s="16"/>
+      <c r="D1044" s="16"/>
+      <c r="E1044" s="16"/>
+      <c r="F1044" s="16"/>
+      <c r="G1044" s="16"/>
+      <c r="H1044" s="16"/>
+      <c r="I1044" s="16"/>
+      <c r="J1044" s="16"/>
+      <c r="K1044" s="16"/>
+      <c r="L1044" s="16"/>
+      <c r="M1044" s="16"/>
+      <c r="N1044" s="16"/>
+      <c r="O1044" s="16"/>
+    </row>
+    <row r="1045" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1045" s="16"/>
+      <c r="D1045" s="16"/>
+      <c r="E1045" s="16"/>
+      <c r="F1045" s="16"/>
+      <c r="G1045" s="16"/>
+      <c r="H1045" s="16"/>
+      <c r="I1045" s="16"/>
+      <c r="J1045" s="16"/>
+      <c r="K1045" s="16"/>
+      <c r="L1045" s="16"/>
+      <c r="M1045" s="16"/>
+      <c r="N1045" s="16"/>
+      <c r="O1045" s="16"/>
+    </row>
+    <row r="1046" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1046" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1046" s="16"/>
+      <c r="E1046" s="17">
+        <v>5</v>
+      </c>
+      <c r="F1046" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1046" s="16"/>
+      <c r="H1046" s="16"/>
+      <c r="I1046" s="16"/>
+      <c r="J1046" s="16"/>
+      <c r="K1046" s="16"/>
+      <c r="L1046" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1046" s="17">
+        <v>21</v>
+      </c>
+      <c r="N1046" s="17">
+        <v>1.68</v>
+      </c>
+      <c r="O1046" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1047" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1047" s="17">
+        <v>3</v>
+      </c>
+      <c r="D1047" s="16"/>
+      <c r="E1047" s="17">
+        <v>2</v>
+      </c>
+      <c r="F1047" s="16"/>
+      <c r="G1047" s="17">
+        <v>1</v>
+      </c>
+      <c r="H1047" s="16"/>
+      <c r="I1047" s="16"/>
+      <c r="J1047" s="16"/>
+      <c r="K1047" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1047" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1047" s="17">
+        <v>20</v>
+      </c>
+      <c r="N1047" s="17">
+        <v>1.75</v>
+      </c>
+      <c r="O1047" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1048" s="16"/>
+      <c r="D1048" s="16"/>
+      <c r="E1048" s="16"/>
+      <c r="F1048" s="16"/>
+      <c r="G1048" s="16"/>
+      <c r="H1048" s="16"/>
+      <c r="I1048" s="16"/>
+      <c r="J1048" s="16"/>
+      <c r="K1048" s="16"/>
+      <c r="L1048" s="16"/>
+      <c r="M1048" s="16"/>
+      <c r="N1048" s="16"/>
+      <c r="O1048" s="16"/>
+    </row>
+    <row r="1049" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1049" s="16"/>
+      <c r="D1049" s="16"/>
+      <c r="E1049" s="16"/>
+      <c r="F1049" s="16"/>
+      <c r="G1049" s="16"/>
+      <c r="H1049" s="16"/>
+      <c r="I1049" s="16"/>
+      <c r="J1049" s="16"/>
+      <c r="K1049" s="16"/>
+      <c r="L1049" s="16"/>
+      <c r="M1049" s="16"/>
+      <c r="N1049" s="16"/>
+      <c r="O1049" s="16"/>
+    </row>
+    <row r="1050" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1050" s="16"/>
+      <c r="D1050" s="16"/>
+      <c r="E1050" s="16"/>
+      <c r="F1050" s="16"/>
+      <c r="G1050" s="16"/>
+      <c r="H1050" s="16"/>
+      <c r="I1050" s="16"/>
+      <c r="J1050" s="16"/>
+      <c r="K1050" s="16"/>
+      <c r="L1050" s="16"/>
+      <c r="M1050" s="16"/>
+      <c r="N1050" s="16"/>
+      <c r="O1050" s="16"/>
+    </row>
+    <row r="1051" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1051" s="17">
+        <v>0</v>
+      </c>
+      <c r="D1051" s="17">
+        <v>3</v>
+      </c>
+      <c r="E1051" s="17">
+        <v>3</v>
+      </c>
+      <c r="F1051" s="17">
+        <v>1</v>
+      </c>
+      <c r="G1051" s="17">
+        <v>1</v>
+      </c>
+      <c r="H1051" s="17">
+        <v>1</v>
+      </c>
+      <c r="I1051" s="17">
+        <v>9</v>
+      </c>
+      <c r="J1051" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1051" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1051" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1051" s="17">
+        <v>22</v>
+      </c>
+      <c r="N1051" s="17">
+        <v>1.68</v>
+      </c>
+      <c r="O1051" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1052" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1052" s="16"/>
+      <c r="D1052" s="16"/>
+      <c r="E1052" s="16"/>
+      <c r="F1052" s="16"/>
+      <c r="G1052" s="16"/>
+      <c r="H1052" s="16"/>
+      <c r="I1052" s="16"/>
+      <c r="J1052" s="16"/>
+      <c r="K1052" s="16"/>
+      <c r="L1052" s="16"/>
+      <c r="M1052" s="16"/>
+      <c r="N1052" s="16"/>
+      <c r="O1052" s="16"/>
+    </row>
+    <row r="1053" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1053" s="16"/>
+      <c r="D1053" s="16"/>
+      <c r="E1053" s="16"/>
+      <c r="F1053" s="16"/>
+      <c r="G1053" s="16"/>
+      <c r="H1053" s="16"/>
+      <c r="I1053" s="16"/>
+      <c r="J1053" s="16"/>
+      <c r="K1053" s="16"/>
+      <c r="L1053" s="16"/>
+      <c r="M1053" s="16"/>
+      <c r="N1053" s="16"/>
+      <c r="O1053" s="16"/>
+    </row>
+    <row r="1054" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1054" s="16"/>
+      <c r="D1054" s="16"/>
+      <c r="E1054" s="16"/>
+      <c r="F1054" s="16"/>
+      <c r="G1054" s="16"/>
+      <c r="H1054" s="16"/>
+      <c r="I1054" s="16"/>
+      <c r="J1054" s="16"/>
+      <c r="K1054" s="16"/>
+      <c r="L1054" s="16"/>
+      <c r="M1054" s="16"/>
+      <c r="N1054" s="16"/>
+      <c r="O1054" s="16"/>
+    </row>
+    <row r="1055" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1055" s="16"/>
+      <c r="D1055" s="16"/>
+      <c r="E1055" s="16"/>
+      <c r="F1055" s="16"/>
+      <c r="G1055" s="16"/>
+      <c r="H1055" s="16"/>
+      <c r="I1055" s="16"/>
+      <c r="J1055" s="16"/>
+      <c r="K1055" s="16"/>
+      <c r="L1055" s="16"/>
+      <c r="M1055" s="16"/>
+      <c r="N1055" s="16"/>
+      <c r="O1055" s="16"/>
+    </row>
+    <row r="1056" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1056" s="17">
+        <v>0</v>
+      </c>
+      <c r="D1056" s="17">
+        <v>2</v>
+      </c>
+      <c r="E1056" s="17">
+        <v>2</v>
+      </c>
+      <c r="F1056" s="17">
+        <v>1</v>
+      </c>
+      <c r="G1056" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1056" s="17">
+        <v>1</v>
+      </c>
+      <c r="I1056" s="17">
+        <v>8</v>
+      </c>
+      <c r="J1056" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1056" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1056" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1056" s="17">
+        <v>28</v>
+      </c>
+      <c r="N1056" s="17">
+        <v>1.58</v>
+      </c>
+      <c r="O1056" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1057" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1057" s="16"/>
+      <c r="D1057" s="16"/>
+      <c r="E1057" s="16"/>
+      <c r="F1057" s="16"/>
+      <c r="G1057" s="16"/>
+      <c r="H1057" s="16"/>
+      <c r="I1057" s="16"/>
+      <c r="J1057" s="16"/>
+      <c r="K1057" s="16"/>
+      <c r="L1057" s="16"/>
+      <c r="M1057" s="16"/>
+      <c r="N1057" s="16"/>
+      <c r="O1057" s="16"/>
+    </row>
+    <row r="1058" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1058" s="16"/>
+      <c r="D1058" s="16"/>
+      <c r="E1058" s="16"/>
+      <c r="F1058" s="16"/>
+      <c r="G1058" s="16"/>
+      <c r="H1058" s="16"/>
+      <c r="I1058" s="16"/>
+      <c r="J1058" s="16"/>
+      <c r="K1058" s="16"/>
+      <c r="L1058" s="16"/>
+      <c r="M1058" s="16"/>
+      <c r="N1058" s="16"/>
+      <c r="O1058" s="16"/>
+    </row>
+    <row r="1059" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1059" s="17">
+        <v>2</v>
+      </c>
+      <c r="D1059" s="17">
+        <v>3</v>
+      </c>
+      <c r="E1059" s="17">
+        <v>4</v>
+      </c>
+      <c r="F1059" s="17">
+        <v>2</v>
+      </c>
+      <c r="G1059" s="17">
+        <v>1</v>
+      </c>
+      <c r="H1059" s="17">
+        <v>2</v>
+      </c>
+      <c r="I1059" s="17">
+        <v>14</v>
+      </c>
+      <c r="J1059" s="17">
+        <v>6</v>
+      </c>
+      <c r="K1059" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1059" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1059" s="17">
+        <v>24</v>
+      </c>
+      <c r="N1059" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1059" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1060" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1060" s="16"/>
+      <c r="D1060" s="16"/>
+      <c r="E1060" s="16"/>
+      <c r="F1060" s="16"/>
+      <c r="G1060" s="16"/>
+      <c r="H1060" s="16"/>
+      <c r="I1060" s="16"/>
+      <c r="J1060" s="16"/>
+      <c r="K1060" s="16"/>
+      <c r="L1060" s="16"/>
+      <c r="M1060" s="16"/>
+      <c r="N1060" s="16"/>
+      <c r="O1060" s="16"/>
+    </row>
+    <row r="1061" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1061" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1061" s="17">
+        <v>2</v>
+      </c>
+      <c r="E1061" s="17">
+        <v>1</v>
+      </c>
+      <c r="F1061" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1061" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1061" s="17">
+        <v>1</v>
+      </c>
+      <c r="I1061" s="17">
+        <v>10</v>
+      </c>
+      <c r="J1061" s="17">
+        <v>6</v>
+      </c>
+      <c r="K1061" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1061" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1061" s="17">
+        <v>19</v>
+      </c>
+      <c r="N1061" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1061" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1062" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1062" s="16"/>
+      <c r="D1062" s="17">
+        <v>1</v>
+      </c>
+      <c r="E1062" s="17">
+        <v>2</v>
+      </c>
+      <c r="F1062" s="17">
+        <v>1</v>
+      </c>
+      <c r="G1062" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1062" s="17">
+        <v>2</v>
+      </c>
+      <c r="I1062" s="17">
+        <v>8</v>
+      </c>
+      <c r="J1062" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1062" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1062" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1062" s="17">
+        <v>20</v>
+      </c>
+      <c r="N1062" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1062" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1063" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1063" s="16"/>
+      <c r="D1063" s="16"/>
+      <c r="E1063" s="16"/>
+      <c r="F1063" s="16"/>
+      <c r="G1063" s="16"/>
+      <c r="H1063" s="16"/>
+      <c r="I1063" s="16"/>
+      <c r="J1063" s="16"/>
+      <c r="K1063" s="16"/>
+      <c r="L1063" s="16"/>
+      <c r="M1063" s="16"/>
+      <c r="N1063" s="16"/>
+      <c r="O1063" s="16"/>
+    </row>
+    <row r="1064" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1064" s="16"/>
+      <c r="D1064" s="16"/>
+      <c r="E1064" s="16"/>
+      <c r="F1064" s="16"/>
+      <c r="G1064" s="16"/>
+      <c r="H1064" s="16"/>
+      <c r="I1064" s="16"/>
+      <c r="J1064" s="16"/>
+      <c r="K1064" s="16"/>
+      <c r="L1064" s="16"/>
+      <c r="M1064" s="16"/>
+      <c r="N1064" s="16"/>
+      <c r="O1064" s="16"/>
+    </row>
+    <row r="1065" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1065" s="17">
+        <v>0</v>
+      </c>
+      <c r="D1065" s="17">
+        <v>2</v>
+      </c>
+      <c r="E1065" s="16"/>
+      <c r="F1065" s="17">
+        <v>5</v>
+      </c>
+      <c r="G1065" s="17">
+        <v>0</v>
+      </c>
+      <c r="H1065" s="17">
+        <v>1</v>
+      </c>
+      <c r="I1065" s="17">
+        <v>10</v>
+      </c>
+      <c r="J1065" s="17">
+        <v>4</v>
+      </c>
+      <c r="K1065" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1065" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1065" s="17">
+        <v>22</v>
+      </c>
+      <c r="N1065" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1065" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1066" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1066" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1066" s="17">
+        <v>1</v>
+      </c>
+      <c r="E1066" s="17">
+        <v>1</v>
+      </c>
+      <c r="F1066" s="17">
+        <v>1</v>
+      </c>
+      <c r="G1066" s="17">
+        <v>1</v>
+      </c>
+      <c r="H1066" s="17">
+        <v>3</v>
+      </c>
+      <c r="I1066" s="17">
+        <v>8</v>
+      </c>
+      <c r="J1066" s="17">
+        <v>6</v>
+      </c>
+      <c r="K1066" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1066" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1066" s="17">
+        <v>23</v>
+      </c>
+      <c r="N1066" s="17">
+        <v>188</v>
+      </c>
+      <c r="O1066" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1067" spans="3:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C1067" s="14">
+        <v>0</v>
+      </c>
+      <c r="D1067" s="14">
+        <v>0</v>
+      </c>
+      <c r="E1067" s="14">
+        <v>1</v>
+      </c>
+      <c r="F1067" s="14">
+        <v>2</v>
+      </c>
+      <c r="G1067" s="14">
+        <v>4</v>
+      </c>
+      <c r="H1067" s="14">
+        <v>2</v>
+      </c>
+      <c r="I1067" s="14">
+        <v>9</v>
+      </c>
+      <c r="J1067" s="14">
+        <v>4</v>
+      </c>
+      <c r="K1067" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1067" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1067" s="14">
+        <v>20</v>
+      </c>
+      <c r="N1067" s="15"/>
+      <c r="O1067" s="15"/>
+    </row>
+    <row r="1068" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1068" s="17">
+        <v>2</v>
+      </c>
+      <c r="D1068" s="16"/>
+      <c r="E1068" s="17">
+        <v>2</v>
+      </c>
+      <c r="F1068" s="17">
+        <v>1</v>
+      </c>
+      <c r="G1068" s="17">
+        <v>4</v>
+      </c>
+      <c r="H1068" s="16"/>
+      <c r="I1068" s="17">
+        <v>9</v>
+      </c>
+      <c r="J1068" s="16"/>
+      <c r="K1068" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1068" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1068" s="17">
+        <v>21</v>
+      </c>
+      <c r="N1068" s="17">
+        <v>1.78</v>
+      </c>
+      <c r="O1068" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1069" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1069" s="17">
+        <v>2</v>
+      </c>
+      <c r="D1069" s="17">
+        <v>0</v>
+      </c>
+      <c r="E1069" s="17">
+        <v>1</v>
+      </c>
+      <c r="F1069" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1069" s="17">
+        <v>1</v>
+      </c>
+      <c r="H1069" s="17">
+        <v>3</v>
+      </c>
+      <c r="I1069" s="17">
+        <v>10</v>
+      </c>
+      <c r="J1069" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1069" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1069" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1069" s="17">
+        <v>21</v>
+      </c>
+      <c r="N1069" s="17">
+        <v>1.75</v>
+      </c>
+      <c r="O1069" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1070" s="17">
+        <v>2</v>
+      </c>
+      <c r="D1070" s="17">
+        <v>0</v>
+      </c>
+      <c r="E1070" s="17">
+        <v>1</v>
+      </c>
+      <c r="F1070" s="17">
+        <v>2</v>
+      </c>
+      <c r="G1070" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1070" s="17">
+        <v>1</v>
+      </c>
+      <c r="I1070" s="17">
+        <v>10</v>
+      </c>
+      <c r="J1070" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1070" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1070" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1070" s="17">
+        <v>22</v>
+      </c>
+      <c r="N1070" s="17">
+        <v>1.86</v>
+      </c>
+      <c r="O1070" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071" spans="3:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C1071" s="14">
+        <v>2</v>
+      </c>
+      <c r="D1071" s="14">
+        <v>0</v>
+      </c>
+      <c r="E1071" s="14">
+        <v>2</v>
+      </c>
+      <c r="F1071" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1071" s="14">
+        <v>4</v>
+      </c>
+      <c r="H1071" s="14">
+        <v>1</v>
+      </c>
+      <c r="I1071" s="14">
+        <v>10</v>
+      </c>
+      <c r="J1071" s="14">
+        <v>5</v>
+      </c>
+      <c r="K1071" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1071" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1071" s="14">
+        <v>21</v>
+      </c>
+      <c r="N1071" s="14">
+        <v>1.63</v>
+      </c>
+      <c r="O1071" s="16"/>
+    </row>
+    <row r="1072" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1072" s="17">
+        <v>2</v>
+      </c>
+      <c r="D1072" s="17">
+        <v>0</v>
+      </c>
+      <c r="E1072" s="17">
+        <v>2</v>
+      </c>
+      <c r="F1072" s="17">
+        <v>2</v>
+      </c>
+      <c r="G1072" s="17">
+        <v>1</v>
+      </c>
+      <c r="H1072" s="17">
+        <v>3</v>
+      </c>
+      <c r="I1072" s="17">
+        <v>10</v>
+      </c>
+      <c r="J1072" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1072" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1072" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1072" s="16"/>
+      <c r="N1072" s="16"/>
+      <c r="O1072" s="16"/>
+    </row>
+    <row r="1073" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1073" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1073" s="17">
+        <v>0</v>
+      </c>
+      <c r="E1073" s="17">
+        <v>3</v>
+      </c>
+      <c r="F1073" s="17">
+        <v>4</v>
+      </c>
+      <c r="G1073" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1073" s="17">
+        <v>1</v>
+      </c>
+      <c r="I1073" s="17">
+        <v>11</v>
+      </c>
+      <c r="J1073" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1073" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1073" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1073" s="17">
+        <v>24</v>
+      </c>
+      <c r="N1073" s="16"/>
+      <c r="O1073" s="16"/>
+    </row>
+    <row r="1074" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1074" s="17">
+        <v>2</v>
+      </c>
+      <c r="D1074" s="17">
+        <v>0</v>
+      </c>
+      <c r="E1074" s="17">
+        <v>3</v>
+      </c>
+      <c r="F1074" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1074" s="17">
+        <v>0</v>
+      </c>
+      <c r="H1074" s="17">
+        <v>2</v>
+      </c>
+      <c r="I1074" s="17">
+        <v>13</v>
+      </c>
+      <c r="J1074" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1074" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1074" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1074" s="17">
+        <v>20</v>
+      </c>
+      <c r="N1074" s="17">
+        <v>173</v>
+      </c>
+      <c r="O1074" s="16"/>
+    </row>
+    <row r="1075" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1075" s="17">
+        <v>2</v>
+      </c>
+      <c r="D1075" s="17">
+        <v>1</v>
+      </c>
+      <c r="E1075" s="17">
+        <v>2</v>
+      </c>
+      <c r="F1075" s="17">
+        <v>2</v>
+      </c>
+      <c r="G1075" s="17">
+        <v>0</v>
+      </c>
+      <c r="H1075" s="17">
+        <v>1</v>
+      </c>
+      <c r="I1075" s="17">
+        <v>8</v>
+      </c>
+      <c r="J1075" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1075" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1075" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1075" s="17">
+        <v>23</v>
+      </c>
+      <c r="N1075" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1075" s="16"/>
+    </row>
+    <row r="1076" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1076" s="16"/>
+      <c r="D1076" s="16"/>
+      <c r="E1076" s="16"/>
+      <c r="F1076" s="16"/>
+      <c r="G1076" s="16"/>
+      <c r="H1076" s="16"/>
+      <c r="I1076" s="16"/>
+      <c r="J1076" s="16"/>
+      <c r="K1076" s="16"/>
+      <c r="L1076" s="16"/>
+      <c r="M1076" s="16"/>
+      <c r="N1076" s="16"/>
+      <c r="O1076" s="16"/>
+    </row>
+    <row r="1077" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1077" s="17">
+        <v>2</v>
+      </c>
+      <c r="D1077" s="17">
+        <v>0</v>
+      </c>
+      <c r="E1077" s="17">
+        <v>4</v>
+      </c>
+      <c r="F1077" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1077" s="17">
+        <v>3</v>
+      </c>
+      <c r="H1077" s="17">
+        <v>0</v>
+      </c>
+      <c r="I1077" s="17">
+        <v>12</v>
+      </c>
+      <c r="J1077" s="17">
+        <v>4</v>
+      </c>
+      <c r="K1077" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1077" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1077" s="17">
+        <v>18</v>
+      </c>
+      <c r="N1077" s="17">
+        <v>186</v>
+      </c>
+      <c r="O1077" s="16"/>
+    </row>
+    <row r="1078" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1078" s="16"/>
+      <c r="D1078" s="16"/>
+      <c r="E1078" s="16"/>
+      <c r="F1078" s="16"/>
+      <c r="G1078" s="16"/>
+      <c r="H1078" s="16"/>
+      <c r="I1078" s="16"/>
+      <c r="J1078" s="16"/>
+      <c r="K1078" s="16"/>
+      <c r="L1078" s="16"/>
+      <c r="M1078" s="16"/>
+      <c r="N1078" s="16"/>
+      <c r="O1078" s="16"/>
+    </row>
+    <row r="1079" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1079" s="16"/>
+      <c r="D1079" s="16"/>
+      <c r="E1079" s="16"/>
+      <c r="F1079" s="16"/>
+      <c r="G1079" s="16"/>
+      <c r="H1079" s="16"/>
+      <c r="I1079" s="16"/>
+      <c r="J1079" s="16"/>
+      <c r="K1079" s="16"/>
+      <c r="L1079" s="16"/>
+      <c r="M1079" s="16"/>
+      <c r="N1079" s="16"/>
+      <c r="O1079" s="16"/>
+    </row>
+    <row r="1080" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1080" s="17">
+        <v>0</v>
+      </c>
+      <c r="D1080" s="17">
+        <v>0</v>
+      </c>
+      <c r="E1080" s="17">
+        <v>0</v>
+      </c>
+      <c r="F1080" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1080" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1080" s="17">
+        <v>4</v>
+      </c>
+      <c r="I1080" s="17">
+        <v>9</v>
+      </c>
+      <c r="J1080" s="17">
+        <v>3</v>
+      </c>
+      <c r="K1080" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1080" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1080" s="17">
+        <v>28</v>
+      </c>
+      <c r="N1080" s="16"/>
+      <c r="O1080" s="16"/>
+    </row>
+    <row r="1081" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1081" s="17">
+        <v>3</v>
+      </c>
+      <c r="D1081" s="16"/>
+      <c r="E1081" s="16"/>
+      <c r="F1081" s="17">
+        <v>2</v>
+      </c>
+      <c r="G1081" s="16"/>
+      <c r="H1081" s="17">
+        <v>3</v>
+      </c>
+      <c r="I1081" s="17">
+        <v>8</v>
+      </c>
+      <c r="J1081" s="17">
+        <v>3</v>
+      </c>
+      <c r="K1081" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1081" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1081" s="17">
+        <v>21</v>
+      </c>
+      <c r="N1081" s="17">
+        <v>178</v>
+      </c>
+      <c r="O1081" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1082" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1082" s="16"/>
+      <c r="D1082" s="16"/>
+      <c r="E1082" s="16"/>
+      <c r="F1082" s="16"/>
+      <c r="G1082" s="16"/>
+      <c r="H1082" s="16"/>
+      <c r="I1082" s="16"/>
+      <c r="J1082" s="16"/>
+      <c r="K1082" s="16"/>
+      <c r="L1082" s="16"/>
+      <c r="M1082" s="16"/>
+      <c r="N1082" s="16"/>
+      <c r="O1082" s="16"/>
+    </row>
+    <row r="1083" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1083" s="17">
+        <v>2</v>
+      </c>
+      <c r="D1083" s="17">
+        <v>1</v>
+      </c>
+      <c r="E1083" s="17">
+        <v>2</v>
+      </c>
+      <c r="F1083" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1083" s="17">
+        <v>1</v>
+      </c>
+      <c r="H1083" s="17">
+        <v>1</v>
+      </c>
+      <c r="I1083" s="17">
+        <v>10</v>
+      </c>
+      <c r="J1083" s="17">
+        <v>6</v>
+      </c>
+      <c r="K1083" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1083" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1083" s="17">
+        <v>22</v>
+      </c>
+      <c r="N1083" s="17">
+        <v>176</v>
+      </c>
+      <c r="O1083" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1084" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1084" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1084" s="16"/>
+      <c r="E1084" s="17">
+        <v>2</v>
+      </c>
+      <c r="F1084" s="17">
+        <v>2</v>
+      </c>
+      <c r="G1084" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1084" s="17">
+        <v>2</v>
+      </c>
+      <c r="I1084" s="17">
+        <v>9</v>
+      </c>
+      <c r="J1084" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1084" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1084" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1084" s="17">
+        <v>24</v>
+      </c>
+      <c r="N1084" s="17">
+        <v>170</v>
+      </c>
+      <c r="O1084" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1085" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1085" s="16"/>
+      <c r="D1085" s="16"/>
+      <c r="E1085" s="16"/>
+      <c r="F1085" s="16"/>
+      <c r="G1085" s="16"/>
+      <c r="H1085" s="16"/>
+      <c r="I1085" s="16"/>
+      <c r="J1085" s="16"/>
+      <c r="K1085" s="16"/>
+      <c r="L1085" s="16"/>
+      <c r="M1085" s="16"/>
+      <c r="N1085" s="16"/>
+      <c r="O1085" s="16"/>
+    </row>
+    <row r="1086" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1086" s="16"/>
+      <c r="D1086" s="16"/>
+      <c r="E1086" s="16"/>
+      <c r="F1086" s="16"/>
+      <c r="G1086" s="16"/>
+      <c r="H1086" s="16"/>
+      <c r="I1086" s="16"/>
+      <c r="J1086" s="16"/>
+      <c r="K1086" s="16"/>
+      <c r="L1086" s="16"/>
+      <c r="M1086" s="16"/>
+      <c r="N1086" s="16"/>
+      <c r="O1086" s="16"/>
+    </row>
+    <row r="1087" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1087" s="16"/>
+      <c r="D1087" s="16"/>
+      <c r="E1087" s="16"/>
+      <c r="F1087" s="16"/>
+      <c r="G1087" s="16"/>
+      <c r="H1087" s="16"/>
+      <c r="I1087" s="16"/>
+      <c r="J1087" s="16"/>
+      <c r="K1087" s="16"/>
+      <c r="L1087" s="16"/>
+      <c r="M1087" s="16"/>
+      <c r="N1087" s="16"/>
+      <c r="O1087" s="16"/>
+    </row>
+    <row r="1088" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1088" s="16"/>
+      <c r="D1088" s="16"/>
+      <c r="E1088" s="16"/>
+      <c r="F1088" s="16"/>
+      <c r="G1088" s="16"/>
+      <c r="H1088" s="16"/>
+      <c r="I1088" s="16"/>
+      <c r="J1088" s="16"/>
+      <c r="K1088" s="16"/>
+      <c r="L1088" s="16"/>
+      <c r="M1088" s="16"/>
+      <c r="N1088" s="16"/>
+      <c r="O1088" s="16"/>
+    </row>
+    <row r="1089" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1089" s="16"/>
+      <c r="D1089" s="16"/>
+      <c r="E1089" s="16"/>
+      <c r="F1089" s="16"/>
+      <c r="G1089" s="16"/>
+      <c r="H1089" s="16"/>
+      <c r="I1089" s="16"/>
+      <c r="J1089" s="16"/>
+      <c r="K1089" s="16"/>
+      <c r="L1089" s="16"/>
+      <c r="M1089" s="16"/>
+      <c r="N1089" s="16"/>
+      <c r="O1089" s="16"/>
+    </row>
+    <row r="1090" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1090" s="16"/>
+      <c r="D1090" s="16"/>
+      <c r="E1090" s="16"/>
+      <c r="F1090" s="16"/>
+      <c r="G1090" s="16"/>
+      <c r="H1090" s="16"/>
+      <c r="I1090" s="16"/>
+      <c r="J1090" s="16"/>
+      <c r="K1090" s="16"/>
+      <c r="L1090" s="16"/>
+      <c r="M1090" s="16"/>
+      <c r="N1090" s="16"/>
+      <c r="O1090" s="16"/>
+    </row>
+    <row r="1091" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1091" s="16"/>
+      <c r="D1091" s="16"/>
+      <c r="E1091" s="16"/>
+      <c r="F1091" s="16"/>
+      <c r="G1091" s="16"/>
+      <c r="H1091" s="16"/>
+      <c r="I1091" s="16"/>
+      <c r="J1091" s="16"/>
+      <c r="K1091" s="16"/>
+      <c r="L1091" s="16"/>
+      <c r="M1091" s="16"/>
+      <c r="N1091" s="16"/>
+      <c r="O1091" s="16"/>
+    </row>
+    <row r="1092" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1092" s="16"/>
+      <c r="D1092" s="16"/>
+      <c r="E1092" s="16"/>
+      <c r="F1092" s="16"/>
+      <c r="G1092" s="16"/>
+      <c r="H1092" s="16"/>
+      <c r="I1092" s="16"/>
+      <c r="J1092" s="16"/>
+      <c r="K1092" s="16"/>
+      <c r="L1092" s="16"/>
+      <c r="M1092" s="16"/>
+      <c r="N1092" s="16"/>
+      <c r="O1092" s="16"/>
+    </row>
+    <row r="1093" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1093" s="16"/>
+      <c r="D1093" s="16"/>
+      <c r="E1093" s="16"/>
+      <c r="F1093" s="16"/>
+      <c r="G1093" s="16"/>
+      <c r="H1093" s="16"/>
+      <c r="I1093" s="16"/>
+      <c r="J1093" s="16"/>
+      <c r="K1093" s="16"/>
+      <c r="L1093" s="16"/>
+      <c r="M1093" s="16"/>
+      <c r="N1093" s="16"/>
+      <c r="O1093" s="16"/>
+    </row>
+    <row r="1094" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1094" s="16"/>
+      <c r="D1094" s="16"/>
+      <c r="E1094" s="16"/>
+      <c r="F1094" s="16"/>
+      <c r="G1094" s="16"/>
+      <c r="H1094" s="16"/>
+      <c r="I1094" s="16"/>
+      <c r="J1094" s="16"/>
+      <c r="K1094" s="16"/>
+      <c r="L1094" s="16"/>
+      <c r="M1094" s="16"/>
+      <c r="N1094" s="16"/>
+      <c r="O1094" s="16"/>
+    </row>
+    <row r="1095" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1095" s="16"/>
+      <c r="D1095" s="16"/>
+      <c r="E1095" s="16"/>
+      <c r="F1095" s="16"/>
+      <c r="G1095" s="16"/>
+      <c r="H1095" s="16"/>
+      <c r="I1095" s="16"/>
+      <c r="J1095" s="16"/>
+      <c r="K1095" s="16"/>
+      <c r="L1095" s="16"/>
+      <c r="M1095" s="16"/>
+      <c r="N1095" s="16"/>
+      <c r="O1095" s="16"/>
+    </row>
+    <row r="1096" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1096" s="16"/>
+      <c r="D1096" s="16"/>
+      <c r="E1096" s="16"/>
+      <c r="F1096" s="16"/>
+      <c r="G1096" s="16"/>
+      <c r="H1096" s="16"/>
+      <c r="I1096" s="16"/>
+      <c r="J1096" s="16"/>
+      <c r="K1096" s="16"/>
+      <c r="L1096" s="16"/>
+      <c r="M1096" s="16"/>
+      <c r="N1096" s="16"/>
+      <c r="O1096" s="16"/>
+    </row>
+    <row r="1097" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1097" s="16"/>
+      <c r="D1097" s="16"/>
+      <c r="E1097" s="16"/>
+      <c r="F1097" s="16"/>
+      <c r="G1097" s="16"/>
+      <c r="H1097" s="16"/>
+      <c r="I1097" s="16"/>
+      <c r="J1097" s="16"/>
+      <c r="K1097" s="16"/>
+      <c r="L1097" s="16"/>
+      <c r="M1097" s="16"/>
+      <c r="N1097" s="16"/>
+      <c r="O1097" s="16"/>
+    </row>
+    <row r="1098" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1098" s="16"/>
+      <c r="D1098" s="16"/>
+      <c r="E1098" s="16"/>
+      <c r="F1098" s="16"/>
+      <c r="G1098" s="16"/>
+      <c r="H1098" s="16"/>
+      <c r="I1098" s="16"/>
+      <c r="J1098" s="16"/>
+      <c r="K1098" s="16"/>
+      <c r="L1098" s="16"/>
+      <c r="M1098" s="16"/>
+      <c r="N1098" s="16"/>
+      <c r="O1098" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\jkruppa.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79935445-16B1-4F7A-814F-493CA3B2089C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C965BD3C-8A41-4036-BDEE-C2CDE443A806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6588" yWindow="1920" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2981" uniqueCount="61">
   <si>
     <t>m</t>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>Gelb</t>
-  </si>
-  <si>
-    <t>/</t>
   </si>
   <si>
     <t>weiß/ grün</t>
@@ -383,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -422,9 +419,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -833,11 +827,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q1098"/>
+  <dimension ref="A1:Q1050"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1059" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1081" sqref="D1081"/>
+      <pane ySplit="1" topLeftCell="A1018" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A961" sqref="A961:A1036"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -45091,6 +45085,12 @@
       </c>
     </row>
     <row r="962" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A962" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B962" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C962" s="14">
         <v>0</v>
       </c>
@@ -45132,16 +45132,36 @@
       </c>
     </row>
     <row r="963" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C963" s="16"/>
-      <c r="D963" s="16"/>
+      <c r="A963" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B963" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C963" s="17">
+        <v>2</v>
+      </c>
+      <c r="D963" s="17">
+        <v>4</v>
+      </c>
       <c r="E963" s="17">
         <v>1</v>
       </c>
-      <c r="F963" s="16"/>
-      <c r="G963" s="16"/>
-      <c r="H963" s="16"/>
-      <c r="I963" s="16"/>
-      <c r="J963" s="16"/>
+      <c r="F963" s="17">
+        <v>3</v>
+      </c>
+      <c r="G963" s="17">
+        <v>4</v>
+      </c>
+      <c r="H963" s="17">
+        <v>1</v>
+      </c>
+      <c r="I963" s="17">
+        <v>15</v>
+      </c>
+      <c r="J963" s="17">
+        <v>6</v>
+      </c>
       <c r="K963" s="16"/>
       <c r="L963" s="16"/>
       <c r="M963" s="16"/>
@@ -45149,403 +45169,515 @@
       <c r="O963" s="16"/>
     </row>
     <row r="964" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A964" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B964" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C964" s="17">
         <v>2</v>
       </c>
       <c r="D964" s="17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E964" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F964" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G964" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H964" s="17">
         <v>1</v>
       </c>
       <c r="I964" s="17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J964" s="17">
+        <v>5</v>
+      </c>
+      <c r="K964" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L964" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M964" s="17">
+        <v>20</v>
+      </c>
+      <c r="N964" s="17">
+        <v>160</v>
+      </c>
+      <c r="O964" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="965" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A965" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B965" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C965" s="17">
+        <v>1</v>
+      </c>
+      <c r="D965" s="17">
+        <v>1</v>
+      </c>
+      <c r="E965" s="17">
+        <v>4</v>
+      </c>
+      <c r="F965" s="17">
+        <v>3</v>
+      </c>
+      <c r="G965" s="17">
+        <v>2</v>
+      </c>
+      <c r="H965" s="17">
+        <v>2</v>
+      </c>
+      <c r="I965" s="17">
+        <v>11</v>
+      </c>
+      <c r="J965" s="17">
         <v>6</v>
-      </c>
-      <c r="K964" s="16"/>
-      <c r="L964" s="16"/>
-      <c r="M964" s="16"/>
-      <c r="N964" s="16"/>
-      <c r="O964" s="16"/>
-    </row>
-    <row r="965" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C965" s="17">
-        <v>2</v>
-      </c>
-      <c r="D965" s="17">
-        <v>0</v>
-      </c>
-      <c r="E965" s="17">
-        <v>2</v>
-      </c>
-      <c r="F965" s="17">
-        <v>4</v>
-      </c>
-      <c r="G965" s="17">
-        <v>1</v>
-      </c>
-      <c r="H965" s="17">
-        <v>1</v>
-      </c>
-      <c r="I965" s="17">
-        <v>10</v>
-      </c>
-      <c r="J965" s="17">
-        <v>5</v>
       </c>
       <c r="K965" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L965" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M965" s="17">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N965" s="17">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="O965" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C966" s="17">
-        <v>1</v>
-      </c>
+      <c r="A966" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B966" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C966" s="16"/>
       <c r="D966" s="17">
         <v>1</v>
       </c>
       <c r="E966" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F966" s="17">
-        <v>3</v>
-      </c>
-      <c r="G966" s="17">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G966" s="16"/>
       <c r="H966" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I966" s="17">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J966" s="17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K966" s="16" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="L966" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M966" s="17">
         <v>22</v>
       </c>
       <c r="N966" s="17">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="O966" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C967" s="16"/>
+      <c r="A967" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B967" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C967" s="17">
+        <v>3</v>
+      </c>
       <c r="D967" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E967" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F967" s="17">
-        <v>4</v>
-      </c>
-      <c r="G967" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="G967" s="17">
+        <v>1</v>
+      </c>
       <c r="H967" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I967" s="17">
+        <v>10</v>
+      </c>
+      <c r="J967" s="17">
+        <v>5</v>
+      </c>
+      <c r="K967" s="16"/>
+      <c r="L967" s="16"/>
+      <c r="M967" s="16"/>
+      <c r="N967" s="16"/>
+      <c r="O967" s="16"/>
+    </row>
+    <row r="968" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A968" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B968" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C968" s="17">
+        <v>0</v>
+      </c>
+      <c r="D968" s="17">
+        <v>3</v>
+      </c>
+      <c r="E968" s="17">
+        <v>0</v>
+      </c>
+      <c r="F968" s="17">
+        <v>0</v>
+      </c>
+      <c r="G968" s="17">
+        <v>4</v>
+      </c>
+      <c r="H968" s="17">
+        <v>2</v>
+      </c>
+      <c r="I968" s="17">
+        <v>9</v>
+      </c>
+      <c r="J968" s="17">
+        <v>3</v>
+      </c>
+      <c r="K968" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L968" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M968" s="17">
+        <v>20</v>
+      </c>
+      <c r="N968" s="17">
+        <v>170</v>
+      </c>
+      <c r="O968" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A969" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B969" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C969" s="17">
+        <v>0</v>
+      </c>
+      <c r="D969" s="17">
+        <v>1</v>
+      </c>
+      <c r="E969" s="17">
+        <v>4</v>
+      </c>
+      <c r="F969" s="17">
+        <v>2</v>
+      </c>
+      <c r="G969" s="17">
+        <v>1</v>
+      </c>
+      <c r="H969" s="17">
+        <v>1</v>
+      </c>
+      <c r="I969" s="17">
+        <v>9</v>
+      </c>
+      <c r="J969" s="17">
+        <v>5</v>
+      </c>
+      <c r="K969" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L969" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M969" s="17">
+        <v>21</v>
+      </c>
+      <c r="N969" s="17">
+        <v>1.67</v>
+      </c>
+      <c r="O969" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="970" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A970" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B970" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C970" s="17">
+        <v>2</v>
+      </c>
+      <c r="D970" s="17">
+        <v>3</v>
+      </c>
+      <c r="E970" s="17">
+        <v>2</v>
+      </c>
+      <c r="F970" s="17">
+        <v>3</v>
+      </c>
+      <c r="G970" s="17">
+        <v>1</v>
+      </c>
+      <c r="H970" s="17">
+        <v>2</v>
+      </c>
+      <c r="I970" s="17">
         <v>8</v>
       </c>
-      <c r="J967" s="17">
-        <v>4</v>
-      </c>
-      <c r="K967" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="L967" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="M967" s="17">
+      <c r="J970" s="17">
+        <v>4</v>
+      </c>
+      <c r="K970" s="16"/>
+      <c r="L970" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M970" s="16"/>
+      <c r="N970" s="16"/>
+      <c r="O970" s="16"/>
+    </row>
+    <row r="971" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A971" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B971" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C971" s="17">
+        <v>2</v>
+      </c>
+      <c r="D971" s="17">
+        <v>2</v>
+      </c>
+      <c r="E971" s="17">
+        <v>2</v>
+      </c>
+      <c r="F971" s="17">
+        <v>2</v>
+      </c>
+      <c r="G971" s="17">
+        <v>0</v>
+      </c>
+      <c r="H971" s="17">
+        <v>2</v>
+      </c>
+      <c r="I971" s="17">
+        <v>10</v>
+      </c>
+      <c r="J971" s="17">
+        <v>5</v>
+      </c>
+      <c r="K971" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L971" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M971" s="17">
+        <v>24</v>
+      </c>
+      <c r="N971" s="17">
+        <v>1.72</v>
+      </c>
+      <c r="O971" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="972" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A972" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B972" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C972" s="17">
+        <v>3</v>
+      </c>
+      <c r="D972" s="16"/>
+      <c r="E972" s="17">
+        <v>3</v>
+      </c>
+      <c r="F972" s="17">
+        <v>2</v>
+      </c>
+      <c r="G972" s="16"/>
+      <c r="H972" s="16"/>
+      <c r="I972" s="17">
+        <v>8</v>
+      </c>
+      <c r="J972" s="16"/>
+      <c r="K972" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L972" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M972" s="17">
         <v>22</v>
       </c>
-      <c r="N967" s="17">
-        <v>195</v>
-      </c>
-      <c r="O967" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="968" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C968" s="16"/>
-      <c r="D968" s="18">
-        <v>3</v>
-      </c>
-      <c r="E968" s="16"/>
-      <c r="F968" s="16"/>
-      <c r="G968" s="17">
-        <v>2</v>
-      </c>
-      <c r="H968" s="17">
-        <v>3</v>
-      </c>
-      <c r="I968" s="16"/>
-      <c r="J968" s="16"/>
-      <c r="K968" s="16"/>
-      <c r="L968" s="16"/>
-      <c r="M968" s="16"/>
-      <c r="N968" s="16"/>
-      <c r="O968" s="16"/>
-    </row>
-    <row r="969" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C969" s="17">
-        <v>3</v>
-      </c>
-      <c r="D969" s="17">
-        <v>0</v>
-      </c>
-      <c r="E969" s="17">
-        <v>1</v>
-      </c>
-      <c r="F969" s="17">
-        <v>3</v>
-      </c>
-      <c r="G969" s="17">
-        <v>1</v>
-      </c>
-      <c r="H969" s="17">
-        <v>2</v>
-      </c>
-      <c r="I969" s="17">
-        <v>10</v>
-      </c>
-      <c r="J969" s="17">
-        <v>5</v>
-      </c>
-      <c r="K969" s="16"/>
-      <c r="L969" s="16"/>
-      <c r="M969" s="16"/>
-      <c r="N969" s="16"/>
-      <c r="O969" s="16"/>
-    </row>
-    <row r="970" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C970" s="17">
-        <v>0</v>
-      </c>
-      <c r="D970" s="17">
-        <v>3</v>
-      </c>
-      <c r="E970" s="17">
-        <v>0</v>
-      </c>
-      <c r="F970" s="17">
-        <v>0</v>
-      </c>
-      <c r="G970" s="17">
-        <v>4</v>
-      </c>
-      <c r="H970" s="17">
-        <v>2</v>
-      </c>
-      <c r="I970" s="17">
+      <c r="N972" s="17">
+        <v>1.87</v>
+      </c>
+      <c r="O972" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="973" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A973" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B973" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C973" s="17">
+        <v>1</v>
+      </c>
+      <c r="D973" s="16"/>
+      <c r="E973" s="17">
+        <v>2</v>
+      </c>
+      <c r="F973" s="17">
+        <v>3</v>
+      </c>
+      <c r="G973" s="17">
+        <v>1</v>
+      </c>
+      <c r="H973" s="17">
+        <v>2</v>
+      </c>
+      <c r="I973" s="17">
         <v>9</v>
       </c>
-      <c r="J970" s="17">
-        <v>3</v>
-      </c>
-      <c r="K970" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L970" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M970" s="17">
-        <v>20</v>
-      </c>
-      <c r="N970" s="17">
-        <v>170</v>
-      </c>
-      <c r="O970" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="971" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C971" s="17">
-        <v>2</v>
-      </c>
-      <c r="D971" s="16"/>
-      <c r="E971" s="16"/>
-      <c r="F971" s="17">
-        <v>2</v>
-      </c>
-      <c r="G971" s="16"/>
-      <c r="H971" s="17">
-        <v>2</v>
-      </c>
-      <c r="I971" s="16"/>
-      <c r="J971" s="16"/>
-      <c r="K971" s="16"/>
-      <c r="L971" s="16"/>
-      <c r="M971" s="16"/>
-      <c r="N971" s="16"/>
-      <c r="O971" s="16"/>
-    </row>
-    <row r="972" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C972" s="17">
-        <v>0</v>
-      </c>
-      <c r="D972" s="17">
-        <v>1</v>
-      </c>
-      <c r="E972" s="17">
-        <v>4</v>
-      </c>
-      <c r="F972" s="17">
-        <v>2</v>
-      </c>
-      <c r="G972" s="17">
-        <v>1</v>
-      </c>
-      <c r="H972" s="17">
-        <v>1</v>
-      </c>
-      <c r="I972" s="17">
-        <v>9</v>
-      </c>
-      <c r="J972" s="17">
-        <v>5</v>
-      </c>
-      <c r="K972" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="L972" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M972" s="17">
-        <v>21</v>
-      </c>
-      <c r="N972" s="17">
-        <v>1.67</v>
-      </c>
-      <c r="O972" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="973" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C973" s="17">
-        <v>2</v>
-      </c>
-      <c r="D973" s="17">
-        <v>3</v>
-      </c>
-      <c r="E973" s="17">
-        <v>2</v>
-      </c>
-      <c r="F973" s="17">
-        <v>3</v>
-      </c>
-      <c r="G973" s="17">
-        <v>1</v>
-      </c>
-      <c r="H973" s="17">
-        <v>2</v>
-      </c>
-      <c r="I973" s="17">
-        <v>8</v>
-      </c>
       <c r="J973" s="17">
-        <v>4</v>
-      </c>
-      <c r="K973" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="K973" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="L973" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="M973" s="16"/>
-      <c r="N973" s="16"/>
-      <c r="O973" s="16"/>
+      <c r="M973" s="17">
+        <v>22</v>
+      </c>
+      <c r="N973" s="17">
+        <v>1.83</v>
+      </c>
+      <c r="O973" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="974" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A974" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B974" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C974" s="17">
         <v>2</v>
       </c>
       <c r="D974" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E974" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F974" s="17">
-        <v>2</v>
-      </c>
-      <c r="G974" s="17">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G974" s="16"/>
       <c r="H974" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I974" s="17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J974" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K974" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L974" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M974" s="17">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N974" s="17">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="O974" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="975" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C975" s="17">
-        <v>3</v>
-      </c>
-      <c r="D975" s="16"/>
-      <c r="E975" s="17">
-        <v>3</v>
-      </c>
-      <c r="F975" s="17">
-        <v>2</v>
-      </c>
-      <c r="G975" s="16"/>
-      <c r="H975" s="16"/>
+      <c r="A975" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B975" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C975" s="16"/>
+      <c r="D975" s="17">
+        <v>4</v>
+      </c>
+      <c r="E975" s="16"/>
+      <c r="F975" s="16"/>
+      <c r="G975" s="17">
+        <v>2</v>
+      </c>
+      <c r="H975" s="17">
+        <v>5</v>
+      </c>
       <c r="I975" s="17">
-        <v>8</v>
-      </c>
-      <c r="J975" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="J975" s="17">
+        <v>3</v>
+      </c>
       <c r="K975" s="16" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="L975" s="16" t="s">
         <v>39</v>
@@ -45554,19 +45686,27 @@
         <v>22</v>
       </c>
       <c r="N975" s="17">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="O975" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A976" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B976" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C976" s="17">
         <v>1</v>
       </c>
-      <c r="D976" s="16"/>
+      <c r="D976" s="17">
+        <v>3</v>
+      </c>
       <c r="E976" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F976" s="17">
         <v>3</v>
@@ -45575,90 +45715,104 @@
         <v>1</v>
       </c>
       <c r="H976" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" s="17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J976" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K976" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L976" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M976" s="17">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N976" s="17">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="O976" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="977" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+    <row r="977" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A977" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B977" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C977" s="17">
         <v>2</v>
       </c>
       <c r="D977" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E977" s="17">
-        <v>0</v>
-      </c>
-      <c r="F977" s="17">
-        <v>1</v>
-      </c>
-      <c r="G977" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="F977" s="16"/>
+      <c r="G977" s="17">
+        <v>0</v>
+      </c>
       <c r="H977" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I977" s="17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J977" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K977" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L977" s="16" t="s">
         <v>39</v>
       </c>
       <c r="M977" s="17">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N977" s="17">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="O977" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="978" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+    <row r="978" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A978" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B978" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C978" s="16"/>
       <c r="D978" s="17">
-        <v>4</v>
-      </c>
-      <c r="E978" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="E978" s="17">
+        <v>2</v>
+      </c>
       <c r="F978" s="16"/>
       <c r="G978" s="17">
         <v>2</v>
       </c>
       <c r="H978" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I978" s="17">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J978" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K978" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L978" s="16" t="s">
         <v>39</v>
@@ -45667,324 +45821,404 @@
         <v>22</v>
       </c>
       <c r="N978" s="17">
-        <v>1.83</v>
+        <v>177</v>
       </c>
       <c r="O978" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="979" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C979" s="17">
-        <v>1</v>
-      </c>
-      <c r="D979" s="17">
-        <v>3</v>
-      </c>
-      <c r="E979" s="17">
-        <v>0</v>
-      </c>
-      <c r="F979" s="17">
-        <v>3</v>
-      </c>
-      <c r="G979" s="17">
-        <v>1</v>
-      </c>
-      <c r="H979" s="17">
-        <v>0</v>
-      </c>
-      <c r="I979" s="17">
+    <row r="979" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A979" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B979" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C979" s="18">
+        <v>1</v>
+      </c>
+      <c r="D979" s="18">
+        <v>1</v>
+      </c>
+      <c r="E979" s="18">
+        <v>2</v>
+      </c>
+      <c r="F979" s="18">
+        <v>2</v>
+      </c>
+      <c r="G979" s="18">
+        <v>2</v>
+      </c>
+      <c r="H979" s="18">
+        <v>0</v>
+      </c>
+      <c r="I979" s="18">
         <v>8</v>
       </c>
-      <c r="J979" s="17">
-        <v>4</v>
-      </c>
-      <c r="K979" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="L979" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M979" s="17">
-        <v>20</v>
-      </c>
-      <c r="N979" s="17">
-        <v>1.64</v>
-      </c>
-      <c r="O979" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="980" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="J979" s="18">
+        <v>5</v>
+      </c>
+      <c r="K979" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L979" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M979" s="18">
+        <v>19</v>
+      </c>
+      <c r="N979" s="18">
+        <v>1.63</v>
+      </c>
+      <c r="O979" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A980" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B980" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C980" s="17">
         <v>2</v>
       </c>
       <c r="D980" s="17">
-        <v>2</v>
-      </c>
-      <c r="E980" s="17">
-        <v>2</v>
-      </c>
-      <c r="F980" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="E980" s="16"/>
+      <c r="F980" s="17">
+        <v>2</v>
+      </c>
       <c r="G980" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H980" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I980" s="17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J980" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K980" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L980" s="16" t="s">
         <v>39</v>
       </c>
       <c r="M980" s="17">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N980" s="17">
-        <v>1.75</v>
-      </c>
-      <c r="O980" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="981" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+        <v>1.82</v>
+      </c>
+      <c r="O980" s="16"/>
+    </row>
+    <row r="981" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A981" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B981" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C981" s="16"/>
       <c r="D981" s="17">
         <v>1</v>
       </c>
       <c r="E981" s="17">
-        <v>2</v>
-      </c>
-      <c r="F981" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="F981" s="17">
+        <v>3</v>
+      </c>
       <c r="G981" s="17">
         <v>2</v>
       </c>
-      <c r="H981" s="17">
-        <v>3</v>
-      </c>
+      <c r="H981" s="16"/>
       <c r="I981" s="17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J981" s="17">
         <v>4</v>
       </c>
       <c r="K981" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L981" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M981" s="17">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N981" s="17">
-        <v>177</v>
+        <v>1.72</v>
       </c>
       <c r="O981" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="982" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C982" s="19">
-        <v>1</v>
-      </c>
-      <c r="D982" s="19">
-        <v>1</v>
-      </c>
-      <c r="E982" s="19">
-        <v>2</v>
-      </c>
-      <c r="F982" s="19">
-        <v>2</v>
-      </c>
-      <c r="G982" s="19">
-        <v>2</v>
-      </c>
-      <c r="H982" s="19">
-        <v>0</v>
-      </c>
-      <c r="I982" s="19">
-        <v>8</v>
-      </c>
-      <c r="J982" s="19">
-        <v>5</v>
-      </c>
-      <c r="K982" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="L982" s="20" t="s">
+    <row r="982" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A982" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B982" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C982" s="17">
+        <v>1</v>
+      </c>
+      <c r="D982" s="17">
+        <v>3</v>
+      </c>
+      <c r="E982" s="17">
+        <v>2</v>
+      </c>
+      <c r="F982" s="17">
+        <v>0</v>
+      </c>
+      <c r="G982" s="17">
+        <v>0</v>
+      </c>
+      <c r="H982" s="17">
+        <v>4</v>
+      </c>
+      <c r="I982" s="17">
+        <v>10</v>
+      </c>
+      <c r="J982" s="17">
+        <v>4</v>
+      </c>
+      <c r="K982" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L982" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="M982" s="19">
+      <c r="M982" s="17">
         <v>19</v>
       </c>
-      <c r="N982" s="19">
-        <v>1.63</v>
-      </c>
-      <c r="O982" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="983" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N982" s="17">
+        <v>170</v>
+      </c>
+      <c r="O982" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="983" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A983" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B983" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C983" s="17">
         <v>2</v>
       </c>
       <c r="D983" s="17">
-        <v>3</v>
-      </c>
-      <c r="E983" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="E983" s="17">
+        <v>4</v>
+      </c>
       <c r="F983" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G983" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H983" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I983" s="17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J983" s="17">
         <v>5</v>
       </c>
       <c r="K983" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L983" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M983" s="17">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N983" s="17">
-        <v>1.82</v>
-      </c>
-      <c r="O983" s="16"/>
-    </row>
-    <row r="984" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C984" s="16"/>
+        <v>1.68</v>
+      </c>
+      <c r="O983" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="984" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A984" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B984" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C984" s="17">
+        <v>2</v>
+      </c>
       <c r="D984" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E984" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F984" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G984" s="17">
         <v>2</v>
       </c>
-      <c r="H984" s="16"/>
+      <c r="H984" s="17">
+        <v>2</v>
+      </c>
       <c r="I984" s="17">
         <v>10</v>
       </c>
       <c r="J984" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K984" s="16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="L984" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M984" s="17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N984" s="17">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="O984" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="985" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+    <row r="985" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A985" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B985" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C985" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D985" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E985" s="17">
         <v>2</v>
       </c>
       <c r="F985" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G985" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H985" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I985" s="17">
         <v>10</v>
       </c>
       <c r="J985" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K985" s="16" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="L985" s="16" t="s">
         <v>33</v>
       </c>
       <c r="M985" s="17">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N985" s="17">
-        <v>170</v>
+        <v>1.72</v>
       </c>
       <c r="O985" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="986" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C986" s="16"/>
-      <c r="D986" s="16"/>
+    <row r="986" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A986" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B986" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C986" s="17">
+        <v>2</v>
+      </c>
+      <c r="D986" s="17">
+        <v>2</v>
+      </c>
       <c r="E986" s="17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F986" s="17">
-        <v>4</v>
-      </c>
-      <c r="G986" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="G986" s="17">
+        <v>4</v>
+      </c>
       <c r="H986" s="17">
-        <v>3</v>
-      </c>
-      <c r="I986" s="16"/>
-      <c r="J986" s="16"/>
-      <c r="K986" s="16"/>
-      <c r="L986" s="16"/>
-      <c r="M986" s="16"/>
-      <c r="N986" s="16"/>
-      <c r="O986" s="16"/>
-    </row>
-    <row r="987" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+        <v>1</v>
+      </c>
+      <c r="I986" s="17">
+        <v>9</v>
+      </c>
+      <c r="J986" s="17">
+        <v>4</v>
+      </c>
+      <c r="K986" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L986" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M986" s="17">
+        <v>20</v>
+      </c>
+      <c r="N986" s="17">
+        <v>1.75</v>
+      </c>
+      <c r="O986" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="987" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A987" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B987" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C987" s="17">
-        <v>2</v>
-      </c>
-      <c r="D987" s="17">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="D987" s="16">
+        <v>0</v>
       </c>
       <c r="E987" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F987" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G987" s="17">
         <v>2</v>
       </c>
       <c r="H987" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I987" s="17">
         <v>10</v>
@@ -45993,80 +46227,90 @@
         <v>5</v>
       </c>
       <c r="K987" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L987" s="16" t="s">
         <v>33</v>
       </c>
       <c r="M987" s="17">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N987" s="17">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="O987" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="988" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+    <row r="988" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A988" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B988" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C988" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D988" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E988" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F988" s="17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G988" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H988" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I988" s="17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J988" s="17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K988" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L988" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M988" s="17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N988" s="17">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="O988" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="989" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+    <row r="989" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A989" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B989" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C989" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D989" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E989" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F989" s="17">
-        <v>2</v>
-      </c>
-      <c r="G989" s="17">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G989" s="16"/>
       <c r="H989" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I989" s="17">
         <v>10</v>
@@ -46075,124 +46319,168 @@
         <v>5</v>
       </c>
       <c r="K989" s="16" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L989" s="16" t="s">
         <v>33</v>
       </c>
       <c r="M989" s="17">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N989" s="17">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="O989" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="990" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C990" s="17">
-        <v>2</v>
-      </c>
+    <row r="990" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A990" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B990" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C990" s="16"/>
       <c r="D990" s="17">
         <v>2</v>
       </c>
       <c r="E990" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F990" s="17">
-        <v>0</v>
-      </c>
-      <c r="G990" s="17">
-        <v>4</v>
-      </c>
-      <c r="H990" s="17">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G990" s="16"/>
+      <c r="H990" s="16"/>
       <c r="I990" s="17">
         <v>9</v>
       </c>
       <c r="J990" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K990" s="16" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L990" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M990" s="17">
+        <v>24</v>
+      </c>
+      <c r="N990" s="17">
+        <v>173</v>
+      </c>
+      <c r="O990" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="991" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A991" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B991" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C991" s="17">
+        <v>0</v>
+      </c>
+      <c r="D991" s="17">
+        <v>1</v>
+      </c>
+      <c r="E991" s="17">
+        <v>1</v>
+      </c>
+      <c r="F991" s="17">
+        <v>3</v>
+      </c>
+      <c r="G991" s="17">
+        <v>2</v>
+      </c>
+      <c r="H991" s="17">
+        <v>2</v>
+      </c>
+      <c r="I991" s="17">
+        <v>9</v>
+      </c>
+      <c r="J991" s="17">
+        <v>5</v>
+      </c>
+      <c r="K991" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L991" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M991" s="17">
+        <v>21</v>
+      </c>
+      <c r="N991" s="17">
+        <v>1.74</v>
+      </c>
+      <c r="O991" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="992" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A992" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B992" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C992" s="17">
+        <v>3</v>
+      </c>
+      <c r="D992" s="17">
+        <v>0</v>
+      </c>
+      <c r="E992" s="17">
+        <v>4</v>
+      </c>
+      <c r="F992" s="17">
+        <v>0</v>
+      </c>
+      <c r="G992" s="17">
+        <v>1</v>
+      </c>
+      <c r="H992" s="17">
+        <v>4</v>
+      </c>
+      <c r="I992" s="17">
+        <v>12</v>
+      </c>
+      <c r="J992" s="17">
+        <v>4</v>
+      </c>
+      <c r="K992" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L992" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="M990" s="17">
+      <c r="M992" s="17">
         <v>20</v>
       </c>
-      <c r="N990" s="17">
-        <v>1.75</v>
-      </c>
-      <c r="O990" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="991" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C991" s="17">
-        <v>1</v>
-      </c>
-      <c r="D991" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E991" s="17">
-        <v>1</v>
-      </c>
-      <c r="F991" s="17">
-        <v>3</v>
-      </c>
-      <c r="G991" s="17">
-        <v>2</v>
-      </c>
-      <c r="H991" s="17">
-        <v>3</v>
-      </c>
-      <c r="I991" s="17">
-        <v>10</v>
-      </c>
-      <c r="J991" s="17">
-        <v>5</v>
-      </c>
-      <c r="K991" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L991" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M991" s="17">
-        <v>19</v>
-      </c>
-      <c r="N991" s="17">
-        <v>1.75</v>
-      </c>
-      <c r="O991" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="992" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C992" s="16"/>
-      <c r="D992" s="16"/>
-      <c r="E992" s="16"/>
-      <c r="F992" s="16"/>
-      <c r="G992" s="16"/>
-      <c r="H992" s="16"/>
-      <c r="I992" s="16"/>
-      <c r="J992" s="16"/>
-      <c r="K992" s="16"/>
-      <c r="L992" s="16"/>
-      <c r="M992" s="16"/>
-      <c r="N992" s="16"/>
-      <c r="O992" s="16"/>
-    </row>
-    <row r="993" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N992" s="17">
+        <v>1.68</v>
+      </c>
+      <c r="O992" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="993" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A993" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B993" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C993" s="17">
         <v>0</v>
       </c>
       <c r="D993" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E993" s="17">
         <v>0</v>
@@ -46204,68 +46492,130 @@
         <v>1</v>
       </c>
       <c r="H993" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I993" s="17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J993" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K993" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L993" s="16" t="s">
         <v>37</v>
       </c>
       <c r="M993" s="17">
+        <v>19</v>
+      </c>
+      <c r="N993" s="17">
+        <v>1.7</v>
+      </c>
+      <c r="O993" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="994" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A994" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B994" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C994" s="17">
+        <v>1</v>
+      </c>
+      <c r="D994" s="16"/>
+      <c r="E994" s="17">
+        <v>3</v>
+      </c>
+      <c r="F994" s="17">
+        <v>3</v>
+      </c>
+      <c r="G994" s="17">
+        <v>2</v>
+      </c>
+      <c r="H994" s="16"/>
+      <c r="I994" s="17">
+        <v>9</v>
+      </c>
+      <c r="J994" s="17">
+        <v>4</v>
+      </c>
+      <c r="K994" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L994" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M994" s="17">
         <v>21</v>
       </c>
-      <c r="N993" s="17">
-        <v>1.78</v>
-      </c>
-      <c r="O993" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="994" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C994" s="16"/>
-      <c r="D994" s="16"/>
-      <c r="E994" s="16"/>
-      <c r="F994" s="16"/>
-      <c r="G994" s="16"/>
-      <c r="H994" s="16"/>
-      <c r="I994" s="16"/>
-      <c r="J994" s="16"/>
-      <c r="K994" s="16"/>
-      <c r="L994" s="16"/>
-      <c r="M994" s="16"/>
-      <c r="N994" s="16"/>
-      <c r="O994" s="16"/>
-    </row>
-    <row r="995" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N994" s="17">
+        <v>1.67</v>
+      </c>
+      <c r="O994" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="995" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A995" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B995" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C995" s="17">
-        <v>2</v>
-      </c>
-      <c r="D995" s="16"/>
-      <c r="E995" s="16"/>
-      <c r="F995" s="16"/>
-      <c r="G995" s="16"/>
-      <c r="H995" s="16"/>
-      <c r="I995" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="D995" s="17">
+        <v>2</v>
+      </c>
+      <c r="E995" s="17">
+        <v>0</v>
+      </c>
+      <c r="F995" s="17">
+        <v>1</v>
+      </c>
+      <c r="G995" s="17">
+        <v>3</v>
+      </c>
+      <c r="H995" s="17">
+        <v>1</v>
+      </c>
+      <c r="I995" s="17">
+        <v>10</v>
+      </c>
       <c r="J995" s="16"/>
-      <c r="K995" s="16"/>
-      <c r="L995" s="16"/>
-      <c r="M995" s="16"/>
-      <c r="N995" s="16"/>
-      <c r="O995" s="16"/>
-    </row>
-    <row r="996" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="K995" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L995" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M995" s="17">
+        <v>24</v>
+      </c>
+      <c r="N995" s="17">
+        <v>1.7</v>
+      </c>
+      <c r="O995" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="996" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A996" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B996" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C996" s="17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D996" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E996" s="17">
         <v>3</v>
@@ -46273,120 +46623,144 @@
       <c r="F996" s="17">
         <v>1</v>
       </c>
-      <c r="G996" s="16"/>
+      <c r="G996" s="17">
+        <v>3</v>
+      </c>
       <c r="H996" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I996" s="17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J996" s="17">
         <v>5</v>
       </c>
       <c r="K996" s="16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L996" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M996" s="17">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N996" s="17">
-        <v>1.6</v>
+        <v>178</v>
       </c>
       <c r="O996" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="997" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C997" s="16"/>
+    <row r="997" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A997" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B997" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C997" s="17">
+        <v>3</v>
+      </c>
       <c r="D997" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E997" s="17">
         <v>1</v>
       </c>
       <c r="F997" s="17">
-        <v>6</v>
-      </c>
-      <c r="G997" s="16"/>
-      <c r="H997" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="G997" s="17">
+        <v>3</v>
+      </c>
+      <c r="H997" s="17">
+        <v>1</v>
+      </c>
       <c r="I997" s="17">
         <v>9</v>
       </c>
       <c r="J997" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K997" s="16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L997" s="16" t="s">
         <v>37</v>
       </c>
       <c r="M997" s="17">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N997" s="17">
-        <v>173</v>
+        <v>1.8</v>
       </c>
       <c r="O997" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+    <row r="998" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A998" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B998" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C998" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D998" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E998" s="17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F998" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G998" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H998" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I998" s="17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J998" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K998" s="16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L998" s="16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M998" s="17">
         <v>21</v>
       </c>
       <c r="N998" s="17">
-        <v>1.74</v>
+        <v>1.93</v>
       </c>
       <c r="O998" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="999" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+    <row r="999" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A999" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B999" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C999" s="17">
-        <v>3</v>
-      </c>
-      <c r="D999" s="17">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D999" s="16"/>
       <c r="E999" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F999" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G999" s="17">
         <v>1</v>
@@ -46395,203 +46769,261 @@
         <v>4</v>
       </c>
       <c r="I999" s="17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J999" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K999" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L999" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M999" s="17">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N999" s="17">
-        <v>1.68</v>
+        <v>169</v>
       </c>
       <c r="O999" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="1000" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1000" s="16"/>
+    <row r="1000" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1000" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1000" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1000" s="17">
+        <v>1</v>
+      </c>
       <c r="D1000" s="16"/>
-      <c r="E1000" s="16"/>
-      <c r="F1000" s="16"/>
-      <c r="G1000" s="16"/>
+      <c r="E1000" s="17">
+        <v>3</v>
+      </c>
+      <c r="F1000" s="17">
+        <v>2</v>
+      </c>
+      <c r="G1000" s="17">
+        <v>2</v>
+      </c>
       <c r="H1000" s="16"/>
-      <c r="I1000" s="16"/>
-      <c r="J1000" s="16"/>
-      <c r="K1000" s="16"/>
-      <c r="L1000" s="16"/>
-      <c r="M1000" s="16"/>
-      <c r="N1000" s="16"/>
-      <c r="O1000" s="16"/>
-    </row>
-    <row r="1001" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="I1000" s="17">
+        <v>8</v>
+      </c>
+      <c r="J1000" s="17">
+        <v>4</v>
+      </c>
+      <c r="K1000" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1000" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1000" s="17">
+        <v>19</v>
+      </c>
+      <c r="N1000" s="17">
+        <v>1.8</v>
+      </c>
+      <c r="O1000" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1001" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1001" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C1001" s="17">
-        <v>0</v>
-      </c>
-      <c r="D1001" s="17">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D1001" s="16"/>
       <c r="E1001" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F1001" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1001" s="17">
         <v>1</v>
       </c>
       <c r="H1001" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1001" s="17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J1001" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K1001" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="L1001" s="16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M1001" s="17">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N1001" s="17">
-        <v>1.7</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="O1001" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="1002" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1002" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1002" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1002" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C1002" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1002" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="D1002" s="17">
+        <v>1</v>
+      </c>
       <c r="E1002" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1002" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1002" s="17">
         <v>2</v>
       </c>
-      <c r="H1002" s="16"/>
+      <c r="H1002" s="17">
+        <v>1</v>
+      </c>
       <c r="I1002" s="17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1002" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K1002" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1002" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="M1002" s="17">
         <v>21</v>
       </c>
       <c r="N1002" s="17">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O1002" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="1003" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1003" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1003" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1003" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C1003" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1003" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1003" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F1003" s="17">
         <v>1</v>
       </c>
       <c r="G1003" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1003" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1003" s="17">
-        <v>10</v>
-      </c>
-      <c r="J1003" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="J1003" s="17">
+        <v>6</v>
+      </c>
       <c r="K1003" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L1003" s="16" t="s">
         <v>37</v>
       </c>
       <c r="M1003" s="17">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N1003" s="17">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O1003" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="1004" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1004" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1004" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1004" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C1004" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D1004" s="17">
         <v>2</v>
       </c>
-      <c r="E1004" s="17">
-        <v>3</v>
-      </c>
-      <c r="F1004" s="17">
-        <v>1</v>
-      </c>
+      <c r="E1004" s="16"/>
+      <c r="F1004" s="16"/>
       <c r="G1004" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1004" s="17">
         <v>2</v>
       </c>
       <c r="I1004" s="17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J1004" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1004" s="16" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="L1004" s="16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M1004" s="17">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N1004" s="17">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="O1004" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="1005" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1005" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1005" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1005" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C1005" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1005" s="17">
         <v>0</v>
@@ -46600,387 +47032,571 @@
         <v>1</v>
       </c>
       <c r="F1005" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G1005" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1005" s="17">
         <v>1</v>
       </c>
       <c r="I1005" s="17">
+        <v>7</v>
+      </c>
+      <c r="J1005" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1005" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1005" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1005" s="17">
+        <v>23</v>
+      </c>
+      <c r="N1005" s="17">
+        <v>1.93</v>
+      </c>
+      <c r="O1005" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1006" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1006" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1006" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1006" s="16"/>
+      <c r="E1006" s="17">
+        <v>1</v>
+      </c>
+      <c r="F1006" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1006" s="17">
+        <v>1</v>
+      </c>
+      <c r="H1006" s="17">
+        <v>2</v>
+      </c>
+      <c r="I1006" s="17">
         <v>9</v>
       </c>
-      <c r="J1005" s="17">
-        <v>4</v>
-      </c>
-      <c r="K1005" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1005" s="16" t="s">
+      <c r="J1006" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1006" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1006" s="16"/>
+      <c r="M1006" s="16"/>
+      <c r="N1006" s="16"/>
+      <c r="O1006" s="16"/>
+    </row>
+    <row r="1007" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1007" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1007" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1007" s="20">
+        <v>2</v>
+      </c>
+      <c r="D1007" s="20">
+        <v>0</v>
+      </c>
+      <c r="E1007" s="20">
+        <v>1</v>
+      </c>
+      <c r="F1007" s="20">
+        <v>2</v>
+      </c>
+      <c r="G1007" s="20">
+        <v>3</v>
+      </c>
+      <c r="H1007" s="20">
+        <v>1</v>
+      </c>
+      <c r="I1007" s="20">
+        <v>9</v>
+      </c>
+      <c r="J1007" s="20">
+        <v>5</v>
+      </c>
+      <c r="K1007" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1007" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="M1005" s="17">
+      <c r="M1007" s="20">
         <v>20</v>
       </c>
-      <c r="N1005" s="17">
-        <v>1.8</v>
-      </c>
-      <c r="O1005" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1006" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1006" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1006" s="17">
-        <v>0</v>
-      </c>
-      <c r="E1006" s="17">
-        <v>5</v>
-      </c>
-      <c r="F1006" s="17">
-        <v>1</v>
-      </c>
-      <c r="G1006" s="17">
-        <v>0</v>
-      </c>
-      <c r="H1006" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1006" s="17">
+      <c r="N1007" s="20">
+        <v>1.67</v>
+      </c>
+      <c r="O1007" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1008" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1008" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1008" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1008" s="17">
+        <v>1</v>
+      </c>
+      <c r="E1008" s="17">
+        <v>3</v>
+      </c>
+      <c r="F1008" s="17">
+        <v>1</v>
+      </c>
+      <c r="G1008" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1008" s="17">
+        <v>0</v>
+      </c>
+      <c r="I1008" s="17">
         <v>8</v>
       </c>
-      <c r="J1006" s="17">
-        <v>4</v>
-      </c>
-      <c r="K1006" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1006" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1006" s="17">
-        <v>21</v>
-      </c>
-      <c r="N1006" s="17">
-        <v>1.93</v>
-      </c>
-      <c r="O1006" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1007" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1007" s="16"/>
-      <c r="D1007" s="16"/>
-      <c r="E1007" s="16"/>
-      <c r="F1007" s="16"/>
-      <c r="G1007" s="16"/>
-      <c r="H1007" s="16"/>
-      <c r="I1007" s="16"/>
-      <c r="J1007" s="16"/>
-      <c r="K1007" s="16"/>
-      <c r="L1007" s="16"/>
-      <c r="M1007" s="16"/>
-      <c r="N1007" s="16"/>
-      <c r="O1007" s="16"/>
-    </row>
-    <row r="1008" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1008" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1008" s="16"/>
-      <c r="E1008" s="17">
-        <v>1</v>
-      </c>
-      <c r="F1008" s="17">
-        <v>2</v>
-      </c>
-      <c r="G1008" s="17">
-        <v>1</v>
-      </c>
-      <c r="H1008" s="17">
-        <v>4</v>
-      </c>
-      <c r="I1008" s="17">
-        <v>9</v>
-      </c>
       <c r="J1008" s="17">
         <v>5</v>
       </c>
       <c r="K1008" s="16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L1008" s="16" t="s">
         <v>37</v>
       </c>
       <c r="M1008" s="17">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N1008" s="17">
-        <v>169</v>
-      </c>
-      <c r="O1008" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1009" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1009" s="16"/>
-      <c r="D1009" s="16"/>
+        <v>174</v>
+      </c>
+      <c r="O1008" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1009" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1009" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1009" s="17">
+        <v>2</v>
+      </c>
+      <c r="D1009" s="17">
+        <v>2</v>
+      </c>
       <c r="E1009" s="16"/>
-      <c r="F1009" s="16"/>
-      <c r="G1009" s="16"/>
+      <c r="F1009" s="17">
+        <v>2</v>
+      </c>
+      <c r="G1009" s="17">
+        <v>1</v>
+      </c>
       <c r="H1009" s="16"/>
-      <c r="I1009" s="16"/>
-      <c r="J1009" s="16"/>
-      <c r="K1009" s="16"/>
-      <c r="L1009" s="16"/>
-      <c r="M1009" s="16"/>
-      <c r="N1009" s="16"/>
-      <c r="O1009" s="16"/>
-    </row>
-    <row r="1010" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1010" s="16"/>
-      <c r="D1010" s="16"/>
-      <c r="E1010" s="16"/>
-      <c r="F1010" s="16"/>
-      <c r="G1010" s="16"/>
-      <c r="H1010" s="16"/>
-      <c r="I1010" s="16"/>
-      <c r="J1010" s="16"/>
-      <c r="K1010" s="16"/>
-      <c r="L1010" s="16"/>
-      <c r="M1010" s="16"/>
-      <c r="N1010" s="16"/>
-      <c r="O1010" s="16"/>
-    </row>
-    <row r="1011" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1011" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1011" s="16"/>
-      <c r="E1011" s="17">
-        <v>3</v>
-      </c>
-      <c r="F1011" s="17">
-        <v>2</v>
-      </c>
-      <c r="G1011" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1011" s="16"/>
-      <c r="I1011" s="17">
+      <c r="I1009" s="17">
         <v>8</v>
       </c>
-      <c r="J1011" s="17">
-        <v>4</v>
-      </c>
-      <c r="K1011" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1011" s="16" t="s">
+      <c r="J1009" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1009" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1009" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1009" s="17">
+        <v>23</v>
+      </c>
+      <c r="N1009" s="17">
+        <v>1.78</v>
+      </c>
+      <c r="O1009" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1010" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1010" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1010" s="22">
+        <v>1</v>
+      </c>
+      <c r="D1010" s="22">
+        <v>0</v>
+      </c>
+      <c r="E1010" s="22">
+        <v>2</v>
+      </c>
+      <c r="F1010" s="22">
+        <v>0</v>
+      </c>
+      <c r="G1010" s="22">
+        <v>1</v>
+      </c>
+      <c r="H1010" s="22">
+        <v>4</v>
+      </c>
+      <c r="I1010" s="22">
+        <v>8</v>
+      </c>
+      <c r="J1010" s="22">
+        <v>4</v>
+      </c>
+      <c r="K1010" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1010" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1010" s="22">
+        <v>21</v>
+      </c>
+      <c r="N1010" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1010" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1011" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1011" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1011" s="24">
+        <v>2</v>
+      </c>
+      <c r="D1011" s="24">
+        <v>3</v>
+      </c>
+      <c r="E1011" s="24">
+        <v>1</v>
+      </c>
+      <c r="F1011" s="24">
+        <v>0</v>
+      </c>
+      <c r="G1011" s="24">
+        <v>0</v>
+      </c>
+      <c r="H1011" s="24">
+        <v>2</v>
+      </c>
+      <c r="I1011" s="24">
+        <v>8</v>
+      </c>
+      <c r="J1011" s="24">
+        <v>4</v>
+      </c>
+      <c r="K1011" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1011" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1011" s="24">
+        <v>19</v>
+      </c>
+      <c r="N1011" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1011" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1012" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1012" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1012" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1012" s="17">
+        <v>2</v>
+      </c>
+      <c r="E1012" s="17">
+        <v>1</v>
+      </c>
+      <c r="F1012" s="17">
+        <v>1</v>
+      </c>
+      <c r="G1012" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1012" s="17">
+        <v>1</v>
+      </c>
+      <c r="I1012" s="17">
+        <v>8</v>
+      </c>
+      <c r="J1012" s="17">
+        <v>6</v>
+      </c>
+      <c r="K1012" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1012" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="M1011" s="17">
-        <v>19</v>
-      </c>
-      <c r="N1011" s="17">
-        <v>1.8</v>
-      </c>
-      <c r="O1011" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1012" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1012" s="17">
-        <v>3</v>
-      </c>
-      <c r="D1012" s="16"/>
-      <c r="E1012" s="17">
-        <v>3</v>
-      </c>
-      <c r="F1012" s="17">
-        <v>3</v>
-      </c>
-      <c r="G1012" s="17">
-        <v>1</v>
-      </c>
-      <c r="H1012" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1012" s="17">
-        <v>11</v>
-      </c>
-      <c r="J1012" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1012" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1012" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="M1012" s="17">
-        <v>21</v>
-      </c>
-      <c r="N1012" s="17">
-        <v>2.0699999999999998</v>
+        <v>20</v>
+      </c>
+      <c r="N1012" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="O1012" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="1013" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1013" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1013" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1013" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C1013" s="17">
-        <v>3</v>
-      </c>
-      <c r="D1013" s="17">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D1013" s="16"/>
       <c r="E1013" s="17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F1013" s="17">
-        <v>2</v>
-      </c>
-      <c r="G1013" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1013" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1013" s="17">
-        <v>10</v>
-      </c>
-      <c r="J1013" s="17">
-        <v>6</v>
-      </c>
-      <c r="K1013" s="16" t="s">
-        <v>40</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G1013" s="16"/>
+      <c r="H1013" s="16"/>
+      <c r="I1013" s="16"/>
+      <c r="J1013" s="16"/>
+      <c r="K1013" s="16"/>
       <c r="L1013" s="16" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M1013" s="17">
         <v>21</v>
       </c>
       <c r="N1013" s="17">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="O1013" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="1014" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1014" s="16"/>
+    <row r="1014" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1014" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1014" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1014" s="17">
+        <v>3</v>
+      </c>
       <c r="D1014" s="16"/>
-      <c r="E1014" s="16"/>
+      <c r="E1014" s="17">
+        <v>2</v>
+      </c>
       <c r="F1014" s="16"/>
-      <c r="G1014" s="16"/>
+      <c r="G1014" s="17">
+        <v>1</v>
+      </c>
       <c r="H1014" s="16"/>
       <c r="I1014" s="16"/>
       <c r="J1014" s="16"/>
-      <c r="K1014" s="16"/>
-      <c r="L1014" s="16"/>
-      <c r="M1014" s="16"/>
-      <c r="N1014" s="16"/>
-      <c r="O1014" s="16"/>
-    </row>
-    <row r="1015" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="K1014" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1014" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1014" s="17">
+        <v>20</v>
+      </c>
+      <c r="N1014" s="17">
+        <v>1.75</v>
+      </c>
+      <c r="O1014" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1015" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1015" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C1015" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1015" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1015" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1015" s="17">
         <v>1</v>
       </c>
       <c r="G1015" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1015" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1015" s="17">
         <v>9</v>
       </c>
       <c r="J1015" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K1015" s="16" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="L1015" s="16" t="s">
         <v>37</v>
       </c>
       <c r="M1015" s="17">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N1015" s="17">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="O1015" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="1016" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1016" s="16"/>
-      <c r="D1016" s="16"/>
-      <c r="E1016" s="16"/>
-      <c r="F1016" s="16"/>
-      <c r="G1016" s="16"/>
-      <c r="H1016" s="16"/>
-      <c r="I1016" s="16"/>
-      <c r="J1016" s="16"/>
-      <c r="K1016" s="16"/>
-      <c r="L1016" s="16"/>
-      <c r="M1016" s="16"/>
-      <c r="N1016" s="16"/>
-      <c r="O1016" s="16"/>
-    </row>
-    <row r="1017" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1016" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1016" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1016" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1016" s="17">
+        <v>0</v>
+      </c>
+      <c r="D1016" s="17">
+        <v>2</v>
+      </c>
+      <c r="E1016" s="17">
+        <v>2</v>
+      </c>
+      <c r="F1016" s="17">
+        <v>1</v>
+      </c>
+      <c r="G1016" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1016" s="17">
+        <v>1</v>
+      </c>
+      <c r="I1016" s="17">
+        <v>8</v>
+      </c>
+      <c r="J1016" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1016" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1016" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1016" s="17">
+        <v>28</v>
+      </c>
+      <c r="N1016" s="17">
+        <v>1.58</v>
+      </c>
+      <c r="O1016" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1017" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1017" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C1017" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1017" s="17">
-        <v>2</v>
-      </c>
-      <c r="E1017" s="16"/>
-      <c r="F1017" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="E1017" s="17">
+        <v>4</v>
+      </c>
+      <c r="F1017" s="17">
+        <v>2</v>
+      </c>
       <c r="G1017" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1017" s="17">
         <v>2</v>
       </c>
       <c r="I1017" s="17">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J1017" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K1017" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L1017" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M1017" s="17">
-        <v>21</v>
-      </c>
-      <c r="N1017" s="17">
-        <v>188</v>
-      </c>
-      <c r="O1017" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1018" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+        <v>24</v>
+      </c>
+      <c r="N1017" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1017" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1018" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1018" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C1018" s="16"/>
       <c r="D1018" s="16"/>
       <c r="E1018" s="16"/>
@@ -46995,520 +47611,854 @@
       <c r="N1018" s="16"/>
       <c r="O1018" s="16"/>
     </row>
-    <row r="1019" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1019" s="16"/>
-      <c r="D1019" s="16"/>
-      <c r="E1019" s="16"/>
-      <c r="F1019" s="16"/>
-      <c r="G1019" s="16"/>
-      <c r="H1019" s="16"/>
-      <c r="I1019" s="16"/>
-      <c r="J1019" s="16"/>
-      <c r="K1019" s="16"/>
-      <c r="L1019" s="16"/>
-      <c r="M1019" s="16"/>
-      <c r="N1019" s="16"/>
-      <c r="O1019" s="16"/>
-    </row>
-    <row r="1020" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1019" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1019" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1019" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1019" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1019" s="17">
+        <v>2</v>
+      </c>
+      <c r="E1019" s="17">
+        <v>1</v>
+      </c>
+      <c r="F1019" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1019" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1019" s="17">
+        <v>1</v>
+      </c>
+      <c r="I1019" s="17">
+        <v>10</v>
+      </c>
+      <c r="J1019" s="17">
+        <v>6</v>
+      </c>
+      <c r="K1019" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1019" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1019" s="17">
+        <v>19</v>
+      </c>
+      <c r="N1019" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1019" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1020" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1020" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C1020" s="16"/>
-      <c r="D1020" s="16"/>
-      <c r="E1020" s="16"/>
-      <c r="F1020" s="16"/>
-      <c r="G1020" s="16"/>
-      <c r="H1020" s="16"/>
-      <c r="I1020" s="16"/>
-      <c r="J1020" s="16"/>
-      <c r="K1020" s="16"/>
-      <c r="L1020" s="16"/>
-      <c r="M1020" s="16"/>
-      <c r="N1020" s="16"/>
-      <c r="O1020" s="16"/>
-    </row>
-    <row r="1021" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D1020" s="17">
+        <v>1</v>
+      </c>
+      <c r="E1020" s="17">
+        <v>2</v>
+      </c>
+      <c r="F1020" s="17">
+        <v>1</v>
+      </c>
+      <c r="G1020" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1020" s="17">
+        <v>2</v>
+      </c>
+      <c r="I1020" s="17">
+        <v>8</v>
+      </c>
+      <c r="J1020" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1020" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1020" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1020" s="17">
+        <v>20</v>
+      </c>
+      <c r="N1020" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1020" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1021" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1021" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C1021" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1021" s="17">
-        <v>0</v>
-      </c>
-      <c r="E1021" s="17">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E1021" s="16"/>
       <c r="F1021" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1021" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1021" s="17">
         <v>1</v>
       </c>
       <c r="I1021" s="17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J1021" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1021" s="16" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="L1021" s="16" t="s">
         <v>39</v>
       </c>
       <c r="M1021" s="17">
-        <v>23</v>
-      </c>
-      <c r="N1021" s="17">
-        <v>1.93</v>
-      </c>
-      <c r="O1021" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1022" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1022" s="16"/>
-      <c r="D1022" s="16"/>
-      <c r="E1022" s="16"/>
-      <c r="F1022" s="16"/>
-      <c r="G1022" s="16"/>
-      <c r="H1022" s="16"/>
-      <c r="I1022" s="16"/>
-      <c r="J1022" s="16"/>
-      <c r="K1022" s="16"/>
-      <c r="L1022" s="16"/>
-      <c r="M1022" s="16"/>
-      <c r="N1022" s="16"/>
-      <c r="O1022" s="16"/>
-    </row>
-    <row r="1023" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1023" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1023" s="16"/>
-      <c r="E1023" s="17">
-        <v>1</v>
-      </c>
-      <c r="F1023" s="17">
-        <v>3</v>
-      </c>
-      <c r="G1023" s="17">
-        <v>1</v>
-      </c>
-      <c r="H1023" s="17">
-        <v>2</v>
-      </c>
-      <c r="I1023" s="17">
+        <v>22</v>
+      </c>
+      <c r="N1021" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1021" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1022" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1022" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1022" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1022" s="17">
+        <v>1</v>
+      </c>
+      <c r="E1022" s="17">
+        <v>1</v>
+      </c>
+      <c r="F1022" s="17">
+        <v>1</v>
+      </c>
+      <c r="G1022" s="17">
+        <v>1</v>
+      </c>
+      <c r="H1022" s="17">
+        <v>3</v>
+      </c>
+      <c r="I1022" s="17">
+        <v>8</v>
+      </c>
+      <c r="J1022" s="17">
+        <v>6</v>
+      </c>
+      <c r="K1022" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1022" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1022" s="17">
+        <v>23</v>
+      </c>
+      <c r="N1022" s="17">
+        <v>188</v>
+      </c>
+      <c r="O1022" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1023" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1023" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1023" s="14">
+        <v>0</v>
+      </c>
+      <c r="D1023" s="14">
+        <v>0</v>
+      </c>
+      <c r="E1023" s="14">
+        <v>1</v>
+      </c>
+      <c r="F1023" s="14">
+        <v>2</v>
+      </c>
+      <c r="G1023" s="14">
+        <v>4</v>
+      </c>
+      <c r="H1023" s="14">
+        <v>2</v>
+      </c>
+      <c r="I1023" s="14">
         <v>9</v>
       </c>
-      <c r="J1023" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1023" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1023" s="16"/>
-      <c r="M1023" s="16"/>
-      <c r="N1023" s="16"/>
-      <c r="O1023" s="16"/>
-    </row>
-    <row r="1024" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1024" s="21">
-        <v>2</v>
-      </c>
-      <c r="D1024" s="21">
-        <v>0</v>
-      </c>
-      <c r="E1024" s="21">
-        <v>1</v>
-      </c>
-      <c r="F1024" s="21">
-        <v>2</v>
-      </c>
-      <c r="G1024" s="21">
-        <v>3</v>
-      </c>
-      <c r="H1024" s="21">
-        <v>1</v>
-      </c>
-      <c r="I1024" s="21">
+      <c r="J1023" s="14">
+        <v>4</v>
+      </c>
+      <c r="K1023" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1023" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1023" s="14">
+        <v>20</v>
+      </c>
+      <c r="N1023" s="15"/>
+      <c r="O1023" s="15"/>
+    </row>
+    <row r="1024" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1024" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1024" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1024" s="17">
+        <v>2</v>
+      </c>
+      <c r="D1024" s="16"/>
+      <c r="E1024" s="17">
+        <v>2</v>
+      </c>
+      <c r="F1024" s="17">
+        <v>1</v>
+      </c>
+      <c r="G1024" s="17">
+        <v>4</v>
+      </c>
+      <c r="H1024" s="16"/>
+      <c r="I1024" s="17">
         <v>9</v>
       </c>
-      <c r="J1024" s="21">
-        <v>5</v>
-      </c>
-      <c r="K1024" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1024" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1024" s="21">
-        <v>20</v>
-      </c>
-      <c r="N1024" s="21">
-        <v>1.67</v>
-      </c>
-      <c r="O1024" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1025" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1025" s="16"/>
-      <c r="D1025" s="16"/>
-      <c r="E1025" s="16"/>
-      <c r="F1025" s="16"/>
-      <c r="G1025" s="16"/>
-      <c r="H1025" s="16"/>
-      <c r="I1025" s="16"/>
-      <c r="J1025" s="16"/>
-      <c r="K1025" s="16"/>
-      <c r="L1025" s="16"/>
-      <c r="M1025" s="16"/>
-      <c r="N1025" s="16"/>
-      <c r="O1025" s="16"/>
-    </row>
-    <row r="1026" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1026" s="16"/>
-      <c r="D1026" s="16"/>
-      <c r="E1026" s="16"/>
-      <c r="F1026" s="16"/>
-      <c r="G1026" s="16"/>
-      <c r="H1026" s="16"/>
-      <c r="I1026" s="16"/>
-      <c r="J1026" s="16"/>
-      <c r="K1026" s="16"/>
-      <c r="L1026" s="16"/>
-      <c r="M1026" s="16"/>
-      <c r="N1026" s="16"/>
-      <c r="O1026" s="16"/>
-    </row>
-    <row r="1027" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1027" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1027" s="17">
-        <v>1</v>
-      </c>
-      <c r="E1027" s="17">
-        <v>3</v>
-      </c>
-      <c r="F1027" s="17">
-        <v>1</v>
-      </c>
-      <c r="G1027" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1027" s="17">
-        <v>0</v>
-      </c>
-      <c r="I1027" s="17">
-        <v>8</v>
-      </c>
-      <c r="J1027" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1027" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1027" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1027" s="17">
-        <v>20</v>
-      </c>
-      <c r="N1027" s="17">
-        <v>174</v>
-      </c>
-      <c r="O1027" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1028" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1028" s="16"/>
-      <c r="D1028" s="16"/>
-      <c r="E1028" s="16"/>
-      <c r="F1028" s="16"/>
-      <c r="G1028" s="16"/>
-      <c r="H1028" s="16"/>
-      <c r="I1028" s="16"/>
-      <c r="J1028" s="16"/>
-      <c r="K1028" s="16"/>
-      <c r="L1028" s="16"/>
+      <c r="J1024" s="16"/>
+      <c r="K1024" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1024" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1024" s="17">
+        <v>21</v>
+      </c>
+      <c r="N1024" s="17">
+        <v>1.78</v>
+      </c>
+      <c r="O1024" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1025" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1025" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1025" s="17">
+        <v>2</v>
+      </c>
+      <c r="D1025" s="17">
+        <v>0</v>
+      </c>
+      <c r="E1025" s="17">
+        <v>1</v>
+      </c>
+      <c r="F1025" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1025" s="17">
+        <v>1</v>
+      </c>
+      <c r="H1025" s="17">
+        <v>3</v>
+      </c>
+      <c r="I1025" s="17">
+        <v>10</v>
+      </c>
+      <c r="J1025" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1025" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1025" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1025" s="17">
+        <v>21</v>
+      </c>
+      <c r="N1025" s="17">
+        <v>1.75</v>
+      </c>
+      <c r="O1025" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1026" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1026" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1026" s="17">
+        <v>2</v>
+      </c>
+      <c r="D1026" s="17">
+        <v>0</v>
+      </c>
+      <c r="E1026" s="17">
+        <v>1</v>
+      </c>
+      <c r="F1026" s="17">
+        <v>2</v>
+      </c>
+      <c r="G1026" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1026" s="17">
+        <v>1</v>
+      </c>
+      <c r="I1026" s="17">
+        <v>10</v>
+      </c>
+      <c r="J1026" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1026" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1026" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1026" s="17">
+        <v>22</v>
+      </c>
+      <c r="N1026" s="17">
+        <v>1.86</v>
+      </c>
+      <c r="O1026" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1027" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1027" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1027" s="14">
+        <v>2</v>
+      </c>
+      <c r="D1027" s="14">
+        <v>0</v>
+      </c>
+      <c r="E1027" s="14">
+        <v>2</v>
+      </c>
+      <c r="F1027" s="14">
+        <v>1</v>
+      </c>
+      <c r="G1027" s="14">
+        <v>4</v>
+      </c>
+      <c r="H1027" s="14">
+        <v>1</v>
+      </c>
+      <c r="I1027" s="14">
+        <v>10</v>
+      </c>
+      <c r="J1027" s="14">
+        <v>5</v>
+      </c>
+      <c r="K1027" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1027" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1027" s="14">
+        <v>21</v>
+      </c>
+      <c r="N1027" s="14">
+        <v>1.63</v>
+      </c>
+      <c r="O1027" s="16"/>
+    </row>
+    <row r="1028" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1028" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1028" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1028" s="17">
+        <v>2</v>
+      </c>
+      <c r="D1028" s="17">
+        <v>0</v>
+      </c>
+      <c r="E1028" s="17">
+        <v>2</v>
+      </c>
+      <c r="F1028" s="17">
+        <v>2</v>
+      </c>
+      <c r="G1028" s="17">
+        <v>1</v>
+      </c>
+      <c r="H1028" s="17">
+        <v>3</v>
+      </c>
+      <c r="I1028" s="17">
+        <v>10</v>
+      </c>
+      <c r="J1028" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1028" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1028" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="M1028" s="16"/>
       <c r="N1028" s="16"/>
       <c r="O1028" s="16"/>
     </row>
-    <row r="1029" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1029" s="16"/>
-      <c r="D1029" s="16"/>
-      <c r="E1029" s="16"/>
-      <c r="F1029" s="16"/>
-      <c r="G1029" s="16"/>
-      <c r="H1029" s="16"/>
-      <c r="I1029" s="16"/>
-      <c r="J1029" s="16"/>
-      <c r="K1029" s="16"/>
-      <c r="L1029" s="16"/>
-      <c r="M1029" s="16"/>
+    <row r="1029" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1029" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1029" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1029" s="17">
+        <v>1</v>
+      </c>
+      <c r="D1029" s="17">
+        <v>0</v>
+      </c>
+      <c r="E1029" s="17">
+        <v>3</v>
+      </c>
+      <c r="F1029" s="17">
+        <v>4</v>
+      </c>
+      <c r="G1029" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1029" s="17">
+        <v>1</v>
+      </c>
+      <c r="I1029" s="17">
+        <v>11</v>
+      </c>
+      <c r="J1029" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1029" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1029" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1029" s="17">
+        <v>24</v>
+      </c>
       <c r="N1029" s="16"/>
       <c r="O1029" s="16"/>
     </row>
-    <row r="1030" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1030" s="16"/>
+    <row r="1030" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1030" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1030" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1030" s="17">
+        <v>2</v>
+      </c>
       <c r="D1030" s="17">
-        <v>1</v>
-      </c>
-      <c r="E1030" s="16"/>
-      <c r="F1030" s="16"/>
-      <c r="G1030" s="16"/>
-      <c r="H1030" s="16"/>
-      <c r="I1030" s="16"/>
-      <c r="J1030" s="16"/>
-      <c r="K1030" s="16"/>
-      <c r="L1030" s="16"/>
-      <c r="M1030" s="16"/>
-      <c r="N1030" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="E1030" s="17">
+        <v>3</v>
+      </c>
+      <c r="F1030" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1030" s="17">
+        <v>0</v>
+      </c>
+      <c r="H1030" s="17">
+        <v>2</v>
+      </c>
+      <c r="I1030" s="17">
+        <v>13</v>
+      </c>
+      <c r="J1030" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1030" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1030" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1030" s="17">
+        <v>20</v>
+      </c>
+      <c r="N1030" s="17">
+        <v>173</v>
+      </c>
       <c r="O1030" s="16"/>
     </row>
-    <row r="1031" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1031" s="16"/>
-      <c r="D1031" s="16"/>
-      <c r="E1031" s="16"/>
-      <c r="F1031" s="16"/>
-      <c r="G1031" s="16"/>
-      <c r="H1031" s="16"/>
-      <c r="I1031" s="16"/>
-      <c r="J1031" s="16"/>
-      <c r="K1031" s="16"/>
-      <c r="L1031" s="16"/>
-      <c r="M1031" s="16"/>
-      <c r="N1031" s="16"/>
+    <row r="1031" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1031" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1031" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1031" s="17">
+        <v>2</v>
+      </c>
+      <c r="D1031" s="17">
+        <v>1</v>
+      </c>
+      <c r="E1031" s="17">
+        <v>2</v>
+      </c>
+      <c r="F1031" s="17">
+        <v>2</v>
+      </c>
+      <c r="G1031" s="17">
+        <v>0</v>
+      </c>
+      <c r="H1031" s="17">
+        <v>1</v>
+      </c>
+      <c r="I1031" s="17">
+        <v>8</v>
+      </c>
+      <c r="J1031" s="17">
+        <v>5</v>
+      </c>
+      <c r="K1031" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1031" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1031" s="17">
+        <v>23</v>
+      </c>
+      <c r="N1031" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="O1031" s="16"/>
     </row>
-    <row r="1032" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1032" s="16"/>
-      <c r="D1032" s="16"/>
-      <c r="E1032" s="16"/>
-      <c r="F1032" s="16"/>
-      <c r="G1032" s="16"/>
-      <c r="H1032" s="16"/>
-      <c r="I1032" s="16"/>
-      <c r="J1032" s="16"/>
-      <c r="K1032" s="16"/>
-      <c r="L1032" s="16"/>
-      <c r="M1032" s="16"/>
-      <c r="N1032" s="16"/>
+    <row r="1032" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1032" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1032" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1032" s="17">
+        <v>2</v>
+      </c>
+      <c r="D1032" s="17">
+        <v>0</v>
+      </c>
+      <c r="E1032" s="17">
+        <v>4</v>
+      </c>
+      <c r="F1032" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1032" s="17">
+        <v>3</v>
+      </c>
+      <c r="H1032" s="17">
+        <v>0</v>
+      </c>
+      <c r="I1032" s="17">
+        <v>12</v>
+      </c>
+      <c r="J1032" s="17">
+        <v>4</v>
+      </c>
+      <c r="K1032" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1032" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1032" s="17">
+        <v>18</v>
+      </c>
+      <c r="N1032" s="17">
+        <v>186</v>
+      </c>
       <c r="O1032" s="16"/>
     </row>
-    <row r="1033" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1033" s="16"/>
-      <c r="D1033" s="16"/>
-      <c r="E1033" s="16"/>
-      <c r="F1033" s="16"/>
-      <c r="G1033" s="16"/>
-      <c r="H1033" s="16"/>
-      <c r="I1033" s="16"/>
-      <c r="J1033" s="16"/>
-      <c r="K1033" s="16"/>
-      <c r="L1033" s="16"/>
-      <c r="M1033" s="16"/>
+    <row r="1033" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1033" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1033" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1033" s="17">
+        <v>0</v>
+      </c>
+      <c r="D1033" s="17">
+        <v>0</v>
+      </c>
+      <c r="E1033" s="17">
+        <v>0</v>
+      </c>
+      <c r="F1033" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1033" s="17">
+        <v>2</v>
+      </c>
+      <c r="H1033" s="17">
+        <v>4</v>
+      </c>
+      <c r="I1033" s="17">
+        <v>9</v>
+      </c>
+      <c r="J1033" s="17">
+        <v>3</v>
+      </c>
+      <c r="K1033" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1033" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1033" s="17">
+        <v>28</v>
+      </c>
       <c r="N1033" s="16"/>
       <c r="O1033" s="16"/>
     </row>
-    <row r="1034" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1034" s="16"/>
+    <row r="1034" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1034" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1034" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1034" s="17">
+        <v>3</v>
+      </c>
       <c r="D1034" s="16"/>
       <c r="E1034" s="16"/>
-      <c r="F1034" s="16"/>
+      <c r="F1034" s="17">
+        <v>2</v>
+      </c>
       <c r="G1034" s="16"/>
-      <c r="H1034" s="16"/>
-      <c r="I1034" s="16"/>
-      <c r="J1034" s="16"/>
-      <c r="K1034" s="16"/>
-      <c r="L1034" s="16"/>
-      <c r="M1034" s="16"/>
-      <c r="N1034" s="16"/>
-      <c r="O1034" s="16"/>
-    </row>
-    <row r="1035" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1035" s="16"/>
-      <c r="D1035" s="16"/>
-      <c r="E1035" s="16"/>
-      <c r="F1035" s="16"/>
-      <c r="G1035" s="16"/>
+      <c r="H1034" s="17">
+        <v>3</v>
+      </c>
+      <c r="I1034" s="17">
+        <v>8</v>
+      </c>
+      <c r="J1034" s="17">
+        <v>3</v>
+      </c>
+      <c r="K1034" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1034" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1034" s="17">
+        <v>21</v>
+      </c>
+      <c r="N1034" s="17">
+        <v>178</v>
+      </c>
+      <c r="O1034" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1035" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1035" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1035" s="17">
+        <v>2</v>
+      </c>
+      <c r="D1035" s="17">
+        <v>1</v>
+      </c>
+      <c r="E1035" s="17">
+        <v>2</v>
+      </c>
+      <c r="F1035" s="17">
+        <v>3</v>
+      </c>
+      <c r="G1035" s="17">
+        <v>1</v>
+      </c>
       <c r="H1035" s="17">
-        <v>2</v>
-      </c>
-      <c r="I1035" s="16"/>
-      <c r="J1035" s="16"/>
-      <c r="K1035" s="16"/>
-      <c r="L1035" s="16"/>
-      <c r="M1035" s="16"/>
-      <c r="N1035" s="16"/>
-      <c r="O1035" s="16"/>
-    </row>
-    <row r="1036" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+        <v>1</v>
+      </c>
+      <c r="I1035" s="17">
+        <v>10</v>
+      </c>
+      <c r="J1035" s="17">
+        <v>6</v>
+      </c>
+      <c r="K1035" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1035" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1035" s="17">
+        <v>22</v>
+      </c>
+      <c r="N1035" s="17">
+        <v>176</v>
+      </c>
+      <c r="O1035" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1036" s="6">
+        <v>2025</v>
+      </c>
+      <c r="B1036" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C1036" s="17">
-        <v>2</v>
-      </c>
-      <c r="D1036" s="17">
-        <v>2</v>
-      </c>
-      <c r="E1036" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="D1036" s="16"/>
+      <c r="E1036" s="17">
+        <v>2</v>
+      </c>
       <c r="F1036" s="17">
         <v>2</v>
       </c>
       <c r="G1036" s="17">
-        <v>1</v>
-      </c>
-      <c r="H1036" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="H1036" s="17">
+        <v>2</v>
+      </c>
       <c r="I1036" s="17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1036" s="17">
         <v>5</v>
       </c>
       <c r="K1036" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1036" s="16" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M1036" s="17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N1036" s="17">
-        <v>1.78</v>
+        <v>170</v>
       </c>
       <c r="O1036" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="1037" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1037" s="23">
-        <v>1</v>
-      </c>
-      <c r="D1037" s="23">
-        <v>0</v>
-      </c>
-      <c r="E1037" s="23">
-        <v>2</v>
-      </c>
-      <c r="F1037" s="23">
-        <v>0</v>
-      </c>
-      <c r="G1037" s="23">
-        <v>1</v>
-      </c>
-      <c r="H1037" s="23">
-        <v>4</v>
-      </c>
-      <c r="I1037" s="23">
-        <v>8</v>
-      </c>
-      <c r="J1037" s="23">
-        <v>4</v>
-      </c>
-      <c r="K1037" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1037" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1037" s="23">
-        <v>21</v>
-      </c>
-      <c r="N1037" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1037" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1038" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1038" s="25">
-        <v>2</v>
-      </c>
-      <c r="D1038" s="25">
-        <v>3</v>
-      </c>
-      <c r="E1038" s="25">
-        <v>1</v>
-      </c>
-      <c r="F1038" s="25">
-        <v>0</v>
-      </c>
-      <c r="G1038" s="25">
-        <v>0</v>
-      </c>
-      <c r="H1038" s="25">
-        <v>2</v>
-      </c>
-      <c r="I1038" s="25">
-        <v>8</v>
-      </c>
-      <c r="J1038" s="25">
-        <v>4</v>
-      </c>
-      <c r="K1038" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1038" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1038" s="25">
-        <v>19</v>
-      </c>
-      <c r="N1038" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1038" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1039" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1039" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1039" s="17">
-        <v>2</v>
-      </c>
-      <c r="E1039" s="17">
-        <v>1</v>
-      </c>
-      <c r="F1039" s="17">
-        <v>1</v>
-      </c>
-      <c r="G1039" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1039" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1039" s="17">
-        <v>8</v>
-      </c>
-      <c r="J1039" s="17">
-        <v>6</v>
-      </c>
-      <c r="K1039" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1039" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1039" s="17">
-        <v>20</v>
-      </c>
-      <c r="N1039" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1039" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1040" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1037" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1037" s="16"/>
+      <c r="D1037" s="16"/>
+      <c r="E1037" s="16"/>
+      <c r="F1037" s="16"/>
+      <c r="G1037" s="16"/>
+      <c r="H1037" s="16"/>
+      <c r="I1037" s="16"/>
+      <c r="J1037" s="16"/>
+      <c r="K1037" s="16"/>
+      <c r="L1037" s="16"/>
+      <c r="M1037" s="16"/>
+      <c r="N1037" s="16"/>
+      <c r="O1037" s="16"/>
+    </row>
+    <row r="1038" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1038" s="16"/>
+      <c r="D1038" s="16"/>
+      <c r="E1038" s="16"/>
+      <c r="F1038" s="16"/>
+      <c r="G1038" s="16"/>
+      <c r="H1038" s="16"/>
+      <c r="I1038" s="16"/>
+      <c r="J1038" s="16"/>
+      <c r="K1038" s="16"/>
+      <c r="L1038" s="16"/>
+      <c r="M1038" s="16"/>
+      <c r="N1038" s="16"/>
+      <c r="O1038" s="16"/>
+    </row>
+    <row r="1039" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C1039" s="16"/>
+      <c r="D1039" s="16"/>
+      <c r="E1039" s="16"/>
+      <c r="F1039" s="16"/>
+      <c r="G1039" s="16"/>
+      <c r="H1039" s="16"/>
+      <c r="I1039" s="16"/>
+      <c r="J1039" s="16"/>
+      <c r="K1039" s="16"/>
+      <c r="L1039" s="16"/>
+      <c r="M1039" s="16"/>
+      <c r="N1039" s="16"/>
+      <c r="O1039" s="16"/>
+    </row>
+    <row r="1040" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="C1040" s="16"/>
       <c r="D1040" s="16"/>
       <c r="E1040" s="16"/>
@@ -47599,64 +48549,34 @@
       <c r="O1045" s="16"/>
     </row>
     <row r="1046" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1046" s="17">
-        <v>1</v>
-      </c>
+      <c r="C1046" s="16"/>
       <c r="D1046" s="16"/>
-      <c r="E1046" s="17">
-        <v>5</v>
-      </c>
-      <c r="F1046" s="17">
-        <v>3</v>
-      </c>
+      <c r="E1046" s="16"/>
+      <c r="F1046" s="16"/>
       <c r="G1046" s="16"/>
       <c r="H1046" s="16"/>
       <c r="I1046" s="16"/>
       <c r="J1046" s="16"/>
       <c r="K1046" s="16"/>
-      <c r="L1046" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1046" s="17">
-        <v>21</v>
-      </c>
-      <c r="N1046" s="17">
-        <v>1.68</v>
-      </c>
-      <c r="O1046" s="17">
-        <v>1</v>
-      </c>
+      <c r="L1046" s="16"/>
+      <c r="M1046" s="16"/>
+      <c r="N1046" s="16"/>
+      <c r="O1046" s="16"/>
     </row>
     <row r="1047" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1047" s="17">
-        <v>3</v>
-      </c>
+      <c r="C1047" s="16"/>
       <c r="D1047" s="16"/>
-      <c r="E1047" s="17">
-        <v>2</v>
-      </c>
+      <c r="E1047" s="16"/>
       <c r="F1047" s="16"/>
-      <c r="G1047" s="17">
-        <v>1</v>
-      </c>
+      <c r="G1047" s="16"/>
       <c r="H1047" s="16"/>
       <c r="I1047" s="16"/>
       <c r="J1047" s="16"/>
-      <c r="K1047" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1047" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1047" s="17">
-        <v>20</v>
-      </c>
-      <c r="N1047" s="17">
-        <v>1.75</v>
-      </c>
-      <c r="O1047" s="17">
-        <v>1</v>
-      </c>
+      <c r="K1047" s="16"/>
+      <c r="L1047" s="16"/>
+      <c r="M1047" s="16"/>
+      <c r="N1047" s="16"/>
+      <c r="O1047" s="16"/>
     </row>
     <row r="1048" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="C1048" s="16"/>
@@ -47703,1228 +48623,6 @@
       <c r="N1050" s="16"/>
       <c r="O1050" s="16"/>
     </row>
-    <row r="1051" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1051" s="17">
-        <v>0</v>
-      </c>
-      <c r="D1051" s="17">
-        <v>3</v>
-      </c>
-      <c r="E1051" s="17">
-        <v>3</v>
-      </c>
-      <c r="F1051" s="17">
-        <v>1</v>
-      </c>
-      <c r="G1051" s="17">
-        <v>1</v>
-      </c>
-      <c r="H1051" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1051" s="17">
-        <v>9</v>
-      </c>
-      <c r="J1051" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1051" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1051" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1051" s="17">
-        <v>22</v>
-      </c>
-      <c r="N1051" s="17">
-        <v>1.68</v>
-      </c>
-      <c r="O1051" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1052" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1052" s="16"/>
-      <c r="D1052" s="16"/>
-      <c r="E1052" s="16"/>
-      <c r="F1052" s="16"/>
-      <c r="G1052" s="16"/>
-      <c r="H1052" s="16"/>
-      <c r="I1052" s="16"/>
-      <c r="J1052" s="16"/>
-      <c r="K1052" s="16"/>
-      <c r="L1052" s="16"/>
-      <c r="M1052" s="16"/>
-      <c r="N1052" s="16"/>
-      <c r="O1052" s="16"/>
-    </row>
-    <row r="1053" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1053" s="16"/>
-      <c r="D1053" s="16"/>
-      <c r="E1053" s="16"/>
-      <c r="F1053" s="16"/>
-      <c r="G1053" s="16"/>
-      <c r="H1053" s="16"/>
-      <c r="I1053" s="16"/>
-      <c r="J1053" s="16"/>
-      <c r="K1053" s="16"/>
-      <c r="L1053" s="16"/>
-      <c r="M1053" s="16"/>
-      <c r="N1053" s="16"/>
-      <c r="O1053" s="16"/>
-    </row>
-    <row r="1054" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1054" s="16"/>
-      <c r="D1054" s="16"/>
-      <c r="E1054" s="16"/>
-      <c r="F1054" s="16"/>
-      <c r="G1054" s="16"/>
-      <c r="H1054" s="16"/>
-      <c r="I1054" s="16"/>
-      <c r="J1054" s="16"/>
-      <c r="K1054" s="16"/>
-      <c r="L1054" s="16"/>
-      <c r="M1054" s="16"/>
-      <c r="N1054" s="16"/>
-      <c r="O1054" s="16"/>
-    </row>
-    <row r="1055" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1055" s="16"/>
-      <c r="D1055" s="16"/>
-      <c r="E1055" s="16"/>
-      <c r="F1055" s="16"/>
-      <c r="G1055" s="16"/>
-      <c r="H1055" s="16"/>
-      <c r="I1055" s="16"/>
-      <c r="J1055" s="16"/>
-      <c r="K1055" s="16"/>
-      <c r="L1055" s="16"/>
-      <c r="M1055" s="16"/>
-      <c r="N1055" s="16"/>
-      <c r="O1055" s="16"/>
-    </row>
-    <row r="1056" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1056" s="17">
-        <v>0</v>
-      </c>
-      <c r="D1056" s="17">
-        <v>2</v>
-      </c>
-      <c r="E1056" s="17">
-        <v>2</v>
-      </c>
-      <c r="F1056" s="17">
-        <v>1</v>
-      </c>
-      <c r="G1056" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1056" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1056" s="17">
-        <v>8</v>
-      </c>
-      <c r="J1056" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1056" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1056" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1056" s="17">
-        <v>28</v>
-      </c>
-      <c r="N1056" s="17">
-        <v>1.58</v>
-      </c>
-      <c r="O1056" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1057" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1057" s="16"/>
-      <c r="D1057" s="16"/>
-      <c r="E1057" s="16"/>
-      <c r="F1057" s="16"/>
-      <c r="G1057" s="16"/>
-      <c r="H1057" s="16"/>
-      <c r="I1057" s="16"/>
-      <c r="J1057" s="16"/>
-      <c r="K1057" s="16"/>
-      <c r="L1057" s="16"/>
-      <c r="M1057" s="16"/>
-      <c r="N1057" s="16"/>
-      <c r="O1057" s="16"/>
-    </row>
-    <row r="1058" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1058" s="16"/>
-      <c r="D1058" s="16"/>
-      <c r="E1058" s="16"/>
-      <c r="F1058" s="16"/>
-      <c r="G1058" s="16"/>
-      <c r="H1058" s="16"/>
-      <c r="I1058" s="16"/>
-      <c r="J1058" s="16"/>
-      <c r="K1058" s="16"/>
-      <c r="L1058" s="16"/>
-      <c r="M1058" s="16"/>
-      <c r="N1058" s="16"/>
-      <c r="O1058" s="16"/>
-    </row>
-    <row r="1059" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1059" s="17">
-        <v>2</v>
-      </c>
-      <c r="D1059" s="17">
-        <v>3</v>
-      </c>
-      <c r="E1059" s="17">
-        <v>4</v>
-      </c>
-      <c r="F1059" s="17">
-        <v>2</v>
-      </c>
-      <c r="G1059" s="17">
-        <v>1</v>
-      </c>
-      <c r="H1059" s="17">
-        <v>2</v>
-      </c>
-      <c r="I1059" s="17">
-        <v>14</v>
-      </c>
-      <c r="J1059" s="17">
-        <v>6</v>
-      </c>
-      <c r="K1059" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1059" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1059" s="17">
-        <v>24</v>
-      </c>
-      <c r="N1059" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1059" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1060" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1060" s="16"/>
-      <c r="D1060" s="16"/>
-      <c r="E1060" s="16"/>
-      <c r="F1060" s="16"/>
-      <c r="G1060" s="16"/>
-      <c r="H1060" s="16"/>
-      <c r="I1060" s="16"/>
-      <c r="J1060" s="16"/>
-      <c r="K1060" s="16"/>
-      <c r="L1060" s="16"/>
-      <c r="M1060" s="16"/>
-      <c r="N1060" s="16"/>
-      <c r="O1060" s="16"/>
-    </row>
-    <row r="1061" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1061" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1061" s="17">
-        <v>2</v>
-      </c>
-      <c r="E1061" s="17">
-        <v>1</v>
-      </c>
-      <c r="F1061" s="17">
-        <v>3</v>
-      </c>
-      <c r="G1061" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1061" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1061" s="17">
-        <v>10</v>
-      </c>
-      <c r="J1061" s="17">
-        <v>6</v>
-      </c>
-      <c r="K1061" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1061" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1061" s="17">
-        <v>19</v>
-      </c>
-      <c r="N1061" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1061" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1062" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1062" s="16"/>
-      <c r="D1062" s="17">
-        <v>1</v>
-      </c>
-      <c r="E1062" s="17">
-        <v>2</v>
-      </c>
-      <c r="F1062" s="17">
-        <v>1</v>
-      </c>
-      <c r="G1062" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1062" s="17">
-        <v>2</v>
-      </c>
-      <c r="I1062" s="17">
-        <v>8</v>
-      </c>
-      <c r="J1062" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1062" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1062" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1062" s="17">
-        <v>20</v>
-      </c>
-      <c r="N1062" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1062" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1063" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1063" s="16"/>
-      <c r="D1063" s="16"/>
-      <c r="E1063" s="16"/>
-      <c r="F1063" s="16"/>
-      <c r="G1063" s="16"/>
-      <c r="H1063" s="16"/>
-      <c r="I1063" s="16"/>
-      <c r="J1063" s="16"/>
-      <c r="K1063" s="16"/>
-      <c r="L1063" s="16"/>
-      <c r="M1063" s="16"/>
-      <c r="N1063" s="16"/>
-      <c r="O1063" s="16"/>
-    </row>
-    <row r="1064" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1064" s="16"/>
-      <c r="D1064" s="16"/>
-      <c r="E1064" s="16"/>
-      <c r="F1064" s="16"/>
-      <c r="G1064" s="16"/>
-      <c r="H1064" s="16"/>
-      <c r="I1064" s="16"/>
-      <c r="J1064" s="16"/>
-      <c r="K1064" s="16"/>
-      <c r="L1064" s="16"/>
-      <c r="M1064" s="16"/>
-      <c r="N1064" s="16"/>
-      <c r="O1064" s="16"/>
-    </row>
-    <row r="1065" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1065" s="17">
-        <v>0</v>
-      </c>
-      <c r="D1065" s="17">
-        <v>2</v>
-      </c>
-      <c r="E1065" s="16"/>
-      <c r="F1065" s="17">
-        <v>5</v>
-      </c>
-      <c r="G1065" s="17">
-        <v>0</v>
-      </c>
-      <c r="H1065" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1065" s="17">
-        <v>10</v>
-      </c>
-      <c r="J1065" s="17">
-        <v>4</v>
-      </c>
-      <c r="K1065" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1065" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1065" s="17">
-        <v>22</v>
-      </c>
-      <c r="N1065" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1065" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1066" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1066" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1066" s="17">
-        <v>1</v>
-      </c>
-      <c r="E1066" s="17">
-        <v>1</v>
-      </c>
-      <c r="F1066" s="17">
-        <v>1</v>
-      </c>
-      <c r="G1066" s="17">
-        <v>1</v>
-      </c>
-      <c r="H1066" s="17">
-        <v>3</v>
-      </c>
-      <c r="I1066" s="17">
-        <v>8</v>
-      </c>
-      <c r="J1066" s="17">
-        <v>6</v>
-      </c>
-      <c r="K1066" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1066" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1066" s="17">
-        <v>23</v>
-      </c>
-      <c r="N1066" s="17">
-        <v>188</v>
-      </c>
-      <c r="O1066" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1067" spans="3:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C1067" s="14">
-        <v>0</v>
-      </c>
-      <c r="D1067" s="14">
-        <v>0</v>
-      </c>
-      <c r="E1067" s="14">
-        <v>1</v>
-      </c>
-      <c r="F1067" s="14">
-        <v>2</v>
-      </c>
-      <c r="G1067" s="14">
-        <v>4</v>
-      </c>
-      <c r="H1067" s="14">
-        <v>2</v>
-      </c>
-      <c r="I1067" s="14">
-        <v>9</v>
-      </c>
-      <c r="J1067" s="14">
-        <v>4</v>
-      </c>
-      <c r="K1067" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1067" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1067" s="14">
-        <v>20</v>
-      </c>
-      <c r="N1067" s="15"/>
-      <c r="O1067" s="15"/>
-    </row>
-    <row r="1068" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1068" s="17">
-        <v>2</v>
-      </c>
-      <c r="D1068" s="16"/>
-      <c r="E1068" s="17">
-        <v>2</v>
-      </c>
-      <c r="F1068" s="17">
-        <v>1</v>
-      </c>
-      <c r="G1068" s="17">
-        <v>4</v>
-      </c>
-      <c r="H1068" s="16"/>
-      <c r="I1068" s="17">
-        <v>9</v>
-      </c>
-      <c r="J1068" s="16"/>
-      <c r="K1068" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1068" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1068" s="17">
-        <v>21</v>
-      </c>
-      <c r="N1068" s="17">
-        <v>1.78</v>
-      </c>
-      <c r="O1068" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1069" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1069" s="17">
-        <v>2</v>
-      </c>
-      <c r="D1069" s="17">
-        <v>0</v>
-      </c>
-      <c r="E1069" s="17">
-        <v>1</v>
-      </c>
-      <c r="F1069" s="17">
-        <v>3</v>
-      </c>
-      <c r="G1069" s="17">
-        <v>1</v>
-      </c>
-      <c r="H1069" s="17">
-        <v>3</v>
-      </c>
-      <c r="I1069" s="17">
-        <v>10</v>
-      </c>
-      <c r="J1069" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1069" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1069" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1069" s="17">
-        <v>21</v>
-      </c>
-      <c r="N1069" s="17">
-        <v>1.75</v>
-      </c>
-      <c r="O1069" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1070" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1070" s="17">
-        <v>2</v>
-      </c>
-      <c r="D1070" s="17">
-        <v>0</v>
-      </c>
-      <c r="E1070" s="17">
-        <v>1</v>
-      </c>
-      <c r="F1070" s="17">
-        <v>2</v>
-      </c>
-      <c r="G1070" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1070" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1070" s="17">
-        <v>10</v>
-      </c>
-      <c r="J1070" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1070" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1070" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1070" s="17">
-        <v>22</v>
-      </c>
-      <c r="N1070" s="17">
-        <v>1.86</v>
-      </c>
-      <c r="O1070" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1071" spans="3:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C1071" s="14">
-        <v>2</v>
-      </c>
-      <c r="D1071" s="14">
-        <v>0</v>
-      </c>
-      <c r="E1071" s="14">
-        <v>2</v>
-      </c>
-      <c r="F1071" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1071" s="14">
-        <v>4</v>
-      </c>
-      <c r="H1071" s="14">
-        <v>1</v>
-      </c>
-      <c r="I1071" s="14">
-        <v>10</v>
-      </c>
-      <c r="J1071" s="14">
-        <v>5</v>
-      </c>
-      <c r="K1071" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1071" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1071" s="14">
-        <v>21</v>
-      </c>
-      <c r="N1071" s="14">
-        <v>1.63</v>
-      </c>
-      <c r="O1071" s="16"/>
-    </row>
-    <row r="1072" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1072" s="17">
-        <v>2</v>
-      </c>
-      <c r="D1072" s="17">
-        <v>0</v>
-      </c>
-      <c r="E1072" s="17">
-        <v>2</v>
-      </c>
-      <c r="F1072" s="17">
-        <v>2</v>
-      </c>
-      <c r="G1072" s="17">
-        <v>1</v>
-      </c>
-      <c r="H1072" s="17">
-        <v>3</v>
-      </c>
-      <c r="I1072" s="17">
-        <v>10</v>
-      </c>
-      <c r="J1072" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1072" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1072" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1072" s="16"/>
-      <c r="N1072" s="16"/>
-      <c r="O1072" s="16"/>
-    </row>
-    <row r="1073" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1073" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1073" s="17">
-        <v>0</v>
-      </c>
-      <c r="E1073" s="17">
-        <v>3</v>
-      </c>
-      <c r="F1073" s="17">
-        <v>4</v>
-      </c>
-      <c r="G1073" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1073" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1073" s="17">
-        <v>11</v>
-      </c>
-      <c r="J1073" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1073" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1073" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1073" s="17">
-        <v>24</v>
-      </c>
-      <c r="N1073" s="16"/>
-      <c r="O1073" s="16"/>
-    </row>
-    <row r="1074" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1074" s="17">
-        <v>2</v>
-      </c>
-      <c r="D1074" s="17">
-        <v>0</v>
-      </c>
-      <c r="E1074" s="17">
-        <v>3</v>
-      </c>
-      <c r="F1074" s="17">
-        <v>3</v>
-      </c>
-      <c r="G1074" s="17">
-        <v>0</v>
-      </c>
-      <c r="H1074" s="17">
-        <v>2</v>
-      </c>
-      <c r="I1074" s="17">
-        <v>13</v>
-      </c>
-      <c r="J1074" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1074" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1074" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1074" s="17">
-        <v>20</v>
-      </c>
-      <c r="N1074" s="17">
-        <v>173</v>
-      </c>
-      <c r="O1074" s="16"/>
-    </row>
-    <row r="1075" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1075" s="17">
-        <v>2</v>
-      </c>
-      <c r="D1075" s="17">
-        <v>1</v>
-      </c>
-      <c r="E1075" s="17">
-        <v>2</v>
-      </c>
-      <c r="F1075" s="17">
-        <v>2</v>
-      </c>
-      <c r="G1075" s="17">
-        <v>0</v>
-      </c>
-      <c r="H1075" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1075" s="17">
-        <v>8</v>
-      </c>
-      <c r="J1075" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1075" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1075" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1075" s="17">
-        <v>23</v>
-      </c>
-      <c r="N1075" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1075" s="16"/>
-    </row>
-    <row r="1076" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1076" s="16"/>
-      <c r="D1076" s="16"/>
-      <c r="E1076" s="16"/>
-      <c r="F1076" s="16"/>
-      <c r="G1076" s="16"/>
-      <c r="H1076" s="16"/>
-      <c r="I1076" s="16"/>
-      <c r="J1076" s="16"/>
-      <c r="K1076" s="16"/>
-      <c r="L1076" s="16"/>
-      <c r="M1076" s="16"/>
-      <c r="N1076" s="16"/>
-      <c r="O1076" s="16"/>
-    </row>
-    <row r="1077" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1077" s="17">
-        <v>2</v>
-      </c>
-      <c r="D1077" s="17">
-        <v>0</v>
-      </c>
-      <c r="E1077" s="17">
-        <v>4</v>
-      </c>
-      <c r="F1077" s="17">
-        <v>3</v>
-      </c>
-      <c r="G1077" s="17">
-        <v>3</v>
-      </c>
-      <c r="H1077" s="17">
-        <v>0</v>
-      </c>
-      <c r="I1077" s="17">
-        <v>12</v>
-      </c>
-      <c r="J1077" s="17">
-        <v>4</v>
-      </c>
-      <c r="K1077" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1077" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1077" s="17">
-        <v>18</v>
-      </c>
-      <c r="N1077" s="17">
-        <v>186</v>
-      </c>
-      <c r="O1077" s="16"/>
-    </row>
-    <row r="1078" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1078" s="16"/>
-      <c r="D1078" s="16"/>
-      <c r="E1078" s="16"/>
-      <c r="F1078" s="16"/>
-      <c r="G1078" s="16"/>
-      <c r="H1078" s="16"/>
-      <c r="I1078" s="16"/>
-      <c r="J1078" s="16"/>
-      <c r="K1078" s="16"/>
-      <c r="L1078" s="16"/>
-      <c r="M1078" s="16"/>
-      <c r="N1078" s="16"/>
-      <c r="O1078" s="16"/>
-    </row>
-    <row r="1079" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1079" s="16"/>
-      <c r="D1079" s="16"/>
-      <c r="E1079" s="16"/>
-      <c r="F1079" s="16"/>
-      <c r="G1079" s="16"/>
-      <c r="H1079" s="16"/>
-      <c r="I1079" s="16"/>
-      <c r="J1079" s="16"/>
-      <c r="K1079" s="16"/>
-      <c r="L1079" s="16"/>
-      <c r="M1079" s="16"/>
-      <c r="N1079" s="16"/>
-      <c r="O1079" s="16"/>
-    </row>
-    <row r="1080" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1080" s="17">
-        <v>0</v>
-      </c>
-      <c r="D1080" s="17">
-        <v>0</v>
-      </c>
-      <c r="E1080" s="17">
-        <v>0</v>
-      </c>
-      <c r="F1080" s="17">
-        <v>3</v>
-      </c>
-      <c r="G1080" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1080" s="17">
-        <v>4</v>
-      </c>
-      <c r="I1080" s="17">
-        <v>9</v>
-      </c>
-      <c r="J1080" s="17">
-        <v>3</v>
-      </c>
-      <c r="K1080" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1080" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1080" s="17">
-        <v>28</v>
-      </c>
-      <c r="N1080" s="16"/>
-      <c r="O1080" s="16"/>
-    </row>
-    <row r="1081" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1081" s="17">
-        <v>3</v>
-      </c>
-      <c r="D1081" s="16"/>
-      <c r="E1081" s="16"/>
-      <c r="F1081" s="17">
-        <v>2</v>
-      </c>
-      <c r="G1081" s="16"/>
-      <c r="H1081" s="17">
-        <v>3</v>
-      </c>
-      <c r="I1081" s="17">
-        <v>8</v>
-      </c>
-      <c r="J1081" s="17">
-        <v>3</v>
-      </c>
-      <c r="K1081" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1081" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1081" s="17">
-        <v>21</v>
-      </c>
-      <c r="N1081" s="17">
-        <v>178</v>
-      </c>
-      <c r="O1081" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1082" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1082" s="16"/>
-      <c r="D1082" s="16"/>
-      <c r="E1082" s="16"/>
-      <c r="F1082" s="16"/>
-      <c r="G1082" s="16"/>
-      <c r="H1082" s="16"/>
-      <c r="I1082" s="16"/>
-      <c r="J1082" s="16"/>
-      <c r="K1082" s="16"/>
-      <c r="L1082" s="16"/>
-      <c r="M1082" s="16"/>
-      <c r="N1082" s="16"/>
-      <c r="O1082" s="16"/>
-    </row>
-    <row r="1083" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1083" s="17">
-        <v>2</v>
-      </c>
-      <c r="D1083" s="17">
-        <v>1</v>
-      </c>
-      <c r="E1083" s="17">
-        <v>2</v>
-      </c>
-      <c r="F1083" s="17">
-        <v>3</v>
-      </c>
-      <c r="G1083" s="17">
-        <v>1</v>
-      </c>
-      <c r="H1083" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1083" s="17">
-        <v>10</v>
-      </c>
-      <c r="J1083" s="17">
-        <v>6</v>
-      </c>
-      <c r="K1083" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1083" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1083" s="17">
-        <v>22</v>
-      </c>
-      <c r="N1083" s="17">
-        <v>176</v>
-      </c>
-      <c r="O1083" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1084" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1084" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1084" s="16"/>
-      <c r="E1084" s="17">
-        <v>2</v>
-      </c>
-      <c r="F1084" s="17">
-        <v>2</v>
-      </c>
-      <c r="G1084" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1084" s="17">
-        <v>2</v>
-      </c>
-      <c r="I1084" s="17">
-        <v>9</v>
-      </c>
-      <c r="J1084" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1084" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1084" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1084" s="17">
-        <v>24</v>
-      </c>
-      <c r="N1084" s="17">
-        <v>170</v>
-      </c>
-      <c r="O1084" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1085" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1085" s="16"/>
-      <c r="D1085" s="16"/>
-      <c r="E1085" s="16"/>
-      <c r="F1085" s="16"/>
-      <c r="G1085" s="16"/>
-      <c r="H1085" s="16"/>
-      <c r="I1085" s="16"/>
-      <c r="J1085" s="16"/>
-      <c r="K1085" s="16"/>
-      <c r="L1085" s="16"/>
-      <c r="M1085" s="16"/>
-      <c r="N1085" s="16"/>
-      <c r="O1085" s="16"/>
-    </row>
-    <row r="1086" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1086" s="16"/>
-      <c r="D1086" s="16"/>
-      <c r="E1086" s="16"/>
-      <c r="F1086" s="16"/>
-      <c r="G1086" s="16"/>
-      <c r="H1086" s="16"/>
-      <c r="I1086" s="16"/>
-      <c r="J1086" s="16"/>
-      <c r="K1086" s="16"/>
-      <c r="L1086" s="16"/>
-      <c r="M1086" s="16"/>
-      <c r="N1086" s="16"/>
-      <c r="O1086" s="16"/>
-    </row>
-    <row r="1087" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1087" s="16"/>
-      <c r="D1087" s="16"/>
-      <c r="E1087" s="16"/>
-      <c r="F1087" s="16"/>
-      <c r="G1087" s="16"/>
-      <c r="H1087" s="16"/>
-      <c r="I1087" s="16"/>
-      <c r="J1087" s="16"/>
-      <c r="K1087" s="16"/>
-      <c r="L1087" s="16"/>
-      <c r="M1087" s="16"/>
-      <c r="N1087" s="16"/>
-      <c r="O1087" s="16"/>
-    </row>
-    <row r="1088" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1088" s="16"/>
-      <c r="D1088" s="16"/>
-      <c r="E1088" s="16"/>
-      <c r="F1088" s="16"/>
-      <c r="G1088" s="16"/>
-      <c r="H1088" s="16"/>
-      <c r="I1088" s="16"/>
-      <c r="J1088" s="16"/>
-      <c r="K1088" s="16"/>
-      <c r="L1088" s="16"/>
-      <c r="M1088" s="16"/>
-      <c r="N1088" s="16"/>
-      <c r="O1088" s="16"/>
-    </row>
-    <row r="1089" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1089" s="16"/>
-      <c r="D1089" s="16"/>
-      <c r="E1089" s="16"/>
-      <c r="F1089" s="16"/>
-      <c r="G1089" s="16"/>
-      <c r="H1089" s="16"/>
-      <c r="I1089" s="16"/>
-      <c r="J1089" s="16"/>
-      <c r="K1089" s="16"/>
-      <c r="L1089" s="16"/>
-      <c r="M1089" s="16"/>
-      <c r="N1089" s="16"/>
-      <c r="O1089" s="16"/>
-    </row>
-    <row r="1090" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1090" s="16"/>
-      <c r="D1090" s="16"/>
-      <c r="E1090" s="16"/>
-      <c r="F1090" s="16"/>
-      <c r="G1090" s="16"/>
-      <c r="H1090" s="16"/>
-      <c r="I1090" s="16"/>
-      <c r="J1090" s="16"/>
-      <c r="K1090" s="16"/>
-      <c r="L1090" s="16"/>
-      <c r="M1090" s="16"/>
-      <c r="N1090" s="16"/>
-      <c r="O1090" s="16"/>
-    </row>
-    <row r="1091" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1091" s="16"/>
-      <c r="D1091" s="16"/>
-      <c r="E1091" s="16"/>
-      <c r="F1091" s="16"/>
-      <c r="G1091" s="16"/>
-      <c r="H1091" s="16"/>
-      <c r="I1091" s="16"/>
-      <c r="J1091" s="16"/>
-      <c r="K1091" s="16"/>
-      <c r="L1091" s="16"/>
-      <c r="M1091" s="16"/>
-      <c r="N1091" s="16"/>
-      <c r="O1091" s="16"/>
-    </row>
-    <row r="1092" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1092" s="16"/>
-      <c r="D1092" s="16"/>
-      <c r="E1092" s="16"/>
-      <c r="F1092" s="16"/>
-      <c r="G1092" s="16"/>
-      <c r="H1092" s="16"/>
-      <c r="I1092" s="16"/>
-      <c r="J1092" s="16"/>
-      <c r="K1092" s="16"/>
-      <c r="L1092" s="16"/>
-      <c r="M1092" s="16"/>
-      <c r="N1092" s="16"/>
-      <c r="O1092" s="16"/>
-    </row>
-    <row r="1093" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1093" s="16"/>
-      <c r="D1093" s="16"/>
-      <c r="E1093" s="16"/>
-      <c r="F1093" s="16"/>
-      <c r="G1093" s="16"/>
-      <c r="H1093" s="16"/>
-      <c r="I1093" s="16"/>
-      <c r="J1093" s="16"/>
-      <c r="K1093" s="16"/>
-      <c r="L1093" s="16"/>
-      <c r="M1093" s="16"/>
-      <c r="N1093" s="16"/>
-      <c r="O1093" s="16"/>
-    </row>
-    <row r="1094" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1094" s="16"/>
-      <c r="D1094" s="16"/>
-      <c r="E1094" s="16"/>
-      <c r="F1094" s="16"/>
-      <c r="G1094" s="16"/>
-      <c r="H1094" s="16"/>
-      <c r="I1094" s="16"/>
-      <c r="J1094" s="16"/>
-      <c r="K1094" s="16"/>
-      <c r="L1094" s="16"/>
-      <c r="M1094" s="16"/>
-      <c r="N1094" s="16"/>
-      <c r="O1094" s="16"/>
-    </row>
-    <row r="1095" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1095" s="16"/>
-      <c r="D1095" s="16"/>
-      <c r="E1095" s="16"/>
-      <c r="F1095" s="16"/>
-      <c r="G1095" s="16"/>
-      <c r="H1095" s="16"/>
-      <c r="I1095" s="16"/>
-      <c r="J1095" s="16"/>
-      <c r="K1095" s="16"/>
-      <c r="L1095" s="16"/>
-      <c r="M1095" s="16"/>
-      <c r="N1095" s="16"/>
-      <c r="O1095" s="16"/>
-    </row>
-    <row r="1096" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1096" s="16"/>
-      <c r="D1096" s="16"/>
-      <c r="E1096" s="16"/>
-      <c r="F1096" s="16"/>
-      <c r="G1096" s="16"/>
-      <c r="H1096" s="16"/>
-      <c r="I1096" s="16"/>
-      <c r="J1096" s="16"/>
-      <c r="K1096" s="16"/>
-      <c r="L1096" s="16"/>
-      <c r="M1096" s="16"/>
-      <c r="N1096" s="16"/>
-      <c r="O1096" s="16"/>
-    </row>
-    <row r="1097" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1097" s="16"/>
-      <c r="D1097" s="16"/>
-      <c r="E1097" s="16"/>
-      <c r="F1097" s="16"/>
-      <c r="G1097" s="16"/>
-      <c r="H1097" s="16"/>
-      <c r="I1097" s="16"/>
-      <c r="J1097" s="16"/>
-      <c r="K1097" s="16"/>
-      <c r="L1097" s="16"/>
-      <c r="M1097" s="16"/>
-      <c r="N1097" s="16"/>
-      <c r="O1097" s="16"/>
-    </row>
-    <row r="1098" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1098" s="16"/>
-      <c r="D1098" s="16"/>
-      <c r="E1098" s="16"/>
-      <c r="F1098" s="16"/>
-      <c r="G1098" s="16"/>
-      <c r="H1098" s="16"/>
-      <c r="I1098" s="16"/>
-      <c r="J1098" s="16"/>
-      <c r="K1098" s="16"/>
-      <c r="L1098" s="16"/>
-      <c r="M1098" s="16"/>
-      <c r="N1098" s="16"/>
-      <c r="O1098" s="16"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/gummibears.xlsx
+++ b/data/gummibears.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\jkruppa.github.io\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C965BD3C-8A41-4036-BDEE-C2CDE443A806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC746220-4B75-5443-BE23-AB505042158B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6588" yWindow="1920" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6580" yWindow="1920" windowWidth="28200" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2981" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="29">
   <si>
     <t>m</t>
   </si>
@@ -120,102 +120,6 @@
   <si>
     <t>PhD Osnabrück</t>
   </si>
-  <si>
-    <t>Weiß</t>
-  </si>
-  <si>
-    <t>Männlich</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>Darkred</t>
-  </si>
-  <si>
-    <t>Weiblich</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>Dunkelrot</t>
-  </si>
-  <si>
-    <t>weiblich</t>
-  </si>
-  <si>
-    <t>weiß</t>
-  </si>
-  <si>
-    <t>männlich</t>
-  </si>
-  <si>
-    <t>grün</t>
-  </si>
-  <si>
-    <t>Rot</t>
-  </si>
-  <si>
-    <t>Grün</t>
-  </si>
-  <si>
-    <t>gelb</t>
-  </si>
-  <si>
-    <t>rot</t>
-  </si>
-  <si>
-    <t>Gelb</t>
-  </si>
-  <si>
-    <t>weiß/ grün</t>
-  </si>
-  <si>
-    <t>alle</t>
-  </si>
-  <si>
-    <t>Mänlich</t>
-  </si>
-  <si>
-    <t>dunkelrot</t>
-  </si>
-  <si>
-    <t>mänlich</t>
-  </si>
-  <si>
-    <t>1,70cm</t>
-  </si>
-  <si>
-    <t>160cm</t>
-  </si>
-  <si>
-    <t>1,83cm</t>
-  </si>
-  <si>
-    <t>165cm</t>
-  </si>
-  <si>
-    <t>163cm</t>
-  </si>
-  <si>
-    <t>180cm</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>200cm</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>179cm</t>
-  </si>
 </sst>
 </file>
 
@@ -279,7 +183,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,32 +202,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9900FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4A86E8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -346,41 +226,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -409,42 +259,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -827,27 +641,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q1050"/>
+  <dimension ref="A1:Q1033"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1018" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A961" sqref="A961:A1036"/>
+      <pane ySplit="1" topLeftCell="A1009" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O962" sqref="O962"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -1801,7 +1615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13.2">
+    <row r="21" spans="1:15" ht="13">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -1849,7 +1663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="13.2">
+    <row r="22" spans="1:15" ht="13">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -1897,7 +1711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="13.2">
+    <row r="23" spans="1:15" ht="13">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -1945,7 +1759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="13.2">
+    <row r="24" spans="1:15" ht="13">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -1993,7 +1807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13.2">
+    <row r="25" spans="1:15" ht="13">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -2041,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="13.2">
+    <row r="26" spans="1:15" ht="13">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -2089,7 +1903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="13.2">
+    <row r="27" spans="1:15" ht="13">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -2137,7 +1951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="13.2">
+    <row r="28" spans="1:15" ht="13">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -2185,7 +1999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="13.2">
+    <row r="29" spans="1:15" ht="13">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -2233,7 +2047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="13.2">
+    <row r="30" spans="1:15" ht="13">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -2269,7 +2083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="13.2">
+    <row r="31" spans="1:15" ht="13">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -2317,7 +2131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="13.2">
+    <row r="32" spans="1:15" ht="13">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -2365,7 +2179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="13.2">
+    <row r="33" spans="1:15" ht="13">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -2413,7 +2227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="13.2">
+    <row r="34" spans="1:15" ht="13">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -2461,7 +2275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="13.2">
+    <row r="35" spans="1:15" ht="13">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -2509,7 +2323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="13.2">
+    <row r="36" spans="1:15" ht="13">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -2557,7 +2371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="13.2">
+    <row r="37" spans="1:15" ht="13">
       <c r="A37">
         <v>2018</v>
       </c>
@@ -2605,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="13.2">
+    <row r="38" spans="1:15" ht="13">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -2653,7 +2467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="13.2">
+    <row r="39" spans="1:15" ht="13">
       <c r="A39">
         <v>2018</v>
       </c>
@@ -2701,7 +2515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13.2">
+    <row r="40" spans="1:15" ht="13">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -2737,7 +2551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="13.2">
+    <row r="41" spans="1:15" ht="13">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -2785,7 +2599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="13.2">
+    <row r="42" spans="1:15" ht="13">
       <c r="A42">
         <v>2018</v>
       </c>
@@ -2833,7 +2647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="13.2">
+    <row r="43" spans="1:15" ht="13">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -2881,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="13.2">
+    <row r="44" spans="1:15" ht="13">
       <c r="A44">
         <v>2018</v>
       </c>
@@ -2929,7 +2743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="13.2">
+    <row r="45" spans="1:15" ht="13">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -2977,7 +2791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="13.2">
+    <row r="46" spans="1:15" ht="13">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -3025,7 +2839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="13.2">
+    <row r="47" spans="1:15" ht="13">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -3073,7 +2887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13.2">
+    <row r="48" spans="1:15" ht="13">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -3121,7 +2935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="13.2">
+    <row r="49" spans="1:15" ht="13">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -3169,7 +2983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="13.2">
+    <row r="50" spans="1:15" ht="13">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -3217,7 +3031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="13.2">
+    <row r="51" spans="1:15" ht="13">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -3265,7 +3079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="13.2">
+    <row r="52" spans="1:15" ht="13">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -3310,7 +3124,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="13.2">
+    <row r="53" spans="1:15" ht="13">
       <c r="A53">
         <v>2018</v>
       </c>
@@ -3358,7 +3172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="13.2">
+    <row r="54" spans="1:15" ht="13">
       <c r="A54">
         <v>2018</v>
       </c>
@@ -3406,7 +3220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="13.2">
+    <row r="55" spans="1:15" ht="13">
       <c r="A55">
         <v>2018</v>
       </c>
@@ -3454,7 +3268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="13.2">
+    <row r="56" spans="1:15" ht="13">
       <c r="A56">
         <v>2018</v>
       </c>
@@ -3490,7 +3304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13.2">
+    <row r="57" spans="1:15" ht="13">
       <c r="A57">
         <v>2018</v>
       </c>
@@ -3538,7 +3352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="13.2">
+    <row r="58" spans="1:15" ht="13">
       <c r="A58">
         <v>2018</v>
       </c>
@@ -3586,7 +3400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="13.2">
+    <row r="59" spans="1:15" ht="13">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -3634,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="13.2">
+    <row r="60" spans="1:15" ht="13">
       <c r="A60">
         <v>2018</v>
       </c>
@@ -3682,7 +3496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="13.2">
+    <row r="61" spans="1:15" ht="13">
       <c r="A61">
         <v>2018</v>
       </c>
@@ -3730,7 +3544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="13.2">
+    <row r="62" spans="1:15" ht="13">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -3775,7 +3589,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13.2">
+    <row r="63" spans="1:15" ht="13">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -3823,7 +3637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="13.2">
+    <row r="64" spans="1:15" ht="13">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -3871,7 +3685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="13.2">
+    <row r="65" spans="1:15" ht="13">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -3919,7 +3733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="13.2">
+    <row r="66" spans="1:15" ht="13">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3967,7 +3781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="13.2">
+    <row r="67" spans="1:15" ht="13">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -4015,7 +3829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="13.2">
+    <row r="68" spans="1:15" ht="13">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -4052,7 +3866,7 @@
       </c>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="13.2">
+    <row r="69" spans="1:15" ht="13">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -4100,7 +3914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="13.2">
+    <row r="70" spans="1:15" ht="13">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -4148,7 +3962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="13.2">
+    <row r="71" spans="1:15" ht="13">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -4196,7 +4010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="13.2">
+    <row r="72" spans="1:15" ht="13">
       <c r="A72">
         <v>2018</v>
       </c>
@@ -4232,7 +4046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="13.2">
+    <row r="73" spans="1:15" ht="13">
       <c r="A73">
         <v>2018</v>
       </c>
@@ -4280,7 +4094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="13.2">
+    <row r="74" spans="1:15" ht="13">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -4328,7 +4142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="13.2">
+    <row r="75" spans="1:15" ht="13">
       <c r="A75">
         <v>2018</v>
       </c>
@@ -4424,7 +4238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="13.2">
+    <row r="77" spans="1:15" ht="14">
       <c r="A77">
         <v>2018</v>
       </c>
@@ -4760,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="13.2">
+    <row r="84" spans="1:15" ht="14">
       <c r="A84">
         <v>2018</v>
       </c>
@@ -44812,7 +44626,7 @@
       <c r="A956" s="6">
         <v>2025</v>
       </c>
-      <c r="B956" s="6" t="s">
+      <c r="B956" t="s">
         <v>24</v>
       </c>
       <c r="C956">
@@ -44842,7 +44656,7 @@
       <c r="K956" t="s">
         <v>3</v>
       </c>
-      <c r="L956" s="6" t="s">
+      <c r="L956" t="s">
         <v>0</v>
       </c>
       <c r="M956">
@@ -44850,13 +44664,16 @@
       </c>
       <c r="N956">
         <v>178</v>
+      </c>
+      <c r="O956">
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:15" ht="15.75" customHeight="1">
       <c r="A957" s="6">
         <v>2025</v>
       </c>
-      <c r="B957" s="6" t="s">
+      <c r="B957" t="s">
         <v>24</v>
       </c>
       <c r="C957">
@@ -44886,7 +44703,7 @@
       <c r="K957" t="s">
         <v>3</v>
       </c>
-      <c r="L957" s="6" t="s">
+      <c r="L957" t="s">
         <v>0</v>
       </c>
       <c r="M957">
@@ -44903,7 +44720,7 @@
       <c r="A958" s="6">
         <v>2025</v>
       </c>
-      <c r="B958" s="6" t="s">
+      <c r="B958" t="s">
         <v>24</v>
       </c>
       <c r="C958">
@@ -44930,10 +44747,10 @@
       <c r="J958">
         <v>5</v>
       </c>
-      <c r="K958" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L958" s="6" t="s">
+      <c r="K958" t="s">
+        <v>4</v>
+      </c>
+      <c r="L958" t="s">
         <v>0</v>
       </c>
       <c r="M958">
@@ -44950,7 +44767,7 @@
       <c r="A959" s="6">
         <v>2025</v>
       </c>
-      <c r="B959" s="6" t="s">
+      <c r="B959" t="s">
         <v>24</v>
       </c>
       <c r="C959">
@@ -44980,7 +44797,7 @@
       <c r="K959" t="s">
         <v>2</v>
       </c>
-      <c r="L959" s="6" t="s">
+      <c r="L959" t="s">
         <v>0</v>
       </c>
       <c r="M959">
@@ -44997,7 +44814,7 @@
       <c r="A960" s="6">
         <v>2025</v>
       </c>
-      <c r="B960" s="6" t="s">
+      <c r="B960" t="s">
         <v>24</v>
       </c>
       <c r="C960">
@@ -45027,7 +44844,7 @@
       <c r="K960" t="s">
         <v>3</v>
       </c>
-      <c r="L960" s="6" t="s">
+      <c r="L960" t="s">
         <v>1</v>
       </c>
       <c r="M960">
@@ -45040,11 +44857,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+    <row r="961" spans="1:15" ht="15.75" customHeight="1">
       <c r="A961" s="6">
         <v>2025</v>
       </c>
-      <c r="B961" s="6" t="s">
+      <c r="B961" t="s">
         <v>23</v>
       </c>
       <c r="C961">
@@ -45074,3554 +44891,3321 @@
       <c r="K961" t="s">
         <v>4</v>
       </c>
-      <c r="L961" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M961" s="6">
+      <c r="L961" t="s">
+        <v>0</v>
+      </c>
+      <c r="M961">
         <v>61</v>
       </c>
-      <c r="N961" s="6">
+      <c r="N961">
         <v>179</v>
       </c>
-    </row>
-    <row r="962" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="O961">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="962" spans="1:15" ht="15.75" customHeight="1">
       <c r="A962" s="6">
         <v>2025</v>
       </c>
-      <c r="B962" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C962" s="14">
-        <v>0</v>
-      </c>
-      <c r="D962" s="14">
-        <v>1</v>
-      </c>
-      <c r="E962" s="14">
-        <v>1</v>
-      </c>
-      <c r="F962" s="14">
-        <v>2</v>
-      </c>
-      <c r="G962" s="14">
-        <v>1</v>
-      </c>
-      <c r="H962" s="14">
-        <v>4</v>
-      </c>
-      <c r="I962" s="14">
+      <c r="B962" t="s">
+        <v>23</v>
+      </c>
+      <c r="C962">
+        <v>0</v>
+      </c>
+      <c r="D962">
+        <v>1</v>
+      </c>
+      <c r="E962">
+        <v>1</v>
+      </c>
+      <c r="F962">
+        <v>2</v>
+      </c>
+      <c r="G962">
+        <v>1</v>
+      </c>
+      <c r="H962">
+        <v>4</v>
+      </c>
+      <c r="I962">
         <v>9</v>
       </c>
-      <c r="J962" s="14">
-        <v>5</v>
-      </c>
-      <c r="K962" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L962" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="M962" s="14">
+      <c r="J962">
+        <v>5</v>
+      </c>
+      <c r="K962" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L962" t="s">
+        <v>0</v>
+      </c>
+      <c r="M962">
         <v>20</v>
       </c>
-      <c r="N962" s="14">
+      <c r="N962">
         <v>190</v>
       </c>
-      <c r="O962" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="963" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="O962">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="963" spans="1:15" ht="15.75" customHeight="1">
       <c r="A963" s="6">
         <v>2025</v>
       </c>
-      <c r="B963" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C963" s="17">
-        <v>2</v>
-      </c>
-      <c r="D963" s="17">
-        <v>4</v>
-      </c>
-      <c r="E963" s="17">
-        <v>1</v>
-      </c>
-      <c r="F963" s="17">
-        <v>3</v>
-      </c>
-      <c r="G963" s="17">
-        <v>4</v>
-      </c>
-      <c r="H963" s="17">
-        <v>1</v>
-      </c>
-      <c r="I963" s="17">
+      <c r="B963" t="s">
+        <v>23</v>
+      </c>
+      <c r="C963">
+        <v>2</v>
+      </c>
+      <c r="D963">
+        <v>4</v>
+      </c>
+      <c r="E963">
+        <v>1</v>
+      </c>
+      <c r="F963">
+        <v>3</v>
+      </c>
+      <c r="G963">
+        <v>4</v>
+      </c>
+      <c r="H963">
+        <v>1</v>
+      </c>
+      <c r="I963">
         <v>15</v>
       </c>
-      <c r="J963" s="17">
+      <c r="J963">
         <v>6</v>
       </c>
-      <c r="K963" s="16"/>
-      <c r="L963" s="16"/>
-      <c r="M963" s="16"/>
-      <c r="N963" s="16"/>
-      <c r="O963" s="16"/>
-    </row>
-    <row r="964" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+    </row>
+    <row r="964" spans="1:15" ht="15.75" customHeight="1">
       <c r="A964" s="6">
         <v>2025</v>
       </c>
-      <c r="B964" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C964" s="17">
-        <v>2</v>
-      </c>
-      <c r="D964" s="17">
-        <v>0</v>
-      </c>
-      <c r="E964" s="17">
-        <v>2</v>
-      </c>
-      <c r="F964" s="17">
-        <v>4</v>
-      </c>
-      <c r="G964" s="17">
-        <v>1</v>
-      </c>
-      <c r="H964" s="17">
-        <v>1</v>
-      </c>
-      <c r="I964" s="17">
+      <c r="B964" t="s">
+        <v>23</v>
+      </c>
+      <c r="C964">
+        <v>2</v>
+      </c>
+      <c r="D964">
+        <v>0</v>
+      </c>
+      <c r="E964">
+        <v>2</v>
+      </c>
+      <c r="F964">
+        <v>4</v>
+      </c>
+      <c r="G964">
+        <v>1</v>
+      </c>
+      <c r="H964">
+        <v>1</v>
+      </c>
+      <c r="I964">
         <v>10</v>
       </c>
-      <c r="J964" s="17">
-        <v>5</v>
-      </c>
-      <c r="K964" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L964" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M964" s="17">
+      <c r="J964">
+        <v>5</v>
+      </c>
+      <c r="K964" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L964" t="s">
+        <v>1</v>
+      </c>
+      <c r="M964">
         <v>20</v>
       </c>
-      <c r="N964" s="17">
+      <c r="N964">
         <v>160</v>
       </c>
-      <c r="O964" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="965" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="O964">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="965" spans="1:15" ht="15.75" customHeight="1">
       <c r="A965" s="6">
         <v>2025</v>
       </c>
-      <c r="B965" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C965" s="17">
-        <v>1</v>
-      </c>
-      <c r="D965" s="17">
-        <v>1</v>
-      </c>
-      <c r="E965" s="17">
-        <v>4</v>
-      </c>
-      <c r="F965" s="17">
-        <v>3</v>
-      </c>
-      <c r="G965" s="17">
-        <v>2</v>
-      </c>
-      <c r="H965" s="17">
-        <v>2</v>
-      </c>
-      <c r="I965" s="17">
+      <c r="B965" t="s">
+        <v>23</v>
+      </c>
+      <c r="C965">
+        <v>1</v>
+      </c>
+      <c r="D965">
+        <v>1</v>
+      </c>
+      <c r="E965">
+        <v>4</v>
+      </c>
+      <c r="F965">
+        <v>3</v>
+      </c>
+      <c r="G965">
+        <v>2</v>
+      </c>
+      <c r="H965">
+        <v>2</v>
+      </c>
+      <c r="I965">
         <v>11</v>
       </c>
-      <c r="J965" s="17">
+      <c r="J965">
         <v>6</v>
       </c>
-      <c r="K965" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L965" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M965" s="17">
+      <c r="K965" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L965" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M965">
         <v>22</v>
       </c>
-      <c r="N965" s="17">
+      <c r="N965">
         <v>168</v>
       </c>
-      <c r="O965" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="966" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="O965">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966" spans="1:15" ht="15.75" customHeight="1">
       <c r="A966" s="6">
         <v>2025</v>
       </c>
-      <c r="B966" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C966" s="16"/>
-      <c r="D966" s="17">
-        <v>1</v>
-      </c>
-      <c r="E966" s="17">
-        <v>2</v>
-      </c>
-      <c r="F966" s="17">
-        <v>4</v>
-      </c>
-      <c r="G966" s="16"/>
-      <c r="H966" s="17">
-        <v>1</v>
-      </c>
-      <c r="I966" s="17">
+      <c r="B966" t="s">
+        <v>23</v>
+      </c>
+      <c r="C966">
+        <v>0</v>
+      </c>
+      <c r="D966">
+        <v>1</v>
+      </c>
+      <c r="E966">
+        <v>2</v>
+      </c>
+      <c r="F966">
+        <v>4</v>
+      </c>
+      <c r="G966">
+        <v>0</v>
+      </c>
+      <c r="H966">
+        <v>1</v>
+      </c>
+      <c r="I966">
         <v>8</v>
       </c>
-      <c r="J966" s="17">
-        <v>4</v>
-      </c>
-      <c r="K966" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="L966" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="M966" s="17">
+      <c r="J966">
+        <v>4</v>
+      </c>
+      <c r="K966" t="s">
+        <v>4</v>
+      </c>
+      <c r="L966" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M966">
         <v>22</v>
       </c>
-      <c r="N966" s="17">
+      <c r="N966">
         <v>195</v>
       </c>
-      <c r="O966" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="967" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="O966">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="967" spans="1:15" ht="15.75" customHeight="1">
       <c r="A967" s="6">
         <v>2025</v>
       </c>
-      <c r="B967" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C967" s="17">
-        <v>3</v>
-      </c>
-      <c r="D967" s="17">
-        <v>0</v>
-      </c>
-      <c r="E967" s="17">
-        <v>1</v>
-      </c>
-      <c r="F967" s="17">
-        <v>3</v>
-      </c>
-      <c r="G967" s="17">
-        <v>1</v>
-      </c>
-      <c r="H967" s="17">
-        <v>2</v>
-      </c>
-      <c r="I967" s="17">
+      <c r="B967" t="s">
+        <v>23</v>
+      </c>
+      <c r="C967">
+        <v>3</v>
+      </c>
+      <c r="D967">
+        <v>0</v>
+      </c>
+      <c r="E967">
+        <v>1</v>
+      </c>
+      <c r="F967">
+        <v>3</v>
+      </c>
+      <c r="G967">
+        <v>1</v>
+      </c>
+      <c r="H967">
+        <v>2</v>
+      </c>
+      <c r="I967">
         <v>10</v>
       </c>
-      <c r="J967" s="17">
-        <v>5</v>
-      </c>
-      <c r="K967" s="16"/>
-      <c r="L967" s="16"/>
-      <c r="M967" s="16"/>
-      <c r="N967" s="16"/>
-      <c r="O967" s="16"/>
-    </row>
-    <row r="968" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="J967">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="968" spans="1:15" ht="15.75" customHeight="1">
       <c r="A968" s="6">
         <v>2025</v>
       </c>
-      <c r="B968" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C968" s="17">
-        <v>0</v>
-      </c>
-      <c r="D968" s="17">
-        <v>3</v>
-      </c>
-      <c r="E968" s="17">
-        <v>0</v>
-      </c>
-      <c r="F968" s="17">
-        <v>0</v>
-      </c>
-      <c r="G968" s="17">
-        <v>4</v>
-      </c>
-      <c r="H968" s="17">
-        <v>2</v>
-      </c>
-      <c r="I968" s="17">
+      <c r="B968" t="s">
+        <v>23</v>
+      </c>
+      <c r="C968">
+        <v>0</v>
+      </c>
+      <c r="D968">
+        <v>3</v>
+      </c>
+      <c r="E968">
+        <v>0</v>
+      </c>
+      <c r="F968">
+        <v>0</v>
+      </c>
+      <c r="G968">
+        <v>4</v>
+      </c>
+      <c r="H968">
+        <v>2</v>
+      </c>
+      <c r="I968">
         <v>9</v>
       </c>
-      <c r="J968" s="17">
-        <v>3</v>
-      </c>
-      <c r="K968" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L968" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M968" s="17">
+      <c r="J968">
+        <v>3</v>
+      </c>
+      <c r="K968" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L968" t="s">
+        <v>1</v>
+      </c>
+      <c r="M968">
         <v>20</v>
       </c>
-      <c r="N968" s="17">
+      <c r="N968">
         <v>170</v>
       </c>
-      <c r="O968" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="969" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="O968">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969" spans="1:15" ht="15.75" customHeight="1">
       <c r="A969" s="6">
         <v>2025</v>
       </c>
-      <c r="B969" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C969" s="17">
-        <v>0</v>
-      </c>
-      <c r="D969" s="17">
-        <v>1</v>
-      </c>
-      <c r="E969" s="17">
-        <v>4</v>
-      </c>
-      <c r="F969" s="17">
-        <v>2</v>
-      </c>
-      <c r="G969" s="17">
-        <v>1</v>
-      </c>
-      <c r="H969" s="17">
-        <v>1</v>
-      </c>
-      <c r="I969" s="17">
+      <c r="B969" t="s">
+        <v>23</v>
+      </c>
+      <c r="C969">
+        <v>0</v>
+      </c>
+      <c r="D969">
+        <v>1</v>
+      </c>
+      <c r="E969">
+        <v>4</v>
+      </c>
+      <c r="F969">
+        <v>2</v>
+      </c>
+      <c r="G969">
+        <v>1</v>
+      </c>
+      <c r="H969">
+        <v>1</v>
+      </c>
+      <c r="I969">
         <v>9</v>
       </c>
-      <c r="J969" s="17">
-        <v>5</v>
-      </c>
-      <c r="K969" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="L969" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M969" s="17">
+      <c r="J969">
+        <v>5</v>
+      </c>
+      <c r="K969" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L969" t="s">
+        <v>1</v>
+      </c>
+      <c r="M969">
         <v>21</v>
       </c>
-      <c r="N969" s="17">
-        <v>1.67</v>
-      </c>
-      <c r="O969" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="970" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N969">
+        <v>167</v>
+      </c>
+      <c r="O969">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="970" spans="1:15" ht="15.75" customHeight="1">
       <c r="A970" s="6">
         <v>2025</v>
       </c>
-      <c r="B970" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C970" s="17">
-        <v>2</v>
-      </c>
-      <c r="D970" s="17">
-        <v>3</v>
-      </c>
-      <c r="E970" s="17">
-        <v>2</v>
-      </c>
-      <c r="F970" s="17">
-        <v>3</v>
-      </c>
-      <c r="G970" s="17">
-        <v>1</v>
-      </c>
-      <c r="H970" s="17">
-        <v>2</v>
-      </c>
-      <c r="I970" s="17">
+      <c r="B970" t="s">
+        <v>23</v>
+      </c>
+      <c r="C970">
+        <v>2</v>
+      </c>
+      <c r="D970">
+        <v>3</v>
+      </c>
+      <c r="E970">
+        <v>2</v>
+      </c>
+      <c r="F970">
+        <v>3</v>
+      </c>
+      <c r="G970">
+        <v>1</v>
+      </c>
+      <c r="H970">
+        <v>2</v>
+      </c>
+      <c r="I970">
         <v>8</v>
       </c>
-      <c r="J970" s="17">
-        <v>4</v>
-      </c>
-      <c r="K970" s="16"/>
-      <c r="L970" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M970" s="16"/>
-      <c r="N970" s="16"/>
-      <c r="O970" s="16"/>
-    </row>
-    <row r="971" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="J970">
+        <v>4</v>
+      </c>
+      <c r="L970" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971" spans="1:15" ht="15.75" customHeight="1">
       <c r="A971" s="6">
         <v>2025</v>
       </c>
-      <c r="B971" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C971" s="17">
-        <v>2</v>
-      </c>
-      <c r="D971" s="17">
-        <v>2</v>
-      </c>
-      <c r="E971" s="17">
-        <v>2</v>
-      </c>
-      <c r="F971" s="17">
-        <v>2</v>
-      </c>
-      <c r="G971" s="17">
-        <v>0</v>
-      </c>
-      <c r="H971" s="17">
-        <v>2</v>
-      </c>
-      <c r="I971" s="17">
+      <c r="B971" t="s">
+        <v>23</v>
+      </c>
+      <c r="C971">
+        <v>2</v>
+      </c>
+      <c r="D971">
+        <v>2</v>
+      </c>
+      <c r="E971">
+        <v>2</v>
+      </c>
+      <c r="F971">
+        <v>2</v>
+      </c>
+      <c r="G971">
+        <v>0</v>
+      </c>
+      <c r="H971">
+        <v>2</v>
+      </c>
+      <c r="I971">
         <v>10</v>
       </c>
-      <c r="J971" s="17">
-        <v>5</v>
-      </c>
-      <c r="K971" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L971" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M971" s="17">
+      <c r="J971">
+        <v>5</v>
+      </c>
+      <c r="K971" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L971" t="s">
+        <v>1</v>
+      </c>
+      <c r="M971">
         <v>24</v>
       </c>
-      <c r="N971" s="17">
-        <v>1.72</v>
-      </c>
-      <c r="O971" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="972" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N971">
+        <v>172</v>
+      </c>
+      <c r="O971">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="972" spans="1:15" ht="15.75" customHeight="1">
       <c r="A972" s="6">
         <v>2025</v>
       </c>
-      <c r="B972" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C972" s="17">
-        <v>3</v>
-      </c>
-      <c r="D972" s="16"/>
-      <c r="E972" s="17">
-        <v>3</v>
-      </c>
-      <c r="F972" s="17">
-        <v>2</v>
-      </c>
-      <c r="G972" s="16"/>
-      <c r="H972" s="16"/>
-      <c r="I972" s="17">
+      <c r="B972" t="s">
+        <v>23</v>
+      </c>
+      <c r="C972">
+        <v>3</v>
+      </c>
+      <c r="D972">
+        <v>0</v>
+      </c>
+      <c r="E972">
+        <v>3</v>
+      </c>
+      <c r="F972">
+        <v>2</v>
+      </c>
+      <c r="G972">
+        <v>0</v>
+      </c>
+      <c r="H972">
+        <v>0</v>
+      </c>
+      <c r="I972">
         <v>8</v>
       </c>
-      <c r="J972" s="16"/>
-      <c r="K972" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="L972" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M972" s="17">
+      <c r="J972">
+        <v>3</v>
+      </c>
+      <c r="K972" t="s">
+        <v>3</v>
+      </c>
+      <c r="L972" t="s">
+        <v>0</v>
+      </c>
+      <c r="M972">
         <v>22</v>
       </c>
-      <c r="N972" s="17">
-        <v>1.87</v>
-      </c>
-      <c r="O972" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="973" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N972">
+        <v>187</v>
+      </c>
+      <c r="O972">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="973" spans="1:15" ht="15.75" customHeight="1">
       <c r="A973" s="6">
         <v>2025</v>
       </c>
-      <c r="B973" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C973" s="17">
-        <v>1</v>
-      </c>
-      <c r="D973" s="16"/>
-      <c r="E973" s="17">
-        <v>2</v>
-      </c>
-      <c r="F973" s="17">
-        <v>3</v>
-      </c>
-      <c r="G973" s="17">
-        <v>1</v>
-      </c>
-      <c r="H973" s="17">
-        <v>2</v>
-      </c>
-      <c r="I973" s="17">
+      <c r="B973" t="s">
+        <v>23</v>
+      </c>
+      <c r="C973">
+        <v>1</v>
+      </c>
+      <c r="D973">
+        <v>0</v>
+      </c>
+      <c r="E973">
+        <v>2</v>
+      </c>
+      <c r="F973">
+        <v>3</v>
+      </c>
+      <c r="G973">
+        <v>1</v>
+      </c>
+      <c r="H973">
+        <v>2</v>
+      </c>
+      <c r="I973">
         <v>9</v>
       </c>
-      <c r="J973" s="17">
-        <v>5</v>
-      </c>
-      <c r="K973" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L973" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M973" s="17">
+      <c r="J973">
+        <v>5</v>
+      </c>
+      <c r="K973" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L973" t="s">
+        <v>0</v>
+      </c>
+      <c r="M973">
         <v>22</v>
       </c>
-      <c r="N973" s="17">
-        <v>1.83</v>
-      </c>
-      <c r="O973" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="974" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N973">
+        <v>183</v>
+      </c>
+      <c r="O973">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="974" spans="1:15" ht="15.75" customHeight="1">
       <c r="A974" s="6">
         <v>2025</v>
       </c>
-      <c r="B974" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C974" s="17">
-        <v>2</v>
-      </c>
-      <c r="D974" s="17">
-        <v>3</v>
-      </c>
-      <c r="E974" s="17">
-        <v>0</v>
-      </c>
-      <c r="F974" s="17">
-        <v>1</v>
-      </c>
-      <c r="G974" s="16"/>
-      <c r="H974" s="17">
-        <v>3</v>
-      </c>
-      <c r="I974" s="17">
+      <c r="B974" t="s">
+        <v>23</v>
+      </c>
+      <c r="C974">
+        <v>2</v>
+      </c>
+      <c r="D974">
+        <v>3</v>
+      </c>
+      <c r="E974">
+        <v>0</v>
+      </c>
+      <c r="F974">
+        <v>1</v>
+      </c>
+      <c r="G974">
+        <v>0</v>
+      </c>
+      <c r="H974">
+        <v>3</v>
+      </c>
+      <c r="I974">
         <v>9</v>
       </c>
-      <c r="J974" s="17">
-        <v>4</v>
-      </c>
-      <c r="K974" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L974" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M974" s="17">
+      <c r="J974">
+        <v>4</v>
+      </c>
+      <c r="K974" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L974" t="s">
+        <v>0</v>
+      </c>
+      <c r="M974">
         <v>21</v>
       </c>
-      <c r="N974" s="17">
-        <v>1.82</v>
-      </c>
-      <c r="O974" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="975" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N974">
+        <v>182</v>
+      </c>
+      <c r="O974">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="975" spans="1:15" ht="15.75" customHeight="1">
       <c r="A975" s="6">
         <v>2025</v>
       </c>
-      <c r="B975" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C975" s="16"/>
-      <c r="D975" s="17">
-        <v>4</v>
-      </c>
-      <c r="E975" s="16"/>
-      <c r="F975" s="16"/>
-      <c r="G975" s="17">
-        <v>2</v>
-      </c>
-      <c r="H975" s="17">
-        <v>5</v>
-      </c>
-      <c r="I975" s="17">
+      <c r="B975" t="s">
+        <v>23</v>
+      </c>
+      <c r="C975">
+        <v>0</v>
+      </c>
+      <c r="D975">
+        <v>4</v>
+      </c>
+      <c r="E975">
+        <v>0</v>
+      </c>
+      <c r="F975">
+        <v>0</v>
+      </c>
+      <c r="G975">
+        <v>2</v>
+      </c>
+      <c r="H975">
+        <v>5</v>
+      </c>
+      <c r="I975">
         <v>11</v>
       </c>
-      <c r="J975" s="17">
-        <v>3</v>
-      </c>
-      <c r="K975" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="L975" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M975" s="17">
+      <c r="J975">
+        <v>3</v>
+      </c>
+      <c r="K975" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L975" t="s">
+        <v>0</v>
+      </c>
+      <c r="M975">
         <v>22</v>
       </c>
-      <c r="N975" s="17">
-        <v>1.83</v>
-      </c>
-      <c r="O975" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="976" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N975">
+        <v>183</v>
+      </c>
+      <c r="O975">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="976" spans="1:15" ht="15.75" customHeight="1">
       <c r="A976" s="6">
         <v>2025</v>
       </c>
-      <c r="B976" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C976" s="17">
-        <v>1</v>
-      </c>
-      <c r="D976" s="17">
-        <v>3</v>
-      </c>
-      <c r="E976" s="17">
-        <v>0</v>
-      </c>
-      <c r="F976" s="17">
-        <v>3</v>
-      </c>
-      <c r="G976" s="17">
-        <v>1</v>
-      </c>
-      <c r="H976" s="17">
-        <v>0</v>
-      </c>
-      <c r="I976" s="17">
+      <c r="B976" t="s">
+        <v>23</v>
+      </c>
+      <c r="C976">
+        <v>1</v>
+      </c>
+      <c r="D976">
+        <v>3</v>
+      </c>
+      <c r="E976">
+        <v>0</v>
+      </c>
+      <c r="F976">
+        <v>3</v>
+      </c>
+      <c r="G976">
+        <v>1</v>
+      </c>
+      <c r="H976">
+        <v>0</v>
+      </c>
+      <c r="I976">
         <v>8</v>
       </c>
-      <c r="J976" s="17">
-        <v>4</v>
-      </c>
-      <c r="K976" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="L976" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M976" s="17">
+      <c r="J976">
+        <v>4</v>
+      </c>
+      <c r="K976" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L976" t="s">
+        <v>1</v>
+      </c>
+      <c r="M976">
         <v>20</v>
       </c>
-      <c r="N976" s="17">
-        <v>1.64</v>
-      </c>
-      <c r="O976" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="977" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N976">
+        <v>164</v>
+      </c>
+      <c r="O976">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="977" spans="1:15" ht="15.75" customHeight="1">
       <c r="A977" s="6">
         <v>2025</v>
       </c>
-      <c r="B977" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C977" s="17">
-        <v>2</v>
-      </c>
-      <c r="D977" s="17">
-        <v>2</v>
-      </c>
-      <c r="E977" s="17">
-        <v>2</v>
-      </c>
-      <c r="F977" s="16"/>
-      <c r="G977" s="17">
-        <v>0</v>
-      </c>
-      <c r="H977" s="17">
-        <v>2</v>
-      </c>
-      <c r="I977" s="17">
+      <c r="B977" t="s">
+        <v>23</v>
+      </c>
+      <c r="C977">
+        <v>2</v>
+      </c>
+      <c r="D977">
+        <v>2</v>
+      </c>
+      <c r="E977">
+        <v>2</v>
+      </c>
+      <c r="F977">
+        <v>0</v>
+      </c>
+      <c r="G977">
+        <v>0</v>
+      </c>
+      <c r="H977">
+        <v>2</v>
+      </c>
+      <c r="I977">
         <v>10</v>
       </c>
-      <c r="J977" s="17">
-        <v>3</v>
-      </c>
-      <c r="K977" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="L977" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M977" s="17">
-        <v>23</v>
-      </c>
-      <c r="N977" s="17">
-        <v>1.75</v>
-      </c>
-      <c r="O977" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="978" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="J977">
+        <v>3</v>
+      </c>
+      <c r="K977" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L977" t="s">
+        <v>0</v>
+      </c>
+      <c r="M977">
+        <v>23</v>
+      </c>
+      <c r="N977">
+        <v>175</v>
+      </c>
+      <c r="O977">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="978" spans="1:15" ht="15.75" customHeight="1">
       <c r="A978" s="6">
         <v>2025</v>
       </c>
-      <c r="B978" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C978" s="16"/>
-      <c r="D978" s="17">
-        <v>1</v>
-      </c>
-      <c r="E978" s="17">
-        <v>2</v>
-      </c>
-      <c r="F978" s="16"/>
-      <c r="G978" s="17">
-        <v>2</v>
-      </c>
-      <c r="H978" s="17">
-        <v>3</v>
-      </c>
-      <c r="I978" s="17">
+      <c r="B978" t="s">
+        <v>23</v>
+      </c>
+      <c r="C978">
+        <v>0</v>
+      </c>
+      <c r="D978">
+        <v>1</v>
+      </c>
+      <c r="E978">
+        <v>2</v>
+      </c>
+      <c r="F978">
+        <v>0</v>
+      </c>
+      <c r="G978">
+        <v>2</v>
+      </c>
+      <c r="H978">
+        <v>3</v>
+      </c>
+      <c r="I978">
         <v>8</v>
       </c>
-      <c r="J978" s="17">
-        <v>4</v>
-      </c>
-      <c r="K978" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="L978" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M978" s="17">
+      <c r="J978">
+        <v>4</v>
+      </c>
+      <c r="K978" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L978" t="s">
+        <v>0</v>
+      </c>
+      <c r="M978">
         <v>22</v>
       </c>
-      <c r="N978" s="17">
+      <c r="N978">
         <v>177</v>
       </c>
-      <c r="O978" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="979" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="O978">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="979" spans="1:15" ht="15.75" customHeight="1">
       <c r="A979" s="6">
         <v>2025</v>
       </c>
-      <c r="B979" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C979" s="18">
-        <v>1</v>
-      </c>
-      <c r="D979" s="18">
-        <v>1</v>
-      </c>
-      <c r="E979" s="18">
-        <v>2</v>
-      </c>
-      <c r="F979" s="18">
-        <v>2</v>
-      </c>
-      <c r="G979" s="18">
-        <v>2</v>
-      </c>
-      <c r="H979" s="18">
-        <v>0</v>
-      </c>
-      <c r="I979" s="18">
+      <c r="B979" t="s">
+        <v>23</v>
+      </c>
+      <c r="C979">
+        <v>1</v>
+      </c>
+      <c r="D979">
+        <v>1</v>
+      </c>
+      <c r="E979">
+        <v>2</v>
+      </c>
+      <c r="F979">
+        <v>2</v>
+      </c>
+      <c r="G979">
+        <v>2</v>
+      </c>
+      <c r="H979">
+        <v>0</v>
+      </c>
+      <c r="I979">
         <v>8</v>
       </c>
-      <c r="J979" s="18">
-        <v>5</v>
-      </c>
-      <c r="K979" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="L979" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="M979" s="18">
+      <c r="J979">
+        <v>5</v>
+      </c>
+      <c r="K979" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L979" t="s">
+        <v>1</v>
+      </c>
+      <c r="M979">
         <v>19</v>
       </c>
-      <c r="N979" s="18">
-        <v>1.63</v>
-      </c>
-      <c r="O979" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="980" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N979">
+        <v>163</v>
+      </c>
+      <c r="O979">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980" spans="1:15" ht="15.75" customHeight="1">
       <c r="A980" s="6">
         <v>2025</v>
       </c>
-      <c r="B980" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C980" s="17">
-        <v>2</v>
-      </c>
-      <c r="D980" s="17">
-        <v>3</v>
-      </c>
-      <c r="E980" s="16"/>
-      <c r="F980" s="17">
-        <v>2</v>
-      </c>
-      <c r="G980" s="17">
-        <v>3</v>
-      </c>
-      <c r="H980" s="17">
-        <v>1</v>
-      </c>
-      <c r="I980" s="17">
+      <c r="B980" t="s">
+        <v>23</v>
+      </c>
+      <c r="C980">
+        <v>2</v>
+      </c>
+      <c r="D980">
+        <v>3</v>
+      </c>
+      <c r="E980">
+        <v>0</v>
+      </c>
+      <c r="F980">
+        <v>2</v>
+      </c>
+      <c r="G980">
+        <v>3</v>
+      </c>
+      <c r="H980">
+        <v>1</v>
+      </c>
+      <c r="I980">
         <v>11</v>
       </c>
-      <c r="J980" s="17">
-        <v>5</v>
-      </c>
-      <c r="K980" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L980" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M980" s="17">
+      <c r="J980">
+        <v>5</v>
+      </c>
+      <c r="K980" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L980" t="s">
+        <v>0</v>
+      </c>
+      <c r="M980">
         <v>19</v>
       </c>
-      <c r="N980" s="17">
-        <v>1.82</v>
-      </c>
-      <c r="O980" s="16"/>
-    </row>
-    <row r="981" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N980">
+        <v>182</v>
+      </c>
+      <c r="O980">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="1:15" ht="15.75" customHeight="1">
       <c r="A981" s="6">
         <v>2025</v>
       </c>
-      <c r="B981" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C981" s="16"/>
-      <c r="D981" s="17">
-        <v>1</v>
-      </c>
-      <c r="E981" s="17">
-        <v>4</v>
-      </c>
-      <c r="F981" s="17">
-        <v>3</v>
-      </c>
-      <c r="G981" s="17">
-        <v>2</v>
-      </c>
-      <c r="H981" s="16"/>
-      <c r="I981" s="17">
+      <c r="B981" t="s">
+        <v>23</v>
+      </c>
+      <c r="C981">
+        <v>0</v>
+      </c>
+      <c r="D981">
+        <v>1</v>
+      </c>
+      <c r="E981">
+        <v>4</v>
+      </c>
+      <c r="F981">
+        <v>3</v>
+      </c>
+      <c r="G981">
+        <v>2</v>
+      </c>
+      <c r="H981">
+        <v>0</v>
+      </c>
+      <c r="I981">
         <v>10</v>
       </c>
-      <c r="J981" s="17">
-        <v>4</v>
-      </c>
-      <c r="K981" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L981" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M981" s="17">
+      <c r="J981">
+        <v>4</v>
+      </c>
+      <c r="K981" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L981" t="s">
+        <v>1</v>
+      </c>
+      <c r="M981">
         <v>21</v>
       </c>
-      <c r="N981" s="17">
-        <v>1.72</v>
-      </c>
-      <c r="O981" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="982" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N981">
+        <v>172</v>
+      </c>
+      <c r="O981">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982" spans="1:15" ht="15.75" customHeight="1">
       <c r="A982" s="6">
         <v>2025</v>
       </c>
-      <c r="B982" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C982" s="17">
-        <v>1</v>
-      </c>
-      <c r="D982" s="17">
-        <v>3</v>
-      </c>
-      <c r="E982" s="17">
-        <v>2</v>
-      </c>
-      <c r="F982" s="17">
-        <v>0</v>
-      </c>
-      <c r="G982" s="17">
-        <v>0</v>
-      </c>
-      <c r="H982" s="17">
-        <v>4</v>
-      </c>
-      <c r="I982" s="17">
+      <c r="B982" t="s">
+        <v>23</v>
+      </c>
+      <c r="C982">
+        <v>1</v>
+      </c>
+      <c r="D982">
+        <v>3</v>
+      </c>
+      <c r="E982">
+        <v>2</v>
+      </c>
+      <c r="F982">
+        <v>0</v>
+      </c>
+      <c r="G982">
+        <v>0</v>
+      </c>
+      <c r="H982">
+        <v>4</v>
+      </c>
+      <c r="I982">
         <v>10</v>
       </c>
-      <c r="J982" s="17">
-        <v>4</v>
-      </c>
-      <c r="K982" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L982" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M982" s="17">
+      <c r="J982">
+        <v>4</v>
+      </c>
+      <c r="K982" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L982" t="s">
+        <v>1</v>
+      </c>
+      <c r="M982">
         <v>19</v>
       </c>
-      <c r="N982" s="17">
+      <c r="N982">
         <v>170</v>
       </c>
-      <c r="O982" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="983" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="O982">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="983" spans="1:15" ht="15.75" customHeight="1">
       <c r="A983" s="6">
         <v>2025</v>
       </c>
-      <c r="B983" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C983" s="17">
-        <v>2</v>
-      </c>
-      <c r="D983" s="17">
-        <v>1</v>
-      </c>
-      <c r="E983" s="17">
-        <v>4</v>
-      </c>
-      <c r="F983" s="17">
-        <v>1</v>
-      </c>
-      <c r="G983" s="17">
-        <v>2</v>
-      </c>
-      <c r="H983" s="17">
-        <v>0</v>
-      </c>
-      <c r="I983" s="17">
+      <c r="B983" t="s">
+        <v>23</v>
+      </c>
+      <c r="C983">
+        <v>2</v>
+      </c>
+      <c r="D983">
+        <v>1</v>
+      </c>
+      <c r="E983">
+        <v>4</v>
+      </c>
+      <c r="F983">
+        <v>1</v>
+      </c>
+      <c r="G983">
+        <v>2</v>
+      </c>
+      <c r="H983">
+        <v>0</v>
+      </c>
+      <c r="I983">
         <v>10</v>
       </c>
-      <c r="J983" s="17">
-        <v>5</v>
-      </c>
-      <c r="K983" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="L983" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M983" s="17">
-        <v>23</v>
-      </c>
-      <c r="N983" s="17">
-        <v>1.68</v>
-      </c>
-      <c r="O983" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="984" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="J983">
+        <v>5</v>
+      </c>
+      <c r="K983" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L983" t="s">
+        <v>1</v>
+      </c>
+      <c r="M983">
+        <v>23</v>
+      </c>
+      <c r="N983">
+        <v>168</v>
+      </c>
+      <c r="O983">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="984" spans="1:15" ht="15.75" customHeight="1">
       <c r="A984" s="6">
         <v>2025</v>
       </c>
-      <c r="B984" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C984" s="17">
-        <v>2</v>
-      </c>
-      <c r="D984" s="17">
-        <v>2</v>
-      </c>
-      <c r="E984" s="17">
-        <v>1</v>
-      </c>
-      <c r="F984" s="17">
-        <v>1</v>
-      </c>
-      <c r="G984" s="17">
-        <v>2</v>
-      </c>
-      <c r="H984" s="17">
-        <v>2</v>
-      </c>
-      <c r="I984" s="17">
+      <c r="B984" t="s">
+        <v>23</v>
+      </c>
+      <c r="C984">
+        <v>2</v>
+      </c>
+      <c r="D984">
+        <v>2</v>
+      </c>
+      <c r="E984">
+        <v>1</v>
+      </c>
+      <c r="F984">
+        <v>1</v>
+      </c>
+      <c r="G984">
+        <v>2</v>
+      </c>
+      <c r="H984">
+        <v>2</v>
+      </c>
+      <c r="I984">
         <v>10</v>
       </c>
-      <c r="J984" s="17">
+      <c r="J984">
         <v>6</v>
       </c>
-      <c r="K984" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L984" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M984" s="17">
+      <c r="K984" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L984" t="s">
+        <v>1</v>
+      </c>
+      <c r="M984">
         <v>20</v>
       </c>
-      <c r="N984" s="17">
-        <v>1.74</v>
-      </c>
-      <c r="O984" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="985" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N984">
+        <v>174</v>
+      </c>
+      <c r="O984">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="985" spans="1:15" ht="15.75" customHeight="1">
       <c r="A985" s="6">
         <v>2025</v>
       </c>
-      <c r="B985" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C985" s="17">
-        <v>0</v>
-      </c>
-      <c r="D985" s="17">
-        <v>2</v>
-      </c>
-      <c r="E985" s="17">
-        <v>2</v>
-      </c>
-      <c r="F985" s="17">
-        <v>2</v>
-      </c>
-      <c r="G985" s="17">
-        <v>2</v>
-      </c>
-      <c r="H985" s="17">
-        <v>2</v>
-      </c>
-      <c r="I985" s="17">
+      <c r="B985" t="s">
+        <v>23</v>
+      </c>
+      <c r="C985">
+        <v>0</v>
+      </c>
+      <c r="D985">
+        <v>2</v>
+      </c>
+      <c r="E985">
+        <v>2</v>
+      </c>
+      <c r="F985">
+        <v>2</v>
+      </c>
+      <c r="G985">
+        <v>2</v>
+      </c>
+      <c r="H985">
+        <v>2</v>
+      </c>
+      <c r="I985">
         <v>10</v>
       </c>
-      <c r="J985" s="17">
-        <v>5</v>
-      </c>
-      <c r="K985" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="L985" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M985" s="17">
+      <c r="J985">
+        <v>5</v>
+      </c>
+      <c r="K985" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L985" t="s">
+        <v>1</v>
+      </c>
+      <c r="M985">
         <v>20</v>
       </c>
-      <c r="N985" s="17">
-        <v>1.72</v>
-      </c>
-      <c r="O985" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="986" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N985">
+        <v>172</v>
+      </c>
+      <c r="O985">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="986" spans="1:15" ht="15.75" customHeight="1">
       <c r="A986" s="6">
         <v>2025</v>
       </c>
-      <c r="B986" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C986" s="17">
-        <v>2</v>
-      </c>
-      <c r="D986" s="17">
-        <v>2</v>
-      </c>
-      <c r="E986" s="17">
-        <v>0</v>
-      </c>
-      <c r="F986" s="17">
-        <v>0</v>
-      </c>
-      <c r="G986" s="17">
-        <v>4</v>
-      </c>
-      <c r="H986" s="17">
-        <v>1</v>
-      </c>
-      <c r="I986" s="17">
+      <c r="B986" t="s">
+        <v>23</v>
+      </c>
+      <c r="C986">
+        <v>2</v>
+      </c>
+      <c r="D986">
+        <v>2</v>
+      </c>
+      <c r="E986">
+        <v>0</v>
+      </c>
+      <c r="F986">
+        <v>0</v>
+      </c>
+      <c r="G986">
+        <v>4</v>
+      </c>
+      <c r="H986">
+        <v>1</v>
+      </c>
+      <c r="I986">
         <v>9</v>
       </c>
-      <c r="J986" s="17">
-        <v>4</v>
-      </c>
-      <c r="K986" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L986" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M986" s="17">
+      <c r="J986">
+        <v>4</v>
+      </c>
+      <c r="K986" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L986" t="s">
+        <v>1</v>
+      </c>
+      <c r="M986">
         <v>20</v>
       </c>
-      <c r="N986" s="17">
-        <v>1.75</v>
-      </c>
-      <c r="O986" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="987" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N986">
+        <v>175</v>
+      </c>
+      <c r="O986">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="987" spans="1:15" ht="15.75" customHeight="1">
       <c r="A987" s="6">
         <v>2025</v>
       </c>
-      <c r="B987" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C987" s="17">
-        <v>1</v>
-      </c>
-      <c r="D987" s="16">
-        <v>0</v>
-      </c>
-      <c r="E987" s="17">
-        <v>1</v>
-      </c>
-      <c r="F987" s="17">
-        <v>3</v>
-      </c>
-      <c r="G987" s="17">
-        <v>2</v>
-      </c>
-      <c r="H987" s="17">
-        <v>3</v>
-      </c>
-      <c r="I987" s="17">
+      <c r="B987" t="s">
+        <v>23</v>
+      </c>
+      <c r="C987">
+        <v>1</v>
+      </c>
+      <c r="D987">
+        <v>0</v>
+      </c>
+      <c r="E987">
+        <v>1</v>
+      </c>
+      <c r="F987">
+        <v>3</v>
+      </c>
+      <c r="G987">
+        <v>2</v>
+      </c>
+      <c r="H987">
+        <v>3</v>
+      </c>
+      <c r="I987">
         <v>10</v>
       </c>
-      <c r="J987" s="17">
-        <v>5</v>
-      </c>
-      <c r="K987" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L987" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M987" s="17">
+      <c r="J987">
+        <v>5</v>
+      </c>
+      <c r="K987" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L987" t="s">
+        <v>1</v>
+      </c>
+      <c r="M987">
         <v>19</v>
       </c>
-      <c r="N987" s="17">
-        <v>1.75</v>
-      </c>
-      <c r="O987" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="988" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N987">
+        <v>175</v>
+      </c>
+      <c r="O987">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="988" spans="1:15" ht="15.75" customHeight="1">
       <c r="A988" s="6">
         <v>2025</v>
       </c>
-      <c r="B988" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C988" s="17">
-        <v>0</v>
-      </c>
-      <c r="D988" s="17">
-        <v>1</v>
-      </c>
-      <c r="E988" s="17">
-        <v>0</v>
-      </c>
-      <c r="F988" s="17">
-        <v>5</v>
-      </c>
-      <c r="G988" s="17">
-        <v>1</v>
-      </c>
-      <c r="H988" s="17">
-        <v>1</v>
-      </c>
-      <c r="I988" s="17">
+      <c r="B988" t="s">
+        <v>23</v>
+      </c>
+      <c r="C988">
+        <v>0</v>
+      </c>
+      <c r="D988">
+        <v>1</v>
+      </c>
+      <c r="E988">
+        <v>0</v>
+      </c>
+      <c r="F988">
+        <v>5</v>
+      </c>
+      <c r="G988">
+        <v>1</v>
+      </c>
+      <c r="H988">
+        <v>1</v>
+      </c>
+      <c r="I988">
         <v>8</v>
       </c>
-      <c r="J988" s="17">
-        <v>4</v>
-      </c>
-      <c r="K988" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L988" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M988" s="17">
+      <c r="J988">
+        <v>4</v>
+      </c>
+      <c r="K988" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L988" t="s">
+        <v>1</v>
+      </c>
+      <c r="M988">
         <v>21</v>
       </c>
-      <c r="N988" s="17">
-        <v>1.78</v>
-      </c>
-      <c r="O988" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="989" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N988">
+        <v>178</v>
+      </c>
+      <c r="O988">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="989" spans="1:15" ht="15.75" customHeight="1">
       <c r="A989" s="6">
         <v>2025</v>
       </c>
-      <c r="B989" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C989" s="17">
-        <v>4</v>
-      </c>
-      <c r="D989" s="17">
-        <v>1</v>
-      </c>
-      <c r="E989" s="17">
-        <v>3</v>
-      </c>
-      <c r="F989" s="17">
-        <v>1</v>
-      </c>
-      <c r="G989" s="16"/>
-      <c r="H989" s="17">
-        <v>1</v>
-      </c>
-      <c r="I989" s="17">
+      <c r="B989" t="s">
+        <v>23</v>
+      </c>
+      <c r="C989">
+        <v>4</v>
+      </c>
+      <c r="D989">
+        <v>1</v>
+      </c>
+      <c r="E989">
+        <v>3</v>
+      </c>
+      <c r="F989">
+        <v>1</v>
+      </c>
+      <c r="G989">
+        <v>0</v>
+      </c>
+      <c r="H989">
+        <v>1</v>
+      </c>
+      <c r="I989">
         <v>10</v>
       </c>
-      <c r="J989" s="17">
-        <v>5</v>
-      </c>
-      <c r="K989" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L989" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M989" s="17">
+      <c r="J989">
+        <v>5</v>
+      </c>
+      <c r="K989" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L989" t="s">
+        <v>1</v>
+      </c>
+      <c r="M989">
         <v>27</v>
       </c>
-      <c r="N989" s="17">
-        <v>1.6</v>
-      </c>
-      <c r="O989" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="990" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N989">
+        <v>160</v>
+      </c>
+      <c r="O989">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="990" spans="1:15" ht="15.75" customHeight="1">
       <c r="A990" s="6">
         <v>2025</v>
       </c>
-      <c r="B990" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C990" s="16"/>
-      <c r="D990" s="17">
-        <v>2</v>
-      </c>
-      <c r="E990" s="17">
-        <v>1</v>
-      </c>
-      <c r="F990" s="17">
+      <c r="B990" t="s">
+        <v>23</v>
+      </c>
+      <c r="C990">
+        <v>0</v>
+      </c>
+      <c r="D990">
+        <v>2</v>
+      </c>
+      <c r="E990">
+        <v>1</v>
+      </c>
+      <c r="F990">
         <v>6</v>
       </c>
-      <c r="G990" s="16"/>
-      <c r="H990" s="16"/>
-      <c r="I990" s="17">
+      <c r="G990">
+        <v>0</v>
+      </c>
+      <c r="H990">
+        <v>0</v>
+      </c>
+      <c r="I990">
         <v>9</v>
       </c>
-      <c r="J990" s="17">
-        <v>3</v>
-      </c>
-      <c r="K990" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L990" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M990" s="17">
+      <c r="J990">
+        <v>3</v>
+      </c>
+      <c r="K990" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L990" t="s">
+        <v>1</v>
+      </c>
+      <c r="M990">
         <v>24</v>
       </c>
-      <c r="N990" s="17">
+      <c r="N990">
         <v>173</v>
       </c>
-      <c r="O990" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="991" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="O990">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="991" spans="1:15" ht="15.75" customHeight="1">
       <c r="A991" s="6">
         <v>2025</v>
       </c>
-      <c r="B991" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C991" s="17">
-        <v>0</v>
-      </c>
-      <c r="D991" s="17">
-        <v>1</v>
-      </c>
-      <c r="E991" s="17">
-        <v>1</v>
-      </c>
-      <c r="F991" s="17">
-        <v>3</v>
-      </c>
-      <c r="G991" s="17">
-        <v>2</v>
-      </c>
-      <c r="H991" s="17">
-        <v>2</v>
-      </c>
-      <c r="I991" s="17">
+      <c r="B991" t="s">
+        <v>23</v>
+      </c>
+      <c r="C991">
+        <v>0</v>
+      </c>
+      <c r="D991">
+        <v>1</v>
+      </c>
+      <c r="E991">
+        <v>1</v>
+      </c>
+      <c r="F991">
+        <v>3</v>
+      </c>
+      <c r="G991">
+        <v>2</v>
+      </c>
+      <c r="H991">
+        <v>2</v>
+      </c>
+      <c r="I991">
         <v>9</v>
       </c>
-      <c r="J991" s="17">
-        <v>5</v>
-      </c>
-      <c r="K991" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="L991" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M991" s="17">
+      <c r="J991">
+        <v>5</v>
+      </c>
+      <c r="K991" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L991" t="s">
+        <v>1</v>
+      </c>
+      <c r="M991">
         <v>21</v>
       </c>
-      <c r="N991" s="17">
-        <v>1.74</v>
-      </c>
-      <c r="O991" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="992" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N991">
+        <v>174</v>
+      </c>
+      <c r="O991">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="992" spans="1:15" ht="15.75" customHeight="1">
       <c r="A992" s="6">
         <v>2025</v>
       </c>
-      <c r="B992" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C992" s="17">
-        <v>3</v>
-      </c>
-      <c r="D992" s="17">
-        <v>0</v>
-      </c>
-      <c r="E992" s="17">
-        <v>4</v>
-      </c>
-      <c r="F992" s="17">
-        <v>0</v>
-      </c>
-      <c r="G992" s="17">
-        <v>1</v>
-      </c>
-      <c r="H992" s="17">
-        <v>4</v>
-      </c>
-      <c r="I992" s="17">
+      <c r="B992" t="s">
+        <v>23</v>
+      </c>
+      <c r="C992">
+        <v>3</v>
+      </c>
+      <c r="D992">
+        <v>0</v>
+      </c>
+      <c r="E992">
+        <v>4</v>
+      </c>
+      <c r="F992">
+        <v>0</v>
+      </c>
+      <c r="G992">
+        <v>1</v>
+      </c>
+      <c r="H992">
+        <v>4</v>
+      </c>
+      <c r="I992">
         <v>12</v>
       </c>
-      <c r="J992" s="17">
-        <v>4</v>
-      </c>
-      <c r="K992" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L992" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M992" s="17">
+      <c r="J992">
+        <v>4</v>
+      </c>
+      <c r="K992" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L992" t="s">
+        <v>1</v>
+      </c>
+      <c r="M992">
         <v>20</v>
       </c>
-      <c r="N992" s="17">
-        <v>1.68</v>
-      </c>
-      <c r="O992" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="993" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N992">
+        <v>168</v>
+      </c>
+      <c r="O992">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="993" spans="1:15" ht="15.75" customHeight="1">
       <c r="A993" s="6">
         <v>2025</v>
       </c>
-      <c r="B993" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C993" s="17">
-        <v>0</v>
-      </c>
-      <c r="D993" s="17">
-        <v>0</v>
-      </c>
-      <c r="E993" s="17">
-        <v>0</v>
-      </c>
-      <c r="F993" s="17">
-        <v>5</v>
-      </c>
-      <c r="G993" s="17">
-        <v>1</v>
-      </c>
-      <c r="H993" s="17">
-        <v>3</v>
-      </c>
-      <c r="I993" s="17">
+      <c r="B993" t="s">
+        <v>23</v>
+      </c>
+      <c r="C993">
+        <v>0</v>
+      </c>
+      <c r="D993">
+        <v>0</v>
+      </c>
+      <c r="E993">
+        <v>0</v>
+      </c>
+      <c r="F993">
+        <v>5</v>
+      </c>
+      <c r="G993">
+        <v>1</v>
+      </c>
+      <c r="H993">
+        <v>3</v>
+      </c>
+      <c r="I993">
         <v>9</v>
       </c>
-      <c r="J993" s="17">
-        <v>3</v>
-      </c>
-      <c r="K993" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L993" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M993" s="17">
+      <c r="J993">
+        <v>3</v>
+      </c>
+      <c r="K993" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L993" t="s">
+        <v>1</v>
+      </c>
+      <c r="M993">
         <v>19</v>
       </c>
-      <c r="N993" s="17">
-        <v>1.7</v>
-      </c>
-      <c r="O993" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="994" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N993">
+        <v>170</v>
+      </c>
+      <c r="O993">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="994" spans="1:15" ht="15.75" customHeight="1">
       <c r="A994" s="6">
         <v>2025</v>
       </c>
-      <c r="B994" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C994" s="17">
-        <v>1</v>
-      </c>
-      <c r="D994" s="16"/>
-      <c r="E994" s="17">
-        <v>3</v>
-      </c>
-      <c r="F994" s="17">
-        <v>3</v>
-      </c>
-      <c r="G994" s="17">
-        <v>2</v>
-      </c>
-      <c r="H994" s="16"/>
-      <c r="I994" s="17">
+      <c r="B994" t="s">
+        <v>23</v>
+      </c>
+      <c r="C994">
+        <v>1</v>
+      </c>
+      <c r="D994">
+        <v>0</v>
+      </c>
+      <c r="E994">
+        <v>3</v>
+      </c>
+      <c r="F994">
+        <v>3</v>
+      </c>
+      <c r="G994">
+        <v>2</v>
+      </c>
+      <c r="H994">
+        <v>0</v>
+      </c>
+      <c r="I994">
         <v>9</v>
       </c>
-      <c r="J994" s="17">
-        <v>4</v>
-      </c>
-      <c r="K994" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L994" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M994" s="17">
+      <c r="J994">
+        <v>4</v>
+      </c>
+      <c r="K994" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L994" t="s">
+        <v>1</v>
+      </c>
+      <c r="M994">
         <v>21</v>
       </c>
-      <c r="N994" s="17">
-        <v>1.67</v>
-      </c>
-      <c r="O994" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="995" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N994">
+        <v>167</v>
+      </c>
+      <c r="O994">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="995" spans="1:15" ht="15.75" customHeight="1">
       <c r="A995" s="6">
         <v>2025</v>
       </c>
-      <c r="B995" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C995" s="17">
-        <v>3</v>
-      </c>
-      <c r="D995" s="17">
-        <v>2</v>
-      </c>
-      <c r="E995" s="17">
-        <v>0</v>
-      </c>
-      <c r="F995" s="17">
-        <v>1</v>
-      </c>
-      <c r="G995" s="17">
-        <v>3</v>
-      </c>
-      <c r="H995" s="17">
-        <v>1</v>
-      </c>
-      <c r="I995" s="17">
+      <c r="B995" t="s">
+        <v>23</v>
+      </c>
+      <c r="C995">
+        <v>3</v>
+      </c>
+      <c r="D995">
+        <v>2</v>
+      </c>
+      <c r="E995">
+        <v>0</v>
+      </c>
+      <c r="F995">
+        <v>1</v>
+      </c>
+      <c r="G995">
+        <v>3</v>
+      </c>
+      <c r="H995">
+        <v>1</v>
+      </c>
+      <c r="I995">
         <v>10</v>
       </c>
-      <c r="J995" s="16"/>
-      <c r="K995" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L995" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M995" s="17">
+      <c r="J995">
+        <v>5</v>
+      </c>
+      <c r="K995" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L995" t="s">
+        <v>1</v>
+      </c>
+      <c r="M995">
         <v>24</v>
       </c>
-      <c r="N995" s="17">
-        <v>1.7</v>
-      </c>
-      <c r="O995" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="996" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N995">
+        <v>170</v>
+      </c>
+      <c r="O995">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="996" spans="1:15" ht="15.75" customHeight="1">
       <c r="A996" s="6">
         <v>2025</v>
       </c>
-      <c r="B996" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C996" s="17">
-        <v>0</v>
-      </c>
-      <c r="D996" s="17">
-        <v>2</v>
-      </c>
-      <c r="E996" s="17">
-        <v>3</v>
-      </c>
-      <c r="F996" s="17">
-        <v>1</v>
-      </c>
-      <c r="G996" s="17">
-        <v>3</v>
-      </c>
-      <c r="H996" s="17">
-        <v>2</v>
-      </c>
-      <c r="I996" s="17">
+      <c r="B996" t="s">
+        <v>23</v>
+      </c>
+      <c r="C996">
+        <v>0</v>
+      </c>
+      <c r="D996">
+        <v>2</v>
+      </c>
+      <c r="E996">
+        <v>3</v>
+      </c>
+      <c r="F996">
+        <v>1</v>
+      </c>
+      <c r="G996">
+        <v>3</v>
+      </c>
+      <c r="H996">
+        <v>2</v>
+      </c>
+      <c r="I996">
         <v>11</v>
       </c>
-      <c r="J996" s="17">
-        <v>5</v>
-      </c>
-      <c r="K996" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L996" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M996" s="17">
+      <c r="J996">
+        <v>5</v>
+      </c>
+      <c r="K996" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L996" t="s">
+        <v>0</v>
+      </c>
+      <c r="M996">
         <v>24</v>
       </c>
-      <c r="N996" s="17">
+      <c r="N996">
         <v>178</v>
       </c>
-      <c r="O996" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="997" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="O996">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="997" spans="1:15" ht="15.75" customHeight="1">
       <c r="A997" s="6">
         <v>2025</v>
       </c>
-      <c r="B997" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C997" s="17">
-        <v>3</v>
-      </c>
-      <c r="D997" s="17">
-        <v>0</v>
-      </c>
-      <c r="E997" s="17">
-        <v>1</v>
-      </c>
-      <c r="F997" s="17">
-        <v>0</v>
-      </c>
-      <c r="G997" s="17">
-        <v>3</v>
-      </c>
-      <c r="H997" s="17">
-        <v>1</v>
-      </c>
-      <c r="I997" s="17">
+      <c r="B997" t="s">
+        <v>23</v>
+      </c>
+      <c r="C997">
+        <v>3</v>
+      </c>
+      <c r="D997">
+        <v>0</v>
+      </c>
+      <c r="E997">
+        <v>1</v>
+      </c>
+      <c r="F997">
+        <v>0</v>
+      </c>
+      <c r="G997">
+        <v>3</v>
+      </c>
+      <c r="H997">
+        <v>1</v>
+      </c>
+      <c r="I997">
         <v>9</v>
       </c>
-      <c r="J997" s="17">
-        <v>4</v>
-      </c>
-      <c r="K997" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L997" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M997" s="17">
+      <c r="J997">
+        <v>4</v>
+      </c>
+      <c r="K997" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L997" t="s">
+        <v>1</v>
+      </c>
+      <c r="M997">
         <v>20</v>
       </c>
-      <c r="N997" s="17">
-        <v>1.8</v>
-      </c>
-      <c r="O997" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="998" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N997">
+        <v>180</v>
+      </c>
+      <c r="O997">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="998" spans="1:15" ht="15.75" customHeight="1">
       <c r="A998" s="6">
         <v>2025</v>
       </c>
-      <c r="B998" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C998" s="17">
-        <v>1</v>
-      </c>
-      <c r="D998" s="17">
-        <v>0</v>
-      </c>
-      <c r="E998" s="17">
-        <v>5</v>
-      </c>
-      <c r="F998" s="17">
-        <v>1</v>
-      </c>
-      <c r="G998" s="17">
-        <v>0</v>
-      </c>
-      <c r="H998" s="17">
-        <v>1</v>
-      </c>
-      <c r="I998" s="17">
+      <c r="B998" t="s">
+        <v>23</v>
+      </c>
+      <c r="C998">
+        <v>1</v>
+      </c>
+      <c r="D998">
+        <v>0</v>
+      </c>
+      <c r="E998">
+        <v>5</v>
+      </c>
+      <c r="F998">
+        <v>1</v>
+      </c>
+      <c r="G998">
+        <v>0</v>
+      </c>
+      <c r="H998">
+        <v>1</v>
+      </c>
+      <c r="I998">
         <v>8</v>
       </c>
-      <c r="J998" s="17">
-        <v>4</v>
-      </c>
-      <c r="K998" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L998" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M998" s="17">
+      <c r="J998">
+        <v>4</v>
+      </c>
+      <c r="K998" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L998" t="s">
+        <v>0</v>
+      </c>
+      <c r="M998">
         <v>21</v>
       </c>
-      <c r="N998" s="17">
-        <v>1.93</v>
-      </c>
-      <c r="O998" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="999" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N998">
+        <v>193</v>
+      </c>
+      <c r="O998">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="999" spans="1:15" ht="15.75" customHeight="1">
       <c r="A999" s="6">
         <v>2025</v>
       </c>
-      <c r="B999" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C999" s="17">
-        <v>1</v>
-      </c>
-      <c r="D999" s="16"/>
-      <c r="E999" s="17">
-        <v>1</v>
-      </c>
-      <c r="F999" s="17">
-        <v>2</v>
-      </c>
-      <c r="G999" s="17">
-        <v>1</v>
-      </c>
-      <c r="H999" s="17">
-        <v>4</v>
-      </c>
-      <c r="I999" s="17">
+      <c r="B999" t="s">
+        <v>23</v>
+      </c>
+      <c r="C999">
+        <v>1</v>
+      </c>
+      <c r="D999">
+        <v>0</v>
+      </c>
+      <c r="E999">
+        <v>1</v>
+      </c>
+      <c r="F999">
+        <v>2</v>
+      </c>
+      <c r="G999">
+        <v>1</v>
+      </c>
+      <c r="H999">
+        <v>4</v>
+      </c>
+      <c r="I999">
         <v>9</v>
       </c>
-      <c r="J999" s="17">
-        <v>5</v>
-      </c>
-      <c r="K999" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L999" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M999" s="17">
+      <c r="J999">
+        <v>5</v>
+      </c>
+      <c r="K999" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L999" t="s">
+        <v>1</v>
+      </c>
+      <c r="M999">
         <v>22</v>
       </c>
-      <c r="N999" s="17">
+      <c r="N999">
         <v>169</v>
       </c>
-      <c r="O999" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="O999">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1000" s="6">
         <v>2025</v>
       </c>
-      <c r="B1000" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1000" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1000" s="16"/>
-      <c r="E1000" s="17">
-        <v>3</v>
-      </c>
-      <c r="F1000" s="17">
-        <v>2</v>
-      </c>
-      <c r="G1000" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1000" s="16"/>
-      <c r="I1000" s="17">
+      <c r="B1000" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1000">
+        <v>1</v>
+      </c>
+      <c r="D1000">
+        <v>0</v>
+      </c>
+      <c r="E1000">
+        <v>3</v>
+      </c>
+      <c r="F1000">
+        <v>2</v>
+      </c>
+      <c r="G1000">
+        <v>2</v>
+      </c>
+      <c r="H1000">
+        <v>0</v>
+      </c>
+      <c r="I1000">
         <v>8</v>
       </c>
-      <c r="J1000" s="17">
-        <v>4</v>
-      </c>
-      <c r="K1000" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1000" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1000" s="17">
+      <c r="J1000">
+        <v>4</v>
+      </c>
+      <c r="K1000" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1000" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1000">
         <v>19</v>
       </c>
-      <c r="N1000" s="17">
-        <v>1.8</v>
-      </c>
-      <c r="O1000" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N1000">
+        <v>180</v>
+      </c>
+      <c r="O1000">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1001" s="6">
         <v>2025</v>
       </c>
-      <c r="B1001" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1001" s="17">
-        <v>3</v>
-      </c>
-      <c r="D1001" s="16"/>
-      <c r="E1001" s="17">
-        <v>3</v>
-      </c>
-      <c r="F1001" s="17">
-        <v>3</v>
-      </c>
-      <c r="G1001" s="17">
-        <v>1</v>
-      </c>
-      <c r="H1001" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1001" s="17">
+      <c r="B1001" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1001">
+        <v>3</v>
+      </c>
+      <c r="D1001">
+        <v>0</v>
+      </c>
+      <c r="E1001">
+        <v>3</v>
+      </c>
+      <c r="F1001">
+        <v>3</v>
+      </c>
+      <c r="G1001">
+        <v>1</v>
+      </c>
+      <c r="H1001">
+        <v>1</v>
+      </c>
+      <c r="I1001">
         <v>11</v>
       </c>
-      <c r="J1001" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1001" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1001" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1001" s="17">
+      <c r="J1001">
+        <v>5</v>
+      </c>
+      <c r="K1001" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1001" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1001">
         <v>21</v>
       </c>
-      <c r="N1001" s="17">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="O1001" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N1001">
+        <v>207</v>
+      </c>
+      <c r="O1001">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1002" s="6">
         <v>2025</v>
       </c>
-      <c r="B1002" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1002" s="17">
-        <v>3</v>
-      </c>
-      <c r="D1002" s="17">
-        <v>1</v>
-      </c>
-      <c r="E1002" s="17">
-        <v>1</v>
-      </c>
-      <c r="F1002" s="17">
-        <v>2</v>
-      </c>
-      <c r="G1002" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1002" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1002" s="17">
+      <c r="B1002" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1002">
+        <v>3</v>
+      </c>
+      <c r="D1002">
+        <v>1</v>
+      </c>
+      <c r="E1002">
+        <v>1</v>
+      </c>
+      <c r="F1002">
+        <v>2</v>
+      </c>
+      <c r="G1002">
+        <v>2</v>
+      </c>
+      <c r="H1002">
+        <v>1</v>
+      </c>
+      <c r="I1002">
         <v>10</v>
       </c>
-      <c r="J1002" s="17">
+      <c r="J1002">
         <v>6</v>
       </c>
-      <c r="K1002" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1002" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1002" s="17">
+      <c r="K1002" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1002" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1002">
         <v>21</v>
       </c>
-      <c r="N1002" s="17">
-        <v>1.75</v>
-      </c>
-      <c r="O1002" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N1002">
+        <v>175</v>
+      </c>
+      <c r="O1002">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1003" s="6">
         <v>2025</v>
       </c>
-      <c r="B1003" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1003" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1003" s="17">
-        <v>1</v>
-      </c>
-      <c r="E1003" s="17">
-        <v>2</v>
-      </c>
-      <c r="F1003" s="17">
-        <v>1</v>
-      </c>
-      <c r="G1003" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1003" s="17">
-        <v>2</v>
-      </c>
-      <c r="I1003" s="17">
+      <c r="B1003" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1003">
+        <v>1</v>
+      </c>
+      <c r="D1003">
+        <v>1</v>
+      </c>
+      <c r="E1003">
+        <v>2</v>
+      </c>
+      <c r="F1003">
+        <v>1</v>
+      </c>
+      <c r="G1003">
+        <v>2</v>
+      </c>
+      <c r="H1003">
+        <v>2</v>
+      </c>
+      <c r="I1003">
         <v>9</v>
       </c>
-      <c r="J1003" s="17">
+      <c r="J1003">
         <v>6</v>
       </c>
-      <c r="K1003" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1003" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1003" s="17">
+      <c r="K1003" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1003" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1003">
         <v>20</v>
       </c>
-      <c r="N1003" s="17">
-        <v>1.75</v>
-      </c>
-      <c r="O1003" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N1003">
+        <v>175</v>
+      </c>
+      <c r="O1003">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1004" s="6">
         <v>2025</v>
       </c>
-      <c r="B1004" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1004" s="17">
-        <v>3</v>
-      </c>
-      <c r="D1004" s="17">
-        <v>2</v>
-      </c>
-      <c r="E1004" s="16"/>
-      <c r="F1004" s="16"/>
-      <c r="G1004" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1004" s="17">
-        <v>2</v>
-      </c>
-      <c r="I1004" s="17">
+      <c r="B1004" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1004">
+        <v>3</v>
+      </c>
+      <c r="D1004">
+        <v>2</v>
+      </c>
+      <c r="E1004">
+        <v>0</v>
+      </c>
+      <c r="F1004">
+        <v>0</v>
+      </c>
+      <c r="G1004">
+        <v>2</v>
+      </c>
+      <c r="H1004">
+        <v>2</v>
+      </c>
+      <c r="I1004">
         <v>9</v>
       </c>
-      <c r="J1004" s="17">
-        <v>4</v>
-      </c>
-      <c r="K1004" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1004" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1004" s="17">
+      <c r="J1004">
+        <v>4</v>
+      </c>
+      <c r="K1004" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1004" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1004">
         <v>21</v>
       </c>
-      <c r="N1004" s="17">
+      <c r="N1004">
         <v>188</v>
       </c>
-      <c r="O1004" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="O1004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1005" s="6">
         <v>2025</v>
       </c>
-      <c r="B1005" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1005" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1005" s="17">
-        <v>0</v>
-      </c>
-      <c r="E1005" s="17">
-        <v>1</v>
-      </c>
-      <c r="F1005" s="17">
-        <v>3</v>
-      </c>
-      <c r="G1005" s="17">
-        <v>1</v>
-      </c>
-      <c r="H1005" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1005" s="17">
+      <c r="B1005" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1005">
+        <v>1</v>
+      </c>
+      <c r="D1005">
+        <v>0</v>
+      </c>
+      <c r="E1005">
+        <v>1</v>
+      </c>
+      <c r="F1005">
+        <v>3</v>
+      </c>
+      <c r="G1005">
+        <v>1</v>
+      </c>
+      <c r="H1005">
+        <v>1</v>
+      </c>
+      <c r="I1005">
         <v>7</v>
       </c>
-      <c r="J1005" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1005" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1005" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1005" s="17">
-        <v>23</v>
-      </c>
-      <c r="N1005" s="17">
-        <v>1.93</v>
-      </c>
-      <c r="O1005" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="J1005">
+        <v>5</v>
+      </c>
+      <c r="K1005" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1005" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1005">
+        <v>23</v>
+      </c>
+      <c r="N1005">
+        <v>193</v>
+      </c>
+      <c r="O1005">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1006" s="6">
         <v>2025</v>
       </c>
-      <c r="B1006" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1006" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1006" s="16"/>
-      <c r="E1006" s="17">
-        <v>1</v>
-      </c>
-      <c r="F1006" s="17">
-        <v>3</v>
-      </c>
-      <c r="G1006" s="17">
-        <v>1</v>
-      </c>
-      <c r="H1006" s="17">
-        <v>2</v>
-      </c>
-      <c r="I1006" s="17">
+      <c r="B1006" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1006">
+        <v>1</v>
+      </c>
+      <c r="D1006">
+        <v>0</v>
+      </c>
+      <c r="E1006">
+        <v>1</v>
+      </c>
+      <c r="F1006">
+        <v>3</v>
+      </c>
+      <c r="G1006">
+        <v>1</v>
+      </c>
+      <c r="H1006">
+        <v>2</v>
+      </c>
+      <c r="I1006">
         <v>9</v>
       </c>
-      <c r="J1006" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1006" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1006" s="16"/>
-      <c r="M1006" s="16"/>
-      <c r="N1006" s="16"/>
-      <c r="O1006" s="16"/>
-    </row>
-    <row r="1007" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="J1006">
+        <v>5</v>
+      </c>
+      <c r="K1006" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1007" s="6">
         <v>2025</v>
       </c>
-      <c r="B1007" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1007" s="20">
-        <v>2</v>
-      </c>
-      <c r="D1007" s="20">
-        <v>0</v>
-      </c>
-      <c r="E1007" s="20">
-        <v>1</v>
-      </c>
-      <c r="F1007" s="20">
-        <v>2</v>
-      </c>
-      <c r="G1007" s="20">
-        <v>3</v>
-      </c>
-      <c r="H1007" s="20">
-        <v>1</v>
-      </c>
-      <c r="I1007" s="20">
+      <c r="B1007" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1007">
+        <v>2</v>
+      </c>
+      <c r="D1007">
+        <v>0</v>
+      </c>
+      <c r="E1007">
+        <v>1</v>
+      </c>
+      <c r="F1007">
+        <v>2</v>
+      </c>
+      <c r="G1007">
+        <v>3</v>
+      </c>
+      <c r="H1007">
+        <v>1</v>
+      </c>
+      <c r="I1007">
         <v>9</v>
       </c>
-      <c r="J1007" s="20">
-        <v>5</v>
-      </c>
-      <c r="K1007" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1007" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1007" s="20">
+      <c r="J1007">
+        <v>5</v>
+      </c>
+      <c r="K1007" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1007" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1007">
         <v>20</v>
       </c>
-      <c r="N1007" s="20">
-        <v>1.67</v>
-      </c>
-      <c r="O1007" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N1007">
+        <v>167</v>
+      </c>
+      <c r="O1007">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1008" s="6">
         <v>2025</v>
       </c>
-      <c r="B1008" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1008" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1008" s="17">
-        <v>1</v>
-      </c>
-      <c r="E1008" s="17">
-        <v>3</v>
-      </c>
-      <c r="F1008" s="17">
-        <v>1</v>
-      </c>
-      <c r="G1008" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1008" s="17">
-        <v>0</v>
-      </c>
-      <c r="I1008" s="17">
+      <c r="B1008" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1008">
+        <v>1</v>
+      </c>
+      <c r="D1008">
+        <v>1</v>
+      </c>
+      <c r="E1008">
+        <v>3</v>
+      </c>
+      <c r="F1008">
+        <v>1</v>
+      </c>
+      <c r="G1008">
+        <v>2</v>
+      </c>
+      <c r="H1008">
+        <v>0</v>
+      </c>
+      <c r="I1008">
         <v>8</v>
       </c>
-      <c r="J1008" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1008" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1008" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1008" s="17">
+      <c r="J1008">
+        <v>5</v>
+      </c>
+      <c r="K1008" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1008" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1008">
         <v>20</v>
       </c>
-      <c r="N1008" s="17">
+      <c r="N1008">
         <v>174</v>
       </c>
-      <c r="O1008" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="O1008">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1009" s="6">
         <v>2025</v>
       </c>
-      <c r="B1009" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1009" s="17">
-        <v>2</v>
-      </c>
-      <c r="D1009" s="17">
-        <v>2</v>
-      </c>
-      <c r="E1009" s="16"/>
-      <c r="F1009" s="17">
-        <v>2</v>
-      </c>
-      <c r="G1009" s="17">
-        <v>1</v>
-      </c>
-      <c r="H1009" s="16"/>
-      <c r="I1009" s="17">
+      <c r="B1009" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1009">
+        <v>2</v>
+      </c>
+      <c r="D1009">
+        <v>2</v>
+      </c>
+      <c r="E1009">
+        <v>0</v>
+      </c>
+      <c r="F1009">
+        <v>2</v>
+      </c>
+      <c r="G1009">
+        <v>1</v>
+      </c>
+      <c r="H1009">
+        <v>0</v>
+      </c>
+      <c r="I1009">
         <v>8</v>
       </c>
-      <c r="J1009" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1009" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1009" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1009" s="17">
-        <v>23</v>
-      </c>
-      <c r="N1009" s="17">
-        <v>1.78</v>
-      </c>
-      <c r="O1009" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="J1009">
+        <v>5</v>
+      </c>
+      <c r="K1009" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1009" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1009">
+        <v>23</v>
+      </c>
+      <c r="N1009">
+        <v>178</v>
+      </c>
+      <c r="O1009">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1010" s="6">
         <v>2025</v>
       </c>
-      <c r="B1010" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1010" s="22">
-        <v>1</v>
-      </c>
-      <c r="D1010" s="22">
-        <v>0</v>
-      </c>
-      <c r="E1010" s="22">
-        <v>2</v>
-      </c>
-      <c r="F1010" s="22">
-        <v>0</v>
-      </c>
-      <c r="G1010" s="22">
-        <v>1</v>
-      </c>
-      <c r="H1010" s="22">
-        <v>4</v>
-      </c>
-      <c r="I1010" s="22">
+      <c r="B1010" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1010">
+        <v>1</v>
+      </c>
+      <c r="D1010">
+        <v>0</v>
+      </c>
+      <c r="E1010">
+        <v>2</v>
+      </c>
+      <c r="F1010">
+        <v>0</v>
+      </c>
+      <c r="G1010">
+        <v>1</v>
+      </c>
+      <c r="H1010">
+        <v>4</v>
+      </c>
+      <c r="I1010">
         <v>8</v>
       </c>
-      <c r="J1010" s="22">
-        <v>4</v>
-      </c>
-      <c r="K1010" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1010" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1010" s="22">
+      <c r="J1010">
+        <v>4</v>
+      </c>
+      <c r="K1010" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1010" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1010">
         <v>21</v>
       </c>
-      <c r="N1010" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1010" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N1010">
+        <v>170</v>
+      </c>
+      <c r="O1010">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1011" s="6">
         <v>2025</v>
       </c>
-      <c r="B1011" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1011" s="24">
-        <v>2</v>
-      </c>
-      <c r="D1011" s="24">
-        <v>3</v>
-      </c>
-      <c r="E1011" s="24">
-        <v>1</v>
-      </c>
-      <c r="F1011" s="24">
-        <v>0</v>
-      </c>
-      <c r="G1011" s="24">
-        <v>0</v>
-      </c>
-      <c r="H1011" s="24">
-        <v>2</v>
-      </c>
-      <c r="I1011" s="24">
+      <c r="B1011" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1011">
+        <v>2</v>
+      </c>
+      <c r="D1011">
+        <v>3</v>
+      </c>
+      <c r="E1011">
+        <v>1</v>
+      </c>
+      <c r="F1011">
+        <v>0</v>
+      </c>
+      <c r="G1011">
+        <v>0</v>
+      </c>
+      <c r="H1011">
+        <v>2</v>
+      </c>
+      <c r="I1011">
         <v>8</v>
       </c>
-      <c r="J1011" s="24">
-        <v>4</v>
-      </c>
-      <c r="K1011" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1011" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1011" s="24">
+      <c r="J1011">
+        <v>4</v>
+      </c>
+      <c r="K1011" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1011" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1011">
         <v>19</v>
       </c>
-      <c r="N1011" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1011" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N1011">
+        <v>160</v>
+      </c>
+      <c r="O1011">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1012" s="6">
         <v>2025</v>
       </c>
-      <c r="B1012" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1012" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1012" s="17">
-        <v>2</v>
-      </c>
-      <c r="E1012" s="17">
-        <v>1</v>
-      </c>
-      <c r="F1012" s="17">
-        <v>1</v>
-      </c>
-      <c r="G1012" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1012" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1012" s="17">
+      <c r="B1012" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1012">
+        <v>1</v>
+      </c>
+      <c r="D1012">
+        <v>2</v>
+      </c>
+      <c r="E1012">
+        <v>1</v>
+      </c>
+      <c r="F1012">
+        <v>1</v>
+      </c>
+      <c r="G1012">
+        <v>2</v>
+      </c>
+      <c r="H1012">
+        <v>1</v>
+      </c>
+      <c r="I1012">
         <v>8</v>
       </c>
-      <c r="J1012" s="17">
+      <c r="J1012">
         <v>6</v>
       </c>
-      <c r="K1012" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1012" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1012" s="17">
+      <c r="K1012" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1012" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1012">
         <v>20</v>
       </c>
-      <c r="N1012" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1012" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N1012">
+        <v>183</v>
+      </c>
+      <c r="O1012">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1013" s="6">
         <v>2025</v>
       </c>
-      <c r="B1013" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1013" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1013" s="16"/>
-      <c r="E1013" s="17">
-        <v>5</v>
-      </c>
-      <c r="F1013" s="17">
-        <v>3</v>
-      </c>
-      <c r="G1013" s="16"/>
-      <c r="H1013" s="16"/>
-      <c r="I1013" s="16"/>
-      <c r="J1013" s="16"/>
-      <c r="K1013" s="16"/>
-      <c r="L1013" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1013" s="17">
-        <v>21</v>
-      </c>
-      <c r="N1013" s="17">
-        <v>1.68</v>
-      </c>
-      <c r="O1013" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B1013" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1013">
+        <v>0</v>
+      </c>
+      <c r="D1013">
+        <v>3</v>
+      </c>
+      <c r="E1013">
+        <v>3</v>
+      </c>
+      <c r="F1013">
+        <v>1</v>
+      </c>
+      <c r="G1013">
+        <v>1</v>
+      </c>
+      <c r="H1013">
+        <v>1</v>
+      </c>
+      <c r="I1013">
+        <v>9</v>
+      </c>
+      <c r="J1013">
+        <v>5</v>
+      </c>
+      <c r="K1013" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1013" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1013">
+        <v>22</v>
+      </c>
+      <c r="N1013">
+        <v>168</v>
+      </c>
+      <c r="O1013">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1014" s="6">
         <v>2025</v>
       </c>
-      <c r="B1014" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1014" s="17">
-        <v>3</v>
-      </c>
-      <c r="D1014" s="16"/>
-      <c r="E1014" s="17">
-        <v>2</v>
-      </c>
-      <c r="F1014" s="16"/>
-      <c r="G1014" s="17">
-        <v>1</v>
-      </c>
-      <c r="H1014" s="16"/>
-      <c r="I1014" s="16"/>
-      <c r="J1014" s="16"/>
-      <c r="K1014" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1014" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1014" s="17">
-        <v>20</v>
-      </c>
-      <c r="N1014" s="17">
-        <v>1.75</v>
-      </c>
-      <c r="O1014" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B1014" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1014">
+        <v>0</v>
+      </c>
+      <c r="D1014">
+        <v>2</v>
+      </c>
+      <c r="E1014">
+        <v>2</v>
+      </c>
+      <c r="F1014">
+        <v>1</v>
+      </c>
+      <c r="G1014">
+        <v>2</v>
+      </c>
+      <c r="H1014">
+        <v>1</v>
+      </c>
+      <c r="I1014">
+        <v>8</v>
+      </c>
+      <c r="J1014">
+        <v>5</v>
+      </c>
+      <c r="K1014" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1014" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1014">
+        <v>28</v>
+      </c>
+      <c r="N1014">
+        <v>158</v>
+      </c>
+      <c r="O1014">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1015" s="6">
         <v>2025</v>
       </c>
-      <c r="B1015" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1015" s="17">
-        <v>0</v>
-      </c>
-      <c r="D1015" s="17">
-        <v>3</v>
-      </c>
-      <c r="E1015" s="17">
-        <v>3</v>
-      </c>
-      <c r="F1015" s="17">
-        <v>1</v>
-      </c>
-      <c r="G1015" s="17">
-        <v>1</v>
-      </c>
-      <c r="H1015" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1015" s="17">
-        <v>9</v>
-      </c>
-      <c r="J1015" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1015" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1015" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1015" s="17">
-        <v>22</v>
-      </c>
-      <c r="N1015" s="17">
-        <v>1.68</v>
-      </c>
-      <c r="O1015" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B1015" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1015">
+        <v>2</v>
+      </c>
+      <c r="D1015">
+        <v>3</v>
+      </c>
+      <c r="E1015">
+        <v>4</v>
+      </c>
+      <c r="F1015">
+        <v>2</v>
+      </c>
+      <c r="G1015">
+        <v>1</v>
+      </c>
+      <c r="H1015">
+        <v>2</v>
+      </c>
+      <c r="I1015">
+        <v>14</v>
+      </c>
+      <c r="J1015">
+        <v>6</v>
+      </c>
+      <c r="K1015" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1015" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1015">
+        <v>24</v>
+      </c>
+      <c r="N1015">
+        <v>165</v>
+      </c>
+      <c r="O1015">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1016" s="6">
         <v>2025</v>
       </c>
-      <c r="B1016" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1016" s="17">
-        <v>0</v>
-      </c>
-      <c r="D1016" s="17">
-        <v>2</v>
-      </c>
-      <c r="E1016" s="17">
-        <v>2</v>
-      </c>
-      <c r="F1016" s="17">
-        <v>1</v>
-      </c>
-      <c r="G1016" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1016" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1016" s="17">
-        <v>8</v>
-      </c>
-      <c r="J1016" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1016" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1016" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1016" s="17">
-        <v>28</v>
-      </c>
-      <c r="N1016" s="17">
-        <v>1.58</v>
-      </c>
-      <c r="O1016" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B1016" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1016">
+        <v>1</v>
+      </c>
+      <c r="D1016">
+        <v>2</v>
+      </c>
+      <c r="E1016">
+        <v>1</v>
+      </c>
+      <c r="F1016">
+        <v>3</v>
+      </c>
+      <c r="G1016">
+        <v>2</v>
+      </c>
+      <c r="H1016">
+        <v>1</v>
+      </c>
+      <c r="I1016">
+        <v>10</v>
+      </c>
+      <c r="J1016">
+        <v>6</v>
+      </c>
+      <c r="K1016" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1016" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1016">
+        <v>19</v>
+      </c>
+      <c r="N1016">
+        <v>163</v>
+      </c>
+      <c r="O1016">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1017" s="6">
         <v>2025</v>
       </c>
-      <c r="B1017" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1017" s="17">
-        <v>2</v>
-      </c>
-      <c r="D1017" s="17">
-        <v>3</v>
-      </c>
-      <c r="E1017" s="17">
-        <v>4</v>
-      </c>
-      <c r="F1017" s="17">
-        <v>2</v>
-      </c>
-      <c r="G1017" s="17">
-        <v>1</v>
-      </c>
-      <c r="H1017" s="17">
-        <v>2</v>
-      </c>
-      <c r="I1017" s="17">
-        <v>14</v>
-      </c>
-      <c r="J1017" s="17">
-        <v>6</v>
-      </c>
-      <c r="K1017" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1017" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1017" s="17">
-        <v>24</v>
-      </c>
-      <c r="N1017" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1017" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B1017" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1017">
+        <v>0</v>
+      </c>
+      <c r="D1017">
+        <v>1</v>
+      </c>
+      <c r="E1017">
+        <v>2</v>
+      </c>
+      <c r="F1017">
+        <v>1</v>
+      </c>
+      <c r="G1017">
+        <v>2</v>
+      </c>
+      <c r="H1017">
+        <v>2</v>
+      </c>
+      <c r="I1017">
+        <v>8</v>
+      </c>
+      <c r="J1017">
+        <v>5</v>
+      </c>
+      <c r="K1017" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1017" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1017">
+        <v>20</v>
+      </c>
+      <c r="N1017">
+        <v>180</v>
+      </c>
+      <c r="O1017">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1018" s="6">
         <v>2025</v>
       </c>
-      <c r="B1018" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1018" s="16"/>
-      <c r="D1018" s="16"/>
-      <c r="E1018" s="16"/>
-      <c r="F1018" s="16"/>
-      <c r="G1018" s="16"/>
-      <c r="H1018" s="16"/>
-      <c r="I1018" s="16"/>
-      <c r="J1018" s="16"/>
-      <c r="K1018" s="16"/>
-      <c r="L1018" s="16"/>
-      <c r="M1018" s="16"/>
-      <c r="N1018" s="16"/>
-      <c r="O1018" s="16"/>
-    </row>
-    <row r="1019" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B1018" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1018">
+        <v>0</v>
+      </c>
+      <c r="D1018">
+        <v>2</v>
+      </c>
+      <c r="E1018">
+        <v>0</v>
+      </c>
+      <c r="F1018">
+        <v>5</v>
+      </c>
+      <c r="G1018">
+        <v>0</v>
+      </c>
+      <c r="H1018">
+        <v>1</v>
+      </c>
+      <c r="I1018">
+        <v>10</v>
+      </c>
+      <c r="J1018">
+        <v>4</v>
+      </c>
+      <c r="K1018" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1018" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1018">
+        <v>22</v>
+      </c>
+      <c r="N1018">
+        <v>200</v>
+      </c>
+      <c r="O1018">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1019" s="6">
         <v>2025</v>
       </c>
-      <c r="B1019" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1019" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1019" s="17">
-        <v>2</v>
-      </c>
-      <c r="E1019" s="17">
-        <v>1</v>
-      </c>
-      <c r="F1019" s="17">
-        <v>3</v>
-      </c>
-      <c r="G1019" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1019" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1019" s="17">
-        <v>10</v>
-      </c>
-      <c r="J1019" s="17">
+      <c r="B1019" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1019">
+        <v>1</v>
+      </c>
+      <c r="D1019">
+        <v>1</v>
+      </c>
+      <c r="E1019">
+        <v>1</v>
+      </c>
+      <c r="F1019">
+        <v>1</v>
+      </c>
+      <c r="G1019">
+        <v>1</v>
+      </c>
+      <c r="H1019">
+        <v>3</v>
+      </c>
+      <c r="I1019">
+        <v>8</v>
+      </c>
+      <c r="J1019">
         <v>6</v>
       </c>
-      <c r="K1019" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1019" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1019" s="17">
-        <v>19</v>
-      </c>
-      <c r="N1019" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1019" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="K1019" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1019" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1019">
+        <v>23</v>
+      </c>
+      <c r="N1019">
+        <v>188</v>
+      </c>
+      <c r="O1019">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1020" s="6">
         <v>2025</v>
       </c>
-      <c r="B1020" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1020" s="16"/>
-      <c r="D1020" s="17">
-        <v>1</v>
-      </c>
-      <c r="E1020" s="17">
-        <v>2</v>
-      </c>
-      <c r="F1020" s="17">
-        <v>1</v>
-      </c>
-      <c r="G1020" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1020" s="17">
-        <v>2</v>
-      </c>
-      <c r="I1020" s="17">
+      <c r="B1020" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1020">
+        <v>0</v>
+      </c>
+      <c r="D1020">
+        <v>0</v>
+      </c>
+      <c r="E1020">
+        <v>1</v>
+      </c>
+      <c r="F1020">
+        <v>2</v>
+      </c>
+      <c r="G1020">
+        <v>4</v>
+      </c>
+      <c r="H1020">
+        <v>2</v>
+      </c>
+      <c r="I1020">
+        <v>9</v>
+      </c>
+      <c r="J1020">
+        <v>4</v>
+      </c>
+      <c r="K1020" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1020" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1020" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1020" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1020" s="17">
+      <c r="L1020" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1020">
         <v>20</v>
       </c>
-      <c r="N1020" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1020" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+    </row>
+    <row r="1021" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1021" s="6">
         <v>2025</v>
       </c>
-      <c r="B1021" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1021" s="17">
-        <v>0</v>
-      </c>
-      <c r="D1021" s="17">
-        <v>2</v>
-      </c>
-      <c r="E1021" s="16"/>
-      <c r="F1021" s="17">
-        <v>5</v>
-      </c>
-      <c r="G1021" s="17">
-        <v>0</v>
-      </c>
-      <c r="H1021" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1021" s="17">
-        <v>10</v>
-      </c>
-      <c r="J1021" s="17">
-        <v>4</v>
-      </c>
-      <c r="K1021" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1021" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1021" s="17">
-        <v>22</v>
-      </c>
-      <c r="N1021" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1021" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B1021" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1021">
+        <v>2</v>
+      </c>
+      <c r="D1021">
+        <v>0</v>
+      </c>
+      <c r="E1021">
+        <v>2</v>
+      </c>
+      <c r="F1021">
+        <v>1</v>
+      </c>
+      <c r="G1021">
+        <v>4</v>
+      </c>
+      <c r="H1021">
+        <v>0</v>
+      </c>
+      <c r="I1021">
+        <v>9</v>
+      </c>
+      <c r="J1021">
+        <v>4</v>
+      </c>
+      <c r="K1021" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1021" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1021">
+        <v>21</v>
+      </c>
+      <c r="N1021">
+        <v>178</v>
+      </c>
+      <c r="O1021">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1022" s="6">
         <v>2025</v>
       </c>
-      <c r="B1022" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1022" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1022" s="17">
-        <v>1</v>
-      </c>
-      <c r="E1022" s="17">
-        <v>1</v>
-      </c>
-      <c r="F1022" s="17">
-        <v>1</v>
-      </c>
-      <c r="G1022" s="17">
-        <v>1</v>
-      </c>
-      <c r="H1022" s="17">
-        <v>3</v>
-      </c>
-      <c r="I1022" s="17">
-        <v>8</v>
-      </c>
-      <c r="J1022" s="17">
-        <v>6</v>
-      </c>
-      <c r="K1022" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1022" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1022" s="17">
-        <v>23</v>
-      </c>
-      <c r="N1022" s="17">
-        <v>188</v>
-      </c>
-      <c r="O1022" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B1022" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1022">
+        <v>2</v>
+      </c>
+      <c r="D1022">
+        <v>0</v>
+      </c>
+      <c r="E1022">
+        <v>1</v>
+      </c>
+      <c r="F1022">
+        <v>3</v>
+      </c>
+      <c r="G1022">
+        <v>1</v>
+      </c>
+      <c r="H1022">
+        <v>3</v>
+      </c>
+      <c r="I1022">
+        <v>10</v>
+      </c>
+      <c r="J1022">
+        <v>5</v>
+      </c>
+      <c r="K1022" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1022" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1022">
+        <v>21</v>
+      </c>
+      <c r="N1022">
+        <v>175</v>
+      </c>
+      <c r="O1022">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1023" s="6">
         <v>2025</v>
       </c>
-      <c r="B1023" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1023" s="14">
-        <v>0</v>
-      </c>
-      <c r="D1023" s="14">
-        <v>0</v>
-      </c>
-      <c r="E1023" s="14">
-        <v>1</v>
-      </c>
-      <c r="F1023" s="14">
-        <v>2</v>
-      </c>
-      <c r="G1023" s="14">
-        <v>4</v>
-      </c>
-      <c r="H1023" s="14">
-        <v>2</v>
-      </c>
-      <c r="I1023" s="14">
-        <v>9</v>
-      </c>
-      <c r="J1023" s="14">
-        <v>4</v>
-      </c>
-      <c r="K1023" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1023" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1023" s="14">
-        <v>20</v>
-      </c>
-      <c r="N1023" s="15"/>
-      <c r="O1023" s="15"/>
-    </row>
-    <row r="1024" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B1023" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1023">
+        <v>2</v>
+      </c>
+      <c r="D1023">
+        <v>0</v>
+      </c>
+      <c r="E1023">
+        <v>1</v>
+      </c>
+      <c r="F1023">
+        <v>2</v>
+      </c>
+      <c r="G1023">
+        <v>2</v>
+      </c>
+      <c r="H1023">
+        <v>1</v>
+      </c>
+      <c r="I1023">
+        <v>10</v>
+      </c>
+      <c r="J1023">
+        <v>5</v>
+      </c>
+      <c r="K1023" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1023" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1023">
+        <v>22</v>
+      </c>
+      <c r="N1023">
+        <v>186</v>
+      </c>
+      <c r="O1023">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1024" s="6">
         <v>2025</v>
       </c>
-      <c r="B1024" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1024" s="17">
-        <v>2</v>
-      </c>
-      <c r="D1024" s="16"/>
-      <c r="E1024" s="17">
-        <v>2</v>
-      </c>
-      <c r="F1024" s="17">
-        <v>1</v>
-      </c>
-      <c r="G1024" s="17">
-        <v>4</v>
-      </c>
-      <c r="H1024" s="16"/>
-      <c r="I1024" s="17">
-        <v>9</v>
-      </c>
-      <c r="J1024" s="16"/>
-      <c r="K1024" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1024" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1024" s="17">
+      <c r="B1024" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1024">
+        <v>2</v>
+      </c>
+      <c r="D1024">
+        <v>0</v>
+      </c>
+      <c r="E1024">
+        <v>2</v>
+      </c>
+      <c r="F1024">
+        <v>1</v>
+      </c>
+      <c r="G1024">
+        <v>4</v>
+      </c>
+      <c r="H1024">
+        <v>1</v>
+      </c>
+      <c r="I1024">
+        <v>10</v>
+      </c>
+      <c r="J1024">
+        <v>5</v>
+      </c>
+      <c r="K1024" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1024" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1024">
         <v>21</v>
       </c>
-      <c r="N1024" s="17">
-        <v>1.78</v>
-      </c>
-      <c r="O1024" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N1024">
+        <v>163</v>
+      </c>
+      <c r="O1024">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1025" s="6">
         <v>2025</v>
       </c>
-      <c r="B1025" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1025" s="17">
-        <v>2</v>
-      </c>
-      <c r="D1025" s="17">
-        <v>0</v>
-      </c>
-      <c r="E1025" s="17">
-        <v>1</v>
-      </c>
-      <c r="F1025" s="17">
-        <v>3</v>
-      </c>
-      <c r="G1025" s="17">
-        <v>1</v>
-      </c>
-      <c r="H1025" s="17">
-        <v>3</v>
-      </c>
-      <c r="I1025" s="17">
+      <c r="B1025" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1025">
+        <v>2</v>
+      </c>
+      <c r="D1025">
+        <v>0</v>
+      </c>
+      <c r="E1025">
+        <v>2</v>
+      </c>
+      <c r="F1025">
+        <v>2</v>
+      </c>
+      <c r="G1025">
+        <v>1</v>
+      </c>
+      <c r="H1025">
+        <v>3</v>
+      </c>
+      <c r="I1025">
         <v>10</v>
       </c>
-      <c r="J1025" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1025" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1025" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1025" s="17">
-        <v>21</v>
-      </c>
-      <c r="N1025" s="17">
-        <v>1.75</v>
-      </c>
-      <c r="O1025" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="J1025">
+        <v>5</v>
+      </c>
+      <c r="K1025" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1025" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1026" s="6">
         <v>2025</v>
       </c>
-      <c r="B1026" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1026" s="17">
-        <v>2</v>
-      </c>
-      <c r="D1026" s="17">
-        <v>0</v>
-      </c>
-      <c r="E1026" s="17">
-        <v>1</v>
-      </c>
-      <c r="F1026" s="17">
-        <v>2</v>
-      </c>
-      <c r="G1026" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1026" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1026" s="17">
-        <v>10</v>
-      </c>
-      <c r="J1026" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1026" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1026" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1026" s="17">
-        <v>22</v>
-      </c>
-      <c r="N1026" s="17">
-        <v>1.86</v>
-      </c>
-      <c r="O1026" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B1026" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1026">
+        <v>1</v>
+      </c>
+      <c r="D1026">
+        <v>0</v>
+      </c>
+      <c r="E1026">
+        <v>3</v>
+      </c>
+      <c r="F1026">
+        <v>4</v>
+      </c>
+      <c r="G1026">
+        <v>2</v>
+      </c>
+      <c r="H1026">
+        <v>1</v>
+      </c>
+      <c r="I1026">
+        <v>11</v>
+      </c>
+      <c r="J1026">
+        <v>5</v>
+      </c>
+      <c r="K1026" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1026" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1026">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1027" s="6">
         <v>2025</v>
       </c>
-      <c r="B1027" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1027" s="14">
-        <v>2</v>
-      </c>
-      <c r="D1027" s="14">
-        <v>0</v>
-      </c>
-      <c r="E1027" s="14">
-        <v>2</v>
-      </c>
-      <c r="F1027" s="14">
-        <v>1</v>
-      </c>
-      <c r="G1027" s="14">
-        <v>4</v>
-      </c>
-      <c r="H1027" s="14">
-        <v>1</v>
-      </c>
-      <c r="I1027" s="14">
-        <v>10</v>
-      </c>
-      <c r="J1027" s="14">
-        <v>5</v>
-      </c>
-      <c r="K1027" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1027" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1027" s="14">
-        <v>21</v>
-      </c>
-      <c r="N1027" s="14">
-        <v>1.63</v>
-      </c>
-      <c r="O1027" s="16"/>
-    </row>
-    <row r="1028" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B1027" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1027">
+        <v>2</v>
+      </c>
+      <c r="D1027">
+        <v>0</v>
+      </c>
+      <c r="E1027">
+        <v>3</v>
+      </c>
+      <c r="F1027">
+        <v>3</v>
+      </c>
+      <c r="G1027">
+        <v>0</v>
+      </c>
+      <c r="H1027">
+        <v>2</v>
+      </c>
+      <c r="I1027">
+        <v>13</v>
+      </c>
+      <c r="J1027">
+        <v>5</v>
+      </c>
+      <c r="K1027" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1027" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1027">
+        <v>20</v>
+      </c>
+      <c r="N1027">
+        <v>173</v>
+      </c>
+      <c r="O1027">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1028" s="6">
         <v>2025</v>
       </c>
-      <c r="B1028" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1028" s="17">
-        <v>2</v>
-      </c>
-      <c r="D1028" s="17">
-        <v>0</v>
-      </c>
-      <c r="E1028" s="17">
-        <v>2</v>
-      </c>
-      <c r="F1028" s="17">
-        <v>2</v>
-      </c>
-      <c r="G1028" s="17">
-        <v>1</v>
-      </c>
-      <c r="H1028" s="17">
-        <v>3</v>
-      </c>
-      <c r="I1028" s="17">
-        <v>10</v>
-      </c>
-      <c r="J1028" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1028" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1028" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1028" s="16"/>
-      <c r="N1028" s="16"/>
-      <c r="O1028" s="16"/>
-    </row>
-    <row r="1029" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B1028" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1028">
+        <v>2</v>
+      </c>
+      <c r="D1028">
+        <v>1</v>
+      </c>
+      <c r="E1028">
+        <v>2</v>
+      </c>
+      <c r="F1028">
+        <v>2</v>
+      </c>
+      <c r="G1028">
+        <v>0</v>
+      </c>
+      <c r="H1028">
+        <v>1</v>
+      </c>
+      <c r="I1028">
+        <v>8</v>
+      </c>
+      <c r="J1028">
+        <v>5</v>
+      </c>
+      <c r="K1028" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1028" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1028">
+        <v>23</v>
+      </c>
+      <c r="N1028">
+        <v>179</v>
+      </c>
+      <c r="O1028">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1029" s="6">
         <v>2025</v>
       </c>
-      <c r="B1029" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1029" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1029" s="17">
-        <v>0</v>
-      </c>
-      <c r="E1029" s="17">
-        <v>3</v>
-      </c>
-      <c r="F1029" s="17">
-        <v>4</v>
-      </c>
-      <c r="G1029" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1029" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1029" s="17">
-        <v>11</v>
-      </c>
-      <c r="J1029" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1029" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1029" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1029" s="17">
-        <v>24</v>
-      </c>
-      <c r="N1029" s="16"/>
-      <c r="O1029" s="16"/>
-    </row>
-    <row r="1030" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B1029" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1029">
+        <v>2</v>
+      </c>
+      <c r="D1029">
+        <v>0</v>
+      </c>
+      <c r="E1029">
+        <v>4</v>
+      </c>
+      <c r="F1029">
+        <v>3</v>
+      </c>
+      <c r="G1029">
+        <v>3</v>
+      </c>
+      <c r="H1029">
+        <v>0</v>
+      </c>
+      <c r="I1029">
+        <v>12</v>
+      </c>
+      <c r="J1029">
+        <v>4</v>
+      </c>
+      <c r="K1029" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1029" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1029">
+        <v>18</v>
+      </c>
+      <c r="N1029">
+        <v>186</v>
+      </c>
+      <c r="O1029">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1030" s="6">
         <v>2025</v>
       </c>
-      <c r="B1030" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1030" s="17">
-        <v>2</v>
-      </c>
-      <c r="D1030" s="17">
-        <v>0</v>
-      </c>
-      <c r="E1030" s="17">
-        <v>3</v>
-      </c>
-      <c r="F1030" s="17">
-        <v>3</v>
-      </c>
-      <c r="G1030" s="17">
-        <v>0</v>
-      </c>
-      <c r="H1030" s="17">
-        <v>2</v>
-      </c>
-      <c r="I1030" s="17">
-        <v>13</v>
-      </c>
-      <c r="J1030" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1030" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1030" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1030" s="17">
-        <v>20</v>
-      </c>
-      <c r="N1030" s="17">
-        <v>173</v>
-      </c>
-      <c r="O1030" s="16"/>
-    </row>
-    <row r="1031" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B1030" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1030">
+        <v>0</v>
+      </c>
+      <c r="D1030">
+        <v>0</v>
+      </c>
+      <c r="E1030">
+        <v>0</v>
+      </c>
+      <c r="F1030">
+        <v>3</v>
+      </c>
+      <c r="G1030">
+        <v>2</v>
+      </c>
+      <c r="H1030">
+        <v>4</v>
+      </c>
+      <c r="I1030">
+        <v>9</v>
+      </c>
+      <c r="J1030">
+        <v>3</v>
+      </c>
+      <c r="K1030" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1030" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1030">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1031" s="6">
         <v>2025</v>
       </c>
-      <c r="B1031" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1031" s="17">
-        <v>2</v>
-      </c>
-      <c r="D1031" s="17">
-        <v>1</v>
-      </c>
-      <c r="E1031" s="17">
-        <v>2</v>
-      </c>
-      <c r="F1031" s="17">
-        <v>2</v>
-      </c>
-      <c r="G1031" s="17">
-        <v>0</v>
-      </c>
-      <c r="H1031" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1031" s="17">
+      <c r="B1031" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1031">
+        <v>3</v>
+      </c>
+      <c r="D1031">
+        <v>0</v>
+      </c>
+      <c r="E1031">
+        <v>0</v>
+      </c>
+      <c r="F1031">
+        <v>2</v>
+      </c>
+      <c r="G1031">
+        <v>0</v>
+      </c>
+      <c r="H1031">
+        <v>3</v>
+      </c>
+      <c r="I1031">
         <v>8</v>
       </c>
-      <c r="J1031" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1031" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1031" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1031" s="17">
-        <v>23</v>
-      </c>
-      <c r="N1031" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1031" s="16"/>
-    </row>
-    <row r="1032" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="J1031">
+        <v>3</v>
+      </c>
+      <c r="K1031" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1031" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1031">
+        <v>21</v>
+      </c>
+      <c r="N1031">
+        <v>178</v>
+      </c>
+      <c r="O1031">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1032" s="6">
         <v>2025</v>
       </c>
-      <c r="B1032" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1032" s="17">
-        <v>2</v>
-      </c>
-      <c r="D1032" s="17">
-        <v>0</v>
-      </c>
-      <c r="E1032" s="17">
-        <v>4</v>
-      </c>
-      <c r="F1032" s="17">
-        <v>3</v>
-      </c>
-      <c r="G1032" s="17">
-        <v>3</v>
-      </c>
-      <c r="H1032" s="17">
-        <v>0</v>
-      </c>
-      <c r="I1032" s="17">
-        <v>12</v>
-      </c>
-      <c r="J1032" s="17">
-        <v>4</v>
-      </c>
-      <c r="K1032" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1032" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1032" s="17">
-        <v>18</v>
-      </c>
-      <c r="N1032" s="17">
-        <v>186</v>
-      </c>
-      <c r="O1032" s="16"/>
-    </row>
-    <row r="1033" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B1032" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1032">
+        <v>2</v>
+      </c>
+      <c r="D1032">
+        <v>1</v>
+      </c>
+      <c r="E1032">
+        <v>2</v>
+      </c>
+      <c r="F1032">
+        <v>3</v>
+      </c>
+      <c r="G1032">
+        <v>1</v>
+      </c>
+      <c r="H1032">
+        <v>1</v>
+      </c>
+      <c r="I1032">
+        <v>10</v>
+      </c>
+      <c r="J1032">
+        <v>6</v>
+      </c>
+      <c r="K1032" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1032" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1032">
+        <v>22</v>
+      </c>
+      <c r="N1032">
+        <v>176</v>
+      </c>
+      <c r="O1032">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1033" s="6">
         <v>2025</v>
       </c>
-      <c r="B1033" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1033" s="17">
-        <v>0</v>
-      </c>
-      <c r="D1033" s="17">
-        <v>0</v>
-      </c>
-      <c r="E1033" s="17">
-        <v>0</v>
-      </c>
-      <c r="F1033" s="17">
-        <v>3</v>
-      </c>
-      <c r="G1033" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1033" s="17">
-        <v>4</v>
-      </c>
-      <c r="I1033" s="17">
+      <c r="B1033" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1033">
+        <v>1</v>
+      </c>
+      <c r="D1033">
+        <v>0</v>
+      </c>
+      <c r="E1033">
+        <v>2</v>
+      </c>
+      <c r="F1033">
+        <v>2</v>
+      </c>
+      <c r="G1033">
+        <v>2</v>
+      </c>
+      <c r="H1033">
+        <v>2</v>
+      </c>
+      <c r="I1033">
         <v>9</v>
       </c>
-      <c r="J1033" s="17">
-        <v>3</v>
-      </c>
-      <c r="K1033" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1033" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1033" s="17">
-        <v>28</v>
-      </c>
-      <c r="N1033" s="16"/>
-      <c r="O1033" s="16"/>
-    </row>
-    <row r="1034" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1034" s="6">
-        <v>2025</v>
-      </c>
-      <c r="B1034" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1034" s="17">
-        <v>3</v>
-      </c>
-      <c r="D1034" s="16"/>
-      <c r="E1034" s="16"/>
-      <c r="F1034" s="17">
-        <v>2</v>
-      </c>
-      <c r="G1034" s="16"/>
-      <c r="H1034" s="17">
-        <v>3</v>
-      </c>
-      <c r="I1034" s="17">
-        <v>8</v>
-      </c>
-      <c r="J1034" s="17">
-        <v>3</v>
-      </c>
-      <c r="K1034" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1034" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1034" s="17">
-        <v>21</v>
-      </c>
-      <c r="N1034" s="17">
-        <v>178</v>
-      </c>
-      <c r="O1034" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1035" s="6">
-        <v>2025</v>
-      </c>
-      <c r="B1035" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1035" s="17">
-        <v>2</v>
-      </c>
-      <c r="D1035" s="17">
-        <v>1</v>
-      </c>
-      <c r="E1035" s="17">
-        <v>2</v>
-      </c>
-      <c r="F1035" s="17">
-        <v>3</v>
-      </c>
-      <c r="G1035" s="17">
-        <v>1</v>
-      </c>
-      <c r="H1035" s="17">
-        <v>1</v>
-      </c>
-      <c r="I1035" s="17">
-        <v>10</v>
-      </c>
-      <c r="J1035" s="17">
-        <v>6</v>
-      </c>
-      <c r="K1035" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1035" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1035" s="17">
-        <v>22</v>
-      </c>
-      <c r="N1035" s="17">
-        <v>176</v>
-      </c>
-      <c r="O1035" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1036" s="6">
-        <v>2025</v>
-      </c>
-      <c r="B1036" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1036" s="17">
-        <v>1</v>
-      </c>
-      <c r="D1036" s="16"/>
-      <c r="E1036" s="17">
-        <v>2</v>
-      </c>
-      <c r="F1036" s="17">
-        <v>2</v>
-      </c>
-      <c r="G1036" s="17">
-        <v>2</v>
-      </c>
-      <c r="H1036" s="17">
-        <v>2</v>
-      </c>
-      <c r="I1036" s="17">
-        <v>9</v>
-      </c>
-      <c r="J1036" s="17">
-        <v>5</v>
-      </c>
-      <c r="K1036" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1036" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1036" s="17">
+      <c r="J1033">
+        <v>5</v>
+      </c>
+      <c r="K1033" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1033" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1033">
         <v>24</v>
       </c>
-      <c r="N1036" s="17">
+      <c r="N1033">
         <v>170</v>
       </c>
-      <c r="O1036" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1037" s="16"/>
-      <c r="D1037" s="16"/>
-      <c r="E1037" s="16"/>
-      <c r="F1037" s="16"/>
-      <c r="G1037" s="16"/>
-      <c r="H1037" s="16"/>
-      <c r="I1037" s="16"/>
-      <c r="J1037" s="16"/>
-      <c r="K1037" s="16"/>
-      <c r="L1037" s="16"/>
-      <c r="M1037" s="16"/>
-      <c r="N1037" s="16"/>
-      <c r="O1037" s="16"/>
-    </row>
-    <row r="1038" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1038" s="16"/>
-      <c r="D1038" s="16"/>
-      <c r="E1038" s="16"/>
-      <c r="F1038" s="16"/>
-      <c r="G1038" s="16"/>
-      <c r="H1038" s="16"/>
-      <c r="I1038" s="16"/>
-      <c r="J1038" s="16"/>
-      <c r="K1038" s="16"/>
-      <c r="L1038" s="16"/>
-      <c r="M1038" s="16"/>
-      <c r="N1038" s="16"/>
-      <c r="O1038" s="16"/>
-    </row>
-    <row r="1039" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1039" s="16"/>
-      <c r="D1039" s="16"/>
-      <c r="E1039" s="16"/>
-      <c r="F1039" s="16"/>
-      <c r="G1039" s="16"/>
-      <c r="H1039" s="16"/>
-      <c r="I1039" s="16"/>
-      <c r="J1039" s="16"/>
-      <c r="K1039" s="16"/>
-      <c r="L1039" s="16"/>
-      <c r="M1039" s="16"/>
-      <c r="N1039" s="16"/>
-      <c r="O1039" s="16"/>
-    </row>
-    <row r="1040" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1040" s="16"/>
-      <c r="D1040" s="16"/>
-      <c r="E1040" s="16"/>
-      <c r="F1040" s="16"/>
-      <c r="G1040" s="16"/>
-      <c r="H1040" s="16"/>
-      <c r="I1040" s="16"/>
-      <c r="J1040" s="16"/>
-      <c r="K1040" s="16"/>
-      <c r="L1040" s="16"/>
-      <c r="M1040" s="16"/>
-      <c r="N1040" s="16"/>
-      <c r="O1040" s="16"/>
-    </row>
-    <row r="1041" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1041" s="16"/>
-      <c r="D1041" s="16"/>
-      <c r="E1041" s="16"/>
-      <c r="F1041" s="16"/>
-      <c r="G1041" s="16"/>
-      <c r="H1041" s="16"/>
-      <c r="I1041" s="16"/>
-      <c r="J1041" s="16"/>
-      <c r="K1041" s="16"/>
-      <c r="L1041" s="16"/>
-      <c r="M1041" s="16"/>
-      <c r="N1041" s="16"/>
-      <c r="O1041" s="16"/>
-    </row>
-    <row r="1042" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1042" s="16"/>
-      <c r="D1042" s="16"/>
-      <c r="E1042" s="16"/>
-      <c r="F1042" s="16"/>
-      <c r="G1042" s="16"/>
-      <c r="H1042" s="16"/>
-      <c r="I1042" s="16"/>
-      <c r="J1042" s="16"/>
-      <c r="K1042" s="16"/>
-      <c r="L1042" s="16"/>
-      <c r="M1042" s="16"/>
-      <c r="N1042" s="16"/>
-      <c r="O1042" s="16"/>
-    </row>
-    <row r="1043" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1043" s="16"/>
-      <c r="D1043" s="16"/>
-      <c r="E1043" s="16"/>
-      <c r="F1043" s="16"/>
-      <c r="G1043" s="16"/>
-      <c r="H1043" s="16"/>
-      <c r="I1043" s="16"/>
-      <c r="J1043" s="16"/>
-      <c r="K1043" s="16"/>
-      <c r="L1043" s="16"/>
-      <c r="M1043" s="16"/>
-      <c r="N1043" s="16"/>
-      <c r="O1043" s="16"/>
-    </row>
-    <row r="1044" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1044" s="16"/>
-      <c r="D1044" s="16"/>
-      <c r="E1044" s="16"/>
-      <c r="F1044" s="16"/>
-      <c r="G1044" s="16"/>
-      <c r="H1044" s="16"/>
-      <c r="I1044" s="16"/>
-      <c r="J1044" s="16"/>
-      <c r="K1044" s="16"/>
-      <c r="L1044" s="16"/>
-      <c r="M1044" s="16"/>
-      <c r="N1044" s="16"/>
-      <c r="O1044" s="16"/>
-    </row>
-    <row r="1045" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1045" s="16"/>
-      <c r="D1045" s="16"/>
-      <c r="E1045" s="16"/>
-      <c r="F1045" s="16"/>
-      <c r="G1045" s="16"/>
-      <c r="H1045" s="16"/>
-      <c r="I1045" s="16"/>
-      <c r="J1045" s="16"/>
-      <c r="K1045" s="16"/>
-      <c r="L1045" s="16"/>
-      <c r="M1045" s="16"/>
-      <c r="N1045" s="16"/>
-      <c r="O1045" s="16"/>
-    </row>
-    <row r="1046" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1046" s="16"/>
-      <c r="D1046" s="16"/>
-      <c r="E1046" s="16"/>
-      <c r="F1046" s="16"/>
-      <c r="G1046" s="16"/>
-      <c r="H1046" s="16"/>
-      <c r="I1046" s="16"/>
-      <c r="J1046" s="16"/>
-      <c r="K1046" s="16"/>
-      <c r="L1046" s="16"/>
-      <c r="M1046" s="16"/>
-      <c r="N1046" s="16"/>
-      <c r="O1046" s="16"/>
-    </row>
-    <row r="1047" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1047" s="16"/>
-      <c r="D1047" s="16"/>
-      <c r="E1047" s="16"/>
-      <c r="F1047" s="16"/>
-      <c r="G1047" s="16"/>
-      <c r="H1047" s="16"/>
-      <c r="I1047" s="16"/>
-      <c r="J1047" s="16"/>
-      <c r="K1047" s="16"/>
-      <c r="L1047" s="16"/>
-      <c r="M1047" s="16"/>
-      <c r="N1047" s="16"/>
-      <c r="O1047" s="16"/>
-    </row>
-    <row r="1048" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1048" s="16"/>
-      <c r="D1048" s="16"/>
-      <c r="E1048" s="16"/>
-      <c r="F1048" s="16"/>
-      <c r="G1048" s="16"/>
-      <c r="H1048" s="16"/>
-      <c r="I1048" s="16"/>
-      <c r="J1048" s="16"/>
-      <c r="K1048" s="16"/>
-      <c r="L1048" s="16"/>
-      <c r="M1048" s="16"/>
-      <c r="N1048" s="16"/>
-      <c r="O1048" s="16"/>
-    </row>
-    <row r="1049" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1049" s="16"/>
-      <c r="D1049" s="16"/>
-      <c r="E1049" s="16"/>
-      <c r="F1049" s="16"/>
-      <c r="G1049" s="16"/>
-      <c r="H1049" s="16"/>
-      <c r="I1049" s="16"/>
-      <c r="J1049" s="16"/>
-      <c r="K1049" s="16"/>
-      <c r="L1049" s="16"/>
-      <c r="M1049" s="16"/>
-      <c r="N1049" s="16"/>
-      <c r="O1049" s="16"/>
-    </row>
-    <row r="1050" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C1050" s="16"/>
-      <c r="D1050" s="16"/>
-      <c r="E1050" s="16"/>
-      <c r="F1050" s="16"/>
-      <c r="G1050" s="16"/>
-      <c r="H1050" s="16"/>
-      <c r="I1050" s="16"/>
-      <c r="J1050" s="16"/>
-      <c r="K1050" s="16"/>
-      <c r="L1050" s="16"/>
-      <c r="M1050" s="16"/>
-      <c r="N1050" s="16"/>
-      <c r="O1050" s="16"/>
+      <c r="O1033">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
